--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F04FE60-35E7-49F7-BE06-62DE89AB33AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E95CFAF-11EB-49B1-807C-7783D8A242F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="5" r:id="rId2"/>
-    <sheet name="Professionnels" sheetId="3" r:id="rId3"/>
-    <sheet name="ProfTaux" sheetId="4" r:id="rId4"/>
-    <sheet name="PlanComptable" sheetId="2" r:id="rId5"/>
+    <sheet name="Professionnels" sheetId="3" r:id="rId2"/>
+    <sheet name="ProfTaux" sheetId="4" r:id="rId3"/>
+    <sheet name="PlanComptable" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="2152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="2153">
   <si>
     <t>Exxon Mobil Corporation</t>
   </si>
@@ -6496,6 +6495,9 @@
   </si>
   <si>
     <t>AB Volvo Car</t>
+  </si>
+  <si>
+    <t>Gestion ABCD inc.</t>
   </si>
 </sst>
 </file>
@@ -6573,7 +6575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -6716,12 +6718,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="6" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6843,12 +6871,66 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="67">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1F5E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1F5E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1F5E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF5F8EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="6" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="6" tint="-0.49803155613879818"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7108,47 +7190,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="6" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFF5F8EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7202,6 +7246,27 @@
             <color theme="6" tint="-0.49803155613879818"/>
           </stop>
         </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1F5E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1F5E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF1F5E7"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -7653,10 +7718,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FFC8C2-57F2-4B29-8BB0-D03F792CD856}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:K2021"/>
+  <dimension ref="A1:K2022"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23830,12 +23895,20 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="2021" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2021" s="15">
+    <row r="2021" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2021" s="43">
         <v>2020</v>
       </c>
-      <c r="B2021" s="16" t="s">
+      <c r="B2021" s="44" t="s">
         <v>1999</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2022" s="30">
+        <v>2021</v>
+      </c>
+      <c r="B2022" s="45" t="s">
+        <v>2152</v>
       </c>
     </row>
   </sheetData>
@@ -23843,88 +23916,113 @@
     <sortCondition ref="B2:B2011"/>
   </sortState>
   <conditionalFormatting sqref="A2:B2021">
-    <cfRule type="expression" dxfId="62" priority="20">
+    <cfRule type="expression" dxfId="66" priority="25">
       <formula>#REF!=ROW()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B8 A14:B15 A10:A11">
-    <cfRule type="expression" dxfId="61" priority="21">
+    <cfRule type="expression" dxfId="65" priority="26">
       <formula>AND($L2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2021">
-    <cfRule type="expression" dxfId="60" priority="19">
+    <cfRule type="expression" dxfId="64" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B11">
-    <cfRule type="expression" dxfId="59" priority="22">
+    <cfRule type="expression" dxfId="63" priority="27">
       <formula>AND($L2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 A14:B14 A2:B2 A12:B12 A10 A7:B8">
-    <cfRule type="expression" dxfId="58" priority="18">
+    <cfRule type="expression" dxfId="62" priority="23">
       <formula>AND($L1048575&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2021">
-    <cfRule type="expression" dxfId="57" priority="23">
+    <cfRule type="expression" dxfId="61" priority="28">
       <formula>AND($L1048563&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3 A13:B13 A9">
-    <cfRule type="expression" dxfId="56" priority="24">
+    <cfRule type="expression" dxfId="60" priority="29">
       <formula>AND(#REF!&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 A12:B12 A8">
-    <cfRule type="expression" dxfId="55" priority="25">
+    <cfRule type="expression" dxfId="59" priority="30">
       <formula>AND($L1&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3 A13:B13 A9">
-    <cfRule type="expression" dxfId="54" priority="26">
+    <cfRule type="expression" dxfId="58" priority="31">
       <formula>AND(#REF!&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:B5 A15:B15 A11">
-    <cfRule type="expression" dxfId="53" priority="27">
+    <cfRule type="expression" dxfId="57" priority="32">
       <formula>AND(#REF!&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:B22 A32:B36 A46:B50 A60:B64 A74:B78 A88:B92 A102:B106 A116:B120 A130:B134 A144:B148 A158:B162 A172:B176 A186:B190 A200:B204 A214:B218 A228:B232 A242:B246 A256:B260 A270:B274 A284:B288 A298:B302 A312:B316 A326:B330 A340:B344 A354:B358 A368:B372 A382:B386 A396:B400 A410:B414 A424:B428 A438:B442 A452:B456 A466:B470 A480:B484 A494:B498 A508:B512 A522:B526 A536:B540 A550:B554 A564:B568 A578:B582 A592:B596 A606:B610 A620:B624 A634:B638 A648:B652 A662:B666 A676:B680 A690:B694 A704:B708 A718:B722 A732:B736 A746:B750 A760:B764 A774:B778 A788:B792 A802:B806 A816:B820 A830:B834 A844:B848 A858:B862 A872:B876 A886:B890 A900:B904 A914:B918 A928:B932 A942:B946 A956:B960 A970:B974 A984:B988 A998:B1002 A1012:B1016 A1026:B1030 A1040:B1044 A1054:B1058 A1068:B1072 A1082:B1086 A1096:B1100 A1110:B1114 A1124:B1128 A1138:B1142 A1152:B1156 A1166:B1170 A1180:B1184 A1194:B1198 A1208:B1212 A1222:B1226 A1236:B1240 A1250:B1254 A1264:B1268 A1278:B1282 A1292:B1296 A1306:B1310 A1320:B1324 A1334:B1338 A1348:B1352 A1362:B1366 A1376:B1380 A1390:B1394 A1404:B1408 A1418:B1422 A1432:B1436 A1446:B1450 A1460:B1464 A1474:B1478 A1488:B1492 A1502:B1506 A1516:B1520 A1530:B1534 A1544:B1548 A1558:B1562 A1572:B1576 A1586:B1590 A1600:B1604 A1614:B1618 A1628:B1632 A1642:B1646 A1656:B1660 A1670:B1674 A1684:B1688 A1698:B1702 A1712:B1716 A1726:B1730 A1740:B1744 A1754:B1758 A1768:B1772 A1782:B1786 A1796:B1800 A1810:B1814 A1824:B1828 A1838:B1842 A1852:B1856 A1866:B1870 A1880:B1884 A1894:B1898 A1908:B1912 A1922:B1926 A1936:B1940 A1950:B1954 A1964:B1968 A1978:B1982 A1992:B1996 A2006:B2010 A2020:B2021 A28:B29 A42:B43 A56:B57 A70:B71 A84:B85 A98:B99 A112:B113 A126:B127 A140:B141 A154:B155 A168:B169 A182:B183 A196:B197 A210:B211 A224:B225 A238:B239 A252:B253 A266:B267 A280:B281 A294:B295 A308:B309 A322:B323 A336:B337 A350:B351 A364:B365 A378:B379 A392:B393 A406:B407 A420:B421 A434:B435 A448:B449 A462:B463 A476:B477 A490:B491 A504:B505 A518:B519 A532:B533 A546:B547 A560:B561 A574:B575 A588:B589 A602:B603 A616:B617 A630:B631 A644:B645 A658:B659 A672:B673 A686:B687 A700:B701 A714:B715 A728:B729 A742:B743 A756:B757 A770:B771 A784:B785 A798:B799 A812:B813 A826:B827 A840:B841 A854:B855 A868:B869 A882:B883 A896:B897 A910:B911 A924:B925 A938:B939 A952:B953 A966:B967 A980:B981 A994:B995 A1008:B1009 A1022:B1023 A1036:B1037 A1050:B1051 A1064:B1065 A1078:B1079 A1092:B1093 A1106:B1107 A1120:B1121 A1134:B1135 A1148:B1149 A1162:B1163 A1176:B1177 A1190:B1191 A1204:B1205 A1218:B1219 A1232:B1233 A1246:B1247 A1260:B1261 A1274:B1275 A1288:B1289 A1302:B1303 A1316:B1317 A1330:B1331 A1344:B1345 A1358:B1359 A1372:B1373 A1386:B1387 A1400:B1401 A1414:B1415 A1428:B1429 A1442:B1443 A1456:B1457 A1470:B1471 A1484:B1485 A1498:B1499 A1512:B1513 A1526:B1527 A1540:B1541 A1554:B1555 A1568:B1569 A1582:B1583 A1596:B1597 A1610:B1611 A1624:B1625 A1638:B1639 A1652:B1653 A1666:B1667 A1680:B1681 A1694:B1695 A1708:B1709 A1722:B1723 A1736:B1737 A1750:B1751 A1764:B1765 A1778:B1779 A1792:B1793 A1806:B1807 A1820:B1821 A1834:B1835 A1848:B1849 A1862:B1863 A1876:B1877 A1890:B1891 A1904:B1905 A1918:B1919 A1932:B1933 A1946:B1947 A1960:B1961 A1974:B1975 A1988:B1989 A2002:B2003 A2016:B2017 A24:A25 A38:A39 A52:A53 A66:A67 A80:A81 A94:A95 A108:A109 A122:A123 A136:A137 A150:A151 A164:A165 A178:A179 A192:A193 A206:A207 A220:A221 A234:A235 A248:A249 A262:A263 A276:A277 A290:A291 A304:A305 A318:A319 A332:A333 A346:A347 A360:A361 A374:A375 A388:A389 A402:A403 A416:A417 A430:A431 A444:A445 A458:A459 A472:A473 A486:A487 A500:A501 A514:A515 A528:A529 A542:A543 A556:A557 A570:A571 A584:A585 A598:A599 A612:A613 A626:A627 A640:A641 A654:A655 A668:A669 A682:A683 A696:A697 A710:A711 A724:A725 A738:A739 A752:A753 A766:A767 A780:A781 A794:A795 A808:A809 A822:A823 A836:A837 A850:A851 A864:A865 A878:A879 A892:A893 A906:A907 A920:A921 A934:A935 A948:A949 A962:A963 A976:A977 A990:A991 A1004:A1005 A1018:A1019 A1032:A1033 A1046:A1047 A1060:A1061 A1074:A1075 A1088:A1089 A1102:A1103 A1116:A1117 A1130:A1131 A1144:A1145 A1158:A1159 A1172:A1173 A1186:A1187 A1200:A1201 A1214:A1215 A1228:A1229 A1242:A1243 A1256:A1257 A1270:A1271 A1284:A1285 A1298:A1299 A1312:A1313 A1326:A1327 A1340:A1341 A1354:A1355 A1368:A1369 A1382:A1383 A1396:A1397 A1410:A1411 A1424:A1425 A1438:A1439 A1452:A1453 A1466:A1467 A1480:A1481 A1494:A1495 A1508:A1509 A1522:A1523 A1536:A1537 A1550:A1551 A1564:A1565 A1578:A1579 A1592:A1593 A1606:A1607 A1620:A1621 A1634:A1635 A1648:A1649 A1662:A1663 A1676:A1677 A1690:A1691 A1704:A1705 A1718:A1719 A1732:A1733 A1746:A1747 A1760:A1761 A1774:A1775 A1788:A1789 A1802:A1803 A1816:A1817 A1830:A1831 A1844:A1845 A1858:A1859 A1872:A1873 A1886:A1887 A1900:A1901 A1914:A1915 A1928:A1929 A1942:A1943 A1956:A1957 A1970:A1971 A1984:A1985 A1998:A1999 A2012:A2013">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="56" priority="7">
       <formula>AND($L16&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B25 A34:B39 A48:B53 A62:B67 A76:B81 A90:B95 A104:B109 A118:B123 A132:B137 A146:B151 A160:B165 A174:B179 A188:B193 A202:B207 A216:B221 A230:B235 A244:B249 A258:B263 A272:B277 A286:B291 A300:B305 A314:B319 A328:B333 A342:B347 A356:B361 A370:B375 A384:B389 A398:B403 A412:B417 A426:B431 A440:B445 A454:B459 A468:B473 A482:B487 A496:B501 A510:B515 A524:B529 A538:B543 A552:B557 A566:B571 A580:B585 A594:B599 A608:B613 A622:B627 A636:B641 A650:B655 A664:B669 A678:B683 A692:B697 A706:B711 A720:B725 A734:B739 A748:B753 A762:B767 A776:B781 A790:B795 A804:B809 A818:B823 A832:B837 A846:B851 A860:B865 A874:B879 A888:B893 A902:B907 A916:B921 A930:B935 A944:B949 A958:B963 A972:B977 A986:B991 A1000:B1005 A1014:B1019 A1028:B1033 A1042:B1047 A1056:B1061 A1070:B1075 A1084:B1089 A1098:B1103 A1112:B1117 A1126:B1131 A1140:B1145 A1154:B1159 A1168:B1173 A1182:B1187 A1196:B1201 A1210:B1215 A1224:B1229 A1238:B1243 A1252:B1257 A1266:B1271 A1280:B1285 A1294:B1299 A1308:B1313 A1322:B1327 A1336:B1341 A1350:B1355 A1364:B1369 A1378:B1383 A1392:B1397 A1406:B1411 A1420:B1425 A1434:B1439 A1448:B1453 A1462:B1467 A1476:B1481 A1490:B1495 A1504:B1509 A1518:B1523 A1532:B1537 A1546:B1551 A1560:B1565 A1574:B1579 A1588:B1593 A1602:B1607 A1616:B1621 A1630:B1635 A1644:B1649 A1658:B1663 A1672:B1677 A1686:B1691 A1700:B1705 A1714:B1719 A1728:B1733 A1742:B1747 A1756:B1761 A1770:B1775 A1784:B1789 A1798:B1803 A1812:B1817 A1826:B1831 A1840:B1845 A1854:B1859 A1868:B1873 A1882:B1887 A1896:B1901 A1910:B1915 A1924:B1929 A1938:B1943 A1952:B1957 A1966:B1971 A1980:B1985 A1994:B1999 A2008:B2013">
-    <cfRule type="expression" dxfId="51" priority="3">
+    <cfRule type="expression" dxfId="55" priority="8">
       <formula>AND($L16&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:B18 A32:B32 A46:B46 A60:B60 A74:B74 A88:B88 A102:B102 A116:B116 A130:B130 A144:B144 A158:B158 A172:B172 A186:B186 A200:B200 A214:B214 A228:B228 A242:B242 A256:B256 A270:B270 A284:B284 A298:B298 A312:B312 A326:B326 A340:B340 A354:B354 A368:B368 A382:B382 A396:B396 A410:B410 A424:B424 A438:B438 A452:B452 A466:B466 A480:B480 A494:B494 A508:B508 A522:B522 A536:B536 A550:B550 A564:B564 A578:B578 A592:B592 A606:B606 A620:B620 A634:B634 A648:B648 A662:B662 A676:B676 A690:B690 A704:B704 A718:B718 A732:B732 A746:B746 A760:B760 A774:B774 A788:B788 A802:B802 A816:B816 A830:B830 A844:B844 A858:B858 A872:B872 A886:B886 A900:B900 A914:B914 A928:B928 A942:B942 A956:B956 A970:B970 A984:B984 A998:B998 A1012:B1012 A1026:B1026 A1040:B1040 A1054:B1054 A1068:B1068 A1082:B1082 A1096:B1096 A1110:B1110 A1124:B1124 A1138:B1138 A1152:B1152 A1166:B1166 A1180:B1180 A1194:B1194 A1208:B1208 A1222:B1222 A1236:B1236 A1250:B1250 A1264:B1264 A1278:B1278 A1292:B1292 A1306:B1306 A1320:B1320 A1334:B1334 A1348:B1348 A1362:B1362 A1376:B1376 A1390:B1390 A1404:B1404 A1418:B1418 A1432:B1432 A1446:B1446 A1460:B1460 A1474:B1474 A1488:B1488 A1502:B1502 A1516:B1516 A1530:B1530 A1544:B1544 A1558:B1558 A1572:B1572 A1586:B1586 A1600:B1600 A1614:B1614 A1628:B1628 A1642:B1642 A1656:B1656 A1670:B1670 A1684:B1684 A1698:B1698 A1712:B1712 A1726:B1726 A1740:B1740 A1754:B1754 A1768:B1768 A1782:B1782 A1796:B1796 A1810:B1810 A1824:B1824 A1838:B1838 A1852:B1852 A1866:B1866 A1880:B1880 A1894:B1894 A1908:B1908 A1922:B1922 A1936:B1936 A1950:B1950 A1964:B1964 A1978:B1978 A1992:B1992 A2006:B2006 A2020:B2020 A28:B28 A42:B42 A56:B56 A70:B70 A84:B84 A98:B98 A112:B112 A126:B126 A140:B140 A154:B154 A168:B168 A182:B182 A196:B196 A210:B210 A224:B224 A238:B238 A252:B252 A266:B266 A280:B280 A294:B294 A308:B308 A322:B322 A336:B336 A350:B350 A364:B364 A378:B378 A392:B392 A406:B406 A420:B420 A434:B434 A448:B448 A462:B462 A476:B476 A490:B490 A504:B504 A518:B518 A532:B532 A546:B546 A560:B560 A574:B574 A588:B588 A602:B602 A616:B616 A630:B630 A644:B644 A658:B658 A672:B672 A686:B686 A700:B700 A714:B714 A728:B728 A742:B742 A756:B756 A770:B770 A784:B784 A798:B798 A812:B812 A826:B826 A840:B840 A854:B854 A868:B868 A882:B882 A896:B896 A910:B910 A924:B924 A938:B938 A952:B952 A966:B966 A980:B980 A994:B994 A1008:B1008 A1022:B1022 A1036:B1036 A1050:B1050 A1064:B1064 A1078:B1078 A1092:B1092 A1106:B1106 A1120:B1120 A1134:B1134 A1148:B1148 A1162:B1162 A1176:B1176 A1190:B1190 A1204:B1204 A1218:B1218 A1232:B1232 A1246:B1246 A1260:B1260 A1274:B1274 A1288:B1288 A1302:B1302 A1316:B1316 A1330:B1330 A1344:B1344 A1358:B1358 A1372:B1372 A1386:B1386 A1400:B1400 A1414:B1414 A1428:B1428 A1442:B1442 A1456:B1456 A1470:B1470 A1484:B1484 A1498:B1498 A1512:B1512 A1526:B1526 A1540:B1540 A1554:B1554 A1568:B1568 A1582:B1582 A1596:B1596 A1610:B1610 A1624:B1624 A1638:B1638 A1652:B1652 A1666:B1666 A1680:B1680 A1694:B1694 A1708:B1708 A1722:B1722 A1736:B1736 A1750:B1750 A1764:B1764 A1778:B1778 A1792:B1792 A1806:B1806 A1820:B1820 A1834:B1834 A1848:B1848 A1862:B1862 A1876:B1876 A1890:B1890 A1904:B1904 A1918:B1918 A1932:B1932 A1946:B1946 A1960:B1960 A1974:B1974 A1988:B1988 A2002:B2002 A2016:B2016 A16:B16 A30:B30 A44:B44 A58:B58 A72:B72 A86:B86 A100:B100 A114:B114 A128:B128 A142:B142 A156:B156 A170:B170 A184:B184 A198:B198 A212:B212 A226:B226 A240:B240 A254:B254 A268:B268 A282:B282 A296:B296 A310:B310 A324:B324 A338:B338 A352:B352 A366:B366 A380:B380 A394:B394 A408:B408 A422:B422 A436:B436 A450:B450 A464:B464 A478:B478 A492:B492 A506:B506 A520:B520 A534:B534 A548:B548 A562:B562 A576:B576 A590:B590 A604:B604 A618:B618 A632:B632 A646:B646 A660:B660 A674:B674 A688:B688 A702:B702 A716:B716 A730:B730 A744:B744 A758:B758 A772:B772 A786:B786 A800:B800 A814:B814 A828:B828 A842:B842 A856:B856 A870:B870 A884:B884 A898:B898 A912:B912 A926:B926 A940:B940 A954:B954 A968:B968 A982:B982 A996:B996 A1010:B1010 A1024:B1024 A1038:B1038 A1052:B1052 A1066:B1066 A1080:B1080 A1094:B1094 A1108:B1108 A1122:B1122 A1136:B1136 A1150:B1150 A1164:B1164 A1178:B1178 A1192:B1192 A1206:B1206 A1220:B1220 A1234:B1234 A1248:B1248 A1262:B1262 A1276:B1276 A1290:B1290 A1304:B1304 A1318:B1318 A1332:B1332 A1346:B1346 A1360:B1360 A1374:B1374 A1388:B1388 A1402:B1402 A1416:B1416 A1430:B1430 A1444:B1444 A1458:B1458 A1472:B1472 A1486:B1486 A1500:B1500 A1514:B1514 A1528:B1528 A1542:B1542 A1556:B1556 A1570:B1570 A1584:B1584 A1598:B1598 A1612:B1612 A1626:B1626 A1640:B1640 A1654:B1654 A1668:B1668 A1682:B1682 A1696:B1696 A1710:B1710 A1724:B1724 A1738:B1738 A1752:B1752 A1766:B1766 A1780:B1780 A1794:B1794 A1808:B1808 A1822:B1822 A1836:B1836 A1850:B1850 A1864:B1864 A1878:B1878 A1892:B1892 A1906:B1906 A1920:B1920 A1934:B1934 A1948:B1948 A1962:B1962 A1976:B1976 A1990:B1990 A2004:B2004 A2018:B2018 A26:B26 A40:B40 A54:B54 A68:B68 A82:B82 A96:B96 A110:B110 A124:B124 A138:B138 A152:B152 A166:B166 A180:B180 A194:B194 A208:B208 A222:B222 A236:B236 A250:B250 A264:B264 A278:B278 A292:B292 A306:B306 A320:B320 A334:B334 A348:B348 A362:B362 A376:B376 A390:B390 A404:B404 A418:B418 A432:B432 A446:B446 A460:B460 A474:B474 A488:B488 A502:B502 A516:B516 A530:B530 A544:B544 A558:B558 A572:B572 A586:B586 A600:B600 A614:B614 A628:B628 A642:B642 A656:B656 A670:B670 A684:B684 A698:B698 A712:B712 A726:B726 A740:B740 A754:B754 A768:B768 A782:B782 A796:B796 A810:B810 A824:B824 A838:B838 A852:B852 A866:B866 A880:B880 A894:B894 A908:B908 A922:B922 A936:B936 A950:B950 A964:B964 A978:B978 A992:B992 A1006:B1006 A1020:B1020 A1034:B1034 A1048:B1048 A1062:B1062 A1076:B1076 A1090:B1090 A1104:B1104 A1118:B1118 A1132:B1132 A1146:B1146 A1160:B1160 A1174:B1174 A1188:B1188 A1202:B1202 A1216:B1216 A1230:B1230 A1244:B1244 A1258:B1258 A1272:B1272 A1286:B1286 A1300:B1300 A1314:B1314 A1328:B1328 A1342:B1342 A1356:B1356 A1370:B1370 A1384:B1384 A1398:B1398 A1412:B1412 A1426:B1426 A1440:B1440 A1454:B1454 A1468:B1468 A1482:B1482 A1496:B1496 A1510:B1510 A1524:B1524 A1538:B1538 A1552:B1552 A1566:B1566 A1580:B1580 A1594:B1594 A1608:B1608 A1622:B1622 A1636:B1636 A1650:B1650 A1664:B1664 A1678:B1678 A1692:B1692 A1706:B1706 A1720:B1720 A1734:B1734 A1748:B1748 A1762:B1762 A1776:B1776 A1790:B1790 A1804:B1804 A1818:B1818 A1832:B1832 A1846:B1846 A1860:B1860 A1874:B1874 A1888:B1888 A1902:B1902 A1916:B1916 A1930:B1930 A1944:B1944 A1958:B1958 A1972:B1972 A1986:B1986 A2000:B2000 A2014:B2014 A24 A38 A52 A66 A80 A94 A108 A122 A136 A150 A164 A178 A192 A206 A220 A234 A248 A262 A276 A290 A304 A318 A332 A346 A360 A374 A388 A402 A416 A430 A444 A458 A472 A486 A500 A514 A528 A542 A556 A570 A584 A598 A612 A626 A640 A654 A668 A682 A696 A710 A724 A738 A752 A766 A780 A794 A808 A822 A836 A850 A864 A878 A892 A906 A920 A934 A948 A962 A976 A990 A1004 A1018 A1032 A1046 A1060 A1074 A1088 A1102 A1116 A1130 A1144 A1158 A1172 A1186 A1200 A1214 A1228 A1242 A1256 A1270 A1284 A1298 A1312 A1326 A1340 A1354 A1368 A1382 A1396 A1410 A1424 A1438 A1452 A1466 A1480 A1494 A1508 A1522 A1536 A1550 A1564 A1578 A1592 A1606 A1620 A1634 A1648 A1662 A1676 A1690 A1704 A1718 A1732 A1746 A1760 A1774 A1788 A1802 A1816 A1830 A1844 A1858 A1872 A1886 A1900 A1914 A1928 A1942 A1956 A1970 A1984 A1998 A2012 A21:B22 A35:B36 A49:B50 A63:B64 A77:B78 A91:B92 A105:B106 A119:B120 A133:B134 A147:B148 A161:B162 A175:B176 A189:B190 A203:B204 A217:B218 A231:B232 A245:B246 A259:B260 A273:B274 A287:B288 A301:B302 A315:B316 A329:B330 A343:B344 A357:B358 A371:B372 A385:B386 A399:B400 A413:B414 A427:B428 A441:B442 A455:B456 A469:B470 A483:B484 A497:B498 A511:B512 A525:B526 A539:B540 A553:B554 A567:B568 A581:B582 A595:B596 A609:B610 A623:B624 A637:B638 A651:B652 A665:B666 A679:B680 A693:B694 A707:B708 A721:B722 A735:B736 A749:B750 A763:B764 A777:B778 A791:B792 A805:B806 A819:B820 A833:B834 A847:B848 A861:B862 A875:B876 A889:B890 A903:B904 A917:B918 A931:B932 A945:B946 A959:B960 A973:B974 A987:B988 A1001:B1002 A1015:B1016 A1029:B1030 A1043:B1044 A1057:B1058 A1071:B1072 A1085:B1086 A1099:B1100 A1113:B1114 A1127:B1128 A1141:B1142 A1155:B1156 A1169:B1170 A1183:B1184 A1197:B1198 A1211:B1212 A1225:B1226 A1239:B1240 A1253:B1254 A1267:B1268 A1281:B1282 A1295:B1296 A1309:B1310 A1323:B1324 A1337:B1338 A1351:B1352 A1365:B1366 A1379:B1380 A1393:B1394 A1407:B1408 A1421:B1422 A1435:B1436 A1449:B1450 A1463:B1464 A1477:B1478 A1491:B1492 A1505:B1506 A1519:B1520 A1533:B1534 A1547:B1548 A1561:B1562 A1575:B1576 A1589:B1590 A1603:B1604 A1617:B1618 A1631:B1632 A1645:B1646 A1659:B1660 A1673:B1674 A1687:B1688 A1701:B1702 A1715:B1716 A1729:B1730 A1743:B1744 A1757:B1758 A1771:B1772 A1785:B1786 A1799:B1800 A1813:B1814 A1827:B1828 A1841:B1842 A1855:B1856 A1869:B1870 A1883:B1884 A1897:B1898 A1911:B1912 A1925:B1926 A1939:B1940 A1953:B1954 A1967:B1968 A1981:B1982 A1995:B1996 A2009:B2010">
-    <cfRule type="expression" dxfId="50" priority="1">
+    <cfRule type="expression" dxfId="54" priority="6">
       <formula>AND($L13&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17 A31:B31 A45:B45 A59:B59 A73:B73 A87:B87 A101:B101 A115:B115 A129:B129 A143:B143 A157:B157 A171:B171 A185:B185 A199:B199 A213:B213 A227:B227 A241:B241 A255:B255 A269:B269 A283:B283 A297:B297 A311:B311 A325:B325 A339:B339 A353:B353 A367:B367 A381:B381 A395:B395 A409:B409 A423:B423 A437:B437 A451:B451 A465:B465 A479:B479 A493:B493 A507:B507 A521:B521 A535:B535 A549:B549 A563:B563 A577:B577 A591:B591 A605:B605 A619:B619 A633:B633 A647:B647 A661:B661 A675:B675 A689:B689 A703:B703 A717:B717 A731:B731 A745:B745 A759:B759 A773:B773 A787:B787 A801:B801 A815:B815 A829:B829 A843:B843 A857:B857 A871:B871 A885:B885 A899:B899 A913:B913 A927:B927 A941:B941 A955:B955 A969:B969 A983:B983 A997:B997 A1011:B1011 A1025:B1025 A1039:B1039 A1053:B1053 A1067:B1067 A1081:B1081 A1095:B1095 A1109:B1109 A1123:B1123 A1137:B1137 A1151:B1151 A1165:B1165 A1179:B1179 A1193:B1193 A1207:B1207 A1221:B1221 A1235:B1235 A1249:B1249 A1263:B1263 A1277:B1277 A1291:B1291 A1305:B1305 A1319:B1319 A1333:B1333 A1347:B1347 A1361:B1361 A1375:B1375 A1389:B1389 A1403:B1403 A1417:B1417 A1431:B1431 A1445:B1445 A1459:B1459 A1473:B1473 A1487:B1487 A1501:B1501 A1515:B1515 A1529:B1529 A1543:B1543 A1557:B1557 A1571:B1571 A1585:B1585 A1599:B1599 A1613:B1613 A1627:B1627 A1641:B1641 A1655:B1655 A1669:B1669 A1683:B1683 A1697:B1697 A1711:B1711 A1725:B1725 A1739:B1739 A1753:B1753 A1767:B1767 A1781:B1781 A1795:B1795 A1809:B1809 A1823:B1823 A1837:B1837 A1851:B1851 A1865:B1865 A1879:B1879 A1893:B1893 A1907:B1907 A1921:B1921 A1935:B1935 A1949:B1949 A1963:B1963 A1977:B1977 A1991:B1991 A2005:B2005 A2019:B2019 A27:B27 A41:B41 A55:B55 A69:B69 A83:B83 A97:B97 A111:B111 A125:B125 A139:B139 A153:B153 A167:B167 A181:B181 A195:B195 A209:B209 A223:B223 A237:B237 A251:B251 A265:B265 A279:B279 A293:B293 A307:B307 A321:B321 A335:B335 A349:B349 A363:B363 A377:B377 A391:B391 A405:B405 A419:B419 A433:B433 A447:B447 A461:B461 A475:B475 A489:B489 A503:B503 A517:B517 A531:B531 A545:B545 A559:B559 A573:B573 A587:B587 A601:B601 A615:B615 A629:B629 A643:B643 A657:B657 A671:B671 A685:B685 A699:B699 A713:B713 A727:B727 A741:B741 A755:B755 A769:B769 A783:B783 A797:B797 A811:B811 A825:B825 A839:B839 A853:B853 A867:B867 A881:B881 A895:B895 A909:B909 A923:B923 A937:B937 A951:B951 A965:B965 A979:B979 A993:B993 A1007:B1007 A1021:B1021 A1035:B1035 A1049:B1049 A1063:B1063 A1077:B1077 A1091:B1091 A1105:B1105 A1119:B1119 A1133:B1133 A1147:B1147 A1161:B1161 A1175:B1175 A1189:B1189 A1203:B1203 A1217:B1217 A1231:B1231 A1245:B1245 A1259:B1259 A1273:B1273 A1287:B1287 A1301:B1301 A1315:B1315 A1329:B1329 A1343:B1343 A1357:B1357 A1371:B1371 A1385:B1385 A1399:B1399 A1413:B1413 A1427:B1427 A1441:B1441 A1455:B1455 A1469:B1469 A1483:B1483 A1497:B1497 A1511:B1511 A1525:B1525 A1539:B1539 A1553:B1553 A1567:B1567 A1581:B1581 A1595:B1595 A1609:B1609 A1623:B1623 A1637:B1637 A1651:B1651 A1665:B1665 A1679:B1679 A1693:B1693 A1707:B1707 A1721:B1721 A1735:B1735 A1749:B1749 A1763:B1763 A1777:B1777 A1791:B1791 A1805:B1805 A1819:B1819 A1833:B1833 A1847:B1847 A1861:B1861 A1875:B1875 A1889:B1889 A1903:B1903 A1917:B1917 A1931:B1931 A1945:B1945 A1959:B1959 A1973:B1973 A1987:B1987 A2001:B2001 A2015:B2015 A23 A37 A51 A65 A79 A93 A107 A121 A135 A149 A163 A177 A191 A205 A219 A233 A247 A261 A275 A289 A303 A317 A331 A345 A359 A373 A387 A401 A415 A429 A443 A457 A471 A485 A499 A513 A527 A541 A555 A569 A583 A597 A611 A625 A639 A653 A667 A681 A695 A709 A723 A737 A751 A765 A779 A793 A807 A821 A835 A849 A863 A877 A891 A905 A919 A933 A947 A961 A975 A989 A1003 A1017 A1031 A1045 A1059 A1073 A1087 A1101 A1115 A1129 A1143 A1157 A1171 A1185 A1199 A1213 A1227 A1241 A1255 A1269 A1283 A1297 A1311 A1325 A1339 A1353 A1367 A1381 A1395 A1409 A1423 A1437 A1451 A1465 A1479 A1493 A1507 A1521 A1535 A1549 A1563 A1577 A1591 A1605 A1619 A1633 A1647 A1661 A1675 A1689 A1703 A1717 A1731 A1745 A1759 A1773 A1787 A1801 A1815 A1829 A1843 A1857 A1871 A1885 A1899 A1913 A1927 A1941 A1955 A1969 A1983 A1997 A2011">
-    <cfRule type="expression" dxfId="49" priority="4">
+    <cfRule type="expression" dxfId="53" priority="9">
       <formula>AND(#REF!&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 A30:B30 A44:B44 A58:B58 A72:B72 A86:B86 A100:B100 A114:B114 A128:B128 A142:B142 A156:B156 A170:B170 A184:B184 A198:B198 A212:B212 A226:B226 A240:B240 A254:B254 A268:B268 A282:B282 A296:B296 A310:B310 A324:B324 A338:B338 A352:B352 A366:B366 A380:B380 A394:B394 A408:B408 A422:B422 A436:B436 A450:B450 A464:B464 A478:B478 A492:B492 A506:B506 A520:B520 A534:B534 A548:B548 A562:B562 A576:B576 A590:B590 A604:B604 A618:B618 A632:B632 A646:B646 A660:B660 A674:B674 A688:B688 A702:B702 A716:B716 A730:B730 A744:B744 A758:B758 A772:B772 A786:B786 A800:B800 A814:B814 A828:B828 A842:B842 A856:B856 A870:B870 A884:B884 A898:B898 A912:B912 A926:B926 A940:B940 A954:B954 A968:B968 A982:B982 A996:B996 A1010:B1010 A1024:B1024 A1038:B1038 A1052:B1052 A1066:B1066 A1080:B1080 A1094:B1094 A1108:B1108 A1122:B1122 A1136:B1136 A1150:B1150 A1164:B1164 A1178:B1178 A1192:B1192 A1206:B1206 A1220:B1220 A1234:B1234 A1248:B1248 A1262:B1262 A1276:B1276 A1290:B1290 A1304:B1304 A1318:B1318 A1332:B1332 A1346:B1346 A1360:B1360 A1374:B1374 A1388:B1388 A1402:B1402 A1416:B1416 A1430:B1430 A1444:B1444 A1458:B1458 A1472:B1472 A1486:B1486 A1500:B1500 A1514:B1514 A1528:B1528 A1542:B1542 A1556:B1556 A1570:B1570 A1584:B1584 A1598:B1598 A1612:B1612 A1626:B1626 A1640:B1640 A1654:B1654 A1668:B1668 A1682:B1682 A1696:B1696 A1710:B1710 A1724:B1724 A1738:B1738 A1752:B1752 A1766:B1766 A1780:B1780 A1794:B1794 A1808:B1808 A1822:B1822 A1836:B1836 A1850:B1850 A1864:B1864 A1878:B1878 A1892:B1892 A1906:B1906 A1920:B1920 A1934:B1934 A1948:B1948 A1962:B1962 A1976:B1976 A1990:B1990 A2004:B2004 A2018:B2018 A26:B26 A40:B40 A54:B54 A68:B68 A82:B82 A96:B96 A110:B110 A124:B124 A138:B138 A152:B152 A166:B166 A180:B180 A194:B194 A208:B208 A222:B222 A236:B236 A250:B250 A264:B264 A278:B278 A292:B292 A306:B306 A320:B320 A334:B334 A348:B348 A362:B362 A376:B376 A390:B390 A404:B404 A418:B418 A432:B432 A446:B446 A460:B460 A474:B474 A488:B488 A502:B502 A516:B516 A530:B530 A544:B544 A558:B558 A572:B572 A586:B586 A600:B600 A614:B614 A628:B628 A642:B642 A656:B656 A670:B670 A684:B684 A698:B698 A712:B712 A726:B726 A740:B740 A754:B754 A768:B768 A782:B782 A796:B796 A810:B810 A824:B824 A838:B838 A852:B852 A866:B866 A880:B880 A894:B894 A908:B908 A922:B922 A936:B936 A950:B950 A964:B964 A978:B978 A992:B992 A1006:B1006 A1020:B1020 A1034:B1034 A1048:B1048 A1062:B1062 A1076:B1076 A1090:B1090 A1104:B1104 A1118:B1118 A1132:B1132 A1146:B1146 A1160:B1160 A1174:B1174 A1188:B1188 A1202:B1202 A1216:B1216 A1230:B1230 A1244:B1244 A1258:B1258 A1272:B1272 A1286:B1286 A1300:B1300 A1314:B1314 A1328:B1328 A1342:B1342 A1356:B1356 A1370:B1370 A1384:B1384 A1398:B1398 A1412:B1412 A1426:B1426 A1440:B1440 A1454:B1454 A1468:B1468 A1482:B1482 A1496:B1496 A1510:B1510 A1524:B1524 A1538:B1538 A1552:B1552 A1566:B1566 A1580:B1580 A1594:B1594 A1608:B1608 A1622:B1622 A1636:B1636 A1650:B1650 A1664:B1664 A1678:B1678 A1692:B1692 A1706:B1706 A1720:B1720 A1734:B1734 A1748:B1748 A1762:B1762 A1776:B1776 A1790:B1790 A1804:B1804 A1818:B1818 A1832:B1832 A1846:B1846 A1860:B1860 A1874:B1874 A1888:B1888 A1902:B1902 A1916:B1916 A1930:B1930 A1944:B1944 A1958:B1958 A1972:B1972 A1986:B1986 A2000:B2000 A2014:B2014 A22 A36 A50 A64 A78 A92 A106 A120 A134 A148 A162 A176 A190 A204 A218 A232 A246 A260 A274 A288 A302 A316 A330 A344 A358 A372 A386 A400 A414 A428 A442 A456 A470 A484 A498 A512 A526 A540 A554 A568 A582 A596 A610 A624 A638 A652 A666 A680 A694 A708 A722 A736 A750 A764 A778 A792 A806 A820 A834 A848 A862 A876 A890 A904 A918 A932 A946 A960 A974 A988 A1002 A1016 A1030 A1044 A1058 A1072 A1086 A1100 A1114 A1128 A1142 A1156 A1170 A1184 A1198 A1212 A1226 A1240 A1254 A1268 A1282 A1296 A1310 A1324 A1338 A1352 A1366 A1380 A1394 A1408 A1422 A1436 A1450 A1464 A1478 A1492 A1506 A1520 A1534 A1548 A1562 A1576 A1590 A1604 A1618 A1632 A1646 A1660 A1674 A1688 A1702 A1716 A1730 A1744 A1758 A1772 A1786 A1800 A1814 A1828 A1842 A1856 A1870 A1884 A1898 A1912 A1926 A1940 A1954 A1968 A1982 A1996 A2010">
-    <cfRule type="expression" dxfId="48" priority="5">
+    <cfRule type="expression" dxfId="52" priority="10">
       <formula>AND($L15&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17 A31:B31 A45:B45 A59:B59 A73:B73 A87:B87 A101:B101 A115:B115 A129:B129 A143:B143 A157:B157 A171:B171 A185:B185 A199:B199 A213:B213 A227:B227 A241:B241 A255:B255 A269:B269 A283:B283 A297:B297 A311:B311 A325:B325 A339:B339 A353:B353 A367:B367 A381:B381 A395:B395 A409:B409 A423:B423 A437:B437 A451:B451 A465:B465 A479:B479 A493:B493 A507:B507 A521:B521 A535:B535 A549:B549 A563:B563 A577:B577 A591:B591 A605:B605 A619:B619 A633:B633 A647:B647 A661:B661 A675:B675 A689:B689 A703:B703 A717:B717 A731:B731 A745:B745 A759:B759 A773:B773 A787:B787 A801:B801 A815:B815 A829:B829 A843:B843 A857:B857 A871:B871 A885:B885 A899:B899 A913:B913 A927:B927 A941:B941 A955:B955 A969:B969 A983:B983 A997:B997 A1011:B1011 A1025:B1025 A1039:B1039 A1053:B1053 A1067:B1067 A1081:B1081 A1095:B1095 A1109:B1109 A1123:B1123 A1137:B1137 A1151:B1151 A1165:B1165 A1179:B1179 A1193:B1193 A1207:B1207 A1221:B1221 A1235:B1235 A1249:B1249 A1263:B1263 A1277:B1277 A1291:B1291 A1305:B1305 A1319:B1319 A1333:B1333 A1347:B1347 A1361:B1361 A1375:B1375 A1389:B1389 A1403:B1403 A1417:B1417 A1431:B1431 A1445:B1445 A1459:B1459 A1473:B1473 A1487:B1487 A1501:B1501 A1515:B1515 A1529:B1529 A1543:B1543 A1557:B1557 A1571:B1571 A1585:B1585 A1599:B1599 A1613:B1613 A1627:B1627 A1641:B1641 A1655:B1655 A1669:B1669 A1683:B1683 A1697:B1697 A1711:B1711 A1725:B1725 A1739:B1739 A1753:B1753 A1767:B1767 A1781:B1781 A1795:B1795 A1809:B1809 A1823:B1823 A1837:B1837 A1851:B1851 A1865:B1865 A1879:B1879 A1893:B1893 A1907:B1907 A1921:B1921 A1935:B1935 A1949:B1949 A1963:B1963 A1977:B1977 A1991:B1991 A2005:B2005 A2019:B2019 A27:B27 A41:B41 A55:B55 A69:B69 A83:B83 A97:B97 A111:B111 A125:B125 A139:B139 A153:B153 A167:B167 A181:B181 A195:B195 A209:B209 A223:B223 A237:B237 A251:B251 A265:B265 A279:B279 A293:B293 A307:B307 A321:B321 A335:B335 A349:B349 A363:B363 A377:B377 A391:B391 A405:B405 A419:B419 A433:B433 A447:B447 A461:B461 A475:B475 A489:B489 A503:B503 A517:B517 A531:B531 A545:B545 A559:B559 A573:B573 A587:B587 A601:B601 A615:B615 A629:B629 A643:B643 A657:B657 A671:B671 A685:B685 A699:B699 A713:B713 A727:B727 A741:B741 A755:B755 A769:B769 A783:B783 A797:B797 A811:B811 A825:B825 A839:B839 A853:B853 A867:B867 A881:B881 A895:B895 A909:B909 A923:B923 A937:B937 A951:B951 A965:B965 A979:B979 A993:B993 A1007:B1007 A1021:B1021 A1035:B1035 A1049:B1049 A1063:B1063 A1077:B1077 A1091:B1091 A1105:B1105 A1119:B1119 A1133:B1133 A1147:B1147 A1161:B1161 A1175:B1175 A1189:B1189 A1203:B1203 A1217:B1217 A1231:B1231 A1245:B1245 A1259:B1259 A1273:B1273 A1287:B1287 A1301:B1301 A1315:B1315 A1329:B1329 A1343:B1343 A1357:B1357 A1371:B1371 A1385:B1385 A1399:B1399 A1413:B1413 A1427:B1427 A1441:B1441 A1455:B1455 A1469:B1469 A1483:B1483 A1497:B1497 A1511:B1511 A1525:B1525 A1539:B1539 A1553:B1553 A1567:B1567 A1581:B1581 A1595:B1595 A1609:B1609 A1623:B1623 A1637:B1637 A1651:B1651 A1665:B1665 A1679:B1679 A1693:B1693 A1707:B1707 A1721:B1721 A1735:B1735 A1749:B1749 A1763:B1763 A1777:B1777 A1791:B1791 A1805:B1805 A1819:B1819 A1833:B1833 A1847:B1847 A1861:B1861 A1875:B1875 A1889:B1889 A1903:B1903 A1917:B1917 A1931:B1931 A1945:B1945 A1959:B1959 A1973:B1973 A1987:B1987 A2001:B2001 A2015:B2015 A23 A37 A51 A65 A79 A93 A107 A121 A135 A149 A163 A177 A191 A205 A219 A233 A247 A261 A275 A289 A303 A317 A331 A345 A359 A373 A387 A401 A415 A429 A443 A457 A471 A485 A499 A513 A527 A541 A555 A569 A583 A597 A611 A625 A639 A653 A667 A681 A695 A709 A723 A737 A751 A765 A779 A793 A807 A821 A835 A849 A863 A877 A891 A905 A919 A933 A947 A961 A975 A989 A1003 A1017 A1031 A1045 A1059 A1073 A1087 A1101 A1115 A1129 A1143 A1157 A1171 A1185 A1199 A1213 A1227 A1241 A1255 A1269 A1283 A1297 A1311 A1325 A1339 A1353 A1367 A1381 A1395 A1409 A1423 A1437 A1451 A1465 A1479 A1493 A1507 A1521 A1535 A1549 A1563 A1577 A1591 A1605 A1619 A1633 A1647 A1661 A1675 A1689 A1703 A1717 A1731 A1745 A1759 A1773 A1787 A1801 A1815 A1829 A1843 A1857 A1871 A1885 A1899 A1913 A1927 A1941 A1955 A1969 A1983 A1997 A2011">
-    <cfRule type="expression" dxfId="47" priority="6">
+    <cfRule type="expression" dxfId="51" priority="11">
       <formula>AND(#REF!&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19 A33:B33 A47:B47 A61:B61 A75:B75 A89:B89 A103:B103 A117:B117 A131:B131 A145:B145 A159:B159 A173:B173 A187:B187 A201:B201 A215:B215 A229:B229 A243:B243 A257:B257 A271:B271 A285:B285 A299:B299 A313:B313 A327:B327 A341:B341 A355:B355 A369:B369 A383:B383 A397:B397 A411:B411 A425:B425 A439:B439 A453:B453 A467:B467 A481:B481 A495:B495 A509:B509 A523:B523 A537:B537 A551:B551 A565:B565 A579:B579 A593:B593 A607:B607 A621:B621 A635:B635 A649:B649 A663:B663 A677:B677 A691:B691 A705:B705 A719:B719 A733:B733 A747:B747 A761:B761 A775:B775 A789:B789 A803:B803 A817:B817 A831:B831 A845:B845 A859:B859 A873:B873 A887:B887 A901:B901 A915:B915 A929:B929 A943:B943 A957:B957 A971:B971 A985:B985 A999:B999 A1013:B1013 A1027:B1027 A1041:B1041 A1055:B1055 A1069:B1069 A1083:B1083 A1097:B1097 A1111:B1111 A1125:B1125 A1139:B1139 A1153:B1153 A1167:B1167 A1181:B1181 A1195:B1195 A1209:B1209 A1223:B1223 A1237:B1237 A1251:B1251 A1265:B1265 A1279:B1279 A1293:B1293 A1307:B1307 A1321:B1321 A1335:B1335 A1349:B1349 A1363:B1363 A1377:B1377 A1391:B1391 A1405:B1405 A1419:B1419 A1433:B1433 A1447:B1447 A1461:B1461 A1475:B1475 A1489:B1489 A1503:B1503 A1517:B1517 A1531:B1531 A1545:B1545 A1559:B1559 A1573:B1573 A1587:B1587 A1601:B1601 A1615:B1615 A1629:B1629 A1643:B1643 A1657:B1657 A1671:B1671 A1685:B1685 A1699:B1699 A1713:B1713 A1727:B1727 A1741:B1741 A1755:B1755 A1769:B1769 A1783:B1783 A1797:B1797 A1811:B1811 A1825:B1825 A1839:B1839 A1853:B1853 A1867:B1867 A1881:B1881 A1895:B1895 A1909:B1909 A1923:B1923 A1937:B1937 A1951:B1951 A1965:B1965 A1979:B1979 A1993:B1993 A2007:B2007 A2021:B2021 A29:B29 A43:B43 A57:B57 A71:B71 A85:B85 A99:B99 A113:B113 A127:B127 A141:B141 A155:B155 A169:B169 A183:B183 A197:B197 A211:B211 A225:B225 A239:B239 A253:B253 A267:B267 A281:B281 A295:B295 A309:B309 A323:B323 A337:B337 A351:B351 A365:B365 A379:B379 A393:B393 A407:B407 A421:B421 A435:B435 A449:B449 A463:B463 A477:B477 A491:B491 A505:B505 A519:B519 A533:B533 A547:B547 A561:B561 A575:B575 A589:B589 A603:B603 A617:B617 A631:B631 A645:B645 A659:B659 A673:B673 A687:B687 A701:B701 A715:B715 A729:B729 A743:B743 A757:B757 A771:B771 A785:B785 A799:B799 A813:B813 A827:B827 A841:B841 A855:B855 A869:B869 A883:B883 A897:B897 A911:B911 A925:B925 A939:B939 A953:B953 A967:B967 A981:B981 A995:B995 A1009:B1009 A1023:B1023 A1037:B1037 A1051:B1051 A1065:B1065 A1079:B1079 A1093:B1093 A1107:B1107 A1121:B1121 A1135:B1135 A1149:B1149 A1163:B1163 A1177:B1177 A1191:B1191 A1205:B1205 A1219:B1219 A1233:B1233 A1247:B1247 A1261:B1261 A1275:B1275 A1289:B1289 A1303:B1303 A1317:B1317 A1331:B1331 A1345:B1345 A1359:B1359 A1373:B1373 A1387:B1387 A1401:B1401 A1415:B1415 A1429:B1429 A1443:B1443 A1457:B1457 A1471:B1471 A1485:B1485 A1499:B1499 A1513:B1513 A1527:B1527 A1541:B1541 A1555:B1555 A1569:B1569 A1583:B1583 A1597:B1597 A1611:B1611 A1625:B1625 A1639:B1639 A1653:B1653 A1667:B1667 A1681:B1681 A1695:B1695 A1709:B1709 A1723:B1723 A1737:B1737 A1751:B1751 A1765:B1765 A1779:B1779 A1793:B1793 A1807:B1807 A1821:B1821 A1835:B1835 A1849:B1849 A1863:B1863 A1877:B1877 A1891:B1891 A1905:B1905 A1919:B1919 A1933:B1933 A1947:B1947 A1961:B1961 A1975:B1975 A1989:B1989 A2003:B2003 A2017:B2017 A25 A39 A53 A67 A81 A95 A109 A123 A137 A151 A165 A179 A193 A207 A221 A235 A249 A263 A277 A291 A305 A319 A333 A347 A361 A375 A389 A403 A417 A431 A445 A459 A473 A487 A501 A515 A529 A543 A557 A571 A585 A599 A613 A627 A641 A655 A669 A683 A697 A711 A725 A739 A753 A767 A781 A795 A809 A823 A837 A851 A865 A879 A893 A907 A921 A935 A949 A963 A977 A991 A1005 A1019 A1033 A1047 A1061 A1075 A1089 A1103 A1117 A1131 A1145 A1159 A1173 A1187 A1201 A1215 A1229 A1243 A1257 A1271 A1285 A1299 A1313 A1327 A1341 A1355 A1369 A1383 A1397 A1411 A1425 A1439 A1453 A1467 A1481 A1495 A1509 A1523 A1537 A1551 A1565 A1579 A1593 A1607 A1621 A1635 A1649 A1663 A1677 A1691 A1705 A1719 A1733 A1747 A1761 A1775 A1789 A1803 A1817 A1831 A1845 A1859 A1873 A1887 A1901 A1915 A1929 A1943 A1957 A1971 A1985 A1999 A2013">
-    <cfRule type="expression" dxfId="46" priority="7">
+    <cfRule type="expression" dxfId="50" priority="12">
       <formula>AND(#REF!&lt;&gt;"",MOD(ROW(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2022:B2022">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>#REF!=ROW()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2022:B2022">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2022:B2022">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>AND($L2007&lt;&gt;"",MOD(ROW(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2022:B2022">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND($L2020&lt;&gt;"",MOD(ROW(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2022:B2022">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($L2019&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23933,19 +24031,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A690538-64CC-4629-ABCB-DDD9EB61421C}">
-  <sheetPr codeName="Feuil4"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DDC857-10E7-4C20-A5AB-56FF0B802DF5}">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:D5"/>
@@ -24035,55 +24120,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C5">
-    <cfRule type="expression" dxfId="45" priority="16">
+    <cfRule type="expression" dxfId="49" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="17">
-      <formula>#REF!=ROW()</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="20">
+    <cfRule type="expression" dxfId="48" priority="20">
       <formula>AND($M1048563&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D2">
-    <cfRule type="expression" dxfId="42" priority="22">
+    <cfRule type="expression" dxfId="47" priority="22">
       <formula>AND($M1&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="32">
+    <cfRule type="expression" dxfId="46" priority="32">
       <formula>AND($M1046559&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A2:D5">
+    <cfRule type="expression" dxfId="45" priority="4">
+      <formula>#REF!=ROW()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="expression" dxfId="40" priority="21">
+    <cfRule type="expression" dxfId="44" priority="21">
       <formula>AND(#REF!&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="23">
+    <cfRule type="expression" dxfId="43" priority="23">
       <formula>AND(#REF!&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:D4">
-    <cfRule type="expression" dxfId="38" priority="15">
+    <cfRule type="expression" dxfId="42" priority="15">
       <formula>AND($M1&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:D5">
-    <cfRule type="expression" dxfId="37" priority="18">
+    <cfRule type="expression" dxfId="41" priority="18">
       <formula>AND($M2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:D5">
-    <cfRule type="expression" dxfId="36" priority="24">
+    <cfRule type="expression" dxfId="40" priority="24">
       <formula>AND(#REF!&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="expression" dxfId="35" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="4">
-      <formula>#REF!=ROW()</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="7">
+    <cfRule type="expression" dxfId="38" priority="7">
       <formula>AND($L1048563&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24091,7 +24175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E737781B-436D-488E-AD45-0F19C0E292DB}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:C10"/>
@@ -24221,29 +24305,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C2 A4:C4 A6:C6 A8:C8 A10:C10">
-    <cfRule type="expression" dxfId="32" priority="13">
+    <cfRule type="expression" dxfId="37" priority="13">
       <formula>AND($L1&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="16">
+    <cfRule type="expression" dxfId="36" priority="16">
       <formula>AND($L1046559&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C10">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>#REF!=ROW()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>AND($K1048563&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 A5:C5 A7:C7 A9:C9">
-    <cfRule type="expression" dxfId="27" priority="12">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>AND(#REF!&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="14">
+    <cfRule type="expression" dxfId="31" priority="14">
       <formula>AND(#REF!&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24251,13 +24335,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07C88F7-C961-4594-AD1B-F2D5F8D5E029}">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:M2018"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31013,128 +31097,128 @@
     <sortCondition ref="C2:C62"/>
   </sortState>
   <conditionalFormatting sqref="A2:B52 A8:A62">
-    <cfRule type="expression" dxfId="25" priority="8">
+    <cfRule type="expression" dxfId="30" priority="8">
       <formula>AND($L1048563&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:B62">
-    <cfRule type="expression" dxfId="24" priority="21">
+    <cfRule type="expression" dxfId="29" priority="21">
       <formula>AND($M36&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D2 A8 A14 A20 A26 A32 A38 A44 A50 A56 A62">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>AND($L1&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D2 A4:D4 A7:D8 A10 A13:A14 A16 A19:A20 A22 A25:A26 A28 A31:A32 A34 A37:A38 A40 A43:A44 A46 A49:A50 A52 A55:A56 A58 A61:A62">
-    <cfRule type="expression" dxfId="22" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>AND($L1048575&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D21 A8:A62">
-    <cfRule type="expression" dxfId="21" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>#REF!=ROW()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D62">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3 A9 A15 A21 A27 A33 A39 A45 A51 A57">
-    <cfRule type="expression" dxfId="19" priority="15">
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>AND(#REF!&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="26">
+    <cfRule type="expression" dxfId="23" priority="26">
       <formula>AND(#REF!&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:D8 A10:A13 A16:A19 A22:A25 A28:A31 A34:A37 A40:A43 A46:A49 A52:A55 A58:A61">
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>AND($L2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:D5 A11 A17 A23 A29 A35 A41 A47 A53 A59">
-    <cfRule type="expression" dxfId="16" priority="30">
+    <cfRule type="expression" dxfId="21" priority="30">
       <formula>AND(#REF!&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:D41 A42:A43 A48:A49 A54:A55 A60:A61">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="20" priority="7">
       <formula>AND($L2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:D42">
-    <cfRule type="expression" dxfId="14" priority="17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>AND($L49&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:D44">
-    <cfRule type="expression" dxfId="13" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>AND($L51&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:D45">
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>AND(#REF!&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:D48">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="16" priority="13">
       <formula>AND($L78&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:D52">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>AND($L83&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:D52">
-    <cfRule type="expression" dxfId="9" priority="16">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>AND($L35&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:D52">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>AND($L85&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND($L35&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:D54">
-    <cfRule type="expression" dxfId="6" priority="23">
+    <cfRule type="expression" dxfId="11" priority="23">
       <formula>AND($L36&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:D62">
-    <cfRule type="expression" dxfId="5" priority="22">
+    <cfRule type="expression" dxfId="10" priority="22">
       <formula>AND($L86&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:D55">
-    <cfRule type="expression" dxfId="4" priority="18">
+    <cfRule type="expression" dxfId="9" priority="18">
       <formula>AND($L49&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:D57">
-    <cfRule type="expression" dxfId="3" priority="20">
+    <cfRule type="expression" dxfId="8" priority="20">
       <formula>AND($L51&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:D58">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>AND(#REF!&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:D61">
-    <cfRule type="expression" dxfId="1" priority="14">
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>AND($L78&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:D62">
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="5" priority="12">
       <formula>AND($L83&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6312C497-0364-4E8A-8170-31BF502CE4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618F3A14-F724-4AF9-9043-7DB4FC6FEA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="2155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="2161">
   <si>
     <t>Exxon Mobil Corporation</t>
   </si>
@@ -6423,9 +6423,6 @@
     <t>5020</t>
   </si>
   <si>
-    <t>Assurance - loyer</t>
-  </si>
-  <si>
     <t>9000</t>
   </si>
   <si>
@@ -6508,6 +6505,27 @@
   </si>
   <si>
     <t>Électricité - B</t>
+  </si>
+  <si>
+    <t>5021</t>
+  </si>
+  <si>
+    <t>5022</t>
+  </si>
+  <si>
+    <t>5023</t>
+  </si>
+  <si>
+    <t>Assurance - loyer - 0</t>
+  </si>
+  <si>
+    <t>Assurance - loyer - 1</t>
+  </si>
+  <si>
+    <t>Assurance - loyer - 2</t>
+  </si>
+  <si>
+    <t>Assurance - loyer - 3</t>
   </si>
 </sst>
 </file>
@@ -6759,16 +6777,16 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6787,28 +6805,28 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6820,19 +6838,19 @@
     <xf numFmtId="44" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6854,22 +6872,22 @@
     <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6879,10 +6897,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6890,70 +6908,11 @@
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="221">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="6" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6967,385 +6926,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="6" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="6" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="6" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="6" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="6" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -7353,1190 +6933,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="6" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="6" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="6" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="6" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1F5E7"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8870,7 +7267,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1987</v>
@@ -8927,7 +7324,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B8" s="8">
         <v>7</v>
@@ -25039,7 +23436,7 @@
     </row>
     <row r="2022" spans="1:2" ht="15.75" thickBot="1">
       <c r="A2022" s="9" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B2022" s="10">
         <v>2021</v>
@@ -25050,11 +23447,11 @@
     <sortCondition ref="A2:A2011"/>
   </sortState>
   <conditionalFormatting sqref="A2:B2022">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
     <cfRule type="expression" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="1">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25083,16 +23480,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>2130</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>2133</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>2131</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>2132</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -25100,13 +23497,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>2141</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>2142</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -25114,13 +23511,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>2143</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>2144</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -25128,13 +23525,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>2145</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>2146</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
@@ -25142,22 +23539,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="C5" s="23" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>2147</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>2148</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D5">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
     <cfRule type="expression" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25184,13 +23581,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="25" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>2138</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>2139</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -25294,11 +23691,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C10">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
     <cfRule type="expression" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25308,10 +23705,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07C88F7-C961-4594-AD1B-F2D5F8D5E029}">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="A1:M2019"/>
+  <dimension ref="A1:M2022"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -25337,7 +23734,7 @@
         <v>2000</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -26056,7 +24453,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="40" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B53" s="41" t="s">
         <v>2110</v>
@@ -26070,10 +24467,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="40" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="C54" s="42">
         <v>62</v>
@@ -26182,7 +24579,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="40" t="s">
-        <v>2126</v>
+        <v>2157</v>
       </c>
       <c r="B62" s="41" t="s">
         <v>2125</v>
@@ -26194,69 +24591,102 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A63" s="43" t="s">
-        <v>2128</v>
-      </c>
-      <c r="B63" s="44" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="40" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C63" s="42">
+        <v>63</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="40" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C64" s="42">
+        <v>64</v>
+      </c>
+      <c r="D64" s="49" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="40" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C65" s="42">
+        <v>65</v>
+      </c>
+      <c r="D65" s="49" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A66" s="43" t="s">
         <v>2127</v>
       </c>
-      <c r="C63" s="45">
+      <c r="B66" s="44" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C66" s="45">
         <v>61</v>
       </c>
-      <c r="D63" s="50" t="s">
+      <c r="D66" s="50" t="s">
         <v>2091</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="46"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="46"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="46"/>
-    </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:4">
       <c r="A67" s="46"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:4">
       <c r="A68" s="46"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:4">
       <c r="A69" s="46"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:4">
       <c r="A70" s="46"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:4">
       <c r="A71" s="46"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:4">
       <c r="A72" s="46"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:4">
       <c r="A73" s="46"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:4">
       <c r="A74" s="46"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:4">
       <c r="A75" s="46"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:4">
       <c r="A76" s="46"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:4">
       <c r="A77" s="46"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:4">
       <c r="A78" s="46"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:4">
       <c r="A79" s="46"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:4">
       <c r="A80" s="46"/>
     </row>
     <row r="81" spans="1:1">
@@ -32050,7 +30480,7 @@
       <c r="A2010" s="46"/>
     </row>
     <row r="2011" spans="1:1">
-      <c r="A2011" s="47"/>
+      <c r="A2011" s="46"/>
     </row>
     <row r="2012" spans="1:1">
       <c r="A2012" s="46"/>
@@ -32059,7 +30489,7 @@
       <c r="A2013" s="46"/>
     </row>
     <row r="2014" spans="1:1">
-      <c r="A2014" s="46"/>
+      <c r="A2014" s="47"/>
     </row>
     <row r="2015" spans="1:1">
       <c r="A2015" s="46"/>
@@ -32076,9 +30506,18 @@
     <row r="2019" spans="1:1">
       <c r="A2019" s="46"/>
     </row>
+    <row r="2020" spans="1:1">
+      <c r="A2020" s="46"/>
+    </row>
+    <row r="2021" spans="1:1">
+      <c r="A2021" s="46"/>
+    </row>
+    <row r="2022" spans="1:1">
+      <c r="A2022" s="46"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:D63">
-    <cfRule type="expression" dxfId="56" priority="1">
+  <conditionalFormatting sqref="A2:D66">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
     <cfRule type="expression" priority="2">
@@ -32086,10 +30525,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Account" error="Please select a correct Account Type from the drop down list" sqref="C3:C7 C9:C13 C15:C19 C21:C25 C27:C31 C33:C37 C39:C43 C45:C49 C58:C62 C51:C56 D3:D63" xr:uid="{F194FABA-5714-4D29-9D09-3A0C86E63544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Account" error="Please select a correct Account Type from the drop down list" sqref="C3:C7 C9:C13 C15:C19 C21:C25 C27:C31 C33:C37 C39:C43 C45:C49 C51:C56 D3:D66 C58:C65" xr:uid="{F194FABA-5714-4D29-9D09-3A0C86E63544}">
       <formula1>AcctType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D2 C8 C14 C20 C26 C32 C38 C44 C50 C57 C63" xr:uid="{BB882569-BB29-4A3C-8838-A1A0EE87428E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D2 C8 C14 C20 C26 C32 C38 C44 C50 C57 C66" xr:uid="{BB882569-BB29-4A3C-8838-A1A0EE87428E}">
       <formula1>AcctType</formula1>
     </dataValidation>
   </dataValidations>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618F3A14-F724-4AF9-9043-7DB4FC6FEA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B867CB-8ACD-4D0B-9A8C-5CB4897F9C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="2161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="2166">
   <si>
     <t>Exxon Mobil Corporation</t>
   </si>
@@ -6526,6 +6526,21 @@
   </si>
   <si>
     <t>Assurance - loyer - 3</t>
+  </si>
+  <si>
+    <t>5006a</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Consignes:</t>
+  </si>
+  <si>
+    <t>Chaque GL_Description DOIT ÊTRE UNIQUE dans la liste</t>
+  </si>
+  <si>
+    <t>Le GL_ID doit aussi être unique</t>
   </si>
 </sst>
 </file>
@@ -6535,7 +6550,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6594,12 +6609,23 @@
       <name val="Aptos Narrows"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Aptos Narrows"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrows"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrows"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6609,6 +6635,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6761,7 +6793,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6863,46 +6895,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -23705,25 +23741,27 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07C88F7-C961-4594-AD1B-F2D5F8D5E029}">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="A1:M2022"/>
+  <dimension ref="A1:M2023"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="49" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="49" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="8" width="5.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
     <col min="10" max="13" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="37" t="s">
         <v>2001</v>
       </c>
@@ -23736,8 +23774,14 @@
       <c r="D1" s="39" t="s">
         <v>2128</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="52" t="s">
+        <v>2163</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="40" t="s">
         <v>2005</v>
       </c>
@@ -23747,11 +23791,14 @@
       <c r="C2" s="42">
         <v>1</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="43" t="s">
         <v>2003</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="G2" s="52" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="40" t="s">
         <v>2007</v>
       </c>
@@ -23761,11 +23808,11 @@
       <c r="C3" s="42">
         <v>2</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="43" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" s="40" t="s">
         <v>2009</v>
       </c>
@@ -23775,11 +23822,11 @@
       <c r="C4" s="42">
         <v>3</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="43" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5" s="40" t="s">
         <v>2011</v>
       </c>
@@ -23789,11 +23836,11 @@
       <c r="C5" s="42">
         <v>4</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="43" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6" s="40" t="s">
         <v>2013</v>
       </c>
@@ -23803,11 +23850,11 @@
       <c r="C6" s="42">
         <v>5</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="43" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7" s="40" t="s">
         <v>2015</v>
       </c>
@@ -23817,11 +23864,11 @@
       <c r="C7" s="42">
         <v>6</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="43" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" s="40" t="s">
         <v>2017</v>
       </c>
@@ -23831,11 +23878,11 @@
       <c r="C8" s="42">
         <v>7</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="43" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9" s="40" t="s">
         <v>2019</v>
       </c>
@@ -23845,11 +23892,11 @@
       <c r="C9" s="42">
         <v>8</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="43" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10" s="40" t="s">
         <v>2021</v>
       </c>
@@ -23859,11 +23906,11 @@
       <c r="C10" s="42">
         <v>9</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="43" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11" s="40" t="s">
         <v>2023</v>
       </c>
@@ -23873,11 +23920,11 @@
       <c r="C11" s="42">
         <v>10</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="43" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12" s="40" t="s">
         <v>2025</v>
       </c>
@@ -23887,11 +23934,11 @@
       <c r="C12" s="42">
         <v>11</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="43" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7">
       <c r="A13" s="40" t="s">
         <v>2027</v>
       </c>
@@ -23901,11 +23948,11 @@
       <c r="C13" s="42">
         <v>12</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="43" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14" s="40" t="s">
         <v>2029</v>
       </c>
@@ -23915,11 +23962,11 @@
       <c r="C14" s="42">
         <v>13</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="43" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="A15" s="40" t="s">
         <v>2031</v>
       </c>
@@ -23929,11 +23976,11 @@
       <c r="C15" s="42">
         <v>14</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="43" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="A16" s="40" t="s">
         <v>2033</v>
       </c>
@@ -23943,7 +23990,7 @@
       <c r="C16" s="42">
         <v>15</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="43" t="s">
         <v>2003</v>
       </c>
     </row>
@@ -23957,7 +24004,7 @@
       <c r="C17" s="42">
         <v>16</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="43" t="s">
         <v>2003</v>
       </c>
     </row>
@@ -23971,7 +24018,7 @@
       <c r="C18" s="42">
         <v>17</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="43" t="s">
         <v>2003</v>
       </c>
     </row>
@@ -23985,7 +24032,7 @@
       <c r="C19" s="42">
         <v>18</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="43" t="s">
         <v>2003</v>
       </c>
     </row>
@@ -23999,7 +24046,7 @@
       <c r="C20" s="42">
         <v>19</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="43" t="s">
         <v>2003</v>
       </c>
     </row>
@@ -24013,7 +24060,7 @@
       <c r="C21" s="42">
         <v>20</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="43" t="s">
         <v>2003</v>
       </c>
     </row>
@@ -24027,7 +24074,7 @@
       <c r="C22" s="42">
         <v>21</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="43" t="s">
         <v>2044</v>
       </c>
     </row>
@@ -24041,7 +24088,7 @@
       <c r="C23" s="42">
         <v>22</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="43" t="s">
         <v>2044</v>
       </c>
     </row>
@@ -24055,7 +24102,7 @@
       <c r="C24" s="42">
         <v>23</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="43" t="s">
         <v>2044</v>
       </c>
     </row>
@@ -24069,7 +24116,7 @@
       <c r="C25" s="42">
         <v>24</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="43" t="s">
         <v>2044</v>
       </c>
     </row>
@@ -24083,7 +24130,7 @@
       <c r="C26" s="42">
         <v>25</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="43" t="s">
         <v>2044</v>
       </c>
     </row>
@@ -24097,7 +24144,7 @@
       <c r="C27" s="42">
         <v>26</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="43" t="s">
         <v>2044</v>
       </c>
     </row>
@@ -24111,7 +24158,7 @@
       <c r="C28" s="42">
         <v>27</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="43" t="s">
         <v>2044</v>
       </c>
     </row>
@@ -24125,7 +24172,7 @@
       <c r="C29" s="42">
         <v>28</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="43" t="s">
         <v>2044</v>
       </c>
     </row>
@@ -24139,7 +24186,7 @@
       <c r="C30" s="42">
         <v>29</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="43" t="s">
         <v>2044</v>
       </c>
     </row>
@@ -24153,7 +24200,7 @@
       <c r="C31" s="42">
         <v>30</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="43" t="s">
         <v>2044</v>
       </c>
     </row>
@@ -24167,7 +24214,7 @@
       <c r="C32" s="42">
         <v>31</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="43" t="s">
         <v>2044</v>
       </c>
     </row>
@@ -24181,7 +24228,7 @@
       <c r="C33" s="42">
         <v>32</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="43" t="s">
         <v>2044</v>
       </c>
     </row>
@@ -24195,7 +24242,7 @@
       <c r="C34" s="42">
         <v>33</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="43" t="s">
         <v>2069</v>
       </c>
     </row>
@@ -24209,7 +24256,7 @@
       <c r="C35" s="42">
         <v>34</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="43" t="s">
         <v>2069</v>
       </c>
     </row>
@@ -24223,7 +24270,7 @@
       <c r="C36" s="42">
         <v>35</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="43" t="s">
         <v>2069</v>
       </c>
     </row>
@@ -24237,7 +24284,7 @@
       <c r="C37" s="42">
         <v>36</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="43" t="s">
         <v>2069</v>
       </c>
     </row>
@@ -24251,7 +24298,7 @@
       <c r="C38" s="42">
         <v>37</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="43" t="s">
         <v>2078</v>
       </c>
     </row>
@@ -24265,7 +24312,7 @@
       <c r="C39" s="42">
         <v>38</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="43" t="s">
         <v>2078</v>
       </c>
     </row>
@@ -24279,7 +24326,7 @@
       <c r="C40" s="42">
         <v>39</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="43" t="s">
         <v>2078</v>
       </c>
     </row>
@@ -24293,7 +24340,7 @@
       <c r="C41" s="42">
         <v>40</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="43" t="s">
         <v>2078</v>
       </c>
     </row>
@@ -24307,7 +24354,7 @@
       <c r="C42" s="42">
         <v>41</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="43" t="s">
         <v>2078</v>
       </c>
     </row>
@@ -24321,7 +24368,7 @@
       <c r="C43" s="42">
         <v>42</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="43" t="s">
         <v>2078</v>
       </c>
     </row>
@@ -24335,7 +24382,7 @@
       <c r="C44" s="42">
         <v>43</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
@@ -24349,7 +24396,7 @@
       <c r="C45" s="42">
         <v>44</v>
       </c>
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
@@ -24363,7 +24410,7 @@
       <c r="C46" s="42">
         <v>45</v>
       </c>
-      <c r="D46" s="49" t="s">
+      <c r="D46" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
@@ -24377,7 +24424,7 @@
       <c r="C47" s="42">
         <v>46</v>
       </c>
-      <c r="D47" s="49" t="s">
+      <c r="D47" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
@@ -24391,7 +24438,7 @@
       <c r="C48" s="42">
         <v>47</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
@@ -24405,7 +24452,7 @@
       <c r="C49" s="42">
         <v>48</v>
       </c>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
@@ -24419,7 +24466,7 @@
       <c r="C50" s="42">
         <v>49</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
@@ -24433,6090 +24480,6104 @@
       <c r="C51" s="42">
         <v>50</v>
       </c>
-      <c r="D51" s="49" t="s">
+      <c r="D51" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="40" t="s">
-        <v>2109</v>
+        <v>2162</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>2108</v>
+        <v>2161</v>
       </c>
       <c r="C52" s="42">
-        <v>51</v>
-      </c>
-      <c r="D52" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="40" t="s">
-        <v>2152</v>
+        <v>2109</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="C53" s="42">
-        <v>52</v>
-      </c>
-      <c r="D53" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="40" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>2151</v>
+        <v>2110</v>
       </c>
       <c r="C54" s="42">
-        <v>62</v>
-      </c>
-      <c r="D54" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="40" t="s">
-        <v>2112</v>
+        <v>2153</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>2111</v>
+        <v>2151</v>
       </c>
       <c r="C55" s="42">
-        <v>53</v>
-      </c>
-      <c r="D55" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="40" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="C56" s="42">
-        <v>54</v>
-      </c>
-      <c r="D56" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="40" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="C57" s="42">
-        <v>55</v>
-      </c>
-      <c r="D57" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="40" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="C58" s="42">
-        <v>56</v>
-      </c>
-      <c r="D58" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="40" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="C59" s="42">
-        <v>57</v>
-      </c>
-      <c r="D59" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="40" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="C60" s="42">
-        <v>58</v>
-      </c>
-      <c r="D60" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="40" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="C61" s="42">
-        <v>59</v>
-      </c>
-      <c r="D61" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="40" t="s">
-        <v>2157</v>
+        <v>2124</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="C62" s="42">
-        <v>60</v>
-      </c>
-      <c r="D62" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="40" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>2154</v>
+        <v>2125</v>
       </c>
       <c r="C63" s="42">
-        <v>63</v>
-      </c>
-      <c r="D63" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="40" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="C64" s="42">
-        <v>64</v>
-      </c>
-      <c r="D64" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="40" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C65" s="42">
+        <v>64</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="40" t="s">
         <v>2160</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B66" s="41" t="s">
         <v>2156</v>
       </c>
-      <c r="C65" s="42">
+      <c r="C66" s="42">
         <v>65</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="D66" s="43" t="s">
         <v>2091</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A66" s="43" t="s">
+    <row r="67" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A67" s="44" t="s">
         <v>2127</v>
       </c>
-      <c r="B66" s="44" t="s">
+      <c r="B67" s="45" t="s">
         <v>2126</v>
       </c>
-      <c r="C66" s="45">
+      <c r="C67" s="46">
         <v>61</v>
       </c>
-      <c r="D66" s="50" t="s">
+      <c r="D67" s="47" t="s">
         <v>2091</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="46"/>
-    </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="46"/>
+      <c r="A68" s="48"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="46"/>
+      <c r="A69" s="48"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="46"/>
+      <c r="A70" s="48"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="46"/>
+      <c r="A71" s="48"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="46"/>
+      <c r="A72" s="48"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="46"/>
+      <c r="A73" s="48"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="46"/>
+      <c r="A74" s="48"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="46"/>
+      <c r="A75" s="48"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="46"/>
+      <c r="A76" s="48"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="46"/>
+      <c r="A77" s="48"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="46"/>
+      <c r="A78" s="48"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="46"/>
+      <c r="A79" s="48"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="46"/>
+      <c r="A80" s="48"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="46"/>
+      <c r="A81" s="48"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="46"/>
+      <c r="A82" s="48"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="46"/>
+      <c r="A83" s="48"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="46"/>
+      <c r="A84" s="48"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="46"/>
+      <c r="A85" s="48"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="46"/>
+      <c r="A86" s="48"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="46"/>
+      <c r="A87" s="48"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="46"/>
+      <c r="A88" s="48"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="46"/>
+      <c r="A89" s="48"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="46"/>
+      <c r="A90" s="48"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="46"/>
+      <c r="A91" s="48"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="46"/>
+      <c r="A92" s="48"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="46"/>
+      <c r="A93" s="48"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="46"/>
+      <c r="A94" s="48"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="46"/>
+      <c r="A95" s="48"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="46"/>
+      <c r="A96" s="48"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="46"/>
+      <c r="A97" s="48"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="46"/>
+      <c r="A98" s="48"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="46"/>
+      <c r="A99" s="48"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="46"/>
+      <c r="A100" s="48"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="46"/>
+      <c r="A101" s="48"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="46"/>
+      <c r="A102" s="48"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="46"/>
+      <c r="A103" s="48"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="46"/>
+      <c r="A104" s="48"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="46"/>
+      <c r="A105" s="48"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="46"/>
+      <c r="A106" s="48"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="46"/>
+      <c r="A107" s="48"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="46"/>
+      <c r="A108" s="48"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="46"/>
+      <c r="A109" s="48"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="46"/>
+      <c r="A110" s="48"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="46"/>
+      <c r="A111" s="48"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="46"/>
+      <c r="A112" s="48"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="46"/>
+      <c r="A113" s="48"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="46"/>
+      <c r="A114" s="48"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="46"/>
+      <c r="A115" s="48"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="46"/>
+      <c r="A116" s="48"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="46"/>
+      <c r="A117" s="48"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="46"/>
+      <c r="A118" s="48"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="46"/>
+      <c r="A119" s="48"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="46"/>
+      <c r="A120" s="48"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="46"/>
+      <c r="A121" s="48"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="46"/>
+      <c r="A122" s="48"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="46"/>
+      <c r="A123" s="48"/>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="46"/>
+      <c r="A124" s="48"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="46"/>
+      <c r="A125" s="48"/>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="46"/>
+      <c r="A126" s="48"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="46"/>
+      <c r="A127" s="48"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="46"/>
+      <c r="A128" s="48"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="46"/>
+      <c r="A129" s="48"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="46"/>
+      <c r="A130" s="48"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="46"/>
+      <c r="A131" s="48"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="46"/>
+      <c r="A132" s="48"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="46"/>
+      <c r="A133" s="48"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="46"/>
+      <c r="A134" s="48"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="46"/>
+      <c r="A135" s="48"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="46"/>
+      <c r="A136" s="48"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="46"/>
+      <c r="A137" s="48"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="46"/>
+      <c r="A138" s="48"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="46"/>
+      <c r="A139" s="48"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="46"/>
+      <c r="A140" s="48"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="46"/>
+      <c r="A141" s="48"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="46"/>
+      <c r="A142" s="48"/>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="46"/>
+      <c r="A143" s="48"/>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="46"/>
+      <c r="A144" s="48"/>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="46"/>
+      <c r="A145" s="48"/>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="46"/>
+      <c r="A146" s="48"/>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="46"/>
+      <c r="A147" s="48"/>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="46"/>
+      <c r="A148" s="48"/>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="46"/>
+      <c r="A149" s="48"/>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="46"/>
+      <c r="A150" s="48"/>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="46"/>
+      <c r="A151" s="48"/>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="46"/>
+      <c r="A152" s="48"/>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="46"/>
+      <c r="A153" s="48"/>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="46"/>
+      <c r="A154" s="48"/>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="46"/>
+      <c r="A155" s="48"/>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="46"/>
+      <c r="A156" s="48"/>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="46"/>
+      <c r="A157" s="48"/>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="46"/>
+      <c r="A158" s="48"/>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="46"/>
+      <c r="A159" s="48"/>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="46"/>
+      <c r="A160" s="48"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="46"/>
+      <c r="A161" s="48"/>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="46"/>
+      <c r="A162" s="48"/>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="46"/>
+      <c r="A163" s="48"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="46"/>
+      <c r="A164" s="48"/>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="46"/>
+      <c r="A165" s="48"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="46"/>
+      <c r="A166" s="48"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="46"/>
+      <c r="A167" s="48"/>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="46"/>
+      <c r="A168" s="48"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="46"/>
+      <c r="A169" s="48"/>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="46"/>
+      <c r="A170" s="48"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="46"/>
+      <c r="A171" s="48"/>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="46"/>
+      <c r="A172" s="48"/>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="46"/>
+      <c r="A173" s="48"/>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="46"/>
+      <c r="A174" s="48"/>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="46"/>
+      <c r="A175" s="48"/>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="46"/>
+      <c r="A176" s="48"/>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="46"/>
+      <c r="A177" s="48"/>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="46"/>
+      <c r="A178" s="48"/>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="46"/>
+      <c r="A179" s="48"/>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="46"/>
+      <c r="A180" s="48"/>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="46"/>
+      <c r="A181" s="48"/>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="46"/>
+      <c r="A182" s="48"/>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="46"/>
+      <c r="A183" s="48"/>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="46"/>
+      <c r="A184" s="48"/>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="46"/>
+      <c r="A185" s="48"/>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="46"/>
+      <c r="A186" s="48"/>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="46"/>
+      <c r="A187" s="48"/>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="46"/>
+      <c r="A188" s="48"/>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="46"/>
+      <c r="A189" s="48"/>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="46"/>
+      <c r="A190" s="48"/>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="46"/>
+      <c r="A191" s="48"/>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="46"/>
+      <c r="A192" s="48"/>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="46"/>
+      <c r="A193" s="48"/>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="46"/>
+      <c r="A194" s="48"/>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="46"/>
+      <c r="A195" s="48"/>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="46"/>
+      <c r="A196" s="48"/>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="46"/>
+      <c r="A197" s="48"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="46"/>
+      <c r="A198" s="48"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="46"/>
+      <c r="A199" s="48"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="46"/>
+      <c r="A200" s="48"/>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="46"/>
+      <c r="A201" s="48"/>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="46"/>
+      <c r="A202" s="48"/>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="46"/>
+      <c r="A203" s="48"/>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="46"/>
+      <c r="A204" s="48"/>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="46"/>
+      <c r="A205" s="48"/>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="46"/>
+      <c r="A206" s="48"/>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="46"/>
+      <c r="A207" s="48"/>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="46"/>
+      <c r="A208" s="48"/>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="46"/>
+      <c r="A209" s="48"/>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="46"/>
+      <c r="A210" s="48"/>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="46"/>
+      <c r="A211" s="48"/>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="46"/>
+      <c r="A212" s="48"/>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="46"/>
+      <c r="A213" s="48"/>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="46"/>
+      <c r="A214" s="48"/>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="46"/>
+      <c r="A215" s="48"/>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="46"/>
+      <c r="A216" s="48"/>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="46"/>
+      <c r="A217" s="48"/>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="46"/>
+      <c r="A218" s="48"/>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="46"/>
+      <c r="A219" s="48"/>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="46"/>
+      <c r="A220" s="48"/>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="46"/>
+      <c r="A221" s="48"/>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="46"/>
+      <c r="A222" s="48"/>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="46"/>
+      <c r="A223" s="48"/>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="46"/>
+      <c r="A224" s="48"/>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="46"/>
+      <c r="A225" s="48"/>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="46"/>
+      <c r="A226" s="48"/>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="46"/>
+      <c r="A227" s="48"/>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="46"/>
+      <c r="A228" s="48"/>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="46"/>
+      <c r="A229" s="48"/>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="46"/>
+      <c r="A230" s="48"/>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="46"/>
+      <c r="A231" s="48"/>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="46"/>
+      <c r="A232" s="48"/>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="46"/>
+      <c r="A233" s="48"/>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="46"/>
+      <c r="A234" s="48"/>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="46"/>
+      <c r="A235" s="48"/>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="46"/>
+      <c r="A236" s="48"/>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="46"/>
+      <c r="A237" s="48"/>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="46"/>
+      <c r="A238" s="48"/>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="46"/>
+      <c r="A239" s="48"/>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="46"/>
+      <c r="A240" s="48"/>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="46"/>
+      <c r="A241" s="48"/>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="46"/>
+      <c r="A242" s="48"/>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="46"/>
+      <c r="A243" s="48"/>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="46"/>
+      <c r="A244" s="48"/>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="46"/>
+      <c r="A245" s="48"/>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="46"/>
+      <c r="A246" s="48"/>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="46"/>
+      <c r="A247" s="48"/>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="46"/>
+      <c r="A248" s="48"/>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="46"/>
+      <c r="A249" s="48"/>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="46"/>
+      <c r="A250" s="48"/>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="46"/>
+      <c r="A251" s="48"/>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="46"/>
+      <c r="A252" s="48"/>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="46"/>
+      <c r="A253" s="48"/>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="46"/>
+      <c r="A254" s="48"/>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="46"/>
+      <c r="A255" s="48"/>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="46"/>
+      <c r="A256" s="48"/>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="46"/>
+      <c r="A257" s="48"/>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="46"/>
+      <c r="A258" s="48"/>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="46"/>
+      <c r="A259" s="48"/>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="46"/>
+      <c r="A260" s="48"/>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="46"/>
+      <c r="A261" s="48"/>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="46"/>
+      <c r="A262" s="48"/>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="46"/>
+      <c r="A263" s="48"/>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="46"/>
+      <c r="A264" s="48"/>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="46"/>
+      <c r="A265" s="48"/>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="46"/>
+      <c r="A266" s="48"/>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="46"/>
+      <c r="A267" s="48"/>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="46"/>
+      <c r="A268" s="48"/>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="46"/>
+      <c r="A269" s="48"/>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="46"/>
+      <c r="A270" s="48"/>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="46"/>
+      <c r="A271" s="48"/>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="46"/>
+      <c r="A272" s="48"/>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="46"/>
+      <c r="A273" s="48"/>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="46"/>
+      <c r="A274" s="48"/>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="46"/>
+      <c r="A275" s="48"/>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="46"/>
+      <c r="A276" s="48"/>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="46"/>
+      <c r="A277" s="48"/>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="46"/>
+      <c r="A278" s="48"/>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="46"/>
+      <c r="A279" s="48"/>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="46"/>
+      <c r="A280" s="48"/>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="46"/>
+      <c r="A281" s="48"/>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="46"/>
+      <c r="A282" s="48"/>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="46"/>
+      <c r="A283" s="48"/>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="46"/>
+      <c r="A284" s="48"/>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="46"/>
+      <c r="A285" s="48"/>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="46"/>
+      <c r="A286" s="48"/>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="46"/>
+      <c r="A287" s="48"/>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="46"/>
+      <c r="A288" s="48"/>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="46"/>
+      <c r="A289" s="48"/>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="46"/>
+      <c r="A290" s="48"/>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="46"/>
+      <c r="A291" s="48"/>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="46"/>
+      <c r="A292" s="48"/>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="46"/>
+      <c r="A293" s="48"/>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="46"/>
+      <c r="A294" s="48"/>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="46"/>
+      <c r="A295" s="48"/>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="46"/>
+      <c r="A296" s="48"/>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="46"/>
+      <c r="A297" s="48"/>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="46"/>
+      <c r="A298" s="48"/>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="46"/>
+      <c r="A299" s="48"/>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="46"/>
+      <c r="A300" s="48"/>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="46"/>
+      <c r="A301" s="48"/>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="46"/>
+      <c r="A302" s="48"/>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="46"/>
+      <c r="A303" s="48"/>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="46"/>
+      <c r="A304" s="48"/>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="46"/>
+      <c r="A305" s="48"/>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="46"/>
+      <c r="A306" s="48"/>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="46"/>
+      <c r="A307" s="48"/>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="46"/>
+      <c r="A308" s="48"/>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="46"/>
+      <c r="A309" s="48"/>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="46"/>
+      <c r="A310" s="48"/>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="46"/>
+      <c r="A311" s="48"/>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="46"/>
+      <c r="A312" s="48"/>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="46"/>
+      <c r="A313" s="48"/>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="46"/>
+      <c r="A314" s="48"/>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="46"/>
+      <c r="A315" s="48"/>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="46"/>
+      <c r="A316" s="48"/>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="46"/>
+      <c r="A317" s="48"/>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="46"/>
+      <c r="A318" s="48"/>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="46"/>
+      <c r="A319" s="48"/>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="46"/>
+      <c r="A320" s="48"/>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="46"/>
+      <c r="A321" s="48"/>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="46"/>
+      <c r="A322" s="48"/>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="46"/>
+      <c r="A323" s="48"/>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="46"/>
+      <c r="A324" s="48"/>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="46"/>
+      <c r="A325" s="48"/>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="46"/>
+      <c r="A326" s="48"/>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="46"/>
+      <c r="A327" s="48"/>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="46"/>
+      <c r="A328" s="48"/>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="46"/>
+      <c r="A329" s="48"/>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="46"/>
+      <c r="A330" s="48"/>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="46"/>
+      <c r="A331" s="48"/>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="46"/>
+      <c r="A332" s="48"/>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="46"/>
+      <c r="A333" s="48"/>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" s="46"/>
+      <c r="A334" s="48"/>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="46"/>
+      <c r="A335" s="48"/>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="46"/>
+      <c r="A336" s="48"/>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="46"/>
+      <c r="A337" s="48"/>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="46"/>
+      <c r="A338" s="48"/>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="46"/>
+      <c r="A339" s="48"/>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="46"/>
+      <c r="A340" s="48"/>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="46"/>
+      <c r="A341" s="48"/>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="46"/>
+      <c r="A342" s="48"/>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="46"/>
+      <c r="A343" s="48"/>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="46"/>
+      <c r="A344" s="48"/>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="46"/>
+      <c r="A345" s="48"/>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="46"/>
+      <c r="A346" s="48"/>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="46"/>
+      <c r="A347" s="48"/>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="46"/>
+      <c r="A348" s="48"/>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="46"/>
+      <c r="A349" s="48"/>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="46"/>
+      <c r="A350" s="48"/>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="46"/>
+      <c r="A351" s="48"/>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="46"/>
+      <c r="A352" s="48"/>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="46"/>
+      <c r="A353" s="48"/>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="46"/>
+      <c r="A354" s="48"/>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="46"/>
+      <c r="A355" s="48"/>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="46"/>
+      <c r="A356" s="48"/>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="46"/>
+      <c r="A357" s="48"/>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="46"/>
+      <c r="A358" s="48"/>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="46"/>
+      <c r="A359" s="48"/>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="46"/>
+      <c r="A360" s="48"/>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="46"/>
+      <c r="A361" s="48"/>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="46"/>
+      <c r="A362" s="48"/>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="46"/>
+      <c r="A363" s="48"/>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="46"/>
+      <c r="A364" s="48"/>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="46"/>
+      <c r="A365" s="48"/>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="46"/>
+      <c r="A366" s="48"/>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="46"/>
+      <c r="A367" s="48"/>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="46"/>
+      <c r="A368" s="48"/>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" s="46"/>
+      <c r="A369" s="48"/>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="46"/>
+      <c r="A370" s="48"/>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="46"/>
+      <c r="A371" s="48"/>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="46"/>
+      <c r="A372" s="48"/>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" s="46"/>
+      <c r="A373" s="48"/>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="46"/>
+      <c r="A374" s="48"/>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" s="46"/>
+      <c r="A375" s="48"/>
     </row>
     <row r="376" spans="1:1">
-      <c r="A376" s="46"/>
+      <c r="A376" s="48"/>
     </row>
     <row r="377" spans="1:1">
-      <c r="A377" s="46"/>
+      <c r="A377" s="48"/>
     </row>
     <row r="378" spans="1:1">
-      <c r="A378" s="46"/>
+      <c r="A378" s="48"/>
     </row>
     <row r="379" spans="1:1">
-      <c r="A379" s="46"/>
+      <c r="A379" s="48"/>
     </row>
     <row r="380" spans="1:1">
-      <c r="A380" s="46"/>
+      <c r="A380" s="48"/>
     </row>
     <row r="381" spans="1:1">
-      <c r="A381" s="46"/>
+      <c r="A381" s="48"/>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382" s="46"/>
+      <c r="A382" s="48"/>
     </row>
     <row r="383" spans="1:1">
-      <c r="A383" s="46"/>
+      <c r="A383" s="48"/>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="46"/>
+      <c r="A384" s="48"/>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385" s="46"/>
+      <c r="A385" s="48"/>
     </row>
     <row r="386" spans="1:1">
-      <c r="A386" s="46"/>
+      <c r="A386" s="48"/>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387" s="46"/>
+      <c r="A387" s="48"/>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388" s="46"/>
+      <c r="A388" s="48"/>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389" s="46"/>
+      <c r="A389" s="48"/>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390" s="46"/>
+      <c r="A390" s="48"/>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391" s="46"/>
+      <c r="A391" s="48"/>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392" s="46"/>
+      <c r="A392" s="48"/>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" s="46"/>
+      <c r="A393" s="48"/>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394" s="46"/>
+      <c r="A394" s="48"/>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395" s="46"/>
+      <c r="A395" s="48"/>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396" s="46"/>
+      <c r="A396" s="48"/>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397" s="46"/>
+      <c r="A397" s="48"/>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398" s="46"/>
+      <c r="A398" s="48"/>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399" s="46"/>
+      <c r="A399" s="48"/>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" s="46"/>
+      <c r="A400" s="48"/>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="46"/>
+      <c r="A401" s="48"/>
     </row>
     <row r="402" spans="1:1">
-      <c r="A402" s="46"/>
+      <c r="A402" s="48"/>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403" s="46"/>
+      <c r="A403" s="48"/>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404" s="46"/>
+      <c r="A404" s="48"/>
     </row>
     <row r="405" spans="1:1">
-      <c r="A405" s="46"/>
+      <c r="A405" s="48"/>
     </row>
     <row r="406" spans="1:1">
-      <c r="A406" s="46"/>
+      <c r="A406" s="48"/>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407" s="46"/>
+      <c r="A407" s="48"/>
     </row>
     <row r="408" spans="1:1">
-      <c r="A408" s="46"/>
+      <c r="A408" s="48"/>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409" s="46"/>
+      <c r="A409" s="48"/>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" s="46"/>
+      <c r="A410" s="48"/>
     </row>
     <row r="411" spans="1:1">
-      <c r="A411" s="46"/>
+      <c r="A411" s="48"/>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412" s="46"/>
+      <c r="A412" s="48"/>
     </row>
     <row r="413" spans="1:1">
-      <c r="A413" s="46"/>
+      <c r="A413" s="48"/>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" s="46"/>
+      <c r="A414" s="48"/>
     </row>
     <row r="415" spans="1:1">
-      <c r="A415" s="46"/>
+      <c r="A415" s="48"/>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416" s="46"/>
+      <c r="A416" s="48"/>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417" s="46"/>
+      <c r="A417" s="48"/>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418" s="46"/>
+      <c r="A418" s="48"/>
     </row>
     <row r="419" spans="1:1">
-      <c r="A419" s="46"/>
+      <c r="A419" s="48"/>
     </row>
     <row r="420" spans="1:1">
-      <c r="A420" s="46"/>
+      <c r="A420" s="48"/>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421" s="46"/>
+      <c r="A421" s="48"/>
     </row>
     <row r="422" spans="1:1">
-      <c r="A422" s="46"/>
+      <c r="A422" s="48"/>
     </row>
     <row r="423" spans="1:1">
-      <c r="A423" s="46"/>
+      <c r="A423" s="48"/>
     </row>
     <row r="424" spans="1:1">
-      <c r="A424" s="46"/>
+      <c r="A424" s="48"/>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425" s="46"/>
+      <c r="A425" s="48"/>
     </row>
     <row r="426" spans="1:1">
-      <c r="A426" s="46"/>
+      <c r="A426" s="48"/>
     </row>
     <row r="427" spans="1:1">
-      <c r="A427" s="46"/>
+      <c r="A427" s="48"/>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" s="46"/>
+      <c r="A428" s="48"/>
     </row>
     <row r="429" spans="1:1">
-      <c r="A429" s="46"/>
+      <c r="A429" s="48"/>
     </row>
     <row r="430" spans="1:1">
-      <c r="A430" s="46"/>
+      <c r="A430" s="48"/>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" s="46"/>
+      <c r="A431" s="48"/>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" s="46"/>
+      <c r="A432" s="48"/>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="46"/>
+      <c r="A433" s="48"/>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="46"/>
+      <c r="A434" s="48"/>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="46"/>
+      <c r="A435" s="48"/>
     </row>
     <row r="436" spans="1:1">
-      <c r="A436" s="46"/>
+      <c r="A436" s="48"/>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="46"/>
+      <c r="A437" s="48"/>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" s="46"/>
+      <c r="A438" s="48"/>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" s="46"/>
+      <c r="A439" s="48"/>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="46"/>
+      <c r="A440" s="48"/>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441" s="46"/>
+      <c r="A441" s="48"/>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" s="46"/>
+      <c r="A442" s="48"/>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" s="46"/>
+      <c r="A443" s="48"/>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444" s="46"/>
+      <c r="A444" s="48"/>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445" s="46"/>
+      <c r="A445" s="48"/>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446" s="46"/>
+      <c r="A446" s="48"/>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" s="46"/>
+      <c r="A447" s="48"/>
     </row>
     <row r="448" spans="1:1">
-      <c r="A448" s="46"/>
+      <c r="A448" s="48"/>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="46"/>
+      <c r="A449" s="48"/>
     </row>
     <row r="450" spans="1:1">
-      <c r="A450" s="46"/>
+      <c r="A450" s="48"/>
     </row>
     <row r="451" spans="1:1">
-      <c r="A451" s="46"/>
+      <c r="A451" s="48"/>
     </row>
     <row r="452" spans="1:1">
-      <c r="A452" s="46"/>
+      <c r="A452" s="48"/>
     </row>
     <row r="453" spans="1:1">
-      <c r="A453" s="46"/>
+      <c r="A453" s="48"/>
     </row>
     <row r="454" spans="1:1">
-      <c r="A454" s="46"/>
+      <c r="A454" s="48"/>
     </row>
     <row r="455" spans="1:1">
-      <c r="A455" s="46"/>
+      <c r="A455" s="48"/>
     </row>
     <row r="456" spans="1:1">
-      <c r="A456" s="46"/>
+      <c r="A456" s="48"/>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457" s="46"/>
+      <c r="A457" s="48"/>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458" s="46"/>
+      <c r="A458" s="48"/>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459" s="46"/>
+      <c r="A459" s="48"/>
     </row>
     <row r="460" spans="1:1">
-      <c r="A460" s="46"/>
+      <c r="A460" s="48"/>
     </row>
     <row r="461" spans="1:1">
-      <c r="A461" s="46"/>
+      <c r="A461" s="48"/>
     </row>
     <row r="462" spans="1:1">
-      <c r="A462" s="46"/>
+      <c r="A462" s="48"/>
     </row>
     <row r="463" spans="1:1">
-      <c r="A463" s="46"/>
+      <c r="A463" s="48"/>
     </row>
     <row r="464" spans="1:1">
-      <c r="A464" s="46"/>
+      <c r="A464" s="48"/>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="46"/>
+      <c r="A465" s="48"/>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="46"/>
+      <c r="A466" s="48"/>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" s="46"/>
+      <c r="A467" s="48"/>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468" s="46"/>
+      <c r="A468" s="48"/>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" s="46"/>
+      <c r="A469" s="48"/>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" s="46"/>
+      <c r="A470" s="48"/>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471" s="46"/>
+      <c r="A471" s="48"/>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" s="46"/>
+      <c r="A472" s="48"/>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473" s="46"/>
+      <c r="A473" s="48"/>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" s="46"/>
+      <c r="A474" s="48"/>
     </row>
     <row r="475" spans="1:1">
-      <c r="A475" s="46"/>
+      <c r="A475" s="48"/>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476" s="46"/>
+      <c r="A476" s="48"/>
     </row>
     <row r="477" spans="1:1">
-      <c r="A477" s="46"/>
+      <c r="A477" s="48"/>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="46"/>
+      <c r="A478" s="48"/>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="46"/>
+      <c r="A479" s="48"/>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480" s="46"/>
+      <c r="A480" s="48"/>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="46"/>
+      <c r="A481" s="48"/>
     </row>
     <row r="482" spans="1:1">
-      <c r="A482" s="46"/>
+      <c r="A482" s="48"/>
     </row>
     <row r="483" spans="1:1">
-      <c r="A483" s="46"/>
+      <c r="A483" s="48"/>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484" s="46"/>
+      <c r="A484" s="48"/>
     </row>
     <row r="485" spans="1:1">
-      <c r="A485" s="46"/>
+      <c r="A485" s="48"/>
     </row>
     <row r="486" spans="1:1">
-      <c r="A486" s="46"/>
+      <c r="A486" s="48"/>
     </row>
     <row r="487" spans="1:1">
-      <c r="A487" s="46"/>
+      <c r="A487" s="48"/>
     </row>
     <row r="488" spans="1:1">
-      <c r="A488" s="46"/>
+      <c r="A488" s="48"/>
     </row>
     <row r="489" spans="1:1">
-      <c r="A489" s="46"/>
+      <c r="A489" s="48"/>
     </row>
     <row r="490" spans="1:1">
-      <c r="A490" s="46"/>
+      <c r="A490" s="48"/>
     </row>
     <row r="491" spans="1:1">
-      <c r="A491" s="46"/>
+      <c r="A491" s="48"/>
     </row>
     <row r="492" spans="1:1">
-      <c r="A492" s="46"/>
+      <c r="A492" s="48"/>
     </row>
     <row r="493" spans="1:1">
-      <c r="A493" s="46"/>
+      <c r="A493" s="48"/>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" s="46"/>
+      <c r="A494" s="48"/>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" s="46"/>
+      <c r="A495" s="48"/>
     </row>
     <row r="496" spans="1:1">
-      <c r="A496" s="46"/>
+      <c r="A496" s="48"/>
     </row>
     <row r="497" spans="1:1">
-      <c r="A497" s="46"/>
+      <c r="A497" s="48"/>
     </row>
     <row r="498" spans="1:1">
-      <c r="A498" s="46"/>
+      <c r="A498" s="48"/>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="46"/>
+      <c r="A499" s="48"/>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" s="46"/>
+      <c r="A500" s="48"/>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" s="46"/>
+      <c r="A501" s="48"/>
     </row>
     <row r="502" spans="1:1">
-      <c r="A502" s="46"/>
+      <c r="A502" s="48"/>
     </row>
     <row r="503" spans="1:1">
-      <c r="A503" s="46"/>
+      <c r="A503" s="48"/>
     </row>
     <row r="504" spans="1:1">
-      <c r="A504" s="46"/>
+      <c r="A504" s="48"/>
     </row>
     <row r="505" spans="1:1">
-      <c r="A505" s="46"/>
+      <c r="A505" s="48"/>
     </row>
     <row r="506" spans="1:1">
-      <c r="A506" s="46"/>
+      <c r="A506" s="48"/>
     </row>
     <row r="507" spans="1:1">
-      <c r="A507" s="46"/>
+      <c r="A507" s="48"/>
     </row>
     <row r="508" spans="1:1">
-      <c r="A508" s="46"/>
+      <c r="A508" s="48"/>
     </row>
     <row r="509" spans="1:1">
-      <c r="A509" s="46"/>
+      <c r="A509" s="48"/>
     </row>
     <row r="510" spans="1:1">
-      <c r="A510" s="46"/>
+      <c r="A510" s="48"/>
     </row>
     <row r="511" spans="1:1">
-      <c r="A511" s="46"/>
+      <c r="A511" s="48"/>
     </row>
     <row r="512" spans="1:1">
-      <c r="A512" s="46"/>
+      <c r="A512" s="48"/>
     </row>
     <row r="513" spans="1:1">
-      <c r="A513" s="46"/>
+      <c r="A513" s="48"/>
     </row>
     <row r="514" spans="1:1">
-      <c r="A514" s="46"/>
+      <c r="A514" s="48"/>
     </row>
     <row r="515" spans="1:1">
-      <c r="A515" s="46"/>
+      <c r="A515" s="48"/>
     </row>
     <row r="516" spans="1:1">
-      <c r="A516" s="46"/>
+      <c r="A516" s="48"/>
     </row>
     <row r="517" spans="1:1">
-      <c r="A517" s="46"/>
+      <c r="A517" s="48"/>
     </row>
     <row r="518" spans="1:1">
-      <c r="A518" s="46"/>
+      <c r="A518" s="48"/>
     </row>
     <row r="519" spans="1:1">
-      <c r="A519" s="46"/>
+      <c r="A519" s="48"/>
     </row>
     <row r="520" spans="1:1">
-      <c r="A520" s="46"/>
+      <c r="A520" s="48"/>
     </row>
     <row r="521" spans="1:1">
-      <c r="A521" s="46"/>
+      <c r="A521" s="48"/>
     </row>
     <row r="522" spans="1:1">
-      <c r="A522" s="46"/>
+      <c r="A522" s="48"/>
     </row>
     <row r="523" spans="1:1">
-      <c r="A523" s="46"/>
+      <c r="A523" s="48"/>
     </row>
     <row r="524" spans="1:1">
-      <c r="A524" s="46"/>
+      <c r="A524" s="48"/>
     </row>
     <row r="525" spans="1:1">
-      <c r="A525" s="46"/>
+      <c r="A525" s="48"/>
     </row>
     <row r="526" spans="1:1">
-      <c r="A526" s="46"/>
+      <c r="A526" s="48"/>
     </row>
     <row r="527" spans="1:1">
-      <c r="A527" s="46"/>
+      <c r="A527" s="48"/>
     </row>
     <row r="528" spans="1:1">
-      <c r="A528" s="46"/>
+      <c r="A528" s="48"/>
     </row>
     <row r="529" spans="1:1">
-      <c r="A529" s="46"/>
+      <c r="A529" s="48"/>
     </row>
     <row r="530" spans="1:1">
-      <c r="A530" s="46"/>
+      <c r="A530" s="48"/>
     </row>
     <row r="531" spans="1:1">
-      <c r="A531" s="46"/>
+      <c r="A531" s="48"/>
     </row>
     <row r="532" spans="1:1">
-      <c r="A532" s="46"/>
+      <c r="A532" s="48"/>
     </row>
     <row r="533" spans="1:1">
-      <c r="A533" s="46"/>
+      <c r="A533" s="48"/>
     </row>
     <row r="534" spans="1:1">
-      <c r="A534" s="46"/>
+      <c r="A534" s="48"/>
     </row>
     <row r="535" spans="1:1">
-      <c r="A535" s="46"/>
+      <c r="A535" s="48"/>
     </row>
     <row r="536" spans="1:1">
-      <c r="A536" s="46"/>
+      <c r="A536" s="48"/>
     </row>
     <row r="537" spans="1:1">
-      <c r="A537" s="46"/>
+      <c r="A537" s="48"/>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="46"/>
+      <c r="A538" s="48"/>
     </row>
     <row r="539" spans="1:1">
-      <c r="A539" s="46"/>
+      <c r="A539" s="48"/>
     </row>
     <row r="540" spans="1:1">
-      <c r="A540" s="46"/>
+      <c r="A540" s="48"/>
     </row>
     <row r="541" spans="1:1">
-      <c r="A541" s="46"/>
+      <c r="A541" s="48"/>
     </row>
     <row r="542" spans="1:1">
-      <c r="A542" s="46"/>
+      <c r="A542" s="48"/>
     </row>
     <row r="543" spans="1:1">
-      <c r="A543" s="46"/>
+      <c r="A543" s="48"/>
     </row>
     <row r="544" spans="1:1">
-      <c r="A544" s="46"/>
+      <c r="A544" s="48"/>
     </row>
     <row r="545" spans="1:1">
-      <c r="A545" s="46"/>
+      <c r="A545" s="48"/>
     </row>
     <row r="546" spans="1:1">
-      <c r="A546" s="46"/>
+      <c r="A546" s="48"/>
     </row>
     <row r="547" spans="1:1">
-      <c r="A547" s="46"/>
+      <c r="A547" s="48"/>
     </row>
     <row r="548" spans="1:1">
-      <c r="A548" s="46"/>
+      <c r="A548" s="48"/>
     </row>
     <row r="549" spans="1:1">
-      <c r="A549" s="46"/>
+      <c r="A549" s="48"/>
     </row>
     <row r="550" spans="1:1">
-      <c r="A550" s="46"/>
+      <c r="A550" s="48"/>
     </row>
     <row r="551" spans="1:1">
-      <c r="A551" s="46"/>
+      <c r="A551" s="48"/>
     </row>
     <row r="552" spans="1:1">
-      <c r="A552" s="46"/>
+      <c r="A552" s="48"/>
     </row>
     <row r="553" spans="1:1">
-      <c r="A553" s="46"/>
+      <c r="A553" s="48"/>
     </row>
     <row r="554" spans="1:1">
-      <c r="A554" s="46"/>
+      <c r="A554" s="48"/>
     </row>
     <row r="555" spans="1:1">
-      <c r="A555" s="46"/>
+      <c r="A555" s="48"/>
     </row>
     <row r="556" spans="1:1">
-      <c r="A556" s="46"/>
+      <c r="A556" s="48"/>
     </row>
     <row r="557" spans="1:1">
-      <c r="A557" s="46"/>
+      <c r="A557" s="48"/>
     </row>
     <row r="558" spans="1:1">
-      <c r="A558" s="46"/>
+      <c r="A558" s="48"/>
     </row>
     <row r="559" spans="1:1">
-      <c r="A559" s="46"/>
+      <c r="A559" s="48"/>
     </row>
     <row r="560" spans="1:1">
-      <c r="A560" s="46"/>
+      <c r="A560" s="48"/>
     </row>
     <row r="561" spans="1:1">
-      <c r="A561" s="46"/>
+      <c r="A561" s="48"/>
     </row>
     <row r="562" spans="1:1">
-      <c r="A562" s="46"/>
+      <c r="A562" s="48"/>
     </row>
     <row r="563" spans="1:1">
-      <c r="A563" s="46"/>
+      <c r="A563" s="48"/>
     </row>
     <row r="564" spans="1:1">
-      <c r="A564" s="46"/>
+      <c r="A564" s="48"/>
     </row>
     <row r="565" spans="1:1">
-      <c r="A565" s="46"/>
+      <c r="A565" s="48"/>
     </row>
     <row r="566" spans="1:1">
-      <c r="A566" s="46"/>
+      <c r="A566" s="48"/>
     </row>
     <row r="567" spans="1:1">
-      <c r="A567" s="46"/>
+      <c r="A567" s="48"/>
     </row>
     <row r="568" spans="1:1">
-      <c r="A568" s="46"/>
+      <c r="A568" s="48"/>
     </row>
     <row r="569" spans="1:1">
-      <c r="A569" s="46"/>
+      <c r="A569" s="48"/>
     </row>
     <row r="570" spans="1:1">
-      <c r="A570" s="46"/>
+      <c r="A570" s="48"/>
     </row>
     <row r="571" spans="1:1">
-      <c r="A571" s="46"/>
+      <c r="A571" s="48"/>
     </row>
     <row r="572" spans="1:1">
-      <c r="A572" s="46"/>
+      <c r="A572" s="48"/>
     </row>
     <row r="573" spans="1:1">
-      <c r="A573" s="46"/>
+      <c r="A573" s="48"/>
     </row>
     <row r="574" spans="1:1">
-      <c r="A574" s="46"/>
+      <c r="A574" s="48"/>
     </row>
     <row r="575" spans="1:1">
-      <c r="A575" s="46"/>
+      <c r="A575" s="48"/>
     </row>
     <row r="576" spans="1:1">
-      <c r="A576" s="46"/>
+      <c r="A576" s="48"/>
     </row>
     <row r="577" spans="1:1">
-      <c r="A577" s="46"/>
+      <c r="A577" s="48"/>
     </row>
     <row r="578" spans="1:1">
-      <c r="A578" s="46"/>
+      <c r="A578" s="48"/>
     </row>
     <row r="579" spans="1:1">
-      <c r="A579" s="46"/>
+      <c r="A579" s="48"/>
     </row>
     <row r="580" spans="1:1">
-      <c r="A580" s="46"/>
+      <c r="A580" s="48"/>
     </row>
     <row r="581" spans="1:1">
-      <c r="A581" s="46"/>
+      <c r="A581" s="48"/>
     </row>
     <row r="582" spans="1:1">
-      <c r="A582" s="46"/>
+      <c r="A582" s="48"/>
     </row>
     <row r="583" spans="1:1">
-      <c r="A583" s="46"/>
+      <c r="A583" s="48"/>
     </row>
     <row r="584" spans="1:1">
-      <c r="A584" s="46"/>
+      <c r="A584" s="48"/>
     </row>
     <row r="585" spans="1:1">
-      <c r="A585" s="46"/>
+      <c r="A585" s="48"/>
     </row>
     <row r="586" spans="1:1">
-      <c r="A586" s="46"/>
+      <c r="A586" s="48"/>
     </row>
     <row r="587" spans="1:1">
-      <c r="A587" s="46"/>
+      <c r="A587" s="48"/>
     </row>
     <row r="588" spans="1:1">
-      <c r="A588" s="46"/>
+      <c r="A588" s="48"/>
     </row>
     <row r="589" spans="1:1">
-      <c r="A589" s="46"/>
+      <c r="A589" s="48"/>
     </row>
     <row r="590" spans="1:1">
-      <c r="A590" s="46"/>
+      <c r="A590" s="48"/>
     </row>
     <row r="591" spans="1:1">
-      <c r="A591" s="46"/>
+      <c r="A591" s="48"/>
     </row>
     <row r="592" spans="1:1">
-      <c r="A592" s="46"/>
+      <c r="A592" s="48"/>
     </row>
     <row r="593" spans="1:1">
-      <c r="A593" s="46"/>
+      <c r="A593" s="48"/>
     </row>
     <row r="594" spans="1:1">
-      <c r="A594" s="46"/>
+      <c r="A594" s="48"/>
     </row>
     <row r="595" spans="1:1">
-      <c r="A595" s="46"/>
+      <c r="A595" s="48"/>
     </row>
     <row r="596" spans="1:1">
-      <c r="A596" s="46"/>
+      <c r="A596" s="48"/>
     </row>
     <row r="597" spans="1:1">
-      <c r="A597" s="46"/>
+      <c r="A597" s="48"/>
     </row>
     <row r="598" spans="1:1">
-      <c r="A598" s="46"/>
+      <c r="A598" s="48"/>
     </row>
     <row r="599" spans="1:1">
-      <c r="A599" s="46"/>
+      <c r="A599" s="48"/>
     </row>
     <row r="600" spans="1:1">
-      <c r="A600" s="46"/>
+      <c r="A600" s="48"/>
     </row>
     <row r="601" spans="1:1">
-      <c r="A601" s="46"/>
+      <c r="A601" s="48"/>
     </row>
     <row r="602" spans="1:1">
-      <c r="A602" s="46"/>
+      <c r="A602" s="48"/>
     </row>
     <row r="603" spans="1:1">
-      <c r="A603" s="46"/>
+      <c r="A603" s="48"/>
     </row>
     <row r="604" spans="1:1">
-      <c r="A604" s="46"/>
+      <c r="A604" s="48"/>
     </row>
     <row r="605" spans="1:1">
-      <c r="A605" s="46"/>
+      <c r="A605" s="48"/>
     </row>
     <row r="606" spans="1:1">
-      <c r="A606" s="46"/>
+      <c r="A606" s="48"/>
     </row>
     <row r="607" spans="1:1">
-      <c r="A607" s="46"/>
+      <c r="A607" s="48"/>
     </row>
     <row r="608" spans="1:1">
-      <c r="A608" s="46"/>
+      <c r="A608" s="48"/>
     </row>
     <row r="609" spans="1:1">
-      <c r="A609" s="46"/>
+      <c r="A609" s="48"/>
     </row>
     <row r="610" spans="1:1">
-      <c r="A610" s="46"/>
+      <c r="A610" s="48"/>
     </row>
     <row r="611" spans="1:1">
-      <c r="A611" s="46"/>
+      <c r="A611" s="48"/>
     </row>
     <row r="612" spans="1:1">
-      <c r="A612" s="46"/>
+      <c r="A612" s="48"/>
     </row>
     <row r="613" spans="1:1">
-      <c r="A613" s="46"/>
+      <c r="A613" s="48"/>
     </row>
     <row r="614" spans="1:1">
-      <c r="A614" s="46"/>
+      <c r="A614" s="48"/>
     </row>
     <row r="615" spans="1:1">
-      <c r="A615" s="46"/>
+      <c r="A615" s="48"/>
     </row>
     <row r="616" spans="1:1">
-      <c r="A616" s="46"/>
+      <c r="A616" s="48"/>
     </row>
     <row r="617" spans="1:1">
-      <c r="A617" s="46"/>
+      <c r="A617" s="48"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="46"/>
+      <c r="A618" s="48"/>
     </row>
     <row r="619" spans="1:1">
-      <c r="A619" s="46"/>
+      <c r="A619" s="48"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="46"/>
+      <c r="A620" s="48"/>
     </row>
     <row r="621" spans="1:1">
-      <c r="A621" s="46"/>
+      <c r="A621" s="48"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="46"/>
+      <c r="A622" s="48"/>
     </row>
     <row r="623" spans="1:1">
-      <c r="A623" s="46"/>
+      <c r="A623" s="48"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="46"/>
+      <c r="A624" s="48"/>
     </row>
     <row r="625" spans="1:1">
-      <c r="A625" s="46"/>
+      <c r="A625" s="48"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="46"/>
+      <c r="A626" s="48"/>
     </row>
     <row r="627" spans="1:1">
-      <c r="A627" s="46"/>
+      <c r="A627" s="48"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="46"/>
+      <c r="A628" s="48"/>
     </row>
     <row r="629" spans="1:1">
-      <c r="A629" s="46"/>
+      <c r="A629" s="48"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="46"/>
+      <c r="A630" s="48"/>
     </row>
     <row r="631" spans="1:1">
-      <c r="A631" s="46"/>
+      <c r="A631" s="48"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="46"/>
+      <c r="A632" s="48"/>
     </row>
     <row r="633" spans="1:1">
-      <c r="A633" s="46"/>
+      <c r="A633" s="48"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="46"/>
+      <c r="A634" s="48"/>
     </row>
     <row r="635" spans="1:1">
-      <c r="A635" s="46"/>
+      <c r="A635" s="48"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="46"/>
+      <c r="A636" s="48"/>
     </row>
     <row r="637" spans="1:1">
-      <c r="A637" s="46"/>
+      <c r="A637" s="48"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="46"/>
+      <c r="A638" s="48"/>
     </row>
     <row r="639" spans="1:1">
-      <c r="A639" s="46"/>
+      <c r="A639" s="48"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="46"/>
+      <c r="A640" s="48"/>
     </row>
     <row r="641" spans="1:1">
-      <c r="A641" s="46"/>
+      <c r="A641" s="48"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="46"/>
+      <c r="A642" s="48"/>
     </row>
     <row r="643" spans="1:1">
-      <c r="A643" s="46"/>
+      <c r="A643" s="48"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="46"/>
+      <c r="A644" s="48"/>
     </row>
     <row r="645" spans="1:1">
-      <c r="A645" s="46"/>
+      <c r="A645" s="48"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="46"/>
+      <c r="A646" s="48"/>
     </row>
     <row r="647" spans="1:1">
-      <c r="A647" s="46"/>
+      <c r="A647" s="48"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="46"/>
+      <c r="A648" s="48"/>
     </row>
     <row r="649" spans="1:1">
-      <c r="A649" s="46"/>
+      <c r="A649" s="48"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="46"/>
+      <c r="A650" s="48"/>
     </row>
     <row r="651" spans="1:1">
-      <c r="A651" s="46"/>
+      <c r="A651" s="48"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="46"/>
+      <c r="A652" s="48"/>
     </row>
     <row r="653" spans="1:1">
-      <c r="A653" s="46"/>
+      <c r="A653" s="48"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="46"/>
+      <c r="A654" s="48"/>
     </row>
     <row r="655" spans="1:1">
-      <c r="A655" s="46"/>
+      <c r="A655" s="48"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="46"/>
+      <c r="A656" s="48"/>
     </row>
     <row r="657" spans="1:1">
-      <c r="A657" s="46"/>
+      <c r="A657" s="48"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="46"/>
+      <c r="A658" s="48"/>
     </row>
     <row r="659" spans="1:1">
-      <c r="A659" s="46"/>
+      <c r="A659" s="48"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="46"/>
+      <c r="A660" s="48"/>
     </row>
     <row r="661" spans="1:1">
-      <c r="A661" s="46"/>
+      <c r="A661" s="48"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="46"/>
+      <c r="A662" s="48"/>
     </row>
     <row r="663" spans="1:1">
-      <c r="A663" s="46"/>
+      <c r="A663" s="48"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="46"/>
+      <c r="A664" s="48"/>
     </row>
     <row r="665" spans="1:1">
-      <c r="A665" s="46"/>
+      <c r="A665" s="48"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="46"/>
+      <c r="A666" s="48"/>
     </row>
     <row r="667" spans="1:1">
-      <c r="A667" s="46"/>
+      <c r="A667" s="48"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="46"/>
+      <c r="A668" s="48"/>
     </row>
     <row r="669" spans="1:1">
-      <c r="A669" s="46"/>
+      <c r="A669" s="48"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="46"/>
+      <c r="A670" s="48"/>
     </row>
     <row r="671" spans="1:1">
-      <c r="A671" s="46"/>
+      <c r="A671" s="48"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="46"/>
+      <c r="A672" s="48"/>
     </row>
     <row r="673" spans="1:1">
-      <c r="A673" s="46"/>
+      <c r="A673" s="48"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="46"/>
+      <c r="A674" s="48"/>
     </row>
     <row r="675" spans="1:1">
-      <c r="A675" s="46"/>
+      <c r="A675" s="48"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="46"/>
+      <c r="A676" s="48"/>
     </row>
     <row r="677" spans="1:1">
-      <c r="A677" s="46"/>
+      <c r="A677" s="48"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="46"/>
+      <c r="A678" s="48"/>
     </row>
     <row r="679" spans="1:1">
-      <c r="A679" s="46"/>
+      <c r="A679" s="48"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="46"/>
+      <c r="A680" s="48"/>
     </row>
     <row r="681" spans="1:1">
-      <c r="A681" s="46"/>
+      <c r="A681" s="48"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="46"/>
+      <c r="A682" s="48"/>
     </row>
     <row r="683" spans="1:1">
-      <c r="A683" s="46"/>
+      <c r="A683" s="48"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="46"/>
+      <c r="A684" s="48"/>
     </row>
     <row r="685" spans="1:1">
-      <c r="A685" s="46"/>
+      <c r="A685" s="48"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="46"/>
+      <c r="A686" s="48"/>
     </row>
     <row r="687" spans="1:1">
-      <c r="A687" s="46"/>
+      <c r="A687" s="48"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="46"/>
+      <c r="A688" s="48"/>
     </row>
     <row r="689" spans="1:1">
-      <c r="A689" s="46"/>
+      <c r="A689" s="48"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="46"/>
+      <c r="A690" s="48"/>
     </row>
     <row r="691" spans="1:1">
-      <c r="A691" s="46"/>
+      <c r="A691" s="48"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="46"/>
+      <c r="A692" s="48"/>
     </row>
     <row r="693" spans="1:1">
-      <c r="A693" s="46"/>
+      <c r="A693" s="48"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="46"/>
+      <c r="A694" s="48"/>
     </row>
     <row r="695" spans="1:1">
-      <c r="A695" s="46"/>
+      <c r="A695" s="48"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="46"/>
+      <c r="A696" s="48"/>
     </row>
     <row r="697" spans="1:1">
-      <c r="A697" s="46"/>
+      <c r="A697" s="48"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="46"/>
+      <c r="A698" s="48"/>
     </row>
     <row r="699" spans="1:1">
-      <c r="A699" s="46"/>
+      <c r="A699" s="48"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="46"/>
+      <c r="A700" s="48"/>
     </row>
     <row r="701" spans="1:1">
-      <c r="A701" s="46"/>
+      <c r="A701" s="48"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="46"/>
+      <c r="A702" s="48"/>
     </row>
     <row r="703" spans="1:1">
-      <c r="A703" s="46"/>
+      <c r="A703" s="48"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="46"/>
+      <c r="A704" s="48"/>
     </row>
     <row r="705" spans="1:1">
-      <c r="A705" s="46"/>
+      <c r="A705" s="48"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="46"/>
+      <c r="A706" s="48"/>
     </row>
     <row r="707" spans="1:1">
-      <c r="A707" s="46"/>
+      <c r="A707" s="48"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="46"/>
+      <c r="A708" s="48"/>
     </row>
     <row r="709" spans="1:1">
-      <c r="A709" s="46"/>
+      <c r="A709" s="48"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="46"/>
+      <c r="A710" s="48"/>
     </row>
     <row r="711" spans="1:1">
-      <c r="A711" s="46"/>
+      <c r="A711" s="48"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="46"/>
+      <c r="A712" s="48"/>
     </row>
     <row r="713" spans="1:1">
-      <c r="A713" s="46"/>
+      <c r="A713" s="48"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="46"/>
+      <c r="A714" s="48"/>
     </row>
     <row r="715" spans="1:1">
-      <c r="A715" s="46"/>
+      <c r="A715" s="48"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="46"/>
+      <c r="A716" s="48"/>
     </row>
     <row r="717" spans="1:1">
-      <c r="A717" s="46"/>
+      <c r="A717" s="48"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="46"/>
+      <c r="A718" s="48"/>
     </row>
     <row r="719" spans="1:1">
-      <c r="A719" s="46"/>
+      <c r="A719" s="48"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="46"/>
+      <c r="A720" s="48"/>
     </row>
     <row r="721" spans="1:1">
-      <c r="A721" s="46"/>
+      <c r="A721" s="48"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="46"/>
+      <c r="A722" s="48"/>
     </row>
     <row r="723" spans="1:1">
-      <c r="A723" s="46"/>
+      <c r="A723" s="48"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="46"/>
+      <c r="A724" s="48"/>
     </row>
     <row r="725" spans="1:1">
-      <c r="A725" s="46"/>
+      <c r="A725" s="48"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="46"/>
+      <c r="A726" s="48"/>
     </row>
     <row r="727" spans="1:1">
-      <c r="A727" s="46"/>
+      <c r="A727" s="48"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="46"/>
+      <c r="A728" s="48"/>
     </row>
     <row r="729" spans="1:1">
-      <c r="A729" s="46"/>
+      <c r="A729" s="48"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="46"/>
+      <c r="A730" s="48"/>
     </row>
     <row r="731" spans="1:1">
-      <c r="A731" s="46"/>
+      <c r="A731" s="48"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="46"/>
+      <c r="A732" s="48"/>
     </row>
     <row r="733" spans="1:1">
-      <c r="A733" s="46"/>
+      <c r="A733" s="48"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="46"/>
+      <c r="A734" s="48"/>
     </row>
     <row r="735" spans="1:1">
-      <c r="A735" s="46"/>
+      <c r="A735" s="48"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="46"/>
+      <c r="A736" s="48"/>
     </row>
     <row r="737" spans="1:1">
-      <c r="A737" s="46"/>
+      <c r="A737" s="48"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="46"/>
+      <c r="A738" s="48"/>
     </row>
     <row r="739" spans="1:1">
-      <c r="A739" s="46"/>
+      <c r="A739" s="48"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="46"/>
+      <c r="A740" s="48"/>
     </row>
     <row r="741" spans="1:1">
-      <c r="A741" s="46"/>
+      <c r="A741" s="48"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="46"/>
+      <c r="A742" s="48"/>
     </row>
     <row r="743" spans="1:1">
-      <c r="A743" s="46"/>
+      <c r="A743" s="48"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="46"/>
+      <c r="A744" s="48"/>
     </row>
     <row r="745" spans="1:1">
-      <c r="A745" s="46"/>
+      <c r="A745" s="48"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="46"/>
+      <c r="A746" s="48"/>
     </row>
     <row r="747" spans="1:1">
-      <c r="A747" s="46"/>
+      <c r="A747" s="48"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="46"/>
+      <c r="A748" s="48"/>
     </row>
     <row r="749" spans="1:1">
-      <c r="A749" s="46"/>
+      <c r="A749" s="48"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="46"/>
+      <c r="A750" s="48"/>
     </row>
     <row r="751" spans="1:1">
-      <c r="A751" s="46"/>
+      <c r="A751" s="48"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="46"/>
+      <c r="A752" s="48"/>
     </row>
     <row r="753" spans="1:1">
-      <c r="A753" s="46"/>
+      <c r="A753" s="48"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="46"/>
+      <c r="A754" s="48"/>
     </row>
     <row r="755" spans="1:1">
-      <c r="A755" s="46"/>
+      <c r="A755" s="48"/>
     </row>
     <row r="756" spans="1:1">
-      <c r="A756" s="46"/>
+      <c r="A756" s="48"/>
     </row>
     <row r="757" spans="1:1">
-      <c r="A757" s="46"/>
+      <c r="A757" s="48"/>
     </row>
     <row r="758" spans="1:1">
-      <c r="A758" s="46"/>
+      <c r="A758" s="48"/>
     </row>
     <row r="759" spans="1:1">
-      <c r="A759" s="46"/>
+      <c r="A759" s="48"/>
     </row>
     <row r="760" spans="1:1">
-      <c r="A760" s="46"/>
+      <c r="A760" s="48"/>
     </row>
     <row r="761" spans="1:1">
-      <c r="A761" s="46"/>
+      <c r="A761" s="48"/>
     </row>
     <row r="762" spans="1:1">
-      <c r="A762" s="46"/>
+      <c r="A762" s="48"/>
     </row>
     <row r="763" spans="1:1">
-      <c r="A763" s="46"/>
+      <c r="A763" s="48"/>
     </row>
     <row r="764" spans="1:1">
-      <c r="A764" s="46"/>
+      <c r="A764" s="48"/>
     </row>
     <row r="765" spans="1:1">
-      <c r="A765" s="46"/>
+      <c r="A765" s="48"/>
     </row>
     <row r="766" spans="1:1">
-      <c r="A766" s="46"/>
+      <c r="A766" s="48"/>
     </row>
     <row r="767" spans="1:1">
-      <c r="A767" s="46"/>
+      <c r="A767" s="48"/>
     </row>
     <row r="768" spans="1:1">
-      <c r="A768" s="46"/>
+      <c r="A768" s="48"/>
     </row>
     <row r="769" spans="1:1">
-      <c r="A769" s="46"/>
+      <c r="A769" s="48"/>
     </row>
     <row r="770" spans="1:1">
-      <c r="A770" s="46"/>
+      <c r="A770" s="48"/>
     </row>
     <row r="771" spans="1:1">
-      <c r="A771" s="46"/>
+      <c r="A771" s="48"/>
     </row>
     <row r="772" spans="1:1">
-      <c r="A772" s="46"/>
+      <c r="A772" s="48"/>
     </row>
     <row r="773" spans="1:1">
-      <c r="A773" s="46"/>
+      <c r="A773" s="48"/>
     </row>
     <row r="774" spans="1:1">
-      <c r="A774" s="46"/>
+      <c r="A774" s="48"/>
     </row>
     <row r="775" spans="1:1">
-      <c r="A775" s="46"/>
+      <c r="A775" s="48"/>
     </row>
     <row r="776" spans="1:1">
-      <c r="A776" s="46"/>
+      <c r="A776" s="48"/>
     </row>
     <row r="777" spans="1:1">
-      <c r="A777" s="46"/>
+      <c r="A777" s="48"/>
     </row>
     <row r="778" spans="1:1">
-      <c r="A778" s="46"/>
+      <c r="A778" s="48"/>
     </row>
     <row r="779" spans="1:1">
-      <c r="A779" s="46"/>
+      <c r="A779" s="48"/>
     </row>
     <row r="780" spans="1:1">
-      <c r="A780" s="46"/>
+      <c r="A780" s="48"/>
     </row>
     <row r="781" spans="1:1">
-      <c r="A781" s="46"/>
+      <c r="A781" s="48"/>
     </row>
     <row r="782" spans="1:1">
-      <c r="A782" s="46"/>
+      <c r="A782" s="48"/>
     </row>
     <row r="783" spans="1:1">
-      <c r="A783" s="46"/>
+      <c r="A783" s="48"/>
     </row>
     <row r="784" spans="1:1">
-      <c r="A784" s="46"/>
+      <c r="A784" s="48"/>
     </row>
     <row r="785" spans="1:1">
-      <c r="A785" s="46"/>
+      <c r="A785" s="48"/>
     </row>
     <row r="786" spans="1:1">
-      <c r="A786" s="46"/>
+      <c r="A786" s="48"/>
     </row>
     <row r="787" spans="1:1">
-      <c r="A787" s="46"/>
+      <c r="A787" s="48"/>
     </row>
     <row r="788" spans="1:1">
-      <c r="A788" s="46"/>
+      <c r="A788" s="48"/>
     </row>
     <row r="789" spans="1:1">
-      <c r="A789" s="46"/>
+      <c r="A789" s="48"/>
     </row>
     <row r="790" spans="1:1">
-      <c r="A790" s="46"/>
+      <c r="A790" s="48"/>
     </row>
     <row r="791" spans="1:1">
-      <c r="A791" s="46"/>
+      <c r="A791" s="48"/>
     </row>
     <row r="792" spans="1:1">
-      <c r="A792" s="46"/>
+      <c r="A792" s="48"/>
     </row>
     <row r="793" spans="1:1">
-      <c r="A793" s="46"/>
+      <c r="A793" s="48"/>
     </row>
     <row r="794" spans="1:1">
-      <c r="A794" s="46"/>
+      <c r="A794" s="48"/>
     </row>
     <row r="795" spans="1:1">
-      <c r="A795" s="46"/>
+      <c r="A795" s="48"/>
     </row>
     <row r="796" spans="1:1">
-      <c r="A796" s="46"/>
+      <c r="A796" s="48"/>
     </row>
     <row r="797" spans="1:1">
-      <c r="A797" s="46"/>
+      <c r="A797" s="48"/>
     </row>
     <row r="798" spans="1:1">
-      <c r="A798" s="46"/>
+      <c r="A798" s="48"/>
     </row>
     <row r="799" spans="1:1">
-      <c r="A799" s="46"/>
+      <c r="A799" s="48"/>
     </row>
     <row r="800" spans="1:1">
-      <c r="A800" s="46"/>
+      <c r="A800" s="48"/>
     </row>
     <row r="801" spans="1:1">
-      <c r="A801" s="46"/>
+      <c r="A801" s="48"/>
     </row>
     <row r="802" spans="1:1">
-      <c r="A802" s="46"/>
+      <c r="A802" s="48"/>
     </row>
     <row r="803" spans="1:1">
-      <c r="A803" s="46"/>
+      <c r="A803" s="48"/>
     </row>
     <row r="804" spans="1:1">
-      <c r="A804" s="46"/>
+      <c r="A804" s="48"/>
     </row>
     <row r="805" spans="1:1">
-      <c r="A805" s="46"/>
+      <c r="A805" s="48"/>
     </row>
     <row r="806" spans="1:1">
-      <c r="A806" s="46"/>
+      <c r="A806" s="48"/>
     </row>
     <row r="807" spans="1:1">
-      <c r="A807" s="46"/>
+      <c r="A807" s="48"/>
     </row>
     <row r="808" spans="1:1">
-      <c r="A808" s="46"/>
+      <c r="A808" s="48"/>
     </row>
     <row r="809" spans="1:1">
-      <c r="A809" s="46"/>
+      <c r="A809" s="48"/>
     </row>
     <row r="810" spans="1:1">
-      <c r="A810" s="46"/>
+      <c r="A810" s="48"/>
     </row>
     <row r="811" spans="1:1">
-      <c r="A811" s="46"/>
+      <c r="A811" s="48"/>
     </row>
     <row r="812" spans="1:1">
-      <c r="A812" s="46"/>
+      <c r="A812" s="48"/>
     </row>
     <row r="813" spans="1:1">
-      <c r="A813" s="46"/>
+      <c r="A813" s="48"/>
     </row>
     <row r="814" spans="1:1">
-      <c r="A814" s="46"/>
+      <c r="A814" s="48"/>
     </row>
     <row r="815" spans="1:1">
-      <c r="A815" s="46"/>
+      <c r="A815" s="48"/>
     </row>
     <row r="816" spans="1:1">
-      <c r="A816" s="46"/>
+      <c r="A816" s="48"/>
     </row>
     <row r="817" spans="1:1">
-      <c r="A817" s="46"/>
+      <c r="A817" s="48"/>
     </row>
     <row r="818" spans="1:1">
-      <c r="A818" s="46"/>
+      <c r="A818" s="48"/>
     </row>
     <row r="819" spans="1:1">
-      <c r="A819" s="46"/>
+      <c r="A819" s="48"/>
     </row>
     <row r="820" spans="1:1">
-      <c r="A820" s="46"/>
+      <c r="A820" s="48"/>
     </row>
     <row r="821" spans="1:1">
-      <c r="A821" s="46"/>
+      <c r="A821" s="48"/>
     </row>
     <row r="822" spans="1:1">
-      <c r="A822" s="46"/>
+      <c r="A822" s="48"/>
     </row>
     <row r="823" spans="1:1">
-      <c r="A823" s="46"/>
+      <c r="A823" s="48"/>
     </row>
     <row r="824" spans="1:1">
-      <c r="A824" s="46"/>
+      <c r="A824" s="48"/>
     </row>
     <row r="825" spans="1:1">
-      <c r="A825" s="46"/>
+      <c r="A825" s="48"/>
     </row>
     <row r="826" spans="1:1">
-      <c r="A826" s="46"/>
+      <c r="A826" s="48"/>
     </row>
     <row r="827" spans="1:1">
-      <c r="A827" s="46"/>
+      <c r="A827" s="48"/>
     </row>
     <row r="828" spans="1:1">
-      <c r="A828" s="46"/>
+      <c r="A828" s="48"/>
     </row>
     <row r="829" spans="1:1">
-      <c r="A829" s="46"/>
+      <c r="A829" s="48"/>
     </row>
     <row r="830" spans="1:1">
-      <c r="A830" s="46"/>
+      <c r="A830" s="48"/>
     </row>
     <row r="831" spans="1:1">
-      <c r="A831" s="46"/>
+      <c r="A831" s="48"/>
     </row>
     <row r="832" spans="1:1">
-      <c r="A832" s="46"/>
+      <c r="A832" s="48"/>
     </row>
     <row r="833" spans="1:1">
-      <c r="A833" s="46"/>
+      <c r="A833" s="48"/>
     </row>
     <row r="834" spans="1:1">
-      <c r="A834" s="46"/>
+      <c r="A834" s="48"/>
     </row>
     <row r="835" spans="1:1">
-      <c r="A835" s="46"/>
+      <c r="A835" s="48"/>
     </row>
     <row r="836" spans="1:1">
-      <c r="A836" s="46"/>
+      <c r="A836" s="48"/>
     </row>
     <row r="837" spans="1:1">
-      <c r="A837" s="46"/>
+      <c r="A837" s="48"/>
     </row>
     <row r="838" spans="1:1">
-      <c r="A838" s="46"/>
+      <c r="A838" s="48"/>
     </row>
     <row r="839" spans="1:1">
-      <c r="A839" s="46"/>
+      <c r="A839" s="48"/>
     </row>
     <row r="840" spans="1:1">
-      <c r="A840" s="46"/>
+      <c r="A840" s="48"/>
     </row>
     <row r="841" spans="1:1">
-      <c r="A841" s="46"/>
+      <c r="A841" s="48"/>
     </row>
     <row r="842" spans="1:1">
-      <c r="A842" s="46"/>
+      <c r="A842" s="48"/>
     </row>
     <row r="843" spans="1:1">
-      <c r="A843" s="46"/>
+      <c r="A843" s="48"/>
     </row>
     <row r="844" spans="1:1">
-      <c r="A844" s="46"/>
+      <c r="A844" s="48"/>
     </row>
     <row r="845" spans="1:1">
-      <c r="A845" s="46"/>
+      <c r="A845" s="48"/>
     </row>
     <row r="846" spans="1:1">
-      <c r="A846" s="46"/>
+      <c r="A846" s="48"/>
     </row>
     <row r="847" spans="1:1">
-      <c r="A847" s="46"/>
+      <c r="A847" s="48"/>
     </row>
     <row r="848" spans="1:1">
-      <c r="A848" s="46"/>
+      <c r="A848" s="48"/>
     </row>
     <row r="849" spans="1:1">
-      <c r="A849" s="46"/>
+      <c r="A849" s="48"/>
     </row>
     <row r="850" spans="1:1">
-      <c r="A850" s="46"/>
+      <c r="A850" s="48"/>
     </row>
     <row r="851" spans="1:1">
-      <c r="A851" s="46"/>
+      <c r="A851" s="48"/>
     </row>
     <row r="852" spans="1:1">
-      <c r="A852" s="46"/>
+      <c r="A852" s="48"/>
     </row>
     <row r="853" spans="1:1">
-      <c r="A853" s="46"/>
+      <c r="A853" s="48"/>
     </row>
     <row r="854" spans="1:1">
-      <c r="A854" s="46"/>
+      <c r="A854" s="48"/>
     </row>
     <row r="855" spans="1:1">
-      <c r="A855" s="46"/>
+      <c r="A855" s="48"/>
     </row>
     <row r="856" spans="1:1">
-      <c r="A856" s="46"/>
+      <c r="A856" s="48"/>
     </row>
     <row r="857" spans="1:1">
-      <c r="A857" s="46"/>
+      <c r="A857" s="48"/>
     </row>
     <row r="858" spans="1:1">
-      <c r="A858" s="46"/>
+      <c r="A858" s="48"/>
     </row>
     <row r="859" spans="1:1">
-      <c r="A859" s="46"/>
+      <c r="A859" s="48"/>
     </row>
     <row r="860" spans="1:1">
-      <c r="A860" s="46"/>
+      <c r="A860" s="48"/>
     </row>
     <row r="861" spans="1:1">
-      <c r="A861" s="46"/>
+      <c r="A861" s="48"/>
     </row>
     <row r="862" spans="1:1">
-      <c r="A862" s="46"/>
+      <c r="A862" s="48"/>
     </row>
     <row r="863" spans="1:1">
-      <c r="A863" s="46"/>
+      <c r="A863" s="48"/>
     </row>
     <row r="864" spans="1:1">
-      <c r="A864" s="46"/>
+      <c r="A864" s="48"/>
     </row>
     <row r="865" spans="1:1">
-      <c r="A865" s="46"/>
+      <c r="A865" s="48"/>
     </row>
     <row r="866" spans="1:1">
-      <c r="A866" s="46"/>
+      <c r="A866" s="48"/>
     </row>
     <row r="867" spans="1:1">
-      <c r="A867" s="46"/>
+      <c r="A867" s="48"/>
     </row>
     <row r="868" spans="1:1">
-      <c r="A868" s="46"/>
+      <c r="A868" s="48"/>
     </row>
     <row r="869" spans="1:1">
-      <c r="A869" s="46"/>
+      <c r="A869" s="48"/>
     </row>
     <row r="870" spans="1:1">
-      <c r="A870" s="46"/>
+      <c r="A870" s="48"/>
     </row>
     <row r="871" spans="1:1">
-      <c r="A871" s="46"/>
+      <c r="A871" s="48"/>
     </row>
     <row r="872" spans="1:1">
-      <c r="A872" s="46"/>
+      <c r="A872" s="48"/>
     </row>
     <row r="873" spans="1:1">
-      <c r="A873" s="46"/>
+      <c r="A873" s="48"/>
     </row>
     <row r="874" spans="1:1">
-      <c r="A874" s="46"/>
+      <c r="A874" s="48"/>
     </row>
     <row r="875" spans="1:1">
-      <c r="A875" s="46"/>
+      <c r="A875" s="48"/>
     </row>
     <row r="876" spans="1:1">
-      <c r="A876" s="46"/>
+      <c r="A876" s="48"/>
     </row>
     <row r="877" spans="1:1">
-      <c r="A877" s="46"/>
+      <c r="A877" s="48"/>
     </row>
     <row r="878" spans="1:1">
-      <c r="A878" s="46"/>
+      <c r="A878" s="48"/>
     </row>
     <row r="879" spans="1:1">
-      <c r="A879" s="46"/>
+      <c r="A879" s="48"/>
     </row>
     <row r="880" spans="1:1">
-      <c r="A880" s="46"/>
+      <c r="A880" s="48"/>
     </row>
     <row r="881" spans="1:1">
-      <c r="A881" s="46"/>
+      <c r="A881" s="48"/>
     </row>
     <row r="882" spans="1:1">
-      <c r="A882" s="46"/>
+      <c r="A882" s="48"/>
     </row>
     <row r="883" spans="1:1">
-      <c r="A883" s="46"/>
+      <c r="A883" s="48"/>
     </row>
     <row r="884" spans="1:1">
-      <c r="A884" s="46"/>
+      <c r="A884" s="48"/>
     </row>
     <row r="885" spans="1:1">
-      <c r="A885" s="46"/>
+      <c r="A885" s="48"/>
     </row>
     <row r="886" spans="1:1">
-      <c r="A886" s="46"/>
+      <c r="A886" s="48"/>
     </row>
     <row r="887" spans="1:1">
-      <c r="A887" s="46"/>
+      <c r="A887" s="48"/>
     </row>
     <row r="888" spans="1:1">
-      <c r="A888" s="46"/>
+      <c r="A888" s="48"/>
     </row>
     <row r="889" spans="1:1">
-      <c r="A889" s="46"/>
+      <c r="A889" s="48"/>
     </row>
     <row r="890" spans="1:1">
-      <c r="A890" s="46"/>
+      <c r="A890" s="48"/>
     </row>
     <row r="891" spans="1:1">
-      <c r="A891" s="46"/>
+      <c r="A891" s="48"/>
     </row>
     <row r="892" spans="1:1">
-      <c r="A892" s="46"/>
+      <c r="A892" s="48"/>
     </row>
     <row r="893" spans="1:1">
-      <c r="A893" s="46"/>
+      <c r="A893" s="48"/>
     </row>
     <row r="894" spans="1:1">
-      <c r="A894" s="46"/>
+      <c r="A894" s="48"/>
     </row>
     <row r="895" spans="1:1">
-      <c r="A895" s="46"/>
+      <c r="A895" s="48"/>
     </row>
     <row r="896" spans="1:1">
-      <c r="A896" s="46"/>
+      <c r="A896" s="48"/>
     </row>
     <row r="897" spans="1:1">
-      <c r="A897" s="46"/>
+      <c r="A897" s="48"/>
     </row>
     <row r="898" spans="1:1">
-      <c r="A898" s="46"/>
+      <c r="A898" s="48"/>
     </row>
     <row r="899" spans="1:1">
-      <c r="A899" s="46"/>
+      <c r="A899" s="48"/>
     </row>
     <row r="900" spans="1:1">
-      <c r="A900" s="46"/>
+      <c r="A900" s="48"/>
     </row>
     <row r="901" spans="1:1">
-      <c r="A901" s="46"/>
+      <c r="A901" s="48"/>
     </row>
     <row r="902" spans="1:1">
-      <c r="A902" s="46"/>
+      <c r="A902" s="48"/>
     </row>
     <row r="903" spans="1:1">
-      <c r="A903" s="46"/>
+      <c r="A903" s="48"/>
     </row>
     <row r="904" spans="1:1">
-      <c r="A904" s="46"/>
+      <c r="A904" s="48"/>
     </row>
     <row r="905" spans="1:1">
-      <c r="A905" s="46"/>
+      <c r="A905" s="48"/>
     </row>
     <row r="906" spans="1:1">
-      <c r="A906" s="46"/>
+      <c r="A906" s="48"/>
     </row>
     <row r="907" spans="1:1">
-      <c r="A907" s="46"/>
+      <c r="A907" s="48"/>
     </row>
     <row r="908" spans="1:1">
-      <c r="A908" s="46"/>
+      <c r="A908" s="48"/>
     </row>
     <row r="909" spans="1:1">
-      <c r="A909" s="46"/>
+      <c r="A909" s="48"/>
     </row>
     <row r="910" spans="1:1">
-      <c r="A910" s="46"/>
+      <c r="A910" s="48"/>
     </row>
     <row r="911" spans="1:1">
-      <c r="A911" s="46"/>
+      <c r="A911" s="48"/>
     </row>
     <row r="912" spans="1:1">
-      <c r="A912" s="46"/>
+      <c r="A912" s="48"/>
     </row>
     <row r="913" spans="1:1">
-      <c r="A913" s="46"/>
+      <c r="A913" s="48"/>
     </row>
     <row r="914" spans="1:1">
-      <c r="A914" s="46"/>
+      <c r="A914" s="48"/>
     </row>
     <row r="915" spans="1:1">
-      <c r="A915" s="46"/>
+      <c r="A915" s="48"/>
     </row>
     <row r="916" spans="1:1">
-      <c r="A916" s="46"/>
+      <c r="A916" s="48"/>
     </row>
     <row r="917" spans="1:1">
-      <c r="A917" s="46"/>
+      <c r="A917" s="48"/>
     </row>
     <row r="918" spans="1:1">
-      <c r="A918" s="46"/>
+      <c r="A918" s="48"/>
     </row>
     <row r="919" spans="1:1">
-      <c r="A919" s="46"/>
+      <c r="A919" s="48"/>
     </row>
     <row r="920" spans="1:1">
-      <c r="A920" s="46"/>
+      <c r="A920" s="48"/>
     </row>
     <row r="921" spans="1:1">
-      <c r="A921" s="46"/>
+      <c r="A921" s="48"/>
     </row>
     <row r="922" spans="1:1">
-      <c r="A922" s="46"/>
+      <c r="A922" s="48"/>
     </row>
     <row r="923" spans="1:1">
-      <c r="A923" s="46"/>
+      <c r="A923" s="48"/>
     </row>
     <row r="924" spans="1:1">
-      <c r="A924" s="46"/>
+      <c r="A924" s="48"/>
     </row>
     <row r="925" spans="1:1">
-      <c r="A925" s="46"/>
+      <c r="A925" s="48"/>
     </row>
     <row r="926" spans="1:1">
-      <c r="A926" s="46"/>
+      <c r="A926" s="48"/>
     </row>
     <row r="927" spans="1:1">
-      <c r="A927" s="46"/>
+      <c r="A927" s="48"/>
     </row>
     <row r="928" spans="1:1">
-      <c r="A928" s="46"/>
+      <c r="A928" s="48"/>
     </row>
     <row r="929" spans="1:1">
-      <c r="A929" s="46"/>
+      <c r="A929" s="48"/>
     </row>
     <row r="930" spans="1:1">
-      <c r="A930" s="46"/>
+      <c r="A930" s="48"/>
     </row>
     <row r="931" spans="1:1">
-      <c r="A931" s="46"/>
+      <c r="A931" s="48"/>
     </row>
     <row r="932" spans="1:1">
-      <c r="A932" s="46"/>
+      <c r="A932" s="48"/>
     </row>
     <row r="933" spans="1:1">
-      <c r="A933" s="46"/>
+      <c r="A933" s="48"/>
     </row>
     <row r="934" spans="1:1">
-      <c r="A934" s="46"/>
+      <c r="A934" s="48"/>
     </row>
     <row r="935" spans="1:1">
-      <c r="A935" s="46"/>
+      <c r="A935" s="48"/>
     </row>
     <row r="936" spans="1:1">
-      <c r="A936" s="46"/>
+      <c r="A936" s="48"/>
     </row>
     <row r="937" spans="1:1">
-      <c r="A937" s="46"/>
+      <c r="A937" s="48"/>
     </row>
     <row r="938" spans="1:1">
-      <c r="A938" s="46"/>
+      <c r="A938" s="48"/>
     </row>
     <row r="939" spans="1:1">
-      <c r="A939" s="46"/>
+      <c r="A939" s="48"/>
     </row>
     <row r="940" spans="1:1">
-      <c r="A940" s="46"/>
+      <c r="A940" s="48"/>
     </row>
     <row r="941" spans="1:1">
-      <c r="A941" s="46"/>
+      <c r="A941" s="48"/>
     </row>
     <row r="942" spans="1:1">
-      <c r="A942" s="46"/>
+      <c r="A942" s="48"/>
     </row>
     <row r="943" spans="1:1">
-      <c r="A943" s="46"/>
+      <c r="A943" s="48"/>
     </row>
     <row r="944" spans="1:1">
-      <c r="A944" s="46"/>
+      <c r="A944" s="48"/>
     </row>
     <row r="945" spans="1:1">
-      <c r="A945" s="46"/>
+      <c r="A945" s="48"/>
     </row>
     <row r="946" spans="1:1">
-      <c r="A946" s="46"/>
+      <c r="A946" s="48"/>
     </row>
     <row r="947" spans="1:1">
-      <c r="A947" s="46"/>
+      <c r="A947" s="48"/>
     </row>
     <row r="948" spans="1:1">
-      <c r="A948" s="46"/>
+      <c r="A948" s="48"/>
     </row>
     <row r="949" spans="1:1">
-      <c r="A949" s="46"/>
+      <c r="A949" s="48"/>
     </row>
     <row r="950" spans="1:1">
-      <c r="A950" s="46"/>
+      <c r="A950" s="48"/>
     </row>
     <row r="951" spans="1:1">
-      <c r="A951" s="46"/>
+      <c r="A951" s="48"/>
     </row>
     <row r="952" spans="1:1">
-      <c r="A952" s="46"/>
+      <c r="A952" s="48"/>
     </row>
     <row r="953" spans="1:1">
-      <c r="A953" s="46"/>
+      <c r="A953" s="48"/>
     </row>
     <row r="954" spans="1:1">
-      <c r="A954" s="46"/>
+      <c r="A954" s="48"/>
     </row>
     <row r="955" spans="1:1">
-      <c r="A955" s="46"/>
+      <c r="A955" s="48"/>
     </row>
     <row r="956" spans="1:1">
-      <c r="A956" s="46"/>
+      <c r="A956" s="48"/>
     </row>
     <row r="957" spans="1:1">
-      <c r="A957" s="46"/>
+      <c r="A957" s="48"/>
     </row>
     <row r="958" spans="1:1">
-      <c r="A958" s="46"/>
+      <c r="A958" s="48"/>
     </row>
     <row r="959" spans="1:1">
-      <c r="A959" s="46"/>
+      <c r="A959" s="48"/>
     </row>
     <row r="960" spans="1:1">
-      <c r="A960" s="46"/>
+      <c r="A960" s="48"/>
     </row>
     <row r="961" spans="1:1">
-      <c r="A961" s="46"/>
+      <c r="A961" s="48"/>
     </row>
     <row r="962" spans="1:1">
-      <c r="A962" s="46"/>
+      <c r="A962" s="48"/>
     </row>
     <row r="963" spans="1:1">
-      <c r="A963" s="46"/>
+      <c r="A963" s="48"/>
     </row>
     <row r="964" spans="1:1">
-      <c r="A964" s="46"/>
+      <c r="A964" s="48"/>
     </row>
     <row r="965" spans="1:1">
-      <c r="A965" s="46"/>
+      <c r="A965" s="48"/>
     </row>
     <row r="966" spans="1:1">
-      <c r="A966" s="46"/>
+      <c r="A966" s="48"/>
     </row>
     <row r="967" spans="1:1">
-      <c r="A967" s="46"/>
+      <c r="A967" s="48"/>
     </row>
     <row r="968" spans="1:1">
-      <c r="A968" s="46"/>
+      <c r="A968" s="48"/>
     </row>
     <row r="969" spans="1:1">
-      <c r="A969" s="46"/>
+      <c r="A969" s="48"/>
     </row>
     <row r="970" spans="1:1">
-      <c r="A970" s="46"/>
+      <c r="A970" s="48"/>
     </row>
     <row r="971" spans="1:1">
-      <c r="A971" s="46"/>
+      <c r="A971" s="48"/>
     </row>
     <row r="972" spans="1:1">
-      <c r="A972" s="46"/>
+      <c r="A972" s="48"/>
     </row>
     <row r="973" spans="1:1">
-      <c r="A973" s="46"/>
+      <c r="A973" s="48"/>
     </row>
     <row r="974" spans="1:1">
-      <c r="A974" s="46"/>
+      <c r="A974" s="48"/>
     </row>
     <row r="975" spans="1:1">
-      <c r="A975" s="46"/>
+      <c r="A975" s="48"/>
     </row>
     <row r="976" spans="1:1">
-      <c r="A976" s="46"/>
+      <c r="A976" s="48"/>
     </row>
     <row r="977" spans="1:1">
-      <c r="A977" s="46"/>
+      <c r="A977" s="48"/>
     </row>
     <row r="978" spans="1:1">
-      <c r="A978" s="46"/>
+      <c r="A978" s="48"/>
     </row>
     <row r="979" spans="1:1">
-      <c r="A979" s="46"/>
+      <c r="A979" s="48"/>
     </row>
     <row r="980" spans="1:1">
-      <c r="A980" s="46"/>
+      <c r="A980" s="48"/>
     </row>
     <row r="981" spans="1:1">
-      <c r="A981" s="46"/>
+      <c r="A981" s="48"/>
     </row>
     <row r="982" spans="1:1">
-      <c r="A982" s="46"/>
+      <c r="A982" s="48"/>
     </row>
     <row r="983" spans="1:1">
-      <c r="A983" s="46"/>
+      <c r="A983" s="48"/>
     </row>
     <row r="984" spans="1:1">
-      <c r="A984" s="46"/>
+      <c r="A984" s="48"/>
     </row>
     <row r="985" spans="1:1">
-      <c r="A985" s="46"/>
+      <c r="A985" s="48"/>
     </row>
     <row r="986" spans="1:1">
-      <c r="A986" s="46"/>
+      <c r="A986" s="48"/>
     </row>
     <row r="987" spans="1:1">
-      <c r="A987" s="46"/>
+      <c r="A987" s="48"/>
     </row>
     <row r="988" spans="1:1">
-      <c r="A988" s="46"/>
+      <c r="A988" s="48"/>
     </row>
     <row r="989" spans="1:1">
-      <c r="A989" s="46"/>
+      <c r="A989" s="48"/>
     </row>
     <row r="990" spans="1:1">
-      <c r="A990" s="46"/>
+      <c r="A990" s="48"/>
     </row>
     <row r="991" spans="1:1">
-      <c r="A991" s="46"/>
+      <c r="A991" s="48"/>
     </row>
     <row r="992" spans="1:1">
-      <c r="A992" s="46"/>
+      <c r="A992" s="48"/>
     </row>
     <row r="993" spans="1:1">
-      <c r="A993" s="46"/>
+      <c r="A993" s="48"/>
     </row>
     <row r="994" spans="1:1">
-      <c r="A994" s="46"/>
+      <c r="A994" s="48"/>
     </row>
     <row r="995" spans="1:1">
-      <c r="A995" s="46"/>
+      <c r="A995" s="48"/>
     </row>
     <row r="996" spans="1:1">
-      <c r="A996" s="46"/>
+      <c r="A996" s="48"/>
     </row>
     <row r="997" spans="1:1">
-      <c r="A997" s="46"/>
+      <c r="A997" s="48"/>
     </row>
     <row r="998" spans="1:1">
-      <c r="A998" s="46"/>
+      <c r="A998" s="48"/>
     </row>
     <row r="999" spans="1:1">
-      <c r="A999" s="46"/>
+      <c r="A999" s="48"/>
     </row>
     <row r="1000" spans="1:1">
-      <c r="A1000" s="46"/>
+      <c r="A1000" s="48"/>
     </row>
     <row r="1001" spans="1:1">
-      <c r="A1001" s="46"/>
+      <c r="A1001" s="48"/>
     </row>
     <row r="1002" spans="1:1">
-      <c r="A1002" s="46"/>
+      <c r="A1002" s="48"/>
     </row>
     <row r="1003" spans="1:1">
-      <c r="A1003" s="46"/>
+      <c r="A1003" s="48"/>
     </row>
     <row r="1004" spans="1:1">
-      <c r="A1004" s="46"/>
+      <c r="A1004" s="48"/>
     </row>
     <row r="1005" spans="1:1">
-      <c r="A1005" s="46"/>
+      <c r="A1005" s="48"/>
     </row>
     <row r="1006" spans="1:1">
-      <c r="A1006" s="46"/>
+      <c r="A1006" s="48"/>
     </row>
     <row r="1007" spans="1:1">
-      <c r="A1007" s="46"/>
+      <c r="A1007" s="48"/>
     </row>
     <row r="1008" spans="1:1">
-      <c r="A1008" s="46"/>
+      <c r="A1008" s="48"/>
     </row>
     <row r="1009" spans="1:1">
-      <c r="A1009" s="46"/>
+      <c r="A1009" s="48"/>
     </row>
     <row r="1010" spans="1:1">
-      <c r="A1010" s="46"/>
+      <c r="A1010" s="48"/>
     </row>
     <row r="1011" spans="1:1">
-      <c r="A1011" s="46"/>
+      <c r="A1011" s="48"/>
     </row>
     <row r="1012" spans="1:1">
-      <c r="A1012" s="46"/>
+      <c r="A1012" s="48"/>
     </row>
     <row r="1013" spans="1:1">
-      <c r="A1013" s="46"/>
+      <c r="A1013" s="48"/>
     </row>
     <row r="1014" spans="1:1">
-      <c r="A1014" s="46"/>
+      <c r="A1014" s="48"/>
     </row>
     <row r="1015" spans="1:1">
-      <c r="A1015" s="46"/>
+      <c r="A1015" s="48"/>
     </row>
     <row r="1016" spans="1:1">
-      <c r="A1016" s="46"/>
+      <c r="A1016" s="48"/>
     </row>
     <row r="1017" spans="1:1">
-      <c r="A1017" s="46"/>
+      <c r="A1017" s="48"/>
     </row>
     <row r="1018" spans="1:1">
-      <c r="A1018" s="46"/>
+      <c r="A1018" s="48"/>
     </row>
     <row r="1019" spans="1:1">
-      <c r="A1019" s="46"/>
+      <c r="A1019" s="48"/>
     </row>
     <row r="1020" spans="1:1">
-      <c r="A1020" s="46"/>
+      <c r="A1020" s="48"/>
     </row>
     <row r="1021" spans="1:1">
-      <c r="A1021" s="46"/>
+      <c r="A1021" s="48"/>
     </row>
     <row r="1022" spans="1:1">
-      <c r="A1022" s="46"/>
+      <c r="A1022" s="48"/>
     </row>
     <row r="1023" spans="1:1">
-      <c r="A1023" s="46"/>
+      <c r="A1023" s="48"/>
     </row>
     <row r="1024" spans="1:1">
-      <c r="A1024" s="46"/>
+      <c r="A1024" s="48"/>
     </row>
     <row r="1025" spans="1:1">
-      <c r="A1025" s="46"/>
+      <c r="A1025" s="48"/>
     </row>
     <row r="1026" spans="1:1">
-      <c r="A1026" s="46"/>
+      <c r="A1026" s="48"/>
     </row>
     <row r="1027" spans="1:1">
-      <c r="A1027" s="46"/>
+      <c r="A1027" s="48"/>
     </row>
     <row r="1028" spans="1:1">
-      <c r="A1028" s="46"/>
+      <c r="A1028" s="48"/>
     </row>
     <row r="1029" spans="1:1">
-      <c r="A1029" s="46"/>
+      <c r="A1029" s="48"/>
     </row>
     <row r="1030" spans="1:1">
-      <c r="A1030" s="46"/>
+      <c r="A1030" s="48"/>
     </row>
     <row r="1031" spans="1:1">
-      <c r="A1031" s="46"/>
+      <c r="A1031" s="48"/>
     </row>
     <row r="1032" spans="1:1">
-      <c r="A1032" s="46"/>
+      <c r="A1032" s="48"/>
     </row>
     <row r="1033" spans="1:1">
-      <c r="A1033" s="46"/>
+      <c r="A1033" s="48"/>
     </row>
     <row r="1034" spans="1:1">
-      <c r="A1034" s="46"/>
+      <c r="A1034" s="48"/>
     </row>
     <row r="1035" spans="1:1">
-      <c r="A1035" s="46"/>
+      <c r="A1035" s="48"/>
     </row>
     <row r="1036" spans="1:1">
-      <c r="A1036" s="46"/>
+      <c r="A1036" s="48"/>
     </row>
     <row r="1037" spans="1:1">
-      <c r="A1037" s="46"/>
+      <c r="A1037" s="48"/>
     </row>
     <row r="1038" spans="1:1">
-      <c r="A1038" s="46"/>
+      <c r="A1038" s="48"/>
     </row>
     <row r="1039" spans="1:1">
-      <c r="A1039" s="46"/>
+      <c r="A1039" s="48"/>
     </row>
     <row r="1040" spans="1:1">
-      <c r="A1040" s="46"/>
+      <c r="A1040" s="48"/>
     </row>
     <row r="1041" spans="1:1">
-      <c r="A1041" s="46"/>
+      <c r="A1041" s="48"/>
     </row>
     <row r="1042" spans="1:1">
-      <c r="A1042" s="46"/>
+      <c r="A1042" s="48"/>
     </row>
     <row r="1043" spans="1:1">
-      <c r="A1043" s="46"/>
+      <c r="A1043" s="48"/>
     </row>
     <row r="1044" spans="1:1">
-      <c r="A1044" s="46"/>
+      <c r="A1044" s="48"/>
     </row>
     <row r="1045" spans="1:1">
-      <c r="A1045" s="46"/>
+      <c r="A1045" s="48"/>
     </row>
     <row r="1046" spans="1:1">
-      <c r="A1046" s="46"/>
+      <c r="A1046" s="48"/>
     </row>
     <row r="1047" spans="1:1">
-      <c r="A1047" s="46"/>
+      <c r="A1047" s="48"/>
     </row>
     <row r="1048" spans="1:1">
-      <c r="A1048" s="46"/>
+      <c r="A1048" s="48"/>
     </row>
     <row r="1049" spans="1:1">
-      <c r="A1049" s="46"/>
+      <c r="A1049" s="48"/>
     </row>
     <row r="1050" spans="1:1">
-      <c r="A1050" s="46"/>
+      <c r="A1050" s="48"/>
     </row>
     <row r="1051" spans="1:1">
-      <c r="A1051" s="46"/>
+      <c r="A1051" s="48"/>
     </row>
     <row r="1052" spans="1:1">
-      <c r="A1052" s="46"/>
+      <c r="A1052" s="48"/>
     </row>
     <row r="1053" spans="1:1">
-      <c r="A1053" s="46"/>
+      <c r="A1053" s="48"/>
     </row>
     <row r="1054" spans="1:1">
-      <c r="A1054" s="46"/>
+      <c r="A1054" s="48"/>
     </row>
     <row r="1055" spans="1:1">
-      <c r="A1055" s="46"/>
+      <c r="A1055" s="48"/>
     </row>
     <row r="1056" spans="1:1">
-      <c r="A1056" s="46"/>
+      <c r="A1056" s="48"/>
     </row>
     <row r="1057" spans="1:1">
-      <c r="A1057" s="46"/>
+      <c r="A1057" s="48"/>
     </row>
     <row r="1058" spans="1:1">
-      <c r="A1058" s="46"/>
+      <c r="A1058" s="48"/>
     </row>
     <row r="1059" spans="1:1">
-      <c r="A1059" s="46"/>
+      <c r="A1059" s="48"/>
     </row>
     <row r="1060" spans="1:1">
-      <c r="A1060" s="46"/>
+      <c r="A1060" s="48"/>
     </row>
     <row r="1061" spans="1:1">
-      <c r="A1061" s="46"/>
+      <c r="A1061" s="48"/>
     </row>
     <row r="1062" spans="1:1">
-      <c r="A1062" s="46"/>
+      <c r="A1062" s="48"/>
     </row>
     <row r="1063" spans="1:1">
-      <c r="A1063" s="46"/>
+      <c r="A1063" s="48"/>
     </row>
     <row r="1064" spans="1:1">
-      <c r="A1064" s="46"/>
+      <c r="A1064" s="48"/>
     </row>
     <row r="1065" spans="1:1">
-      <c r="A1065" s="46"/>
+      <c r="A1065" s="48"/>
     </row>
     <row r="1066" spans="1:1">
-      <c r="A1066" s="46"/>
+      <c r="A1066" s="48"/>
     </row>
     <row r="1067" spans="1:1">
-      <c r="A1067" s="46"/>
+      <c r="A1067" s="48"/>
     </row>
     <row r="1068" spans="1:1">
-      <c r="A1068" s="46"/>
+      <c r="A1068" s="48"/>
     </row>
     <row r="1069" spans="1:1">
-      <c r="A1069" s="46"/>
+      <c r="A1069" s="48"/>
     </row>
     <row r="1070" spans="1:1">
-      <c r="A1070" s="46"/>
+      <c r="A1070" s="48"/>
     </row>
     <row r="1071" spans="1:1">
-      <c r="A1071" s="46"/>
+      <c r="A1071" s="48"/>
     </row>
     <row r="1072" spans="1:1">
-      <c r="A1072" s="46"/>
+      <c r="A1072" s="48"/>
     </row>
     <row r="1073" spans="1:1">
-      <c r="A1073" s="46"/>
+      <c r="A1073" s="48"/>
     </row>
     <row r="1074" spans="1:1">
-      <c r="A1074" s="46"/>
+      <c r="A1074" s="48"/>
     </row>
     <row r="1075" spans="1:1">
-      <c r="A1075" s="46"/>
+      <c r="A1075" s="48"/>
     </row>
     <row r="1076" spans="1:1">
-      <c r="A1076" s="46"/>
+      <c r="A1076" s="48"/>
     </row>
     <row r="1077" spans="1:1">
-      <c r="A1077" s="46"/>
+      <c r="A1077" s="48"/>
     </row>
     <row r="1078" spans="1:1">
-      <c r="A1078" s="46"/>
+      <c r="A1078" s="48"/>
     </row>
     <row r="1079" spans="1:1">
-      <c r="A1079" s="46"/>
+      <c r="A1079" s="48"/>
     </row>
     <row r="1080" spans="1:1">
-      <c r="A1080" s="46"/>
+      <c r="A1080" s="48"/>
     </row>
     <row r="1081" spans="1:1">
-      <c r="A1081" s="46"/>
+      <c r="A1081" s="48"/>
     </row>
     <row r="1082" spans="1:1">
-      <c r="A1082" s="46"/>
+      <c r="A1082" s="48"/>
     </row>
     <row r="1083" spans="1:1">
-      <c r="A1083" s="46"/>
+      <c r="A1083" s="48"/>
     </row>
     <row r="1084" spans="1:1">
-      <c r="A1084" s="46"/>
+      <c r="A1084" s="48"/>
     </row>
     <row r="1085" spans="1:1">
-      <c r="A1085" s="46"/>
+      <c r="A1085" s="48"/>
     </row>
     <row r="1086" spans="1:1">
-      <c r="A1086" s="46"/>
+      <c r="A1086" s="48"/>
     </row>
     <row r="1087" spans="1:1">
-      <c r="A1087" s="46"/>
+      <c r="A1087" s="48"/>
     </row>
     <row r="1088" spans="1:1">
-      <c r="A1088" s="46"/>
+      <c r="A1088" s="48"/>
     </row>
     <row r="1089" spans="1:1">
-      <c r="A1089" s="46"/>
+      <c r="A1089" s="48"/>
     </row>
     <row r="1090" spans="1:1">
-      <c r="A1090" s="46"/>
+      <c r="A1090" s="48"/>
     </row>
     <row r="1091" spans="1:1">
-      <c r="A1091" s="46"/>
+      <c r="A1091" s="48"/>
     </row>
     <row r="1092" spans="1:1">
-      <c r="A1092" s="46"/>
+      <c r="A1092" s="48"/>
     </row>
     <row r="1093" spans="1:1">
-      <c r="A1093" s="46"/>
+      <c r="A1093" s="48"/>
     </row>
     <row r="1094" spans="1:1">
-      <c r="A1094" s="46"/>
+      <c r="A1094" s="48"/>
     </row>
     <row r="1095" spans="1:1">
-      <c r="A1095" s="46"/>
+      <c r="A1095" s="48"/>
     </row>
     <row r="1096" spans="1:1">
-      <c r="A1096" s="46"/>
+      <c r="A1096" s="48"/>
     </row>
     <row r="1097" spans="1:1">
-      <c r="A1097" s="46"/>
+      <c r="A1097" s="48"/>
     </row>
     <row r="1098" spans="1:1">
-      <c r="A1098" s="46"/>
+      <c r="A1098" s="48"/>
     </row>
     <row r="1099" spans="1:1">
-      <c r="A1099" s="46"/>
+      <c r="A1099" s="48"/>
     </row>
     <row r="1100" spans="1:1">
-      <c r="A1100" s="46"/>
+      <c r="A1100" s="48"/>
     </row>
     <row r="1101" spans="1:1">
-      <c r="A1101" s="46"/>
+      <c r="A1101" s="48"/>
     </row>
     <row r="1102" spans="1:1">
-      <c r="A1102" s="46"/>
+      <c r="A1102" s="48"/>
     </row>
     <row r="1103" spans="1:1">
-      <c r="A1103" s="46"/>
+      <c r="A1103" s="48"/>
     </row>
     <row r="1104" spans="1:1">
-      <c r="A1104" s="46"/>
+      <c r="A1104" s="48"/>
     </row>
     <row r="1105" spans="1:1">
-      <c r="A1105" s="46"/>
+      <c r="A1105" s="48"/>
     </row>
     <row r="1106" spans="1:1">
-      <c r="A1106" s="46"/>
+      <c r="A1106" s="48"/>
     </row>
     <row r="1107" spans="1:1">
-      <c r="A1107" s="46"/>
+      <c r="A1107" s="48"/>
     </row>
     <row r="1108" spans="1:1">
-      <c r="A1108" s="46"/>
+      <c r="A1108" s="48"/>
     </row>
     <row r="1109" spans="1:1">
-      <c r="A1109" s="46"/>
+      <c r="A1109" s="48"/>
     </row>
     <row r="1110" spans="1:1">
-      <c r="A1110" s="46"/>
+      <c r="A1110" s="48"/>
     </row>
     <row r="1111" spans="1:1">
-      <c r="A1111" s="46"/>
+      <c r="A1111" s="48"/>
     </row>
     <row r="1112" spans="1:1">
-      <c r="A1112" s="46"/>
+      <c r="A1112" s="48"/>
     </row>
     <row r="1113" spans="1:1">
-      <c r="A1113" s="46"/>
+      <c r="A1113" s="48"/>
     </row>
     <row r="1114" spans="1:1">
-      <c r="A1114" s="46"/>
+      <c r="A1114" s="48"/>
     </row>
     <row r="1115" spans="1:1">
-      <c r="A1115" s="46"/>
+      <c r="A1115" s="48"/>
     </row>
     <row r="1116" spans="1:1">
-      <c r="A1116" s="46"/>
+      <c r="A1116" s="48"/>
     </row>
     <row r="1117" spans="1:1">
-      <c r="A1117" s="46"/>
+      <c r="A1117" s="48"/>
     </row>
     <row r="1118" spans="1:1">
-      <c r="A1118" s="46"/>
+      <c r="A1118" s="48"/>
     </row>
     <row r="1119" spans="1:1">
-      <c r="A1119" s="46"/>
+      <c r="A1119" s="48"/>
     </row>
     <row r="1120" spans="1:1">
-      <c r="A1120" s="46"/>
+      <c r="A1120" s="48"/>
     </row>
     <row r="1121" spans="1:1">
-      <c r="A1121" s="46"/>
+      <c r="A1121" s="48"/>
     </row>
     <row r="1122" spans="1:1">
-      <c r="A1122" s="46"/>
+      <c r="A1122" s="48"/>
     </row>
     <row r="1123" spans="1:1">
-      <c r="A1123" s="46"/>
+      <c r="A1123" s="48"/>
     </row>
     <row r="1124" spans="1:1">
-      <c r="A1124" s="46"/>
+      <c r="A1124" s="48"/>
     </row>
     <row r="1125" spans="1:1">
-      <c r="A1125" s="46"/>
+      <c r="A1125" s="48"/>
     </row>
     <row r="1126" spans="1:1">
-      <c r="A1126" s="46"/>
+      <c r="A1126" s="48"/>
     </row>
     <row r="1127" spans="1:1">
-      <c r="A1127" s="46"/>
+      <c r="A1127" s="48"/>
     </row>
     <row r="1128" spans="1:1">
-      <c r="A1128" s="46"/>
+      <c r="A1128" s="48"/>
     </row>
     <row r="1129" spans="1:1">
-      <c r="A1129" s="46"/>
+      <c r="A1129" s="48"/>
     </row>
     <row r="1130" spans="1:1">
-      <c r="A1130" s="46"/>
+      <c r="A1130" s="48"/>
     </row>
     <row r="1131" spans="1:1">
-      <c r="A1131" s="46"/>
+      <c r="A1131" s="48"/>
     </row>
     <row r="1132" spans="1:1">
-      <c r="A1132" s="46"/>
+      <c r="A1132" s="48"/>
     </row>
     <row r="1133" spans="1:1">
-      <c r="A1133" s="46"/>
+      <c r="A1133" s="48"/>
     </row>
     <row r="1134" spans="1:1">
-      <c r="A1134" s="46"/>
+      <c r="A1134" s="48"/>
     </row>
     <row r="1135" spans="1:1">
-      <c r="A1135" s="46"/>
+      <c r="A1135" s="48"/>
     </row>
     <row r="1136" spans="1:1">
-      <c r="A1136" s="46"/>
+      <c r="A1136" s="48"/>
     </row>
     <row r="1137" spans="1:1">
-      <c r="A1137" s="46"/>
+      <c r="A1137" s="48"/>
     </row>
     <row r="1138" spans="1:1">
-      <c r="A1138" s="46"/>
+      <c r="A1138" s="48"/>
     </row>
     <row r="1139" spans="1:1">
-      <c r="A1139" s="46"/>
+      <c r="A1139" s="48"/>
     </row>
     <row r="1140" spans="1:1">
-      <c r="A1140" s="46"/>
+      <c r="A1140" s="48"/>
     </row>
     <row r="1141" spans="1:1">
-      <c r="A1141" s="46"/>
+      <c r="A1141" s="48"/>
     </row>
     <row r="1142" spans="1:1">
-      <c r="A1142" s="46"/>
+      <c r="A1142" s="48"/>
     </row>
     <row r="1143" spans="1:1">
-      <c r="A1143" s="46"/>
+      <c r="A1143" s="48"/>
     </row>
     <row r="1144" spans="1:1">
-      <c r="A1144" s="46"/>
+      <c r="A1144" s="48"/>
     </row>
     <row r="1145" spans="1:1">
-      <c r="A1145" s="46"/>
+      <c r="A1145" s="48"/>
     </row>
     <row r="1146" spans="1:1">
-      <c r="A1146" s="46"/>
+      <c r="A1146" s="48"/>
     </row>
     <row r="1147" spans="1:1">
-      <c r="A1147" s="46"/>
+      <c r="A1147" s="48"/>
     </row>
     <row r="1148" spans="1:1">
-      <c r="A1148" s="46"/>
+      <c r="A1148" s="48"/>
     </row>
     <row r="1149" spans="1:1">
-      <c r="A1149" s="46"/>
+      <c r="A1149" s="48"/>
     </row>
     <row r="1150" spans="1:1">
-      <c r="A1150" s="46"/>
+      <c r="A1150" s="48"/>
     </row>
     <row r="1151" spans="1:1">
-      <c r="A1151" s="46"/>
+      <c r="A1151" s="48"/>
     </row>
     <row r="1152" spans="1:1">
-      <c r="A1152" s="46"/>
+      <c r="A1152" s="48"/>
     </row>
     <row r="1153" spans="1:1">
-      <c r="A1153" s="46"/>
+      <c r="A1153" s="48"/>
     </row>
     <row r="1154" spans="1:1">
-      <c r="A1154" s="46"/>
+      <c r="A1154" s="48"/>
     </row>
     <row r="1155" spans="1:1">
-      <c r="A1155" s="46"/>
+      <c r="A1155" s="48"/>
     </row>
     <row r="1156" spans="1:1">
-      <c r="A1156" s="46"/>
+      <c r="A1156" s="48"/>
     </row>
     <row r="1157" spans="1:1">
-      <c r="A1157" s="46"/>
+      <c r="A1157" s="48"/>
     </row>
     <row r="1158" spans="1:1">
-      <c r="A1158" s="46"/>
+      <c r="A1158" s="48"/>
     </row>
     <row r="1159" spans="1:1">
-      <c r="A1159" s="46"/>
+      <c r="A1159" s="48"/>
     </row>
     <row r="1160" spans="1:1">
-      <c r="A1160" s="46"/>
+      <c r="A1160" s="48"/>
     </row>
     <row r="1161" spans="1:1">
-      <c r="A1161" s="46"/>
+      <c r="A1161" s="48"/>
     </row>
     <row r="1162" spans="1:1">
-      <c r="A1162" s="46"/>
+      <c r="A1162" s="48"/>
     </row>
     <row r="1163" spans="1:1">
-      <c r="A1163" s="46"/>
+      <c r="A1163" s="48"/>
     </row>
     <row r="1164" spans="1:1">
-      <c r="A1164" s="46"/>
+      <c r="A1164" s="48"/>
     </row>
     <row r="1165" spans="1:1">
-      <c r="A1165" s="46"/>
+      <c r="A1165" s="48"/>
     </row>
     <row r="1166" spans="1:1">
-      <c r="A1166" s="46"/>
+      <c r="A1166" s="48"/>
     </row>
     <row r="1167" spans="1:1">
-      <c r="A1167" s="46"/>
+      <c r="A1167" s="48"/>
     </row>
     <row r="1168" spans="1:1">
-      <c r="A1168" s="46"/>
+      <c r="A1168" s="48"/>
     </row>
     <row r="1169" spans="1:1">
-      <c r="A1169" s="46"/>
+      <c r="A1169" s="48"/>
     </row>
     <row r="1170" spans="1:1">
-      <c r="A1170" s="46"/>
+      <c r="A1170" s="48"/>
     </row>
     <row r="1171" spans="1:1">
-      <c r="A1171" s="46"/>
+      <c r="A1171" s="48"/>
     </row>
     <row r="1172" spans="1:1">
-      <c r="A1172" s="46"/>
+      <c r="A1172" s="48"/>
     </row>
     <row r="1173" spans="1:1">
-      <c r="A1173" s="46"/>
+      <c r="A1173" s="48"/>
     </row>
     <row r="1174" spans="1:1">
-      <c r="A1174" s="46"/>
+      <c r="A1174" s="48"/>
     </row>
     <row r="1175" spans="1:1">
-      <c r="A1175" s="46"/>
+      <c r="A1175" s="48"/>
     </row>
     <row r="1176" spans="1:1">
-      <c r="A1176" s="46"/>
+      <c r="A1176" s="48"/>
     </row>
     <row r="1177" spans="1:1">
-      <c r="A1177" s="46"/>
+      <c r="A1177" s="48"/>
     </row>
     <row r="1178" spans="1:1">
-      <c r="A1178" s="46"/>
+      <c r="A1178" s="48"/>
     </row>
     <row r="1179" spans="1:1">
-      <c r="A1179" s="46"/>
+      <c r="A1179" s="48"/>
     </row>
     <row r="1180" spans="1:1">
-      <c r="A1180" s="46"/>
+      <c r="A1180" s="48"/>
     </row>
     <row r="1181" spans="1:1">
-      <c r="A1181" s="46"/>
+      <c r="A1181" s="48"/>
     </row>
     <row r="1182" spans="1:1">
-      <c r="A1182" s="46"/>
+      <c r="A1182" s="48"/>
     </row>
     <row r="1183" spans="1:1">
-      <c r="A1183" s="46"/>
+      <c r="A1183" s="48"/>
     </row>
     <row r="1184" spans="1:1">
-      <c r="A1184" s="46"/>
+      <c r="A1184" s="48"/>
     </row>
     <row r="1185" spans="1:1">
-      <c r="A1185" s="46"/>
+      <c r="A1185" s="48"/>
     </row>
     <row r="1186" spans="1:1">
-      <c r="A1186" s="46"/>
+      <c r="A1186" s="48"/>
     </row>
     <row r="1187" spans="1:1">
-      <c r="A1187" s="46"/>
+      <c r="A1187" s="48"/>
     </row>
     <row r="1188" spans="1:1">
-      <c r="A1188" s="46"/>
+      <c r="A1188" s="48"/>
     </row>
     <row r="1189" spans="1:1">
-      <c r="A1189" s="46"/>
+      <c r="A1189" s="48"/>
     </row>
     <row r="1190" spans="1:1">
-      <c r="A1190" s="46"/>
+      <c r="A1190" s="48"/>
     </row>
     <row r="1191" spans="1:1">
-      <c r="A1191" s="46"/>
+      <c r="A1191" s="48"/>
     </row>
     <row r="1192" spans="1:1">
-      <c r="A1192" s="46"/>
+      <c r="A1192" s="48"/>
     </row>
     <row r="1193" spans="1:1">
-      <c r="A1193" s="46"/>
+      <c r="A1193" s="48"/>
     </row>
     <row r="1194" spans="1:1">
-      <c r="A1194" s="46"/>
+      <c r="A1194" s="48"/>
     </row>
     <row r="1195" spans="1:1">
-      <c r="A1195" s="46"/>
+      <c r="A1195" s="48"/>
     </row>
     <row r="1196" spans="1:1">
-      <c r="A1196" s="46"/>
+      <c r="A1196" s="48"/>
     </row>
     <row r="1197" spans="1:1">
-      <c r="A1197" s="46"/>
+      <c r="A1197" s="48"/>
     </row>
     <row r="1198" spans="1:1">
-      <c r="A1198" s="46"/>
+      <c r="A1198" s="48"/>
     </row>
     <row r="1199" spans="1:1">
-      <c r="A1199" s="46"/>
+      <c r="A1199" s="48"/>
     </row>
     <row r="1200" spans="1:1">
-      <c r="A1200" s="46"/>
+      <c r="A1200" s="48"/>
     </row>
     <row r="1201" spans="1:1">
-      <c r="A1201" s="46"/>
+      <c r="A1201" s="48"/>
     </row>
     <row r="1202" spans="1:1">
-      <c r="A1202" s="46"/>
+      <c r="A1202" s="48"/>
     </row>
     <row r="1203" spans="1:1">
-      <c r="A1203" s="46"/>
+      <c r="A1203" s="48"/>
     </row>
     <row r="1204" spans="1:1">
-      <c r="A1204" s="46"/>
+      <c r="A1204" s="48"/>
     </row>
     <row r="1205" spans="1:1">
-      <c r="A1205" s="46"/>
+      <c r="A1205" s="48"/>
     </row>
     <row r="1206" spans="1:1">
-      <c r="A1206" s="46"/>
+      <c r="A1206" s="48"/>
     </row>
     <row r="1207" spans="1:1">
-      <c r="A1207" s="46"/>
+      <c r="A1207" s="48"/>
     </row>
     <row r="1208" spans="1:1">
-      <c r="A1208" s="46"/>
+      <c r="A1208" s="48"/>
     </row>
     <row r="1209" spans="1:1">
-      <c r="A1209" s="46"/>
+      <c r="A1209" s="48"/>
     </row>
     <row r="1210" spans="1:1">
-      <c r="A1210" s="46"/>
+      <c r="A1210" s="48"/>
     </row>
     <row r="1211" spans="1:1">
-      <c r="A1211" s="46"/>
+      <c r="A1211" s="48"/>
     </row>
     <row r="1212" spans="1:1">
-      <c r="A1212" s="46"/>
+      <c r="A1212" s="48"/>
     </row>
     <row r="1213" spans="1:1">
-      <c r="A1213" s="46"/>
+      <c r="A1213" s="48"/>
     </row>
     <row r="1214" spans="1:1">
-      <c r="A1214" s="46"/>
+      <c r="A1214" s="48"/>
     </row>
     <row r="1215" spans="1:1">
-      <c r="A1215" s="46"/>
+      <c r="A1215" s="48"/>
     </row>
     <row r="1216" spans="1:1">
-      <c r="A1216" s="46"/>
+      <c r="A1216" s="48"/>
     </row>
     <row r="1217" spans="1:1">
-      <c r="A1217" s="46"/>
+      <c r="A1217" s="48"/>
     </row>
     <row r="1218" spans="1:1">
-      <c r="A1218" s="46"/>
+      <c r="A1218" s="48"/>
     </row>
     <row r="1219" spans="1:1">
-      <c r="A1219" s="46"/>
+      <c r="A1219" s="48"/>
     </row>
     <row r="1220" spans="1:1">
-      <c r="A1220" s="46"/>
+      <c r="A1220" s="48"/>
     </row>
     <row r="1221" spans="1:1">
-      <c r="A1221" s="46"/>
+      <c r="A1221" s="48"/>
     </row>
     <row r="1222" spans="1:1">
-      <c r="A1222" s="46"/>
+      <c r="A1222" s="48"/>
     </row>
     <row r="1223" spans="1:1">
-      <c r="A1223" s="46"/>
+      <c r="A1223" s="48"/>
     </row>
     <row r="1224" spans="1:1">
-      <c r="A1224" s="46"/>
+      <c r="A1224" s="48"/>
     </row>
     <row r="1225" spans="1:1">
-      <c r="A1225" s="46"/>
+      <c r="A1225" s="48"/>
     </row>
     <row r="1226" spans="1:1">
-      <c r="A1226" s="46"/>
+      <c r="A1226" s="48"/>
     </row>
     <row r="1227" spans="1:1">
-      <c r="A1227" s="46"/>
+      <c r="A1227" s="48"/>
     </row>
     <row r="1228" spans="1:1">
-      <c r="A1228" s="46"/>
+      <c r="A1228" s="48"/>
     </row>
     <row r="1229" spans="1:1">
-      <c r="A1229" s="46"/>
+      <c r="A1229" s="48"/>
     </row>
     <row r="1230" spans="1:1">
-      <c r="A1230" s="46"/>
+      <c r="A1230" s="48"/>
     </row>
     <row r="1231" spans="1:1">
-      <c r="A1231" s="46"/>
+      <c r="A1231" s="48"/>
     </row>
     <row r="1232" spans="1:1">
-      <c r="A1232" s="46"/>
+      <c r="A1232" s="48"/>
     </row>
     <row r="1233" spans="1:1">
-      <c r="A1233" s="46"/>
+      <c r="A1233" s="48"/>
     </row>
     <row r="1234" spans="1:1">
-      <c r="A1234" s="46"/>
+      <c r="A1234" s="48"/>
     </row>
     <row r="1235" spans="1:1">
-      <c r="A1235" s="46"/>
+      <c r="A1235" s="48"/>
     </row>
     <row r="1236" spans="1:1">
-      <c r="A1236" s="46"/>
+      <c r="A1236" s="48"/>
     </row>
     <row r="1237" spans="1:1">
-      <c r="A1237" s="46"/>
+      <c r="A1237" s="48"/>
     </row>
     <row r="1238" spans="1:1">
-      <c r="A1238" s="46"/>
+      <c r="A1238" s="48"/>
     </row>
     <row r="1239" spans="1:1">
-      <c r="A1239" s="46"/>
+      <c r="A1239" s="48"/>
     </row>
     <row r="1240" spans="1:1">
-      <c r="A1240" s="46"/>
+      <c r="A1240" s="48"/>
     </row>
     <row r="1241" spans="1:1">
-      <c r="A1241" s="46"/>
+      <c r="A1241" s="48"/>
     </row>
     <row r="1242" spans="1:1">
-      <c r="A1242" s="46"/>
+      <c r="A1242" s="48"/>
     </row>
     <row r="1243" spans="1:1">
-      <c r="A1243" s="46"/>
+      <c r="A1243" s="48"/>
     </row>
     <row r="1244" spans="1:1">
-      <c r="A1244" s="46"/>
+      <c r="A1244" s="48"/>
     </row>
     <row r="1245" spans="1:1">
-      <c r="A1245" s="46"/>
+      <c r="A1245" s="48"/>
     </row>
     <row r="1246" spans="1:1">
-      <c r="A1246" s="46"/>
+      <c r="A1246" s="48"/>
     </row>
     <row r="1247" spans="1:1">
-      <c r="A1247" s="46"/>
+      <c r="A1247" s="48"/>
     </row>
     <row r="1248" spans="1:1">
-      <c r="A1248" s="46"/>
+      <c r="A1248" s="48"/>
     </row>
     <row r="1249" spans="1:1">
-      <c r="A1249" s="46"/>
+      <c r="A1249" s="48"/>
     </row>
     <row r="1250" spans="1:1">
-      <c r="A1250" s="46"/>
+      <c r="A1250" s="48"/>
     </row>
     <row r="1251" spans="1:1">
-      <c r="A1251" s="46"/>
+      <c r="A1251" s="48"/>
     </row>
     <row r="1252" spans="1:1">
-      <c r="A1252" s="46"/>
+      <c r="A1252" s="48"/>
     </row>
     <row r="1253" spans="1:1">
-      <c r="A1253" s="46"/>
+      <c r="A1253" s="48"/>
     </row>
     <row r="1254" spans="1:1">
-      <c r="A1254" s="46"/>
+      <c r="A1254" s="48"/>
     </row>
     <row r="1255" spans="1:1">
-      <c r="A1255" s="46"/>
+      <c r="A1255" s="48"/>
     </row>
     <row r="1256" spans="1:1">
-      <c r="A1256" s="46"/>
+      <c r="A1256" s="48"/>
     </row>
     <row r="1257" spans="1:1">
-      <c r="A1257" s="46"/>
+      <c r="A1257" s="48"/>
     </row>
     <row r="1258" spans="1:1">
-      <c r="A1258" s="46"/>
+      <c r="A1258" s="48"/>
     </row>
     <row r="1259" spans="1:1">
-      <c r="A1259" s="46"/>
+      <c r="A1259" s="48"/>
     </row>
     <row r="1260" spans="1:1">
-      <c r="A1260" s="46"/>
+      <c r="A1260" s="48"/>
     </row>
     <row r="1261" spans="1:1">
-      <c r="A1261" s="46"/>
+      <c r="A1261" s="48"/>
     </row>
     <row r="1262" spans="1:1">
-      <c r="A1262" s="46"/>
+      <c r="A1262" s="48"/>
     </row>
     <row r="1263" spans="1:1">
-      <c r="A1263" s="46"/>
+      <c r="A1263" s="48"/>
     </row>
     <row r="1264" spans="1:1">
-      <c r="A1264" s="46"/>
+      <c r="A1264" s="48"/>
     </row>
     <row r="1265" spans="1:1">
-      <c r="A1265" s="46"/>
+      <c r="A1265" s="48"/>
     </row>
     <row r="1266" spans="1:1">
-      <c r="A1266" s="46"/>
+      <c r="A1266" s="48"/>
     </row>
     <row r="1267" spans="1:1">
-      <c r="A1267" s="46"/>
+      <c r="A1267" s="48"/>
     </row>
     <row r="1268" spans="1:1">
-      <c r="A1268" s="46"/>
+      <c r="A1268" s="48"/>
     </row>
     <row r="1269" spans="1:1">
-      <c r="A1269" s="46"/>
+      <c r="A1269" s="48"/>
     </row>
     <row r="1270" spans="1:1">
-      <c r="A1270" s="46"/>
+      <c r="A1270" s="48"/>
     </row>
     <row r="1271" spans="1:1">
-      <c r="A1271" s="46"/>
+      <c r="A1271" s="48"/>
     </row>
     <row r="1272" spans="1:1">
-      <c r="A1272" s="46"/>
+      <c r="A1272" s="48"/>
     </row>
     <row r="1273" spans="1:1">
-      <c r="A1273" s="46"/>
+      <c r="A1273" s="48"/>
     </row>
     <row r="1274" spans="1:1">
-      <c r="A1274" s="46"/>
+      <c r="A1274" s="48"/>
     </row>
     <row r="1275" spans="1:1">
-      <c r="A1275" s="46"/>
+      <c r="A1275" s="48"/>
     </row>
     <row r="1276" spans="1:1">
-      <c r="A1276" s="46"/>
+      <c r="A1276" s="48"/>
     </row>
     <row r="1277" spans="1:1">
-      <c r="A1277" s="46"/>
+      <c r="A1277" s="48"/>
     </row>
     <row r="1278" spans="1:1">
-      <c r="A1278" s="46"/>
+      <c r="A1278" s="48"/>
     </row>
     <row r="1279" spans="1:1">
-      <c r="A1279" s="46"/>
+      <c r="A1279" s="48"/>
     </row>
     <row r="1280" spans="1:1">
-      <c r="A1280" s="46"/>
+      <c r="A1280" s="48"/>
     </row>
     <row r="1281" spans="1:1">
-      <c r="A1281" s="46"/>
+      <c r="A1281" s="48"/>
     </row>
     <row r="1282" spans="1:1">
-      <c r="A1282" s="46"/>
+      <c r="A1282" s="48"/>
     </row>
     <row r="1283" spans="1:1">
-      <c r="A1283" s="46"/>
+      <c r="A1283" s="48"/>
     </row>
     <row r="1284" spans="1:1">
-      <c r="A1284" s="46"/>
+      <c r="A1284" s="48"/>
     </row>
     <row r="1285" spans="1:1">
-      <c r="A1285" s="46"/>
+      <c r="A1285" s="48"/>
     </row>
     <row r="1286" spans="1:1">
-      <c r="A1286" s="46"/>
+      <c r="A1286" s="48"/>
     </row>
     <row r="1287" spans="1:1">
-      <c r="A1287" s="46"/>
+      <c r="A1287" s="48"/>
     </row>
     <row r="1288" spans="1:1">
-      <c r="A1288" s="46"/>
+      <c r="A1288" s="48"/>
     </row>
     <row r="1289" spans="1:1">
-      <c r="A1289" s="46"/>
+      <c r="A1289" s="48"/>
     </row>
     <row r="1290" spans="1:1">
-      <c r="A1290" s="46"/>
+      <c r="A1290" s="48"/>
     </row>
     <row r="1291" spans="1:1">
-      <c r="A1291" s="46"/>
+      <c r="A1291" s="48"/>
     </row>
     <row r="1292" spans="1:1">
-      <c r="A1292" s="46"/>
+      <c r="A1292" s="48"/>
     </row>
     <row r="1293" spans="1:1">
-      <c r="A1293" s="46"/>
+      <c r="A1293" s="48"/>
     </row>
     <row r="1294" spans="1:1">
-      <c r="A1294" s="46"/>
+      <c r="A1294" s="48"/>
     </row>
     <row r="1295" spans="1:1">
-      <c r="A1295" s="46"/>
+      <c r="A1295" s="48"/>
     </row>
     <row r="1296" spans="1:1">
-      <c r="A1296" s="46"/>
+      <c r="A1296" s="48"/>
     </row>
     <row r="1297" spans="1:1">
-      <c r="A1297" s="46"/>
+      <c r="A1297" s="48"/>
     </row>
     <row r="1298" spans="1:1">
-      <c r="A1298" s="46"/>
+      <c r="A1298" s="48"/>
     </row>
     <row r="1299" spans="1:1">
-      <c r="A1299" s="46"/>
+      <c r="A1299" s="48"/>
     </row>
     <row r="1300" spans="1:1">
-      <c r="A1300" s="46"/>
+      <c r="A1300" s="48"/>
     </row>
     <row r="1301" spans="1:1">
-      <c r="A1301" s="46"/>
+      <c r="A1301" s="48"/>
     </row>
     <row r="1302" spans="1:1">
-      <c r="A1302" s="46"/>
+      <c r="A1302" s="48"/>
     </row>
     <row r="1303" spans="1:1">
-      <c r="A1303" s="46"/>
+      <c r="A1303" s="48"/>
     </row>
     <row r="1304" spans="1:1">
-      <c r="A1304" s="46"/>
+      <c r="A1304" s="48"/>
     </row>
     <row r="1305" spans="1:1">
-      <c r="A1305" s="46"/>
+      <c r="A1305" s="48"/>
     </row>
     <row r="1306" spans="1:1">
-      <c r="A1306" s="46"/>
+      <c r="A1306" s="48"/>
     </row>
     <row r="1307" spans="1:1">
-      <c r="A1307" s="46"/>
+      <c r="A1307" s="48"/>
     </row>
     <row r="1308" spans="1:1">
-      <c r="A1308" s="46"/>
+      <c r="A1308" s="48"/>
     </row>
     <row r="1309" spans="1:1">
-      <c r="A1309" s="46"/>
+      <c r="A1309" s="48"/>
     </row>
     <row r="1310" spans="1:1">
-      <c r="A1310" s="46"/>
+      <c r="A1310" s="48"/>
     </row>
     <row r="1311" spans="1:1">
-      <c r="A1311" s="46"/>
+      <c r="A1311" s="48"/>
     </row>
     <row r="1312" spans="1:1">
-      <c r="A1312" s="46"/>
+      <c r="A1312" s="48"/>
     </row>
     <row r="1313" spans="1:1">
-      <c r="A1313" s="46"/>
+      <c r="A1313" s="48"/>
     </row>
     <row r="1314" spans="1:1">
-      <c r="A1314" s="46"/>
+      <c r="A1314" s="48"/>
     </row>
     <row r="1315" spans="1:1">
-      <c r="A1315" s="46"/>
+      <c r="A1315" s="48"/>
     </row>
     <row r="1316" spans="1:1">
-      <c r="A1316" s="46"/>
+      <c r="A1316" s="48"/>
     </row>
     <row r="1317" spans="1:1">
-      <c r="A1317" s="46"/>
+      <c r="A1317" s="48"/>
     </row>
     <row r="1318" spans="1:1">
-      <c r="A1318" s="46"/>
+      <c r="A1318" s="48"/>
     </row>
     <row r="1319" spans="1:1">
-      <c r="A1319" s="46"/>
+      <c r="A1319" s="48"/>
     </row>
     <row r="1320" spans="1:1">
-      <c r="A1320" s="46"/>
+      <c r="A1320" s="48"/>
     </row>
     <row r="1321" spans="1:1">
-      <c r="A1321" s="46"/>
+      <c r="A1321" s="48"/>
     </row>
     <row r="1322" spans="1:1">
-      <c r="A1322" s="46"/>
+      <c r="A1322" s="48"/>
     </row>
     <row r="1323" spans="1:1">
-      <c r="A1323" s="46"/>
+      <c r="A1323" s="48"/>
     </row>
     <row r="1324" spans="1:1">
-      <c r="A1324" s="46"/>
+      <c r="A1324" s="48"/>
     </row>
     <row r="1325" spans="1:1">
-      <c r="A1325" s="46"/>
+      <c r="A1325" s="48"/>
     </row>
     <row r="1326" spans="1:1">
-      <c r="A1326" s="46"/>
+      <c r="A1326" s="48"/>
     </row>
     <row r="1327" spans="1:1">
-      <c r="A1327" s="46"/>
+      <c r="A1327" s="48"/>
     </row>
     <row r="1328" spans="1:1">
-      <c r="A1328" s="46"/>
+      <c r="A1328" s="48"/>
     </row>
     <row r="1329" spans="1:1">
-      <c r="A1329" s="46"/>
+      <c r="A1329" s="48"/>
     </row>
     <row r="1330" spans="1:1">
-      <c r="A1330" s="46"/>
+      <c r="A1330" s="48"/>
     </row>
     <row r="1331" spans="1:1">
-      <c r="A1331" s="46"/>
+      <c r="A1331" s="48"/>
     </row>
     <row r="1332" spans="1:1">
-      <c r="A1332" s="46"/>
+      <c r="A1332" s="48"/>
     </row>
     <row r="1333" spans="1:1">
-      <c r="A1333" s="46"/>
+      <c r="A1333" s="48"/>
     </row>
     <row r="1334" spans="1:1">
-      <c r="A1334" s="46"/>
+      <c r="A1334" s="48"/>
     </row>
     <row r="1335" spans="1:1">
-      <c r="A1335" s="46"/>
+      <c r="A1335" s="48"/>
     </row>
     <row r="1336" spans="1:1">
-      <c r="A1336" s="46"/>
+      <c r="A1336" s="48"/>
     </row>
     <row r="1337" spans="1:1">
-      <c r="A1337" s="46"/>
+      <c r="A1337" s="48"/>
     </row>
     <row r="1338" spans="1:1">
-      <c r="A1338" s="46"/>
+      <c r="A1338" s="48"/>
     </row>
     <row r="1339" spans="1:1">
-      <c r="A1339" s="46"/>
+      <c r="A1339" s="48"/>
     </row>
     <row r="1340" spans="1:1">
-      <c r="A1340" s="46"/>
+      <c r="A1340" s="48"/>
     </row>
     <row r="1341" spans="1:1">
-      <c r="A1341" s="46"/>
+      <c r="A1341" s="48"/>
     </row>
     <row r="1342" spans="1:1">
-      <c r="A1342" s="46"/>
+      <c r="A1342" s="48"/>
     </row>
     <row r="1343" spans="1:1">
-      <c r="A1343" s="46"/>
+      <c r="A1343" s="48"/>
     </row>
     <row r="1344" spans="1:1">
-      <c r="A1344" s="46"/>
+      <c r="A1344" s="48"/>
     </row>
     <row r="1345" spans="1:1">
-      <c r="A1345" s="46"/>
+      <c r="A1345" s="48"/>
     </row>
     <row r="1346" spans="1:1">
-      <c r="A1346" s="46"/>
+      <c r="A1346" s="48"/>
     </row>
     <row r="1347" spans="1:1">
-      <c r="A1347" s="46"/>
+      <c r="A1347" s="48"/>
     </row>
     <row r="1348" spans="1:1">
-      <c r="A1348" s="46"/>
+      <c r="A1348" s="48"/>
     </row>
     <row r="1349" spans="1:1">
-      <c r="A1349" s="46"/>
+      <c r="A1349" s="48"/>
     </row>
     <row r="1350" spans="1:1">
-      <c r="A1350" s="46"/>
+      <c r="A1350" s="48"/>
     </row>
     <row r="1351" spans="1:1">
-      <c r="A1351" s="46"/>
+      <c r="A1351" s="48"/>
     </row>
     <row r="1352" spans="1:1">
-      <c r="A1352" s="46"/>
+      <c r="A1352" s="48"/>
     </row>
     <row r="1353" spans="1:1">
-      <c r="A1353" s="46"/>
+      <c r="A1353" s="48"/>
     </row>
     <row r="1354" spans="1:1">
-      <c r="A1354" s="46"/>
+      <c r="A1354" s="48"/>
     </row>
     <row r="1355" spans="1:1">
-      <c r="A1355" s="46"/>
+      <c r="A1355" s="48"/>
     </row>
     <row r="1356" spans="1:1">
-      <c r="A1356" s="46"/>
+      <c r="A1356" s="48"/>
     </row>
     <row r="1357" spans="1:1">
-      <c r="A1357" s="46"/>
+      <c r="A1357" s="48"/>
     </row>
     <row r="1358" spans="1:1">
-      <c r="A1358" s="46"/>
+      <c r="A1358" s="48"/>
     </row>
     <row r="1359" spans="1:1">
-      <c r="A1359" s="46"/>
+      <c r="A1359" s="48"/>
     </row>
     <row r="1360" spans="1:1">
-      <c r="A1360" s="46"/>
+      <c r="A1360" s="48"/>
     </row>
     <row r="1361" spans="1:1">
-      <c r="A1361" s="46"/>
+      <c r="A1361" s="48"/>
     </row>
     <row r="1362" spans="1:1">
-      <c r="A1362" s="46"/>
+      <c r="A1362" s="48"/>
     </row>
     <row r="1363" spans="1:1">
-      <c r="A1363" s="46"/>
+      <c r="A1363" s="48"/>
     </row>
     <row r="1364" spans="1:1">
-      <c r="A1364" s="46"/>
+      <c r="A1364" s="48"/>
     </row>
     <row r="1365" spans="1:1">
-      <c r="A1365" s="46"/>
+      <c r="A1365" s="48"/>
     </row>
     <row r="1366" spans="1:1">
-      <c r="A1366" s="46"/>
+      <c r="A1366" s="48"/>
     </row>
     <row r="1367" spans="1:1">
-      <c r="A1367" s="46"/>
+      <c r="A1367" s="48"/>
     </row>
     <row r="1368" spans="1:1">
-      <c r="A1368" s="46"/>
+      <c r="A1368" s="48"/>
     </row>
     <row r="1369" spans="1:1">
-      <c r="A1369" s="46"/>
+      <c r="A1369" s="48"/>
     </row>
     <row r="1370" spans="1:1">
-      <c r="A1370" s="46"/>
+      <c r="A1370" s="48"/>
     </row>
     <row r="1371" spans="1:1">
-      <c r="A1371" s="46"/>
+      <c r="A1371" s="48"/>
     </row>
     <row r="1372" spans="1:1">
-      <c r="A1372" s="46"/>
+      <c r="A1372" s="48"/>
     </row>
     <row r="1373" spans="1:1">
-      <c r="A1373" s="46"/>
+      <c r="A1373" s="48"/>
     </row>
     <row r="1374" spans="1:1">
-      <c r="A1374" s="46"/>
+      <c r="A1374" s="48"/>
     </row>
     <row r="1375" spans="1:1">
-      <c r="A1375" s="46"/>
+      <c r="A1375" s="48"/>
     </row>
     <row r="1376" spans="1:1">
-      <c r="A1376" s="46"/>
+      <c r="A1376" s="48"/>
     </row>
     <row r="1377" spans="1:1">
-      <c r="A1377" s="46"/>
+      <c r="A1377" s="48"/>
     </row>
     <row r="1378" spans="1:1">
-      <c r="A1378" s="46"/>
+      <c r="A1378" s="48"/>
     </row>
     <row r="1379" spans="1:1">
-      <c r="A1379" s="46"/>
+      <c r="A1379" s="48"/>
     </row>
     <row r="1380" spans="1:1">
-      <c r="A1380" s="46"/>
+      <c r="A1380" s="48"/>
     </row>
     <row r="1381" spans="1:1">
-      <c r="A1381" s="46"/>
+      <c r="A1381" s="48"/>
     </row>
     <row r="1382" spans="1:1">
-      <c r="A1382" s="46"/>
+      <c r="A1382" s="48"/>
     </row>
     <row r="1383" spans="1:1">
-      <c r="A1383" s="46"/>
+      <c r="A1383" s="48"/>
     </row>
     <row r="1384" spans="1:1">
-      <c r="A1384" s="46"/>
+      <c r="A1384" s="48"/>
     </row>
     <row r="1385" spans="1:1">
-      <c r="A1385" s="46"/>
+      <c r="A1385" s="48"/>
     </row>
     <row r="1386" spans="1:1">
-      <c r="A1386" s="46"/>
+      <c r="A1386" s="48"/>
     </row>
     <row r="1387" spans="1:1">
-      <c r="A1387" s="46"/>
+      <c r="A1387" s="48"/>
     </row>
     <row r="1388" spans="1:1">
-      <c r="A1388" s="46"/>
+      <c r="A1388" s="48"/>
     </row>
     <row r="1389" spans="1:1">
-      <c r="A1389" s="46"/>
+      <c r="A1389" s="48"/>
     </row>
     <row r="1390" spans="1:1">
-      <c r="A1390" s="46"/>
+      <c r="A1390" s="48"/>
     </row>
     <row r="1391" spans="1:1">
-      <c r="A1391" s="46"/>
+      <c r="A1391" s="48"/>
     </row>
     <row r="1392" spans="1:1">
-      <c r="A1392" s="46"/>
+      <c r="A1392" s="48"/>
     </row>
     <row r="1393" spans="1:1">
-      <c r="A1393" s="46"/>
+      <c r="A1393" s="48"/>
     </row>
     <row r="1394" spans="1:1">
-      <c r="A1394" s="46"/>
+      <c r="A1394" s="48"/>
     </row>
     <row r="1395" spans="1:1">
-      <c r="A1395" s="46"/>
+      <c r="A1395" s="48"/>
     </row>
     <row r="1396" spans="1:1">
-      <c r="A1396" s="46"/>
+      <c r="A1396" s="48"/>
     </row>
     <row r="1397" spans="1:1">
-      <c r="A1397" s="46"/>
+      <c r="A1397" s="48"/>
     </row>
     <row r="1398" spans="1:1">
-      <c r="A1398" s="46"/>
+      <c r="A1398" s="48"/>
     </row>
     <row r="1399" spans="1:1">
-      <c r="A1399" s="46"/>
+      <c r="A1399" s="48"/>
     </row>
     <row r="1400" spans="1:1">
-      <c r="A1400" s="46"/>
+      <c r="A1400" s="48"/>
     </row>
     <row r="1401" spans="1:1">
-      <c r="A1401" s="46"/>
+      <c r="A1401" s="48"/>
     </row>
     <row r="1402" spans="1:1">
-      <c r="A1402" s="46"/>
+      <c r="A1402" s="48"/>
     </row>
     <row r="1403" spans="1:1">
-      <c r="A1403" s="46"/>
+      <c r="A1403" s="48"/>
     </row>
     <row r="1404" spans="1:1">
-      <c r="A1404" s="46"/>
+      <c r="A1404" s="48"/>
     </row>
     <row r="1405" spans="1:1">
-      <c r="A1405" s="46"/>
+      <c r="A1405" s="48"/>
     </row>
     <row r="1406" spans="1:1">
-      <c r="A1406" s="46"/>
+      <c r="A1406" s="48"/>
     </row>
     <row r="1407" spans="1:1">
-      <c r="A1407" s="46"/>
+      <c r="A1407" s="48"/>
     </row>
     <row r="1408" spans="1:1">
-      <c r="A1408" s="46"/>
+      <c r="A1408" s="48"/>
     </row>
     <row r="1409" spans="1:1">
-      <c r="A1409" s="46"/>
+      <c r="A1409" s="48"/>
     </row>
     <row r="1410" spans="1:1">
-      <c r="A1410" s="46"/>
+      <c r="A1410" s="48"/>
     </row>
     <row r="1411" spans="1:1">
-      <c r="A1411" s="46"/>
+      <c r="A1411" s="48"/>
     </row>
     <row r="1412" spans="1:1">
-      <c r="A1412" s="46"/>
+      <c r="A1412" s="48"/>
     </row>
     <row r="1413" spans="1:1">
-      <c r="A1413" s="46"/>
+      <c r="A1413" s="48"/>
     </row>
     <row r="1414" spans="1:1">
-      <c r="A1414" s="46"/>
+      <c r="A1414" s="48"/>
     </row>
     <row r="1415" spans="1:1">
-      <c r="A1415" s="46"/>
+      <c r="A1415" s="48"/>
     </row>
     <row r="1416" spans="1:1">
-      <c r="A1416" s="46"/>
+      <c r="A1416" s="48"/>
     </row>
     <row r="1417" spans="1:1">
-      <c r="A1417" s="46"/>
+      <c r="A1417" s="48"/>
     </row>
     <row r="1418" spans="1:1">
-      <c r="A1418" s="46"/>
+      <c r="A1418" s="48"/>
     </row>
     <row r="1419" spans="1:1">
-      <c r="A1419" s="46"/>
+      <c r="A1419" s="48"/>
     </row>
     <row r="1420" spans="1:1">
-      <c r="A1420" s="46"/>
+      <c r="A1420" s="48"/>
     </row>
     <row r="1421" spans="1:1">
-      <c r="A1421" s="46"/>
+      <c r="A1421" s="48"/>
     </row>
     <row r="1422" spans="1:1">
-      <c r="A1422" s="46"/>
+      <c r="A1422" s="48"/>
     </row>
     <row r="1423" spans="1:1">
-      <c r="A1423" s="46"/>
+      <c r="A1423" s="48"/>
     </row>
     <row r="1424" spans="1:1">
-      <c r="A1424" s="46"/>
+      <c r="A1424" s="48"/>
     </row>
     <row r="1425" spans="1:1">
-      <c r="A1425" s="46"/>
+      <c r="A1425" s="48"/>
     </row>
     <row r="1426" spans="1:1">
-      <c r="A1426" s="46"/>
+      <c r="A1426" s="48"/>
     </row>
     <row r="1427" spans="1:1">
-      <c r="A1427" s="46"/>
+      <c r="A1427" s="48"/>
     </row>
     <row r="1428" spans="1:1">
-      <c r="A1428" s="46"/>
+      <c r="A1428" s="48"/>
     </row>
     <row r="1429" spans="1:1">
-      <c r="A1429" s="46"/>
+      <c r="A1429" s="48"/>
     </row>
     <row r="1430" spans="1:1">
-      <c r="A1430" s="46"/>
+      <c r="A1430" s="48"/>
     </row>
     <row r="1431" spans="1:1">
-      <c r="A1431" s="46"/>
+      <c r="A1431" s="48"/>
     </row>
     <row r="1432" spans="1:1">
-      <c r="A1432" s="46"/>
+      <c r="A1432" s="48"/>
     </row>
     <row r="1433" spans="1:1">
-      <c r="A1433" s="46"/>
+      <c r="A1433" s="48"/>
     </row>
     <row r="1434" spans="1:1">
-      <c r="A1434" s="46"/>
+      <c r="A1434" s="48"/>
     </row>
     <row r="1435" spans="1:1">
-      <c r="A1435" s="46"/>
+      <c r="A1435" s="48"/>
     </row>
     <row r="1436" spans="1:1">
-      <c r="A1436" s="46"/>
+      <c r="A1436" s="48"/>
     </row>
     <row r="1437" spans="1:1">
-      <c r="A1437" s="46"/>
+      <c r="A1437" s="48"/>
     </row>
     <row r="1438" spans="1:1">
-      <c r="A1438" s="46"/>
+      <c r="A1438" s="48"/>
     </row>
     <row r="1439" spans="1:1">
-      <c r="A1439" s="46"/>
+      <c r="A1439" s="48"/>
     </row>
     <row r="1440" spans="1:1">
-      <c r="A1440" s="46"/>
+      <c r="A1440" s="48"/>
     </row>
     <row r="1441" spans="1:1">
-      <c r="A1441" s="46"/>
+      <c r="A1441" s="48"/>
     </row>
     <row r="1442" spans="1:1">
-      <c r="A1442" s="46"/>
+      <c r="A1442" s="48"/>
     </row>
     <row r="1443" spans="1:1">
-      <c r="A1443" s="46"/>
+      <c r="A1443" s="48"/>
     </row>
     <row r="1444" spans="1:1">
-      <c r="A1444" s="46"/>
+      <c r="A1444" s="48"/>
     </row>
     <row r="1445" spans="1:1">
-      <c r="A1445" s="46"/>
+      <c r="A1445" s="48"/>
     </row>
     <row r="1446" spans="1:1">
-      <c r="A1446" s="46"/>
+      <c r="A1446" s="48"/>
     </row>
     <row r="1447" spans="1:1">
-      <c r="A1447" s="46"/>
+      <c r="A1447" s="48"/>
     </row>
     <row r="1448" spans="1:1">
-      <c r="A1448" s="46"/>
+      <c r="A1448" s="48"/>
     </row>
     <row r="1449" spans="1:1">
-      <c r="A1449" s="46"/>
+      <c r="A1449" s="48"/>
     </row>
     <row r="1450" spans="1:1">
-      <c r="A1450" s="46"/>
+      <c r="A1450" s="48"/>
     </row>
     <row r="1451" spans="1:1">
-      <c r="A1451" s="46"/>
+      <c r="A1451" s="48"/>
     </row>
     <row r="1452" spans="1:1">
-      <c r="A1452" s="46"/>
+      <c r="A1452" s="48"/>
     </row>
     <row r="1453" spans="1:1">
-      <c r="A1453" s="46"/>
+      <c r="A1453" s="48"/>
     </row>
     <row r="1454" spans="1:1">
-      <c r="A1454" s="46"/>
+      <c r="A1454" s="48"/>
     </row>
     <row r="1455" spans="1:1">
-      <c r="A1455" s="46"/>
+      <c r="A1455" s="48"/>
     </row>
     <row r="1456" spans="1:1">
-      <c r="A1456" s="46"/>
+      <c r="A1456" s="48"/>
     </row>
     <row r="1457" spans="1:1">
-      <c r="A1457" s="46"/>
+      <c r="A1457" s="48"/>
     </row>
     <row r="1458" spans="1:1">
-      <c r="A1458" s="46"/>
+      <c r="A1458" s="48"/>
     </row>
     <row r="1459" spans="1:1">
-      <c r="A1459" s="46"/>
+      <c r="A1459" s="48"/>
     </row>
     <row r="1460" spans="1:1">
-      <c r="A1460" s="46"/>
+      <c r="A1460" s="48"/>
     </row>
     <row r="1461" spans="1:1">
-      <c r="A1461" s="46"/>
+      <c r="A1461" s="48"/>
     </row>
     <row r="1462" spans="1:1">
-      <c r="A1462" s="46"/>
+      <c r="A1462" s="48"/>
     </row>
     <row r="1463" spans="1:1">
-      <c r="A1463" s="46"/>
+      <c r="A1463" s="48"/>
     </row>
     <row r="1464" spans="1:1">
-      <c r="A1464" s="46"/>
+      <c r="A1464" s="48"/>
     </row>
     <row r="1465" spans="1:1">
-      <c r="A1465" s="46"/>
+      <c r="A1465" s="48"/>
     </row>
     <row r="1466" spans="1:1">
-      <c r="A1466" s="46"/>
+      <c r="A1466" s="48"/>
     </row>
     <row r="1467" spans="1:1">
-      <c r="A1467" s="46"/>
+      <c r="A1467" s="48"/>
     </row>
     <row r="1468" spans="1:1">
-      <c r="A1468" s="46"/>
+      <c r="A1468" s="48"/>
     </row>
     <row r="1469" spans="1:1">
-      <c r="A1469" s="46"/>
+      <c r="A1469" s="48"/>
     </row>
     <row r="1470" spans="1:1">
-      <c r="A1470" s="46"/>
+      <c r="A1470" s="48"/>
     </row>
     <row r="1471" spans="1:1">
-      <c r="A1471" s="46"/>
+      <c r="A1471" s="48"/>
     </row>
     <row r="1472" spans="1:1">
-      <c r="A1472" s="46"/>
+      <c r="A1472" s="48"/>
     </row>
     <row r="1473" spans="1:1">
-      <c r="A1473" s="46"/>
+      <c r="A1473" s="48"/>
     </row>
     <row r="1474" spans="1:1">
-      <c r="A1474" s="46"/>
+      <c r="A1474" s="48"/>
     </row>
     <row r="1475" spans="1:1">
-      <c r="A1475" s="46"/>
+      <c r="A1475" s="48"/>
     </row>
     <row r="1476" spans="1:1">
-      <c r="A1476" s="46"/>
+      <c r="A1476" s="48"/>
     </row>
     <row r="1477" spans="1:1">
-      <c r="A1477" s="46"/>
+      <c r="A1477" s="48"/>
     </row>
     <row r="1478" spans="1:1">
-      <c r="A1478" s="46"/>
+      <c r="A1478" s="48"/>
     </row>
     <row r="1479" spans="1:1">
-      <c r="A1479" s="46"/>
+      <c r="A1479" s="48"/>
     </row>
     <row r="1480" spans="1:1">
-      <c r="A1480" s="46"/>
+      <c r="A1480" s="48"/>
     </row>
     <row r="1481" spans="1:1">
-      <c r="A1481" s="46"/>
+      <c r="A1481" s="48"/>
     </row>
     <row r="1482" spans="1:1">
-      <c r="A1482" s="46"/>
+      <c r="A1482" s="48"/>
     </row>
     <row r="1483" spans="1:1">
-      <c r="A1483" s="46"/>
+      <c r="A1483" s="48"/>
     </row>
     <row r="1484" spans="1:1">
-      <c r="A1484" s="46"/>
+      <c r="A1484" s="48"/>
     </row>
     <row r="1485" spans="1:1">
-      <c r="A1485" s="46"/>
+      <c r="A1485" s="48"/>
     </row>
     <row r="1486" spans="1:1">
-      <c r="A1486" s="46"/>
+      <c r="A1486" s="48"/>
     </row>
     <row r="1487" spans="1:1">
-      <c r="A1487" s="46"/>
+      <c r="A1487" s="48"/>
     </row>
     <row r="1488" spans="1:1">
-      <c r="A1488" s="46"/>
+      <c r="A1488" s="48"/>
     </row>
     <row r="1489" spans="1:1">
-      <c r="A1489" s="46"/>
+      <c r="A1489" s="48"/>
     </row>
     <row r="1490" spans="1:1">
-      <c r="A1490" s="46"/>
+      <c r="A1490" s="48"/>
     </row>
     <row r="1491" spans="1:1">
-      <c r="A1491" s="46"/>
+      <c r="A1491" s="48"/>
     </row>
     <row r="1492" spans="1:1">
-      <c r="A1492" s="46"/>
+      <c r="A1492" s="48"/>
     </row>
     <row r="1493" spans="1:1">
-      <c r="A1493" s="46"/>
+      <c r="A1493" s="48"/>
     </row>
     <row r="1494" spans="1:1">
-      <c r="A1494" s="46"/>
+      <c r="A1494" s="48"/>
     </row>
     <row r="1495" spans="1:1">
-      <c r="A1495" s="46"/>
+      <c r="A1495" s="48"/>
     </row>
     <row r="1496" spans="1:1">
-      <c r="A1496" s="46"/>
+      <c r="A1496" s="48"/>
     </row>
     <row r="1497" spans="1:1">
-      <c r="A1497" s="46"/>
+      <c r="A1497" s="48"/>
     </row>
     <row r="1498" spans="1:1">
-      <c r="A1498" s="46"/>
+      <c r="A1498" s="48"/>
     </row>
     <row r="1499" spans="1:1">
-      <c r="A1499" s="46"/>
+      <c r="A1499" s="48"/>
     </row>
     <row r="1500" spans="1:1">
-      <c r="A1500" s="46"/>
+      <c r="A1500" s="48"/>
     </row>
     <row r="1501" spans="1:1">
-      <c r="A1501" s="46"/>
+      <c r="A1501" s="48"/>
     </row>
     <row r="1502" spans="1:1">
-      <c r="A1502" s="46"/>
+      <c r="A1502" s="48"/>
     </row>
     <row r="1503" spans="1:1">
-      <c r="A1503" s="46"/>
+      <c r="A1503" s="48"/>
     </row>
     <row r="1504" spans="1:1">
-      <c r="A1504" s="46"/>
+      <c r="A1504" s="48"/>
     </row>
     <row r="1505" spans="1:1">
-      <c r="A1505" s="46"/>
+      <c r="A1505" s="48"/>
     </row>
     <row r="1506" spans="1:1">
-      <c r="A1506" s="46"/>
+      <c r="A1506" s="48"/>
     </row>
     <row r="1507" spans="1:1">
-      <c r="A1507" s="46"/>
+      <c r="A1507" s="48"/>
     </row>
     <row r="1508" spans="1:1">
-      <c r="A1508" s="46"/>
+      <c r="A1508" s="48"/>
     </row>
     <row r="1509" spans="1:1">
-      <c r="A1509" s="46"/>
+      <c r="A1509" s="48"/>
     </row>
     <row r="1510" spans="1:1">
-      <c r="A1510" s="46"/>
+      <c r="A1510" s="48"/>
     </row>
     <row r="1511" spans="1:1">
-      <c r="A1511" s="46"/>
+      <c r="A1511" s="48"/>
     </row>
     <row r="1512" spans="1:1">
-      <c r="A1512" s="46"/>
+      <c r="A1512" s="48"/>
     </row>
     <row r="1513" spans="1:1">
-      <c r="A1513" s="46"/>
+      <c r="A1513" s="48"/>
     </row>
     <row r="1514" spans="1:1">
-      <c r="A1514" s="46"/>
+      <c r="A1514" s="48"/>
     </row>
     <row r="1515" spans="1:1">
-      <c r="A1515" s="46"/>
+      <c r="A1515" s="48"/>
     </row>
     <row r="1516" spans="1:1">
-      <c r="A1516" s="46"/>
+      <c r="A1516" s="48"/>
     </row>
     <row r="1517" spans="1:1">
-      <c r="A1517" s="46"/>
+      <c r="A1517" s="48"/>
     </row>
     <row r="1518" spans="1:1">
-      <c r="A1518" s="46"/>
+      <c r="A1518" s="48"/>
     </row>
     <row r="1519" spans="1:1">
-      <c r="A1519" s="46"/>
+      <c r="A1519" s="48"/>
     </row>
     <row r="1520" spans="1:1">
-      <c r="A1520" s="46"/>
+      <c r="A1520" s="48"/>
     </row>
     <row r="1521" spans="1:1">
-      <c r="A1521" s="46"/>
+      <c r="A1521" s="48"/>
     </row>
     <row r="1522" spans="1:1">
-      <c r="A1522" s="46"/>
+      <c r="A1522" s="48"/>
     </row>
     <row r="1523" spans="1:1">
-      <c r="A1523" s="46"/>
+      <c r="A1523" s="48"/>
     </row>
     <row r="1524" spans="1:1">
-      <c r="A1524" s="46"/>
+      <c r="A1524" s="48"/>
     </row>
     <row r="1525" spans="1:1">
-      <c r="A1525" s="46"/>
+      <c r="A1525" s="48"/>
     </row>
     <row r="1526" spans="1:1">
-      <c r="A1526" s="46"/>
+      <c r="A1526" s="48"/>
     </row>
     <row r="1527" spans="1:1">
-      <c r="A1527" s="46"/>
+      <c r="A1527" s="48"/>
     </row>
     <row r="1528" spans="1:1">
-      <c r="A1528" s="46"/>
+      <c r="A1528" s="48"/>
     </row>
     <row r="1529" spans="1:1">
-      <c r="A1529" s="46"/>
+      <c r="A1529" s="48"/>
     </row>
     <row r="1530" spans="1:1">
-      <c r="A1530" s="46"/>
+      <c r="A1530" s="48"/>
     </row>
     <row r="1531" spans="1:1">
-      <c r="A1531" s="46"/>
+      <c r="A1531" s="48"/>
     </row>
     <row r="1532" spans="1:1">
-      <c r="A1532" s="46"/>
+      <c r="A1532" s="48"/>
     </row>
     <row r="1533" spans="1:1">
-      <c r="A1533" s="46"/>
+      <c r="A1533" s="48"/>
     </row>
     <row r="1534" spans="1:1">
-      <c r="A1534" s="46"/>
+      <c r="A1534" s="48"/>
     </row>
     <row r="1535" spans="1:1">
-      <c r="A1535" s="46"/>
+      <c r="A1535" s="48"/>
     </row>
     <row r="1536" spans="1:1">
-      <c r="A1536" s="46"/>
+      <c r="A1536" s="48"/>
     </row>
     <row r="1537" spans="1:1">
-      <c r="A1537" s="46"/>
+      <c r="A1537" s="48"/>
     </row>
     <row r="1538" spans="1:1">
-      <c r="A1538" s="46"/>
+      <c r="A1538" s="48"/>
     </row>
     <row r="1539" spans="1:1">
-      <c r="A1539" s="46"/>
+      <c r="A1539" s="48"/>
     </row>
     <row r="1540" spans="1:1">
-      <c r="A1540" s="46"/>
+      <c r="A1540" s="48"/>
     </row>
     <row r="1541" spans="1:1">
-      <c r="A1541" s="46"/>
+      <c r="A1541" s="48"/>
     </row>
     <row r="1542" spans="1:1">
-      <c r="A1542" s="46"/>
+      <c r="A1542" s="48"/>
     </row>
     <row r="1543" spans="1:1">
-      <c r="A1543" s="46"/>
+      <c r="A1543" s="48"/>
     </row>
     <row r="1544" spans="1:1">
-      <c r="A1544" s="46"/>
+      <c r="A1544" s="48"/>
     </row>
     <row r="1545" spans="1:1">
-      <c r="A1545" s="46"/>
+      <c r="A1545" s="48"/>
     </row>
     <row r="1546" spans="1:1">
-      <c r="A1546" s="46"/>
+      <c r="A1546" s="48"/>
     </row>
     <row r="1547" spans="1:1">
-      <c r="A1547" s="46"/>
+      <c r="A1547" s="48"/>
     </row>
     <row r="1548" spans="1:1">
-      <c r="A1548" s="46"/>
+      <c r="A1548" s="48"/>
     </row>
     <row r="1549" spans="1:1">
-      <c r="A1549" s="46"/>
+      <c r="A1549" s="48"/>
     </row>
     <row r="1550" spans="1:1">
-      <c r="A1550" s="46"/>
+      <c r="A1550" s="48"/>
     </row>
     <row r="1551" spans="1:1">
-      <c r="A1551" s="46"/>
+      <c r="A1551" s="48"/>
     </row>
     <row r="1552" spans="1:1">
-      <c r="A1552" s="46"/>
+      <c r="A1552" s="48"/>
     </row>
     <row r="1553" spans="1:1">
-      <c r="A1553" s="46"/>
+      <c r="A1553" s="48"/>
     </row>
     <row r="1554" spans="1:1">
-      <c r="A1554" s="46"/>
+      <c r="A1554" s="48"/>
     </row>
     <row r="1555" spans="1:1">
-      <c r="A1555" s="46"/>
+      <c r="A1555" s="48"/>
     </row>
     <row r="1556" spans="1:1">
-      <c r="A1556" s="46"/>
+      <c r="A1556" s="48"/>
     </row>
     <row r="1557" spans="1:1">
-      <c r="A1557" s="46"/>
+      <c r="A1557" s="48"/>
     </row>
     <row r="1558" spans="1:1">
-      <c r="A1558" s="46"/>
+      <c r="A1558" s="48"/>
     </row>
     <row r="1559" spans="1:1">
-      <c r="A1559" s="46"/>
+      <c r="A1559" s="48"/>
     </row>
     <row r="1560" spans="1:1">
-      <c r="A1560" s="46"/>
+      <c r="A1560" s="48"/>
     </row>
     <row r="1561" spans="1:1">
-      <c r="A1561" s="46"/>
+      <c r="A1561" s="48"/>
     </row>
     <row r="1562" spans="1:1">
-      <c r="A1562" s="46"/>
+      <c r="A1562" s="48"/>
     </row>
     <row r="1563" spans="1:1">
-      <c r="A1563" s="46"/>
+      <c r="A1563" s="48"/>
     </row>
     <row r="1564" spans="1:1">
-      <c r="A1564" s="46"/>
+      <c r="A1564" s="48"/>
     </row>
     <row r="1565" spans="1:1">
-      <c r="A1565" s="46"/>
+      <c r="A1565" s="48"/>
     </row>
     <row r="1566" spans="1:1">
-      <c r="A1566" s="46"/>
+      <c r="A1566" s="48"/>
     </row>
     <row r="1567" spans="1:1">
-      <c r="A1567" s="46"/>
+      <c r="A1567" s="48"/>
     </row>
     <row r="1568" spans="1:1">
-      <c r="A1568" s="46"/>
+      <c r="A1568" s="48"/>
     </row>
     <row r="1569" spans="1:1">
-      <c r="A1569" s="46"/>
+      <c r="A1569" s="48"/>
     </row>
     <row r="1570" spans="1:1">
-      <c r="A1570" s="46"/>
+      <c r="A1570" s="48"/>
     </row>
     <row r="1571" spans="1:1">
-      <c r="A1571" s="46"/>
+      <c r="A1571" s="48"/>
     </row>
     <row r="1572" spans="1:1">
-      <c r="A1572" s="46"/>
+      <c r="A1572" s="48"/>
     </row>
     <row r="1573" spans="1:1">
-      <c r="A1573" s="46"/>
+      <c r="A1573" s="48"/>
     </row>
     <row r="1574" spans="1:1">
-      <c r="A1574" s="46"/>
+      <c r="A1574" s="48"/>
     </row>
     <row r="1575" spans="1:1">
-      <c r="A1575" s="46"/>
+      <c r="A1575" s="48"/>
     </row>
     <row r="1576" spans="1:1">
-      <c r="A1576" s="46"/>
+      <c r="A1576" s="48"/>
     </row>
     <row r="1577" spans="1:1">
-      <c r="A1577" s="46"/>
+      <c r="A1577" s="48"/>
     </row>
     <row r="1578" spans="1:1">
-      <c r="A1578" s="46"/>
+      <c r="A1578" s="48"/>
     </row>
     <row r="1579" spans="1:1">
-      <c r="A1579" s="46"/>
+      <c r="A1579" s="48"/>
     </row>
     <row r="1580" spans="1:1">
-      <c r="A1580" s="46"/>
+      <c r="A1580" s="48"/>
     </row>
     <row r="1581" spans="1:1">
-      <c r="A1581" s="46"/>
+      <c r="A1581" s="48"/>
     </row>
     <row r="1582" spans="1:1">
-      <c r="A1582" s="46"/>
+      <c r="A1582" s="48"/>
     </row>
     <row r="1583" spans="1:1">
-      <c r="A1583" s="46"/>
+      <c r="A1583" s="48"/>
     </row>
     <row r="1584" spans="1:1">
-      <c r="A1584" s="46"/>
+      <c r="A1584" s="48"/>
     </row>
     <row r="1585" spans="1:1">
-      <c r="A1585" s="46"/>
+      <c r="A1585" s="48"/>
     </row>
     <row r="1586" spans="1:1">
-      <c r="A1586" s="46"/>
+      <c r="A1586" s="48"/>
     </row>
     <row r="1587" spans="1:1">
-      <c r="A1587" s="46"/>
+      <c r="A1587" s="48"/>
     </row>
     <row r="1588" spans="1:1">
-      <c r="A1588" s="46"/>
+      <c r="A1588" s="48"/>
     </row>
     <row r="1589" spans="1:1">
-      <c r="A1589" s="46"/>
+      <c r="A1589" s="48"/>
     </row>
     <row r="1590" spans="1:1">
-      <c r="A1590" s="46"/>
+      <c r="A1590" s="48"/>
     </row>
     <row r="1591" spans="1:1">
-      <c r="A1591" s="46"/>
+      <c r="A1591" s="48"/>
     </row>
     <row r="1592" spans="1:1">
-      <c r="A1592" s="46"/>
+      <c r="A1592" s="48"/>
     </row>
     <row r="1593" spans="1:1">
-      <c r="A1593" s="46"/>
+      <c r="A1593" s="48"/>
     </row>
     <row r="1594" spans="1:1">
-      <c r="A1594" s="46"/>
+      <c r="A1594" s="48"/>
     </row>
     <row r="1595" spans="1:1">
-      <c r="A1595" s="46"/>
+      <c r="A1595" s="48"/>
     </row>
     <row r="1596" spans="1:1">
-      <c r="A1596" s="46"/>
+      <c r="A1596" s="48"/>
     </row>
     <row r="1597" spans="1:1">
-      <c r="A1597" s="46"/>
+      <c r="A1597" s="48"/>
     </row>
     <row r="1598" spans="1:1">
-      <c r="A1598" s="46"/>
+      <c r="A1598" s="48"/>
     </row>
     <row r="1599" spans="1:1">
-      <c r="A1599" s="46"/>
+      <c r="A1599" s="48"/>
     </row>
     <row r="1600" spans="1:1">
-      <c r="A1600" s="46"/>
+      <c r="A1600" s="48"/>
     </row>
     <row r="1601" spans="1:1">
-      <c r="A1601" s="46"/>
+      <c r="A1601" s="48"/>
     </row>
     <row r="1602" spans="1:1">
-      <c r="A1602" s="46"/>
+      <c r="A1602" s="48"/>
     </row>
     <row r="1603" spans="1:1">
-      <c r="A1603" s="46"/>
+      <c r="A1603" s="48"/>
     </row>
     <row r="1604" spans="1:1">
-      <c r="A1604" s="46"/>
+      <c r="A1604" s="48"/>
     </row>
     <row r="1605" spans="1:1">
-      <c r="A1605" s="46"/>
+      <c r="A1605" s="48"/>
     </row>
     <row r="1606" spans="1:1">
-      <c r="A1606" s="46"/>
+      <c r="A1606" s="48"/>
     </row>
     <row r="1607" spans="1:1">
-      <c r="A1607" s="46"/>
+      <c r="A1607" s="48"/>
     </row>
     <row r="1608" spans="1:1">
-      <c r="A1608" s="46"/>
+      <c r="A1608" s="48"/>
     </row>
     <row r="1609" spans="1:1">
-      <c r="A1609" s="46"/>
+      <c r="A1609" s="48"/>
     </row>
     <row r="1610" spans="1:1">
-      <c r="A1610" s="46"/>
+      <c r="A1610" s="48"/>
     </row>
     <row r="1611" spans="1:1">
-      <c r="A1611" s="46"/>
+      <c r="A1611" s="48"/>
     </row>
     <row r="1612" spans="1:1">
-      <c r="A1612" s="46"/>
+      <c r="A1612" s="48"/>
     </row>
     <row r="1613" spans="1:1">
-      <c r="A1613" s="46"/>
+      <c r="A1613" s="48"/>
     </row>
     <row r="1614" spans="1:1">
-      <c r="A1614" s="46"/>
+      <c r="A1614" s="48"/>
     </row>
     <row r="1615" spans="1:1">
-      <c r="A1615" s="46"/>
+      <c r="A1615" s="48"/>
     </row>
     <row r="1616" spans="1:1">
-      <c r="A1616" s="46"/>
+      <c r="A1616" s="48"/>
     </row>
     <row r="1617" spans="1:1">
-      <c r="A1617" s="46"/>
+      <c r="A1617" s="48"/>
     </row>
     <row r="1618" spans="1:1">
-      <c r="A1618" s="46"/>
+      <c r="A1618" s="48"/>
     </row>
     <row r="1619" spans="1:1">
-      <c r="A1619" s="46"/>
+      <c r="A1619" s="48"/>
     </row>
     <row r="1620" spans="1:1">
-      <c r="A1620" s="46"/>
+      <c r="A1620" s="48"/>
     </row>
     <row r="1621" spans="1:1">
-      <c r="A1621" s="46"/>
+      <c r="A1621" s="48"/>
     </row>
     <row r="1622" spans="1:1">
-      <c r="A1622" s="46"/>
+      <c r="A1622" s="48"/>
     </row>
     <row r="1623" spans="1:1">
-      <c r="A1623" s="46"/>
+      <c r="A1623" s="48"/>
     </row>
     <row r="1624" spans="1:1">
-      <c r="A1624" s="46"/>
+      <c r="A1624" s="48"/>
     </row>
     <row r="1625" spans="1:1">
-      <c r="A1625" s="46"/>
+      <c r="A1625" s="48"/>
     </row>
     <row r="1626" spans="1:1">
-      <c r="A1626" s="46"/>
+      <c r="A1626" s="48"/>
     </row>
     <row r="1627" spans="1:1">
-      <c r="A1627" s="46"/>
+      <c r="A1627" s="48"/>
     </row>
     <row r="1628" spans="1:1">
-      <c r="A1628" s="46"/>
+      <c r="A1628" s="48"/>
     </row>
     <row r="1629" spans="1:1">
-      <c r="A1629" s="46"/>
+      <c r="A1629" s="48"/>
     </row>
     <row r="1630" spans="1:1">
-      <c r="A1630" s="46"/>
+      <c r="A1630" s="48"/>
     </row>
     <row r="1631" spans="1:1">
-      <c r="A1631" s="46"/>
+      <c r="A1631" s="48"/>
     </row>
     <row r="1632" spans="1:1">
-      <c r="A1632" s="46"/>
+      <c r="A1632" s="48"/>
     </row>
     <row r="1633" spans="1:1">
-      <c r="A1633" s="46"/>
+      <c r="A1633" s="48"/>
     </row>
     <row r="1634" spans="1:1">
-      <c r="A1634" s="46"/>
+      <c r="A1634" s="48"/>
     </row>
     <row r="1635" spans="1:1">
-      <c r="A1635" s="46"/>
+      <c r="A1635" s="48"/>
     </row>
     <row r="1636" spans="1:1">
-      <c r="A1636" s="46"/>
+      <c r="A1636" s="48"/>
     </row>
     <row r="1637" spans="1:1">
-      <c r="A1637" s="46"/>
+      <c r="A1637" s="48"/>
     </row>
     <row r="1638" spans="1:1">
-      <c r="A1638" s="46"/>
+      <c r="A1638" s="48"/>
     </row>
     <row r="1639" spans="1:1">
-      <c r="A1639" s="46"/>
+      <c r="A1639" s="48"/>
     </row>
     <row r="1640" spans="1:1">
-      <c r="A1640" s="46"/>
+      <c r="A1640" s="48"/>
     </row>
     <row r="1641" spans="1:1">
-      <c r="A1641" s="46"/>
+      <c r="A1641" s="48"/>
     </row>
     <row r="1642" spans="1:1">
-      <c r="A1642" s="46"/>
+      <c r="A1642" s="48"/>
     </row>
     <row r="1643" spans="1:1">
-      <c r="A1643" s="46"/>
+      <c r="A1643" s="48"/>
     </row>
     <row r="1644" spans="1:1">
-      <c r="A1644" s="46"/>
+      <c r="A1644" s="48"/>
     </row>
     <row r="1645" spans="1:1">
-      <c r="A1645" s="46"/>
+      <c r="A1645" s="48"/>
     </row>
     <row r="1646" spans="1:1">
-      <c r="A1646" s="46"/>
+      <c r="A1646" s="48"/>
     </row>
     <row r="1647" spans="1:1">
-      <c r="A1647" s="46"/>
+      <c r="A1647" s="48"/>
     </row>
     <row r="1648" spans="1:1">
-      <c r="A1648" s="46"/>
+      <c r="A1648" s="48"/>
     </row>
     <row r="1649" spans="1:1">
-      <c r="A1649" s="46"/>
+      <c r="A1649" s="48"/>
     </row>
     <row r="1650" spans="1:1">
-      <c r="A1650" s="46"/>
+      <c r="A1650" s="48"/>
     </row>
     <row r="1651" spans="1:1">
-      <c r="A1651" s="46"/>
+      <c r="A1651" s="48"/>
     </row>
     <row r="1652" spans="1:1">
-      <c r="A1652" s="46"/>
+      <c r="A1652" s="48"/>
     </row>
     <row r="1653" spans="1:1">
-      <c r="A1653" s="46"/>
+      <c r="A1653" s="48"/>
     </row>
     <row r="1654" spans="1:1">
-      <c r="A1654" s="46"/>
+      <c r="A1654" s="48"/>
     </row>
     <row r="1655" spans="1:1">
-      <c r="A1655" s="46"/>
+      <c r="A1655" s="48"/>
     </row>
     <row r="1656" spans="1:1">
-      <c r="A1656" s="46"/>
+      <c r="A1656" s="48"/>
     </row>
     <row r="1657" spans="1:1">
-      <c r="A1657" s="46"/>
+      <c r="A1657" s="48"/>
     </row>
     <row r="1658" spans="1:1">
-      <c r="A1658" s="46"/>
+      <c r="A1658" s="48"/>
     </row>
     <row r="1659" spans="1:1">
-      <c r="A1659" s="46"/>
+      <c r="A1659" s="48"/>
     </row>
     <row r="1660" spans="1:1">
-      <c r="A1660" s="46"/>
+      <c r="A1660" s="48"/>
     </row>
     <row r="1661" spans="1:1">
-      <c r="A1661" s="46"/>
+      <c r="A1661" s="48"/>
     </row>
     <row r="1662" spans="1:1">
-      <c r="A1662" s="46"/>
+      <c r="A1662" s="48"/>
     </row>
     <row r="1663" spans="1:1">
-      <c r="A1663" s="46"/>
+      <c r="A1663" s="48"/>
     </row>
     <row r="1664" spans="1:1">
-      <c r="A1664" s="46"/>
+      <c r="A1664" s="48"/>
     </row>
     <row r="1665" spans="1:1">
-      <c r="A1665" s="46"/>
+      <c r="A1665" s="48"/>
     </row>
     <row r="1666" spans="1:1">
-      <c r="A1666" s="46"/>
+      <c r="A1666" s="48"/>
     </row>
     <row r="1667" spans="1:1">
-      <c r="A1667" s="46"/>
+      <c r="A1667" s="48"/>
     </row>
     <row r="1668" spans="1:1">
-      <c r="A1668" s="46"/>
+      <c r="A1668" s="48"/>
     </row>
     <row r="1669" spans="1:1">
-      <c r="A1669" s="46"/>
+      <c r="A1669" s="48"/>
     </row>
     <row r="1670" spans="1:1">
-      <c r="A1670" s="46"/>
+      <c r="A1670" s="48"/>
     </row>
     <row r="1671" spans="1:1">
-      <c r="A1671" s="46"/>
+      <c r="A1671" s="48"/>
     </row>
     <row r="1672" spans="1:1">
-      <c r="A1672" s="46"/>
+      <c r="A1672" s="48"/>
     </row>
     <row r="1673" spans="1:1">
-      <c r="A1673" s="46"/>
+      <c r="A1673" s="48"/>
     </row>
     <row r="1674" spans="1:1">
-      <c r="A1674" s="46"/>
+      <c r="A1674" s="48"/>
     </row>
     <row r="1675" spans="1:1">
-      <c r="A1675" s="46"/>
+      <c r="A1675" s="48"/>
     </row>
     <row r="1676" spans="1:1">
-      <c r="A1676" s="46"/>
+      <c r="A1676" s="48"/>
     </row>
     <row r="1677" spans="1:1">
-      <c r="A1677" s="46"/>
+      <c r="A1677" s="48"/>
     </row>
     <row r="1678" spans="1:1">
-      <c r="A1678" s="46"/>
+      <c r="A1678" s="48"/>
     </row>
     <row r="1679" spans="1:1">
-      <c r="A1679" s="46"/>
+      <c r="A1679" s="48"/>
     </row>
     <row r="1680" spans="1:1">
-      <c r="A1680" s="46"/>
+      <c r="A1680" s="48"/>
     </row>
     <row r="1681" spans="1:1">
-      <c r="A1681" s="46"/>
+      <c r="A1681" s="48"/>
     </row>
     <row r="1682" spans="1:1">
-      <c r="A1682" s="46"/>
+      <c r="A1682" s="48"/>
     </row>
     <row r="1683" spans="1:1">
-      <c r="A1683" s="46"/>
+      <c r="A1683" s="48"/>
     </row>
     <row r="1684" spans="1:1">
-      <c r="A1684" s="46"/>
+      <c r="A1684" s="48"/>
     </row>
     <row r="1685" spans="1:1">
-      <c r="A1685" s="46"/>
+      <c r="A1685" s="48"/>
     </row>
     <row r="1686" spans="1:1">
-      <c r="A1686" s="46"/>
+      <c r="A1686" s="48"/>
     </row>
     <row r="1687" spans="1:1">
-      <c r="A1687" s="46"/>
+      <c r="A1687" s="48"/>
     </row>
     <row r="1688" spans="1:1">
-      <c r="A1688" s="46"/>
+      <c r="A1688" s="48"/>
     </row>
     <row r="1689" spans="1:1">
-      <c r="A1689" s="46"/>
+      <c r="A1689" s="48"/>
     </row>
     <row r="1690" spans="1:1">
-      <c r="A1690" s="46"/>
+      <c r="A1690" s="48"/>
     </row>
     <row r="1691" spans="1:1">
-      <c r="A1691" s="46"/>
+      <c r="A1691" s="48"/>
     </row>
     <row r="1692" spans="1:1">
-      <c r="A1692" s="46"/>
+      <c r="A1692" s="48"/>
     </row>
     <row r="1693" spans="1:1">
-      <c r="A1693" s="46"/>
+      <c r="A1693" s="48"/>
     </row>
     <row r="1694" spans="1:1">
-      <c r="A1694" s="46"/>
+      <c r="A1694" s="48"/>
     </row>
     <row r="1695" spans="1:1">
-      <c r="A1695" s="46"/>
+      <c r="A1695" s="48"/>
     </row>
     <row r="1696" spans="1:1">
-      <c r="A1696" s="46"/>
+      <c r="A1696" s="48"/>
     </row>
     <row r="1697" spans="1:1">
-      <c r="A1697" s="46"/>
+      <c r="A1697" s="48"/>
     </row>
     <row r="1698" spans="1:1">
-      <c r="A1698" s="46"/>
+      <c r="A1698" s="48"/>
     </row>
     <row r="1699" spans="1:1">
-      <c r="A1699" s="46"/>
+      <c r="A1699" s="48"/>
     </row>
     <row r="1700" spans="1:1">
-      <c r="A1700" s="46"/>
+      <c r="A1700" s="48"/>
     </row>
     <row r="1701" spans="1:1">
-      <c r="A1701" s="46"/>
+      <c r="A1701" s="48"/>
     </row>
     <row r="1702" spans="1:1">
-      <c r="A1702" s="46"/>
+      <c r="A1702" s="48"/>
     </row>
     <row r="1703" spans="1:1">
-      <c r="A1703" s="46"/>
+      <c r="A1703" s="48"/>
     </row>
     <row r="1704" spans="1:1">
-      <c r="A1704" s="46"/>
+      <c r="A1704" s="48"/>
     </row>
     <row r="1705" spans="1:1">
-      <c r="A1705" s="46"/>
+      <c r="A1705" s="48"/>
     </row>
     <row r="1706" spans="1:1">
-      <c r="A1706" s="46"/>
+      <c r="A1706" s="48"/>
     </row>
     <row r="1707" spans="1:1">
-      <c r="A1707" s="46"/>
+      <c r="A1707" s="48"/>
     </row>
     <row r="1708" spans="1:1">
-      <c r="A1708" s="46"/>
+      <c r="A1708" s="48"/>
     </row>
     <row r="1709" spans="1:1">
-      <c r="A1709" s="46"/>
+      <c r="A1709" s="48"/>
     </row>
     <row r="1710" spans="1:1">
-      <c r="A1710" s="46"/>
+      <c r="A1710" s="48"/>
     </row>
     <row r="1711" spans="1:1">
-      <c r="A1711" s="46"/>
+      <c r="A1711" s="48"/>
     </row>
     <row r="1712" spans="1:1">
-      <c r="A1712" s="46"/>
+      <c r="A1712" s="48"/>
     </row>
     <row r="1713" spans="1:1">
-      <c r="A1713" s="46"/>
+      <c r="A1713" s="48"/>
     </row>
     <row r="1714" spans="1:1">
-      <c r="A1714" s="46"/>
+      <c r="A1714" s="48"/>
     </row>
     <row r="1715" spans="1:1">
-      <c r="A1715" s="46"/>
+      <c r="A1715" s="48"/>
     </row>
     <row r="1716" spans="1:1">
-      <c r="A1716" s="46"/>
+      <c r="A1716" s="48"/>
     </row>
     <row r="1717" spans="1:1">
-      <c r="A1717" s="46"/>
+      <c r="A1717" s="48"/>
     </row>
     <row r="1718" spans="1:1">
-      <c r="A1718" s="46"/>
+      <c r="A1718" s="48"/>
     </row>
     <row r="1719" spans="1:1">
-      <c r="A1719" s="46"/>
+      <c r="A1719" s="48"/>
     </row>
     <row r="1720" spans="1:1">
-      <c r="A1720" s="46"/>
+      <c r="A1720" s="48"/>
     </row>
     <row r="1721" spans="1:1">
-      <c r="A1721" s="46"/>
+      <c r="A1721" s="48"/>
     </row>
     <row r="1722" spans="1:1">
-      <c r="A1722" s="46"/>
+      <c r="A1722" s="48"/>
     </row>
     <row r="1723" spans="1:1">
-      <c r="A1723" s="46"/>
+      <c r="A1723" s="48"/>
     </row>
     <row r="1724" spans="1:1">
-      <c r="A1724" s="46"/>
+      <c r="A1724" s="48"/>
     </row>
     <row r="1725" spans="1:1">
-      <c r="A1725" s="46"/>
+      <c r="A1725" s="48"/>
     </row>
     <row r="1726" spans="1:1">
-      <c r="A1726" s="46"/>
+      <c r="A1726" s="48"/>
     </row>
     <row r="1727" spans="1:1">
-      <c r="A1727" s="46"/>
+      <c r="A1727" s="48"/>
     </row>
     <row r="1728" spans="1:1">
-      <c r="A1728" s="46"/>
+      <c r="A1728" s="48"/>
     </row>
     <row r="1729" spans="1:1">
-      <c r="A1729" s="46"/>
+      <c r="A1729" s="48"/>
     </row>
     <row r="1730" spans="1:1">
-      <c r="A1730" s="46"/>
+      <c r="A1730" s="48"/>
     </row>
     <row r="1731" spans="1:1">
-      <c r="A1731" s="46"/>
+      <c r="A1731" s="48"/>
     </row>
     <row r="1732" spans="1:1">
-      <c r="A1732" s="46"/>
+      <c r="A1732" s="48"/>
     </row>
     <row r="1733" spans="1:1">
-      <c r="A1733" s="46"/>
+      <c r="A1733" s="48"/>
     </row>
     <row r="1734" spans="1:1">
-      <c r="A1734" s="46"/>
+      <c r="A1734" s="48"/>
     </row>
     <row r="1735" spans="1:1">
-      <c r="A1735" s="46"/>
+      <c r="A1735" s="48"/>
     </row>
     <row r="1736" spans="1:1">
-      <c r="A1736" s="46"/>
+      <c r="A1736" s="48"/>
     </row>
     <row r="1737" spans="1:1">
-      <c r="A1737" s="46"/>
+      <c r="A1737" s="48"/>
     </row>
     <row r="1738" spans="1:1">
-      <c r="A1738" s="46"/>
+      <c r="A1738" s="48"/>
     </row>
     <row r="1739" spans="1:1">
-      <c r="A1739" s="46"/>
+      <c r="A1739" s="48"/>
     </row>
     <row r="1740" spans="1:1">
-      <c r="A1740" s="46"/>
+      <c r="A1740" s="48"/>
     </row>
     <row r="1741" spans="1:1">
-      <c r="A1741" s="46"/>
+      <c r="A1741" s="48"/>
     </row>
     <row r="1742" spans="1:1">
-      <c r="A1742" s="46"/>
+      <c r="A1742" s="48"/>
     </row>
     <row r="1743" spans="1:1">
-      <c r="A1743" s="46"/>
+      <c r="A1743" s="48"/>
     </row>
     <row r="1744" spans="1:1">
-      <c r="A1744" s="46"/>
+      <c r="A1744" s="48"/>
     </row>
     <row r="1745" spans="1:1">
-      <c r="A1745" s="46"/>
+      <c r="A1745" s="48"/>
     </row>
     <row r="1746" spans="1:1">
-      <c r="A1746" s="46"/>
+      <c r="A1746" s="48"/>
     </row>
     <row r="1747" spans="1:1">
-      <c r="A1747" s="46"/>
+      <c r="A1747" s="48"/>
     </row>
     <row r="1748" spans="1:1">
-      <c r="A1748" s="46"/>
+      <c r="A1748" s="48"/>
     </row>
     <row r="1749" spans="1:1">
-      <c r="A1749" s="46"/>
+      <c r="A1749" s="48"/>
     </row>
     <row r="1750" spans="1:1">
-      <c r="A1750" s="46"/>
+      <c r="A1750" s="48"/>
     </row>
     <row r="1751" spans="1:1">
-      <c r="A1751" s="46"/>
+      <c r="A1751" s="48"/>
     </row>
     <row r="1752" spans="1:1">
-      <c r="A1752" s="46"/>
+      <c r="A1752" s="48"/>
     </row>
     <row r="1753" spans="1:1">
-      <c r="A1753" s="46"/>
+      <c r="A1753" s="48"/>
     </row>
     <row r="1754" spans="1:1">
-      <c r="A1754" s="46"/>
+      <c r="A1754" s="48"/>
     </row>
     <row r="1755" spans="1:1">
-      <c r="A1755" s="46"/>
+      <c r="A1755" s="48"/>
     </row>
     <row r="1756" spans="1:1">
-      <c r="A1756" s="46"/>
+      <c r="A1756" s="48"/>
     </row>
     <row r="1757" spans="1:1">
-      <c r="A1757" s="46"/>
+      <c r="A1757" s="48"/>
     </row>
     <row r="1758" spans="1:1">
-      <c r="A1758" s="46"/>
+      <c r="A1758" s="48"/>
     </row>
     <row r="1759" spans="1:1">
-      <c r="A1759" s="46"/>
+      <c r="A1759" s="48"/>
     </row>
     <row r="1760" spans="1:1">
-      <c r="A1760" s="46"/>
+      <c r="A1760" s="48"/>
     </row>
     <row r="1761" spans="1:1">
-      <c r="A1761" s="46"/>
+      <c r="A1761" s="48"/>
     </row>
     <row r="1762" spans="1:1">
-      <c r="A1762" s="46"/>
+      <c r="A1762" s="48"/>
     </row>
     <row r="1763" spans="1:1">
-      <c r="A1763" s="46"/>
+      <c r="A1763" s="48"/>
     </row>
     <row r="1764" spans="1:1">
-      <c r="A1764" s="46"/>
+      <c r="A1764" s="48"/>
     </row>
     <row r="1765" spans="1:1">
-      <c r="A1765" s="46"/>
+      <c r="A1765" s="48"/>
     </row>
     <row r="1766" spans="1:1">
-      <c r="A1766" s="46"/>
+      <c r="A1766" s="48"/>
     </row>
     <row r="1767" spans="1:1">
-      <c r="A1767" s="46"/>
+      <c r="A1767" s="48"/>
     </row>
     <row r="1768" spans="1:1">
-      <c r="A1768" s="46"/>
+      <c r="A1768" s="48"/>
     </row>
     <row r="1769" spans="1:1">
-      <c r="A1769" s="46"/>
+      <c r="A1769" s="48"/>
     </row>
     <row r="1770" spans="1:1">
-      <c r="A1770" s="46"/>
+      <c r="A1770" s="48"/>
     </row>
     <row r="1771" spans="1:1">
-      <c r="A1771" s="46"/>
+      <c r="A1771" s="48"/>
     </row>
     <row r="1772" spans="1:1">
-      <c r="A1772" s="46"/>
+      <c r="A1772" s="48"/>
     </row>
     <row r="1773" spans="1:1">
-      <c r="A1773" s="46"/>
+      <c r="A1773" s="48"/>
     </row>
     <row r="1774" spans="1:1">
-      <c r="A1774" s="46"/>
+      <c r="A1774" s="48"/>
     </row>
     <row r="1775" spans="1:1">
-      <c r="A1775" s="46"/>
+      <c r="A1775" s="48"/>
     </row>
     <row r="1776" spans="1:1">
-      <c r="A1776" s="46"/>
+      <c r="A1776" s="48"/>
     </row>
     <row r="1777" spans="1:1">
-      <c r="A1777" s="46"/>
+      <c r="A1777" s="48"/>
     </row>
     <row r="1778" spans="1:1">
-      <c r="A1778" s="46"/>
+      <c r="A1778" s="48"/>
     </row>
     <row r="1779" spans="1:1">
-      <c r="A1779" s="46"/>
+      <c r="A1779" s="48"/>
     </row>
     <row r="1780" spans="1:1">
-      <c r="A1780" s="46"/>
+      <c r="A1780" s="48"/>
     </row>
     <row r="1781" spans="1:1">
-      <c r="A1781" s="46"/>
+      <c r="A1781" s="48"/>
     </row>
     <row r="1782" spans="1:1">
-      <c r="A1782" s="46"/>
+      <c r="A1782" s="48"/>
     </row>
     <row r="1783" spans="1:1">
-      <c r="A1783" s="46"/>
+      <c r="A1783" s="48"/>
     </row>
     <row r="1784" spans="1:1">
-      <c r="A1784" s="46"/>
+      <c r="A1784" s="48"/>
     </row>
     <row r="1785" spans="1:1">
-      <c r="A1785" s="46"/>
+      <c r="A1785" s="48"/>
     </row>
     <row r="1786" spans="1:1">
-      <c r="A1786" s="46"/>
+      <c r="A1786" s="48"/>
     </row>
     <row r="1787" spans="1:1">
-      <c r="A1787" s="46"/>
+      <c r="A1787" s="48"/>
     </row>
     <row r="1788" spans="1:1">
-      <c r="A1788" s="46"/>
+      <c r="A1788" s="48"/>
     </row>
     <row r="1789" spans="1:1">
-      <c r="A1789" s="46"/>
+      <c r="A1789" s="48"/>
     </row>
     <row r="1790" spans="1:1">
-      <c r="A1790" s="46"/>
+      <c r="A1790" s="48"/>
     </row>
     <row r="1791" spans="1:1">
-      <c r="A1791" s="46"/>
+      <c r="A1791" s="48"/>
     </row>
     <row r="1792" spans="1:1">
-      <c r="A1792" s="46"/>
+      <c r="A1792" s="48"/>
     </row>
     <row r="1793" spans="1:1">
-      <c r="A1793" s="46"/>
+      <c r="A1793" s="48"/>
     </row>
     <row r="1794" spans="1:1">
-      <c r="A1794" s="46"/>
+      <c r="A1794" s="48"/>
     </row>
     <row r="1795" spans="1:1">
-      <c r="A1795" s="46"/>
+      <c r="A1795" s="48"/>
     </row>
     <row r="1796" spans="1:1">
-      <c r="A1796" s="46"/>
+      <c r="A1796" s="48"/>
     </row>
     <row r="1797" spans="1:1">
-      <c r="A1797" s="46"/>
+      <c r="A1797" s="48"/>
     </row>
     <row r="1798" spans="1:1">
-      <c r="A1798" s="46"/>
+      <c r="A1798" s="48"/>
     </row>
     <row r="1799" spans="1:1">
-      <c r="A1799" s="46"/>
+      <c r="A1799" s="48"/>
     </row>
     <row r="1800" spans="1:1">
-      <c r="A1800" s="46"/>
+      <c r="A1800" s="48"/>
     </row>
     <row r="1801" spans="1:1">
-      <c r="A1801" s="46"/>
+      <c r="A1801" s="48"/>
     </row>
     <row r="1802" spans="1:1">
-      <c r="A1802" s="46"/>
+      <c r="A1802" s="48"/>
     </row>
     <row r="1803" spans="1:1">
-      <c r="A1803" s="46"/>
+      <c r="A1803" s="48"/>
     </row>
     <row r="1804" spans="1:1">
-      <c r="A1804" s="46"/>
+      <c r="A1804" s="48"/>
     </row>
     <row r="1805" spans="1:1">
-      <c r="A1805" s="46"/>
+      <c r="A1805" s="48"/>
     </row>
     <row r="1806" spans="1:1">
-      <c r="A1806" s="46"/>
+      <c r="A1806" s="48"/>
     </row>
     <row r="1807" spans="1:1">
-      <c r="A1807" s="46"/>
+      <c r="A1807" s="48"/>
     </row>
     <row r="1808" spans="1:1">
-      <c r="A1808" s="46"/>
+      <c r="A1808" s="48"/>
     </row>
     <row r="1809" spans="1:1">
-      <c r="A1809" s="46"/>
+      <c r="A1809" s="48"/>
     </row>
     <row r="1810" spans="1:1">
-      <c r="A1810" s="46"/>
+      <c r="A1810" s="48"/>
     </row>
     <row r="1811" spans="1:1">
-      <c r="A1811" s="46"/>
+      <c r="A1811" s="48"/>
     </row>
     <row r="1812" spans="1:1">
-      <c r="A1812" s="46"/>
+      <c r="A1812" s="48"/>
     </row>
     <row r="1813" spans="1:1">
-      <c r="A1813" s="46"/>
+      <c r="A1813" s="48"/>
     </row>
     <row r="1814" spans="1:1">
-      <c r="A1814" s="46"/>
+      <c r="A1814" s="48"/>
     </row>
     <row r="1815" spans="1:1">
-      <c r="A1815" s="46"/>
+      <c r="A1815" s="48"/>
     </row>
     <row r="1816" spans="1:1">
-      <c r="A1816" s="46"/>
+      <c r="A1816" s="48"/>
     </row>
     <row r="1817" spans="1:1">
-      <c r="A1817" s="46"/>
+      <c r="A1817" s="48"/>
     </row>
     <row r="1818" spans="1:1">
-      <c r="A1818" s="46"/>
+      <c r="A1818" s="48"/>
     </row>
     <row r="1819" spans="1:1">
-      <c r="A1819" s="46"/>
+      <c r="A1819" s="48"/>
     </row>
     <row r="1820" spans="1:1">
-      <c r="A1820" s="46"/>
+      <c r="A1820" s="48"/>
     </row>
     <row r="1821" spans="1:1">
-      <c r="A1821" s="46"/>
+      <c r="A1821" s="48"/>
     </row>
     <row r="1822" spans="1:1">
-      <c r="A1822" s="46"/>
+      <c r="A1822" s="48"/>
     </row>
     <row r="1823" spans="1:1">
-      <c r="A1823" s="46"/>
+      <c r="A1823" s="48"/>
     </row>
     <row r="1824" spans="1:1">
-      <c r="A1824" s="46"/>
+      <c r="A1824" s="48"/>
     </row>
     <row r="1825" spans="1:1">
-      <c r="A1825" s="46"/>
+      <c r="A1825" s="48"/>
     </row>
     <row r="1826" spans="1:1">
-      <c r="A1826" s="46"/>
+      <c r="A1826" s="48"/>
     </row>
     <row r="1827" spans="1:1">
-      <c r="A1827" s="46"/>
+      <c r="A1827" s="48"/>
     </row>
     <row r="1828" spans="1:1">
-      <c r="A1828" s="46"/>
+      <c r="A1828" s="48"/>
     </row>
     <row r="1829" spans="1:1">
-      <c r="A1829" s="46"/>
+      <c r="A1829" s="48"/>
     </row>
     <row r="1830" spans="1:1">
-      <c r="A1830" s="46"/>
+      <c r="A1830" s="48"/>
     </row>
     <row r="1831" spans="1:1">
-      <c r="A1831" s="46"/>
+      <c r="A1831" s="48"/>
     </row>
     <row r="1832" spans="1:1">
-      <c r="A1832" s="46"/>
+      <c r="A1832" s="48"/>
     </row>
     <row r="1833" spans="1:1">
-      <c r="A1833" s="46"/>
+      <c r="A1833" s="48"/>
     </row>
     <row r="1834" spans="1:1">
-      <c r="A1834" s="46"/>
+      <c r="A1834" s="48"/>
     </row>
     <row r="1835" spans="1:1">
-      <c r="A1835" s="46"/>
+      <c r="A1835" s="48"/>
     </row>
     <row r="1836" spans="1:1">
-      <c r="A1836" s="46"/>
+      <c r="A1836" s="48"/>
     </row>
     <row r="1837" spans="1:1">
-      <c r="A1837" s="46"/>
+      <c r="A1837" s="48"/>
     </row>
     <row r="1838" spans="1:1">
-      <c r="A1838" s="46"/>
+      <c r="A1838" s="48"/>
     </row>
     <row r="1839" spans="1:1">
-      <c r="A1839" s="46"/>
+      <c r="A1839" s="48"/>
     </row>
     <row r="1840" spans="1:1">
-      <c r="A1840" s="46"/>
+      <c r="A1840" s="48"/>
     </row>
     <row r="1841" spans="1:1">
-      <c r="A1841" s="46"/>
+      <c r="A1841" s="48"/>
     </row>
     <row r="1842" spans="1:1">
-      <c r="A1842" s="46"/>
+      <c r="A1842" s="48"/>
     </row>
     <row r="1843" spans="1:1">
-      <c r="A1843" s="46"/>
+      <c r="A1843" s="48"/>
     </row>
     <row r="1844" spans="1:1">
-      <c r="A1844" s="46"/>
+      <c r="A1844" s="48"/>
     </row>
     <row r="1845" spans="1:1">
-      <c r="A1845" s="46"/>
+      <c r="A1845" s="48"/>
     </row>
     <row r="1846" spans="1:1">
-      <c r="A1846" s="46"/>
+      <c r="A1846" s="48"/>
     </row>
     <row r="1847" spans="1:1">
-      <c r="A1847" s="46"/>
+      <c r="A1847" s="48"/>
     </row>
     <row r="1848" spans="1:1">
-      <c r="A1848" s="46"/>
+      <c r="A1848" s="48"/>
     </row>
     <row r="1849" spans="1:1">
-      <c r="A1849" s="46"/>
+      <c r="A1849" s="48"/>
     </row>
     <row r="1850" spans="1:1">
-      <c r="A1850" s="46"/>
+      <c r="A1850" s="48"/>
     </row>
     <row r="1851" spans="1:1">
-      <c r="A1851" s="46"/>
+      <c r="A1851" s="48"/>
     </row>
     <row r="1852" spans="1:1">
-      <c r="A1852" s="46"/>
+      <c r="A1852" s="48"/>
     </row>
     <row r="1853" spans="1:1">
-      <c r="A1853" s="46"/>
+      <c r="A1853" s="48"/>
     </row>
     <row r="1854" spans="1:1">
-      <c r="A1854" s="46"/>
+      <c r="A1854" s="48"/>
     </row>
     <row r="1855" spans="1:1">
-      <c r="A1855" s="46"/>
+      <c r="A1855" s="48"/>
     </row>
     <row r="1856" spans="1:1">
-      <c r="A1856" s="46"/>
+      <c r="A1856" s="48"/>
     </row>
     <row r="1857" spans="1:1">
-      <c r="A1857" s="46"/>
+      <c r="A1857" s="48"/>
     </row>
     <row r="1858" spans="1:1">
-      <c r="A1858" s="46"/>
+      <c r="A1858" s="48"/>
     </row>
     <row r="1859" spans="1:1">
-      <c r="A1859" s="46"/>
+      <c r="A1859" s="48"/>
     </row>
     <row r="1860" spans="1:1">
-      <c r="A1860" s="46"/>
+      <c r="A1860" s="48"/>
     </row>
     <row r="1861" spans="1:1">
-      <c r="A1861" s="46"/>
+      <c r="A1861" s="48"/>
     </row>
     <row r="1862" spans="1:1">
-      <c r="A1862" s="46"/>
+      <c r="A1862" s="48"/>
     </row>
     <row r="1863" spans="1:1">
-      <c r="A1863" s="46"/>
+      <c r="A1863" s="48"/>
     </row>
     <row r="1864" spans="1:1">
-      <c r="A1864" s="46"/>
+      <c r="A1864" s="48"/>
     </row>
     <row r="1865" spans="1:1">
-      <c r="A1865" s="46"/>
+      <c r="A1865" s="48"/>
     </row>
     <row r="1866" spans="1:1">
-      <c r="A1866" s="46"/>
+      <c r="A1866" s="48"/>
     </row>
     <row r="1867" spans="1:1">
-      <c r="A1867" s="46"/>
+      <c r="A1867" s="48"/>
     </row>
     <row r="1868" spans="1:1">
-      <c r="A1868" s="46"/>
+      <c r="A1868" s="48"/>
     </row>
     <row r="1869" spans="1:1">
-      <c r="A1869" s="46"/>
+      <c r="A1869" s="48"/>
     </row>
     <row r="1870" spans="1:1">
-      <c r="A1870" s="46"/>
+      <c r="A1870" s="48"/>
     </row>
     <row r="1871" spans="1:1">
-      <c r="A1871" s="46"/>
+      <c r="A1871" s="48"/>
     </row>
     <row r="1872" spans="1:1">
-      <c r="A1872" s="46"/>
+      <c r="A1872" s="48"/>
     </row>
     <row r="1873" spans="1:1">
-      <c r="A1873" s="46"/>
+      <c r="A1873" s="48"/>
     </row>
     <row r="1874" spans="1:1">
-      <c r="A1874" s="46"/>
+      <c r="A1874" s="48"/>
     </row>
     <row r="1875" spans="1:1">
-      <c r="A1875" s="46"/>
+      <c r="A1875" s="48"/>
     </row>
     <row r="1876" spans="1:1">
-      <c r="A1876" s="46"/>
+      <c r="A1876" s="48"/>
     </row>
     <row r="1877" spans="1:1">
-      <c r="A1877" s="46"/>
+      <c r="A1877" s="48"/>
     </row>
     <row r="1878" spans="1:1">
-      <c r="A1878" s="46"/>
+      <c r="A1878" s="48"/>
     </row>
     <row r="1879" spans="1:1">
-      <c r="A1879" s="46"/>
+      <c r="A1879" s="48"/>
     </row>
     <row r="1880" spans="1:1">
-      <c r="A1880" s="46"/>
+      <c r="A1880" s="48"/>
     </row>
     <row r="1881" spans="1:1">
-      <c r="A1881" s="46"/>
+      <c r="A1881" s="48"/>
     </row>
     <row r="1882" spans="1:1">
-      <c r="A1882" s="46"/>
+      <c r="A1882" s="48"/>
     </row>
     <row r="1883" spans="1:1">
-      <c r="A1883" s="46"/>
+      <c r="A1883" s="48"/>
     </row>
     <row r="1884" spans="1:1">
-      <c r="A1884" s="46"/>
+      <c r="A1884" s="48"/>
     </row>
     <row r="1885" spans="1:1">
-      <c r="A1885" s="46"/>
+      <c r="A1885" s="48"/>
     </row>
     <row r="1886" spans="1:1">
-      <c r="A1886" s="46"/>
+      <c r="A1886" s="48"/>
     </row>
     <row r="1887" spans="1:1">
-      <c r="A1887" s="46"/>
+      <c r="A1887" s="48"/>
     </row>
     <row r="1888" spans="1:1">
-      <c r="A1888" s="46"/>
+      <c r="A1888" s="48"/>
     </row>
     <row r="1889" spans="1:1">
-      <c r="A1889" s="46"/>
+      <c r="A1889" s="48"/>
     </row>
     <row r="1890" spans="1:1">
-      <c r="A1890" s="46"/>
+      <c r="A1890" s="48"/>
     </row>
     <row r="1891" spans="1:1">
-      <c r="A1891" s="46"/>
+      <c r="A1891" s="48"/>
     </row>
     <row r="1892" spans="1:1">
-      <c r="A1892" s="46"/>
+      <c r="A1892" s="48"/>
     </row>
     <row r="1893" spans="1:1">
-      <c r="A1893" s="46"/>
+      <c r="A1893" s="48"/>
     </row>
     <row r="1894" spans="1:1">
-      <c r="A1894" s="46"/>
+      <c r="A1894" s="48"/>
     </row>
     <row r="1895" spans="1:1">
-      <c r="A1895" s="46"/>
+      <c r="A1895" s="48"/>
     </row>
     <row r="1896" spans="1:1">
-      <c r="A1896" s="46"/>
+      <c r="A1896" s="48"/>
     </row>
     <row r="1897" spans="1:1">
-      <c r="A1897" s="46"/>
+      <c r="A1897" s="48"/>
     </row>
     <row r="1898" spans="1:1">
-      <c r="A1898" s="46"/>
+      <c r="A1898" s="48"/>
     </row>
     <row r="1899" spans="1:1">
-      <c r="A1899" s="46"/>
+      <c r="A1899" s="48"/>
     </row>
     <row r="1900" spans="1:1">
-      <c r="A1900" s="46"/>
+      <c r="A1900" s="48"/>
     </row>
     <row r="1901" spans="1:1">
-      <c r="A1901" s="46"/>
+      <c r="A1901" s="48"/>
     </row>
     <row r="1902" spans="1:1">
-      <c r="A1902" s="46"/>
+      <c r="A1902" s="48"/>
     </row>
     <row r="1903" spans="1:1">
-      <c r="A1903" s="46"/>
+      <c r="A1903" s="48"/>
     </row>
     <row r="1904" spans="1:1">
-      <c r="A1904" s="46"/>
+      <c r="A1904" s="48"/>
     </row>
     <row r="1905" spans="1:1">
-      <c r="A1905" s="46"/>
+      <c r="A1905" s="48"/>
     </row>
     <row r="1906" spans="1:1">
-      <c r="A1906" s="46"/>
+      <c r="A1906" s="48"/>
     </row>
     <row r="1907" spans="1:1">
-      <c r="A1907" s="46"/>
+      <c r="A1907" s="48"/>
     </row>
     <row r="1908" spans="1:1">
-      <c r="A1908" s="46"/>
+      <c r="A1908" s="48"/>
     </row>
     <row r="1909" spans="1:1">
-      <c r="A1909" s="46"/>
+      <c r="A1909" s="48"/>
     </row>
     <row r="1910" spans="1:1">
-      <c r="A1910" s="46"/>
+      <c r="A1910" s="48"/>
     </row>
     <row r="1911" spans="1:1">
-      <c r="A1911" s="46"/>
+      <c r="A1911" s="48"/>
     </row>
     <row r="1912" spans="1:1">
-      <c r="A1912" s="46"/>
+      <c r="A1912" s="48"/>
     </row>
     <row r="1913" spans="1:1">
-      <c r="A1913" s="46"/>
+      <c r="A1913" s="48"/>
     </row>
     <row r="1914" spans="1:1">
-      <c r="A1914" s="46"/>
+      <c r="A1914" s="48"/>
     </row>
     <row r="1915" spans="1:1">
-      <c r="A1915" s="46"/>
+      <c r="A1915" s="48"/>
     </row>
     <row r="1916" spans="1:1">
-      <c r="A1916" s="46"/>
+      <c r="A1916" s="48"/>
     </row>
     <row r="1917" spans="1:1">
-      <c r="A1917" s="46"/>
+      <c r="A1917" s="48"/>
     </row>
     <row r="1918" spans="1:1">
-      <c r="A1918" s="46"/>
+      <c r="A1918" s="48"/>
     </row>
     <row r="1919" spans="1:1">
-      <c r="A1919" s="46"/>
+      <c r="A1919" s="48"/>
     </row>
     <row r="1920" spans="1:1">
-      <c r="A1920" s="46"/>
+      <c r="A1920" s="48"/>
     </row>
     <row r="1921" spans="1:1">
-      <c r="A1921" s="46"/>
+      <c r="A1921" s="48"/>
     </row>
     <row r="1922" spans="1:1">
-      <c r="A1922" s="46"/>
+      <c r="A1922" s="48"/>
     </row>
     <row r="1923" spans="1:1">
-      <c r="A1923" s="46"/>
+      <c r="A1923" s="48"/>
     </row>
     <row r="1924" spans="1:1">
-      <c r="A1924" s="46"/>
+      <c r="A1924" s="48"/>
     </row>
     <row r="1925" spans="1:1">
-      <c r="A1925" s="46"/>
+      <c r="A1925" s="48"/>
     </row>
     <row r="1926" spans="1:1">
-      <c r="A1926" s="46"/>
+      <c r="A1926" s="48"/>
     </row>
     <row r="1927" spans="1:1">
-      <c r="A1927" s="46"/>
+      <c r="A1927" s="48"/>
     </row>
     <row r="1928" spans="1:1">
-      <c r="A1928" s="46"/>
+      <c r="A1928" s="48"/>
     </row>
     <row r="1929" spans="1:1">
-      <c r="A1929" s="46"/>
+      <c r="A1929" s="48"/>
     </row>
     <row r="1930" spans="1:1">
-      <c r="A1930" s="46"/>
+      <c r="A1930" s="48"/>
     </row>
     <row r="1931" spans="1:1">
-      <c r="A1931" s="46"/>
+      <c r="A1931" s="48"/>
     </row>
     <row r="1932" spans="1:1">
-      <c r="A1932" s="46"/>
+      <c r="A1932" s="48"/>
     </row>
     <row r="1933" spans="1:1">
-      <c r="A1933" s="46"/>
+      <c r="A1933" s="48"/>
     </row>
     <row r="1934" spans="1:1">
-      <c r="A1934" s="46"/>
+      <c r="A1934" s="48"/>
     </row>
     <row r="1935" spans="1:1">
-      <c r="A1935" s="46"/>
+      <c r="A1935" s="48"/>
     </row>
     <row r="1936" spans="1:1">
-      <c r="A1936" s="46"/>
+      <c r="A1936" s="48"/>
     </row>
     <row r="1937" spans="1:1">
-      <c r="A1937" s="46"/>
+      <c r="A1937" s="48"/>
     </row>
     <row r="1938" spans="1:1">
-      <c r="A1938" s="46"/>
+      <c r="A1938" s="48"/>
     </row>
     <row r="1939" spans="1:1">
-      <c r="A1939" s="46"/>
+      <c r="A1939" s="48"/>
     </row>
     <row r="1940" spans="1:1">
-      <c r="A1940" s="46"/>
+      <c r="A1940" s="48"/>
     </row>
     <row r="1941" spans="1:1">
-      <c r="A1941" s="46"/>
+      <c r="A1941" s="48"/>
     </row>
     <row r="1942" spans="1:1">
-      <c r="A1942" s="46"/>
+      <c r="A1942" s="48"/>
     </row>
     <row r="1943" spans="1:1">
-      <c r="A1943" s="46"/>
+      <c r="A1943" s="48"/>
     </row>
     <row r="1944" spans="1:1">
-      <c r="A1944" s="46"/>
+      <c r="A1944" s="48"/>
     </row>
     <row r="1945" spans="1:1">
-      <c r="A1945" s="46"/>
+      <c r="A1945" s="48"/>
     </row>
     <row r="1946" spans="1:1">
-      <c r="A1946" s="46"/>
+      <c r="A1946" s="48"/>
     </row>
     <row r="1947" spans="1:1">
-      <c r="A1947" s="46"/>
+      <c r="A1947" s="48"/>
     </row>
     <row r="1948" spans="1:1">
-      <c r="A1948" s="46"/>
+      <c r="A1948" s="48"/>
     </row>
     <row r="1949" spans="1:1">
-      <c r="A1949" s="46"/>
+      <c r="A1949" s="48"/>
     </row>
     <row r="1950" spans="1:1">
-      <c r="A1950" s="46"/>
+      <c r="A1950" s="48"/>
     </row>
     <row r="1951" spans="1:1">
-      <c r="A1951" s="46"/>
+      <c r="A1951" s="48"/>
     </row>
     <row r="1952" spans="1:1">
-      <c r="A1952" s="46"/>
+      <c r="A1952" s="48"/>
     </row>
     <row r="1953" spans="1:1">
-      <c r="A1953" s="46"/>
+      <c r="A1953" s="48"/>
     </row>
     <row r="1954" spans="1:1">
-      <c r="A1954" s="46"/>
+      <c r="A1954" s="48"/>
     </row>
     <row r="1955" spans="1:1">
-      <c r="A1955" s="46"/>
+      <c r="A1955" s="48"/>
     </row>
     <row r="1956" spans="1:1">
-      <c r="A1956" s="46"/>
+      <c r="A1956" s="48"/>
     </row>
     <row r="1957" spans="1:1">
-      <c r="A1957" s="46"/>
+      <c r="A1957" s="48"/>
     </row>
     <row r="1958" spans="1:1">
-      <c r="A1958" s="46"/>
+      <c r="A1958" s="48"/>
     </row>
     <row r="1959" spans="1:1">
-      <c r="A1959" s="46"/>
+      <c r="A1959" s="48"/>
     </row>
     <row r="1960" spans="1:1">
-      <c r="A1960" s="46"/>
+      <c r="A1960" s="48"/>
     </row>
     <row r="1961" spans="1:1">
-      <c r="A1961" s="46"/>
+      <c r="A1961" s="48"/>
     </row>
     <row r="1962" spans="1:1">
-      <c r="A1962" s="46"/>
+      <c r="A1962" s="48"/>
     </row>
     <row r="1963" spans="1:1">
-      <c r="A1963" s="46"/>
+      <c r="A1963" s="48"/>
     </row>
     <row r="1964" spans="1:1">
-      <c r="A1964" s="46"/>
+      <c r="A1964" s="48"/>
     </row>
     <row r="1965" spans="1:1">
-      <c r="A1965" s="46"/>
+      <c r="A1965" s="48"/>
     </row>
     <row r="1966" spans="1:1">
-      <c r="A1966" s="46"/>
+      <c r="A1966" s="48"/>
     </row>
     <row r="1967" spans="1:1">
-      <c r="A1967" s="46"/>
+      <c r="A1967" s="48"/>
     </row>
     <row r="1968" spans="1:1">
-      <c r="A1968" s="46"/>
+      <c r="A1968" s="48"/>
     </row>
     <row r="1969" spans="1:1">
-      <c r="A1969" s="46"/>
+      <c r="A1969" s="48"/>
     </row>
     <row r="1970" spans="1:1">
-      <c r="A1970" s="46"/>
+      <c r="A1970" s="48"/>
     </row>
     <row r="1971" spans="1:1">
-      <c r="A1971" s="46"/>
+      <c r="A1971" s="48"/>
     </row>
     <row r="1972" spans="1:1">
-      <c r="A1972" s="46"/>
+      <c r="A1972" s="48"/>
     </row>
     <row r="1973" spans="1:1">
-      <c r="A1973" s="46"/>
+      <c r="A1973" s="48"/>
     </row>
     <row r="1974" spans="1:1">
-      <c r="A1974" s="46"/>
+      <c r="A1974" s="48"/>
     </row>
     <row r="1975" spans="1:1">
-      <c r="A1975" s="46"/>
+      <c r="A1975" s="48"/>
     </row>
     <row r="1976" spans="1:1">
-      <c r="A1976" s="46"/>
+      <c r="A1976" s="48"/>
     </row>
     <row r="1977" spans="1:1">
-      <c r="A1977" s="46"/>
+      <c r="A1977" s="48"/>
     </row>
     <row r="1978" spans="1:1">
-      <c r="A1978" s="46"/>
+      <c r="A1978" s="48"/>
     </row>
     <row r="1979" spans="1:1">
-      <c r="A1979" s="46"/>
+      <c r="A1979" s="48"/>
     </row>
     <row r="1980" spans="1:1">
-      <c r="A1980" s="46"/>
+      <c r="A1980" s="48"/>
     </row>
     <row r="1981" spans="1:1">
-      <c r="A1981" s="46"/>
+      <c r="A1981" s="48"/>
     </row>
     <row r="1982" spans="1:1">
-      <c r="A1982" s="46"/>
+      <c r="A1982" s="48"/>
     </row>
     <row r="1983" spans="1:1">
-      <c r="A1983" s="46"/>
+      <c r="A1983" s="48"/>
     </row>
     <row r="1984" spans="1:1">
-      <c r="A1984" s="46"/>
+      <c r="A1984" s="48"/>
     </row>
     <row r="1985" spans="1:1">
-      <c r="A1985" s="46"/>
+      <c r="A1985" s="48"/>
     </row>
     <row r="1986" spans="1:1">
-      <c r="A1986" s="46"/>
+      <c r="A1986" s="48"/>
     </row>
     <row r="1987" spans="1:1">
-      <c r="A1987" s="46"/>
+      <c r="A1987" s="48"/>
     </row>
     <row r="1988" spans="1:1">
-      <c r="A1988" s="46"/>
+      <c r="A1988" s="48"/>
     </row>
     <row r="1989" spans="1:1">
-      <c r="A1989" s="46"/>
+      <c r="A1989" s="48"/>
     </row>
     <row r="1990" spans="1:1">
-      <c r="A1990" s="46"/>
+      <c r="A1990" s="48"/>
     </row>
     <row r="1991" spans="1:1">
-      <c r="A1991" s="46"/>
+      <c r="A1991" s="48"/>
     </row>
     <row r="1992" spans="1:1">
-      <c r="A1992" s="46"/>
+      <c r="A1992" s="48"/>
     </row>
     <row r="1993" spans="1:1">
-      <c r="A1993" s="46"/>
+      <c r="A1993" s="48"/>
     </row>
     <row r="1994" spans="1:1">
-      <c r="A1994" s="46"/>
+      <c r="A1994" s="48"/>
     </row>
     <row r="1995" spans="1:1">
-      <c r="A1995" s="46"/>
+      <c r="A1995" s="48"/>
     </row>
     <row r="1996" spans="1:1">
-      <c r="A1996" s="46"/>
+      <c r="A1996" s="48"/>
     </row>
     <row r="1997" spans="1:1">
-      <c r="A1997" s="46"/>
+      <c r="A1997" s="48"/>
     </row>
     <row r="1998" spans="1:1">
-      <c r="A1998" s="46"/>
+      <c r="A1998" s="48"/>
     </row>
     <row r="1999" spans="1:1">
-      <c r="A1999" s="46"/>
+      <c r="A1999" s="48"/>
     </row>
     <row r="2000" spans="1:1">
-      <c r="A2000" s="46"/>
+      <c r="A2000" s="48"/>
     </row>
     <row r="2001" spans="1:1">
-      <c r="A2001" s="46"/>
+      <c r="A2001" s="48"/>
     </row>
     <row r="2002" spans="1:1">
-      <c r="A2002" s="46"/>
+      <c r="A2002" s="48"/>
     </row>
     <row r="2003" spans="1:1">
-      <c r="A2003" s="46"/>
+      <c r="A2003" s="48"/>
     </row>
     <row r="2004" spans="1:1">
-      <c r="A2004" s="46"/>
+      <c r="A2004" s="48"/>
     </row>
     <row r="2005" spans="1:1">
-      <c r="A2005" s="46"/>
+      <c r="A2005" s="48"/>
     </row>
     <row r="2006" spans="1:1">
-      <c r="A2006" s="46"/>
+      <c r="A2006" s="48"/>
     </row>
     <row r="2007" spans="1:1">
-      <c r="A2007" s="46"/>
+      <c r="A2007" s="48"/>
     </row>
     <row r="2008" spans="1:1">
-      <c r="A2008" s="46"/>
+      <c r="A2008" s="48"/>
     </row>
     <row r="2009" spans="1:1">
-      <c r="A2009" s="46"/>
+      <c r="A2009" s="48"/>
     </row>
     <row r="2010" spans="1:1">
-      <c r="A2010" s="46"/>
+      <c r="A2010" s="48"/>
     </row>
     <row r="2011" spans="1:1">
-      <c r="A2011" s="46"/>
+      <c r="A2011" s="48"/>
     </row>
     <row r="2012" spans="1:1">
-      <c r="A2012" s="46"/>
+      <c r="A2012" s="48"/>
     </row>
     <row r="2013" spans="1:1">
-      <c r="A2013" s="46"/>
+      <c r="A2013" s="48"/>
     </row>
     <row r="2014" spans="1:1">
-      <c r="A2014" s="47"/>
+      <c r="A2014" s="48"/>
     </row>
     <row r="2015" spans="1:1">
-      <c r="A2015" s="46"/>
+      <c r="A2015" s="50"/>
     </row>
     <row r="2016" spans="1:1">
-      <c r="A2016" s="46"/>
+      <c r="A2016" s="48"/>
     </row>
     <row r="2017" spans="1:1">
-      <c r="A2017" s="46"/>
+      <c r="A2017" s="48"/>
     </row>
     <row r="2018" spans="1:1">
-      <c r="A2018" s="46"/>
+      <c r="A2018" s="48"/>
     </row>
     <row r="2019" spans="1:1">
-      <c r="A2019" s="46"/>
+      <c r="A2019" s="48"/>
     </row>
     <row r="2020" spans="1:1">
-      <c r="A2020" s="46"/>
+      <c r="A2020" s="48"/>
     </row>
     <row r="2021" spans="1:1">
-      <c r="A2021" s="46"/>
+      <c r="A2021" s="48"/>
     </row>
     <row r="2022" spans="1:1">
-      <c r="A2022" s="46"/>
+      <c r="A2022" s="48"/>
+    </row>
+    <row r="2023" spans="1:1">
+      <c r="A2023" s="48"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:D66">
+  <conditionalFormatting sqref="A2:D67">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -30525,10 +30586,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Account" error="Please select a correct Account Type from the drop down list" sqref="C3:C7 C9:C13 C15:C19 C21:C25 C27:C31 C33:C37 C39:C43 C45:C49 C51:C56 D3:D66 C58:C65" xr:uid="{F194FABA-5714-4D29-9D09-3A0C86E63544}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Account" error="Please select a correct Account Type from the drop down list" sqref="C3:C7 C9:C13 C15:C19 C21:C25 C27:C31 C33:C37 C39:C43 C45:C49 C51:C57 C59:C66 D3:D67" xr:uid="{F194FABA-5714-4D29-9D09-3A0C86E63544}">
       <formula1>AcctType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D2 C8 C14 C20 C26 C32 C38 C44 C50 C57 C66" xr:uid="{BB882569-BB29-4A3C-8838-A1A0EE87428E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D2 C8 C14 C20 C26 C32 C38 C44 C67 C58 C50" xr:uid="{BB882569-BB29-4A3C-8838-A1A0EE87428E}">
       <formula1>AcctType</formula1>
     </dataValidation>
   </dataValidations>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95828C3A-3053-4263-AEBC-2AB013A0C993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49D03F2-7404-4495-ABED-6999AC20CA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28830" windowHeight="15630" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
     <sheet name="PlanComptable" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clients!$A$1:$J$2031</definedName>
     <definedName name="dnrClients">OFFSET(Clients!$A$1,1,0,COUNTA(Clients!$A:$A)-1,2)</definedName>
     <definedName name="dnrPlanComptable">OFFSET(PlanComptable!$A$1,1,0,COUNTA(PlanComptable!$A:$A)-1,4)</definedName>
   </definedNames>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="2186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="2188">
   <si>
     <t>Exxon Mobil Corporation</t>
   </si>
@@ -6589,16 +6590,22 @@
     <t>Sandy Beach</t>
   </si>
   <si>
-    <t>Somme</t>
-  </si>
-  <si>
-    <t>Moyenne</t>
-  </si>
-  <si>
-    <t>Résultat cumulé</t>
-  </si>
-  <si>
-    <t>Nombre</t>
+    <t>Mr. John Welcome</t>
+  </si>
+  <si>
+    <t>VP Finances</t>
+  </si>
+  <si>
+    <t>1 Big Tower</t>
+  </si>
+  <si>
+    <t>Small City</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>35789-1245</t>
   </si>
 </sst>
 </file>
@@ -6885,39 +6892,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6930,18 +6937,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6956,379 +6956,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE5F4F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE5F4F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE5F4F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE5F4F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE5F4F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE5F4F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7647,8 +7274,8 @@
   <sheetPr codeName="wshClients"/>
   <dimension ref="A1:M2031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1996" workbookViewId="0">
-      <selection activeCell="J2031" sqref="A1:J2031"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -21699,13 +21326,25 @@
       <c r="B875" s="25">
         <v>867</v>
       </c>
-      <c r="C875" s="26"/>
-      <c r="D875" s="26"/>
-      <c r="E875" s="27"/>
+      <c r="C875" s="26" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D875" s="26" t="s">
+        <v>2183</v>
+      </c>
+      <c r="E875" s="27" t="s">
+        <v>2184</v>
+      </c>
       <c r="F875" s="27"/>
-      <c r="G875" s="27"/>
-      <c r="H875" s="25"/>
-      <c r="I875" s="25"/>
+      <c r="G875" s="27" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H875" s="25" t="s">
+        <v>2186</v>
+      </c>
+      <c r="I875" s="25" t="s">
+        <v>2187</v>
+      </c>
       <c r="J875" s="28"/>
     </row>
     <row r="876" spans="1:10">
@@ -40231,15 +39870,16 @@
       <c r="J2031" s="38"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J2031" xr:uid="{78FFC8C2-57F2-4B29-8BB0-D03F792CD856}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2031">
     <sortCondition ref="A2:A2031"/>
     <sortCondition ref="B2:B2031"/>
   </sortState>
   <conditionalFormatting sqref="A2:J999999">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47088,7 +46728,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D67">
-    <cfRule type="expression" dxfId="46" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
     <cfRule type="expression" priority="2">

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49D03F2-7404-4495-ABED-6999AC20CA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DA9739-FCC0-4BEF-B290-766F9D337809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="2188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="2194">
   <si>
     <t>Exxon Mobil Corporation</t>
   </si>
@@ -6606,6 +6606,24 @@
   </si>
   <si>
     <t>35789-1245</t>
+  </si>
+  <si>
+    <t>Madame Stéfanie Jean</t>
+  </si>
+  <si>
+    <t>VP Marketing</t>
+  </si>
+  <si>
+    <t>552 boul. Lafayette</t>
+  </si>
+  <si>
+    <t>Unité 201</t>
+  </si>
+  <si>
+    <t>Longueuil</t>
+  </si>
+  <si>
+    <t>J4J 4J4</t>
   </si>
 </sst>
 </file>
@@ -7275,7 +7293,7 @@
   <dimension ref="A1:M2031"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C2037" sqref="C2037"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -7285,7 +7303,7 @@
     <col min="3" max="3" width="21.28515625" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
@@ -25668,13 +25686,27 @@
       <c r="B1144" s="25">
         <v>1134</v>
       </c>
-      <c r="C1144" s="26"/>
-      <c r="D1144" s="26"/>
-      <c r="E1144" s="27"/>
-      <c r="F1144" s="27"/>
-      <c r="G1144" s="27"/>
-      <c r="H1144" s="25"/>
-      <c r="I1144" s="25"/>
+      <c r="C1144" s="26" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D1144" s="26" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E1144" s="27" t="s">
+        <v>2190</v>
+      </c>
+      <c r="F1144" s="27" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G1144" s="27" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H1144" s="25" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I1144" s="25" t="s">
+        <v>2193</v>
+      </c>
       <c r="J1144" s="28"/>
     </row>
     <row r="1145" spans="1:10">

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E969248A-0EDF-4DA9-AB2D-4328EDF6106A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DCBE95-3640-4D8C-A929-90AC9DF20C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="2208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="2218">
   <si>
     <t>Exxon Mobil Corporation</t>
   </si>
@@ -6527,9 +6527,6 @@
     <t>Pays</t>
   </si>
   <si>
-    <t>Robert M. Vigneault</t>
-  </si>
-  <si>
     <t>Président Directeur-Général</t>
   </si>
   <si>
@@ -6548,9 +6545,6 @@
     <t>Présidente</t>
   </si>
   <si>
-    <t>298 Rue de Martigny O #200</t>
-  </si>
-  <si>
     <t>Saint-Jérôme</t>
   </si>
   <si>
@@ -6666,6 +6660,42 @@
   </si>
   <si>
     <t>9299-2596 Québec inc.</t>
+  </si>
+  <si>
+    <t>Bureau 750</t>
+  </si>
+  <si>
+    <t>Bureau 200</t>
+  </si>
+  <si>
+    <t>298 Rue de Martigny O</t>
+  </si>
+  <si>
+    <t>Sous-sol</t>
+  </si>
+  <si>
+    <t>Petit salon</t>
+  </si>
+  <si>
+    <t>Suite 0</t>
+  </si>
+  <si>
+    <t>Penthouse</t>
+  </si>
+  <si>
+    <t>Mr. Hit Hard</t>
+  </si>
+  <si>
+    <t>1 Golf Paradise</t>
+  </si>
+  <si>
+    <t>Pebble Beach</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>12345-1234</t>
   </si>
 </sst>
 </file>
@@ -7335,7 +7365,7 @@
   <dimension ref="A1:M2032"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -7435,7 +7465,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="24" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="B5" s="25">
         <v>4</v>
@@ -11547,7 +11577,7 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262" s="29" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="B262" s="30">
         <v>2022</v>
@@ -12752,14 +12782,26 @@
       <c r="B337" s="25">
         <v>334</v>
       </c>
-      <c r="C337" s="26"/>
+      <c r="C337" s="26" t="s">
+        <v>2213</v>
+      </c>
       <c r="D337" s="26"/>
-      <c r="E337" s="27"/>
+      <c r="E337" s="27" t="s">
+        <v>2214</v>
+      </c>
       <c r="F337" s="27"/>
-      <c r="G337" s="27"/>
-      <c r="H337" s="25"/>
-      <c r="I337" s="25"/>
-      <c r="J337" s="28"/>
+      <c r="G337" s="27" t="s">
+        <v>2215</v>
+      </c>
+      <c r="H337" s="25" t="s">
+        <v>2216</v>
+      </c>
+      <c r="I337" s="25" t="s">
+        <v>2217</v>
+      </c>
+      <c r="J337" s="28" t="s">
+        <v>2204</v>
+      </c>
     </row>
     <row r="338" spans="1:10">
       <c r="A338" s="24" t="s">
@@ -16651,7 +16693,7 @@
     </row>
     <row r="581" spans="1:10">
       <c r="A581" s="29" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B581" s="30">
         <v>2023</v>
@@ -19291,7 +19333,7 @@
     </row>
     <row r="746" spans="1:10">
       <c r="A746" s="32" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="B746" s="25">
         <v>2024</v>
@@ -19323,7 +19365,7 @@
     </row>
     <row r="748" spans="1:10">
       <c r="A748" s="29" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="B748" s="25">
         <v>2025</v>
@@ -20049,26 +20091,28 @@
         <v>4</v>
       </c>
       <c r="C793" s="26" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="D793" s="26" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E793" s="27" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F793" s="27" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G793" s="27" t="s">
         <v>2163</v>
-      </c>
-      <c r="F793" s="27"/>
-      <c r="G793" s="27" t="s">
-        <v>2164</v>
       </c>
       <c r="H793" s="25" t="s">
         <v>2151</v>
       </c>
       <c r="I793" s="25" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="J793" s="28" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="794" spans="1:10">
@@ -20079,23 +20123,25 @@
         <v>2020</v>
       </c>
       <c r="C794" s="26" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D794" s="26" t="s">
         <v>2161</v>
       </c>
-      <c r="D794" s="26" t="s">
+      <c r="E794" s="27" t="s">
         <v>2162</v>
       </c>
-      <c r="E794" s="27" t="s">
+      <c r="F794" s="27" t="s">
+        <v>2206</v>
+      </c>
+      <c r="G794" s="27" t="s">
         <v>2163</v>
-      </c>
-      <c r="F794" s="27"/>
-      <c r="G794" s="27" t="s">
-        <v>2164</v>
       </c>
       <c r="H794" s="25" t="s">
         <v>2151</v>
       </c>
       <c r="I794" s="25" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="J794" s="28"/>
     </row>
@@ -20907,28 +20953,28 @@
         <v>836</v>
       </c>
       <c r="C845" s="26" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D845" s="26" t="s">
+        <v>2198</v>
+      </c>
+      <c r="E845" s="27" t="s">
         <v>2199</v>
       </c>
-      <c r="D845" s="26" t="s">
+      <c r="F845" s="27" t="s">
         <v>2200</v>
       </c>
-      <c r="E845" s="27" t="s">
+      <c r="G845" s="27" t="s">
         <v>2201</v>
       </c>
-      <c r="F845" s="27" t="s">
+      <c r="H845" s="25" t="s">
         <v>2202</v>
       </c>
-      <c r="G845" s="27" t="s">
+      <c r="I845" s="25" t="s">
         <v>2203</v>
       </c>
-      <c r="H845" s="25" t="s">
+      <c r="J845" s="28" t="s">
         <v>2204</v>
-      </c>
-      <c r="I845" s="25" t="s">
-        <v>2205</v>
-      </c>
-      <c r="J845" s="28" t="s">
-        <v>2206</v>
       </c>
     </row>
     <row r="846" spans="1:10">
@@ -21419,23 +21465,25 @@
         <v>867</v>
       </c>
       <c r="C876" s="26" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D876" s="26" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E876" s="27" t="s">
         <v>2182</v>
       </c>
-      <c r="D876" s="26" t="s">
+      <c r="F876" s="27" t="s">
+        <v>2212</v>
+      </c>
+      <c r="G876" s="27" t="s">
         <v>2183</v>
       </c>
-      <c r="E876" s="27" t="s">
+      <c r="H876" s="25" t="s">
         <v>2184</v>
       </c>
-      <c r="F876" s="27"/>
-      <c r="G876" s="27" t="s">
+      <c r="I876" s="25" t="s">
         <v>2185</v>
-      </c>
-      <c r="H876" s="25" t="s">
-        <v>2186</v>
-      </c>
-      <c r="I876" s="25" t="s">
-        <v>2187</v>
       </c>
       <c r="J876" s="28"/>
     </row>
@@ -21879,23 +21927,25 @@
         <v>895</v>
       </c>
       <c r="C904" s="26" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D904" s="26" t="s">
         <v>2166</v>
       </c>
-      <c r="D904" s="26" t="s">
+      <c r="E904" s="33" t="s">
+        <v>2208</v>
+      </c>
+      <c r="F904" s="27" t="s">
+        <v>2207</v>
+      </c>
+      <c r="G904" s="27" t="s">
         <v>2167</v>
-      </c>
-      <c r="E904" s="33" t="s">
-        <v>2168</v>
-      </c>
-      <c r="F904" s="27"/>
-      <c r="G904" s="27" t="s">
-        <v>2169</v>
       </c>
       <c r="H904" s="25" t="s">
         <v>2151</v>
       </c>
       <c r="I904" s="33" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="J904" s="28"/>
     </row>
@@ -23565,7 +23615,7 @@
     </row>
     <row r="1009" spans="1:10">
       <c r="A1009" s="32" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="B1009" s="25">
         <v>2026</v>
@@ -23709,7 +23759,7 @@
     </row>
     <row r="1018" spans="1:10">
       <c r="A1018" s="29" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="B1018" s="30">
         <v>2027</v>
@@ -24939,7 +24989,9 @@
       <c r="E1094" s="27" t="s">
         <v>2147</v>
       </c>
-      <c r="F1094" s="27"/>
+      <c r="F1094" s="27" t="s">
+        <v>2210</v>
+      </c>
       <c r="G1094" s="27" t="s">
         <v>2150</v>
       </c>
@@ -25761,25 +25813,25 @@
         <v>1134</v>
       </c>
       <c r="C1145" s="26" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D1145" s="26" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E1145" s="27" t="s">
         <v>2188</v>
       </c>
-      <c r="D1145" s="26" t="s">
+      <c r="F1145" s="27" t="s">
         <v>2189</v>
       </c>
-      <c r="E1145" s="27" t="s">
+      <c r="G1145" s="27" t="s">
         <v>2190</v>
-      </c>
-      <c r="F1145" s="27" t="s">
-        <v>2191</v>
-      </c>
-      <c r="G1145" s="27" t="s">
-        <v>2192</v>
       </c>
       <c r="H1145" s="25" t="s">
         <v>2151</v>
       </c>
       <c r="I1145" s="25" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="J1145" s="28"/>
     </row>
@@ -25897,7 +25949,7 @@
     </row>
     <row r="1153" spans="1:10">
       <c r="A1153" s="32" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="B1153" s="30">
         <v>2028</v>
@@ -27199,23 +27251,25 @@
         <v>1222</v>
       </c>
       <c r="C1234" s="26" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D1234" s="26" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E1234" s="27" t="s">
         <v>2194</v>
       </c>
-      <c r="D1234" s="26" t="s">
+      <c r="F1234" s="27" t="s">
+        <v>2209</v>
+      </c>
+      <c r="G1234" s="27" t="s">
         <v>2195</v>
-      </c>
-      <c r="E1234" s="27" t="s">
-        <v>2196</v>
-      </c>
-      <c r="F1234" s="27"/>
-      <c r="G1234" s="27" t="s">
-        <v>2197</v>
       </c>
       <c r="H1234" s="25" t="s">
         <v>2151</v>
       </c>
       <c r="I1234" s="25" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="J1234" s="28"/>
     </row>
@@ -27445,7 +27499,7 @@
     </row>
     <row r="1249" spans="1:10">
       <c r="A1249" s="29" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="B1249" s="25">
         <v>2029</v>
@@ -32869,7 +32923,7 @@
     </row>
     <row r="1588" spans="1:10">
       <c r="A1588" s="32" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="B1588" s="25">
         <v>2030</v>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DCBE95-3640-4D8C-A929-90AC9DF20C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91374E96-2BFE-447C-BC05-CDA880382F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
@@ -7364,8 +7364,8 @@
   <sheetPr codeName="wshClients"/>
   <dimension ref="A1:M2032"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A785" workbookViewId="0">
+      <selection activeCell="B794" sqref="B794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="24" t="s">
-        <v>2205</v>
+        <v>1998</v>
       </c>
       <c r="B5" s="25">
         <v>4</v>
@@ -7481,7 +7481,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="24" t="s">
-        <v>1998</v>
+        <v>2205</v>
       </c>
       <c r="B6" s="25">
         <v>2019</v>
@@ -20088,7 +20088,7 @@
         <v>1997</v>
       </c>
       <c r="B793" s="25">
-        <v>4</v>
+        <v>2031</v>
       </c>
       <c r="C793" s="26" t="s">
         <v>2169</v>
@@ -40047,7 +40047,7 @@
       <sortCondition ref="A1:A2032"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2032">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M2032">
     <sortCondition ref="A2:A2032"/>
     <sortCondition ref="B2:B2032"/>
   </sortState>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E6AB46-0EB8-438B-A6D9-7080E203BFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B28E43D-5686-43C5-9421-67C56995FC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="2220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="2221">
   <si>
     <t>Exxon Mobil Corporation</t>
   </si>
@@ -6702,6 +6702,9 @@
   </si>
   <si>
     <t>robertv13@me.com</t>
+  </si>
+  <si>
+    <t>robertv13@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -6934,7 +6937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7040,6 +7043,14 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7384,21 +7395,23 @@
   <dimension ref="A1:N2012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <pane ySplit="600" activePane="bottomLeft"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection pane="bottomLeft" activeCell="C1219" sqref="C1219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="11.5703125" style="1"/>
   </cols>
@@ -7413,7 +7426,7 @@
       <c r="C1" s="39" t="s">
         <v>2217</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="42" t="s">
         <v>2218</v>
       </c>
       <c r="E1" s="39" t="s">
@@ -7499,7 +7512,7 @@
       <c r="C5" s="26" t="s">
         <v>2148</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="41" t="s">
         <v>2219</v>
       </c>
@@ -13036,8 +13049,10 @@
       <c r="C330" s="26" t="s">
         <v>2211</v>
       </c>
-      <c r="D330" s="26"/>
-      <c r="E330" s="26"/>
+      <c r="D330" s="43"/>
+      <c r="E330" s="41" t="s">
+        <v>2220</v>
+      </c>
       <c r="F330" s="27" t="s">
         <v>2212</v>
       </c>
@@ -20749,10 +20764,12 @@
       <c r="C783" s="26" t="s">
         <v>2167</v>
       </c>
-      <c r="D783" s="26" t="s">
+      <c r="D783" s="43" t="s">
         <v>2164</v>
       </c>
-      <c r="E783" s="26"/>
+      <c r="E783" s="41" t="s">
+        <v>2220</v>
+      </c>
       <c r="F783" s="27" t="s">
         <v>2160</v>
       </c>
@@ -20782,10 +20799,12 @@
       <c r="C784" s="26" t="s">
         <v>1982</v>
       </c>
-      <c r="D784" s="26" t="s">
+      <c r="D784" s="43" t="s">
         <v>2159</v>
       </c>
-      <c r="E784" s="26"/>
+      <c r="E784" s="41" t="s">
+        <v>2220</v>
+      </c>
       <c r="F784" s="27" t="s">
         <v>2160</v>
       </c>
@@ -21663,10 +21682,12 @@
       <c r="C835" s="26" t="s">
         <v>2195</v>
       </c>
-      <c r="D835" s="26" t="s">
+      <c r="D835" s="43" t="s">
         <v>2196</v>
       </c>
-      <c r="E835" s="26"/>
+      <c r="E835" s="41" t="s">
+        <v>2220</v>
+      </c>
       <c r="F835" s="27" t="s">
         <v>2197</v>
       </c>
@@ -22206,10 +22227,12 @@
       <c r="C866" s="26" t="s">
         <v>2178</v>
       </c>
-      <c r="D866" s="26" t="s">
+      <c r="D866" s="43" t="s">
         <v>2179</v>
       </c>
-      <c r="E866" s="26"/>
+      <c r="E866" s="41" t="s">
+        <v>2220</v>
+      </c>
       <c r="F866" s="27" t="s">
         <v>2180</v>
       </c>
@@ -22696,10 +22719,12 @@
       <c r="C894" s="26" t="s">
         <v>2163</v>
       </c>
-      <c r="D894" s="26" t="s">
+      <c r="D894" s="43" t="s">
         <v>2164</v>
       </c>
-      <c r="E894" s="26"/>
+      <c r="E894" s="41" t="s">
+        <v>2220</v>
+      </c>
       <c r="F894" s="33" t="s">
         <v>2206</v>
       </c>
@@ -22712,7 +22737,7 @@
       <c r="I894" s="25" t="s">
         <v>2151</v>
       </c>
-      <c r="J894" s="33" t="s">
+      <c r="J894" s="45" t="s">
         <v>2166</v>
       </c>
       <c r="K894" s="28"/>
@@ -25940,10 +25965,12 @@
       <c r="C1084" s="26" t="s">
         <v>2148</v>
       </c>
-      <c r="D1084" s="26" t="s">
+      <c r="D1084" s="43" t="s">
         <v>2149</v>
       </c>
-      <c r="E1084" s="26"/>
+      <c r="E1084" s="41" t="s">
+        <v>2220</v>
+      </c>
       <c r="F1084" s="27" t="s">
         <v>2147</v>
       </c>
@@ -26789,10 +26816,12 @@
       <c r="C1133" s="26" t="s">
         <v>2184</v>
       </c>
-      <c r="D1133" s="26" t="s">
+      <c r="D1133" s="43" t="s">
         <v>2185</v>
       </c>
-      <c r="E1133" s="26"/>
+      <c r="E1133" s="41" t="s">
+        <v>2220</v>
+      </c>
       <c r="F1133" s="27" t="s">
         <v>2186</v>
       </c>
@@ -28265,10 +28294,12 @@
       <c r="C1219" s="26" t="s">
         <v>2190</v>
       </c>
-      <c r="D1219" s="26" t="s">
+      <c r="D1219" s="43" t="s">
         <v>2191</v>
       </c>
-      <c r="E1219" s="26"/>
+      <c r="E1219" s="41" t="s">
+        <v>2220</v>
+      </c>
       <c r="F1219" s="27" t="s">
         <v>2192</v>
       </c>
@@ -41787,9 +41818,18 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{F0B56F3C-AF17-44B3-9B5D-8C723FAF7C66}"/>
+    <hyperlink ref="E894" r:id="rId2" xr:uid="{9DAE0125-DEF2-45DA-84F2-F891AC2E5B9C}"/>
+    <hyperlink ref="E1084" r:id="rId3" xr:uid="{C4FE9277-F0E0-4207-A297-C52D752DCC04}"/>
+    <hyperlink ref="E1133" r:id="rId4" xr:uid="{DCF6A4B9-A39D-48A6-BDCA-801A653D8DE4}"/>
+    <hyperlink ref="E1219" r:id="rId5" xr:uid="{D15FF6BC-FD8D-45E6-AB41-5C78DA1753A6}"/>
+    <hyperlink ref="E330" r:id="rId6" xr:uid="{9D415943-38D5-407B-8300-B325EDD4CAD3}"/>
+    <hyperlink ref="E783" r:id="rId7" xr:uid="{E22F22DD-EF69-4CF1-A1AF-F695ABE8A872}"/>
+    <hyperlink ref="E784" r:id="rId8" xr:uid="{3238C42E-4C84-467B-B65E-F0D938975050}"/>
+    <hyperlink ref="E835" r:id="rId9" xr:uid="{E188F8E3-BE16-4C48-BDA3-B042FCC94B57}"/>
+    <hyperlink ref="E866" r:id="rId10" xr:uid="{013A989E-D1DD-4FA2-B214-6B0FA3B1C02D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B28E43D-5686-43C5-9421-67C56995FC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3FCA80-D511-47CB-84F9-FE986FA469FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
     <sheet name="PlanComptable" sheetId="2" r:id="rId2"/>
+    <sheet name="Fournisseurs" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clients!$A$1:$K$2012</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Fournisseurs!$A$1:$K$20</definedName>
+    <definedName name="dnrClients" localSheetId="2">OFFSET(Fournisseurs!$A$1,1,0,COUNTA(Fournisseurs!$A:$A)-1,2)</definedName>
     <definedName name="dnrClients">OFFSET(Clients!$A$1,1,0,COUNTA(Clients!$A:$A)-1,2)</definedName>
     <definedName name="dnrPlanComptable">OFFSET(PlanComptable!$A$1,1,0,COUNTA(PlanComptable!$A:$A)-1,4)</definedName>
   </definedNames>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="2221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="2239">
   <si>
     <t>Exxon Mobil Corporation</t>
   </si>
@@ -6705,6 +6708,60 @@
   </si>
   <si>
     <t>robertv13@gmail.com</t>
+  </si>
+  <si>
+    <t>NomFournisseur</t>
+  </si>
+  <si>
+    <t>Fourn_ID</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>CourrielContact</t>
+  </si>
+  <si>
+    <t>Les solutions logicielles RMV inc.</t>
+  </si>
+  <si>
+    <t>Revenu Québec</t>
+  </si>
+  <si>
+    <t>Agence du Revenu du Canada</t>
+  </si>
+  <si>
+    <t>Ville de Repentigny</t>
+  </si>
+  <si>
+    <t>Scores Retaurant - Repentigny</t>
+  </si>
+  <si>
+    <t>Meilleur Restaurant en ville</t>
+  </si>
+  <si>
+    <t>Fournisseur de papier</t>
+  </si>
+  <si>
+    <t>Solutions IA inc.</t>
+  </si>
+  <si>
+    <t>Construction Laliberté</t>
+  </si>
+  <si>
+    <t>Drains des Laurentides</t>
+  </si>
+  <si>
+    <t>Plomberie Boucher inc.</t>
+  </si>
+  <si>
+    <t>Repentigny</t>
+  </si>
+  <si>
+    <t>No_TPS</t>
+  </si>
+  <si>
+    <t>No_TVQ</t>
   </si>
 </sst>
 </file>
@@ -6789,7 +6846,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -6932,12 +6989,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="6" tint="-0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="6" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7047,9 +7143,30 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7057,7 +7174,49 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7394,7 +7553,7 @@
   <sheetPr codeName="wshClients"/>
   <dimension ref="A1:N2012"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="600" activePane="bottomLeft"/>
       <selection activeCell="K1" sqref="K1:K1048576"/>
       <selection pane="bottomLeft" activeCell="C1219" sqref="C1219"/>
@@ -7405,7 +7564,7 @@
     <col min="1" max="1" width="51.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -7512,7 +7671,7 @@
       <c r="C5" s="26" t="s">
         <v>2148</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="41" t="s">
         <v>2219</v>
       </c>
@@ -13049,7 +13208,7 @@
       <c r="C330" s="26" t="s">
         <v>2211</v>
       </c>
-      <c r="D330" s="43"/>
+      <c r="D330" s="27"/>
       <c r="E330" s="41" t="s">
         <v>2220</v>
       </c>
@@ -20764,7 +20923,7 @@
       <c r="C783" s="26" t="s">
         <v>2167</v>
       </c>
-      <c r="D783" s="43" t="s">
+      <c r="D783" s="27" t="s">
         <v>2164</v>
       </c>
       <c r="E783" s="41" t="s">
@@ -20799,7 +20958,7 @@
       <c r="C784" s="26" t="s">
         <v>1982</v>
       </c>
-      <c r="D784" s="43" t="s">
+      <c r="D784" s="27" t="s">
         <v>2159</v>
       </c>
       <c r="E784" s="41" t="s">
@@ -21682,7 +21841,7 @@
       <c r="C835" s="26" t="s">
         <v>2195</v>
       </c>
-      <c r="D835" s="43" t="s">
+      <c r="D835" s="27" t="s">
         <v>2196</v>
       </c>
       <c r="E835" s="41" t="s">
@@ -22227,7 +22386,7 @@
       <c r="C866" s="26" t="s">
         <v>2178</v>
       </c>
-      <c r="D866" s="43" t="s">
+      <c r="D866" s="27" t="s">
         <v>2179</v>
       </c>
       <c r="E866" s="41" t="s">
@@ -22719,7 +22878,7 @@
       <c r="C894" s="26" t="s">
         <v>2163</v>
       </c>
-      <c r="D894" s="43" t="s">
+      <c r="D894" s="27" t="s">
         <v>2164</v>
       </c>
       <c r="E894" s="41" t="s">
@@ -22737,7 +22896,7 @@
       <c r="I894" s="25" t="s">
         <v>2151</v>
       </c>
-      <c r="J894" s="45" t="s">
+      <c r="J894" s="44" t="s">
         <v>2166</v>
       </c>
       <c r="K894" s="28"/>
@@ -25965,7 +26124,7 @@
       <c r="C1084" s="26" t="s">
         <v>2148</v>
       </c>
-      <c r="D1084" s="43" t="s">
+      <c r="D1084" s="27" t="s">
         <v>2149</v>
       </c>
       <c r="E1084" s="41" t="s">
@@ -26816,7 +26975,7 @@
       <c r="C1133" s="26" t="s">
         <v>2184</v>
       </c>
-      <c r="D1133" s="43" t="s">
+      <c r="D1133" s="27" t="s">
         <v>2185</v>
       </c>
       <c r="E1133" s="41" t="s">
@@ -28294,7 +28453,7 @@
       <c r="C1219" s="26" t="s">
         <v>2190</v>
       </c>
-      <c r="D1219" s="43" t="s">
+      <c r="D1219" s="27" t="s">
         <v>2191</v>
       </c>
       <c r="E1219" s="41" t="s">
@@ -41809,10 +41968,10 @@
     <sortCondition ref="B2:B2012"/>
   </sortState>
   <conditionalFormatting sqref="A2:K999980">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41835,7 +41994,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07C88F7-C961-4594-AD1B-F2D5F8D5E029}">
-  <sheetPr codeName="Feuil3"/>
+  <sheetPr codeName="wshPlanComptable"/>
   <dimension ref="A1:M2023"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -48673,7 +48832,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D67">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
     <cfRule type="expression" priority="2">
@@ -48691,4 +48850,622 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC64D8B-92BC-4111-A0E3-61E8F9D757D1}">
+  <sheetPr codeName="wshFournisseurs"/>
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="600" topLeftCell="A2" activePane="bottomLeft"/>
+      <selection activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="41.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1" s="45" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>2224</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>2153</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>2154</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>2155</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>2156</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>2157</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>2158</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>2237</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1">
+      <c r="A2" s="48" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B2" s="49">
+        <v>1</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="49" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="52"/>
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1">
+      <c r="A3" s="24" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B3" s="25">
+        <v>2</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27" t="s">
+        <v>2213</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>2214</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>2215</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>2202</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>2202</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>2202</v>
+      </c>
+      <c r="O3"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1">
+      <c r="A4" s="24" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B4" s="25">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="25" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="28"/>
+      <c r="O4"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1">
+      <c r="A5" s="24" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B5" s="25">
+        <v>4</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="25" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="28"/>
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1">
+      <c r="A6" s="24" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B6" s="25">
+        <v>5</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="25" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="28"/>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1">
+      <c r="A7" s="24" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B7" s="25">
+        <v>6</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>2209</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>2161</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>2162</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>2168</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>2168</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>2168</v>
+      </c>
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1">
+      <c r="A8" s="24" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B8" s="25">
+        <v>7</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>2204</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>2161</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>2162</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="28"/>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1">
+      <c r="A9" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="25">
+        <v>8</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>2198</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>2199</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>2200</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>2201</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>2202</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>2202</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>2202</v>
+      </c>
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1">
+      <c r="A10" s="24" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B10" s="25">
+        <v>9</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>2205</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>2165</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>2166</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="28"/>
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1">
+      <c r="A11" s="24" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B11" s="25">
+        <v>10</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>2147</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>2208</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>2150</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>2152</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>2168</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>2168</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>2168</v>
+      </c>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1">
+      <c r="A12" s="24" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B12" s="25">
+        <v>11</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>2219</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>2147</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27" t="s">
+        <v>2150</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>2152</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="28"/>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1">
+      <c r="A13" s="24" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B13" s="25">
+        <v>12</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>2187</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>2188</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>2189</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="28"/>
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1">
+      <c r="A14" s="24" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B14" s="25">
+        <v>13</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="25" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="28"/>
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1">
+      <c r="A15" s="24" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B15" s="25">
+        <v>14</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>2192</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>2207</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>2193</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>2194</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="28"/>
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1">
+      <c r="A16" s="24" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B16" s="25">
+        <v>15</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="25" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="28"/>
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="1:15" s="1" customFormat="1">
+      <c r="A17" s="24" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B17" s="25">
+        <v>16</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="25" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="28"/>
+      <c r="O17"/>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1">
+      <c r="A18" s="24" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B18" s="25">
+        <v>17</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="25" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="28"/>
+      <c r="O18"/>
+    </row>
+    <row r="19" spans="1:15" s="1" customFormat="1">
+      <c r="A19" s="24" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B19" s="25">
+        <v>18</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="25" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="28"/>
+      <c r="O19"/>
+    </row>
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A20" s="34" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B20" s="35">
+        <v>19</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37" t="s">
+        <v>2236</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="38"/>
+      <c r="O20"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K20">
+    <sortCondition ref="A1:A20"/>
+  </sortState>
+  <conditionalFormatting sqref="A2:L9999">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{17B0C363-39F7-4917-B5A2-90E899D1A19F}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{7FFCA7D0-FC72-477B-8F60-A5022681B368}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{89858FCC-A7E5-4001-9040-9311534B54E7}"/>
+    <hyperlink ref="D13" r:id="rId4" xr:uid="{6C4BC88D-22C7-4250-A889-B78A65C4B7A5}"/>
+    <hyperlink ref="D15" r:id="rId5" xr:uid="{A2DC2EBC-D66A-4B03-BA57-62DAC13506A4}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{F837AE00-51FA-4918-9ECC-FA4495FAE05A}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{ABD20745-322E-4F69-9C06-4201F1201344}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{91EB70E5-1BE0-46CB-8D89-2DA19074BC4B}"/>
+    <hyperlink ref="D9" r:id="rId9" xr:uid="{11FA185D-FD50-41C6-8F03-B0B6D69DE893}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>
+</worksheet>
 </file>
--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3FCA80-D511-47CB-84F9-FE986FA469FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2637D2D3-72C7-4111-ABAA-642DE24E6EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
@@ -6734,9 +6734,6 @@
     <t>Ville de Repentigny</t>
   </si>
   <si>
-    <t>Scores Retaurant - Repentigny</t>
-  </si>
-  <si>
     <t>Meilleur Restaurant en ville</t>
   </si>
   <si>
@@ -6762,6 +6759,9 @@
   </si>
   <si>
     <t>No_TVQ</t>
+  </si>
+  <si>
+    <t>Scores Restaurant - Repentigny</t>
   </si>
 </sst>
 </file>
@@ -7174,46 +7174,11 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -41968,10 +41933,10 @@
     <sortCondition ref="B2:B2012"/>
   </sortState>
   <conditionalFormatting sqref="A2:K999980">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48832,7 +48797,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D67">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
     <cfRule type="expression" priority="2">
@@ -48860,7 +48825,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="600" topLeftCell="A2" activePane="bottomLeft"/>
       <selection activeCell="L2" sqref="L2"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -48910,10 +48875,10 @@
         <v>2158</v>
       </c>
       <c r="K1" s="47" t="s">
+        <v>2236</v>
+      </c>
+      <c r="L1" s="47" t="s">
         <v>2237</v>
-      </c>
-      <c r="L1" s="47" t="s">
-        <v>2238</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1">
@@ -48976,7 +48941,7 @@
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1">
       <c r="A4" s="24" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B4" s="25">
         <v>3</v>
@@ -48997,7 +48962,7 @@
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1">
       <c r="A5" s="24" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B5" s="25">
         <v>4</v>
@@ -49018,7 +48983,7 @@
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1">
       <c r="A6" s="24" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="B6" s="25">
         <v>5</v>
@@ -49286,7 +49251,7 @@
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1">
       <c r="A14" s="24" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B14" s="25">
         <v>13</v>
@@ -49340,7 +49305,7 @@
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1">
       <c r="A16" s="24" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B16" s="25">
         <v>15</v>
@@ -49382,7 +49347,7 @@
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1">
       <c r="A18" s="24" t="s">
-        <v>2229</v>
+        <v>2238</v>
       </c>
       <c r="B18" s="25">
         <v>17</v>
@@ -49403,7 +49368,7 @@
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1">
       <c r="A19" s="24" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B19" s="25">
         <v>18</v>
@@ -49434,7 +49399,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
       <c r="G20" s="37" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="H20" s="35" t="s">
         <v>2151</v>
@@ -49450,7 +49415,7 @@
     <sortCondition ref="A1:A20"/>
   </sortState>
   <conditionalFormatting sqref="A2:L9999">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF7DB74-EA0B-4E5A-8F05-2122AEE1C765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E4D564-127B-4171-AD01-142E57FD239F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -13418,25 +13418,29 @@
   <sheetPr codeName="wshClients"/>
   <dimension ref="A1:O1271"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="600" activePane="bottomLeft"/>
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="32" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -43704,7 +43708,7 @@
   <sheetPr codeName="wshFournisseurs"/>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="600"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -13954,7 +13954,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:O1274"/>
+  <dimension ref="A1:O1276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <pane ySplit="615" topLeftCell="A1249" activePane="bottomLeft"/>
@@ -14029,157 +14029,251 @@
       </c>
     </row>
     <row spans="1:15" outlineLevel="0" r="2">
-      <c r="A2" s="24" t="s">
-        <v>3862</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>4230</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>156</v>
+      <c r="A2" s="24" t="inlineStr">
+        <is>
+          <t>AL Carrière Extincteurs Ltée [Benoit Carrière]</t>
+        </is>
+      </c>
+      <c r="B2" s="20" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" s="22" t="inlineStr">
+        <is>
+          <t>Monsieur Benoit Carrière</t>
+        </is>
+      </c>
+      <c r="E2" s="22" t="inlineStr">
+        <is>
+          <t>benoit@alcarriere.qc.ca</t>
+        </is>
+      </c>
+      <c r="F2" s="24" t="inlineStr">
+        <is>
+          <t>4637 Louis-B. Mayer</t>
+        </is>
+      </c>
+      <c r="H2" s="24" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I2" s="20" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J2" s="24" t="inlineStr">
+        <is>
+          <t>H7P 6G5</t>
+        </is>
+      </c>
+      <c r="K2" s="20" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L2" s="22"/>
-      <c r="M2" s="20" t="s">
-        <v>4236</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>183</v>
+      <c r="M2" s="20" t="inlineStr">
+        <is>
+          <t>31/07</t>
+        </is>
+      </c>
+      <c r="N2" s="22" t="inlineStr">
+        <is>
+          <t>Yves Desjardins</t>
+        </is>
+      </c>
+      <c r="O2" s="22" t="inlineStr">
+        <is>
+          <t>Michael D'SOUZA</t>
+        </is>
       </c>
     </row>
     <row spans="1:15" outlineLevel="0" r="3">
-      <c r="A3" s="24" t="s">
-        <v>3863</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>4231</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>4232</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>156</v>
+      <c r="A3" s="24" t="inlineStr">
+        <is>
+          <t>Atelier d'automobile Tony inc. [Tony Brasiola]</t>
+        </is>
+      </c>
+      <c r="B3" s="20" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="C3" s="22" t="inlineStr">
+        <is>
+          <t>Monsieur Tony Brasiola</t>
+        </is>
+      </c>
+      <c r="E3" s="22" t="inlineStr">
+        <is>
+          <t>ateliertony@videotron.ca</t>
+        </is>
+      </c>
+      <c r="F3" s="24" t="inlineStr">
+        <is>
+          <t>2184 rue Henri-Cyr</t>
+        </is>
+      </c>
+      <c r="H3" s="24" t="inlineStr">
+        <is>
+          <t>Saint-Hubert</t>
+        </is>
+      </c>
+      <c r="I3" s="20" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J3" s="24" t="inlineStr">
+        <is>
+          <t>J3Y 8N8</t>
+        </is>
+      </c>
+      <c r="K3" s="20" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L3" s="22"/>
-      <c r="M3" s="20" t="s">
-        <v>4237</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>187</v>
+      <c r="M3" s="20" t="inlineStr">
+        <is>
+          <t>31/03</t>
+        </is>
+      </c>
+      <c r="N3" s="22" t="inlineStr">
+        <is>
+          <t>Ghislain Falardeau</t>
+        </is>
       </c>
       <c r="O3" s="22"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="4">
-      <c r="A4" s="24" t="s">
-        <v>3864</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>4268</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>156</v>
+      <c r="A4" s="24" t="inlineStr">
+        <is>
+          <t>DeChamplain Services Financiers inc. [Sylvain De Champlain]</t>
+        </is>
+      </c>
+      <c r="B4" s="20" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C4" s="22" t="inlineStr">
+        <is>
+          <t>Monsieur Sylvain De Champlain</t>
+        </is>
+      </c>
+      <c r="D4" s="24" t="inlineStr">
+        <is>
+          <t>Président</t>
+        </is>
+      </c>
+      <c r="E4" s="22" t="inlineStr">
+        <is>
+          <t>sylvain@dechamplain.ca</t>
+        </is>
+      </c>
+      <c r="F4" s="24" t="inlineStr">
+        <is>
+          <t>6455 rue Jean-Talon Est</t>
+        </is>
+      </c>
+      <c r="G4" s="24" t="inlineStr">
+        <is>
+          <t>bureau 1002</t>
+        </is>
+      </c>
+      <c r="H4" s="24" t="inlineStr">
+        <is>
+          <t>Saint-Léonard</t>
+        </is>
+      </c>
+      <c r="I4" s="20" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J4" s="24" t="inlineStr">
+        <is>
+          <t>H1S 3E8</t>
+        </is>
+      </c>
+      <c r="K4" s="20" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L4" s="22"/>
-      <c r="M4" s="20" t="s">
-        <v>4236</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>195</v>
+      <c r="M4" s="20" t="inlineStr">
+        <is>
+          <t>31/07</t>
+        </is>
+      </c>
+      <c r="N4" s="22" t="inlineStr">
+        <is>
+          <t>Joyce Ripka</t>
+        </is>
+      </c>
+      <c r="O4" s="22" t="inlineStr">
+        <is>
+          <t>Robert WILLIAMSON</t>
+        </is>
       </c>
     </row>
     <row spans="1:15" outlineLevel="0" r="5">
-      <c r="A5" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>4233</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>156</v>
+      <c r="A5" s="25" t="inlineStr">
+        <is>
+          <t>François Poulin / Synaptech [Monsieur François Poulin]</t>
+        </is>
+      </c>
+      <c r="B5" s="20" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="C5" s="22" t="inlineStr">
+        <is>
+          <t>Monsieur François Poulin</t>
+        </is>
+      </c>
+      <c r="E5" s="22" t="inlineStr">
+        <is>
+          <t>drfpoulin@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" s="24" t="inlineStr">
+        <is>
+          <t>260 Élisée Choquette</t>
+        </is>
+      </c>
+      <c r="H5" s="24" t="inlineStr">
+        <is>
+          <t>La Prairie</t>
+        </is>
+      </c>
+      <c r="I5" s="20" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J5" s="24" t="inlineStr">
+        <is>
+          <t>J5R 5L4</t>
+        </is>
+      </c>
+      <c r="K5" s="20" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L5" s="22"/>
-      <c r="M5" s="20" t="s">
-        <v>4238</v>
+      <c r="M5" s="20" t="inlineStr">
+        <is>
+          <t>31/12</t>
+        </is>
       </c>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
@@ -14230,38 +14324,62 @@
       </c>
     </row>
     <row spans="1:15" outlineLevel="0" r="7">
-      <c r="A7" s="24" t="s">
-        <v>3866</v>
-      </c>
-      <c r="B7" s="20">
-        <v>105</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>156</v>
+      <c r="A7" s="24" t="inlineStr">
+        <is>
+          <t>BJC Consultants inc. [Chantal Laberge]</t>
+        </is>
+      </c>
+      <c r="B7" s="20" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="C7" s="22" t="inlineStr">
+        <is>
+          <t>Madame Chantal Laberge</t>
+        </is>
+      </c>
+      <c r="E7" s="22" t="inlineStr">
+        <is>
+          <t>claberge@bjc.qc.ca</t>
+        </is>
+      </c>
+      <c r="F7" s="24" t="inlineStr">
+        <is>
+          <t>1410 rue Principale</t>
+        </is>
+      </c>
+      <c r="G7" s="24" t="inlineStr">
+        <is>
+          <t>bureau 104</t>
+        </is>
+      </c>
+      <c r="H7" s="24" t="inlineStr">
+        <is>
+          <t>Sainte-Julie</t>
+        </is>
+      </c>
+      <c r="I7" s="20" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J7" s="24" t="inlineStr">
+        <is>
+          <t> J3E 1R6</t>
+        </is>
+      </c>
+      <c r="K7" s="20" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L7" s="22"/>
-      <c r="M7" s="20"/>
+      <c r="M7" s="20" t="inlineStr">
+        <is>
+          <t>31/03</t>
+        </is>
+      </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
     </row>
@@ -14299,32 +14417,50 @@
       <c r="O8" s="22"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="9">
-      <c r="A9" s="24" t="s">
-        <v>3867</v>
-      </c>
-      <c r="B9" s="20">
-        <v>107</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>156</v>
+      <c r="A9" s="24" t="inlineStr">
+        <is>
+          <t>Université de Sherbrooke [Faculté d'administration, Secrétariat des maitrises]</t>
+        </is>
+      </c>
+      <c r="B9" s="20" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="C9" s="22" t="inlineStr">
+        <is>
+          <t>Faculté d'administration, Secrétariat des maitrises</t>
+        </is>
+      </c>
+      <c r="E9" s="22" t="inlineStr">
+        <is>
+          <t>linda.pepin@usherbrooke.ca</t>
+        </is>
+      </c>
+      <c r="F9" s="24" t="inlineStr">
+        <is>
+          <t>2500, boul. de l'Université</t>
+        </is>
+      </c>
+      <c r="H9" s="24" t="inlineStr">
+        <is>
+          <t>Sherbrooke</t>
+        </is>
+      </c>
+      <c r="I9" s="20" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J9" s="24" t="inlineStr">
+        <is>
+          <t>J1K 2R1</t>
+        </is>
+      </c>
+      <c r="K9" s="20" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L9" s="22"/>
       <c r="M9" s="20"/>
@@ -44025,6 +44161,45 @@
       <c r="M1274" s="20"/>
       <c r="N1274" s="22"/>
       <c r="O1274" s="22"/>
+    </row>
+    <row outlineLevel="0" r="1275">
+      <c r="A1275" s="0" t="inlineStr">
+        <is>
+          <t>Test de nouveau client</t>
+        </is>
+      </c>
+      <c r="B1275" s="0" t="inlineStr">
+        <is>
+          <t>88888</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1276">
+      <c r="A1276" s="0" t="inlineStr">
+        <is>
+          <t>Un autre test de nouveau client avec contact [Monsieur Paul Contact]</t>
+        </is>
+      </c>
+      <c r="B1276" s="0" t="inlineStr">
+        <is>
+          <t>77777</t>
+        </is>
+      </c>
+      <c r="C1276" s="0" t="inlineStr">
+        <is>
+          <t>Monsieur Paul Contact</t>
+        </is>
+      </c>
+      <c r="D1276" s="0" t="inlineStr">
+        <is>
+          <t>Président</t>
+        </is>
+      </c>
+      <c r="M1276" s="0" t="inlineStr">
+        <is>
+          <t>31/12</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:O1271" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}"/>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -14061,48 +14061,78 @@
       <c r="O5" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="6">
-      <c r="A6" s="3" t="s">
-        <v>3863</v>
-      </c>
-      <c r="B6" s="25">
-        <v>104</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="L6" s="26"/>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Groupe Millénium Micro inc. [Carl Paquin]</t>
+        </is>
+      </c>
+      <c r="B6" s="25" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="C6" s="21" t="inlineStr">
+        <is>
+          <t>Carl Paquin</t>
+        </is>
+      </c>
+      <c r="D6" s="24" t="inlineStr">
+        <is>
+          <t>Président</t>
+        </is>
+      </c>
+      <c r="E6" s="21" t="inlineStr">
+        <is>
+          <t>cpaquin@milleniummicro.ca</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>3135 boul. Moïse-Vincent</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>bureau 104</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>Saint-Hubert</t>
+        </is>
+      </c>
+      <c r="I6" s="22" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>J3Z 0G7</t>
+        </is>
+      </c>
+      <c r="K6" s="22" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="L6" s="26" t="inlineStr">
+        <is>
+          <t>Lui-même</t>
+        </is>
+      </c>
       <c r="M6" s="25" t="s">
-        <v>4214</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="O6" s="26" t="s">
-        <v>209</v>
+        <v/>
+      </c>
+      <c r="N6" s="26" t="inlineStr">
+        <is>
+          <t>Alain Girard</t>
+        </is>
+      </c>
+      <c r="O6" s="26" t="inlineStr">
+        <is>
+          <t>Marie-Ève PORLIER</t>
+        </is>
       </c>
     </row>
     <row spans="1:15" outlineLevel="0" r="7">
@@ -14356,42 +14386,68 @@
       <c r="O13" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="14">
-      <c r="A14" s="3" t="s">
-        <v>3870</v>
-      </c>
-      <c r="B14" s="25">
-        <v>112</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="26"/>
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Courtage Plus 3R inc. [Jean-René Beaulac]</t>
+        </is>
+      </c>
+      <c r="B14" s="25" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="C14" s="21" t="inlineStr">
+        <is>
+          <t>Jean-René Beaulac</t>
+        </is>
+      </c>
+      <c r="E14" s="21" t="inlineStr">
+        <is>
+          <t>excel.repentigny@videotron.ca</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>1338 A Notre-Dame</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>bureau 101</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>Repentigny</t>
+        </is>
+      </c>
+      <c r="I14" s="22" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>J5Y 3X1</t>
+        </is>
+      </c>
+      <c r="K14" s="22" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="L14" s="26" t="inlineStr">
+        <is>
+          <t>Lui-même</t>
+        </is>
+      </c>
       <c r="M14" s="25" t="s">
-        <v>4215</v>
-      </c>
-      <c r="N14" s="26" t="s">
-        <v>246</v>
+        <v/>
+      </c>
+      <c r="N14" s="26" t="inlineStr">
+        <is>
+          <t>Gestion Tourangeau</t>
+        </is>
       </c>
       <c r="O14" s="26"/>
     </row>
@@ -23721,11 +23777,20 @@
       <c r="O341" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="342">
-      <c r="A342" s="3" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B342" s="25">
-        <v>1230</v>
+      <c r="A342" s="3" t="inlineStr">
+        <is>
+          <t>Climatisation Repentigny [Joe Nobody]</t>
+        </is>
+      </c>
+      <c r="B342" s="25" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="C342" s="39" t="inlineStr">
+        <is>
+          <t>Joe Nobody</t>
+        </is>
       </c>
       <c r="L342" s="26"/>
       <c r="M342" s="25"/>
@@ -23841,11 +23906,20 @@
       <c r="O351" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="352">
-      <c r="A352" s="3" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B352" s="25">
-        <v>1240</v>
+      <c r="A352" s="3" t="inlineStr">
+        <is>
+          <t>Fleury Formes inc [Test]</t>
+        </is>
+      </c>
+      <c r="B352" s="25" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="C352" s="39" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
       </c>
       <c r="L352" s="26"/>
       <c r="M352" s="25"/>
@@ -23853,11 +23927,25 @@
       <c r="O352" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="353">
-      <c r="A353" s="3" t="s">
-        <v>3740</v>
-      </c>
-      <c r="B353" s="25">
-        <v>1241</v>
+      <c r="A353" s="3" t="inlineStr">
+        <is>
+          <t>9165-6538 Québec inc [Phon Chau Tan]</t>
+        </is>
+      </c>
+      <c r="B353" s="25" t="inlineStr">
+        <is>
+          <t>1241</t>
+        </is>
+      </c>
+      <c r="C353" s="39" t="inlineStr">
+        <is>
+          <t>Mr. Wong</t>
+        </is>
+      </c>
+      <c r="D353" s="39" t="inlineStr">
+        <is>
+          <t>President</t>
+        </is>
       </c>
       <c r="L353" s="26"/>
       <c r="M353" s="25"/>
@@ -26829,13 +26917,21 @@
       <c r="O600" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="601">
-      <c r="A601" s="3" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B601" s="25">
-        <v>1500</v>
-      </c>
-      <c r="L601" s="26"/>
+      <c r="A601" s="3" t="inlineStr">
+        <is>
+          <t>Salon de Quilles Rawdon Inc.</t>
+        </is>
+      </c>
+      <c r="B601" s="25" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="L601" s="26" t="inlineStr">
+        <is>
+          <t>Lui-même</t>
+        </is>
+      </c>
       <c r="M601" s="25"/>
       <c r="N601" s="26"/>
       <c r="O601" s="26"/>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -13832,7 +13832,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:O1271"/>
+  <dimension ref="A1:O1273"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0" rightToLeft="false">
       <pane ySplit="615" topLeftCell="A70" activePane="bottomLeft"/>
@@ -14061,78 +14061,48 @@
       <c r="O5" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Groupe Millénium Micro inc. [Carl Paquin]</t>
-        </is>
-      </c>
-      <c r="B6" s="25" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="C6" s="21" t="inlineStr">
-        <is>
-          <t>Carl Paquin</t>
-        </is>
-      </c>
-      <c r="D6" s="24" t="inlineStr">
-        <is>
-          <t>Président</t>
-        </is>
-      </c>
-      <c r="E6" s="21" t="inlineStr">
-        <is>
-          <t>cpaquin@milleniummicro.ca</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>3135 boul. Moïse-Vincent</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>bureau 104</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>Saint-Hubert</t>
-        </is>
-      </c>
-      <c r="I6" s="22" t="inlineStr">
-        <is>
-          <t>QC</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>J3Z 0G7</t>
-        </is>
-      </c>
-      <c r="K6" s="22" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="L6" s="26" t="inlineStr">
-        <is>
-          <t>Lui-même</t>
-        </is>
-      </c>
+      <c r="A6" s="3" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B6" s="25">
+        <v>104</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L6" s="26"/>
       <c r="M6" s="25" t="s">
-        <v/>
-      </c>
-      <c r="N6" s="26" t="inlineStr">
-        <is>
-          <t>Alain Girard</t>
-        </is>
-      </c>
-      <c r="O6" s="26" t="inlineStr">
-        <is>
-          <t>Marie-Ève PORLIER</t>
-        </is>
+        <v>4214</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>209</v>
       </c>
     </row>
     <row spans="1:15" outlineLevel="0" r="7">
@@ -14238,42 +14208,66 @@
       <c r="O9" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="10">
-      <c r="A10" s="3" t="s">
-        <v>3866</v>
-      </c>
-      <c r="B10" s="25">
-        <v>108</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" t="s">
-        <v>223</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>156</v>
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Montacier inc. [Raymond Fortin]</t>
+        </is>
+      </c>
+      <c r="B10" s="25" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="C10" s="21" t="inlineStr">
+        <is>
+          <t>Raymond Fortin</t>
+        </is>
+      </c>
+      <c r="D10" s="24" t="inlineStr">
+        <is>
+          <t>Président</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>info@montacier.com</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>535 Curé-Boivin</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>Boisbriand</t>
+        </is>
+      </c>
+      <c r="I10" s="22" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>J7G 2A8</t>
+        </is>
+      </c>
+      <c r="K10" s="22" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L10" s="26"/>
-      <c r="M10" s="25" t="s">
-        <v>4216</v>
-      </c>
-      <c r="N10" s="26" t="s">
-        <v>227</v>
+      <c r="M10" s="25" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="N10" s="26" t="inlineStr">
+        <is>
+          <t>Patricia Laurent</t>
+        </is>
       </c>
       <c r="O10" s="26"/>
     </row>
@@ -14386,68 +14380,42 @@
       <c r="O13" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>Courtage Plus 3R inc. [Jean-René Beaulac]</t>
-        </is>
-      </c>
-      <c r="B14" s="25" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="C14" s="21" t="inlineStr">
-        <is>
-          <t>Jean-René Beaulac</t>
-        </is>
-      </c>
-      <c r="E14" s="21" t="inlineStr">
-        <is>
-          <t>excel.repentigny@videotron.ca</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>1338 A Notre-Dame</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>bureau 101</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>Repentigny</t>
-        </is>
-      </c>
-      <c r="I14" s="22" t="inlineStr">
-        <is>
-          <t>QC</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>J5Y 3X1</t>
-        </is>
-      </c>
-      <c r="K14" s="22" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="L14" s="26" t="inlineStr">
-        <is>
-          <t>Lui-même</t>
-        </is>
-      </c>
+      <c r="A14" s="3" t="s">
+        <v>3870</v>
+      </c>
+      <c r="B14" s="25">
+        <v>112</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" s="26"/>
       <c r="M14" s="25" t="s">
-        <v/>
-      </c>
-      <c r="N14" s="26" t="inlineStr">
-        <is>
-          <t>Gestion Tourangeau</t>
-        </is>
+        <v>4215</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>246</v>
       </c>
       <c r="O14" s="26"/>
     </row>
@@ -22708,11 +22676,50 @@
       <c r="O252" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="253">
-      <c r="A253" s="3" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B253" s="25">
-        <v>1137</v>
+      <c r="A253" s="3" t="inlineStr">
+        <is>
+          <t>Brodeur Beauchamps SENC [Martine Brodeur]</t>
+        </is>
+      </c>
+      <c r="B253" s="25" t="inlineStr">
+        <is>
+          <t>1137</t>
+        </is>
+      </c>
+      <c r="C253" s="39" t="inlineStr">
+        <is>
+          <t>Martine Brodeur</t>
+        </is>
+      </c>
+      <c r="F253" s="39" t="inlineStr">
+        <is>
+          <t>1600 boul. St-Martin est</t>
+        </is>
+      </c>
+      <c r="G253" s="39" t="inlineStr">
+        <is>
+          <t>Tour A</t>
+        </is>
+      </c>
+      <c r="H253" s="39" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I253" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J253" s="39" t="inlineStr">
+        <is>
+          <t>H7G 4R8</t>
+        </is>
+      </c>
+      <c r="K253" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L253" s="26"/>
       <c r="M253" s="25"/>
@@ -22720,11 +22727,45 @@
       <c r="O253" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="254">
-      <c r="A254" s="3" t="s">
-        <v>3729</v>
-      </c>
-      <c r="B254" s="25">
-        <v>1138</v>
+      <c r="A254" s="3" t="inlineStr">
+        <is>
+          <t>9241-7344 Québec inc [Carl Paquin]</t>
+        </is>
+      </c>
+      <c r="B254" s="25" t="inlineStr">
+        <is>
+          <t>1138</t>
+        </is>
+      </c>
+      <c r="C254" s="39" t="inlineStr">
+        <is>
+          <t>Carl Paquin</t>
+        </is>
+      </c>
+      <c r="F254" s="39" t="inlineStr">
+        <is>
+          <t>174 Chenevert</t>
+        </is>
+      </c>
+      <c r="H254" s="39" t="inlineStr">
+        <is>
+          <t>St-Jean-Sur-Richelieu</t>
+        </is>
+      </c>
+      <c r="I254" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J254" s="39" t="inlineStr">
+        <is>
+          <t>J2W 2Y6</t>
+        </is>
+      </c>
+      <c r="K254" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L254" s="26"/>
       <c r="M254" s="25"/>
@@ -22732,11 +22773,40 @@
       <c r="O254" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="255">
-      <c r="A255" s="3" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B255" s="25">
-        <v>1139</v>
+      <c r="A255" s="3" t="inlineStr">
+        <is>
+          <t>Alain Villeneuve</t>
+        </is>
+      </c>
+      <c r="B255" s="25" t="inlineStr">
+        <is>
+          <t>1139</t>
+        </is>
+      </c>
+      <c r="F255" s="39" t="inlineStr">
+        <is>
+          <t>6900 boul. Gouin Est</t>
+        </is>
+      </c>
+      <c r="H255" s="39" t="inlineStr">
+        <is>
+          <t>Montréal-Nord</t>
+        </is>
+      </c>
+      <c r="I255" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J255" s="39" t="inlineStr">
+        <is>
+          <t>H1G 6L9</t>
+        </is>
+      </c>
+      <c r="K255" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L255" s="26"/>
       <c r="M255" s="25"/>
@@ -22744,11 +22814,50 @@
       <c r="O255" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="256">
-      <c r="A256" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B256" s="25">
-        <v>1140</v>
+      <c r="A256" s="3" t="inlineStr">
+        <is>
+          <t>Informatique Amérix inc [Gilles Fournier]</t>
+        </is>
+      </c>
+      <c r="B256" s="25" t="inlineStr">
+        <is>
+          <t>1140</t>
+        </is>
+      </c>
+      <c r="C256" s="39" t="inlineStr">
+        <is>
+          <t>Gilles Fournier</t>
+        </is>
+      </c>
+      <c r="F256" s="39" t="inlineStr">
+        <is>
+          <t>818 rue Notre-Dame</t>
+        </is>
+      </c>
+      <c r="G256" s="39" t="inlineStr">
+        <is>
+          <t>Bureau 120</t>
+        </is>
+      </c>
+      <c r="H256" s="39" t="inlineStr">
+        <is>
+          <t>Repentigny</t>
+        </is>
+      </c>
+      <c r="I256" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J256" s="39" t="inlineStr">
+        <is>
+          <t>J5Y 1B7</t>
+        </is>
+      </c>
+      <c r="K256" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L256" s="26"/>
       <c r="M256" s="25"/>
@@ -22756,11 +22865,50 @@
       <c r="O256" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="257">
-      <c r="A257" s="3" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B257" s="25">
-        <v>1141</v>
+      <c r="A257" s="3" t="inlineStr">
+        <is>
+          <t>Gestion Psy-com inc. [Gilles Vachon]</t>
+        </is>
+      </c>
+      <c r="B257" s="25" t="inlineStr">
+        <is>
+          <t>1141</t>
+        </is>
+      </c>
+      <c r="C257" s="39" t="inlineStr">
+        <is>
+          <t>Gilles Vachon</t>
+        </is>
+      </c>
+      <c r="F257" s="39" t="inlineStr">
+        <is>
+          <t>195 Chemin Chambly</t>
+        </is>
+      </c>
+      <c r="G257" s="39" t="inlineStr">
+        <is>
+          <t>Suite 200</t>
+        </is>
+      </c>
+      <c r="H257" s="39" t="inlineStr">
+        <is>
+          <t>Longueuil</t>
+        </is>
+      </c>
+      <c r="I257" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J257" s="39" t="inlineStr">
+        <is>
+          <t>J4H 3L3</t>
+        </is>
+      </c>
+      <c r="K257" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L257" s="26"/>
       <c r="M257" s="25"/>
@@ -22768,11 +22916,45 @@
       <c r="O257" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="258">
-      <c r="A258" s="3" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B258" s="25">
-        <v>1142</v>
+      <c r="A258" s="3" t="inlineStr">
+        <is>
+          <t>Les entreprises Brient &amp; Lalonde [Nathalie Brient]</t>
+        </is>
+      </c>
+      <c r="B258" s="25" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="C258" s="39" t="inlineStr">
+        <is>
+          <t>Nathalie Brient</t>
+        </is>
+      </c>
+      <c r="F258" s="39" t="inlineStr">
+        <is>
+          <t>190 Saint-François-Xavier</t>
+        </is>
+      </c>
+      <c r="H258" s="39" t="inlineStr">
+        <is>
+          <t>Delson</t>
+        </is>
+      </c>
+      <c r="I258" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J258" s="39" t="inlineStr">
+        <is>
+          <t>J5B 1X9</t>
+        </is>
+      </c>
+      <c r="K258" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L258" s="26"/>
       <c r="M258" s="25"/>
@@ -22780,11 +22962,45 @@
       <c r="O258" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="259">
-      <c r="A259" s="3" t="s">
-        <v>3730</v>
-      </c>
-      <c r="B259" s="25">
-        <v>1143</v>
+      <c r="A259" s="3" t="inlineStr">
+        <is>
+          <t>Technobiz [Jacques Bourbonnet]</t>
+        </is>
+      </c>
+      <c r="B259" s="25" t="inlineStr">
+        <is>
+          <t>1143</t>
+        </is>
+      </c>
+      <c r="C259" s="39" t="inlineStr">
+        <is>
+          <t>Jacques Bourbonnet</t>
+        </is>
+      </c>
+      <c r="F259" s="39" t="inlineStr">
+        <is>
+          <t>5 rue Beausoleil</t>
+        </is>
+      </c>
+      <c r="H259" s="39" t="inlineStr">
+        <is>
+          <t>La Prairie</t>
+        </is>
+      </c>
+      <c r="I259" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J259" s="39" t="inlineStr">
+        <is>
+          <t>J5R 4Z3</t>
+        </is>
+      </c>
+      <c r="K259" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L259" s="26"/>
       <c r="M259" s="25"/>
@@ -22792,11 +23008,45 @@
       <c r="O259" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="260">
-      <c r="A260" s="3" t="s">
-        <v>3731</v>
-      </c>
-      <c r="B260" s="25">
-        <v>1144</v>
+      <c r="A260" s="3" t="inlineStr">
+        <is>
+          <t>9056-3149 Québec inc [Bar B3]</t>
+        </is>
+      </c>
+      <c r="B260" s="25" t="inlineStr">
+        <is>
+          <t>1144</t>
+        </is>
+      </c>
+      <c r="C260" s="39" t="inlineStr">
+        <is>
+          <t>Guylaine Boisjoli</t>
+        </is>
+      </c>
+      <c r="F260" s="39" t="inlineStr">
+        <is>
+          <t>992 Grande Côte ouest</t>
+        </is>
+      </c>
+      <c r="H260" s="39" t="inlineStr">
+        <is>
+          <t>Lanoraie</t>
+        </is>
+      </c>
+      <c r="I260" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J260" s="39" t="inlineStr">
+        <is>
+          <t>J0K 1E0</t>
+        </is>
+      </c>
+      <c r="K260" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L260" s="26"/>
       <c r="M260" s="25"/>
@@ -22804,11 +23054,50 @@
       <c r="O260" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="261">
-      <c r="A261" s="3" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B261" s="25">
-        <v>1145</v>
+      <c r="A261" s="3" t="inlineStr">
+        <is>
+          <t>Rotisserie des chutes Inc [Josée Benny]</t>
+        </is>
+      </c>
+      <c r="B261" s="25" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+      <c r="C261" s="39" t="inlineStr">
+        <is>
+          <t>Josée Benny</t>
+        </is>
+      </c>
+      <c r="F261" s="39" t="inlineStr">
+        <is>
+          <t>380 Route 132</t>
+        </is>
+      </c>
+      <c r="G261" s="39" t="inlineStr">
+        <is>
+          <t>Suite 110</t>
+        </is>
+      </c>
+      <c r="H261" s="39" t="inlineStr">
+        <is>
+          <t>Saint-Constant</t>
+        </is>
+      </c>
+      <c r="I261" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J261" s="39" t="inlineStr">
+        <is>
+          <t>J5A 2L5</t>
+        </is>
+      </c>
+      <c r="K261" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L261" s="26"/>
       <c r="M261" s="25"/>
@@ -22816,11 +23105,45 @@
       <c r="O261" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="262">
-      <c r="A262" s="3" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B262" s="25">
-        <v>1146</v>
+      <c r="A262" s="3" t="inlineStr">
+        <is>
+          <t>9090-6116 Québec Inc. (Hydromax Gatineau) [Jean-Luc Lebrun]</t>
+        </is>
+      </c>
+      <c r="B262" s="25" t="inlineStr">
+        <is>
+          <t>1146</t>
+        </is>
+      </c>
+      <c r="C262" s="39" t="inlineStr">
+        <is>
+          <t>Jean-Luc Lebrun</t>
+        </is>
+      </c>
+      <c r="F262" s="39" t="inlineStr">
+        <is>
+          <t>1695 rue Atmec</t>
+        </is>
+      </c>
+      <c r="H262" s="39" t="inlineStr">
+        <is>
+          <t>Gatineau</t>
+        </is>
+      </c>
+      <c r="I262" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J262" s="39" t="inlineStr">
+        <is>
+          <t>J8R 3Y3</t>
+        </is>
+      </c>
+      <c r="K262" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L262" s="26"/>
       <c r="M262" s="25"/>
@@ -22828,11 +23151,50 @@
       <c r="O262" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="263">
-      <c r="A263" s="3" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B263" s="25">
-        <v>1147</v>
+      <c r="A263" s="3" t="inlineStr">
+        <is>
+          <t>Paré assurances et Services Financiers Inc. [Pierre Paré]</t>
+        </is>
+      </c>
+      <c r="B263" s="25" t="inlineStr">
+        <is>
+          <t>1147</t>
+        </is>
+      </c>
+      <c r="C263" s="39" t="inlineStr">
+        <is>
+          <t>Pierre Paré</t>
+        </is>
+      </c>
+      <c r="D263" s="39" t="inlineStr">
+        <is>
+          <t>Président</t>
+        </is>
+      </c>
+      <c r="F263" s="39" t="inlineStr">
+        <is>
+          <t>845 boul. Iberville</t>
+        </is>
+      </c>
+      <c r="H263" s="39" t="inlineStr">
+        <is>
+          <t>Saint-Jean-Sur-Richelieu</t>
+        </is>
+      </c>
+      <c r="I263" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J263" s="39" t="inlineStr">
+        <is>
+          <t>J2X 4A5</t>
+        </is>
+      </c>
+      <c r="K263" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L263" s="26"/>
       <c r="M263" s="25"/>
@@ -22840,11 +23202,45 @@
       <c r="O263" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="264">
-      <c r="A264" s="3" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B264" s="25">
-        <v>1148</v>
+      <c r="A264" s="3" t="inlineStr">
+        <is>
+          <t>Maitres-Points Inc. [Jarod Alie]</t>
+        </is>
+      </c>
+      <c r="B264" s="25" t="inlineStr">
+        <is>
+          <t>1148</t>
+        </is>
+      </c>
+      <c r="C264" s="39" t="inlineStr">
+        <is>
+          <t>Jarod Alie</t>
+        </is>
+      </c>
+      <c r="F264" s="39" t="inlineStr">
+        <is>
+          <t>1 Croisaant des Dirigeants</t>
+        </is>
+      </c>
+      <c r="H264" s="39" t="inlineStr">
+        <is>
+          <t>Repentigny</t>
+        </is>
+      </c>
+      <c r="I264" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J264" s="39" t="inlineStr">
+        <is>
+          <t>J5Z 1P7</t>
+        </is>
+      </c>
+      <c r="K264" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L264" s="26"/>
       <c r="M264" s="25"/>
@@ -22852,11 +23248,45 @@
       <c r="O264" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="265">
-      <c r="A265" s="3" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B265" s="25">
-        <v>1149</v>
+      <c r="A265" s="3" t="inlineStr">
+        <is>
+          <t>9033-7015 Québec Inc. (Dulude Perreault Assurances inc) [Gaétan Dulude]</t>
+        </is>
+      </c>
+      <c r="B265" s="25" t="inlineStr">
+        <is>
+          <t>1149</t>
+        </is>
+      </c>
+      <c r="C265" s="39" t="inlineStr">
+        <is>
+          <t>Gaétan Dulude</t>
+        </is>
+      </c>
+      <c r="F265" s="39" t="inlineStr">
+        <is>
+          <t>295 rue François-Le-Ber</t>
+        </is>
+      </c>
+      <c r="H265" s="39" t="inlineStr">
+        <is>
+          <t>La Prairie</t>
+        </is>
+      </c>
+      <c r="I265" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J265" s="39" t="inlineStr">
+        <is>
+          <t>J5R 5L9</t>
+        </is>
+      </c>
+      <c r="K265" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L265" s="26"/>
       <c r="M265" s="25"/>
@@ -22864,11 +23294,45 @@
       <c r="O265" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="266">
-      <c r="A266" s="3" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B266" s="25">
-        <v>1150</v>
+      <c r="A266" s="3" t="inlineStr">
+        <is>
+          <t>Groupe Joman Inc. [Johanne Gemme]</t>
+        </is>
+      </c>
+      <c r="B266" s="25" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="C266" s="39" t="inlineStr">
+        <is>
+          <t>Johanne Gemme</t>
+        </is>
+      </c>
+      <c r="F266" s="39" t="inlineStr">
+        <is>
+          <t>3491 de la Noraye</t>
+        </is>
+      </c>
+      <c r="H266" s="39" t="inlineStr">
+        <is>
+          <t>Saint-Hubert</t>
+        </is>
+      </c>
+      <c r="I266" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J266" s="39" t="inlineStr">
+        <is>
+          <t>J3Z 0A7</t>
+        </is>
+      </c>
+      <c r="K266" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L266" s="26"/>
       <c r="M266" s="25"/>
@@ -22876,11 +23340,45 @@
       <c r="O266" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="267">
-      <c r="A267" s="3" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B267" s="25">
-        <v>1151</v>
+      <c r="A267" s="3" t="inlineStr">
+        <is>
+          <t>I3 International [Larbi Bennouna]</t>
+        </is>
+      </c>
+      <c r="B267" s="25" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="C267" s="39" t="inlineStr">
+        <is>
+          <t>Larbi Bennouna</t>
+        </is>
+      </c>
+      <c r="F267" s="39" t="inlineStr">
+        <is>
+          <t>7770 rue Lebourg</t>
+        </is>
+      </c>
+      <c r="H267" s="39" t="inlineStr">
+        <is>
+          <t>Brossard</t>
+        </is>
+      </c>
+      <c r="I267" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J267" s="39" t="inlineStr">
+        <is>
+          <t>J4Y 0B8</t>
+        </is>
+      </c>
+      <c r="K267" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L267" s="26"/>
       <c r="M267" s="25"/>
@@ -22888,11 +23386,45 @@
       <c r="O267" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="268">
-      <c r="A268" s="3" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B268" s="25">
-        <v>1152</v>
+      <c r="A268" s="3" t="inlineStr">
+        <is>
+          <t>Construction Fasma 2011 Inc. [André Blais]</t>
+        </is>
+      </c>
+      <c r="B268" s="25" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+      <c r="C268" s="39" t="inlineStr">
+        <is>
+          <t>André Blais</t>
+        </is>
+      </c>
+      <c r="F268" s="39" t="inlineStr">
+        <is>
+          <t>1780 rue du Charretier</t>
+        </is>
+      </c>
+      <c r="H268" s="39" t="inlineStr">
+        <is>
+          <t>Chambly</t>
+        </is>
+      </c>
+      <c r="I268" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J268" s="39" t="inlineStr">
+        <is>
+          <t>J3L 0G5</t>
+        </is>
+      </c>
+      <c r="K268" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L268" s="26"/>
       <c r="M268" s="25"/>
@@ -22900,13 +23432,46 @@
       <c r="O268" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="269">
-      <c r="A269" s="3" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B269" s="25">
-        <v>1153</v>
-      </c>
-      <c r="C269" s="43"/>
+      <c r="A269" s="3" t="inlineStr">
+        <is>
+          <t>Ékomini Inc. [Cam Gentile]</t>
+        </is>
+      </c>
+      <c r="B269" s="25" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
+      <c r="C269" s="43" t="inlineStr">
+        <is>
+          <t>Cam Gentile</t>
+        </is>
+      </c>
+      <c r="F269" s="39" t="inlineStr">
+        <is>
+          <t>64B rue Prince</t>
+        </is>
+      </c>
+      <c r="H269" s="39" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="I269" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J269" s="39" t="inlineStr">
+        <is>
+          <t>H3C 2M8</t>
+        </is>
+      </c>
+      <c r="K269" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="L269" s="26"/>
       <c r="M269" s="25"/>
       <c r="N269" s="26"/>
@@ -22925,11 +23490,45 @@
       <c r="O270" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="271">
-      <c r="A271" s="3" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B271" s="25" t="s">
-        <v>1227</v>
+      <c r="A271" s="3" t="inlineStr">
+        <is>
+          <t>Roxane Hamelin Avocate inc</t>
+        </is>
+      </c>
+      <c r="B271" s="25" t="inlineStr">
+        <is>
+          <t>1154b</t>
+        </is>
+      </c>
+      <c r="F271" s="39" t="inlineStr">
+        <is>
+          <t>7101 rue Jean-Talon Est</t>
+        </is>
+      </c>
+      <c r="G271" s="39" t="inlineStr">
+        <is>
+          <t>Suite 814</t>
+        </is>
+      </c>
+      <c r="H271" s="39" t="inlineStr">
+        <is>
+          <t>Anjou</t>
+        </is>
+      </c>
+      <c r="I271" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J271" s="39" t="inlineStr">
+        <is>
+          <t>H1M 3N7</t>
+        </is>
+      </c>
+      <c r="K271" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L271" s="26"/>
       <c r="M271" s="25"/>
@@ -22949,11 +23548,50 @@
       <c r="O272" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="273">
-      <c r="A273" s="3" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B273" s="25">
-        <v>1156</v>
+      <c r="A273" s="3" t="inlineStr">
+        <is>
+          <t>Altima Solutions Ltd [Frank Yang]</t>
+        </is>
+      </c>
+      <c r="B273" s="25" t="inlineStr">
+        <is>
+          <t>1156</t>
+        </is>
+      </c>
+      <c r="C273" s="39" t="inlineStr">
+        <is>
+          <t>Frank Yang</t>
+        </is>
+      </c>
+      <c r="F273" s="39" t="inlineStr">
+        <is>
+          <t>2360 Chemin Lucerne</t>
+        </is>
+      </c>
+      <c r="G273" s="39" t="inlineStr">
+        <is>
+          <t>Suite 2A</t>
+        </is>
+      </c>
+      <c r="H273" s="39" t="inlineStr">
+        <is>
+          <t>Mont-Royal</t>
+        </is>
+      </c>
+      <c r="I273" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J273" s="39" t="inlineStr">
+        <is>
+          <t>H3R 2J8</t>
+        </is>
+      </c>
+      <c r="K273" s="39" t="inlineStr">
+        <is>
+          <t>Canad a</t>
+        </is>
       </c>
       <c r="L273" s="26"/>
       <c r="M273" s="25"/>
@@ -22961,11 +23599,45 @@
       <c r="O273" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="274">
-      <c r="A274" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B274" s="25">
-        <v>1158</v>
+      <c r="A274" s="3" t="inlineStr">
+        <is>
+          <t>CCQ Assurances [Richard Coderre/Karen Luce Carrier/Éric Querry]</t>
+        </is>
+      </c>
+      <c r="B274" s="25" t="inlineStr">
+        <is>
+          <t>1158</t>
+        </is>
+      </c>
+      <c r="C274" s="39" t="inlineStr">
+        <is>
+          <t>Richard Coderre/Karen Luce Carrier/Éric Querry</t>
+        </is>
+      </c>
+      <c r="F274" s="39" t="inlineStr">
+        <is>
+          <t>22 rue Notre-Dame</t>
+        </is>
+      </c>
+      <c r="H274" s="39" t="inlineStr">
+        <is>
+          <t>Saint-Sulpice</t>
+        </is>
+      </c>
+      <c r="I274" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J274" s="39" t="inlineStr">
+        <is>
+          <t>J5W 3X8</t>
+        </is>
+      </c>
+      <c r="K274" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L274" s="26"/>
       <c r="M274" s="25"/>
@@ -22973,11 +23645,45 @@
       <c r="O274" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="275">
-      <c r="A275" s="3" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B275" s="25">
-        <v>1159</v>
+      <c r="A275" s="3" t="inlineStr">
+        <is>
+          <t>École de conduite P.A.C. Montréal Inc. [Chantal Degorgue]</t>
+        </is>
+      </c>
+      <c r="B275" s="25" t="inlineStr">
+        <is>
+          <t>1159</t>
+        </is>
+      </c>
+      <c r="C275" s="39" t="inlineStr">
+        <is>
+          <t>Chantal Degorgue</t>
+        </is>
+      </c>
+      <c r="F275" s="39" t="inlineStr">
+        <is>
+          <t>7094 rue Saint-Hubert</t>
+        </is>
+      </c>
+      <c r="H275" s="39" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="I275" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J275" s="39" t="inlineStr">
+        <is>
+          <t>H2S 2M9</t>
+        </is>
+      </c>
+      <c r="K275" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L275" s="26"/>
       <c r="M275" s="25"/>
@@ -22985,11 +23691,45 @@
       <c r="O275" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="276">
-      <c r="A276" s="3" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B276" s="25">
-        <v>1160</v>
+      <c r="A276" s="3" t="inlineStr">
+        <is>
+          <t>AssurExpert Boisselle &amp; Associés Inc. [Georges Boisselle]</t>
+        </is>
+      </c>
+      <c r="B276" s="25" t="inlineStr">
+        <is>
+          <t>1160</t>
+        </is>
+      </c>
+      <c r="C276" s="39" t="inlineStr">
+        <is>
+          <t>Georges Boisselle</t>
+        </is>
+      </c>
+      <c r="F276" s="39" t="inlineStr">
+        <is>
+          <t>68 rue Ste-Anne</t>
+        </is>
+      </c>
+      <c r="H276" s="39" t="inlineStr">
+        <is>
+          <t>Varennes</t>
+        </is>
+      </c>
+      <c r="I276" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J276" s="39" t="inlineStr">
+        <is>
+          <t>J3X 1R6</t>
+        </is>
+      </c>
+      <c r="K276" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L276" s="26"/>
       <c r="M276" s="25"/>
@@ -22997,11 +23737,45 @@
       <c r="O276" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="277">
-      <c r="A277" s="3" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B277" s="25">
-        <v>1161</v>
+      <c r="A277" s="3" t="inlineStr">
+        <is>
+          <t>Les enseignes Gilbert Bourgouin inc [Jean-François Bourgouin]</t>
+        </is>
+      </c>
+      <c r="B277" s="25" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+      <c r="C277" s="39" t="inlineStr">
+        <is>
+          <t>Jean-François Bourgouin</t>
+        </is>
+      </c>
+      <c r="F277" s="39" t="inlineStr">
+        <is>
+          <t>8240 avenue Marco-Polo</t>
+        </is>
+      </c>
+      <c r="H277" s="39" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="I277" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J277" s="39" t="inlineStr">
+        <is>
+          <t>H1E 7J9</t>
+        </is>
+      </c>
+      <c r="K277" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L277" s="26"/>
       <c r="M277" s="25"/>
@@ -23009,11 +23783,45 @@
       <c r="O277" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="278">
-      <c r="A278" s="3" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B278" s="25">
-        <v>1162</v>
+      <c r="A278" s="3" t="inlineStr">
+        <is>
+          <t>Les services d'entretien Gemme 1986 inc. [René Piché]</t>
+        </is>
+      </c>
+      <c r="B278" s="25" t="inlineStr">
+        <is>
+          <t>1162</t>
+        </is>
+      </c>
+      <c r="C278" s="39" t="inlineStr">
+        <is>
+          <t>René Piché</t>
+        </is>
+      </c>
+      <c r="F278" s="39" t="inlineStr">
+        <is>
+          <t>3220 rue Adélaïde</t>
+        </is>
+      </c>
+      <c r="H278" s="39" t="inlineStr">
+        <is>
+          <t>Longueuil</t>
+        </is>
+      </c>
+      <c r="I278" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J278" s="39" t="inlineStr">
+        <is>
+          <t>J3Y 4W6</t>
+        </is>
+      </c>
+      <c r="K278" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L278" s="26"/>
       <c r="M278" s="25"/>
@@ -23021,11 +23829,50 @@
       <c r="O278" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="279">
-      <c r="A279" s="3" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B279" s="25">
-        <v>1163</v>
+      <c r="A279" s="3" t="inlineStr">
+        <is>
+          <t>D.R. Maçonnerie Inc. [Denis Richard]</t>
+        </is>
+      </c>
+      <c r="B279" s="25" t="inlineStr">
+        <is>
+          <t>1163</t>
+        </is>
+      </c>
+      <c r="C279" s="39" t="inlineStr">
+        <is>
+          <t>Denis Richard</t>
+        </is>
+      </c>
+      <c r="F279" s="39" t="inlineStr">
+        <is>
+          <t>70 rue De La Barre</t>
+        </is>
+      </c>
+      <c r="G279" s="39" t="inlineStr">
+        <is>
+          <t>Suite 120</t>
+        </is>
+      </c>
+      <c r="H279" s="39" t="inlineStr">
+        <is>
+          <t>Longueuil</t>
+        </is>
+      </c>
+      <c r="I279" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J279" s="39" t="inlineStr">
+        <is>
+          <t>J4K 5J3</t>
+        </is>
+      </c>
+      <c r="K279" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L279" s="26"/>
       <c r="M279" s="25"/>
@@ -23033,11 +23880,45 @@
       <c r="O279" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="280">
-      <c r="A280" s="3" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B280" s="25">
-        <v>1164</v>
+      <c r="A280" s="3" t="inlineStr">
+        <is>
+          <t>ACRoyal Inc. [Augustin Bernard]</t>
+        </is>
+      </c>
+      <c r="B280" s="25" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="C280" s="39" t="inlineStr">
+        <is>
+          <t>Augustin Bernard</t>
+        </is>
+      </c>
+      <c r="F280" s="39" t="inlineStr">
+        <is>
+          <t>1966 rue Notre-Dame-De-Fatima</t>
+        </is>
+      </c>
+      <c r="H280" s="39" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I280" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J280" s="39" t="inlineStr">
+        <is>
+          <t>H7G 4X8</t>
+        </is>
+      </c>
+      <c r="K280" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L280" s="26"/>
       <c r="M280" s="25"/>
@@ -23045,11 +23926,45 @@
       <c r="O280" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="281">
-      <c r="A281" s="3" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B281" s="25">
-        <v>1165</v>
+      <c r="A281" s="3" t="inlineStr">
+        <is>
+          <t>Innofort Inc. [Sylvie Gosselin]</t>
+        </is>
+      </c>
+      <c r="B281" s="25" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="C281" s="39" t="inlineStr">
+        <is>
+          <t>Sylvie Gosselin</t>
+        </is>
+      </c>
+      <c r="F281" s="39" t="inlineStr">
+        <is>
+          <t>51 Des Ateliers</t>
+        </is>
+      </c>
+      <c r="H281" s="39" t="inlineStr">
+        <is>
+          <t>Lavaltrie</t>
+        </is>
+      </c>
+      <c r="I281" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J281" s="39" t="inlineStr">
+        <is>
+          <t>J5T 3R3</t>
+        </is>
+      </c>
+      <c r="K281" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L281" s="26"/>
       <c r="M281" s="25"/>
@@ -23057,11 +23972,40 @@
       <c r="O281" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="282">
-      <c r="A282" s="3" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B282" s="25">
-        <v>1166</v>
+      <c r="A282" s="3" t="inlineStr">
+        <is>
+          <t>Josée Roy, Notaire</t>
+        </is>
+      </c>
+      <c r="B282" s="25" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="F282" s="39" t="inlineStr">
+        <is>
+          <t>16 boul. de la Falaise</t>
+        </is>
+      </c>
+      <c r="H282" s="39" t="inlineStr">
+        <is>
+          <t>Saint-Armand</t>
+        </is>
+      </c>
+      <c r="I282" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J282" s="39" t="inlineStr">
+        <is>
+          <t>J0J 1T0</t>
+        </is>
+      </c>
+      <c r="K282" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L282" s="26"/>
       <c r="M282" s="25"/>
@@ -23069,11 +24013,45 @@
       <c r="O282" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="283">
-      <c r="A283" s="3" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B283" s="25">
-        <v>1167</v>
+      <c r="A283" s="3" t="inlineStr">
+        <is>
+          <t>Marie-Claude Auger M.D. Inc.</t>
+        </is>
+      </c>
+      <c r="B283" s="25" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="C283" s="39" t="inlineStr">
+        <is>
+          <t>Marie-Claude Auger</t>
+        </is>
+      </c>
+      <c r="F283" s="39" t="inlineStr">
+        <is>
+          <t>442 boul. Sainte-Anne</t>
+        </is>
+      </c>
+      <c r="H283" s="39" t="inlineStr">
+        <is>
+          <t>Sainte-Anne-des-Plaines</t>
+        </is>
+      </c>
+      <c r="I283" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J283" s="39" t="inlineStr">
+        <is>
+          <t>J0N 1H0</t>
+        </is>
+      </c>
+      <c r="K283" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L283" s="26"/>
       <c r="M283" s="25"/>
@@ -23081,11 +24059,45 @@
       <c r="O283" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="284">
-      <c r="A284" s="3" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B284" s="25">
-        <v>1168</v>
+      <c r="A284" s="3" t="inlineStr">
+        <is>
+          <t>Zéa informatique Inc. [Jean-Philippe Blais]</t>
+        </is>
+      </c>
+      <c r="B284" s="25" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="C284" s="39" t="inlineStr">
+        <is>
+          <t>Jean-Philippe Blais</t>
+        </is>
+      </c>
+      <c r="F284" s="39" t="inlineStr">
+        <is>
+          <t>10 rue Rupert</t>
+        </is>
+      </c>
+      <c r="H284" s="39" t="inlineStr">
+        <is>
+          <t>Repentigny</t>
+        </is>
+      </c>
+      <c r="I284" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J284" s="39" t="inlineStr">
+        <is>
+          <t>J6A 3V4</t>
+        </is>
+      </c>
+      <c r="K284" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L284" s="26"/>
       <c r="M284" s="25"/>
@@ -23093,11 +24105,45 @@
       <c r="O284" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="285">
-      <c r="A285" s="3" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B285" s="25">
-        <v>1169</v>
+      <c r="A285" s="3" t="inlineStr">
+        <is>
+          <t>3101-1943 Québec Inc. [André Hamelin]</t>
+        </is>
+      </c>
+      <c r="B285" s="25" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="C285" s="39" t="inlineStr">
+        <is>
+          <t>André Hamelin</t>
+        </is>
+      </c>
+      <c r="F285" s="39" t="inlineStr">
+        <is>
+          <t>1559 rue Walnut</t>
+        </is>
+      </c>
+      <c r="H285" s="39" t="inlineStr">
+        <is>
+          <t>Longueuil</t>
+        </is>
+      </c>
+      <c r="I285" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J285" s="39" t="inlineStr">
+        <is>
+          <t>J4T 1G2</t>
+        </is>
+      </c>
+      <c r="K285" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L285" s="26"/>
       <c r="M285" s="25"/>
@@ -23105,11 +24151,45 @@
       <c r="O285" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="286">
-      <c r="A286" s="3" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B286" s="25">
-        <v>1170</v>
+      <c r="A286" s="3" t="inlineStr">
+        <is>
+          <t>Réparation et Maintenance R.R.P.G. inc [Chantal Gravel / Roland Poirier]</t>
+        </is>
+      </c>
+      <c r="B286" s="25" t="inlineStr">
+        <is>
+          <t>1170</t>
+        </is>
+      </c>
+      <c r="C286" s="39" t="inlineStr">
+        <is>
+          <t>Chantal Gravel / Roland Poirier</t>
+        </is>
+      </c>
+      <c r="F286" s="39" t="inlineStr">
+        <is>
+          <t>320 rue Morissette</t>
+        </is>
+      </c>
+      <c r="H286" s="39" t="inlineStr">
+        <is>
+          <t>Lavaltrie</t>
+        </is>
+      </c>
+      <c r="I286" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J286" s="39" t="inlineStr">
+        <is>
+          <t>J5T 2P5</t>
+        </is>
+      </c>
+      <c r="K286" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L286" s="26"/>
       <c r="M286" s="25"/>
@@ -23117,11 +24197,45 @@
       <c r="O286" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="287">
-      <c r="A287" s="3" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B287" s="25">
-        <v>1171</v>
+      <c r="A287" s="3" t="inlineStr">
+        <is>
+          <t>Fiducie Familiale François Hamel (2020)</t>
+        </is>
+      </c>
+      <c r="B287" s="25" t="inlineStr">
+        <is>
+          <t>1171</t>
+        </is>
+      </c>
+      <c r="C287" s="39" t="inlineStr">
+        <is>
+          <t>François Hamel</t>
+        </is>
+      </c>
+      <c r="F287" s="39" t="inlineStr">
+        <is>
+          <t>497 De La Paumelle</t>
+        </is>
+      </c>
+      <c r="H287" s="39" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="I287" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J287" s="39" t="inlineStr">
+        <is>
+          <t>G1C 8K3</t>
+        </is>
+      </c>
+      <c r="K287" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L287" s="26"/>
       <c r="M287" s="25"/>
@@ -23129,11 +24243,45 @@
       <c r="O287" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="288">
-      <c r="A288" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="B288" s="25">
-        <v>1172</v>
+      <c r="A288" s="3" t="inlineStr">
+        <is>
+          <t>Richard Provencher CPA, CA</t>
+        </is>
+      </c>
+      <c r="B288" s="25" t="inlineStr">
+        <is>
+          <t>1172</t>
+        </is>
+      </c>
+      <c r="C288" s="39" t="inlineStr">
+        <is>
+          <t>Richard Provencher</t>
+        </is>
+      </c>
+      <c r="F288" s="39" t="inlineStr">
+        <is>
+          <t>6721 rue Beaubien Est</t>
+        </is>
+      </c>
+      <c r="H288" s="39" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="I288" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J288" s="39" t="inlineStr">
+        <is>
+          <t>H1M 3B2</t>
+        </is>
+      </c>
+      <c r="K288" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L288" s="26"/>
       <c r="M288" s="25"/>
@@ -23141,11 +24289,45 @@
       <c r="O288" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="289">
-      <c r="A289" s="3" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B289" s="25">
-        <v>1173</v>
+      <c r="A289" s="3" t="inlineStr">
+        <is>
+          <t>Gestion KSNM Inc. [Abdelkarim Khettab]</t>
+        </is>
+      </c>
+      <c r="B289" s="25" t="inlineStr">
+        <is>
+          <t>1173</t>
+        </is>
+      </c>
+      <c r="C289" s="39" t="inlineStr">
+        <is>
+          <t>Abdelkarim Khettab</t>
+        </is>
+      </c>
+      <c r="F289" s="39" t="inlineStr">
+        <is>
+          <t>880 rue St-Antoine Est</t>
+        </is>
+      </c>
+      <c r="H289" s="39" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="I289" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J289" s="39" t="inlineStr">
+        <is>
+          <t>H2L 5C3</t>
+        </is>
+      </c>
+      <c r="K289" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L289" s="26"/>
       <c r="M289" s="25"/>
@@ -23153,11 +24335,45 @@
       <c r="O289" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="290">
-      <c r="A290" s="3" t="s">
-        <v>3732</v>
-      </c>
-      <c r="B290" s="25">
-        <v>1174</v>
+      <c r="A290" s="3" t="inlineStr">
+        <is>
+          <t>Ravary Assurances Inc. [Charles Ravary]</t>
+        </is>
+      </c>
+      <c r="B290" s="25" t="inlineStr">
+        <is>
+          <t>1174</t>
+        </is>
+      </c>
+      <c r="C290" s="39" t="inlineStr">
+        <is>
+          <t>Charles Ravary</t>
+        </is>
+      </c>
+      <c r="F290" s="39" t="inlineStr">
+        <is>
+          <t>626 boul. de l'Ange-Gardien</t>
+        </is>
+      </c>
+      <c r="H290" s="39" t="inlineStr">
+        <is>
+          <t>L'Assomption</t>
+        </is>
+      </c>
+      <c r="I290" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J290" s="39" t="inlineStr">
+        <is>
+          <t>J5W 1T2</t>
+        </is>
+      </c>
+      <c r="K290" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L290" s="26"/>
       <c r="M290" s="25"/>
@@ -23165,11 +24381,50 @@
       <c r="O290" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="291">
-      <c r="A291" s="3" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B291" s="25">
-        <v>1175</v>
+      <c r="A291" s="3" t="inlineStr">
+        <is>
+          <t>Les Placements Jacpar Inc. [Emmanuel Parent]</t>
+        </is>
+      </c>
+      <c r="B291" s="25" t="inlineStr">
+        <is>
+          <t>1175</t>
+        </is>
+      </c>
+      <c r="C291" s="39" t="inlineStr">
+        <is>
+          <t>Emmanuel Parent</t>
+        </is>
+      </c>
+      <c r="F291" s="39" t="inlineStr">
+        <is>
+          <t>3925 Grande-Allée</t>
+        </is>
+      </c>
+      <c r="G291" s="39" t="inlineStr">
+        <is>
+          <t>Suite 205</t>
+        </is>
+      </c>
+      <c r="H291" s="39" t="inlineStr">
+        <is>
+          <t>Longueuil</t>
+        </is>
+      </c>
+      <c r="I291" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J291" s="39" t="inlineStr">
+        <is>
+          <t>J4T 2V8</t>
+        </is>
+      </c>
+      <c r="K291" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L291" s="26"/>
       <c r="M291" s="25"/>
@@ -23177,11 +24432,45 @@
       <c r="O291" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="292">
-      <c r="A292" s="3" t="s">
-        <v>3733</v>
-      </c>
-      <c r="B292" s="25">
-        <v>1176</v>
+      <c r="A292" s="3" t="inlineStr">
+        <is>
+          <t>9138-3380 Québec inc [Ghyslain Trudel]</t>
+        </is>
+      </c>
+      <c r="B292" s="25" t="inlineStr">
+        <is>
+          <t>1176</t>
+        </is>
+      </c>
+      <c r="C292" s="39" t="inlineStr">
+        <is>
+          <t>Ghyslain Trudel</t>
+        </is>
+      </c>
+      <c r="F292" s="39" t="inlineStr">
+        <is>
+          <t>11 rue Léveillé</t>
+        </is>
+      </c>
+      <c r="H292" s="39" t="inlineStr">
+        <is>
+          <t>L'Assomption</t>
+        </is>
+      </c>
+      <c r="I292" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J292" s="39" t="inlineStr">
+        <is>
+          <t>J5W 5B8</t>
+        </is>
+      </c>
+      <c r="K292" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L292" s="26"/>
       <c r="M292" s="25"/>
@@ -23189,11 +24478,45 @@
       <c r="O292" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="293">
-      <c r="A293" s="3" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B293" s="25">
-        <v>1177</v>
+      <c r="A293" s="3" t="inlineStr">
+        <is>
+          <t>Pneus et mécanique Serge Lefebvre Inc.</t>
+        </is>
+      </c>
+      <c r="B293" s="25" t="inlineStr">
+        <is>
+          <t>1177</t>
+        </is>
+      </c>
+      <c r="C293" s="39" t="inlineStr">
+        <is>
+          <t>Serge Lefebvre</t>
+        </is>
+      </c>
+      <c r="F293" s="39" t="inlineStr">
+        <is>
+          <t>288 Gamelin</t>
+        </is>
+      </c>
+      <c r="H293" s="39" t="inlineStr">
+        <is>
+          <t>Repentigny</t>
+        </is>
+      </c>
+      <c r="I293" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J293" s="39" t="inlineStr">
+        <is>
+          <t>J6A 5V1</t>
+        </is>
+      </c>
+      <c r="K293" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L293" s="26"/>
       <c r="M293" s="25"/>
@@ -23213,11 +24536,40 @@
       <c r="O294" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="295">
-      <c r="A295" s="3" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B295" s="25">
-        <v>1179</v>
+      <c r="A295" s="3" t="inlineStr">
+        <is>
+          <t>Paul Béland</t>
+        </is>
+      </c>
+      <c r="B295" s="25" t="inlineStr">
+        <is>
+          <t>1179</t>
+        </is>
+      </c>
+      <c r="F295" s="39" t="inlineStr">
+        <is>
+          <t>89 rue de Valcourt</t>
+        </is>
+      </c>
+      <c r="H295" s="39" t="inlineStr">
+        <is>
+          <t>Repentigny</t>
+        </is>
+      </c>
+      <c r="I295" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J295" s="39" t="inlineStr">
+        <is>
+          <t>J5Y 3R2</t>
+        </is>
+      </c>
+      <c r="K295" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L295" s="26"/>
       <c r="M295" s="25"/>
@@ -23225,11 +24577,45 @@
       <c r="O295" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="296">
-      <c r="A296" s="3" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B296" s="25">
-        <v>1180</v>
+      <c r="A296" s="3" t="inlineStr">
+        <is>
+          <t>Centre Nature du Lac Dori Inc. [Gina Dubé]</t>
+        </is>
+      </c>
+      <c r="B296" s="25" t="inlineStr">
+        <is>
+          <t>1180</t>
+        </is>
+      </c>
+      <c r="C296" s="39" t="inlineStr">
+        <is>
+          <t>Gina Dubé</t>
+        </is>
+      </c>
+      <c r="F296" s="39" t="inlineStr">
+        <is>
+          <t>3454 rue Grégoire</t>
+        </is>
+      </c>
+      <c r="H296" s="39" t="inlineStr">
+        <is>
+          <t>Lac-Mégantic</t>
+        </is>
+      </c>
+      <c r="I296" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J296" s="39" t="inlineStr">
+        <is>
+          <t>G6B 2E9</t>
+        </is>
+      </c>
+      <c r="K296" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L296" s="26"/>
       <c r="M296" s="25"/>
@@ -23237,11 +24623,45 @@
       <c r="O296" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="297">
-      <c r="A297" s="3" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B297" s="25">
-        <v>1181</v>
+      <c r="A297" s="3" t="inlineStr">
+        <is>
+          <t>Suspensions Longueuil Inc. [Jocelyn Jutras]</t>
+        </is>
+      </c>
+      <c r="B297" s="25" t="inlineStr">
+        <is>
+          <t>1181</t>
+        </is>
+      </c>
+      <c r="C297" s="39" t="inlineStr">
+        <is>
+          <t>Jocelyn Jutras</t>
+        </is>
+      </c>
+      <c r="F297" s="39" t="inlineStr">
+        <is>
+          <t>1607 boul. Manseau</t>
+        </is>
+      </c>
+      <c r="H297" s="39" t="inlineStr">
+        <is>
+          <t>Longueuil</t>
+        </is>
+      </c>
+      <c r="I297" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J297" s="39" t="inlineStr">
+        <is>
+          <t>J4K 3C3</t>
+        </is>
+      </c>
+      <c r="K297" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L297" s="26"/>
       <c r="M297" s="25"/>
@@ -23249,11 +24669,45 @@
       <c r="O297" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="298">
-      <c r="A298" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B298" s="25">
-        <v>1182</v>
+      <c r="A298" s="3" t="inlineStr">
+        <is>
+          <t>Machinerie Québec.com inc [Luc Lessard]</t>
+        </is>
+      </c>
+      <c r="B298" s="25" t="inlineStr">
+        <is>
+          <t>1182</t>
+        </is>
+      </c>
+      <c r="C298" s="39" t="inlineStr">
+        <is>
+          <t>Luc Lessard</t>
+        </is>
+      </c>
+      <c r="F298" s="39" t="inlineStr">
+        <is>
+          <t>89 rue des Jardins-de-l'Aurore</t>
+        </is>
+      </c>
+      <c r="H298" s="39" t="inlineStr">
+        <is>
+          <t>Lavaltrie</t>
+        </is>
+      </c>
+      <c r="I298" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J298" s="39" t="inlineStr">
+        <is>
+          <t>J5T 1A9</t>
+        </is>
+      </c>
+      <c r="K298" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L298" s="26"/>
       <c r="M298" s="25"/>
@@ -23261,11 +24715,45 @@
       <c r="O298" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="299">
-      <c r="A299" s="3" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B299" s="25">
-        <v>1183</v>
+      <c r="A299" s="3" t="inlineStr">
+        <is>
+          <t>Voyages Synergia Inc. [Richard Kelly]</t>
+        </is>
+      </c>
+      <c r="B299" s="25" t="inlineStr">
+        <is>
+          <t>1183</t>
+        </is>
+      </c>
+      <c r="C299" s="39" t="inlineStr">
+        <is>
+          <t>Richard Kelly</t>
+        </is>
+      </c>
+      <c r="F299" s="39" t="inlineStr">
+        <is>
+          <t>1188 Curé-Labelle</t>
+        </is>
+      </c>
+      <c r="H299" s="39" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I299" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J299" s="39" t="inlineStr">
+        <is>
+          <t>H7L 2Z4</t>
+        </is>
+      </c>
+      <c r="K299" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L299" s="26"/>
       <c r="M299" s="25"/>
@@ -23273,11 +24761,45 @@
       <c r="O299" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="300">
-      <c r="A300" s="3" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B300" s="25">
-        <v>1184</v>
+      <c r="A300" s="3" t="inlineStr">
+        <is>
+          <t>Optométrie Montracton Inc. [Sylvain Mc Mahon]</t>
+        </is>
+      </c>
+      <c r="B300" s="25" t="inlineStr">
+        <is>
+          <t>1184</t>
+        </is>
+      </c>
+      <c r="C300" s="39" t="inlineStr">
+        <is>
+          <t>Sylvain Mc Mahon</t>
+        </is>
+      </c>
+      <c r="F300" s="39" t="inlineStr">
+        <is>
+          <t>1584 boul. Saint-Joseph Est</t>
+        </is>
+      </c>
+      <c r="H300" s="39" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="I300" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J300" s="39" t="inlineStr">
+        <is>
+          <t>H2J 1M7</t>
+        </is>
+      </c>
+      <c r="K300" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L300" s="26"/>
       <c r="M300" s="25"/>
@@ -23285,11 +24807,45 @@
       <c r="O300" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="301">
-      <c r="A301" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B301" s="25">
-        <v>1185</v>
+      <c r="A301" s="3" t="inlineStr">
+        <is>
+          <t>J.P. Soubry, Distribution Représentation ltée [Jean-Pierre Soubry]</t>
+        </is>
+      </c>
+      <c r="B301" s="25" t="inlineStr">
+        <is>
+          <t>1185</t>
+        </is>
+      </c>
+      <c r="C301" s="39" t="inlineStr">
+        <is>
+          <t>Jean-Pierre Soubry</t>
+        </is>
+      </c>
+      <c r="F301" s="39" t="inlineStr">
+        <is>
+          <t>95 rue Laroche</t>
+        </is>
+      </c>
+      <c r="H301" s="39" t="inlineStr">
+        <is>
+          <t>Repentigny</t>
+        </is>
+      </c>
+      <c r="I301" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J301" s="39" t="inlineStr">
+        <is>
+          <t>J6A 7M3</t>
+        </is>
+      </c>
+      <c r="K301" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L301" s="26"/>
       <c r="M301" s="25"/>
@@ -23297,11 +24853,45 @@
       <c r="O301" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="302">
-      <c r="A302" s="3" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B302" s="25">
-        <v>1186</v>
+      <c r="A302" s="3" t="inlineStr">
+        <is>
+          <t>Les jardins G.M. Lemire inc [Marielle Lemire]</t>
+        </is>
+      </c>
+      <c r="B302" s="25" t="inlineStr">
+        <is>
+          <t>1186</t>
+        </is>
+      </c>
+      <c r="C302" s="39" t="inlineStr">
+        <is>
+          <t>Marielle Lemire</t>
+        </is>
+      </c>
+      <c r="F302" s="39" t="inlineStr">
+        <is>
+          <t>1497 Route 125</t>
+        </is>
+      </c>
+      <c r="H302" s="39" t="inlineStr">
+        <is>
+          <t>Sainte-Julienne</t>
+        </is>
+      </c>
+      <c r="I302" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J302" s="39" t="inlineStr">
+        <is>
+          <t>J0K 2T0</t>
+        </is>
+      </c>
+      <c r="K302" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L302" s="26"/>
       <c r="M302" s="25"/>
@@ -23309,11 +24899,45 @@
       <c r="O302" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="303">
-      <c r="A303" s="3" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B303" s="25">
-        <v>1187</v>
+      <c r="A303" s="3" t="inlineStr">
+        <is>
+          <t>Ti-Bonhomme Excavation inc [Roland Bergeron]</t>
+        </is>
+      </c>
+      <c r="B303" s="25" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="C303" s="39" t="inlineStr">
+        <is>
+          <t>Roland Bergeron</t>
+        </is>
+      </c>
+      <c r="F303" s="39" t="inlineStr">
+        <is>
+          <t>20 Chemin du Lac-Mandeville</t>
+        </is>
+      </c>
+      <c r="H303" s="39" t="inlineStr">
+        <is>
+          <t>Mandeville</t>
+        </is>
+      </c>
+      <c r="I303" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J303" s="39" t="inlineStr">
+        <is>
+          <t>J0K 1L0</t>
+        </is>
+      </c>
+      <c r="K303" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L303" s="26"/>
       <c r="M303" s="25"/>
@@ -23321,11 +24945,50 @@
       <c r="O303" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="304">
-      <c r="A304" s="3" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B304" s="25">
-        <v>1188</v>
+      <c r="A304" s="3" t="inlineStr">
+        <is>
+          <t>Gestion Maurice Fluet Inc.</t>
+        </is>
+      </c>
+      <c r="B304" s="25" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="C304" s="39" t="inlineStr">
+        <is>
+          <t>Maurice Fluet</t>
+        </is>
+      </c>
+      <c r="D304" s="39" t="inlineStr">
+        <is>
+          <t>Président</t>
+        </is>
+      </c>
+      <c r="F304" s="39" t="inlineStr">
+        <is>
+          <t>6980 avenue Tisserand</t>
+        </is>
+      </c>
+      <c r="H304" s="39" t="inlineStr">
+        <is>
+          <t>Brossard</t>
+        </is>
+      </c>
+      <c r="I304" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J304" s="39" t="inlineStr">
+        <is>
+          <t>J4W 2M9</t>
+        </is>
+      </c>
+      <c r="K304" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L304" s="26"/>
       <c r="M304" s="25"/>
@@ -23333,11 +24996,45 @@
       <c r="O304" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="305">
-      <c r="A305" s="3" t="s">
-        <v>3734</v>
-      </c>
-      <c r="B305" s="25">
-        <v>1189</v>
+      <c r="A305" s="3" t="inlineStr">
+        <is>
+          <t>8372276 Canada inc [France Pelletier]</t>
+        </is>
+      </c>
+      <c r="B305" s="25" t="inlineStr">
+        <is>
+          <t>1189</t>
+        </is>
+      </c>
+      <c r="C305" s="39" t="inlineStr">
+        <is>
+          <t>France Pelletier</t>
+        </is>
+      </c>
+      <c r="F305" s="39" t="inlineStr">
+        <is>
+          <t>8455 boul. Décarie</t>
+        </is>
+      </c>
+      <c r="H305" s="39" t="inlineStr">
+        <is>
+          <t>Mont-Royal</t>
+        </is>
+      </c>
+      <c r="I305" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J305" s="39" t="inlineStr">
+        <is>
+          <t>H4P 2J2</t>
+        </is>
+      </c>
+      <c r="K305" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L305" s="26"/>
       <c r="M305" s="25"/>
@@ -23345,11 +25042,45 @@
       <c r="O305" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="306">
-      <c r="A306" s="3" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B306" s="25">
-        <v>1190</v>
+      <c r="A306" s="3" t="inlineStr">
+        <is>
+          <t>Tavares et cie Inc. [Jean Tavares]</t>
+        </is>
+      </c>
+      <c r="B306" s="25" t="inlineStr">
+        <is>
+          <t>1190</t>
+        </is>
+      </c>
+      <c r="C306" s="39" t="inlineStr">
+        <is>
+          <t>Jean Tavares</t>
+        </is>
+      </c>
+      <c r="F306" s="39" t="inlineStr">
+        <is>
+          <t>1000 Montée des Pionniers</t>
+        </is>
+      </c>
+      <c r="H306" s="39" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="I306" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J306" s="39" t="inlineStr">
+        <is>
+          <t>J6V 1S8</t>
+        </is>
+      </c>
+      <c r="K306" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L306" s="26"/>
       <c r="M306" s="25"/>
@@ -23357,11 +25088,45 @@
       <c r="O306" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="307">
-      <c r="A307" s="3" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B307" s="25">
-        <v>1191</v>
+      <c r="A307" s="3" t="inlineStr">
+        <is>
+          <t>Gestion Gimajo [Gilbert Grimard]</t>
+        </is>
+      </c>
+      <c r="B307" s="25" t="inlineStr">
+        <is>
+          <t>1191</t>
+        </is>
+      </c>
+      <c r="C307" s="39" t="inlineStr">
+        <is>
+          <t>Gilbert Grimard</t>
+        </is>
+      </c>
+      <c r="F307" s="39" t="inlineStr">
+        <is>
+          <t>18189 rue de Brissac</t>
+        </is>
+      </c>
+      <c r="H307" s="39" t="inlineStr">
+        <is>
+          <t>Mirabel</t>
+        </is>
+      </c>
+      <c r="I307" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J307" s="39" t="inlineStr">
+        <is>
+          <t>J7J 0Y4</t>
+        </is>
+      </c>
+      <c r="K307" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L307" s="26"/>
       <c r="M307" s="25"/>
@@ -23369,11 +25134,45 @@
       <c r="O307" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="308">
-      <c r="A308" s="3" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B308" s="25">
-        <v>1192</v>
+      <c r="A308" s="3" t="inlineStr">
+        <is>
+          <t>6467369 Canada Inc. (Mindcore) [Jules Gilbert]</t>
+        </is>
+      </c>
+      <c r="B308" s="25" t="inlineStr">
+        <is>
+          <t>1192</t>
+        </is>
+      </c>
+      <c r="C308" s="39" t="inlineStr">
+        <is>
+          <t>Jules Gilbert</t>
+        </is>
+      </c>
+      <c r="F308" s="39" t="inlineStr">
+        <is>
+          <t>3425 boul. de la Pinière</t>
+        </is>
+      </c>
+      <c r="H308" s="39" t="inlineStr">
+        <is>
+          <t>Terrebonne</t>
+        </is>
+      </c>
+      <c r="I308" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J308" s="39" t="inlineStr">
+        <is>
+          <t>J6X 0A1</t>
+        </is>
+      </c>
+      <c r="K308" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L308" s="26"/>
       <c r="M308" s="25"/>
@@ -23381,11 +25180,45 @@
       <c r="O308" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="309">
-      <c r="A309" s="3" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B309" s="25">
-        <v>1193</v>
+      <c r="A309" s="3" t="inlineStr">
+        <is>
+          <t>Solstice CNC Inc. [Alexandre Desmarais]</t>
+        </is>
+      </c>
+      <c r="B309" s="25" t="inlineStr">
+        <is>
+          <t>1193</t>
+        </is>
+      </c>
+      <c r="C309" s="39" t="inlineStr">
+        <is>
+          <t>Alexandre Desmarais</t>
+        </is>
+      </c>
+      <c r="F309" s="39" t="inlineStr">
+        <is>
+          <t>4911 Chemin de la Savane</t>
+        </is>
+      </c>
+      <c r="H309" s="39" t="inlineStr">
+        <is>
+          <t>Saint-Hubert</t>
+        </is>
+      </c>
+      <c r="I309" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J309" s="39" t="inlineStr">
+        <is>
+          <t>J3Y 9G1</t>
+        </is>
+      </c>
+      <c r="K309" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L309" s="26"/>
       <c r="M309" s="25"/>
@@ -23393,11 +25226,45 @@
       <c r="O309" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="310">
-      <c r="A310" s="3" t="s">
-        <v>3735</v>
-      </c>
-      <c r="B310" s="25">
-        <v>1194</v>
+      <c r="A310" s="3" t="inlineStr">
+        <is>
+          <t>Clinique vétérinaire de Loraine Inc. [Si Toan Phan]</t>
+        </is>
+      </c>
+      <c r="B310" s="25" t="inlineStr">
+        <is>
+          <t>1194</t>
+        </is>
+      </c>
+      <c r="C310" s="39" t="inlineStr">
+        <is>
+          <t>Si Toan Phan</t>
+        </is>
+      </c>
+      <c r="F310" s="39" t="inlineStr">
+        <is>
+          <t>95 boul. de Gaulle</t>
+        </is>
+      </c>
+      <c r="H310" s="39" t="inlineStr">
+        <is>
+          <t>Laurraine</t>
+        </is>
+      </c>
+      <c r="I310" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J310" s="39" t="inlineStr">
+        <is>
+          <t>J6Z 3R8</t>
+        </is>
+      </c>
+      <c r="K310" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L310" s="26"/>
       <c r="M310" s="25"/>
@@ -23405,11 +25272,45 @@
       <c r="O310" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="311">
-      <c r="A311" s="3" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B311" s="25">
-        <v>1195</v>
+      <c r="A311" s="3" t="inlineStr">
+        <is>
+          <t>Les Entreprises N.G.A. Inc. [Martin Joyal]</t>
+        </is>
+      </c>
+      <c r="B311" s="25" t="inlineStr">
+        <is>
+          <t>1195</t>
+        </is>
+      </c>
+      <c r="C311" s="39" t="inlineStr">
+        <is>
+          <t>Martin Joyal</t>
+        </is>
+      </c>
+      <c r="F311" s="39" t="inlineStr">
+        <is>
+          <t>350 rue Rocheleau</t>
+        </is>
+      </c>
+      <c r="H311" s="39" t="inlineStr">
+        <is>
+          <t>Drummondville</t>
+        </is>
+      </c>
+      <c r="I311" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J311" s="39" t="inlineStr">
+        <is>
+          <t>J2C 7S7</t>
+        </is>
+      </c>
+      <c r="K311" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L311" s="26"/>
       <c r="M311" s="25"/>
@@ -23417,11 +25318,45 @@
       <c r="O311" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="312">
-      <c r="A312" s="3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B312" s="25">
-        <v>1196</v>
+      <c r="A312" s="3" t="inlineStr">
+        <is>
+          <t>Les Immeubles Vito Randazzo inc [Rita Randazzo]</t>
+        </is>
+      </c>
+      <c r="B312" s="25" t="inlineStr">
+        <is>
+          <t>1196</t>
+        </is>
+      </c>
+      <c r="C312" s="39" t="inlineStr">
+        <is>
+          <t>Rita Randazzo</t>
+        </is>
+      </c>
+      <c r="F312" s="39" t="inlineStr">
+        <is>
+          <t>5185 rue La Durantaye</t>
+        </is>
+      </c>
+      <c r="H312" s="39" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="I312" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J312" s="39" t="inlineStr">
+        <is>
+          <t>H1R 1Y8</t>
+        </is>
+      </c>
+      <c r="K312" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L312" s="26"/>
       <c r="M312" s="25"/>
@@ -23429,11 +25364,50 @@
       <c r="O312" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="313">
-      <c r="A313" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B313" s="25">
-        <v>1197</v>
+      <c r="A313" s="3" t="inlineStr">
+        <is>
+          <t>Marco Gaggino avocat inc.</t>
+        </is>
+      </c>
+      <c r="B313" s="25" t="inlineStr">
+        <is>
+          <t>1197</t>
+        </is>
+      </c>
+      <c r="C313" s="39" t="inlineStr">
+        <is>
+          <t>Marco Gaggino</t>
+        </is>
+      </c>
+      <c r="F313" s="39" t="inlineStr">
+        <is>
+          <t>6555 boul. Métropolitain Est</t>
+        </is>
+      </c>
+      <c r="G313" s="39" t="inlineStr">
+        <is>
+          <t>Suite 204</t>
+        </is>
+      </c>
+      <c r="H313" s="39" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="I313" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J313" s="39" t="inlineStr">
+        <is>
+          <t>H1P 3H3</t>
+        </is>
+      </c>
+      <c r="K313" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L313" s="26"/>
       <c r="M313" s="25"/>
@@ -23441,11 +25415,45 @@
       <c r="O313" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="314">
-      <c r="A314" s="3" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B314" s="25">
-        <v>1198</v>
+      <c r="A314" s="3" t="inlineStr">
+        <is>
+          <t>Beccor Construction / Habitation Inc. [Bruno Masson]</t>
+        </is>
+      </c>
+      <c r="B314" s="25" t="inlineStr">
+        <is>
+          <t>1198</t>
+        </is>
+      </c>
+      <c r="C314" s="39" t="inlineStr">
+        <is>
+          <t>Bruno Masson</t>
+        </is>
+      </c>
+      <c r="F314" s="39" t="inlineStr">
+        <is>
+          <t>1133 Chemin des Patriotes</t>
+        </is>
+      </c>
+      <c r="H314" s="39" t="inlineStr">
+        <is>
+          <t>Richelieu</t>
+        </is>
+      </c>
+      <c r="I314" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J314" s="39" t="inlineStr">
+        <is>
+          <t>J3L 4T9</t>
+        </is>
+      </c>
+      <c r="K314" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L314" s="26"/>
       <c r="M314" s="25"/>
@@ -23453,11 +25461,45 @@
       <c r="O314" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="315">
-      <c r="A315" s="3" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B315" s="25">
-        <v>1199</v>
+      <c r="A315" s="3" t="inlineStr">
+        <is>
+          <t>9192-4084 Québec Inc. (Procétec) [André Gobeil]</t>
+        </is>
+      </c>
+      <c r="B315" s="25" t="inlineStr">
+        <is>
+          <t>1199</t>
+        </is>
+      </c>
+      <c r="C315" s="39" t="inlineStr">
+        <is>
+          <t>André Gobeil</t>
+        </is>
+      </c>
+      <c r="F315" s="39" t="inlineStr">
+        <is>
+          <t>2225 rue Patenaude</t>
+        </is>
+      </c>
+      <c r="H315" s="39" t="inlineStr">
+        <is>
+          <t>Longueuil</t>
+        </is>
+      </c>
+      <c r="I315" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J315" s="39" t="inlineStr">
+        <is>
+          <t>J3Y 5K2</t>
+        </is>
+      </c>
+      <c r="K315" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L315" s="26"/>
       <c r="M315" s="25"/>
@@ -23465,11 +25507,45 @@
       <c r="O315" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="316">
-      <c r="A316" s="3" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B316" s="25">
-        <v>1200</v>
+      <c r="A316" s="3" t="inlineStr">
+        <is>
+          <t>Coffrages Magma (10 ans) Inc. [Yan Le Houillier]</t>
+        </is>
+      </c>
+      <c r="B316" s="25" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="C316" s="39" t="inlineStr">
+        <is>
+          <t>Yan Le Houillier</t>
+        </is>
+      </c>
+      <c r="F316" s="39" t="inlineStr">
+        <is>
+          <t>1500 rue Marcel-Benoit</t>
+        </is>
+      </c>
+      <c r="H316" s="39" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I316" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J316" s="39" t="inlineStr">
+        <is>
+          <t>H7C 0A9</t>
+        </is>
+      </c>
+      <c r="K316" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L316" s="26"/>
       <c r="M316" s="25"/>
@@ -23477,11 +25553,45 @@
       <c r="O316" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="317">
-      <c r="A317" s="3" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B317" s="25">
-        <v>1201</v>
+      <c r="A317" s="3" t="inlineStr">
+        <is>
+          <t>PE Moreau avocat Inc. [Pierre Moreau]</t>
+        </is>
+      </c>
+      <c r="B317" s="25" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="C317" s="39" t="inlineStr">
+        <is>
+          <t>Pierre Moreau</t>
+        </is>
+      </c>
+      <c r="F317" s="39" t="inlineStr">
+        <is>
+          <t>441 de la Gauchetière Est</t>
+        </is>
+      </c>
+      <c r="H317" s="39" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="I317" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J317" s="39" t="inlineStr">
+        <is>
+          <t>H2L 2M7</t>
+        </is>
+      </c>
+      <c r="K317" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L317" s="26"/>
       <c r="M317" s="25"/>
@@ -23489,11 +25599,50 @@
       <c r="O317" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="318">
-      <c r="A318" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B318" s="25">
-        <v>1202</v>
+      <c r="A318" s="3" t="inlineStr">
+        <is>
+          <t>Courtage conseil Birar inc [André Bilodeau]</t>
+        </is>
+      </c>
+      <c r="B318" s="25" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="C318" s="39" t="inlineStr">
+        <is>
+          <t>André Bilodeau</t>
+        </is>
+      </c>
+      <c r="F318" s="39" t="inlineStr">
+        <is>
+          <t>7900 boel. Taschereau</t>
+        </is>
+      </c>
+      <c r="G318" s="39" t="inlineStr">
+        <is>
+          <t>Suite E-201</t>
+        </is>
+      </c>
+      <c r="H318" s="39" t="inlineStr">
+        <is>
+          <t>Brossard</t>
+        </is>
+      </c>
+      <c r="I318" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J318" s="39" t="inlineStr">
+        <is>
+          <t>J4X 1C2</t>
+        </is>
+      </c>
+      <c r="K318" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L318" s="26"/>
       <c r="M318" s="25"/>
@@ -23501,11 +25650,45 @@
       <c r="O318" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="319">
-      <c r="A319" s="3" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B319" s="25">
-        <v>1203</v>
+      <c r="A319" s="3" t="inlineStr">
+        <is>
+          <t>Les produits Sanitaires Royal Net inc [Riccardo Capocci]</t>
+        </is>
+      </c>
+      <c r="B319" s="25" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+      <c r="C319" s="39" t="inlineStr">
+        <is>
+          <t>Riccardo Capocci</t>
+        </is>
+      </c>
+      <c r="F319" s="39" t="inlineStr">
+        <is>
+          <t>442 rue St-Paul</t>
+        </is>
+      </c>
+      <c r="H319" s="39" t="inlineStr">
+        <is>
+          <t>Le Gardeur</t>
+        </is>
+      </c>
+      <c r="I319" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J319" s="39" t="inlineStr">
+        <is>
+          <t>J5Z 0C8</t>
+        </is>
+      </c>
+      <c r="K319" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L319" s="26"/>
       <c r="M319" s="25"/>
@@ -23513,11 +25696,45 @@
       <c r="O319" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="320">
-      <c r="A320" s="3" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B320" s="25">
-        <v>1204</v>
+      <c r="A320" s="3" t="inlineStr">
+        <is>
+          <t>Service médical privé M.T. Inc. [Jean-Sébastien Portugais]</t>
+        </is>
+      </c>
+      <c r="B320" s="25" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="C320" s="39" t="inlineStr">
+        <is>
+          <t>Jean-Sébastien Portugais</t>
+        </is>
+      </c>
+      <c r="F320" s="39" t="inlineStr">
+        <is>
+          <t>100 boul. De Montarville</t>
+        </is>
+      </c>
+      <c r="H320" s="39" t="inlineStr">
+        <is>
+          <t>Boucherville</t>
+        </is>
+      </c>
+      <c r="I320" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J320" s="39" t="inlineStr">
+        <is>
+          <t>J4B 5M4</t>
+        </is>
+      </c>
+      <c r="K320" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L320" s="26"/>
       <c r="M320" s="25"/>
@@ -23525,11 +25742,45 @@
       <c r="O320" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="321">
-      <c r="A321" s="3" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B321" s="25">
-        <v>1205</v>
+      <c r="A321" s="3" t="inlineStr">
+        <is>
+          <t>Josée Fortin, Massothérapeuthe</t>
+        </is>
+      </c>
+      <c r="B321" s="25" t="inlineStr">
+        <is>
+          <t>1205</t>
+        </is>
+      </c>
+      <c r="C321" s="39" t="inlineStr">
+        <is>
+          <t>Josée Fortin</t>
+        </is>
+      </c>
+      <c r="F321" s="39" t="inlineStr">
+        <is>
+          <t>2229 rue D'Amboise</t>
+        </is>
+      </c>
+      <c r="H321" s="39" t="inlineStr">
+        <is>
+          <t>Mascouche</t>
+        </is>
+      </c>
+      <c r="I321" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J321" s="39" t="inlineStr">
+        <is>
+          <t>J7K 0E6</t>
+        </is>
+      </c>
+      <c r="K321" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L321" s="26"/>
       <c r="M321" s="25"/>
@@ -23537,11 +25788,45 @@
       <c r="O321" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="322">
-      <c r="A322" s="3" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B322" s="25">
-        <v>1206</v>
+      <c r="A322" s="3" t="inlineStr">
+        <is>
+          <t>Gestion GTM Inc. [Gerry Thibeault]</t>
+        </is>
+      </c>
+      <c r="B322" s="25" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="C322" s="39" t="inlineStr">
+        <is>
+          <t>Gerry Thibeault</t>
+        </is>
+      </c>
+      <c r="F322" s="39" t="inlineStr">
+        <is>
+          <t>871 boul. Demers</t>
+        </is>
+      </c>
+      <c r="H322" s="39" t="inlineStr">
+        <is>
+          <t>Chambly</t>
+        </is>
+      </c>
+      <c r="I322" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J322" s="39" t="inlineStr">
+        <is>
+          <t>J3L 1E4</t>
+        </is>
+      </c>
+      <c r="K322" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L322" s="26"/>
       <c r="M322" s="25"/>
@@ -23549,11 +25834,40 @@
       <c r="O322" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="323">
-      <c r="A323" s="3" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B323" s="25">
-        <v>1207</v>
+      <c r="A323" s="3" t="inlineStr">
+        <is>
+          <t>Alain Payette</t>
+        </is>
+      </c>
+      <c r="B323" s="25" t="inlineStr">
+        <is>
+          <t>1207</t>
+        </is>
+      </c>
+      <c r="F323" s="39" t="inlineStr">
+        <is>
+          <t>2395 Beaubien Est</t>
+        </is>
+      </c>
+      <c r="H323" s="39" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="I323" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J323" s="39" t="inlineStr">
+        <is>
+          <t>H2G 1N3</t>
+        </is>
+      </c>
+      <c r="K323" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L323" s="26"/>
       <c r="M323" s="25"/>
@@ -23561,11 +25875,45 @@
       <c r="O323" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="324">
-      <c r="A324" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B324" s="25">
-        <v>1208</v>
+      <c r="A324" s="3" t="inlineStr">
+        <is>
+          <t>Rénotech P.G.P. [Sylvain Provost]</t>
+        </is>
+      </c>
+      <c r="B324" s="25" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="C324" s="39" t="inlineStr">
+        <is>
+          <t>Sylvain Provost</t>
+        </is>
+      </c>
+      <c r="F324" s="39" t="inlineStr">
+        <is>
+          <t>645 boul. Laurier</t>
+        </is>
+      </c>
+      <c r="H324" s="39" t="inlineStr">
+        <is>
+          <t>Sainte-Madeleine</t>
+        </is>
+      </c>
+      <c r="I324" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J324" s="39" t="inlineStr">
+        <is>
+          <t>J0H 1S0</t>
+        </is>
+      </c>
+      <c r="K324" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L324" s="26"/>
       <c r="M324" s="25"/>
@@ -23573,11 +25921,45 @@
       <c r="O324" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="325">
-      <c r="A325" s="3" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B325" s="25">
-        <v>1209</v>
+      <c r="A325" s="3" t="inlineStr">
+        <is>
+          <t>9285-7325 Québec inc [Guillaume Trudel-Mercier]</t>
+        </is>
+      </c>
+      <c r="B325" s="25" t="inlineStr">
+        <is>
+          <t>1209</t>
+        </is>
+      </c>
+      <c r="C325" s="39" t="inlineStr">
+        <is>
+          <t>Guillaume Trudel-Mercier</t>
+        </is>
+      </c>
+      <c r="F325" s="39" t="inlineStr">
+        <is>
+          <t>625 rue Ouimet</t>
+        </is>
+      </c>
+      <c r="H325" s="39" t="inlineStr">
+        <is>
+          <t>Terrebonne</t>
+        </is>
+      </c>
+      <c r="I325" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J325" s="39" t="inlineStr">
+        <is>
+          <t>J6W 3B1</t>
+        </is>
+      </c>
+      <c r="K325" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L325" s="26"/>
       <c r="M325" s="25"/>
@@ -23585,11 +25967,45 @@
       <c r="O325" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="326">
-      <c r="A326" s="3" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B326" s="25">
-        <v>1210</v>
+      <c r="A326" s="3" t="inlineStr">
+        <is>
+          <t>Vape-Dépôt Distribution Inc. [Dina Girard]</t>
+        </is>
+      </c>
+      <c r="B326" s="25" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="C326" s="39" t="inlineStr">
+        <is>
+          <t>Dina Girard</t>
+        </is>
+      </c>
+      <c r="F326" s="39" t="inlineStr">
+        <is>
+          <t>175 rue Pigeon</t>
+        </is>
+      </c>
+      <c r="H326" s="39" t="inlineStr">
+        <is>
+          <t>Saint-Calixte</t>
+        </is>
+      </c>
+      <c r="I326" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J326" s="39" t="inlineStr">
+        <is>
+          <t>J0K 1Z0</t>
+        </is>
+      </c>
+      <c r="K326" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L326" s="26"/>
       <c r="M326" s="25"/>
@@ -23597,11 +26013,45 @@
       <c r="O326" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="327">
-      <c r="A327" s="3" t="s">
-        <v>3736</v>
-      </c>
-      <c r="B327" s="25">
-        <v>1211</v>
+      <c r="A327" s="3" t="inlineStr">
+        <is>
+          <t>9163-2563 Québec Inc. [Micah Dass]</t>
+        </is>
+      </c>
+      <c r="B327" s="25" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="C327" s="39" t="inlineStr">
+        <is>
+          <t>Micah Dass</t>
+        </is>
+      </c>
+      <c r="F327" s="39" t="inlineStr">
+        <is>
+          <t>708 rue des Perdrix</t>
+        </is>
+      </c>
+      <c r="H327" s="39" t="inlineStr">
+        <is>
+          <t>Saint-Michel</t>
+        </is>
+      </c>
+      <c r="I327" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J327" s="39" t="inlineStr">
+        <is>
+          <t>J0L 2J0</t>
+        </is>
+      </c>
+      <c r="K327" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L327" s="26"/>
       <c r="M327" s="25"/>
@@ -23609,11 +26059,45 @@
       <c r="O327" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="328">
-      <c r="A328" s="3" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B328" s="25">
-        <v>1212</v>
+      <c r="A328" s="3" t="inlineStr">
+        <is>
+          <t>Julie Boivin, M.D. Inc. [Dr Julie Boivin]</t>
+        </is>
+      </c>
+      <c r="B328" s="25" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="C328" s="39" t="inlineStr">
+        <is>
+          <t>Dr Julie Boivin</t>
+        </is>
+      </c>
+      <c r="F328" s="39" t="inlineStr">
+        <is>
+          <t>130 3ème Rang Ouest</t>
+        </is>
+      </c>
+      <c r="H328" s="39" t="inlineStr">
+        <is>
+          <t>New Richmond</t>
+        </is>
+      </c>
+      <c r="I328" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J328" s="39" t="inlineStr">
+        <is>
+          <t>G0C 2B0</t>
+        </is>
+      </c>
+      <c r="K328" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L328" s="26"/>
       <c r="M328" s="25"/>
@@ -23621,11 +26105,45 @@
       <c r="O328" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="329">
-      <c r="A329" s="3" t="s">
-        <v>3737</v>
-      </c>
-      <c r="B329" s="25">
-        <v>1213</v>
+      <c r="A329" s="3" t="inlineStr">
+        <is>
+          <t>9030-1425 Québec inc. [Pierre Niceforo]</t>
+        </is>
+      </c>
+      <c r="B329" s="25" t="inlineStr">
+        <is>
+          <t>1213</t>
+        </is>
+      </c>
+      <c r="C329" s="39" t="inlineStr">
+        <is>
+          <t>Pierre Niceforo</t>
+        </is>
+      </c>
+      <c r="F329" s="39" t="inlineStr">
+        <is>
+          <t>706 rue de la Visitation</t>
+        </is>
+      </c>
+      <c r="H329" s="39" t="inlineStr">
+        <is>
+          <t>Saint-Charles-Borromée</t>
+        </is>
+      </c>
+      <c r="I329" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J329" s="39" t="inlineStr">
+        <is>
+          <t>J6E 7S3</t>
+        </is>
+      </c>
+      <c r="K329" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L329" s="26"/>
       <c r="M329" s="25"/>
@@ -23633,11 +26151,45 @@
       <c r="O329" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="330">
-      <c r="A330" s="3" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B330" s="25">
-        <v>1214</v>
+      <c r="A330" s="3" t="inlineStr">
+        <is>
+          <t>Groupe Latitude Inc. [Gaétan Breault]</t>
+        </is>
+      </c>
+      <c r="B330" s="25" t="inlineStr">
+        <is>
+          <t>1214</t>
+        </is>
+      </c>
+      <c r="C330" s="39" t="inlineStr">
+        <is>
+          <t>Gaétan Breault</t>
+        </is>
+      </c>
+      <c r="F330" s="39" t="inlineStr">
+        <is>
+          <t>700 rue Notre-Dame</t>
+        </is>
+      </c>
+      <c r="H330" s="39" t="inlineStr">
+        <is>
+          <t>Lavaltrie</t>
+        </is>
+      </c>
+      <c r="I330" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J330" s="39" t="inlineStr">
+        <is>
+          <t>J5T 1L1</t>
+        </is>
+      </c>
+      <c r="K330" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L330" s="26"/>
       <c r="M330" s="25"/>
@@ -23645,11 +26197,45 @@
       <c r="O330" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="331">
-      <c r="A331" s="3" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B331" s="25">
-        <v>1215</v>
+      <c r="A331" s="3" t="inlineStr">
+        <is>
+          <t>Gestion Pierre Sabourin inc</t>
+        </is>
+      </c>
+      <c r="B331" s="25" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="C331" s="39" t="inlineStr">
+        <is>
+          <t>Pierre Sabourin</t>
+        </is>
+      </c>
+      <c r="F331" s="39" t="inlineStr">
+        <is>
+          <t>475 Chemin des Patriotes N</t>
+        </is>
+      </c>
+      <c r="H331" s="39" t="inlineStr">
+        <is>
+          <t>Mont-Saint-Hilaire</t>
+        </is>
+      </c>
+      <c r="I331" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J331" s="39" t="inlineStr">
+        <is>
+          <t>J3H 3H7</t>
+        </is>
+      </c>
+      <c r="K331" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L331" s="26"/>
       <c r="M331" s="25"/>
@@ -23657,11 +26243,45 @@
       <c r="O331" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="332">
-      <c r="A332" s="3" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B332" s="25">
-        <v>1216</v>
+      <c r="A332" s="3" t="inlineStr">
+        <is>
+          <t>Studio D (1992) Inc. [François Gadbois]</t>
+        </is>
+      </c>
+      <c r="B332" s="25" t="inlineStr">
+        <is>
+          <t>1216</t>
+        </is>
+      </c>
+      <c r="C332" s="39" t="inlineStr">
+        <is>
+          <t>François Gadbois</t>
+        </is>
+      </c>
+      <c r="F332" s="39" t="inlineStr">
+        <is>
+          <t>4351 rue Notre-Dame Ouest</t>
+        </is>
+      </c>
+      <c r="H332" s="39" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="I332" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J332" s="39" t="inlineStr">
+        <is>
+          <t>H4C 1R9</t>
+        </is>
+      </c>
+      <c r="K332" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L332" s="26"/>
       <c r="M332" s="25"/>
@@ -23669,11 +26289,45 @@
       <c r="O332" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="333">
-      <c r="A333" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B333" s="25">
-        <v>1217</v>
+      <c r="A333" s="3" t="inlineStr">
+        <is>
+          <t>Protection Incendie fédéral Inc. [Dominic Tremblay]</t>
+        </is>
+      </c>
+      <c r="B333" s="25" t="inlineStr">
+        <is>
+          <t>1217</t>
+        </is>
+      </c>
+      <c r="C333" s="39" t="inlineStr">
+        <is>
+          <t>Dominic Tremblay</t>
+        </is>
+      </c>
+      <c r="F333" s="39" t="inlineStr">
+        <is>
+          <t>1041 rue des Forges</t>
+        </is>
+      </c>
+      <c r="H333" s="39" t="inlineStr">
+        <is>
+          <t>Terrebonne</t>
+        </is>
+      </c>
+      <c r="I333" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J333" s="39" t="inlineStr">
+        <is>
+          <t>J6Y 0J9</t>
+        </is>
+      </c>
+      <c r="K333" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L333" s="26"/>
       <c r="M333" s="25"/>
@@ -23693,11 +26347,45 @@
       <c r="O334" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="335">
-      <c r="A335" s="3" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B335" s="25">
-        <v>1219</v>
+      <c r="A335" s="3" t="inlineStr">
+        <is>
+          <t>Instal-O-Gaz inc. [Nancy Meredith]</t>
+        </is>
+      </c>
+      <c r="B335" s="25" t="inlineStr">
+        <is>
+          <t>1219</t>
+        </is>
+      </c>
+      <c r="C335" s="39" t="inlineStr">
+        <is>
+          <t>Nancy Meredith</t>
+        </is>
+      </c>
+      <c r="F335" s="39" t="inlineStr">
+        <is>
+          <t>1393 avenue de Normandie</t>
+        </is>
+      </c>
+      <c r="H335" s="39" t="inlineStr">
+        <is>
+          <t>Mascouche</t>
+        </is>
+      </c>
+      <c r="I335" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J335" s="39" t="inlineStr">
+        <is>
+          <t>J7L 0A3</t>
+        </is>
+      </c>
+      <c r="K335" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L335" s="26"/>
       <c r="M335" s="25"/>
@@ -23705,11 +26393,45 @@
       <c r="O335" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="336">
-      <c r="A336" s="3" t="s">
-        <v>3738</v>
-      </c>
-      <c r="B336" s="25">
-        <v>1220</v>
+      <c r="A336" s="3" t="inlineStr">
+        <is>
+          <t>9179-6847 Québec Inc. (Scrapbooking Céramique) [Geneviève Séguin]</t>
+        </is>
+      </c>
+      <c r="B336" s="25" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="C336" s="39" t="inlineStr">
+        <is>
+          <t>Geneviève Séguin</t>
+        </is>
+      </c>
+      <c r="F336" s="39" t="inlineStr">
+        <is>
+          <t>378 boul. de l'Ange-Gardien</t>
+        </is>
+      </c>
+      <c r="H336" s="39" t="inlineStr">
+        <is>
+          <t>L'Assomption</t>
+        </is>
+      </c>
+      <c r="I336" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J336" s="39" t="inlineStr">
+        <is>
+          <t>J5W 1S5</t>
+        </is>
+      </c>
+      <c r="K336" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L336" s="26"/>
       <c r="M336" s="25"/>
@@ -23717,11 +26439,45 @@
       <c r="O336" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="337">
-      <c r="A337" s="3" t="s">
-        <v>3739</v>
-      </c>
-      <c r="B337" s="25">
-        <v>1221</v>
+      <c r="A337" s="3" t="inlineStr">
+        <is>
+          <t>9216-1819 Québec Inc. [François Germano]</t>
+        </is>
+      </c>
+      <c r="B337" s="25" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="C337" s="39" t="inlineStr">
+        <is>
+          <t>François Germano</t>
+        </is>
+      </c>
+      <c r="F337" s="39" t="inlineStr">
+        <is>
+          <t>4337 rue d'Assigny</t>
+        </is>
+      </c>
+      <c r="H337" s="39" t="inlineStr">
+        <is>
+          <t>Terrebonne</t>
+        </is>
+      </c>
+      <c r="I337" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J337" s="39" t="inlineStr">
+        <is>
+          <t>J6X 1N9</t>
+        </is>
+      </c>
+      <c r="K337" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L337" s="26"/>
       <c r="M337" s="25"/>
@@ -23729,11 +26485,45 @@
       <c r="O337" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="338">
-      <c r="A338" s="3" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B338" s="25">
-        <v>1222</v>
+      <c r="A338" s="3" t="inlineStr">
+        <is>
+          <t>9112-2432 Québec Inc. (Piscine Instech) [Gilles Lachance]</t>
+        </is>
+      </c>
+      <c r="B338" s="25" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="C338" s="39" t="inlineStr">
+        <is>
+          <t>Gilles Lachance</t>
+        </is>
+      </c>
+      <c r="F338" s="39" t="inlineStr">
+        <is>
+          <t>1336 rue Azalée</t>
+        </is>
+      </c>
+      <c r="H338" s="39" t="inlineStr">
+        <is>
+          <t>L'Assomption</t>
+        </is>
+      </c>
+      <c r="I338" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J338" s="39" t="inlineStr">
+        <is>
+          <t>J5W 5V4</t>
+        </is>
+      </c>
+      <c r="K338" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L338" s="26"/>
       <c r="M338" s="25"/>
@@ -23741,11 +26531,45 @@
       <c r="O338" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="339">
-      <c r="A339" s="3" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B339" s="25">
-        <v>1223</v>
+      <c r="A339" s="3" t="inlineStr">
+        <is>
+          <t>Bablito Industries inc [Manon Lamarche / Stéphane Guitard]</t>
+        </is>
+      </c>
+      <c r="B339" s="25" t="inlineStr">
+        <is>
+          <t>1223</t>
+        </is>
+      </c>
+      <c r="C339" s="39" t="inlineStr">
+        <is>
+          <t>Manon Lamarche / Stéphane Guitard</t>
+        </is>
+      </c>
+      <c r="F339" s="39" t="inlineStr">
+        <is>
+          <t>465 Félicien</t>
+        </is>
+      </c>
+      <c r="H339" s="39" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="I339" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J339" s="39" t="inlineStr">
+        <is>
+          <t>H7P 3B1</t>
+        </is>
+      </c>
+      <c r="K339" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L339" s="26"/>
       <c r="M339" s="25"/>
@@ -23753,11 +26577,45 @@
       <c r="O339" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="340">
-      <c r="A340" s="3" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B340" s="25">
-        <v>1224</v>
+      <c r="A340" s="3" t="inlineStr">
+        <is>
+          <t>Atome Inspection inc [Gregory Savciuc]</t>
+        </is>
+      </c>
+      <c r="B340" s="25" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="C340" s="39" t="inlineStr">
+        <is>
+          <t>Gregory Savciuc</t>
+        </is>
+      </c>
+      <c r="F340" s="39" t="inlineStr">
+        <is>
+          <t>630 1re Avenue</t>
+        </is>
+      </c>
+      <c r="H340" s="39" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="I340" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J340" s="39" t="inlineStr">
+        <is>
+          <t>H8S 2S5</t>
+        </is>
+      </c>
+      <c r="K340" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L340" s="26"/>
       <c r="M340" s="25"/>
@@ -23765,11 +26623,45 @@
       <c r="O340" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="341">
-      <c r="A341" s="3" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B341" s="25">
-        <v>1225</v>
+      <c r="A341" s="3" t="inlineStr">
+        <is>
+          <t>Stor-All Mini-Entrepôt inc [Luc Beauchemin]</t>
+        </is>
+      </c>
+      <c r="B341" s="25" t="inlineStr">
+        <is>
+          <t>1225</t>
+        </is>
+      </c>
+      <c r="C341" s="39" t="inlineStr">
+        <is>
+          <t>Luc Beauchemin</t>
+        </is>
+      </c>
+      <c r="F341" s="39" t="inlineStr">
+        <is>
+          <t>9275 rue Boivin</t>
+        </is>
+      </c>
+      <c r="H341" s="39" t="inlineStr">
+        <is>
+          <t>Lasalle</t>
+        </is>
+      </c>
+      <c r="I341" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J341" s="39" t="inlineStr">
+        <is>
+          <t>H8R 2E8</t>
+        </is>
+      </c>
+      <c r="K341" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L341" s="26"/>
       <c r="M341" s="25"/>
@@ -23779,7 +26671,7 @@
     <row spans="1:15" outlineLevel="0" r="342">
       <c r="A342" s="3" t="inlineStr">
         <is>
-          <t>Climatisation Repentigny [Joe Nobody]</t>
+          <t>9273-3369 Québec Inc. (Climatisation Repentigny) [Guy Gignac]</t>
         </is>
       </c>
       <c r="B342" s="25" t="inlineStr">
@@ -23789,7 +26681,32 @@
       </c>
       <c r="C342" s="39" t="inlineStr">
         <is>
-          <t>Joe Nobody</t>
+          <t>Guy Gignac</t>
+        </is>
+      </c>
+      <c r="F342" s="39" t="inlineStr">
+        <is>
+          <t>675B rue Notre-Dame</t>
+        </is>
+      </c>
+      <c r="H342" s="39" t="inlineStr">
+        <is>
+          <t>Repentigny</t>
+        </is>
+      </c>
+      <c r="I342" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J342" s="39" t="inlineStr">
+        <is>
+          <t>J6A 2W5</t>
+        </is>
+      </c>
+      <c r="K342" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
         </is>
       </c>
       <c r="L342" s="26"/>
@@ -23798,11 +26715,50 @@
       <c r="O342" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="343">
-      <c r="A343" s="3" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B343" s="25">
-        <v>1231</v>
+      <c r="A343" s="3" t="inlineStr">
+        <is>
+          <t>Services fiscaux Legault, Optiprint Inc. [André Legault]</t>
+        </is>
+      </c>
+      <c r="B343" s="25" t="inlineStr">
+        <is>
+          <t>1231</t>
+        </is>
+      </c>
+      <c r="C343" s="39" t="inlineStr">
+        <is>
+          <t>André Legault</t>
+        </is>
+      </c>
+      <c r="F343" s="39" t="inlineStr">
+        <is>
+          <t>993 Montée Masson</t>
+        </is>
+      </c>
+      <c r="G343" s="39" t="inlineStr">
+        <is>
+          <t>Bureau 202</t>
+        </is>
+      </c>
+      <c r="H343" s="39" t="inlineStr">
+        <is>
+          <t>Terrebonne</t>
+        </is>
+      </c>
+      <c r="I343" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J343" s="39" t="inlineStr">
+        <is>
+          <t>J6W 3A3</t>
+        </is>
+      </c>
+      <c r="K343" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L343" s="26"/>
       <c r="M343" s="25"/>
@@ -23810,11 +26766,45 @@
       <c r="O343" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="344">
-      <c r="A344" s="3" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B344" s="25">
-        <v>1232</v>
+      <c r="A344" s="3" t="inlineStr">
+        <is>
+          <t>Services Conseils et Gestion MB Inc. [Mélanie Bonhomme]</t>
+        </is>
+      </c>
+      <c r="B344" s="25" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
+      <c r="C344" s="39" t="inlineStr">
+        <is>
+          <t>Mélanie Bonhomme</t>
+        </is>
+      </c>
+      <c r="F344" s="39" t="inlineStr">
+        <is>
+          <t>51 François Baillarge</t>
+        </is>
+      </c>
+      <c r="H344" s="39" t="inlineStr">
+        <is>
+          <t>Blainville</t>
+        </is>
+      </c>
+      <c r="I344" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J344" s="39" t="inlineStr">
+        <is>
+          <t>J7C 5X8</t>
+        </is>
+      </c>
+      <c r="K344" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L344" s="26"/>
       <c r="M344" s="25"/>
@@ -23834,11 +26824,45 @@
       <c r="O345" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="346">
-      <c r="A346" s="3" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B346" s="25">
-        <v>1234</v>
+      <c r="A346" s="3" t="inlineStr">
+        <is>
+          <t>Développement d'affaires Gaétan Bolduc Inc.</t>
+        </is>
+      </c>
+      <c r="B346" s="25" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="C346" s="39" t="inlineStr">
+        <is>
+          <t>Gaétan Bolduc</t>
+        </is>
+      </c>
+      <c r="F346" s="39" t="inlineStr">
+        <is>
+          <t>918 rue des Merisiers</t>
+        </is>
+      </c>
+      <c r="H346" s="39" t="inlineStr">
+        <is>
+          <t>St-Jean-Chrysostome</t>
+        </is>
+      </c>
+      <c r="I346" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J346" s="39" t="inlineStr">
+        <is>
+          <t>G6Z 3G3</t>
+        </is>
+      </c>
+      <c r="K346" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L346" s="26"/>
       <c r="M346" s="25"/>
@@ -23858,11 +26882,50 @@
       <c r="O347" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="348">
-      <c r="A348" s="3" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B348" s="25">
-        <v>1236</v>
+      <c r="A348" s="3" t="inlineStr">
+        <is>
+          <t>Brigitte Martin Avocate Inc.</t>
+        </is>
+      </c>
+      <c r="B348" s="25" t="inlineStr">
+        <is>
+          <t>1236</t>
+        </is>
+      </c>
+      <c r="C348" s="39" t="inlineStr">
+        <is>
+          <t>Brigitte Martin</t>
+        </is>
+      </c>
+      <c r="F348" s="39" t="inlineStr">
+        <is>
+          <t>7333 Place des Roseraies</t>
+        </is>
+      </c>
+      <c r="G348" s="39" t="inlineStr">
+        <is>
+          <t>Suite 202</t>
+        </is>
+      </c>
+      <c r="H348" s="39" t="inlineStr">
+        <is>
+          <t>Anjou</t>
+        </is>
+      </c>
+      <c r="I348" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J348" s="39" t="inlineStr">
+        <is>
+          <t>H1M 2X6</t>
+        </is>
+      </c>
+      <c r="K348" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L348" s="26"/>
       <c r="M348" s="25"/>
@@ -23882,11 +26945,40 @@
       <c r="O349" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="350">
-      <c r="A350" s="3" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B350" s="25">
-        <v>1238</v>
+      <c r="A350" s="3" t="inlineStr">
+        <is>
+          <t>Yves Chaput</t>
+        </is>
+      </c>
+      <c r="B350" s="25" t="inlineStr">
+        <is>
+          <t>1238</t>
+        </is>
+      </c>
+      <c r="F350" s="39" t="inlineStr">
+        <is>
+          <t>1825 Colbert</t>
+        </is>
+      </c>
+      <c r="H350" s="39" t="inlineStr">
+        <is>
+          <t>Saint-Hyacinthe</t>
+        </is>
+      </c>
+      <c r="I350" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J350" s="39" t="inlineStr">
+        <is>
+          <t>J2S 7J8</t>
+        </is>
+      </c>
+      <c r="K350" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L350" s="26"/>
       <c r="M350" s="25"/>
@@ -23894,11 +26986,45 @@
       <c r="O350" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="351">
-      <c r="A351" s="3" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B351" s="25">
-        <v>1239</v>
+      <c r="A351" s="3" t="inlineStr">
+        <is>
+          <t>9326-3820 Québec Inc. (Taverne du Sud) [Pierre Meloche]</t>
+        </is>
+      </c>
+      <c r="B351" s="25" t="inlineStr">
+        <is>
+          <t>1239</t>
+        </is>
+      </c>
+      <c r="C351" s="39" t="inlineStr">
+        <is>
+          <t>Pierre Meloche</t>
+        </is>
+      </c>
+      <c r="F351" s="39" t="inlineStr">
+        <is>
+          <t>892 rue Laviolette</t>
+        </is>
+      </c>
+      <c r="H351" s="39" t="inlineStr">
+        <is>
+          <t>Longueuil</t>
+        </is>
+      </c>
+      <c r="I351" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J351" s="39" t="inlineStr">
+        <is>
+          <t>J4J 4R3</t>
+        </is>
+      </c>
+      <c r="K351" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L351" s="26"/>
       <c r="M351" s="25"/>
@@ -23908,7 +27034,7 @@
     <row spans="1:15" outlineLevel="0" r="352">
       <c r="A352" s="3" t="inlineStr">
         <is>
-          <t>Fleury Formes inc [Test]</t>
+          <t>Fleury Formes inc [Sylvie Ouellet]</t>
         </is>
       </c>
       <c r="B352" s="25" t="inlineStr">
@@ -23918,7 +27044,32 @@
       </c>
       <c r="C352" s="39" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Sylvie Ouellet</t>
+        </is>
+      </c>
+      <c r="F352" s="39" t="inlineStr">
+        <is>
+          <t>48 Rang Sainte-Claire</t>
+        </is>
+      </c>
+      <c r="H352" s="39" t="inlineStr">
+        <is>
+          <t>Sainte-Anne-des-Plaines</t>
+        </is>
+      </c>
+      <c r="I352" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J352" s="39" t="inlineStr">
+        <is>
+          <t>J0N 1H0</t>
+        </is>
+      </c>
+      <c r="K352" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
         </is>
       </c>
       <c r="L352" s="26"/>
@@ -23929,7 +27080,7 @@
     <row spans="1:15" outlineLevel="0" r="353">
       <c r="A353" s="3" t="inlineStr">
         <is>
-          <t>9165-6538 Québec inc [Phon Chau Tan]</t>
+          <t>9165-6538 Québec inc. [Phon Chau Tan]</t>
         </is>
       </c>
       <c r="B353" s="25" t="inlineStr">
@@ -23939,12 +27090,32 @@
       </c>
       <c r="C353" s="39" t="inlineStr">
         <is>
-          <t>Mr. Wong</t>
-        </is>
-      </c>
-      <c r="D353" s="39" t="inlineStr">
-        <is>
-          <t>President</t>
+          <t>Phon Chau Tan</t>
+        </is>
+      </c>
+      <c r="F353" s="39" t="inlineStr">
+        <is>
+          <t>7288 13ème Avenue</t>
+        </is>
+      </c>
+      <c r="H353" s="39" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="I353" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J353" s="39" t="inlineStr">
+        <is>
+          <t>H2A 2X5</t>
+        </is>
+      </c>
+      <c r="K353" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
         </is>
       </c>
       <c r="L353" s="26"/>
@@ -23953,11 +27124,45 @@
       <c r="O353" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="354">
-      <c r="A354" s="3" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B354" s="25">
-        <v>1242</v>
+      <c r="A354" s="3" t="inlineStr">
+        <is>
+          <t>Gestion D. Apointe (Isolant VIP Inc.) [Denis Lapointe]</t>
+        </is>
+      </c>
+      <c r="B354" s="25" t="inlineStr">
+        <is>
+          <t>1242</t>
+        </is>
+      </c>
+      <c r="C354" s="39" t="inlineStr">
+        <is>
+          <t>Denis Lapointe</t>
+        </is>
+      </c>
+      <c r="F354" s="39" t="inlineStr">
+        <is>
+          <t>529 rue des Riverains</t>
+        </is>
+      </c>
+      <c r="H354" s="39" t="inlineStr">
+        <is>
+          <t>Lavaltrie</t>
+        </is>
+      </c>
+      <c r="I354" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J354" s="39" t="inlineStr">
+        <is>
+          <t>J5T 1H8</t>
+        </is>
+      </c>
+      <c r="K354" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L354" s="26"/>
       <c r="M354" s="25"/>
@@ -23965,11 +27170,45 @@
       <c r="O354" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="355">
-      <c r="A355" s="3" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B355" s="25">
-        <v>1243</v>
+      <c r="A355" s="3" t="inlineStr">
+        <is>
+          <t>Équipe Univers Selle Inc. [Orphélie Michel]</t>
+        </is>
+      </c>
+      <c r="B355" s="25" t="inlineStr">
+        <is>
+          <t>1243</t>
+        </is>
+      </c>
+      <c r="C355" s="39" t="inlineStr">
+        <is>
+          <t>Orphélie Michel</t>
+        </is>
+      </c>
+      <c r="F355" s="39" t="inlineStr">
+        <is>
+          <t>670 rue Poitras</t>
+        </is>
+      </c>
+      <c r="H355" s="39" t="inlineStr">
+        <is>
+          <t>L'Épiphanie</t>
+        </is>
+      </c>
+      <c r="I355" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J355" s="39" t="inlineStr">
+        <is>
+          <t>J5X 4K3</t>
+        </is>
+      </c>
+      <c r="K355" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L355" s="26"/>
       <c r="M355" s="25"/>
@@ -23977,11 +27216,45 @@
       <c r="O355" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="356">
-      <c r="A356" s="3" t="s">
-        <v>3741</v>
-      </c>
-      <c r="B356" s="25">
-        <v>1244</v>
+      <c r="A356" s="3" t="inlineStr">
+        <is>
+          <t>9229-8850 Québec inc (Liquidation 125) [Alain Martel]</t>
+        </is>
+      </c>
+      <c r="B356" s="25" t="inlineStr">
+        <is>
+          <t>1244</t>
+        </is>
+      </c>
+      <c r="C356" s="39" t="inlineStr">
+        <is>
+          <t>Alain Martel</t>
+        </is>
+      </c>
+      <c r="F356" s="39" t="inlineStr">
+        <is>
+          <t>6759 boul. Pontbriand</t>
+        </is>
+      </c>
+      <c r="H356" s="39" t="inlineStr">
+        <is>
+          <t>Rawdon</t>
+        </is>
+      </c>
+      <c r="I356" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J356" s="39" t="inlineStr">
+        <is>
+          <t>J0K 1S0</t>
+        </is>
+      </c>
+      <c r="K356" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L356" s="26"/>
       <c r="M356" s="25"/>
@@ -23989,11 +27262,45 @@
       <c r="O356" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="357">
-      <c r="A357" s="3" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B357" s="25">
-        <v>1245</v>
+      <c r="A357" s="3" t="inlineStr">
+        <is>
+          <t>Gestion Carlos Cordoba Inc.</t>
+        </is>
+      </c>
+      <c r="B357" s="25" t="inlineStr">
+        <is>
+          <t>1245</t>
+        </is>
+      </c>
+      <c r="C357" s="39" t="inlineStr">
+        <is>
+          <t>Carlos Cordoba</t>
+        </is>
+      </c>
+      <c r="F357" s="39" t="inlineStr">
+        <is>
+          <t>1705 Socrate</t>
+        </is>
+      </c>
+      <c r="H357" s="39" t="inlineStr">
+        <is>
+          <t>Brossard</t>
+        </is>
+      </c>
+      <c r="I357" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J357" s="39" t="inlineStr">
+        <is>
+          <t>J4X 1L6</t>
+        </is>
+      </c>
+      <c r="K357" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L357" s="26"/>
       <c r="M357" s="25"/>
@@ -24001,11 +27308,45 @@
       <c r="O357" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="358">
-      <c r="A358" s="3" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B358" s="25">
-        <v>1246</v>
+      <c r="A358" s="3" t="inlineStr">
+        <is>
+          <t>Fiducie Stéphane Simard 2015 (Coffrage Henri Simard Inc.) [Manon L'Archevesque]</t>
+        </is>
+      </c>
+      <c r="B358" s="25" t="inlineStr">
+        <is>
+          <t>1246</t>
+        </is>
+      </c>
+      <c r="C358" s="39" t="inlineStr">
+        <is>
+          <t>Manon L'Archevesque</t>
+        </is>
+      </c>
+      <c r="F358" s="39" t="inlineStr">
+        <is>
+          <t>137 rue des Outardes</t>
+        </is>
+      </c>
+      <c r="H358" s="39" t="inlineStr">
+        <is>
+          <t>Terrebonne</t>
+        </is>
+      </c>
+      <c r="I358" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J358" s="39" t="inlineStr">
+        <is>
+          <t>J6W 6G2</t>
+        </is>
+      </c>
+      <c r="K358" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L358" s="26"/>
       <c r="M358" s="25"/>
@@ -24013,11 +27354,45 @@
       <c r="O358" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="359">
-      <c r="A359" s="3" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B359" s="25">
-        <v>1247</v>
+      <c r="A359" s="3" t="inlineStr">
+        <is>
+          <t>Artotech intégration inc [Marc Bonin]</t>
+        </is>
+      </c>
+      <c r="B359" s="25" t="inlineStr">
+        <is>
+          <t>1247</t>
+        </is>
+      </c>
+      <c r="C359" s="39" t="inlineStr">
+        <is>
+          <t>Marc Bonin</t>
+        </is>
+      </c>
+      <c r="F359" s="39" t="inlineStr">
+        <is>
+          <t>953 rue des Forges</t>
+        </is>
+      </c>
+      <c r="H359" s="39" t="inlineStr">
+        <is>
+          <t>Terrebonne</t>
+        </is>
+      </c>
+      <c r="I359" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J359" s="39" t="inlineStr">
+        <is>
+          <t>J6Y 0A9</t>
+        </is>
+      </c>
+      <c r="K359" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L359" s="26"/>
       <c r="M359" s="25"/>
@@ -24025,11 +27400,45 @@
       <c r="O359" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="360">
-      <c r="A360" s="3" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B360" s="25">
-        <v>1248</v>
+      <c r="A360" s="3" t="inlineStr">
+        <is>
+          <t>Les entreprises Christine Chapeau inc.</t>
+        </is>
+      </c>
+      <c r="B360" s="25" t="inlineStr">
+        <is>
+          <t>1248</t>
+        </is>
+      </c>
+      <c r="C360" s="39" t="inlineStr">
+        <is>
+          <t>Christine Chapeau</t>
+        </is>
+      </c>
+      <c r="F360" s="39" t="inlineStr">
+        <is>
+          <t>4380 rue Bouchard</t>
+        </is>
+      </c>
+      <c r="H360" s="39" t="inlineStr">
+        <is>
+          <t>Saint-Hubert</t>
+        </is>
+      </c>
+      <c r="I360" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J360" s="39" t="inlineStr">
+        <is>
+          <t>J3Y 6H8</t>
+        </is>
+      </c>
+      <c r="K360" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L360" s="26"/>
       <c r="M360" s="25"/>
@@ -24037,11 +27446,40 @@
       <c r="O360" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="361">
-      <c r="A361" s="3" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B361" s="25">
-        <v>1249</v>
+      <c r="A361" s="3" t="inlineStr">
+        <is>
+          <t>Les Plantations De Wolfe Ltée</t>
+        </is>
+      </c>
+      <c r="B361" s="25" t="inlineStr">
+        <is>
+          <t>1249</t>
+        </is>
+      </c>
+      <c r="F361" s="39" t="inlineStr">
+        <is>
+          <t>181 rue St-Jean Nord Est</t>
+        </is>
+      </c>
+      <c r="H361" s="39" t="inlineStr">
+        <is>
+          <t>Lavaltrie</t>
+        </is>
+      </c>
+      <c r="I361" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J361" s="39" t="inlineStr">
+        <is>
+          <t>J5T 3G5</t>
+        </is>
+      </c>
+      <c r="K361" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L361" s="26"/>
       <c r="M361" s="25"/>
@@ -24049,11 +27487,45 @@
       <c r="O361" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="362">
-      <c r="A362" s="3" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B362" s="25">
-        <v>1250</v>
+      <c r="A362" s="3" t="inlineStr">
+        <is>
+          <t>Dafco Électrique inc [Daniel Bouchard]</t>
+        </is>
+      </c>
+      <c r="B362" s="25" t="inlineStr">
+        <is>
+          <t>1250</t>
+        </is>
+      </c>
+      <c r="C362" s="39" t="inlineStr">
+        <is>
+          <t>Daniel Bouchard</t>
+        </is>
+      </c>
+      <c r="F362" s="39" t="inlineStr">
+        <is>
+          <t>14785 rue du Froment</t>
+        </is>
+      </c>
+      <c r="H362" s="39" t="inlineStr">
+        <is>
+          <t>Mirabel</t>
+        </is>
+      </c>
+      <c r="I362" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J362" s="39" t="inlineStr">
+        <is>
+          <t>J7N 1V1</t>
+        </is>
+      </c>
+      <c r="K362" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L362" s="26"/>
       <c r="M362" s="25"/>
@@ -24061,11 +27533,40 @@
       <c r="O362" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="363">
-      <c r="A363" s="3" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B363" s="25">
-        <v>1251</v>
+      <c r="A363" s="3" t="inlineStr">
+        <is>
+          <t>Groupe Solution Expert GSE Inc.</t>
+        </is>
+      </c>
+      <c r="B363" s="25" t="inlineStr">
+        <is>
+          <t>1251</t>
+        </is>
+      </c>
+      <c r="F363" s="39" t="inlineStr">
+        <is>
+          <t>27 des Chardonnerets</t>
+        </is>
+      </c>
+      <c r="H363" s="39" t="inlineStr">
+        <is>
+          <t>Blainville</t>
+        </is>
+      </c>
+      <c r="I363" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J363" s="39" t="inlineStr">
+        <is>
+          <t>J7C 6A4</t>
+        </is>
+      </c>
+      <c r="K363" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L363" s="26"/>
       <c r="M363" s="25"/>
@@ -24073,11 +27574,50 @@
       <c r="O363" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="364">
-      <c r="A364" s="3" t="s">
-        <v>3742</v>
-      </c>
-      <c r="B364" s="25">
-        <v>1252</v>
+      <c r="A364" s="3" t="inlineStr">
+        <is>
+          <t>9141-5315 Québec Inc. (Tim Hortons) [Abdul Hakim Hussainzada]</t>
+        </is>
+      </c>
+      <c r="B364" s="25" t="inlineStr">
+        <is>
+          <t>1252</t>
+        </is>
+      </c>
+      <c r="C364" s="39" t="inlineStr">
+        <is>
+          <t>Abdul Hakim Hussainzada</t>
+        </is>
+      </c>
+      <c r="F364" s="39" t="inlineStr">
+        <is>
+          <t>6915 rue Saint-Denis</t>
+        </is>
+      </c>
+      <c r="G364" s="39" t="inlineStr">
+        <is>
+          <t>Suite 105</t>
+        </is>
+      </c>
+      <c r="H364" s="39" t="inlineStr">
+        <is>
+          <t>Montréal</t>
+        </is>
+      </c>
+      <c r="I364" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J364" s="39" t="inlineStr">
+        <is>
+          <t>H2S 2S3</t>
+        </is>
+      </c>
+      <c r="K364" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L364" s="26"/>
       <c r="M364" s="25"/>
@@ -24097,11 +27637,50 @@
       <c r="O365" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="366">
-      <c r="A366" s="3" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B366" s="25">
-        <v>1254</v>
+      <c r="A366" s="3" t="inlineStr">
+        <is>
+          <t>On board data Systems [Susan Brossard]</t>
+        </is>
+      </c>
+      <c r="B366" s="25" t="inlineStr">
+        <is>
+          <t>1254</t>
+        </is>
+      </c>
+      <c r="C366" s="39" t="inlineStr">
+        <is>
+          <t>Susan Brossard</t>
+        </is>
+      </c>
+      <c r="F366" s="39" t="inlineStr">
+        <is>
+          <t>12655 Henri-Fabre</t>
+        </is>
+      </c>
+      <c r="G366" s="39" t="inlineStr">
+        <is>
+          <t>Suite 201</t>
+        </is>
+      </c>
+      <c r="H366" s="39" t="inlineStr">
+        <is>
+          <t>Mirabel</t>
+        </is>
+      </c>
+      <c r="I366" s="39" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J366" s="39" t="inlineStr">
+        <is>
+          <t>J7N 1E1</t>
+        </is>
+      </c>
+      <c r="K366" s="39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="L366" s="26"/>
       <c r="M366" s="25"/>
@@ -26917,21 +30496,13 @@
       <c r="O600" s="26"/>
     </row>
     <row spans="1:15" outlineLevel="0" r="601">
-      <c r="A601" s="3" t="inlineStr">
-        <is>
-          <t>Salon de Quilles Rawdon Inc.</t>
-        </is>
-      </c>
-      <c r="B601" s="25" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="L601" s="26" t="inlineStr">
-        <is>
-          <t>Lui-même</t>
-        </is>
-      </c>
+      <c r="A601" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B601" s="25">
+        <v>1500</v>
+      </c>
+      <c r="L601" s="26"/>
       <c r="M601" s="25"/>
       <c r="N601" s="26"/>
       <c r="O601" s="26"/>
@@ -44490,6 +48061,30 @@
       <c r="M1271" s="25"/>
       <c r="N1271" s="26"/>
       <c r="O1271" s="26"/>
+    </row>
+    <row outlineLevel="0" r="1272">
+      <c r="A1272" s="39" t="inlineStr">
+        <is>
+          <t>9063-6580 Québec Inc [Le Lunettier]</t>
+        </is>
+      </c>
+      <c r="B1272" s="39" t="inlineStr">
+        <is>
+          <t>1793</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1273">
+      <c r="A1273" s="39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="B1273" s="39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:O1271" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}"/>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -49330,45 +49330,71 @@
       </c>
     </row>
     <row spans="1:15" outlineLevel="0" r="1263">
-      <c r="A1263" s="3" t="s">
-        <v>4209</v>
-      </c>
-      <c r="B1263" s="25">
-        <v>2040</v>
-      </c>
-      <c r="C1263" s="21" t="s">
-        <v>3381</v>
-      </c>
-      <c r="D1263" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1263" s="34" t="s">
-        <v>3382</v>
-      </c>
-      <c r="F1263" s="3" t="s">
-        <v>3383</v>
-      </c>
-      <c r="H1263" s="3" t="s">
-        <v>3384</v>
-      </c>
-      <c r="I1263" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1263" s="22" t="s">
-        <v>3385</v>
-      </c>
-      <c r="K1263" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1263" s="26" t="s">
-        <v>472</v>
+      <c r="A1263" s="3" t="inlineStr">
+        <is>
+          <t>2960-4105 Québec Inc (Mini Excavation BM) [Marc Beaurivage]</t>
+        </is>
+      </c>
+      <c r="B1263" s="25" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="C1263" s="21" t="inlineStr">
+        <is>
+          <t>Marc Beaurivage</t>
+        </is>
+      </c>
+      <c r="D1263" s="24" t="inlineStr">
+        <is>
+          <t>Président</t>
+        </is>
+      </c>
+      <c r="E1263" s="34" t="inlineStr">
+        <is>
+          <t>mbexcavationmini@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F1263" s="3" t="inlineStr">
+        <is>
+          <t>2 rue Gamache</t>
+        </is>
+      </c>
+      <c r="H1263" s="3" t="inlineStr">
+        <is>
+          <t>Saint-Mathias</t>
+        </is>
+      </c>
+      <c r="I1263" s="22" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J1263" s="22" t="inlineStr">
+        <is>
+          <t>J3L 6E8</t>
+        </is>
+      </c>
+      <c r="K1263" s="22" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="L1263" s="26" t="inlineStr">
+        <is>
+          <t>Michel Lafrance</t>
+        </is>
       </c>
       <c r="M1263" s="25"/>
-      <c r="N1263" s="26" t="s">
-        <v>472</v>
-      </c>
-      <c r="O1263" s="26" t="s">
-        <v>3318</v>
+      <c r="N1263" s="26" t="inlineStr">
+        <is>
+          <t>Michel Lafrance</t>
+        </is>
+      </c>
+      <c r="O1263" s="26" t="inlineStr">
+        <is>
+          <t>Aucun</t>
+        </is>
       </c>
     </row>
     <row spans="1:15" outlineLevel="0" r="1264">

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -28248,6 +28248,7 @@
           <t>Daniel Bouchard</t>
         </is>
       </c>
+      <c r="E362" s="39" t="inlineStr"/>
       <c r="F362" s="39" t="inlineStr">
         <is>
           <t>14785 rue du Froment</t>
@@ -28276,7 +28277,11 @@
       <c r="L362" s="26"/>
       <c r="M362" s="25"/>
       <c r="N362" s="26"/>
-      <c r="O362" s="26"/>
+      <c r="O362" s="26" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
     </row>
     <row spans="1:15" outlineLevel="0" r="363">
       <c r="A363" s="3" t="inlineStr">

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E37566E-5BAF-497D-800A-D4E9F812D520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCEE02A-D9DF-4630-83C4-EF297A1C20AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25590" yWindow="390" windowWidth="18900" windowHeight="11055" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -23234,9 +23234,9 @@
   <dimension ref="A1:O1277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="615" topLeftCell="A585" activePane="bottomLeft"/>
+      <pane ySplit="615" topLeftCell="A1246" activePane="bottomLeft"/>
       <selection activeCell="M1" sqref="M1:M1048576"/>
-      <selection pane="bottomLeft" activeCell="A594" sqref="A594:XFD594"/>
+      <selection pane="bottomLeft" activeCell="A1279" sqref="A1279:XFD1279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -67371,7 +67371,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O1276" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}"/>
-  <conditionalFormatting sqref="A2:O9997">
+  <conditionalFormatting sqref="A2:O9991">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\GCF_DataFiles\2024_09_01_1835\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD676E29-B29F-4E84-BA86-92ABAD60F0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A06F1F-4515-4239-8AA8-F61C9A8BB6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12459" uniqueCount="7229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12460" uniqueCount="7231">
   <si>
     <t>Client_ID</t>
   </si>
@@ -21737,6 +21737,12 @@
   </si>
   <si>
     <t>Roger Villemur</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Carl Paquine</t>
   </si>
 </sst>
 </file>
@@ -23008,11 +23014,11 @@
       <c r="A5" s="3" t="s">
         <v>3040</v>
       </c>
-      <c r="B5" s="25">
-        <v>104</v>
+      <c r="B5" s="25" t="s">
+        <v>7229</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>197</v>
+        <v>7230</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>172</v>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31169748-1A3E-4F40-865B-5F4FD007A17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250D73FC-9244-4981-8511-4B39A4983D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-16305" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="38280" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11890" uniqueCount="6995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11897" uniqueCount="6998">
   <si>
     <t>Client_ID</t>
   </si>
@@ -21035,6 +21035,15 @@
   </si>
   <si>
     <t>Martin Thibeault référé par François Doré</t>
+  </si>
+  <si>
+    <t>bertrand.patrick@hotmail.com</t>
+  </si>
+  <si>
+    <t>2237 rue Darling</t>
+  </si>
+  <si>
+    <t>H1W 2W9</t>
   </si>
 </sst>
 </file>
@@ -61479,6 +61488,27 @@
       <c r="B1092" s="24" t="s">
         <v>6991</v>
       </c>
+      <c r="C1092" s="21" t="s">
+        <v>6990</v>
+      </c>
+      <c r="E1092" s="21" t="s">
+        <v>6995</v>
+      </c>
+      <c r="F1092" s="3" t="s">
+        <v>6996</v>
+      </c>
+      <c r="H1092" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1092" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="J1092" s="22" t="s">
+        <v>6997</v>
+      </c>
+      <c r="K1092" s="22" t="s">
+        <v>156</v>
+      </c>
       <c r="L1092" t="s">
         <v>4310</v>
       </c>
@@ -61502,7 +61532,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O1084" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}"/>
-  <conditionalFormatting sqref="A2:O9805">
+  <conditionalFormatting sqref="A2:O9804">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250D73FC-9244-4981-8511-4B39A4983D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D004EE-D414-4BF2-B864-271B6D1A1637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11897" uniqueCount="6998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11923" uniqueCount="7011">
   <si>
     <t>Client_ID</t>
   </si>
@@ -21044,6 +21044,45 @@
   </si>
   <si>
     <t>H1W 2W9</t>
+  </si>
+  <si>
+    <t>Construction Nelson Inc. [Nelson Massicotte]</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>Nelson Massicotte</t>
+  </si>
+  <si>
+    <t>106-742 Notre-Dame</t>
+  </si>
+  <si>
+    <t>J5W 3W7</t>
+  </si>
+  <si>
+    <t>Nicholas Boulard</t>
+  </si>
+  <si>
+    <t>9327-2193 Québec Inc. [Suzanne Harel]</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>Suzanne Harel</t>
+  </si>
+  <si>
+    <t>suharel@me.com</t>
+  </si>
+  <si>
+    <t>1045 place Joseph-Tassé</t>
+  </si>
+  <si>
+    <t>H7X 3L4</t>
+  </si>
+  <si>
+    <t>Inconnues</t>
   </si>
 </sst>
 </file>
@@ -22111,31 +22150,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:O1093"/>
+  <dimension ref="A1:O1095"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="615" topLeftCell="A585" activePane="bottomLeft"/>
+      <pane ySplit="612" topLeftCell="A585" activePane="bottomLeft"/>
       <selection activeCell="M1" sqref="M1:M1048576"/>
       <selection pane="bottomLeft" activeCell="A594" sqref="A594:XFD594"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="55.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" style="21" customWidth="1"/>
     <col min="6" max="6" width="32" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.44140625" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -22204,6 +22243,9 @@
       <c r="F2" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>7010</v>
+      </c>
       <c r="H2" s="3" t="s">
         <v>180</v>
       </c>
@@ -61528,6 +61570,85 @@
       </c>
       <c r="O1093" t="s">
         <v>1479</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:15">
+      <c r="A1094" s="3" t="s">
+        <v>6998</v>
+      </c>
+      <c r="B1094" s="24" t="s">
+        <v>6999</v>
+      </c>
+      <c r="C1094" s="21" t="s">
+        <v>7000</v>
+      </c>
+      <c r="D1094" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1094" s="3" t="s">
+        <v>7001</v>
+      </c>
+      <c r="H1094" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="I1094" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="J1094" s="22" t="s">
+        <v>7002</v>
+      </c>
+      <c r="K1094" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1094" t="s">
+        <v>7003</v>
+      </c>
+      <c r="M1094" s="47" t="s">
+        <v>5818</v>
+      </c>
+      <c r="N1094" t="s">
+        <v>7003</v>
+      </c>
+      <c r="O1094" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:15">
+      <c r="A1095" s="3" t="s">
+        <v>7004</v>
+      </c>
+      <c r="B1095" s="24" t="s">
+        <v>7005</v>
+      </c>
+      <c r="C1095" s="21" t="s">
+        <v>7006</v>
+      </c>
+      <c r="D1095" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1095" s="21" t="s">
+        <v>7007</v>
+      </c>
+      <c r="F1095" s="3" t="s">
+        <v>7008</v>
+      </c>
+      <c r="H1095" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1095" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="J1095" s="22" t="s">
+        <v>7009</v>
+      </c>
+      <c r="K1095" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1095" t="s">
+        <v>279</v>
+      </c>
+      <c r="N1095" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -61823,26 +61944,26 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="615"/>
+      <pane ySplit="612"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.5703125" style="1"/>
+    <col min="11" max="11" width="17.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -63714,18 +63835,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
-    <col min="10" max="13" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="33.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
+    <col min="10" max="13" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -64661,7 +64782,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1">
+    <row r="67" spans="1:4" ht="15" thickBot="1">
       <c r="A67" s="12" t="s">
         <v>128</v>
       </c>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D004EE-D414-4BF2-B864-271B6D1A1637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93311A1-5D36-4E40-A224-5AA4F83E3C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11923" uniqueCount="7011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11922" uniqueCount="7010">
   <si>
     <t>Client_ID</t>
   </si>
@@ -21080,9 +21080,6 @@
   </si>
   <si>
     <t>H7X 3L4</t>
-  </si>
-  <si>
-    <t>Inconnues</t>
   </si>
 </sst>
 </file>
@@ -22153,28 +22150,28 @@
   <dimension ref="A1:O1095"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="612" topLeftCell="A585" activePane="bottomLeft"/>
+      <pane ySplit="615" topLeftCell="A585" activePane="bottomLeft"/>
       <selection activeCell="M1" sqref="M1:M1048576"/>
       <selection pane="bottomLeft" activeCell="A594" sqref="A594:XFD594"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.88671875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" style="21" customWidth="1"/>
     <col min="6" max="6" width="32" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.44140625" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -22242,9 +22239,6 @@
       </c>
       <c r="F2" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7010</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>180</v>
@@ -61944,26 +61938,26 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="612"/>
+      <pane ySplit="615"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.5546875" style="1"/>
+    <col min="11" max="11" width="17.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -63835,18 +63829,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10" max="13" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="33.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10" max="13" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -64782,7 +64776,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1">
+    <row r="67" spans="1:4" ht="15.75" thickBot="1">
       <c r="A67" s="12" t="s">
         <v>128</v>
       </c>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB609CDF-F14D-4CA3-8683-F3D2C33DFF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9670F60D-2B76-4816-B1A7-52E05107E01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="30960" windowHeight="12204" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11935" uniqueCount="7019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11949" uniqueCount="7023">
   <si>
     <t>Client_ID</t>
   </si>
@@ -21107,6 +21107,18 @@
   </si>
   <si>
     <t>z_Administratif_Autres non chargeables</t>
+  </si>
+  <si>
+    <t>Les Placements Paré Inc. [Pierre paré]</t>
+  </si>
+  <si>
+    <t>2052</t>
+  </si>
+  <si>
+    <t>Pierre paré</t>
+  </si>
+  <si>
+    <t>Iberville</t>
   </si>
 </sst>
 </file>
@@ -22180,31 +22192,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:O1096"/>
+  <dimension ref="A1:O1097"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <pane ySplit="615" topLeftCell="A26" activePane="bottomLeft"/>
+      <pane ySplit="612" topLeftCell="A26" activePane="bottomLeft"/>
       <selection activeCell="B41" sqref="B1:B1048576"/>
       <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="55.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" style="21" customWidth="1"/>
     <col min="6" max="6" width="32" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="46" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.44140625" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -61718,6 +61730,50 @@
         <v>323</v>
       </c>
       <c r="O1096" s="25"/>
+    </row>
+    <row r="1097" spans="1:15">
+      <c r="A1097" s="3" t="s">
+        <v>7019</v>
+      </c>
+      <c r="B1097" s="49" t="s">
+        <v>7020</v>
+      </c>
+      <c r="C1097" s="21" t="s">
+        <v>7021</v>
+      </c>
+      <c r="D1097" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1097" s="21" t="s">
+        <v>2886</v>
+      </c>
+      <c r="F1097" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="H1097" s="3" t="s">
+        <v>7022</v>
+      </c>
+      <c r="I1097" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="J1097" s="22" t="s">
+        <v>2888</v>
+      </c>
+      <c r="K1097" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1097" t="s">
+        <v>323</v>
+      </c>
+      <c r="M1097" s="46" t="s">
+        <v>5633</v>
+      </c>
+      <c r="N1097" t="s">
+        <v>323</v>
+      </c>
+      <c r="O1097" t="s">
+        <v>5354</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:O1096" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
@@ -62017,26 +62073,26 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="615"/>
+      <pane ySplit="612"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.5703125" style="1"/>
+    <col min="11" max="11" width="17.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -63908,18 +63964,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
-    <col min="10" max="13" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="33.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
+    <col min="10" max="13" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -64855,7 +64911,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1">
+    <row r="67" spans="1:4" ht="15" thickBot="1">
       <c r="A67" s="12" t="s">
         <v>128</v>
       </c>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9670F60D-2B76-4816-B1A7-52E05107E01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E4E0D3-D172-4E25-BE9D-B646B1ED814D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="30960" windowHeight="12204" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11949" uniqueCount="7023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11974" uniqueCount="7037">
   <si>
     <t>Client_ID</t>
   </si>
@@ -21043,12 +21043,6 @@
     <t>suharel@me.com</t>
   </si>
   <si>
-    <t>1045 place Joseph-Tassé</t>
-  </si>
-  <si>
-    <t>H7X 3L4</t>
-  </si>
-  <si>
     <t>Agence Code Communications Inc. [Mme France Daniel]</t>
   </si>
   <si>
@@ -21119,6 +21113,54 @@
   </si>
   <si>
     <t>Iberville</t>
+  </si>
+  <si>
+    <t>9259-5362 Québec Inc. (Parler Plus) [Rosalie G. Hogue]</t>
+  </si>
+  <si>
+    <t>2053</t>
+  </si>
+  <si>
+    <t>Rosalie G. Hogue</t>
+  </si>
+  <si>
+    <t>rosalie@parlerplus.ca</t>
+  </si>
+  <si>
+    <t>105-3195 Boul. de la pinière</t>
+  </si>
+  <si>
+    <t>J6X4P7</t>
+  </si>
+  <si>
+    <t>Immeubles Marklin C2 Inc. [Caroline Chaput]</t>
+  </si>
+  <si>
+    <t>2054</t>
+  </si>
+  <si>
+    <t>Caroline Chaput</t>
+  </si>
+  <si>
+    <t>info@immeublesmarklin.com</t>
+  </si>
+  <si>
+    <t>9 rue Saint-Pierre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Québec </t>
+  </si>
+  <si>
+    <t>J5A 1A1</t>
+  </si>
+  <si>
+    <t>Leblanc Notaires</t>
+  </si>
+  <si>
+    <t>574 rue Principale</t>
+  </si>
+  <si>
+    <t>H7X 1C9</t>
   </si>
 </sst>
 </file>
@@ -22192,31 +22234,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:O1097"/>
+  <dimension ref="A1:O1099"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <pane ySplit="612" topLeftCell="A26" activePane="bottomLeft"/>
+      <pane ySplit="615" topLeftCell="A26" activePane="bottomLeft"/>
       <selection activeCell="B41" sqref="B1:B1048576"/>
       <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.88671875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" style="21" customWidth="1"/>
     <col min="6" max="6" width="32" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.44140625" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -22304,7 +22346,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>2350</v>
@@ -33340,7 +33382,7 @@
     </row>
     <row r="340" spans="1:15">
       <c r="A340" s="3" t="s">
-        <v>7010</v>
+        <v>7008</v>
       </c>
       <c r="B340" s="49" t="s">
         <v>5338</v>
@@ -37842,7 +37884,7 @@
     </row>
     <row r="460" spans="1:15">
       <c r="A460" s="3" t="s">
-        <v>7001</v>
+        <v>6999</v>
       </c>
       <c r="B460" s="49" t="s">
         <v>5516</v>
@@ -60550,7 +60592,7 @@
         <v>6996</v>
       </c>
       <c r="F1069" s="3" t="s">
-        <v>6997</v>
+        <v>7035</v>
       </c>
       <c r="H1069" s="3" t="s">
         <v>180</v>
@@ -60559,7 +60601,7 @@
         <v>575</v>
       </c>
       <c r="J1069" s="22" t="s">
-        <v>6998</v>
+        <v>7036</v>
       </c>
       <c r="K1069" s="22" t="s">
         <v>156</v>
@@ -60573,22 +60615,22 @@
     </row>
     <row r="1070" spans="1:15">
       <c r="A1070" s="3" t="s">
+        <v>7009</v>
+      </c>
+      <c r="B1070" s="49" t="s">
+        <v>7010</v>
+      </c>
+      <c r="C1070" s="21" t="s">
         <v>7011</v>
-      </c>
-      <c r="B1070" s="49" t="s">
-        <v>7012</v>
-      </c>
-      <c r="C1070" s="21" t="s">
-        <v>7013</v>
       </c>
       <c r="D1070" s="23" t="s">
         <v>835</v>
       </c>
       <c r="E1070" s="21" t="s">
-        <v>7014</v>
+        <v>7012</v>
       </c>
       <c r="F1070" s="3" t="s">
-        <v>7015</v>
+        <v>7013</v>
       </c>
       <c r="H1070" s="3" t="s">
         <v>2257</v>
@@ -60597,13 +60639,13 @@
         <v>575</v>
       </c>
       <c r="J1070" s="22" t="s">
-        <v>7016</v>
+        <v>7014</v>
       </c>
       <c r="K1070" s="22" t="s">
         <v>156</v>
       </c>
       <c r="L1070" t="s">
-        <v>7017</v>
+        <v>7015</v>
       </c>
       <c r="M1070" s="46" t="s">
         <v>2761</v>
@@ -60658,13 +60700,13 @@
     </row>
     <row r="1072" spans="1:15">
       <c r="A1072" s="3" t="s">
-        <v>7002</v>
+        <v>7000</v>
       </c>
       <c r="B1072" s="49" t="s">
         <v>5815</v>
       </c>
       <c r="C1072" s="21" t="s">
-        <v>7005</v>
+        <v>7003</v>
       </c>
       <c r="D1072" s="23" t="s">
         <v>171</v>
@@ -60700,13 +60742,13 @@
     </row>
     <row r="1073" spans="1:15">
       <c r="A1073" s="3" t="s">
-        <v>6999</v>
+        <v>6997</v>
       </c>
       <c r="B1073" s="49" t="s">
         <v>5816</v>
       </c>
       <c r="C1073" s="21" t="s">
-        <v>7006</v>
+        <v>7004</v>
       </c>
       <c r="D1073" s="23" t="s">
         <v>175</v>
@@ -60742,13 +60784,13 @@
     </row>
     <row r="1074" spans="1:15">
       <c r="A1074" s="3" t="s">
-        <v>7003</v>
+        <v>7001</v>
       </c>
       <c r="B1074" s="49" t="s">
         <v>5817</v>
       </c>
       <c r="C1074" s="21" t="s">
-        <v>7007</v>
+        <v>7005</v>
       </c>
       <c r="D1074" s="23" t="s">
         <v>171</v>
@@ -60914,13 +60956,13 @@
     </row>
     <row r="1078" spans="1:15">
       <c r="A1078" s="3" t="s">
-        <v>7004</v>
+        <v>7002</v>
       </c>
       <c r="B1078" s="49" t="s">
         <v>5820</v>
       </c>
       <c r="C1078" s="21" t="s">
-        <v>7008</v>
+        <v>7006</v>
       </c>
       <c r="D1078" s="23" t="s">
         <v>2283</v>
@@ -61302,13 +61344,13 @@
     </row>
     <row r="1087" spans="1:15">
       <c r="A1087" s="3" t="s">
-        <v>7000</v>
+        <v>6998</v>
       </c>
       <c r="B1087" s="49" t="s">
         <v>5831</v>
       </c>
       <c r="C1087" s="21" t="s">
-        <v>7009</v>
+        <v>7007</v>
       </c>
       <c r="D1087" s="23" t="s">
         <v>858</v>
@@ -61733,13 +61775,13 @@
     </row>
     <row r="1097" spans="1:15">
       <c r="A1097" s="3" t="s">
+        <v>7017</v>
+      </c>
+      <c r="B1097" s="49" t="s">
+        <v>7018</v>
+      </c>
+      <c r="C1097" s="21" t="s">
         <v>7019</v>
-      </c>
-      <c r="B1097" s="49" t="s">
-        <v>7020</v>
-      </c>
-      <c r="C1097" s="21" t="s">
-        <v>7021</v>
       </c>
       <c r="D1097" s="23" t="s">
         <v>172</v>
@@ -61751,7 +61793,7 @@
         <v>2887</v>
       </c>
       <c r="H1097" s="3" t="s">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="I1097" s="22" t="s">
         <v>575</v>
@@ -61773,6 +61815,85 @@
       </c>
       <c r="O1097" t="s">
         <v>5354</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:15">
+      <c r="A1098" s="3" t="s">
+        <v>7021</v>
+      </c>
+      <c r="B1098" s="49" t="s">
+        <v>7022</v>
+      </c>
+      <c r="C1098" s="21" t="s">
+        <v>7023</v>
+      </c>
+      <c r="E1098" s="21" t="s">
+        <v>7024</v>
+      </c>
+      <c r="F1098" s="3" t="s">
+        <v>7025</v>
+      </c>
+      <c r="H1098" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1098" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="J1098" s="22" t="s">
+        <v>7026</v>
+      </c>
+      <c r="K1098" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1098" t="s">
+        <v>2760</v>
+      </c>
+      <c r="M1098" s="46" t="s">
+        <v>2761</v>
+      </c>
+      <c r="N1098" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:15">
+      <c r="A1099" s="3" t="s">
+        <v>7027</v>
+      </c>
+      <c r="B1099" s="49" t="s">
+        <v>7028</v>
+      </c>
+      <c r="C1099" s="21" t="s">
+        <v>7029</v>
+      </c>
+      <c r="E1099" s="21" t="s">
+        <v>7030</v>
+      </c>
+      <c r="F1099" s="3" t="s">
+        <v>7031</v>
+      </c>
+      <c r="H1099" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1099" s="22" t="s">
+        <v>7032</v>
+      </c>
+      <c r="J1099" s="22" t="s">
+        <v>7033</v>
+      </c>
+      <c r="K1099" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1099" t="s">
+        <v>816</v>
+      </c>
+      <c r="M1099" s="46" t="s">
+        <v>5633</v>
+      </c>
+      <c r="N1099" t="s">
+        <v>816</v>
+      </c>
+      <c r="O1099" t="s">
+        <v>7034</v>
       </c>
     </row>
   </sheetData>
@@ -62073,26 +62194,26 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="612"/>
+      <pane ySplit="615"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.5546875" style="1"/>
+    <col min="11" max="11" width="17.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -63964,18 +64085,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10" max="13" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="33.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10" max="13" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -64911,7 +65032,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1">
+    <row r="67" spans="1:4" ht="15.75" thickBot="1">
       <c r="A67" s="12" t="s">
         <v>128</v>
       </c>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E4E0D3-D172-4E25-BE9D-B646B1ED814D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70BC032-239E-45E6-AFA2-668E84A63C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clients!$A$1:$O$1096</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clients!$A$1:$O$1098</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fournisseurs!$A$1:$K$20</definedName>
     <definedName name="dnrClients" localSheetId="0">OFFSET(Clients!#REF!,1,0,COUNTA(Clients!$A:$A)-1,2)</definedName>
     <definedName name="dnrClients" localSheetId="1">OFFSET(Fournisseurs!$A$1,1,0,COUNTA(Fournisseurs!$A:$A)-1,2)</definedName>
@@ -21118,9 +21118,6 @@
     <t>9259-5362 Québec Inc. (Parler Plus) [Rosalie G. Hogue]</t>
   </si>
   <si>
-    <t>2053</t>
-  </si>
-  <si>
     <t>Rosalie G. Hogue</t>
   </si>
   <si>
@@ -21136,9 +21133,6 @@
     <t>Immeubles Marklin C2 Inc. [Caroline Chaput]</t>
   </si>
   <si>
-    <t>2054</t>
-  </si>
-  <si>
     <t>Caroline Chaput</t>
   </si>
   <si>
@@ -21161,6 +21155,12 @@
   </si>
   <si>
     <t>H7X 1C9</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
   </si>
 </sst>
 </file>
@@ -22237,9 +22237,9 @@
   <dimension ref="A1:O1099"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <pane ySplit="615" topLeftCell="A26" activePane="bottomLeft"/>
+      <pane ySplit="615" topLeftCell="A1066" activePane="bottomLeft"/>
       <selection activeCell="B41" sqref="B1:B1048576"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomLeft" activeCell="A1078" sqref="A1078"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -60592,7 +60592,7 @@
         <v>6996</v>
       </c>
       <c r="F1069" s="3" t="s">
-        <v>7035</v>
+        <v>7033</v>
       </c>
       <c r="H1069" s="3" t="s">
         <v>180</v>
@@ -60601,7 +60601,7 @@
         <v>575</v>
       </c>
       <c r="J1069" s="22" t="s">
-        <v>7036</v>
+        <v>7034</v>
       </c>
       <c r="K1069" s="22" t="s">
         <v>156</v>
@@ -60656,117 +60656,110 @@
     </row>
     <row r="1071" spans="1:15">
       <c r="A1071" s="3" t="s">
-        <v>6579</v>
+        <v>7021</v>
       </c>
       <c r="B1071" s="49" t="s">
-        <v>46</v>
+        <v>7035</v>
       </c>
       <c r="C1071" s="21" t="s">
-        <v>2267</v>
-      </c>
-      <c r="D1071" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1071" s="32" t="s">
-        <v>2268</v>
+        <v>7022</v>
+      </c>
+      <c r="E1071" s="21" t="s">
+        <v>7023</v>
       </c>
       <c r="F1071" s="3" t="s">
-        <v>2269</v>
+        <v>7024</v>
       </c>
       <c r="H1071" s="3" t="s">
-        <v>2248</v>
+        <v>224</v>
       </c>
       <c r="I1071" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1071" s="22" t="s">
-        <v>2270</v>
+        <v>7025</v>
       </c>
       <c r="K1071" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="L1071" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="M1071" s="24" t="s">
-        <v>5814</v>
-      </c>
-      <c r="N1071" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="O1071" s="25" t="s">
-        <v>5354</v>
+      <c r="L1071" t="s">
+        <v>2760</v>
+      </c>
+      <c r="M1071" s="46" t="s">
+        <v>2761</v>
+      </c>
+      <c r="N1071" t="s">
+        <v>2760</v>
       </c>
     </row>
     <row r="1072" spans="1:15">
       <c r="A1072" s="3" t="s">
-        <v>7000</v>
+        <v>7026</v>
       </c>
       <c r="B1072" s="49" t="s">
-        <v>5815</v>
+        <v>7036</v>
       </c>
       <c r="C1072" s="21" t="s">
-        <v>7003</v>
-      </c>
-      <c r="D1072" s="23" t="s">
-        <v>171</v>
+        <v>7027</v>
       </c>
       <c r="E1072" s="21" t="s">
-        <v>5845</v>
+        <v>7028</v>
       </c>
       <c r="F1072" s="3" t="s">
-        <v>2271</v>
+        <v>7029</v>
       </c>
       <c r="H1072" s="3" t="s">
-        <v>2248</v>
+        <v>283</v>
       </c>
       <c r="I1072" s="22" t="s">
-        <v>575</v>
+        <v>7030</v>
       </c>
       <c r="J1072" s="22" t="s">
-        <v>2272</v>
+        <v>7031</v>
       </c>
       <c r="K1072" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="L1072" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="M1072" s="24" t="s">
-        <v>2761</v>
-      </c>
-      <c r="N1072" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="O1072" s="25"/>
+      <c r="L1072" t="s">
+        <v>816</v>
+      </c>
+      <c r="M1072" s="46" t="s">
+        <v>5633</v>
+      </c>
+      <c r="N1072" t="s">
+        <v>816</v>
+      </c>
+      <c r="O1072" t="s">
+        <v>7032</v>
+      </c>
     </row>
     <row r="1073" spans="1:15">
       <c r="A1073" s="3" t="s">
-        <v>6997</v>
+        <v>6579</v>
       </c>
       <c r="B1073" s="49" t="s">
-        <v>5816</v>
+        <v>46</v>
       </c>
       <c r="C1073" s="21" t="s">
-        <v>7004</v>
+        <v>2267</v>
       </c>
       <c r="D1073" s="23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E1073" s="32" t="s">
-        <v>2273</v>
+        <v>2268</v>
       </c>
       <c r="F1073" s="3" t="s">
-        <v>2274</v>
+        <v>2269</v>
       </c>
       <c r="H1073" s="3" t="s">
-        <v>254</v>
+        <v>2248</v>
       </c>
       <c r="I1073" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1073" s="22" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
       <c r="K1073" s="22" t="s">
         <v>156</v>
@@ -60775,40 +60768,42 @@
         <v>323</v>
       </c>
       <c r="M1073" s="24" t="s">
-        <v>5633</v>
+        <v>5814</v>
       </c>
       <c r="N1073" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="O1073" s="25"/>
+      <c r="O1073" s="25" t="s">
+        <v>5354</v>
+      </c>
     </row>
     <row r="1074" spans="1:15">
       <c r="A1074" s="3" t="s">
-        <v>7001</v>
+        <v>7000</v>
       </c>
       <c r="B1074" s="49" t="s">
-        <v>5817</v>
+        <v>5815</v>
       </c>
       <c r="C1074" s="21" t="s">
-        <v>7005</v>
+        <v>7003</v>
       </c>
       <c r="D1074" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="E1074" s="32" t="s">
-        <v>1585</v>
+      <c r="E1074" s="21" t="s">
+        <v>5845</v>
       </c>
       <c r="F1074" s="3" t="s">
-        <v>2276</v>
+        <v>2271</v>
       </c>
       <c r="H1074" s="3" t="s">
-        <v>157</v>
+        <v>2248</v>
       </c>
       <c r="I1074" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1074" s="22" t="s">
-        <v>1587</v>
+        <v>2272</v>
       </c>
       <c r="K1074" s="22" t="s">
         <v>156</v>
@@ -60822,37 +60817,35 @@
       <c r="N1074" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="O1074" s="25" t="s">
-        <v>5354</v>
-      </c>
+      <c r="O1074" s="25"/>
     </row>
     <row r="1075" spans="1:15">
       <c r="A1075" s="3" t="s">
-        <v>6580</v>
+        <v>6997</v>
       </c>
       <c r="B1075" s="49" t="s">
-        <v>5818</v>
+        <v>5816</v>
       </c>
       <c r="C1075" s="21" t="s">
-        <v>2277</v>
+        <v>7004</v>
       </c>
       <c r="D1075" s="23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E1075" s="32" t="s">
-        <v>2278</v>
+        <v>2273</v>
       </c>
       <c r="F1075" s="3" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="H1075" s="3" t="s">
-        <v>2280</v>
+        <v>254</v>
       </c>
       <c r="I1075" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1075" s="22" t="s">
-        <v>2281</v>
+        <v>2275</v>
       </c>
       <c r="K1075" s="22" t="s">
         <v>156</v>
@@ -60861,7 +60854,7 @@
         <v>323</v>
       </c>
       <c r="M1075" s="24" t="s">
-        <v>2761</v>
+        <v>5633</v>
       </c>
       <c r="N1075" s="25" t="s">
         <v>323</v>
@@ -60870,31 +60863,31 @@
     </row>
     <row r="1076" spans="1:15">
       <c r="A1076" s="3" t="s">
-        <v>6581</v>
+        <v>7001</v>
       </c>
       <c r="B1076" s="49" t="s">
-        <v>48</v>
+        <v>5817</v>
       </c>
       <c r="C1076" s="21" t="s">
-        <v>2282</v>
+        <v>7005</v>
       </c>
       <c r="D1076" s="23" t="s">
-        <v>2283</v>
+        <v>171</v>
       </c>
       <c r="E1076" s="32" t="s">
-        <v>718</v>
+        <v>1585</v>
       </c>
       <c r="F1076" s="3" t="s">
-        <v>2284</v>
+        <v>2276</v>
       </c>
       <c r="H1076" s="3" t="s">
-        <v>1171</v>
+        <v>157</v>
       </c>
       <c r="I1076" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1076" s="22" t="s">
-        <v>721</v>
+        <v>1587</v>
       </c>
       <c r="K1076" s="22" t="s">
         <v>156</v>
@@ -60909,36 +60902,36 @@
         <v>323</v>
       </c>
       <c r="O1076" s="25" t="s">
-        <v>5827</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="1077" spans="1:15">
       <c r="A1077" s="3" t="s">
-        <v>6582</v>
+        <v>6580</v>
       </c>
       <c r="B1077" s="49" t="s">
-        <v>5819</v>
+        <v>5818</v>
       </c>
       <c r="C1077" s="21" t="s">
-        <v>2285</v>
+        <v>2277</v>
       </c>
       <c r="D1077" s="23" t="s">
-        <v>2283</v>
+        <v>172</v>
       </c>
       <c r="E1077" s="32" t="s">
-        <v>2286</v>
+        <v>2278</v>
       </c>
       <c r="F1077" s="3" t="s">
-        <v>2287</v>
+        <v>2279</v>
       </c>
       <c r="H1077" s="3" t="s">
-        <v>2288</v>
+        <v>2280</v>
       </c>
       <c r="I1077" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1077" s="22" t="s">
-        <v>2289</v>
+        <v>2281</v>
       </c>
       <c r="K1077" s="22" t="s">
         <v>156</v>
@@ -60956,31 +60949,31 @@
     </row>
     <row r="1078" spans="1:15">
       <c r="A1078" s="3" t="s">
-        <v>7002</v>
+        <v>6581</v>
       </c>
       <c r="B1078" s="49" t="s">
-        <v>5820</v>
+        <v>48</v>
       </c>
       <c r="C1078" s="21" t="s">
-        <v>7006</v>
+        <v>2282</v>
       </c>
       <c r="D1078" s="23" t="s">
         <v>2283</v>
       </c>
       <c r="E1078" s="32" t="s">
-        <v>2291</v>
+        <v>718</v>
       </c>
       <c r="F1078" s="3" t="s">
-        <v>2292</v>
+        <v>2284</v>
       </c>
       <c r="H1078" s="3" t="s">
-        <v>423</v>
+        <v>1171</v>
       </c>
       <c r="I1078" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1078" s="22" t="s">
-        <v>2293</v>
+        <v>721</v>
       </c>
       <c r="K1078" s="22" t="s">
         <v>156</v>
@@ -60995,36 +60988,36 @@
         <v>323</v>
       </c>
       <c r="O1078" s="25" t="s">
-        <v>5354</v>
+        <v>5827</v>
       </c>
     </row>
     <row r="1079" spans="1:15">
       <c r="A1079" s="3" t="s">
-        <v>6583</v>
+        <v>6582</v>
       </c>
       <c r="B1079" s="49" t="s">
-        <v>5821</v>
+        <v>5819</v>
       </c>
       <c r="C1079" s="21" t="s">
-        <v>2294</v>
+        <v>2285</v>
       </c>
       <c r="D1079" s="23" t="s">
-        <v>172</v>
+        <v>2283</v>
       </c>
       <c r="E1079" s="32" t="s">
-        <v>2295</v>
+        <v>2286</v>
       </c>
       <c r="F1079" s="3" t="s">
-        <v>2296</v>
+        <v>2287</v>
       </c>
       <c r="H1079" s="3" t="s">
-        <v>248</v>
+        <v>2288</v>
       </c>
       <c r="I1079" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1079" s="22" t="s">
-        <v>2297</v>
+        <v>2289</v>
       </c>
       <c r="K1079" s="22" t="s">
         <v>156</v>
@@ -61038,37 +61031,35 @@
       <c r="N1079" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="O1079" s="25" t="s">
-        <v>5354</v>
-      </c>
+      <c r="O1079" s="25"/>
     </row>
     <row r="1080" spans="1:15">
       <c r="A1080" s="3" t="s">
-        <v>6584</v>
+        <v>7002</v>
       </c>
       <c r="B1080" s="49" t="s">
-        <v>5822</v>
+        <v>5820</v>
       </c>
       <c r="C1080" s="21" t="s">
-        <v>2298</v>
+        <v>7006</v>
       </c>
       <c r="D1080" s="23" t="s">
-        <v>172</v>
+        <v>2283</v>
       </c>
       <c r="E1080" s="32" t="s">
-        <v>2299</v>
+        <v>2291</v>
       </c>
       <c r="F1080" s="3" t="s">
-        <v>2300</v>
+        <v>2292</v>
       </c>
       <c r="H1080" s="3" t="s">
-        <v>2301</v>
+        <v>423</v>
       </c>
       <c r="I1080" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1080" s="22" t="s">
-        <v>2302</v>
+        <v>2293</v>
       </c>
       <c r="K1080" s="22" t="s">
         <v>156</v>
@@ -61077,40 +61068,42 @@
         <v>323</v>
       </c>
       <c r="M1080" s="24" t="s">
-        <v>5823</v>
+        <v>2761</v>
       </c>
       <c r="N1080" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="O1080" s="25"/>
+      <c r="O1080" s="25" t="s">
+        <v>5354</v>
+      </c>
     </row>
     <row r="1081" spans="1:15">
       <c r="A1081" s="3" t="s">
-        <v>6585</v>
+        <v>6583</v>
       </c>
       <c r="B1081" s="49" t="s">
-        <v>5824</v>
+        <v>5821</v>
       </c>
       <c r="C1081" s="21" t="s">
-        <v>2303</v>
+        <v>2294</v>
       </c>
       <c r="D1081" s="23" t="s">
-        <v>2304</v>
+        <v>172</v>
       </c>
       <c r="E1081" s="32" t="s">
-        <v>2305</v>
+        <v>2295</v>
       </c>
       <c r="F1081" s="3" t="s">
-        <v>2306</v>
+        <v>2296</v>
       </c>
       <c r="H1081" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I1081" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1081" s="22" t="s">
-        <v>2307</v>
+        <v>2297</v>
       </c>
       <c r="K1081" s="22" t="s">
         <v>156</v>
@@ -61124,35 +61117,37 @@
       <c r="N1081" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="O1081" s="25"/>
+      <c r="O1081" s="25" t="s">
+        <v>5354</v>
+      </c>
     </row>
     <row r="1082" spans="1:15">
       <c r="A1082" s="3" t="s">
-        <v>6586</v>
+        <v>6584</v>
       </c>
       <c r="B1082" s="49" t="s">
-        <v>5825</v>
+        <v>5822</v>
       </c>
       <c r="C1082" s="21" t="s">
-        <v>2308</v>
+        <v>2298</v>
       </c>
       <c r="D1082" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E1082" s="32" t="s">
-        <v>2309</v>
+        <v>2299</v>
       </c>
       <c r="F1082" s="3" t="s">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="H1082" s="3" t="s">
-        <v>1537</v>
+        <v>2301</v>
       </c>
       <c r="I1082" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1082" s="22" t="s">
-        <v>2311</v>
+        <v>2302</v>
       </c>
       <c r="K1082" s="22" t="s">
         <v>156</v>
@@ -61161,7 +61156,7 @@
         <v>323</v>
       </c>
       <c r="M1082" s="24" t="s">
-        <v>5382</v>
+        <v>5823</v>
       </c>
       <c r="N1082" s="25" t="s">
         <v>323</v>
@@ -61170,31 +61165,31 @@
     </row>
     <row r="1083" spans="1:15">
       <c r="A1083" s="3" t="s">
-        <v>6587</v>
+        <v>6585</v>
       </c>
       <c r="B1083" s="49" t="s">
-        <v>5826</v>
+        <v>5824</v>
       </c>
       <c r="C1083" s="21" t="s">
-        <v>2308</v>
+        <v>2303</v>
       </c>
       <c r="D1083" s="23" t="s">
-        <v>171</v>
+        <v>2304</v>
       </c>
       <c r="E1083" s="32" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="F1083" s="3" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="H1083" s="3" t="s">
-        <v>1537</v>
+        <v>254</v>
       </c>
       <c r="I1083" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1083" s="22" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="K1083" s="22" t="s">
         <v>156</v>
@@ -61203,7 +61198,7 @@
         <v>323</v>
       </c>
       <c r="M1083" s="24" t="s">
-        <v>5382</v>
+        <v>2761</v>
       </c>
       <c r="N1083" s="25" t="s">
         <v>323</v>
@@ -61212,31 +61207,31 @@
     </row>
     <row r="1084" spans="1:15">
       <c r="A1084" s="3" t="s">
-        <v>5893</v>
+        <v>6586</v>
       </c>
       <c r="B1084" s="49" t="s">
-        <v>5353</v>
+        <v>5825</v>
       </c>
       <c r="C1084" s="21" t="s">
-        <v>2282</v>
+        <v>2308</v>
       </c>
       <c r="D1084" s="23" t="s">
-        <v>835</v>
+        <v>171</v>
       </c>
       <c r="E1084" s="32" t="s">
-        <v>718</v>
+        <v>2309</v>
       </c>
       <c r="F1084" s="3" t="s">
-        <v>2284</v>
+        <v>2310</v>
       </c>
       <c r="H1084" s="3" t="s">
-        <v>1171</v>
+        <v>1537</v>
       </c>
       <c r="I1084" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1084" s="22" t="s">
-        <v>721</v>
+        <v>2311</v>
       </c>
       <c r="K1084" s="22" t="s">
         <v>156</v>
@@ -61245,42 +61240,40 @@
         <v>323</v>
       </c>
       <c r="M1084" s="24" t="s">
-        <v>5823</v>
+        <v>5382</v>
       </c>
       <c r="N1084" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="O1084" s="25" t="s">
-        <v>5354</v>
-      </c>
+      <c r="O1084" s="25"/>
     </row>
     <row r="1085" spans="1:15">
       <c r="A1085" s="3" t="s">
-        <v>6588</v>
+        <v>6587</v>
       </c>
       <c r="B1085" s="49" t="s">
-        <v>5828</v>
+        <v>5826</v>
       </c>
       <c r="C1085" s="21" t="s">
-        <v>2290</v>
+        <v>2308</v>
       </c>
       <c r="D1085" s="23" t="s">
-        <v>858</v>
+        <v>171</v>
       </c>
       <c r="E1085" s="32" t="s">
-        <v>2291</v>
+        <v>2309</v>
       </c>
       <c r="F1085" s="3" t="s">
-        <v>2292</v>
+        <v>2310</v>
       </c>
       <c r="H1085" s="3" t="s">
-        <v>423</v>
+        <v>1537</v>
       </c>
       <c r="I1085" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1085" s="22" t="s">
-        <v>2293</v>
+        <v>2311</v>
       </c>
       <c r="K1085" s="22" t="s">
         <v>156</v>
@@ -61289,42 +61282,40 @@
         <v>323</v>
       </c>
       <c r="M1085" s="24" t="s">
-        <v>5829</v>
+        <v>5382</v>
       </c>
       <c r="N1085" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="O1085" s="25" t="s">
-        <v>5354</v>
-      </c>
+      <c r="O1085" s="25"/>
     </row>
     <row r="1086" spans="1:15">
       <c r="A1086" s="3" t="s">
-        <v>6589</v>
+        <v>5893</v>
       </c>
       <c r="B1086" s="49" t="s">
-        <v>5830</v>
+        <v>5353</v>
       </c>
       <c r="C1086" s="21" t="s">
-        <v>2290</v>
+        <v>2282</v>
       </c>
       <c r="D1086" s="23" t="s">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="E1086" s="32" t="s">
-        <v>2291</v>
+        <v>718</v>
       </c>
       <c r="F1086" s="3" t="s">
-        <v>2292</v>
+        <v>2284</v>
       </c>
       <c r="H1086" s="3" t="s">
-        <v>423</v>
+        <v>1171</v>
       </c>
       <c r="I1086" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1086" s="22" t="s">
-        <v>2293</v>
+        <v>721</v>
       </c>
       <c r="K1086" s="22" t="s">
         <v>156</v>
@@ -61333,7 +61324,7 @@
         <v>323</v>
       </c>
       <c r="M1086" s="24" t="s">
-        <v>5829</v>
+        <v>5823</v>
       </c>
       <c r="N1086" s="25" t="s">
         <v>323</v>
@@ -61344,31 +61335,31 @@
     </row>
     <row r="1087" spans="1:15">
       <c r="A1087" s="3" t="s">
-        <v>6998</v>
+        <v>6588</v>
       </c>
       <c r="B1087" s="49" t="s">
-        <v>5831</v>
+        <v>5828</v>
       </c>
       <c r="C1087" s="21" t="s">
-        <v>7007</v>
+        <v>2290</v>
       </c>
       <c r="D1087" s="23" t="s">
         <v>858</v>
       </c>
       <c r="E1087" s="32" t="s">
-        <v>2312</v>
+        <v>2291</v>
       </c>
       <c r="F1087" s="3" t="s">
-        <v>2313</v>
+        <v>2292</v>
       </c>
       <c r="H1087" s="3" t="s">
-        <v>2314</v>
+        <v>423</v>
       </c>
       <c r="I1087" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1087" s="22" t="s">
-        <v>2315</v>
+        <v>2293</v>
       </c>
       <c r="K1087" s="22" t="s">
         <v>156</v>
@@ -61377,40 +61368,42 @@
         <v>323</v>
       </c>
       <c r="M1087" s="24" t="s">
-        <v>2761</v>
+        <v>5829</v>
       </c>
       <c r="N1087" s="25" t="s">
-        <v>2316</v>
-      </c>
-      <c r="O1087" s="25"/>
+        <v>323</v>
+      </c>
+      <c r="O1087" s="25" t="s">
+        <v>5354</v>
+      </c>
     </row>
     <row r="1088" spans="1:15">
       <c r="A1088" s="3" t="s">
-        <v>6590</v>
+        <v>6589</v>
       </c>
       <c r="B1088" s="49" t="s">
-        <v>5832</v>
+        <v>5830</v>
       </c>
       <c r="C1088" s="21" t="s">
-        <v>2317</v>
+        <v>2290</v>
       </c>
       <c r="D1088" s="23" t="s">
-        <v>172</v>
+        <v>858</v>
       </c>
       <c r="E1088" s="32" t="s">
-        <v>2318</v>
+        <v>2291</v>
       </c>
       <c r="F1088" s="3" t="s">
-        <v>2319</v>
+        <v>2292</v>
       </c>
       <c r="H1088" s="3" t="s">
-        <v>168</v>
+        <v>423</v>
       </c>
       <c r="I1088" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1088" s="22" t="s">
-        <v>2164</v>
+        <v>2293</v>
       </c>
       <c r="K1088" s="22" t="s">
         <v>156</v>
@@ -61419,43 +61412,42 @@
         <v>323</v>
       </c>
       <c r="M1088" s="24" t="s">
-        <v>5796</v>
+        <v>5829</v>
       </c>
       <c r="N1088" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="O1088" s="25"/>
+      <c r="O1088" s="25" t="s">
+        <v>5354</v>
+      </c>
     </row>
     <row r="1089" spans="1:15">
       <c r="A1089" s="3" t="s">
-        <v>6591</v>
+        <v>6998</v>
       </c>
       <c r="B1089" s="49" t="s">
-        <v>5833</v>
+        <v>5831</v>
       </c>
       <c r="C1089" s="21" t="s">
-        <v>2317</v>
+        <v>7007</v>
       </c>
       <c r="D1089" s="23" t="s">
-        <v>172</v>
+        <v>858</v>
       </c>
       <c r="E1089" s="32" t="s">
-        <v>2320</v>
+        <v>2312</v>
       </c>
       <c r="F1089" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G1089" s="3" t="s">
-        <v>2321</v>
+        <v>2313</v>
       </c>
       <c r="H1089" s="3" t="s">
-        <v>254</v>
+        <v>2314</v>
       </c>
       <c r="I1089" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1089" s="22" t="s">
-        <v>255</v>
+        <v>2315</v>
       </c>
       <c r="K1089" s="22" t="s">
         <v>156</v>
@@ -61467,39 +61459,37 @@
         <v>2761</v>
       </c>
       <c r="N1089" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="O1089" s="25" t="s">
-        <v>2322</v>
-      </c>
+        <v>2316</v>
+      </c>
+      <c r="O1089" s="25"/>
     </row>
     <row r="1090" spans="1:15">
       <c r="A1090" s="3" t="s">
-        <v>6592</v>
+        <v>6590</v>
       </c>
       <c r="B1090" s="49" t="s">
-        <v>5834</v>
+        <v>5832</v>
       </c>
       <c r="C1090" s="21" t="s">
-        <v>2323</v>
+        <v>2317</v>
       </c>
       <c r="D1090" s="23" t="s">
         <v>172</v>
       </c>
       <c r="E1090" s="32" t="s">
-        <v>2324</v>
+        <v>2318</v>
       </c>
       <c r="F1090" s="3" t="s">
-        <v>2325</v>
+        <v>2319</v>
       </c>
       <c r="H1090" s="3" t="s">
-        <v>1652</v>
+        <v>168</v>
       </c>
       <c r="I1090" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1090" s="22" t="s">
-        <v>2326</v>
+        <v>2164</v>
       </c>
       <c r="K1090" s="22" t="s">
         <v>156</v>
@@ -61508,7 +61498,7 @@
         <v>323</v>
       </c>
       <c r="M1090" s="24" t="s">
-        <v>5814</v>
+        <v>5796</v>
       </c>
       <c r="N1090" s="25" t="s">
         <v>323</v>
@@ -61517,31 +61507,34 @@
     </row>
     <row r="1091" spans="1:15">
       <c r="A1091" s="3" t="s">
-        <v>6593</v>
+        <v>6591</v>
       </c>
       <c r="B1091" s="49" t="s">
-        <v>5355</v>
+        <v>5833</v>
       </c>
       <c r="C1091" s="21" t="s">
-        <v>2327</v>
+        <v>2317</v>
       </c>
       <c r="D1091" s="23" t="s">
         <v>172</v>
       </c>
       <c r="E1091" s="32" t="s">
-        <v>2328</v>
+        <v>2320</v>
       </c>
       <c r="F1091" s="3" t="s">
-        <v>2329</v>
+        <v>253</v>
+      </c>
+      <c r="G1091" s="3" t="s">
+        <v>2321</v>
       </c>
       <c r="H1091" s="3" t="s">
-        <v>2330</v>
+        <v>254</v>
       </c>
       <c r="I1091" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1091" s="22" t="s">
-        <v>2331</v>
+        <v>255</v>
       </c>
       <c r="K1091" s="22" t="s">
         <v>156</v>
@@ -61555,35 +61548,37 @@
       <c r="N1091" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="O1091" s="25"/>
+      <c r="O1091" s="25" t="s">
+        <v>2322</v>
+      </c>
     </row>
     <row r="1092" spans="1:15">
       <c r="A1092" s="3" t="s">
-        <v>6594</v>
+        <v>6592</v>
       </c>
       <c r="B1092" s="49" t="s">
-        <v>5835</v>
+        <v>5834</v>
       </c>
       <c r="C1092" s="21" t="s">
-        <v>2332</v>
+        <v>2323</v>
       </c>
       <c r="D1092" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E1092" s="32" t="s">
-        <v>2333</v>
+        <v>2324</v>
       </c>
       <c r="F1092" s="3" t="s">
-        <v>2310</v>
+        <v>2325</v>
       </c>
       <c r="H1092" s="3" t="s">
-        <v>1537</v>
+        <v>1652</v>
       </c>
       <c r="I1092" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1092" s="22" t="s">
-        <v>2311</v>
+        <v>2326</v>
       </c>
       <c r="K1092" s="22" t="s">
         <v>156</v>
@@ -61592,7 +61587,7 @@
         <v>323</v>
       </c>
       <c r="M1092" s="24" t="s">
-        <v>5382</v>
+        <v>5814</v>
       </c>
       <c r="N1092" s="25" t="s">
         <v>323</v>
@@ -61601,34 +61596,31 @@
     </row>
     <row r="1093" spans="1:15">
       <c r="A1093" s="3" t="s">
-        <v>6595</v>
+        <v>6593</v>
       </c>
       <c r="B1093" s="49" t="s">
-        <v>5836</v>
+        <v>5355</v>
       </c>
       <c r="C1093" s="21" t="s">
-        <v>2303</v>
+        <v>2327</v>
       </c>
       <c r="D1093" s="23" t="s">
         <v>172</v>
       </c>
       <c r="E1093" s="32" t="s">
-        <v>2305</v>
+        <v>2328</v>
       </c>
       <c r="F1093" s="3" t="s">
-        <v>2334</v>
-      </c>
-      <c r="G1093" s="3" t="s">
-        <v>2335</v>
+        <v>2329</v>
       </c>
       <c r="H1093" s="3" t="s">
-        <v>249</v>
+        <v>2330</v>
       </c>
       <c r="I1093" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1093" s="22" t="s">
-        <v>2336</v>
+        <v>2331</v>
       </c>
       <c r="K1093" s="22" t="s">
         <v>156</v>
@@ -61637,7 +61629,7 @@
         <v>323</v>
       </c>
       <c r="M1093" s="24" t="s">
-        <v>5814</v>
+        <v>2761</v>
       </c>
       <c r="N1093" s="25" t="s">
         <v>323</v>
@@ -61646,34 +61638,31 @@
     </row>
     <row r="1094" spans="1:15">
       <c r="A1094" s="3" t="s">
-        <v>6596</v>
+        <v>6594</v>
       </c>
       <c r="B1094" s="49" t="s">
-        <v>5837</v>
+        <v>5835</v>
       </c>
       <c r="C1094" s="21" t="s">
-        <v>2337</v>
+        <v>2332</v>
       </c>
       <c r="D1094" s="23" t="s">
         <v>171</v>
       </c>
       <c r="E1094" s="32" t="s">
-        <v>2338</v>
+        <v>2333</v>
       </c>
       <c r="F1094" s="3" t="s">
-        <v>2339</v>
-      </c>
-      <c r="G1094" s="3" t="s">
-        <v>2340</v>
+        <v>2310</v>
       </c>
       <c r="H1094" s="3" t="s">
-        <v>254</v>
+        <v>1537</v>
       </c>
       <c r="I1094" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1094" s="22" t="s">
-        <v>2341</v>
+        <v>2311</v>
       </c>
       <c r="K1094" s="22" t="s">
         <v>156</v>
@@ -61682,7 +61671,7 @@
         <v>323</v>
       </c>
       <c r="M1094" s="24" t="s">
-        <v>5805</v>
+        <v>5382</v>
       </c>
       <c r="N1094" s="25" t="s">
         <v>323</v>
@@ -61691,31 +61680,34 @@
     </row>
     <row r="1095" spans="1:15">
       <c r="A1095" s="3" t="s">
-        <v>6597</v>
+        <v>6595</v>
       </c>
       <c r="B1095" s="49" t="s">
-        <v>5838</v>
+        <v>5836</v>
       </c>
       <c r="C1095" s="21" t="s">
-        <v>2342</v>
+        <v>2303</v>
       </c>
       <c r="D1095" s="23" t="s">
         <v>172</v>
       </c>
       <c r="E1095" s="32" t="s">
-        <v>2343</v>
+        <v>2305</v>
       </c>
       <c r="F1095" s="3" t="s">
-        <v>2344</v>
+        <v>2334</v>
+      </c>
+      <c r="G1095" s="3" t="s">
+        <v>2335</v>
       </c>
       <c r="H1095" s="3" t="s">
-        <v>2345</v>
+        <v>249</v>
       </c>
       <c r="I1095" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1095" s="22" t="s">
-        <v>2346</v>
+        <v>2336</v>
       </c>
       <c r="K1095" s="22" t="s">
         <v>156</v>
@@ -61724,7 +61716,7 @@
         <v>323</v>
       </c>
       <c r="M1095" s="24" t="s">
-        <v>5805</v>
+        <v>5814</v>
       </c>
       <c r="N1095" s="25" t="s">
         <v>323</v>
@@ -61733,31 +61725,34 @@
     </row>
     <row r="1096" spans="1:15">
       <c r="A1096" s="3" t="s">
-        <v>6598</v>
+        <v>6596</v>
       </c>
       <c r="B1096" s="49" t="s">
-        <v>5839</v>
+        <v>5837</v>
       </c>
       <c r="C1096" s="21" t="s">
-        <v>2285</v>
+        <v>2337</v>
       </c>
       <c r="D1096" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E1096" s="32" t="s">
-        <v>2286</v>
+        <v>2338</v>
       </c>
       <c r="F1096" s="3" t="s">
-        <v>2287</v>
+        <v>2339</v>
+      </c>
+      <c r="G1096" s="3" t="s">
+        <v>2340</v>
       </c>
       <c r="H1096" s="3" t="s">
-        <v>2288</v>
+        <v>254</v>
       </c>
       <c r="I1096" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1096" s="22" t="s">
-        <v>2289</v>
+        <v>2341</v>
       </c>
       <c r="K1096" s="22" t="s">
         <v>156</v>
@@ -61766,7 +61761,7 @@
         <v>323</v>
       </c>
       <c r="M1096" s="24" t="s">
-        <v>2761</v>
+        <v>5805</v>
       </c>
       <c r="N1096" s="25" t="s">
         <v>323</v>
@@ -61775,165 +61770,170 @@
     </row>
     <row r="1097" spans="1:15">
       <c r="A1097" s="3" t="s">
-        <v>7017</v>
+        <v>6597</v>
       </c>
       <c r="B1097" s="49" t="s">
-        <v>7018</v>
+        <v>5838</v>
       </c>
       <c r="C1097" s="21" t="s">
-        <v>7019</v>
+        <v>2342</v>
       </c>
       <c r="D1097" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E1097" s="21" t="s">
-        <v>2886</v>
+      <c r="E1097" s="32" t="s">
+        <v>2343</v>
       </c>
       <c r="F1097" s="3" t="s">
-        <v>2887</v>
+        <v>2344</v>
       </c>
       <c r="H1097" s="3" t="s">
-        <v>7020</v>
+        <v>2345</v>
       </c>
       <c r="I1097" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1097" s="22" t="s">
-        <v>2888</v>
+        <v>2346</v>
       </c>
       <c r="K1097" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="L1097" t="s">
+      <c r="L1097" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="M1097" s="46" t="s">
-        <v>5633</v>
-      </c>
-      <c r="N1097" t="s">
+      <c r="M1097" s="24" t="s">
+        <v>5805</v>
+      </c>
+      <c r="N1097" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="O1097" t="s">
-        <v>5354</v>
-      </c>
+      <c r="O1097" s="25"/>
     </row>
     <row r="1098" spans="1:15">
       <c r="A1098" s="3" t="s">
-        <v>7021</v>
+        <v>6598</v>
       </c>
       <c r="B1098" s="49" t="s">
-        <v>7022</v>
+        <v>5839</v>
       </c>
       <c r="C1098" s="21" t="s">
-        <v>7023</v>
-      </c>
-      <c r="E1098" s="21" t="s">
-        <v>7024</v>
+        <v>2285</v>
+      </c>
+      <c r="D1098" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1098" s="32" t="s">
+        <v>2286</v>
       </c>
       <c r="F1098" s="3" t="s">
-        <v>7025</v>
+        <v>2287</v>
       </c>
       <c r="H1098" s="3" t="s">
-        <v>224</v>
+        <v>2288</v>
       </c>
       <c r="I1098" s="22" t="s">
         <v>575</v>
       </c>
       <c r="J1098" s="22" t="s">
-        <v>7026</v>
+        <v>2289</v>
       </c>
       <c r="K1098" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="L1098" t="s">
-        <v>2760</v>
-      </c>
-      <c r="M1098" s="46" t="s">
+      <c r="L1098" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="M1098" s="24" t="s">
         <v>2761</v>
       </c>
-      <c r="N1098" t="s">
-        <v>2760</v>
-      </c>
+      <c r="N1098" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="O1098" s="25"/>
     </row>
     <row r="1099" spans="1:15">
       <c r="A1099" s="3" t="s">
-        <v>7027</v>
+        <v>7017</v>
       </c>
       <c r="B1099" s="49" t="s">
-        <v>7028</v>
+        <v>7018</v>
       </c>
       <c r="C1099" s="21" t="s">
-        <v>7029</v>
+        <v>7019</v>
+      </c>
+      <c r="D1099" s="23" t="s">
+        <v>172</v>
       </c>
       <c r="E1099" s="21" t="s">
-        <v>7030</v>
+        <v>2886</v>
       </c>
       <c r="F1099" s="3" t="s">
-        <v>7031</v>
+        <v>2887</v>
       </c>
       <c r="H1099" s="3" t="s">
-        <v>283</v>
+        <v>7020</v>
       </c>
       <c r="I1099" s="22" t="s">
-        <v>7032</v>
+        <v>575</v>
       </c>
       <c r="J1099" s="22" t="s">
-        <v>7033</v>
+        <v>2888</v>
       </c>
       <c r="K1099" s="22" t="s">
         <v>156</v>
       </c>
       <c r="L1099" t="s">
-        <v>816</v>
+        <v>323</v>
       </c>
       <c r="M1099" s="46" t="s">
         <v>5633</v>
       </c>
       <c r="N1099" t="s">
-        <v>816</v>
+        <v>323</v>
       </c>
       <c r="O1099" t="s">
-        <v>7034</v>
+        <v>5354</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1096" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O1096">
-      <sortCondition ref="B2:B1096"/>
-      <sortCondition ref="A2:A1096"/>
+  <autoFilter ref="A1:O1098" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O1098">
+      <sortCondition ref="B2:B1098"/>
+      <sortCondition ref="A2:A1098"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A2:O9804">
+  <conditionalFormatting sqref="A2:O9802">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E1096" r:id="rId1" xr:uid="{F456DE86-0DC4-459B-8786-AEB12C0F36B0}"/>
-    <hyperlink ref="E1095" r:id="rId2" xr:uid="{A987B60B-629E-450A-AFE5-A7284329CD96}"/>
-    <hyperlink ref="E1094" r:id="rId3" xr:uid="{BDA96C0A-370D-46F7-82B7-86D5AE155E9F}"/>
-    <hyperlink ref="E1093" r:id="rId4" xr:uid="{E0EF30A2-FEE8-48F7-905E-3DCEE9D90336}"/>
-    <hyperlink ref="E1092" r:id="rId5" xr:uid="{F5EE9F94-288C-4D35-98F2-B7DF314331DE}"/>
-    <hyperlink ref="E1091" r:id="rId6" xr:uid="{A71B48CB-C499-456A-8FFD-47EFE60A828E}"/>
-    <hyperlink ref="E1090" r:id="rId7" xr:uid="{AF04FF5C-ADCA-44DC-B3B2-A425FC0DCFD9}"/>
-    <hyperlink ref="E1089" r:id="rId8" xr:uid="{F55EAFC5-5519-4A1F-80D4-95B4D202FE38}"/>
-    <hyperlink ref="E1088" r:id="rId9" xr:uid="{5FE20200-FB86-452E-8BE1-863A3C65BD07}"/>
-    <hyperlink ref="E1087" r:id="rId10" xr:uid="{8F88B4B6-197E-4940-B572-1769D2C402A3}"/>
-    <hyperlink ref="E1086" r:id="rId11" xr:uid="{DACEA89F-4573-408A-AA3D-AAFC4DF8DB2E}"/>
-    <hyperlink ref="E1085" r:id="rId12" xr:uid="{BF25E2D2-8541-4371-99B7-17A8B86CC8F6}"/>
-    <hyperlink ref="E1084" r:id="rId13" xr:uid="{57CD897B-E530-431D-A4B5-59D9C0F63217}"/>
-    <hyperlink ref="E1083" r:id="rId14" xr:uid="{CEEE77DB-0464-4890-9DA6-629F365AAC93}"/>
-    <hyperlink ref="E1082" r:id="rId15" xr:uid="{D183A8CF-2618-4DDD-8523-A347B0789735}"/>
-    <hyperlink ref="E1081" r:id="rId16" xr:uid="{B44DC245-3939-4FC4-B86F-7F55F80E20F1}"/>
-    <hyperlink ref="E1080" r:id="rId17" xr:uid="{77BEB31C-67F9-4892-974A-C42D173ACEC7}"/>
-    <hyperlink ref="E1079" r:id="rId18" xr:uid="{802015E0-18C1-4D8F-BD48-60606EF00558}"/>
-    <hyperlink ref="E1078" r:id="rId19" xr:uid="{185AA3D8-0081-42DB-B36C-3B1B4DF6AE78}"/>
-    <hyperlink ref="E1077" r:id="rId20" xr:uid="{C92F0FF0-F014-47C6-8A1D-37500F8CB37C}"/>
-    <hyperlink ref="E1076" r:id="rId21" xr:uid="{A79E531F-E421-48DC-B313-0C433AA33C66}"/>
-    <hyperlink ref="E1075" r:id="rId22" xr:uid="{CF6C1299-30F9-427A-9C11-CDEF3096DB13}"/>
-    <hyperlink ref="E1074" r:id="rId23" xr:uid="{B0ED86D2-3643-405A-B6A7-581D3F444E88}"/>
-    <hyperlink ref="E1073" r:id="rId24" xr:uid="{3643C6A3-6F1E-403F-B5BD-A7251D505F5B}"/>
-    <hyperlink ref="E1071" r:id="rId25" xr:uid="{0E92FFCB-F966-4697-91BE-A3130C1CAE25}"/>
+    <hyperlink ref="E1098" r:id="rId1" xr:uid="{F456DE86-0DC4-459B-8786-AEB12C0F36B0}"/>
+    <hyperlink ref="E1097" r:id="rId2" xr:uid="{A987B60B-629E-450A-AFE5-A7284329CD96}"/>
+    <hyperlink ref="E1096" r:id="rId3" xr:uid="{BDA96C0A-370D-46F7-82B7-86D5AE155E9F}"/>
+    <hyperlink ref="E1095" r:id="rId4" xr:uid="{E0EF30A2-FEE8-48F7-905E-3DCEE9D90336}"/>
+    <hyperlink ref="E1094" r:id="rId5" xr:uid="{F5EE9F94-288C-4D35-98F2-B7DF314331DE}"/>
+    <hyperlink ref="E1093" r:id="rId6" xr:uid="{A71B48CB-C499-456A-8FFD-47EFE60A828E}"/>
+    <hyperlink ref="E1092" r:id="rId7" xr:uid="{AF04FF5C-ADCA-44DC-B3B2-A425FC0DCFD9}"/>
+    <hyperlink ref="E1091" r:id="rId8" xr:uid="{F55EAFC5-5519-4A1F-80D4-95B4D202FE38}"/>
+    <hyperlink ref="E1090" r:id="rId9" xr:uid="{5FE20200-FB86-452E-8BE1-863A3C65BD07}"/>
+    <hyperlink ref="E1089" r:id="rId10" xr:uid="{8F88B4B6-197E-4940-B572-1769D2C402A3}"/>
+    <hyperlink ref="E1088" r:id="rId11" xr:uid="{DACEA89F-4573-408A-AA3D-AAFC4DF8DB2E}"/>
+    <hyperlink ref="E1087" r:id="rId12" xr:uid="{BF25E2D2-8541-4371-99B7-17A8B86CC8F6}"/>
+    <hyperlink ref="E1086" r:id="rId13" xr:uid="{57CD897B-E530-431D-A4B5-59D9C0F63217}"/>
+    <hyperlink ref="E1085" r:id="rId14" xr:uid="{CEEE77DB-0464-4890-9DA6-629F365AAC93}"/>
+    <hyperlink ref="E1084" r:id="rId15" xr:uid="{D183A8CF-2618-4DDD-8523-A347B0789735}"/>
+    <hyperlink ref="E1083" r:id="rId16" xr:uid="{B44DC245-3939-4FC4-B86F-7F55F80E20F1}"/>
+    <hyperlink ref="E1082" r:id="rId17" xr:uid="{77BEB31C-67F9-4892-974A-C42D173ACEC7}"/>
+    <hyperlink ref="E1081" r:id="rId18" xr:uid="{802015E0-18C1-4D8F-BD48-60606EF00558}"/>
+    <hyperlink ref="E1080" r:id="rId19" xr:uid="{185AA3D8-0081-42DB-B36C-3B1B4DF6AE78}"/>
+    <hyperlink ref="E1079" r:id="rId20" xr:uid="{C92F0FF0-F014-47C6-8A1D-37500F8CB37C}"/>
+    <hyperlink ref="E1078" r:id="rId21" xr:uid="{A79E531F-E421-48DC-B313-0C433AA33C66}"/>
+    <hyperlink ref="E1077" r:id="rId22" xr:uid="{CF6C1299-30F9-427A-9C11-CDEF3096DB13}"/>
+    <hyperlink ref="E1076" r:id="rId23" xr:uid="{B0ED86D2-3643-405A-B6A7-581D3F444E88}"/>
+    <hyperlink ref="E1075" r:id="rId24" xr:uid="{3643C6A3-6F1E-403F-B5BD-A7251D505F5B}"/>
+    <hyperlink ref="E1073" r:id="rId25" xr:uid="{0E92FFCB-F966-4697-91BE-A3130C1CAE25}"/>
     <hyperlink ref="E373" r:id="rId26" xr:uid="{B4AE46D0-0113-43B5-920F-41BAD7FB12F3}"/>
     <hyperlink ref="E360" r:id="rId27" xr:uid="{6A53CFF1-B4AE-4894-AF74-B4B080E1676D}"/>
     <hyperlink ref="E357" r:id="rId28" xr:uid="{FC91B321-7F3C-4B7C-978D-FF322BE215D6}"/>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70BC032-239E-45E6-AFA2-668E84A63C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910D738E-4FC0-46D9-A1A5-7818B6BBF25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11974" uniqueCount="7037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11980" uniqueCount="7041">
   <si>
     <t>Client_ID</t>
   </si>
@@ -20932,9 +20932,6 @@
     <t>9054-7555 Québec Inc. [Dissoute]</t>
   </si>
   <si>
-    <t>catherine@cblanchette.ca;</t>
-  </si>
-  <si>
     <t>9157-9623 Québec Inc. [Café Morgane]</t>
   </si>
   <si>
@@ -21161,6 +21158,21 @@
   </si>
   <si>
     <t>1807</t>
+  </si>
+  <si>
+    <t>1793</t>
+  </si>
+  <si>
+    <t>sop_angel@yahoo.fr</t>
+  </si>
+  <si>
+    <t>202-98 boul. Saint-Jean-Baptiste</t>
+  </si>
+  <si>
+    <t>J6K3A6</t>
+  </si>
+  <si>
+    <t>catherine@cblanchette.ca</t>
   </si>
 </sst>
 </file>
@@ -22346,7 +22358,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
-        <v>7016</v>
+        <v>7015</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>2350</v>
@@ -23591,7 +23603,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="3" t="s">
-        <v>6961</v>
+        <v>6960</v>
       </c>
       <c r="B41" s="49" t="s">
         <v>5911</v>
@@ -33382,7 +33394,7 @@
     </row>
     <row r="340" spans="1:15">
       <c r="A340" s="3" t="s">
-        <v>7008</v>
+        <v>7007</v>
       </c>
       <c r="B340" s="49" t="s">
         <v>5338</v>
@@ -34613,19 +34625,19 @@
     </row>
     <row r="377" spans="1:15">
       <c r="A377" s="3" t="s">
+        <v>6978</v>
+      </c>
+      <c r="B377" s="49" t="s">
         <v>6979</v>
       </c>
-      <c r="B377" s="49" t="s">
-        <v>6980</v>
-      </c>
       <c r="C377" s="21" t="s">
-        <v>6979</v>
+        <v>6978</v>
       </c>
       <c r="E377" s="21" t="s">
+        <v>6983</v>
+      </c>
+      <c r="F377" s="3" t="s">
         <v>6984</v>
-      </c>
-      <c r="F377" s="3" t="s">
-        <v>6985</v>
       </c>
       <c r="H377" s="3" t="s">
         <v>254</v>
@@ -34634,7 +34646,7 @@
         <v>575</v>
       </c>
       <c r="J377" s="22" t="s">
-        <v>6986</v>
+        <v>6985</v>
       </c>
       <c r="K377" s="22" t="s">
         <v>156</v>
@@ -35662,7 +35674,7 @@
         <v>1070</v>
       </c>
       <c r="E403" t="s">
-        <v>6960</v>
+        <v>7040</v>
       </c>
       <c r="F403" s="3" t="s">
         <v>489</v>
@@ -37884,7 +37896,7 @@
     </row>
     <row r="460" spans="1:15">
       <c r="A460" s="3" t="s">
-        <v>6999</v>
+        <v>6998</v>
       </c>
       <c r="B460" s="49" t="s">
         <v>5516</v>
@@ -39960,7 +39972,7 @@
     </row>
     <row r="516" spans="1:15">
       <c r="A516" s="3" t="s">
-        <v>6965</v>
+        <v>6964</v>
       </c>
       <c r="B516" s="49" t="s">
         <v>3008</v>
@@ -40523,7 +40535,7 @@
     </row>
     <row r="531" spans="1:15">
       <c r="A531" s="3" t="s">
-        <v>6967</v>
+        <v>6966</v>
       </c>
       <c r="B531" s="49" t="s">
         <v>3082</v>
@@ -40558,7 +40570,7 @@
     </row>
     <row r="532" spans="1:15">
       <c r="A532" s="3" t="s">
-        <v>6962</v>
+        <v>6961</v>
       </c>
       <c r="B532" s="49" t="s">
         <v>3087</v>
@@ -40739,7 +40751,7 @@
     </row>
     <row r="537" spans="1:15">
       <c r="A537" s="3" t="s">
-        <v>6968</v>
+        <v>6967</v>
       </c>
       <c r="B537" s="49" t="s">
         <v>13</v>
@@ -41027,7 +41039,7 @@
     </row>
     <row r="545" spans="1:15">
       <c r="A545" s="3" t="s">
-        <v>6972</v>
+        <v>6971</v>
       </c>
       <c r="B545" s="49" t="s">
         <v>3142</v>
@@ -41134,7 +41146,7 @@
     </row>
     <row r="548" spans="1:15">
       <c r="A548" s="3" t="s">
-        <v>6963</v>
+        <v>6962</v>
       </c>
       <c r="B548" s="49" t="s">
         <v>3157</v>
@@ -42876,7 +42888,7 @@
     </row>
     <row r="595" spans="1:15">
       <c r="A595" s="3" t="s">
-        <v>6966</v>
+        <v>6965</v>
       </c>
       <c r="B595" s="49" t="s">
         <v>3366</v>
@@ -45636,7 +45648,7 @@
     </row>
     <row r="670" spans="1:15">
       <c r="A670" s="3" t="s">
-        <v>6969</v>
+        <v>6968</v>
       </c>
       <c r="B670" s="49" t="s">
         <v>3706</v>
@@ -47138,7 +47150,7 @@
     </row>
     <row r="711" spans="1:15">
       <c r="A711" s="3" t="s">
-        <v>6964</v>
+        <v>6963</v>
       </c>
       <c r="B711" s="49" t="s">
         <v>3875</v>
@@ -47732,7 +47744,7 @@
     </row>
     <row r="727" spans="1:15">
       <c r="A727" s="3" t="s">
-        <v>6971</v>
+        <v>6970</v>
       </c>
       <c r="B727" s="49" t="s">
         <v>3955</v>
@@ -49496,7 +49508,7 @@
     </row>
     <row r="774" spans="1:15">
       <c r="A774" s="3" t="s">
-        <v>6970</v>
+        <v>6969</v>
       </c>
       <c r="B774" s="49" t="s">
         <v>4195</v>
@@ -60188,8 +60200,8 @@
       <c r="A1058" s="37" t="s">
         <v>6599</v>
       </c>
-      <c r="B1058" s="47">
-        <v>1793</v>
+      <c r="B1058" s="47" t="s">
+        <v>7036</v>
       </c>
       <c r="C1058" s="37" t="s">
         <v>5356</v>
@@ -60198,7 +60210,22 @@
         <v>171</v>
       </c>
       <c r="E1058" s="21" t="s">
-        <v>2763</v>
+        <v>7037</v>
+      </c>
+      <c r="F1058" s="3" t="s">
+        <v>7038</v>
+      </c>
+      <c r="H1058" s="3" t="s">
+        <v>4207</v>
+      </c>
+      <c r="I1058" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="J1058" s="22" t="s">
+        <v>7039</v>
+      </c>
+      <c r="K1058" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="L1058" s="37" t="s">
         <v>894</v>
@@ -60484,19 +60511,19 @@
     </row>
     <row r="1066" spans="1:15">
       <c r="A1066" s="3" t="s">
+        <v>6972</v>
+      </c>
+      <c r="B1066" s="49" t="s">
         <v>6973</v>
       </c>
-      <c r="B1066" s="49" t="s">
+      <c r="C1066" s="21" t="s">
         <v>6974</v>
       </c>
-      <c r="C1066" s="21" t="s">
+      <c r="E1066" s="21" t="s">
         <v>6975</v>
       </c>
-      <c r="E1066" s="21" t="s">
+      <c r="F1066" s="3" t="s">
         <v>6976</v>
-      </c>
-      <c r="F1066" s="3" t="s">
-        <v>6977</v>
       </c>
       <c r="H1066" s="3" t="s">
         <v>168</v>
@@ -60505,7 +60532,7 @@
         <v>2380</v>
       </c>
       <c r="J1066" s="22" t="s">
-        <v>6978</v>
+        <v>6977</v>
       </c>
       <c r="K1066" s="22" t="s">
         <v>156</v>
@@ -60522,13 +60549,13 @@
     </row>
     <row r="1067" spans="1:15">
       <c r="A1067" s="3" t="s">
+        <v>6980</v>
+      </c>
+      <c r="B1067" s="49" t="s">
         <v>6981</v>
       </c>
-      <c r="B1067" s="49" t="s">
+      <c r="L1067" t="s">
         <v>6982</v>
-      </c>
-      <c r="L1067" t="s">
-        <v>6983</v>
       </c>
       <c r="O1067" t="s">
         <v>1479</v>
@@ -60536,19 +60563,19 @@
     </row>
     <row r="1068" spans="1:15">
       <c r="A1068" s="3" t="s">
+        <v>6986</v>
+      </c>
+      <c r="B1068" s="49" t="s">
         <v>6987</v>
       </c>
-      <c r="B1068" s="49" t="s">
+      <c r="C1068" s="21" t="s">
         <v>6988</v>
-      </c>
-      <c r="C1068" s="21" t="s">
-        <v>6989</v>
       </c>
       <c r="D1068" s="23" t="s">
         <v>172</v>
       </c>
       <c r="F1068" s="3" t="s">
-        <v>6990</v>
+        <v>6989</v>
       </c>
       <c r="H1068" s="3" t="s">
         <v>1545</v>
@@ -60557,19 +60584,19 @@
         <v>575</v>
       </c>
       <c r="J1068" s="22" t="s">
+        <v>6990</v>
+      </c>
+      <c r="K1068" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1068" t="s">
         <v>6991</v>
-      </c>
-      <c r="K1068" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1068" t="s">
-        <v>6992</v>
       </c>
       <c r="M1068" s="46" t="s">
         <v>5814</v>
       </c>
       <c r="N1068" t="s">
-        <v>6992</v>
+        <v>6991</v>
       </c>
       <c r="O1068" t="s">
         <v>997</v>
@@ -60577,22 +60604,22 @@
     </row>
     <row r="1069" spans="1:15">
       <c r="A1069" s="3" t="s">
+        <v>6992</v>
+      </c>
+      <c r="B1069" s="49" t="s">
         <v>6993</v>
       </c>
-      <c r="B1069" s="49" t="s">
+      <c r="C1069" s="21" t="s">
         <v>6994</v>
-      </c>
-      <c r="C1069" s="21" t="s">
-        <v>6995</v>
       </c>
       <c r="D1069" s="23" t="s">
         <v>171</v>
       </c>
       <c r="E1069" s="21" t="s">
-        <v>6996</v>
+        <v>6995</v>
       </c>
       <c r="F1069" s="3" t="s">
-        <v>7033</v>
+        <v>7032</v>
       </c>
       <c r="H1069" s="3" t="s">
         <v>180</v>
@@ -60601,7 +60628,7 @@
         <v>575</v>
       </c>
       <c r="J1069" s="22" t="s">
-        <v>7034</v>
+        <v>7033</v>
       </c>
       <c r="K1069" s="22" t="s">
         <v>156</v>
@@ -60615,22 +60642,22 @@
     </row>
     <row r="1070" spans="1:15">
       <c r="A1070" s="3" t="s">
+        <v>7008</v>
+      </c>
+      <c r="B1070" s="49" t="s">
         <v>7009</v>
       </c>
-      <c r="B1070" s="49" t="s">
+      <c r="C1070" s="21" t="s">
         <v>7010</v>
-      </c>
-      <c r="C1070" s="21" t="s">
-        <v>7011</v>
       </c>
       <c r="D1070" s="23" t="s">
         <v>835</v>
       </c>
       <c r="E1070" s="21" t="s">
+        <v>7011</v>
+      </c>
+      <c r="F1070" s="3" t="s">
         <v>7012</v>
-      </c>
-      <c r="F1070" s="3" t="s">
-        <v>7013</v>
       </c>
       <c r="H1070" s="3" t="s">
         <v>2257</v>
@@ -60639,13 +60666,13 @@
         <v>575</v>
       </c>
       <c r="J1070" s="22" t="s">
+        <v>7013</v>
+      </c>
+      <c r="K1070" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1070" t="s">
         <v>7014</v>
-      </c>
-      <c r="K1070" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1070" t="s">
-        <v>7015</v>
       </c>
       <c r="M1070" s="46" t="s">
         <v>2761</v>
@@ -60656,19 +60683,19 @@
     </row>
     <row r="1071" spans="1:15">
       <c r="A1071" s="3" t="s">
+        <v>7020</v>
+      </c>
+      <c r="B1071" s="49" t="s">
+        <v>7034</v>
+      </c>
+      <c r="C1071" s="21" t="s">
         <v>7021</v>
       </c>
-      <c r="B1071" s="49" t="s">
-        <v>7035</v>
-      </c>
-      <c r="C1071" s="21" t="s">
+      <c r="E1071" s="21" t="s">
         <v>7022</v>
       </c>
-      <c r="E1071" s="21" t="s">
+      <c r="F1071" s="3" t="s">
         <v>7023</v>
-      </c>
-      <c r="F1071" s="3" t="s">
-        <v>7024</v>
       </c>
       <c r="H1071" s="3" t="s">
         <v>224</v>
@@ -60677,7 +60704,7 @@
         <v>575</v>
       </c>
       <c r="J1071" s="22" t="s">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="K1071" s="22" t="s">
         <v>156</v>
@@ -60694,28 +60721,28 @@
     </row>
     <row r="1072" spans="1:15">
       <c r="A1072" s="3" t="s">
+        <v>7025</v>
+      </c>
+      <c r="B1072" s="49" t="s">
+        <v>7035</v>
+      </c>
+      <c r="C1072" s="21" t="s">
         <v>7026</v>
       </c>
-      <c r="B1072" s="49" t="s">
-        <v>7036</v>
-      </c>
-      <c r="C1072" s="21" t="s">
+      <c r="E1072" s="21" t="s">
         <v>7027</v>
       </c>
-      <c r="E1072" s="21" t="s">
+      <c r="F1072" s="3" t="s">
         <v>7028</v>
-      </c>
-      <c r="F1072" s="3" t="s">
-        <v>7029</v>
       </c>
       <c r="H1072" s="3" t="s">
         <v>283</v>
       </c>
       <c r="I1072" s="22" t="s">
+        <v>7029</v>
+      </c>
+      <c r="J1072" s="22" t="s">
         <v>7030</v>
-      </c>
-      <c r="J1072" s="22" t="s">
-        <v>7031</v>
       </c>
       <c r="K1072" s="22" t="s">
         <v>156</v>
@@ -60730,7 +60757,7 @@
         <v>816</v>
       </c>
       <c r="O1072" t="s">
-        <v>7032</v>
+        <v>7031</v>
       </c>
     </row>
     <row r="1073" spans="1:15">
@@ -60779,13 +60806,13 @@
     </row>
     <row r="1074" spans="1:15">
       <c r="A1074" s="3" t="s">
-        <v>7000</v>
+        <v>6999</v>
       </c>
       <c r="B1074" s="49" t="s">
         <v>5815</v>
       </c>
       <c r="C1074" s="21" t="s">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="D1074" s="23" t="s">
         <v>171</v>
@@ -60821,13 +60848,13 @@
     </row>
     <row r="1075" spans="1:15">
       <c r="A1075" s="3" t="s">
-        <v>6997</v>
+        <v>6996</v>
       </c>
       <c r="B1075" s="49" t="s">
         <v>5816</v>
       </c>
       <c r="C1075" s="21" t="s">
-        <v>7004</v>
+        <v>7003</v>
       </c>
       <c r="D1075" s="23" t="s">
         <v>175</v>
@@ -60863,13 +60890,13 @@
     </row>
     <row r="1076" spans="1:15">
       <c r="A1076" s="3" t="s">
-        <v>7001</v>
+        <v>7000</v>
       </c>
       <c r="B1076" s="49" t="s">
         <v>5817</v>
       </c>
       <c r="C1076" s="21" t="s">
-        <v>7005</v>
+        <v>7004</v>
       </c>
       <c r="D1076" s="23" t="s">
         <v>171</v>
@@ -61035,13 +61062,13 @@
     </row>
     <row r="1080" spans="1:15">
       <c r="A1080" s="3" t="s">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="B1080" s="49" t="s">
         <v>5820</v>
       </c>
       <c r="C1080" s="21" t="s">
-        <v>7006</v>
+        <v>7005</v>
       </c>
       <c r="D1080" s="23" t="s">
         <v>2283</v>
@@ -61423,13 +61450,13 @@
     </row>
     <row r="1089" spans="1:15">
       <c r="A1089" s="3" t="s">
-        <v>6998</v>
+        <v>6997</v>
       </c>
       <c r="B1089" s="49" t="s">
         <v>5831</v>
       </c>
       <c r="C1089" s="21" t="s">
-        <v>7007</v>
+        <v>7006</v>
       </c>
       <c r="D1089" s="23" t="s">
         <v>858</v>
@@ -61854,13 +61881,13 @@
     </row>
     <row r="1099" spans="1:15">
       <c r="A1099" s="3" t="s">
+        <v>7016</v>
+      </c>
+      <c r="B1099" s="49" t="s">
         <v>7017</v>
       </c>
-      <c r="B1099" s="49" t="s">
+      <c r="C1099" s="21" t="s">
         <v>7018</v>
-      </c>
-      <c r="C1099" s="21" t="s">
-        <v>7019</v>
       </c>
       <c r="D1099" s="23" t="s">
         <v>172</v>
@@ -61872,7 +61899,7 @@
         <v>2887</v>
       </c>
       <c r="H1099" s="3" t="s">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="I1099" s="22" t="s">
         <v>575</v>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3A3D9A-C727-4636-BE41-95911697A0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA0750A-8DF9-4DD6-BF9A-40DDF31F9AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
@@ -20773,9 +20773,6 @@
     <t>4695 Route 125</t>
   </si>
   <si>
-    <t>9514-1149 Québec Inc. [Alexandre Paris]</t>
-  </si>
-  <si>
     <t>1770</t>
   </si>
   <si>
@@ -21194,6 +21191,9 @@
   </si>
   <si>
     <t>J5V 2B4</t>
+  </si>
+  <si>
+    <t>9514-1149 Québec Inc. [Bélanger Sauvé] [Alexandre Paris]</t>
   </si>
 </sst>
 </file>
@@ -22380,7 +22380,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
-        <v>7012</v>
+        <v>7011</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>2350</v>
@@ -23234,7 +23234,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="3" t="s">
-        <v>6945</v>
+        <v>6944</v>
       </c>
       <c r="B30" s="49" t="s">
         <v>2765</v>
@@ -23339,7 +23339,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="3" t="s">
-        <v>6944</v>
+        <v>6943</v>
       </c>
       <c r="B33" s="49" t="s">
         <v>5905</v>
@@ -23625,7 +23625,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="3" t="s">
-        <v>6957</v>
+        <v>6956</v>
       </c>
       <c r="B41" s="49" t="s">
         <v>5908</v>
@@ -23661,7 +23661,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="3" t="s">
-        <v>6946</v>
+        <v>6945</v>
       </c>
       <c r="B42" s="49" t="s">
         <v>2768</v>
@@ -30632,7 +30632,7 @@
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="3" t="s">
-        <v>6940</v>
+        <v>6939</v>
       </c>
       <c r="B254" s="49" t="s">
         <v>5301</v>
@@ -33416,7 +33416,7 @@
     </row>
     <row r="340" spans="1:15">
       <c r="A340" s="3" t="s">
-        <v>7004</v>
+        <v>7003</v>
       </c>
       <c r="B340" s="49" t="s">
         <v>5335</v>
@@ -34647,19 +34647,19 @@
     </row>
     <row r="377" spans="1:15">
       <c r="A377" s="3" t="s">
+        <v>6974</v>
+      </c>
+      <c r="B377" s="49" t="s">
         <v>6975</v>
       </c>
-      <c r="B377" s="49" t="s">
-        <v>6976</v>
-      </c>
       <c r="C377" s="21" t="s">
-        <v>6975</v>
+        <v>6974</v>
       </c>
       <c r="E377" s="21" t="s">
+        <v>6979</v>
+      </c>
+      <c r="F377" s="3" t="s">
         <v>6980</v>
-      </c>
-      <c r="F377" s="3" t="s">
-        <v>6981</v>
       </c>
       <c r="H377" s="3" t="s">
         <v>254</v>
@@ -34668,7 +34668,7 @@
         <v>575</v>
       </c>
       <c r="J377" s="22" t="s">
-        <v>6982</v>
+        <v>6981</v>
       </c>
       <c r="K377" s="22" t="s">
         <v>156</v>
@@ -35144,7 +35144,7 @@
     </row>
     <row r="390" spans="1:15">
       <c r="A390" s="3" t="s">
-        <v>6943</v>
+        <v>6942</v>
       </c>
       <c r="B390" s="49" t="s">
         <v>465</v>
@@ -35684,7 +35684,7 @@
     </row>
     <row r="403" spans="1:15">
       <c r="A403" s="3" t="s">
-        <v>6956</v>
+        <v>6955</v>
       </c>
       <c r="B403" s="49" t="s">
         <v>5494</v>
@@ -35696,7 +35696,7 @@
         <v>1070</v>
       </c>
       <c r="E403" s="50" t="s">
-        <v>7037</v>
+        <v>7036</v>
       </c>
       <c r="F403" s="3" t="s">
         <v>489</v>
@@ -37688,7 +37688,7 @@
     </row>
     <row r="454" spans="1:15">
       <c r="A454" s="3" t="s">
-        <v>6942</v>
+        <v>6941</v>
       </c>
       <c r="B454" s="49" t="s">
         <v>2783</v>
@@ -37918,7 +37918,7 @@
     </row>
     <row r="460" spans="1:15">
       <c r="A460" s="3" t="s">
-        <v>6995</v>
+        <v>6994</v>
       </c>
       <c r="B460" s="49" t="s">
         <v>5513</v>
@@ -39994,7 +39994,7 @@
     </row>
     <row r="516" spans="1:15">
       <c r="A516" s="3" t="s">
-        <v>6961</v>
+        <v>6960</v>
       </c>
       <c r="B516" s="49" t="s">
         <v>3008</v>
@@ -40557,7 +40557,7 @@
     </row>
     <row r="531" spans="1:15">
       <c r="A531" s="3" t="s">
-        <v>6963</v>
+        <v>6962</v>
       </c>
       <c r="B531" s="49" t="s">
         <v>3082</v>
@@ -40592,7 +40592,7 @@
     </row>
     <row r="532" spans="1:15">
       <c r="A532" s="3" t="s">
-        <v>6958</v>
+        <v>6957</v>
       </c>
       <c r="B532" s="49" t="s">
         <v>3087</v>
@@ -40773,7 +40773,7 @@
     </row>
     <row r="537" spans="1:15">
       <c r="A537" s="3" t="s">
-        <v>6964</v>
+        <v>6963</v>
       </c>
       <c r="B537" s="49" t="s">
         <v>13</v>
@@ -41061,7 +41061,7 @@
     </row>
     <row r="545" spans="1:15">
       <c r="A545" s="3" t="s">
-        <v>6968</v>
+        <v>6967</v>
       </c>
       <c r="B545" s="49" t="s">
         <v>3142</v>
@@ -41168,7 +41168,7 @@
     </row>
     <row r="548" spans="1:15">
       <c r="A548" s="3" t="s">
-        <v>6959</v>
+        <v>6958</v>
       </c>
       <c r="B548" s="49" t="s">
         <v>3157</v>
@@ -42910,7 +42910,7 @@
     </row>
     <row r="595" spans="1:15">
       <c r="A595" s="3" t="s">
-        <v>6962</v>
+        <v>6961</v>
       </c>
       <c r="B595" s="49" t="s">
         <v>3366</v>
@@ -44221,7 +44221,7 @@
     </row>
     <row r="631" spans="1:15">
       <c r="A631" s="3" t="s">
-        <v>6941</v>
+        <v>6940</v>
       </c>
       <c r="B631" s="49" t="s">
         <v>3531</v>
@@ -45165,10 +45165,10 @@
         <v>3648</v>
       </c>
       <c r="C656" s="37" t="s">
+        <v>7037</v>
+      </c>
+      <c r="E656" s="37" t="s">
         <v>7038</v>
-      </c>
-      <c r="E656" s="37" t="s">
-        <v>7039</v>
       </c>
       <c r="F656" s="37" t="s">
         <v>3649</v>
@@ -45667,7 +45667,7 @@
     </row>
     <row r="670" spans="1:15">
       <c r="A670" s="3" t="s">
-        <v>6965</v>
+        <v>6964</v>
       </c>
       <c r="B670" s="49" t="s">
         <v>3704</v>
@@ -47169,7 +47169,7 @@
     </row>
     <row r="711" spans="1:15">
       <c r="A711" s="3" t="s">
-        <v>6960</v>
+        <v>6959</v>
       </c>
       <c r="B711" s="49" t="s">
         <v>3873</v>
@@ -47728,7 +47728,7 @@
     </row>
     <row r="726" spans="1:15">
       <c r="A726" s="3" t="s">
-        <v>6952</v>
+        <v>6951</v>
       </c>
       <c r="B726" s="49" t="s">
         <v>3948</v>
@@ -47763,7 +47763,7 @@
     </row>
     <row r="727" spans="1:15">
       <c r="A727" s="3" t="s">
-        <v>6967</v>
+        <v>6966</v>
       </c>
       <c r="B727" s="49" t="s">
         <v>3953</v>
@@ -49527,7 +49527,7 @@
     </row>
     <row r="774" spans="1:15">
       <c r="A774" s="3" t="s">
-        <v>6966</v>
+        <v>6965</v>
       </c>
       <c r="B774" s="49" t="s">
         <v>4193</v>
@@ -50131,7 +50131,7 @@
     </row>
     <row r="790" spans="1:15">
       <c r="A790" s="3" t="s">
-        <v>6934</v>
+        <v>6933</v>
       </c>
       <c r="B790" s="49" t="s">
         <v>4274</v>
@@ -50727,7 +50727,7 @@
     </row>
     <row r="806" spans="1:15">
       <c r="A806" s="3" t="s">
-        <v>6950</v>
+        <v>6949</v>
       </c>
       <c r="B806" s="49" t="s">
         <v>4355</v>
@@ -51059,7 +51059,7 @@
     </row>
     <row r="815" spans="1:15">
       <c r="A815" s="3" t="s">
-        <v>6935</v>
+        <v>6934</v>
       </c>
       <c r="B815" s="49" t="s">
         <v>4395</v>
@@ -51139,7 +51139,7 @@
         <v>4404</v>
       </c>
       <c r="E817" s="37" t="s">
-        <v>7040</v>
+        <v>7039</v>
       </c>
       <c r="F817" s="37" t="s">
         <v>6723</v>
@@ -51833,7 +51833,7 @@
     </row>
     <row r="836" spans="1:15">
       <c r="A836" s="3" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="B836" s="49" t="s">
         <v>4493</v>
@@ -53400,7 +53400,7 @@
     </row>
     <row r="878" spans="1:15">
       <c r="A878" s="3" t="s">
-        <v>6948</v>
+        <v>6947</v>
       </c>
       <c r="B878" s="49" t="s">
         <v>4673</v>
@@ -53847,7 +53847,7 @@
     </row>
     <row r="890" spans="1:15">
       <c r="A890" s="3" t="s">
-        <v>6951</v>
+        <v>6950</v>
       </c>
       <c r="B890" s="49" t="s">
         <v>4732</v>
@@ -54639,7 +54639,7 @@
     </row>
     <row r="911" spans="1:15">
       <c r="A911" s="3" t="s">
-        <v>6937</v>
+        <v>6936</v>
       </c>
       <c r="B911" s="49" t="s">
         <v>4832</v>
@@ -55708,7 +55708,7 @@
     </row>
     <row r="940" spans="1:15">
       <c r="A940" s="3" t="s">
-        <v>6938</v>
+        <v>6937</v>
       </c>
       <c r="B940" s="49" t="s">
         <v>4961</v>
@@ -56040,7 +56040,7 @@
     </row>
     <row r="949" spans="1:15">
       <c r="A949" s="3" t="s">
-        <v>6947</v>
+        <v>6946</v>
       </c>
       <c r="B949" s="49" t="s">
         <v>5002</v>
@@ -56193,7 +56193,7 @@
     </row>
     <row r="953" spans="1:15">
       <c r="A953" s="3" t="s">
-        <v>6949</v>
+        <v>6948</v>
       </c>
       <c r="B953" s="49" t="s">
         <v>5027</v>
@@ -56719,7 +56719,7 @@
     </row>
     <row r="967" spans="1:15">
       <c r="A967" s="3" t="s">
-        <v>6953</v>
+        <v>6952</v>
       </c>
       <c r="B967" s="49" t="s">
         <v>5104</v>
@@ -56761,10 +56761,10 @@
     </row>
     <row r="968" spans="1:15">
       <c r="A968" s="3" t="s">
-        <v>6954</v>
+        <v>6953</v>
       </c>
       <c r="B968" s="49" t="s">
-        <v>6933</v>
+        <v>6932</v>
       </c>
       <c r="C968" s="3" t="s">
         <v>774</v>
@@ -56898,7 +56898,7 @@
         <v>794</v>
       </c>
       <c r="F971" s="3" t="s">
-        <v>6939</v>
+        <v>6938</v>
       </c>
       <c r="G971" s="3" t="s">
         <v>3967</v>
@@ -59242,7 +59242,7 @@
     </row>
     <row r="1032" spans="1:15">
       <c r="A1032" s="3" t="s">
-        <v>6907</v>
+        <v>7047</v>
       </c>
       <c r="B1032" s="49" t="s">
         <v>5133</v>
@@ -59343,7 +59343,7 @@
         <v>2690</v>
       </c>
       <c r="B1035" s="49" t="s">
-        <v>6908</v>
+        <v>6907</v>
       </c>
       <c r="C1035" s="3" t="s">
         <v>1069</v>
@@ -59382,10 +59382,10 @@
     </row>
     <row r="1036" spans="1:15">
       <c r="A1036" s="3" t="s">
-        <v>6955</v>
+        <v>6954</v>
       </c>
       <c r="B1036" s="49" t="s">
-        <v>6909</v>
+        <v>6908</v>
       </c>
       <c r="C1036" s="3" t="s">
         <v>1076</v>
@@ -59421,10 +59421,10 @@
     </row>
     <row r="1037" spans="1:15">
       <c r="A1037" s="3" t="s">
+        <v>6909</v>
+      </c>
+      <c r="B1037" s="49" t="s">
         <v>6910</v>
-      </c>
-      <c r="B1037" s="49" t="s">
-        <v>6911</v>
       </c>
       <c r="C1037" s="3" t="s">
         <v>1082</v>
@@ -59462,7 +59462,7 @@
     </row>
     <row r="1038" spans="1:15">
       <c r="A1038" s="31" t="s">
-        <v>6913</v>
+        <v>6912</v>
       </c>
       <c r="B1038" s="49" t="s">
         <v>5891</v>
@@ -59477,7 +59477,7 @@
         <v>1089</v>
       </c>
       <c r="F1038" s="3" t="s">
-        <v>6912</v>
+        <v>6911</v>
       </c>
       <c r="H1038" s="3" t="s">
         <v>1054</v>
@@ -59503,7 +59503,7 @@
         <v>2691</v>
       </c>
       <c r="B1039" s="49" t="s">
-        <v>6914</v>
+        <v>6913</v>
       </c>
       <c r="C1039" s="3" t="s">
         <v>1091</v>
@@ -59541,7 +59541,7 @@
         <v>2692</v>
       </c>
       <c r="B1040" s="49" t="s">
-        <v>6915</v>
+        <v>6914</v>
       </c>
       <c r="C1040" s="3" t="s">
         <v>1096</v>
@@ -59576,7 +59576,7 @@
     </row>
     <row r="1041" spans="1:15">
       <c r="A1041" s="3" t="s">
-        <v>6916</v>
+        <v>6915</v>
       </c>
       <c r="B1041" s="49" t="s">
         <v>6133</v>
@@ -59665,7 +59665,7 @@
         <v>5137</v>
       </c>
       <c r="F1043" s="3" t="s">
-        <v>6917</v>
+        <v>6916</v>
       </c>
       <c r="G1043" s="3" t="s">
         <v>4460</v>
@@ -59692,7 +59692,7 @@
         <v>2693</v>
       </c>
       <c r="B1044" s="49" t="s">
-        <v>6918</v>
+        <v>6917</v>
       </c>
       <c r="C1044" s="3" t="s">
         <v>1109</v>
@@ -59731,7 +59731,7 @@
     </row>
     <row r="1045" spans="1:15">
       <c r="A1045" s="3" t="s">
-        <v>6919</v>
+        <v>6918</v>
       </c>
       <c r="B1045" s="49" t="s">
         <v>5138</v>
@@ -59769,7 +59769,7 @@
     </row>
     <row r="1046" spans="1:15">
       <c r="A1046" s="3" t="s">
-        <v>6920</v>
+        <v>6919</v>
       </c>
       <c r="B1046" s="49" t="s">
         <v>5139</v>
@@ -59784,7 +59784,7 @@
         <v>5853</v>
       </c>
       <c r="F1046" s="3" t="s">
-        <v>6921</v>
+        <v>6920</v>
       </c>
       <c r="H1046" s="3" t="s">
         <v>254</v>
@@ -59820,7 +59820,7 @@
         <v>6130</v>
       </c>
       <c r="F1047" s="3" t="s">
-        <v>6922</v>
+        <v>6921</v>
       </c>
       <c r="H1047" s="3" t="s">
         <v>6131</v>
@@ -59847,7 +59847,7 @@
     </row>
     <row r="1048" spans="1:15">
       <c r="A1048" s="3" t="s">
-        <v>6923</v>
+        <v>6922</v>
       </c>
       <c r="B1048" s="49" t="s">
         <v>6137</v>
@@ -59862,7 +59862,7 @@
         <v>1120</v>
       </c>
       <c r="F1048" s="3" t="s">
-        <v>6924</v>
+        <v>6923</v>
       </c>
       <c r="H1048" s="3" t="s">
         <v>6139</v>
@@ -59888,7 +59888,7 @@
         <v>2694</v>
       </c>
       <c r="B1049" s="49" t="s">
-        <v>6925</v>
+        <v>6924</v>
       </c>
       <c r="C1049" s="3" t="s">
         <v>1121</v>
@@ -59926,10 +59926,10 @@
     </row>
     <row r="1050" spans="1:15">
       <c r="A1050" s="3" t="s">
+        <v>6925</v>
+      </c>
+      <c r="B1050" s="49" t="s">
         <v>6926</v>
-      </c>
-      <c r="B1050" s="49" t="s">
-        <v>6927</v>
       </c>
       <c r="C1050" s="3" t="s">
         <v>1127</v>
@@ -59968,10 +59968,10 @@
     </row>
     <row r="1051" spans="1:15">
       <c r="A1051" s="3" t="s">
+        <v>6927</v>
+      </c>
+      <c r="B1051" s="49" t="s">
         <v>6928</v>
-      </c>
-      <c r="B1051" s="49" t="s">
-        <v>6929</v>
       </c>
       <c r="C1051" s="3" t="s">
         <v>1134</v>
@@ -60047,7 +60047,7 @@
         <v>1142</v>
       </c>
       <c r="B1053" s="49" t="s">
-        <v>6930</v>
+        <v>6929</v>
       </c>
       <c r="C1053" s="3" t="s">
         <v>1143</v>
@@ -60080,10 +60080,10 @@
     </row>
     <row r="1054" spans="1:15">
       <c r="A1054" s="3" t="s">
+        <v>6930</v>
+      </c>
+      <c r="B1054" s="49" t="s">
         <v>6931</v>
-      </c>
-      <c r="B1054" s="49" t="s">
-        <v>6932</v>
       </c>
       <c r="C1054" s="3" t="s">
         <v>1147</v>
@@ -60220,7 +60220,7 @@
         <v>6596</v>
       </c>
       <c r="B1058" s="47" t="s">
-        <v>7033</v>
+        <v>7032</v>
       </c>
       <c r="C1058" s="37" t="s">
         <v>5353</v>
@@ -60229,10 +60229,10 @@
         <v>171</v>
       </c>
       <c r="E1058" s="21" t="s">
+        <v>7033</v>
+      </c>
+      <c r="F1058" s="3" t="s">
         <v>7034</v>
-      </c>
-      <c r="F1058" s="3" t="s">
-        <v>7035</v>
       </c>
       <c r="H1058" s="3" t="s">
         <v>4205</v>
@@ -60241,7 +60241,7 @@
         <v>575</v>
       </c>
       <c r="J1058" s="22" t="s">
-        <v>7036</v>
+        <v>7035</v>
       </c>
       <c r="K1058" s="22" t="s">
         <v>156</v>
@@ -60530,19 +60530,19 @@
     </row>
     <row r="1066" spans="1:15">
       <c r="A1066" s="3" t="s">
+        <v>6968</v>
+      </c>
+      <c r="B1066" s="49" t="s">
         <v>6969</v>
       </c>
-      <c r="B1066" s="49" t="s">
+      <c r="C1066" s="21" t="s">
         <v>6970</v>
       </c>
-      <c r="C1066" s="21" t="s">
+      <c r="E1066" s="21" t="s">
         <v>6971</v>
       </c>
-      <c r="E1066" s="21" t="s">
+      <c r="F1066" s="3" t="s">
         <v>6972</v>
-      </c>
-      <c r="F1066" s="3" t="s">
-        <v>6973</v>
       </c>
       <c r="H1066" s="3" t="s">
         <v>168</v>
@@ -60551,7 +60551,7 @@
         <v>2380</v>
       </c>
       <c r="J1066" s="22" t="s">
-        <v>6974</v>
+        <v>6973</v>
       </c>
       <c r="K1066" s="22" t="s">
         <v>156</v>
@@ -60568,13 +60568,13 @@
     </row>
     <row r="1067" spans="1:15">
       <c r="A1067" s="3" t="s">
+        <v>6976</v>
+      </c>
+      <c r="B1067" s="49" t="s">
         <v>6977</v>
       </c>
-      <c r="B1067" s="49" t="s">
+      <c r="L1067" t="s">
         <v>6978</v>
-      </c>
-      <c r="L1067" t="s">
-        <v>6979</v>
       </c>
       <c r="O1067" t="s">
         <v>1479</v>
@@ -60582,19 +60582,19 @@
     </row>
     <row r="1068" spans="1:15">
       <c r="A1068" s="3" t="s">
+        <v>6982</v>
+      </c>
+      <c r="B1068" s="49" t="s">
         <v>6983</v>
       </c>
-      <c r="B1068" s="49" t="s">
+      <c r="C1068" s="21" t="s">
         <v>6984</v>
-      </c>
-      <c r="C1068" s="21" t="s">
-        <v>6985</v>
       </c>
       <c r="D1068" s="23" t="s">
         <v>172</v>
       </c>
       <c r="F1068" s="3" t="s">
-        <v>6986</v>
+        <v>6985</v>
       </c>
       <c r="H1068" s="3" t="s">
         <v>1545</v>
@@ -60603,19 +60603,19 @@
         <v>575</v>
       </c>
       <c r="J1068" s="22" t="s">
+        <v>6986</v>
+      </c>
+      <c r="K1068" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1068" t="s">
         <v>6987</v>
-      </c>
-      <c r="K1068" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1068" t="s">
-        <v>6988</v>
       </c>
       <c r="M1068" s="46" t="s">
         <v>5811</v>
       </c>
       <c r="N1068" t="s">
-        <v>6988</v>
+        <v>6987</v>
       </c>
       <c r="O1068" t="s">
         <v>997</v>
@@ -60623,22 +60623,22 @@
     </row>
     <row r="1069" spans="1:15">
       <c r="A1069" s="3" t="s">
+        <v>6988</v>
+      </c>
+      <c r="B1069" s="49" t="s">
         <v>6989</v>
       </c>
-      <c r="B1069" s="49" t="s">
+      <c r="C1069" s="21" t="s">
         <v>6990</v>
-      </c>
-      <c r="C1069" s="21" t="s">
-        <v>6991</v>
       </c>
       <c r="D1069" s="23" t="s">
         <v>171</v>
       </c>
       <c r="E1069" s="21" t="s">
-        <v>6992</v>
+        <v>6991</v>
       </c>
       <c r="F1069" s="3" t="s">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="H1069" s="3" t="s">
         <v>180</v>
@@ -60647,7 +60647,7 @@
         <v>575</v>
       </c>
       <c r="J1069" s="22" t="s">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="K1069" s="22" t="s">
         <v>156</v>
@@ -60661,22 +60661,22 @@
     </row>
     <row r="1070" spans="1:15">
       <c r="A1070" s="3" t="s">
+        <v>7004</v>
+      </c>
+      <c r="B1070" s="49" t="s">
         <v>7005</v>
       </c>
-      <c r="B1070" s="49" t="s">
+      <c r="C1070" s="21" t="s">
         <v>7006</v>
-      </c>
-      <c r="C1070" s="21" t="s">
-        <v>7007</v>
       </c>
       <c r="D1070" s="23" t="s">
         <v>835</v>
       </c>
       <c r="E1070" s="21" t="s">
+        <v>7007</v>
+      </c>
+      <c r="F1070" s="3" t="s">
         <v>7008</v>
-      </c>
-      <c r="F1070" s="3" t="s">
-        <v>7009</v>
       </c>
       <c r="H1070" s="3" t="s">
         <v>2257</v>
@@ -60685,13 +60685,13 @@
         <v>575</v>
       </c>
       <c r="J1070" s="22" t="s">
+        <v>7009</v>
+      </c>
+      <c r="K1070" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1070" t="s">
         <v>7010</v>
-      </c>
-      <c r="K1070" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1070" t="s">
-        <v>7011</v>
       </c>
       <c r="M1070" s="46" t="s">
         <v>2761</v>
@@ -60702,19 +60702,19 @@
     </row>
     <row r="1071" spans="1:15">
       <c r="A1071" s="3" t="s">
+        <v>7016</v>
+      </c>
+      <c r="B1071" s="49" t="s">
+        <v>7030</v>
+      </c>
+      <c r="C1071" s="21" t="s">
         <v>7017</v>
       </c>
-      <c r="B1071" s="49" t="s">
-        <v>7031</v>
-      </c>
-      <c r="C1071" s="21" t="s">
+      <c r="E1071" s="21" t="s">
         <v>7018</v>
       </c>
-      <c r="E1071" s="21" t="s">
+      <c r="F1071" s="3" t="s">
         <v>7019</v>
-      </c>
-      <c r="F1071" s="3" t="s">
-        <v>7020</v>
       </c>
       <c r="H1071" s="3" t="s">
         <v>224</v>
@@ -60723,7 +60723,7 @@
         <v>575</v>
       </c>
       <c r="J1071" s="22" t="s">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="K1071" s="22" t="s">
         <v>156</v>
@@ -60740,28 +60740,28 @@
     </row>
     <row r="1072" spans="1:15">
       <c r="A1072" s="3" t="s">
+        <v>7021</v>
+      </c>
+      <c r="B1072" s="49" t="s">
+        <v>7031</v>
+      </c>
+      <c r="C1072" s="21" t="s">
         <v>7022</v>
       </c>
-      <c r="B1072" s="49" t="s">
-        <v>7032</v>
-      </c>
-      <c r="C1072" s="21" t="s">
+      <c r="E1072" s="21" t="s">
         <v>7023</v>
       </c>
-      <c r="E1072" s="21" t="s">
+      <c r="F1072" s="3" t="s">
         <v>7024</v>
-      </c>
-      <c r="F1072" s="3" t="s">
-        <v>7025</v>
       </c>
       <c r="H1072" s="3" t="s">
         <v>283</v>
       </c>
       <c r="I1072" s="22" t="s">
+        <v>7025</v>
+      </c>
+      <c r="J1072" s="22" t="s">
         <v>7026</v>
-      </c>
-      <c r="J1072" s="22" t="s">
-        <v>7027</v>
       </c>
       <c r="K1072" s="22" t="s">
         <v>156</v>
@@ -60776,7 +60776,7 @@
         <v>816</v>
       </c>
       <c r="O1072" t="s">
-        <v>7028</v>
+        <v>7027</v>
       </c>
     </row>
     <row r="1073" spans="1:15">
@@ -60825,13 +60825,13 @@
     </row>
     <row r="1074" spans="1:15">
       <c r="A1074" s="3" t="s">
-        <v>6996</v>
+        <v>6995</v>
       </c>
       <c r="B1074" s="49" t="s">
         <v>5812</v>
       </c>
       <c r="C1074" s="21" t="s">
-        <v>6999</v>
+        <v>6998</v>
       </c>
       <c r="D1074" s="23" t="s">
         <v>171</v>
@@ -60867,13 +60867,13 @@
     </row>
     <row r="1075" spans="1:15">
       <c r="A1075" s="3" t="s">
-        <v>6993</v>
+        <v>6992</v>
       </c>
       <c r="B1075" s="49" t="s">
         <v>5813</v>
       </c>
       <c r="C1075" s="21" t="s">
-        <v>7000</v>
+        <v>6999</v>
       </c>
       <c r="D1075" s="23" t="s">
         <v>175</v>
@@ -60909,13 +60909,13 @@
     </row>
     <row r="1076" spans="1:15">
       <c r="A1076" s="3" t="s">
-        <v>6997</v>
+        <v>6996</v>
       </c>
       <c r="B1076" s="49" t="s">
         <v>5814</v>
       </c>
       <c r="C1076" s="21" t="s">
-        <v>7001</v>
+        <v>7000</v>
       </c>
       <c r="D1076" s="23" t="s">
         <v>171</v>
@@ -61081,13 +61081,13 @@
     </row>
     <row r="1080" spans="1:15">
       <c r="A1080" s="3" t="s">
-        <v>6998</v>
+        <v>6997</v>
       </c>
       <c r="B1080" s="49" t="s">
         <v>5817</v>
       </c>
       <c r="C1080" s="21" t="s">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="D1080" s="23" t="s">
         <v>2283</v>
@@ -61469,13 +61469,13 @@
     </row>
     <row r="1089" spans="1:15">
       <c r="A1089" s="3" t="s">
-        <v>6994</v>
+        <v>6993</v>
       </c>
       <c r="B1089" s="49" t="s">
         <v>5828</v>
       </c>
       <c r="C1089" s="21" t="s">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="D1089" s="23" t="s">
         <v>858</v>
@@ -61900,13 +61900,13 @@
     </row>
     <row r="1099" spans="1:15">
       <c r="A1099" s="3" t="s">
+        <v>7012</v>
+      </c>
+      <c r="B1099" s="49" t="s">
         <v>7013</v>
       </c>
-      <c r="B1099" s="49" t="s">
+      <c r="C1099" s="21" t="s">
         <v>7014</v>
-      </c>
-      <c r="C1099" s="21" t="s">
-        <v>7015</v>
       </c>
       <c r="D1099" s="23" t="s">
         <v>172</v>
@@ -61918,7 +61918,7 @@
         <v>2887</v>
       </c>
       <c r="H1099" s="3" t="s">
-        <v>7016</v>
+        <v>7015</v>
       </c>
       <c r="I1099" s="22" t="s">
         <v>575</v>
@@ -61944,22 +61944,22 @@
     </row>
     <row r="1100" spans="1:15">
       <c r="A1100" s="3" t="s">
+        <v>7040</v>
+      </c>
+      <c r="B1100" s="49" t="s">
         <v>7041</v>
       </c>
-      <c r="B1100" s="49" t="s">
+      <c r="C1100" s="21" t="s">
         <v>7042</v>
       </c>
-      <c r="C1100" s="21" t="s">
+      <c r="D1100" s="23" t="s">
         <v>7043</v>
       </c>
-      <c r="D1100" s="23" t="s">
+      <c r="E1100" s="21" t="s">
         <v>7044</v>
       </c>
-      <c r="E1100" s="21" t="s">
+      <c r="F1100" s="3" t="s">
         <v>7045</v>
-      </c>
-      <c r="F1100" s="3" t="s">
-        <v>7046</v>
       </c>
       <c r="H1100" s="3" t="s">
         <v>281</v>
@@ -61968,7 +61968,7 @@
         <v>575</v>
       </c>
       <c r="J1100" s="22" t="s">
-        <v>7047</v>
+        <v>7046</v>
       </c>
       <c r="K1100" s="22" t="s">
         <v>156</v>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C492D92C-15EF-4667-BCDF-9E77BB13B872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87F4C5B-16CF-44C7-AEED-1D7393DD391E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39540" yWindow="-15030" windowWidth="21600" windowHeight="11385" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12023" uniqueCount="7059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12030" uniqueCount="7062">
   <si>
     <t>Client_ID</t>
   </si>
@@ -21227,6 +21227,15 @@
   </si>
   <si>
     <t>Gestion GMCB Inc. [Louis Parker][Giovanni Cinquino]</t>
+  </si>
+  <si>
+    <t>François-Pierre Laforest</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>francoisplaforest@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -22301,7 +22310,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:O1102"/>
+  <dimension ref="A1:O1103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
       <pane ySplit="615" topLeftCell="A380" activePane="bottomLeft"/>
@@ -62103,6 +62112,29 @@
       </c>
       <c r="O1102" t="s">
         <v>713</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:15">
+      <c r="A1103" s="3" t="s">
+        <v>7059</v>
+      </c>
+      <c r="B1103" s="49" t="s">
+        <v>7060</v>
+      </c>
+      <c r="C1103" s="21" t="s">
+        <v>7059</v>
+      </c>
+      <c r="D1103" s="23" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E1103" s="21" t="s">
+        <v>7061</v>
+      </c>
+      <c r="L1103" t="s">
+        <v>3683</v>
+      </c>
+      <c r="M1103" s="46" t="s">
+        <v>2761</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C413A2-309A-4085-9B2D-BE365A497E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB94CBB0-19B9-4742-ACA0-6219DA7D3BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12049" uniqueCount="7069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12065" uniqueCount="7077">
   <si>
     <t>Client_ID</t>
   </si>
@@ -21257,6 +21257,30 @@
   </si>
   <si>
     <t>15 chemin des Mésanges</t>
+  </si>
+  <si>
+    <t>Marie Guay</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>Gestion MARIE GUAY</t>
+  </si>
+  <si>
+    <t>marie.guay@outlook.com</t>
+  </si>
+  <si>
+    <t>3467 rue de la Noraye</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Michel Lemieux</t>
+  </si>
+  <si>
+    <t>Pas d'appartement, donc pas de 's'</t>
   </si>
 </sst>
 </file>
@@ -22340,7 +22364,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:Q1104"/>
+  <dimension ref="A1:Q1105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="615" topLeftCell="A2" activePane="bottomLeft"/>
@@ -24462,7 +24486,7 @@
       </c>
       <c r="P56" s="25"/>
       <c r="Q56" s="52">
-        <v>45591.535173611112</v>
+        <v>45592.351817129631</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -65541,6 +65565,59 @@
       </c>
       <c r="Q1104" s="52">
         <v>45591.537442129629</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:17">
+      <c r="A1105" s="3" t="s">
+        <v>7069</v>
+      </c>
+      <c r="B1105" s="49" t="s">
+        <v>7070</v>
+      </c>
+      <c r="C1105" s="49" t="s">
+        <v>7071</v>
+      </c>
+      <c r="D1105" s="21" t="s">
+        <v>7069</v>
+      </c>
+      <c r="E1105" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1105" s="21" t="s">
+        <v>7072</v>
+      </c>
+      <c r="G1105" s="3" t="s">
+        <v>7073</v>
+      </c>
+      <c r="H1105" s="3" t="s">
+        <v>7076</v>
+      </c>
+      <c r="I1105" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1105" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="K1105" s="22" t="s">
+        <v>2904</v>
+      </c>
+      <c r="L1105" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1105" t="s">
+        <v>7074</v>
+      </c>
+      <c r="N1105" s="46" t="s">
+        <v>5787</v>
+      </c>
+      <c r="O1105" t="s">
+        <v>4829</v>
+      </c>
+      <c r="P1105" t="s">
+        <v>7075</v>
+      </c>
+      <c r="Q1105" s="52">
+        <v>45591.804178240738</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87187D7-71CE-4D8A-A551-F8C1BBF905E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3644F6E4-1E68-4676-99B4-DD13A5985527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="30960" windowHeight="12204" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12032" uniqueCount="7064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12046" uniqueCount="7071">
   <si>
     <t>Client_ID</t>
   </si>
@@ -21242,6 +21242,27 @@
   </si>
   <si>
     <t>Logiciels Informat</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>Sélectronix</t>
+  </si>
+  <si>
+    <t>Patrick Gagnon</t>
+  </si>
+  <si>
+    <t>pgagnon@selectronix.ca</t>
+  </si>
+  <si>
+    <t>A-5682 Av Auteuil</t>
+  </si>
+  <si>
+    <t>J4Z 1M4</t>
+  </si>
+  <si>
+    <t>9156-5457 Québec Inc [Sélectronix] [Patrick Gagnon]</t>
   </si>
 </sst>
 </file>
@@ -22325,33 +22346,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:Q1103"/>
+  <dimension ref="A1:Q1104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="612" topLeftCell="A2" activePane="bottomLeft"/>
+      <pane ySplit="615" topLeftCell="A2" activePane="bottomLeft"/>
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
       <selection pane="bottomLeft" activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5546875" style="49" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="32" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.44140625" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" style="52" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -65471,6 +65492,53 @@
       </c>
       <c r="Q1103" s="52">
         <v>45591.506944444445</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:17">
+      <c r="A1104" s="3" t="s">
+        <v>7070</v>
+      </c>
+      <c r="B1104" s="49" t="s">
+        <v>7064</v>
+      </c>
+      <c r="C1104" s="49" t="s">
+        <v>7065</v>
+      </c>
+      <c r="D1104" s="21" t="s">
+        <v>7066</v>
+      </c>
+      <c r="E1104" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1104" s="21" t="s">
+        <v>7067</v>
+      </c>
+      <c r="G1104" s="3" t="s">
+        <v>7068</v>
+      </c>
+      <c r="I1104" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J1104" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="K1104" s="22" t="s">
+        <v>7069</v>
+      </c>
+      <c r="L1104" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1104" t="s">
+        <v>1479</v>
+      </c>
+      <c r="N1104" s="46" t="s">
+        <v>5819</v>
+      </c>
+      <c r="P1104" t="s">
+        <v>1479</v>
+      </c>
+      <c r="Q1104" s="52">
+        <v>45597.596354166664</v>
       </c>
     </row>
   </sheetData>
@@ -65772,26 +65840,26 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="612"/>
+      <pane ySplit="615"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.5546875" style="1"/>
+    <col min="11" max="11" width="17.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -67663,18 +67731,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10" max="13" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="33.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10" max="13" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -68610,7 +68678,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1">
+    <row r="67" spans="1:4" ht="15.75" thickBot="1">
       <c r="A67" s="12" t="s">
         <v>128</v>
       </c>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB53B989-1403-4911-A74F-E2B7B3EB4BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9735FF23-82D3-4AEF-AD39-33B20689E391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="30960" windowHeight="12204" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clients!$A$1:$P$1104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clients!$A$1:$P$1077</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fournisseurs!$A$1:$K$20</definedName>
     <definedName name="dnrClients" localSheetId="0">OFFSET(Clients!#REF!,1,0,COUNTA(Clients!$A:$A)-1,2)</definedName>
     <definedName name="dnrClients" localSheetId="1">OFFSET(Fournisseurs!$A$1,1,0,COUNTA(Fournisseurs!$A:$A)-1,2)</definedName>
@@ -24326,30 +24326,30 @@
   <dimension ref="A1:Q1107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="612" topLeftCell="A448" activePane="bottomLeft"/>
+      <pane ySplit="615" topLeftCell="A1090" activePane="bottomLeft"/>
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
-      <selection pane="bottomLeft" activeCell="C458" sqref="C458"/>
+      <selection pane="bottomLeft" activeCell="A1107" sqref="A1107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5546875" style="49" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="32" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.44140625" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" style="52" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -69007,129 +69007,110 @@
     </row>
     <row r="1077" spans="1:17">
       <c r="A1077" s="3" t="s">
-        <v>6559</v>
+        <v>7060</v>
       </c>
       <c r="B1077" s="49" t="s">
-        <v>46</v>
+        <v>7054</v>
       </c>
       <c r="C1077" s="49" t="s">
-        <v>7531</v>
+        <v>7055</v>
       </c>
       <c r="D1077" s="21" t="s">
-        <v>2267</v>
+        <v>7056</v>
       </c>
       <c r="E1077" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="F1077" s="32" t="s">
-        <v>2268</v>
+      <c r="F1077" s="21" t="s">
+        <v>7057</v>
       </c>
       <c r="G1077" s="3" t="s">
-        <v>2269</v>
+        <v>7058</v>
       </c>
       <c r="I1077" s="3" t="s">
-        <v>2248</v>
+        <v>248</v>
       </c>
       <c r="J1077" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1077" s="22" t="s">
-        <v>2270</v>
+        <v>7059</v>
       </c>
       <c r="L1077" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="M1077" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="N1077" s="24" t="s">
-        <v>5797</v>
-      </c>
-      <c r="O1077" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="P1077" s="25" t="s">
-        <v>5340</v>
+      <c r="M1077" t="s">
+        <v>1479</v>
+      </c>
+      <c r="N1077" s="46" t="s">
+        <v>5812</v>
+      </c>
+      <c r="P1077" t="s">
+        <v>1479</v>
       </c>
       <c r="Q1077" s="52">
-        <v>45591.506944444445</v>
+        <v>45597.596354166664</v>
       </c>
     </row>
     <row r="1078" spans="1:17">
       <c r="A1078" s="3" t="s">
-        <v>6977</v>
+        <v>7712</v>
       </c>
       <c r="B1078" s="49" t="s">
-        <v>5798</v>
+        <v>7713</v>
       </c>
       <c r="C1078" s="49" t="s">
-        <v>7521</v>
+        <v>7714</v>
       </c>
       <c r="D1078" s="21" t="s">
-        <v>6980</v>
+        <v>7714</v>
       </c>
       <c r="E1078" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="G1078" s="3" t="s">
-        <v>2271</v>
-      </c>
-      <c r="I1078" s="3" t="s">
-        <v>2248</v>
-      </c>
-      <c r="J1078" s="22" t="s">
-        <v>575</v>
-      </c>
-      <c r="K1078" s="22" t="s">
-        <v>2272</v>
-      </c>
-      <c r="L1078" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1078" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="N1078" s="24" t="s">
-        <v>2759</v>
-      </c>
-      <c r="O1078" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="P1078" s="25"/>
+        <v>172</v>
+      </c>
+      <c r="F1078" s="21" t="s">
+        <v>7715</v>
+      </c>
+      <c r="M1078" t="s">
+        <v>7716</v>
+      </c>
+      <c r="N1078" s="46" t="s">
+        <v>5796</v>
+      </c>
       <c r="Q1078" s="52">
-        <v>45592.251759259256</v>
+        <v>45600.513379629629</v>
       </c>
     </row>
     <row r="1079" spans="1:17">
       <c r="A1079" s="3" t="s">
-        <v>6974</v>
+        <v>6559</v>
       </c>
       <c r="B1079" s="49" t="s">
-        <v>5799</v>
+        <v>46</v>
       </c>
       <c r="C1079" s="49" t="s">
-        <v>7497</v>
+        <v>7531</v>
       </c>
       <c r="D1079" s="21" t="s">
-        <v>6981</v>
+        <v>2267</v>
       </c>
       <c r="E1079" s="23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F1079" s="32" t="s">
-        <v>2273</v>
+        <v>2268</v>
       </c>
       <c r="G1079" s="3" t="s">
-        <v>2274</v>
+        <v>2269</v>
       </c>
       <c r="I1079" s="3" t="s">
-        <v>254</v>
+        <v>2248</v>
       </c>
       <c r="J1079" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1079" s="22" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
       <c r="L1079" s="22" t="s">
         <v>156</v>
@@ -69138,46 +69119,45 @@
         <v>323</v>
       </c>
       <c r="N1079" s="24" t="s">
-        <v>5617</v>
+        <v>5797</v>
       </c>
       <c r="O1079" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1079" s="25"/>
+      <c r="P1079" s="25" t="s">
+        <v>5340</v>
+      </c>
       <c r="Q1079" s="52">
         <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1080" spans="1:17">
       <c r="A1080" s="3" t="s">
-        <v>6978</v>
+        <v>6977</v>
       </c>
       <c r="B1080" s="49" t="s">
-        <v>5800</v>
+        <v>5798</v>
       </c>
       <c r="C1080" s="49" t="s">
-        <v>7529</v>
+        <v>7521</v>
       </c>
       <c r="D1080" s="21" t="s">
-        <v>6982</v>
+        <v>6980</v>
       </c>
       <c r="E1080" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F1080" s="32" t="s">
-        <v>1585</v>
-      </c>
       <c r="G1080" s="3" t="s">
-        <v>2276</v>
+        <v>2271</v>
       </c>
       <c r="I1080" s="3" t="s">
-        <v>157</v>
+        <v>2248</v>
       </c>
       <c r="J1080" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1080" s="22" t="s">
-        <v>1587</v>
+        <v>2272</v>
       </c>
       <c r="L1080" s="22" t="s">
         <v>156</v>
@@ -69191,43 +69171,41 @@
       <c r="O1080" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1080" s="25" t="s">
-        <v>5340</v>
-      </c>
+      <c r="P1080" s="25"/>
       <c r="Q1080" s="52">
-        <v>45591.506944444445</v>
+        <v>45592.251759259256</v>
       </c>
     </row>
     <row r="1081" spans="1:17">
       <c r="A1081" s="3" t="s">
-        <v>6560</v>
+        <v>6974</v>
       </c>
       <c r="B1081" s="49" t="s">
-        <v>5801</v>
+        <v>5799</v>
       </c>
       <c r="C1081" s="49" t="s">
-        <v>7512</v>
+        <v>7497</v>
       </c>
       <c r="D1081" s="21" t="s">
-        <v>2277</v>
+        <v>6981</v>
       </c>
       <c r="E1081" s="23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F1081" s="32" t="s">
-        <v>2278</v>
+        <v>2273</v>
       </c>
       <c r="G1081" s="3" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="I1081" s="3" t="s">
-        <v>2280</v>
+        <v>254</v>
       </c>
       <c r="J1081" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1081" s="22" t="s">
-        <v>2281</v>
+        <v>2275</v>
       </c>
       <c r="L1081" s="22" t="s">
         <v>156</v>
@@ -69236,7 +69214,7 @@
         <v>323</v>
       </c>
       <c r="N1081" s="24" t="s">
-        <v>2759</v>
+        <v>5617</v>
       </c>
       <c r="O1081" s="25" t="s">
         <v>323</v>
@@ -69248,34 +69226,34 @@
     </row>
     <row r="1082" spans="1:17">
       <c r="A1082" s="3" t="s">
-        <v>6561</v>
+        <v>6978</v>
       </c>
       <c r="B1082" s="49" t="s">
-        <v>48</v>
+        <v>5800</v>
       </c>
       <c r="C1082" s="49" t="s">
-        <v>7292</v>
+        <v>7529</v>
       </c>
       <c r="D1082" s="21" t="s">
-        <v>2282</v>
+        <v>6982</v>
       </c>
       <c r="E1082" s="23" t="s">
-        <v>2283</v>
+        <v>171</v>
       </c>
       <c r="F1082" s="32" t="s">
-        <v>718</v>
+        <v>1585</v>
       </c>
       <c r="G1082" s="3" t="s">
-        <v>2284</v>
+        <v>2276</v>
       </c>
       <c r="I1082" s="3" t="s">
-        <v>1171</v>
+        <v>157</v>
       </c>
       <c r="J1082" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1082" s="22" t="s">
-        <v>721</v>
+        <v>1587</v>
       </c>
       <c r="L1082" s="22" t="s">
         <v>156</v>
@@ -69290,7 +69268,7 @@
         <v>323</v>
       </c>
       <c r="P1082" s="25" t="s">
-        <v>5810</v>
+        <v>5340</v>
       </c>
       <c r="Q1082" s="52">
         <v>45591.506944444445</v>
@@ -69298,34 +69276,34 @@
     </row>
     <row r="1083" spans="1:17">
       <c r="A1083" s="3" t="s">
-        <v>6562</v>
+        <v>6560</v>
       </c>
       <c r="B1083" s="49" t="s">
-        <v>5802</v>
+        <v>5801</v>
       </c>
       <c r="C1083" s="49" t="s">
-        <v>7577</v>
+        <v>7512</v>
       </c>
       <c r="D1083" s="21" t="s">
-        <v>2285</v>
+        <v>2277</v>
       </c>
       <c r="E1083" s="23" t="s">
-        <v>2283</v>
+        <v>172</v>
       </c>
       <c r="F1083" s="32" t="s">
-        <v>2286</v>
+        <v>2278</v>
       </c>
       <c r="G1083" s="3" t="s">
-        <v>2287</v>
+        <v>2279</v>
       </c>
       <c r="I1083" s="3" t="s">
-        <v>2288</v>
+        <v>2280</v>
       </c>
       <c r="J1083" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1083" s="22" t="s">
-        <v>2289</v>
+        <v>2281</v>
       </c>
       <c r="L1083" s="22" t="s">
         <v>156</v>
@@ -69346,34 +69324,34 @@
     </row>
     <row r="1084" spans="1:17">
       <c r="A1084" s="3" t="s">
-        <v>6979</v>
+        <v>6561</v>
       </c>
       <c r="B1084" s="49" t="s">
-        <v>5803</v>
+        <v>48</v>
       </c>
       <c r="C1084" s="49" t="s">
-        <v>7576</v>
+        <v>7292</v>
       </c>
       <c r="D1084" s="21" t="s">
-        <v>6983</v>
+        <v>2282</v>
       </c>
       <c r="E1084" s="23" t="s">
         <v>2283</v>
       </c>
       <c r="F1084" s="32" t="s">
-        <v>2291</v>
+        <v>718</v>
       </c>
       <c r="G1084" s="3" t="s">
-        <v>2292</v>
+        <v>2284</v>
       </c>
       <c r="I1084" s="3" t="s">
-        <v>423</v>
+        <v>1171</v>
       </c>
       <c r="J1084" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1084" s="22" t="s">
-        <v>2293</v>
+        <v>721</v>
       </c>
       <c r="L1084" s="22" t="s">
         <v>156</v>
@@ -69388,7 +69366,7 @@
         <v>323</v>
       </c>
       <c r="P1084" s="25" t="s">
-        <v>5340</v>
+        <v>5810</v>
       </c>
       <c r="Q1084" s="52">
         <v>45591.506944444445</v>
@@ -69396,34 +69374,34 @@
     </row>
     <row r="1085" spans="1:17">
       <c r="A1085" s="3" t="s">
-        <v>6563</v>
+        <v>6562</v>
       </c>
       <c r="B1085" s="49" t="s">
-        <v>5804</v>
+        <v>5802</v>
       </c>
       <c r="C1085" s="49" t="s">
-        <v>7613</v>
+        <v>7577</v>
       </c>
       <c r="D1085" s="21" t="s">
-        <v>2294</v>
+        <v>2285</v>
       </c>
       <c r="E1085" s="23" t="s">
-        <v>172</v>
+        <v>2283</v>
       </c>
       <c r="F1085" s="32" t="s">
-        <v>2295</v>
+        <v>2286</v>
       </c>
       <c r="G1085" s="3" t="s">
-        <v>2296</v>
+        <v>2287</v>
       </c>
       <c r="I1085" s="3" t="s">
-        <v>248</v>
+        <v>2288</v>
       </c>
       <c r="J1085" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1085" s="22" t="s">
-        <v>2297</v>
+        <v>2289</v>
       </c>
       <c r="L1085" s="22" t="s">
         <v>156</v>
@@ -69437,43 +69415,41 @@
       <c r="O1085" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1085" s="25" t="s">
-        <v>5340</v>
-      </c>
+      <c r="P1085" s="25"/>
       <c r="Q1085" s="52">
         <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1086" spans="1:17">
       <c r="A1086" s="3" t="s">
-        <v>6564</v>
+        <v>6979</v>
       </c>
       <c r="B1086" s="49" t="s">
-        <v>5805</v>
+        <v>5803</v>
       </c>
       <c r="C1086" s="49" t="s">
-        <v>7510</v>
+        <v>7576</v>
       </c>
       <c r="D1086" s="21" t="s">
-        <v>2298</v>
+        <v>6983</v>
       </c>
       <c r="E1086" s="23" t="s">
-        <v>172</v>
+        <v>2283</v>
       </c>
       <c r="F1086" s="32" t="s">
-        <v>2299</v>
+        <v>2291</v>
       </c>
       <c r="G1086" s="3" t="s">
-        <v>2300</v>
+        <v>2292</v>
       </c>
       <c r="I1086" s="3" t="s">
-        <v>2301</v>
+        <v>423</v>
       </c>
       <c r="J1086" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1086" s="22" t="s">
-        <v>2302</v>
+        <v>2293</v>
       </c>
       <c r="L1086" s="22" t="s">
         <v>156</v>
@@ -69482,46 +69458,48 @@
         <v>323</v>
       </c>
       <c r="N1086" s="24" t="s">
-        <v>5806</v>
+        <v>2759</v>
       </c>
       <c r="O1086" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1086" s="25"/>
+      <c r="P1086" s="25" t="s">
+        <v>5340</v>
+      </c>
       <c r="Q1086" s="52">
         <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1087" spans="1:17">
       <c r="A1087" s="3" t="s">
-        <v>6565</v>
+        <v>6563</v>
       </c>
       <c r="B1087" s="49" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="C1087" s="49" t="s">
-        <v>7516</v>
+        <v>7613</v>
       </c>
       <c r="D1087" s="21" t="s">
-        <v>2303</v>
+        <v>2294</v>
       </c>
       <c r="E1087" s="23" t="s">
-        <v>2304</v>
+        <v>172</v>
       </c>
       <c r="F1087" s="32" t="s">
-        <v>2305</v>
+        <v>2295</v>
       </c>
       <c r="G1087" s="3" t="s">
-        <v>2306</v>
+        <v>2296</v>
       </c>
       <c r="I1087" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J1087" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1087" s="22" t="s">
-        <v>2307</v>
+        <v>2297</v>
       </c>
       <c r="L1087" s="22" t="s">
         <v>156</v>
@@ -69535,41 +69513,43 @@
       <c r="O1087" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1087" s="25"/>
+      <c r="P1087" s="25" t="s">
+        <v>5340</v>
+      </c>
       <c r="Q1087" s="52">
         <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1088" spans="1:17">
       <c r="A1088" s="3" t="s">
-        <v>6566</v>
+        <v>6564</v>
       </c>
       <c r="B1088" s="49" t="s">
-        <v>5808</v>
+        <v>5805</v>
       </c>
       <c r="C1088" s="49" t="s">
-        <v>7324</v>
+        <v>7510</v>
       </c>
       <c r="D1088" s="21" t="s">
-        <v>2308</v>
+        <v>2298</v>
       </c>
       <c r="E1088" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F1088" s="32" t="s">
-        <v>2309</v>
+        <v>2299</v>
       </c>
       <c r="G1088" s="3" t="s">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="I1088" s="3" t="s">
-        <v>1537</v>
+        <v>2301</v>
       </c>
       <c r="J1088" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1088" s="22" t="s">
-        <v>2311</v>
+        <v>2302</v>
       </c>
       <c r="L1088" s="22" t="s">
         <v>156</v>
@@ -69578,7 +69558,7 @@
         <v>323</v>
       </c>
       <c r="N1088" s="24" t="s">
-        <v>5368</v>
+        <v>5806</v>
       </c>
       <c r="O1088" s="25" t="s">
         <v>323</v>
@@ -69590,34 +69570,34 @@
     </row>
     <row r="1089" spans="1:17">
       <c r="A1089" s="3" t="s">
-        <v>6567</v>
+        <v>6565</v>
       </c>
       <c r="B1089" s="49" t="s">
-        <v>5809</v>
+        <v>5807</v>
       </c>
       <c r="C1089" s="49" t="s">
-        <v>7514</v>
+        <v>7516</v>
       </c>
       <c r="D1089" s="21" t="s">
-        <v>2308</v>
+        <v>2303</v>
       </c>
       <c r="E1089" s="23" t="s">
-        <v>171</v>
+        <v>2304</v>
       </c>
       <c r="F1089" s="32" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="G1089" s="3" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="I1089" s="3" t="s">
-        <v>1537</v>
+        <v>254</v>
       </c>
       <c r="J1089" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1089" s="22" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="L1089" s="22" t="s">
         <v>156</v>
@@ -69626,7 +69606,7 @@
         <v>323</v>
       </c>
       <c r="N1089" s="24" t="s">
-        <v>5368</v>
+        <v>2759</v>
       </c>
       <c r="O1089" s="25" t="s">
         <v>323</v>
@@ -69638,31 +69618,34 @@
     </row>
     <row r="1090" spans="1:17">
       <c r="A1090" s="3" t="s">
-        <v>5875</v>
+        <v>6566</v>
       </c>
       <c r="B1090" s="49" t="s">
-        <v>5339</v>
+        <v>5808</v>
+      </c>
+      <c r="C1090" s="49" t="s">
+        <v>7324</v>
       </c>
       <c r="D1090" s="21" t="s">
-        <v>2282</v>
+        <v>2308</v>
       </c>
       <c r="E1090" s="23" t="s">
-        <v>835</v>
+        <v>171</v>
       </c>
       <c r="F1090" s="32" t="s">
-        <v>718</v>
+        <v>2309</v>
       </c>
       <c r="G1090" s="3" t="s">
-        <v>2284</v>
+        <v>2310</v>
       </c>
       <c r="I1090" s="3" t="s">
-        <v>1171</v>
+        <v>1537</v>
       </c>
       <c r="J1090" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1090" s="22" t="s">
-        <v>721</v>
+        <v>2311</v>
       </c>
       <c r="L1090" s="22" t="s">
         <v>156</v>
@@ -69671,48 +69654,46 @@
         <v>323</v>
       </c>
       <c r="N1090" s="24" t="s">
-        <v>5806</v>
+        <v>5368</v>
       </c>
       <c r="O1090" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1090" s="25" t="s">
-        <v>5340</v>
-      </c>
+      <c r="P1090" s="25"/>
       <c r="Q1090" s="52">
         <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1091" spans="1:17">
       <c r="A1091" s="3" t="s">
-        <v>6568</v>
+        <v>6567</v>
       </c>
       <c r="B1091" s="49" t="s">
-        <v>5811</v>
+        <v>5809</v>
       </c>
       <c r="C1091" s="49" t="s">
-        <v>7523</v>
+        <v>7514</v>
       </c>
       <c r="D1091" s="21" t="s">
-        <v>2290</v>
+        <v>2308</v>
       </c>
       <c r="E1091" s="23" t="s">
-        <v>858</v>
+        <v>171</v>
       </c>
       <c r="F1091" s="32" t="s">
-        <v>2291</v>
+        <v>2309</v>
       </c>
       <c r="G1091" s="3" t="s">
-        <v>2292</v>
+        <v>2310</v>
       </c>
       <c r="I1091" s="3" t="s">
-        <v>423</v>
+        <v>1537</v>
       </c>
       <c r="J1091" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1091" s="22" t="s">
-        <v>2293</v>
+        <v>2311</v>
       </c>
       <c r="L1091" s="22" t="s">
         <v>156</v>
@@ -69721,48 +69702,43 @@
         <v>323</v>
       </c>
       <c r="N1091" s="24" t="s">
-        <v>5812</v>
+        <v>5368</v>
       </c>
       <c r="O1091" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1091" s="25" t="s">
-        <v>5340</v>
-      </c>
+      <c r="P1091" s="25"/>
       <c r="Q1091" s="52">
         <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1092" spans="1:17">
       <c r="A1092" s="3" t="s">
-        <v>6569</v>
+        <v>5875</v>
       </c>
       <c r="B1092" s="49" t="s">
-        <v>5813</v>
-      </c>
-      <c r="C1092" s="49" t="s">
-        <v>7557</v>
+        <v>5339</v>
       </c>
       <c r="D1092" s="21" t="s">
-        <v>2290</v>
+        <v>2282</v>
       </c>
       <c r="E1092" s="23" t="s">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="F1092" s="32" t="s">
-        <v>2291</v>
+        <v>718</v>
       </c>
       <c r="G1092" s="3" t="s">
-        <v>2292</v>
+        <v>2284</v>
       </c>
       <c r="I1092" s="3" t="s">
-        <v>423</v>
+        <v>1171</v>
       </c>
       <c r="J1092" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1092" s="22" t="s">
-        <v>2293</v>
+        <v>721</v>
       </c>
       <c r="L1092" s="22" t="s">
         <v>156</v>
@@ -69771,7 +69747,7 @@
         <v>323</v>
       </c>
       <c r="N1092" s="24" t="s">
-        <v>5812</v>
+        <v>5806</v>
       </c>
       <c r="O1092" s="25" t="s">
         <v>323</v>
@@ -69785,34 +69761,34 @@
     </row>
     <row r="1093" spans="1:17">
       <c r="A1093" s="3" t="s">
-        <v>6975</v>
+        <v>6568</v>
       </c>
       <c r="B1093" s="49" t="s">
-        <v>5814</v>
+        <v>5811</v>
       </c>
       <c r="C1093" s="49" t="s">
-        <v>7453</v>
+        <v>7523</v>
       </c>
       <c r="D1093" s="21" t="s">
-        <v>6984</v>
+        <v>2290</v>
       </c>
       <c r="E1093" s="23" t="s">
         <v>858</v>
       </c>
       <c r="F1093" s="32" t="s">
-        <v>2312</v>
+        <v>2291</v>
       </c>
       <c r="G1093" s="3" t="s">
-        <v>2313</v>
+        <v>2292</v>
       </c>
       <c r="I1093" s="3" t="s">
-        <v>2314</v>
+        <v>423</v>
       </c>
       <c r="J1093" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1093" s="22" t="s">
-        <v>2315</v>
+        <v>2293</v>
       </c>
       <c r="L1093" s="22" t="s">
         <v>156</v>
@@ -69821,46 +69797,48 @@
         <v>323</v>
       </c>
       <c r="N1093" s="24" t="s">
-        <v>2759</v>
+        <v>5812</v>
       </c>
       <c r="O1093" s="25" t="s">
-        <v>2316</v>
-      </c>
-      <c r="P1093" s="25"/>
+        <v>323</v>
+      </c>
+      <c r="P1093" s="25" t="s">
+        <v>5340</v>
+      </c>
       <c r="Q1093" s="52">
         <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1094" spans="1:17">
       <c r="A1094" s="3" t="s">
-        <v>6570</v>
+        <v>6569</v>
       </c>
       <c r="B1094" s="49" t="s">
-        <v>5815</v>
+        <v>5813</v>
       </c>
       <c r="C1094" s="49" t="s">
-        <v>7617</v>
+        <v>7557</v>
       </c>
       <c r="D1094" s="21" t="s">
-        <v>2317</v>
+        <v>2290</v>
       </c>
       <c r="E1094" s="23" t="s">
-        <v>172</v>
+        <v>858</v>
       </c>
       <c r="F1094" s="32" t="s">
-        <v>2318</v>
+        <v>2291</v>
       </c>
       <c r="G1094" s="3" t="s">
-        <v>2319</v>
+        <v>2292</v>
       </c>
       <c r="I1094" s="3" t="s">
-        <v>168</v>
+        <v>423</v>
       </c>
       <c r="J1094" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1094" s="22" t="s">
-        <v>2164</v>
+        <v>2293</v>
       </c>
       <c r="L1094" s="22" t="s">
         <v>156</v>
@@ -69869,49 +69847,48 @@
         <v>323</v>
       </c>
       <c r="N1094" s="24" t="s">
-        <v>5779</v>
+        <v>5812</v>
       </c>
       <c r="O1094" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1094" s="25"/>
+      <c r="P1094" s="25" t="s">
+        <v>5340</v>
+      </c>
       <c r="Q1094" s="52">
         <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1095" spans="1:17">
       <c r="A1095" s="3" t="s">
-        <v>6571</v>
+        <v>6975</v>
       </c>
       <c r="B1095" s="49" t="s">
-        <v>5816</v>
+        <v>5814</v>
       </c>
       <c r="C1095" s="49" t="s">
-        <v>7500</v>
+        <v>7453</v>
       </c>
       <c r="D1095" s="21" t="s">
-        <v>2317</v>
+        <v>6984</v>
       </c>
       <c r="E1095" s="23" t="s">
-        <v>172</v>
+        <v>858</v>
       </c>
       <c r="F1095" s="32" t="s">
-        <v>2320</v>
+        <v>2312</v>
       </c>
       <c r="G1095" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H1095" s="3" t="s">
-        <v>2321</v>
+        <v>2313</v>
       </c>
       <c r="I1095" s="3" t="s">
-        <v>254</v>
+        <v>2314</v>
       </c>
       <c r="J1095" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1095" s="22" t="s">
-        <v>255</v>
+        <v>2315</v>
       </c>
       <c r="L1095" s="22" t="s">
         <v>156</v>
@@ -69923,45 +69900,43 @@
         <v>2759</v>
       </c>
       <c r="O1095" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="P1095" s="25" t="s">
-        <v>2322</v>
-      </c>
+        <v>2316</v>
+      </c>
+      <c r="P1095" s="25"/>
       <c r="Q1095" s="52">
         <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1096" spans="1:17">
       <c r="A1096" s="3" t="s">
-        <v>6572</v>
+        <v>6570</v>
       </c>
       <c r="B1096" s="49" t="s">
-        <v>5817</v>
+        <v>5815</v>
       </c>
       <c r="C1096" s="49" t="s">
-        <v>7431</v>
+        <v>7617</v>
       </c>
       <c r="D1096" s="21" t="s">
-        <v>2323</v>
+        <v>2317</v>
       </c>
       <c r="E1096" s="23" t="s">
         <v>172</v>
       </c>
       <c r="F1096" s="32" t="s">
-        <v>2324</v>
+        <v>2318</v>
       </c>
       <c r="G1096" s="3" t="s">
-        <v>2325</v>
+        <v>2319</v>
       </c>
       <c r="I1096" s="3" t="s">
-        <v>1652</v>
+        <v>168</v>
       </c>
       <c r="J1096" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1096" s="22" t="s">
-        <v>2326</v>
+        <v>2164</v>
       </c>
       <c r="L1096" s="22" t="s">
         <v>156</v>
@@ -69970,7 +69945,7 @@
         <v>323</v>
       </c>
       <c r="N1096" s="24" t="s">
-        <v>5797</v>
+        <v>5779</v>
       </c>
       <c r="O1096" s="25" t="s">
         <v>323</v>
@@ -69982,34 +69957,37 @@
     </row>
     <row r="1097" spans="1:17">
       <c r="A1097" s="3" t="s">
-        <v>6573</v>
+        <v>6571</v>
       </c>
       <c r="B1097" s="49" t="s">
-        <v>5341</v>
+        <v>5816</v>
       </c>
       <c r="C1097" s="49" t="s">
-        <v>7568</v>
+        <v>7500</v>
       </c>
       <c r="D1097" s="21" t="s">
-        <v>7711</v>
+        <v>2317</v>
       </c>
       <c r="E1097" s="23" t="s">
         <v>172</v>
       </c>
       <c r="F1097" s="32" t="s">
-        <v>2327</v>
+        <v>2320</v>
       </c>
       <c r="G1097" s="3" t="s">
-        <v>2328</v>
+        <v>253</v>
+      </c>
+      <c r="H1097" s="3" t="s">
+        <v>2321</v>
       </c>
       <c r="I1097" s="3" t="s">
-        <v>2329</v>
+        <v>254</v>
       </c>
       <c r="J1097" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1097" s="22" t="s">
-        <v>2330</v>
+        <v>255</v>
       </c>
       <c r="L1097" s="22" t="s">
         <v>156</v>
@@ -70023,41 +70001,43 @@
       <c r="O1097" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1097" s="25"/>
+      <c r="P1097" s="25" t="s">
+        <v>2322</v>
+      </c>
       <c r="Q1097" s="52">
-        <v>45599.491631944446</v>
+        <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1098" spans="1:17">
       <c r="A1098" s="3" t="s">
-        <v>6574</v>
+        <v>6572</v>
       </c>
       <c r="B1098" s="49" t="s">
-        <v>5818</v>
+        <v>5817</v>
       </c>
       <c r="C1098" s="49" t="s">
-        <v>7515</v>
+        <v>7431</v>
       </c>
       <c r="D1098" s="21" t="s">
-        <v>2331</v>
+        <v>2323</v>
       </c>
       <c r="E1098" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F1098" s="32" t="s">
-        <v>2332</v>
+        <v>2324</v>
       </c>
       <c r="G1098" s="3" t="s">
-        <v>2310</v>
+        <v>2325</v>
       </c>
       <c r="I1098" s="3" t="s">
-        <v>1537</v>
+        <v>1652</v>
       </c>
       <c r="J1098" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1098" s="22" t="s">
-        <v>2311</v>
+        <v>2326</v>
       </c>
       <c r="L1098" s="22" t="s">
         <v>156</v>
@@ -70066,7 +70046,7 @@
         <v>323</v>
       </c>
       <c r="N1098" s="24" t="s">
-        <v>5368</v>
+        <v>5797</v>
       </c>
       <c r="O1098" s="25" t="s">
         <v>323</v>
@@ -70078,34 +70058,34 @@
     </row>
     <row r="1099" spans="1:17">
       <c r="A1099" s="3" t="s">
-        <v>7729</v>
+        <v>6573</v>
       </c>
       <c r="B1099" s="49" t="s">
-        <v>5819</v>
+        <v>5341</v>
       </c>
       <c r="C1099" s="49" t="s">
-        <v>7256</v>
+        <v>7568</v>
       </c>
       <c r="D1099" s="21" t="s">
-        <v>2303</v>
+        <v>7711</v>
       </c>
       <c r="E1099" s="23" t="s">
         <v>172</v>
       </c>
       <c r="F1099" s="32" t="s">
-        <v>2305</v>
+        <v>2327</v>
       </c>
       <c r="G1099" s="3" t="s">
-        <v>2333</v>
+        <v>2328</v>
       </c>
       <c r="I1099" s="3" t="s">
-        <v>249</v>
+        <v>2329</v>
       </c>
       <c r="J1099" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1099" s="22" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
       <c r="L1099" s="22" t="s">
         <v>156</v>
@@ -70114,49 +70094,46 @@
         <v>323</v>
       </c>
       <c r="N1099" s="24" t="s">
-        <v>5797</v>
+        <v>2759</v>
       </c>
       <c r="O1099" s="25" t="s">
         <v>323</v>
       </c>
       <c r="P1099" s="25"/>
       <c r="Q1099" s="52">
-        <v>45602.572002314817</v>
+        <v>45599.491631944446</v>
       </c>
     </row>
     <row r="1100" spans="1:17">
       <c r="A1100" s="3" t="s">
-        <v>6575</v>
+        <v>6574</v>
       </c>
       <c r="B1100" s="49" t="s">
-        <v>5820</v>
+        <v>5818</v>
       </c>
       <c r="C1100" s="49" t="s">
-        <v>7511</v>
+        <v>7515</v>
       </c>
       <c r="D1100" s="21" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
       <c r="E1100" s="23" t="s">
         <v>171</v>
       </c>
       <c r="F1100" s="32" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
       <c r="G1100" s="3" t="s">
-        <v>2337</v>
-      </c>
-      <c r="H1100" s="3" t="s">
-        <v>2338</v>
+        <v>2310</v>
       </c>
       <c r="I1100" s="3" t="s">
-        <v>254</v>
+        <v>1537</v>
       </c>
       <c r="J1100" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1100" s="22" t="s">
-        <v>2339</v>
+        <v>2311</v>
       </c>
       <c r="L1100" s="22" t="s">
         <v>156</v>
@@ -70165,7 +70142,7 @@
         <v>323</v>
       </c>
       <c r="N1100" s="24" t="s">
-        <v>5788</v>
+        <v>5368</v>
       </c>
       <c r="O1100" s="25" t="s">
         <v>323</v>
@@ -70177,34 +70154,34 @@
     </row>
     <row r="1101" spans="1:17">
       <c r="A1101" s="3" t="s">
-        <v>6576</v>
+        <v>7729</v>
       </c>
       <c r="B1101" s="49" t="s">
-        <v>5821</v>
+        <v>5819</v>
       </c>
       <c r="C1101" s="49" t="s">
-        <v>7623</v>
+        <v>7256</v>
       </c>
       <c r="D1101" s="21" t="s">
-        <v>2340</v>
+        <v>2303</v>
       </c>
       <c r="E1101" s="23" t="s">
         <v>172</v>
       </c>
       <c r="F1101" s="32" t="s">
-        <v>2341</v>
+        <v>2305</v>
       </c>
       <c r="G1101" s="3" t="s">
-        <v>2342</v>
+        <v>2333</v>
       </c>
       <c r="I1101" s="3" t="s">
-        <v>2343</v>
+        <v>249</v>
       </c>
       <c r="J1101" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1101" s="22" t="s">
-        <v>2344</v>
+        <v>2334</v>
       </c>
       <c r="L1101" s="22" t="s">
         <v>156</v>
@@ -70213,46 +70190,49 @@
         <v>323</v>
       </c>
       <c r="N1101" s="24" t="s">
-        <v>5788</v>
+        <v>5797</v>
       </c>
       <c r="O1101" s="25" t="s">
         <v>323</v>
       </c>
       <c r="P1101" s="25"/>
       <c r="Q1101" s="52">
-        <v>45591.506944444445</v>
+        <v>45602.572002314817</v>
       </c>
     </row>
     <row r="1102" spans="1:17">
       <c r="A1102" s="3" t="s">
-        <v>6577</v>
+        <v>6575</v>
       </c>
       <c r="B1102" s="49" t="s">
-        <v>5822</v>
+        <v>5820</v>
       </c>
       <c r="C1102" s="49" t="s">
-        <v>7518</v>
+        <v>7511</v>
       </c>
       <c r="D1102" s="21" t="s">
-        <v>2285</v>
+        <v>2335</v>
       </c>
       <c r="E1102" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1102" s="32" t="s">
-        <v>2286</v>
+        <v>2336</v>
       </c>
       <c r="G1102" s="3" t="s">
-        <v>2287</v>
+        <v>2337</v>
+      </c>
+      <c r="H1102" s="3" t="s">
+        <v>2338</v>
       </c>
       <c r="I1102" s="3" t="s">
-        <v>2288</v>
+        <v>254</v>
       </c>
       <c r="J1102" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1102" s="22" t="s">
-        <v>2289</v>
+        <v>2339</v>
       </c>
       <c r="L1102" s="22" t="s">
         <v>156</v>
@@ -70261,7 +70241,7 @@
         <v>323</v>
       </c>
       <c r="N1102" s="24" t="s">
-        <v>2759</v>
+        <v>5788</v>
       </c>
       <c r="O1102" s="25" t="s">
         <v>323</v>
@@ -70273,128 +70253,148 @@
     </row>
     <row r="1103" spans="1:17">
       <c r="A1103" s="3" t="s">
-        <v>7728</v>
+        <v>6576</v>
       </c>
       <c r="B1103" s="49" t="s">
-        <v>6994</v>
+        <v>5821</v>
       </c>
       <c r="C1103" s="49" t="s">
-        <v>7245</v>
+        <v>7623</v>
       </c>
       <c r="D1103" s="21" t="s">
-        <v>2881</v>
+        <v>2340</v>
       </c>
       <c r="E1103" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="F1103" s="21" t="s">
-        <v>2882</v>
+      <c r="F1103" s="32" t="s">
+        <v>2341</v>
       </c>
       <c r="G1103" s="3" t="s">
-        <v>2883</v>
+        <v>2342</v>
       </c>
       <c r="I1103" s="3" t="s">
-        <v>6995</v>
+        <v>2343</v>
       </c>
       <c r="J1103" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1103" s="22" t="s">
-        <v>2884</v>
+        <v>2344</v>
       </c>
       <c r="L1103" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="M1103" t="s">
+      <c r="M1103" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="N1103" s="46" t="s">
-        <v>5617</v>
-      </c>
-      <c r="O1103" t="s">
+      <c r="N1103" s="24" t="s">
+        <v>5788</v>
+      </c>
+      <c r="O1103" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1103" t="s">
-        <v>5340</v>
-      </c>
+      <c r="P1103" s="25"/>
       <c r="Q1103" s="52">
-        <v>45602.422685185185</v>
+        <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1104" spans="1:17">
       <c r="A1104" s="3" t="s">
-        <v>7060</v>
+        <v>6577</v>
       </c>
       <c r="B1104" s="49" t="s">
-        <v>7054</v>
+        <v>5822</v>
       </c>
       <c r="C1104" s="49" t="s">
-        <v>7055</v>
+        <v>7518</v>
       </c>
       <c r="D1104" s="21" t="s">
-        <v>7056</v>
+        <v>2285</v>
       </c>
       <c r="E1104" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="F1104" s="21" t="s">
-        <v>7057</v>
+      <c r="F1104" s="32" t="s">
+        <v>2286</v>
       </c>
       <c r="G1104" s="3" t="s">
-        <v>7058</v>
+        <v>2287</v>
       </c>
       <c r="I1104" s="3" t="s">
-        <v>248</v>
+        <v>2288</v>
       </c>
       <c r="J1104" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1104" s="22" t="s">
-        <v>7059</v>
+        <v>2289</v>
       </c>
       <c r="L1104" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="M1104" t="s">
-        <v>1479</v>
-      </c>
-      <c r="N1104" s="46" t="s">
-        <v>5812</v>
-      </c>
-      <c r="P1104" t="s">
-        <v>1479</v>
-      </c>
+      <c r="M1104" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="N1104" s="24" t="s">
+        <v>2759</v>
+      </c>
+      <c r="O1104" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="P1104" s="25"/>
       <c r="Q1104" s="52">
-        <v>45597.596354166664</v>
+        <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1105" spans="1:17">
       <c r="A1105" s="3" t="s">
-        <v>7712</v>
+        <v>7728</v>
       </c>
       <c r="B1105" s="49" t="s">
-        <v>7713</v>
+        <v>6994</v>
       </c>
       <c r="C1105" s="49" t="s">
-        <v>7714</v>
+        <v>7245</v>
       </c>
       <c r="D1105" s="21" t="s">
-        <v>7714</v>
+        <v>2881</v>
       </c>
       <c r="E1105" s="23" t="s">
         <v>172</v>
       </c>
       <c r="F1105" s="21" t="s">
-        <v>7715</v>
+        <v>2882</v>
+      </c>
+      <c r="G1105" s="3" t="s">
+        <v>2883</v>
+      </c>
+      <c r="I1105" s="3" t="s">
+        <v>6995</v>
+      </c>
+      <c r="J1105" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="K1105" s="22" t="s">
+        <v>2884</v>
+      </c>
+      <c r="L1105" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="M1105" t="s">
-        <v>7716</v>
+        <v>323</v>
       </c>
       <c r="N1105" s="46" t="s">
-        <v>5796</v>
+        <v>5617</v>
+      </c>
+      <c r="O1105" t="s">
+        <v>323</v>
+      </c>
+      <c r="P1105" t="s">
+        <v>5340</v>
       </c>
       <c r="Q1105" s="52">
-        <v>45600.513379629629</v>
+        <v>45602.422685185185</v>
       </c>
     </row>
     <row r="1106" spans="1:17">
@@ -70480,43 +70480,43 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1104" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P1102">
-      <sortCondition ref="B2:B1102"/>
-      <sortCondition ref="A2:A1102"/>
+  <autoFilter ref="A1:P1105" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P1104">
+      <sortCondition ref="B2:B1104"/>
+      <sortCondition ref="A2:A1104"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A2:Q3000">
+  <conditionalFormatting sqref="A2:Q1107">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F1102" r:id="rId1" xr:uid="{F456DE86-0DC4-459B-8786-AEB12C0F36B0}"/>
-    <hyperlink ref="F1101" r:id="rId2" xr:uid="{A987B60B-629E-450A-AFE5-A7284329CD96}"/>
-    <hyperlink ref="F1100" r:id="rId3" xr:uid="{BDA96C0A-370D-46F7-82B7-86D5AE155E9F}"/>
-    <hyperlink ref="F1099" r:id="rId4" xr:uid="{E0EF30A2-FEE8-48F7-905E-3DCEE9D90336}"/>
-    <hyperlink ref="F1098" r:id="rId5" xr:uid="{F5EE9F94-288C-4D35-98F2-B7DF314331DE}"/>
-    <hyperlink ref="F1097" r:id="rId6" xr:uid="{A71B48CB-C499-456A-8FFD-47EFE60A828E}"/>
-    <hyperlink ref="F1096" r:id="rId7" xr:uid="{AF04FF5C-ADCA-44DC-B3B2-A425FC0DCFD9}"/>
-    <hyperlink ref="F1095" r:id="rId8" xr:uid="{F55EAFC5-5519-4A1F-80D4-95B4D202FE38}"/>
-    <hyperlink ref="F1094" r:id="rId9" xr:uid="{5FE20200-FB86-452E-8BE1-863A3C65BD07}"/>
-    <hyperlink ref="F1093" r:id="rId10" xr:uid="{8F88B4B6-197E-4940-B572-1769D2C402A3}"/>
-    <hyperlink ref="F1092" r:id="rId11" xr:uid="{DACEA89F-4573-408A-AA3D-AAFC4DF8DB2E}"/>
-    <hyperlink ref="F1091" r:id="rId12" xr:uid="{BF25E2D2-8541-4371-99B7-17A8B86CC8F6}"/>
-    <hyperlink ref="F1090" r:id="rId13" xr:uid="{57CD897B-E530-431D-A4B5-59D9C0F63217}"/>
-    <hyperlink ref="F1089" r:id="rId14" xr:uid="{CEEE77DB-0464-4890-9DA6-629F365AAC93}"/>
-    <hyperlink ref="F1088" r:id="rId15" xr:uid="{D183A8CF-2618-4DDD-8523-A347B0789735}"/>
-    <hyperlink ref="F1087" r:id="rId16" xr:uid="{B44DC245-3939-4FC4-B86F-7F55F80E20F1}"/>
-    <hyperlink ref="F1086" r:id="rId17" xr:uid="{77BEB31C-67F9-4892-974A-C42D173ACEC7}"/>
-    <hyperlink ref="F1085" r:id="rId18" xr:uid="{802015E0-18C1-4D8F-BD48-60606EF00558}"/>
-    <hyperlink ref="F1084" r:id="rId19" xr:uid="{185AA3D8-0081-42DB-B36C-3B1B4DF6AE78}"/>
-    <hyperlink ref="F1083" r:id="rId20" xr:uid="{C92F0FF0-F014-47C6-8A1D-37500F8CB37C}"/>
-    <hyperlink ref="F1082" r:id="rId21" xr:uid="{A79E531F-E421-48DC-B313-0C433AA33C66}"/>
-    <hyperlink ref="F1081" r:id="rId22" xr:uid="{CF6C1299-30F9-427A-9C11-CDEF3096DB13}"/>
-    <hyperlink ref="F1080" r:id="rId23" xr:uid="{B0ED86D2-3643-405A-B6A7-581D3F444E88}"/>
-    <hyperlink ref="F1079" r:id="rId24" xr:uid="{3643C6A3-6F1E-403F-B5BD-A7251D505F5B}"/>
-    <hyperlink ref="F1077" r:id="rId25" xr:uid="{0E92FFCB-F966-4697-91BE-A3130C1CAE25}"/>
+    <hyperlink ref="F1104" r:id="rId1" xr:uid="{F456DE86-0DC4-459B-8786-AEB12C0F36B0}"/>
+    <hyperlink ref="F1103" r:id="rId2" xr:uid="{A987B60B-629E-450A-AFE5-A7284329CD96}"/>
+    <hyperlink ref="F1102" r:id="rId3" xr:uid="{BDA96C0A-370D-46F7-82B7-86D5AE155E9F}"/>
+    <hyperlink ref="F1101" r:id="rId4" xr:uid="{E0EF30A2-FEE8-48F7-905E-3DCEE9D90336}"/>
+    <hyperlink ref="F1100" r:id="rId5" xr:uid="{F5EE9F94-288C-4D35-98F2-B7DF314331DE}"/>
+    <hyperlink ref="F1099" r:id="rId6" xr:uid="{A71B48CB-C499-456A-8FFD-47EFE60A828E}"/>
+    <hyperlink ref="F1098" r:id="rId7" xr:uid="{AF04FF5C-ADCA-44DC-B3B2-A425FC0DCFD9}"/>
+    <hyperlink ref="F1097" r:id="rId8" xr:uid="{F55EAFC5-5519-4A1F-80D4-95B4D202FE38}"/>
+    <hyperlink ref="F1096" r:id="rId9" xr:uid="{5FE20200-FB86-452E-8BE1-863A3C65BD07}"/>
+    <hyperlink ref="F1095" r:id="rId10" xr:uid="{8F88B4B6-197E-4940-B572-1769D2C402A3}"/>
+    <hyperlink ref="F1094" r:id="rId11" xr:uid="{DACEA89F-4573-408A-AA3D-AAFC4DF8DB2E}"/>
+    <hyperlink ref="F1093" r:id="rId12" xr:uid="{BF25E2D2-8541-4371-99B7-17A8B86CC8F6}"/>
+    <hyperlink ref="F1092" r:id="rId13" xr:uid="{57CD897B-E530-431D-A4B5-59D9C0F63217}"/>
+    <hyperlink ref="F1091" r:id="rId14" xr:uid="{CEEE77DB-0464-4890-9DA6-629F365AAC93}"/>
+    <hyperlink ref="F1090" r:id="rId15" xr:uid="{D183A8CF-2618-4DDD-8523-A347B0789735}"/>
+    <hyperlink ref="F1089" r:id="rId16" xr:uid="{B44DC245-3939-4FC4-B86F-7F55F80E20F1}"/>
+    <hyperlink ref="F1088" r:id="rId17" xr:uid="{77BEB31C-67F9-4892-974A-C42D173ACEC7}"/>
+    <hyperlink ref="F1087" r:id="rId18" xr:uid="{802015E0-18C1-4D8F-BD48-60606EF00558}"/>
+    <hyperlink ref="F1086" r:id="rId19" xr:uid="{185AA3D8-0081-42DB-B36C-3B1B4DF6AE78}"/>
+    <hyperlink ref="F1085" r:id="rId20" xr:uid="{C92F0FF0-F014-47C6-8A1D-37500F8CB37C}"/>
+    <hyperlink ref="F1084" r:id="rId21" xr:uid="{A79E531F-E421-48DC-B313-0C433AA33C66}"/>
+    <hyperlink ref="F1083" r:id="rId22" xr:uid="{CF6C1299-30F9-427A-9C11-CDEF3096DB13}"/>
+    <hyperlink ref="F1082" r:id="rId23" xr:uid="{B0ED86D2-3643-405A-B6A7-581D3F444E88}"/>
+    <hyperlink ref="F1081" r:id="rId24" xr:uid="{3643C6A3-6F1E-403F-B5BD-A7251D505F5B}"/>
+    <hyperlink ref="F1079" r:id="rId25" xr:uid="{0E92FFCB-F966-4697-91BE-A3130C1CAE25}"/>
     <hyperlink ref="F373" r:id="rId26" xr:uid="{B4AE46D0-0113-43B5-920F-41BAD7FB12F3}"/>
     <hyperlink ref="F360" r:id="rId27" xr:uid="{6A53CFF1-B4AE-4894-AF74-B4B080E1676D}"/>
     <hyperlink ref="F357" r:id="rId28" xr:uid="{FC91B321-7F3C-4B7C-978D-FF322BE215D6}"/>
@@ -70778,26 +70778,26 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="612"/>
+      <pane ySplit="615"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.5546875" style="1"/>
+    <col min="11" max="11" width="17.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -72669,18 +72669,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10" max="13" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="33.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10" max="13" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -73616,7 +73616,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1">
+    <row r="67" spans="1:4" ht="15.75" thickBot="1">
       <c r="A67" s="12" t="s">
         <v>128</v>
       </c>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382C5FCE-DD68-4A6D-91FB-EC916D1D5F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8AC478-7EA9-45B5-AFA1-687FF85A2D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-16305" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clients!$A$1:$P$1077</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clients!$A$1:$P$1107</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fournisseurs!$A$1:$K$20</definedName>
     <definedName name="dnrClients" localSheetId="0">OFFSET(Clients!#REF!,1,0,COUNTA(Clients!$A:$A)-1,2)</definedName>
     <definedName name="dnrClients" localSheetId="1">OFFSET(Fournisseurs!$A$1,1,0,COUNTA(Fournisseurs!$A:$A)-1,2)</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13032" uniqueCount="7732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13124" uniqueCount="7824">
   <si>
     <t>Client_ID</t>
   </si>
@@ -23246,6 +23246,282 @@
   </si>
   <si>
     <t>Les Toitures C.B.C. Inc. [Katie Pimparé]</t>
+  </si>
+  <si>
+    <t>&lt;Dismo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Daniel Adam&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Luc Massé&gt;</t>
+  </si>
+  <si>
+    <t>&lt;9051-1916 Qc inc (Nathalie Gélinas)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Construction DG&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Réjean Noël&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Steeve Carrier&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Hopital vétérinaire Rive-sud\Vente de Sainte-Thérèse&gt;</t>
+  </si>
+  <si>
+    <t>&lt;137888 Canada inc (Yves Gosselin)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Hugo Noury&gt;</t>
+  </si>
+  <si>
+    <t>&lt;9313-8238 Québec inc (Café Pacquebot)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Alain Pilon&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Alain Roussel&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Alia Chams&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Allard Poirier CPA Inc.&gt;</t>
+  </si>
+  <si>
+    <t>&lt;André Dubois&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Spécialiste diagnostic Auto Inc (André Fontaine)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;André Vaillancourt&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Anne Élizabeth Lavoie&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Anthony Comeau&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Benoit Bergeron CPA INc.&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bruno Généreux&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Candid Morin&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Carl Langlais&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Cédric Meloche&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Chantal Gosselin&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Claude Drapeau&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Club jeunesse côte des neiges&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Danny Bernier&gt;</t>
+  </si>
+  <si>
+    <t>&lt;David Savard&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Denise et Patricia Savoie&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Diane Bertrand&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DLS CPA SENCRL&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Dominique Auger&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Éric Beaulieu&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Éric Gallant&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Éric St-Jean&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Félix Gauthier-Telmosse&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Fernande Moreau&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Fortin Dansereau&gt;</t>
+  </si>
+  <si>
+    <t>&lt;François Contant&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Johanne Freyd et François Dubeau&gt;</t>
+  </si>
+  <si>
+    <t>&lt;François Garneau&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Gilles Beauchamps&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Groupe Médical Gaumond&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Guillaume Soumis&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Isabelle Meloche Jonathan Levasseur&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Jacques Leblanc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Jean Rochon&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Jean-Marc Gravel&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Julie Brisebois&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Labelle Mini-Excavation Inc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Jonathan Bark&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Line Carrière&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Maçonnerie François Leclerc&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Madeleine Gaudreau&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Marc-André Gauthier&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Marcel Aubin&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Claire Champagne&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Marjorie Marchand&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Martin Barrette&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Martin Poisson&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Martine Thibodeau&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Maryse Côté&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Mathieu Chaîné&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Mélissa Perreault&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Clovis Brullemans (Metaservices)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Nancie Ouimette et Éric Boudreault&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Phlippe Gélinas et Nathalie Dion&gt;</t>
+  </si>
+  <si>
+    <t>&lt;NetChaos (Martin Gagnon)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Nicole Desjardins&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Patrick Monaghan&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Patsy Biron&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Pauline Riberdy&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Philippe Torres&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Pierre Cossette&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Pierre Laurin&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Pierre-Édouard Cassiani Laurin&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Renaud Tournilhac&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Richard Charland&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Roger Monette&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Sandra Desrochers&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Service Conseils P.C.D.A. INC (Philippe Chapuis)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Benoit Portugais&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Stéphane Gélinas&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Succession Paul-Émile Morin&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Sylvain Lessard&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Théogène Francoeur&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Université de Sherbrooke&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Véronique Blain&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Yvan Roy&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Yves Beauchamps&gt;</t>
   </si>
 </sst>
 </file>
@@ -24331,10 +24607,10 @@
   <sheetPr codeName="wshClients"/>
   <dimension ref="A1:Q1107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="615" topLeftCell="A1090" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <pane ySplit="615" activePane="bottomLeft"/>
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
-      <selection pane="bottomLeft" activeCell="A1107" sqref="A1107"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -24689,6 +24965,9 @@
       <c r="B12" s="49" t="s">
         <v>6128</v>
       </c>
+      <c r="C12" s="49" t="s">
+        <v>7820</v>
+      </c>
       <c r="D12" s="21" t="s">
         <v>204</v>
       </c>
@@ -25328,6 +25607,9 @@
       <c r="B27" s="49" t="s">
         <v>5878</v>
       </c>
+      <c r="C27" s="49" t="s">
+        <v>7781</v>
+      </c>
       <c r="D27" s="21" t="s">
         <v>289</v>
       </c>
@@ -26413,6 +26695,9 @@
       <c r="B53" s="49" t="s">
         <v>2764</v>
       </c>
+      <c r="C53" s="49" t="s">
+        <v>7733</v>
+      </c>
       <c r="D53" s="21" t="s">
         <v>393</v>
       </c>
@@ -26814,6 +27099,9 @@
       <c r="B62" s="49" t="s">
         <v>5131</v>
       </c>
+      <c r="C62" s="49" t="s">
+        <v>7755</v>
+      </c>
       <c r="D62" s="3" t="s">
         <v>6119</v>
       </c>
@@ -26887,6 +27175,9 @@
       <c r="B64" s="49" t="s">
         <v>6313</v>
       </c>
+      <c r="C64" s="49" t="s">
+        <v>7792</v>
+      </c>
       <c r="D64" s="3" t="s">
         <v>1163</v>
       </c>
@@ -27042,6 +27333,9 @@
       <c r="B68" s="49" t="s">
         <v>6317</v>
       </c>
+      <c r="C68" s="49" t="s">
+        <v>7749</v>
+      </c>
       <c r="D68" s="3" t="s">
         <v>1185</v>
       </c>
@@ -27274,6 +27568,9 @@
       <c r="B74" s="49" t="s">
         <v>6322</v>
       </c>
+      <c r="C74" s="49" t="s">
+        <v>7757</v>
+      </c>
       <c r="D74" s="3" t="s">
         <v>1211</v>
       </c>
@@ -27342,6 +27639,9 @@
       <c r="B76" s="49" t="s">
         <v>6324</v>
       </c>
+      <c r="C76" s="49" t="s">
+        <v>7816</v>
+      </c>
       <c r="D76" s="3" t="s">
         <v>1218</v>
       </c>
@@ -27378,6 +27678,9 @@
       <c r="B77" s="49" t="s">
         <v>6325</v>
       </c>
+      <c r="C77" s="49" t="s">
+        <v>7803</v>
+      </c>
       <c r="D77" s="3" t="s">
         <v>1222</v>
       </c>
@@ -27834,6 +28137,9 @@
       <c r="B89" s="49" t="s">
         <v>6336</v>
       </c>
+      <c r="C89" s="49" t="s">
+        <v>7813</v>
+      </c>
       <c r="D89" s="3" t="s">
         <v>1272</v>
       </c>
@@ -28187,6 +28493,9 @@
       <c r="B98" s="49" t="s">
         <v>6346</v>
       </c>
+      <c r="C98" s="49" t="s">
+        <v>7760</v>
+      </c>
       <c r="D98" s="3" t="s">
         <v>1306</v>
       </c>
@@ -28800,6 +29109,9 @@
       <c r="B115" s="49" t="s">
         <v>6353</v>
       </c>
+      <c r="C115" s="49" t="s">
+        <v>7795</v>
+      </c>
       <c r="D115" s="3" t="s">
         <v>1356</v>
       </c>
@@ -29618,6 +29930,9 @@
       <c r="B137" s="49" t="s">
         <v>6366</v>
       </c>
+      <c r="C137" s="49" t="s">
+        <v>7808</v>
+      </c>
       <c r="D137" s="3" t="s">
         <v>1430</v>
       </c>
@@ -29727,6 +30042,9 @@
       <c r="B140" s="49" t="s">
         <v>6367</v>
       </c>
+      <c r="C140" s="49" t="s">
+        <v>7782</v>
+      </c>
       <c r="D140" s="3" t="s">
         <v>1438</v>
       </c>
@@ -30023,6 +30341,9 @@
       <c r="B148" s="49" t="s">
         <v>6372</v>
       </c>
+      <c r="C148" s="49" t="s">
+        <v>7780</v>
+      </c>
       <c r="D148" s="3" t="s">
         <v>1465</v>
       </c>
@@ -30136,6 +30457,9 @@
       <c r="B151" s="49" t="s">
         <v>6377</v>
       </c>
+      <c r="C151" s="49" t="s">
+        <v>7777</v>
+      </c>
       <c r="D151" s="3" t="s">
         <v>1477</v>
       </c>
@@ -30273,6 +30597,9 @@
       <c r="B155" s="49" t="s">
         <v>6378</v>
       </c>
+      <c r="C155" s="49" t="s">
+        <v>7767</v>
+      </c>
       <c r="D155" s="3" t="s">
         <v>1491</v>
       </c>
@@ -30310,6 +30637,9 @@
       </c>
       <c r="B156" s="49" t="s">
         <v>6379</v>
+      </c>
+      <c r="C156" s="49" t="s">
+        <v>7794</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>1495</v>
@@ -30386,6 +30716,9 @@
       <c r="B158" s="49" t="s">
         <v>5198</v>
       </c>
+      <c r="C158" s="49" t="s">
+        <v>7751</v>
+      </c>
       <c r="D158" s="21" t="s">
         <v>1504</v>
       </c>
@@ -30721,6 +31054,9 @@
       <c r="B167" s="49" t="s">
         <v>6383</v>
       </c>
+      <c r="C167" s="49" t="s">
+        <v>7818</v>
+      </c>
       <c r="D167" s="3" t="s">
         <v>1538</v>
       </c>
@@ -30796,6 +31132,9 @@
       <c r="B169" s="49" t="s">
         <v>6385</v>
       </c>
+      <c r="C169" s="49" t="s">
+        <v>7766</v>
+      </c>
       <c r="D169" s="3" t="s">
         <v>1547</v>
       </c>
@@ -30832,6 +31171,9 @@
       <c r="B170" s="49" t="s">
         <v>5208</v>
       </c>
+      <c r="C170" s="49" t="s">
+        <v>7800</v>
+      </c>
       <c r="D170" s="3" t="s">
         <v>1550</v>
       </c>
@@ -30869,6 +31211,9 @@
       </c>
       <c r="B171" s="49" t="s">
         <v>5210</v>
+      </c>
+      <c r="C171" s="49" t="s">
+        <v>7790</v>
       </c>
       <c r="D171" s="21" t="s">
         <v>5211</v>
@@ -31065,6 +31410,9 @@
       <c r="B176" s="49" t="s">
         <v>6390</v>
       </c>
+      <c r="C176" s="49" t="s">
+        <v>7811</v>
+      </c>
       <c r="D176" s="3" t="s">
         <v>1573</v>
       </c>
@@ -31563,6 +31911,9 @@
       <c r="B189" s="49" t="s">
         <v>6405</v>
       </c>
+      <c r="C189" s="49" t="s">
+        <v>7761</v>
+      </c>
       <c r="D189" s="21" t="s">
         <v>1614</v>
       </c>
@@ -31600,6 +31951,9 @@
       </c>
       <c r="B190" s="49" t="s">
         <v>6406</v>
+      </c>
+      <c r="C190" s="49" t="s">
+        <v>7819</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>1619</v>
@@ -31637,6 +31991,9 @@
       <c r="B191" s="49" t="s">
         <v>6407</v>
       </c>
+      <c r="C191" s="49" t="s">
+        <v>7809</v>
+      </c>
       <c r="D191" s="3" t="s">
         <v>1624</v>
       </c>
@@ -31677,6 +32034,9 @@
       </c>
       <c r="B192" s="49" t="s">
         <v>5222</v>
+      </c>
+      <c r="C192" s="49" t="s">
+        <v>7807</v>
       </c>
       <c r="D192" s="21" t="s">
         <v>5223</v>
@@ -32694,6 +33054,9 @@
       <c r="B219" s="49" t="s">
         <v>5429</v>
       </c>
+      <c r="C219" s="49" t="s">
+        <v>7772</v>
+      </c>
       <c r="D219" s="3" t="s">
         <v>1712</v>
       </c>
@@ -32810,6 +33173,9 @@
       <c r="B222" s="49" t="s">
         <v>6428</v>
       </c>
+      <c r="C222" s="49" t="s">
+        <v>7793</v>
+      </c>
       <c r="D222" s="3" t="s">
         <v>1722</v>
       </c>
@@ -32847,6 +33213,9 @@
       </c>
       <c r="B223" s="49" t="s">
         <v>5433</v>
+      </c>
+      <c r="C223" s="49" t="s">
+        <v>7770</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>1727</v>
@@ -32884,6 +33253,9 @@
       <c r="B224" s="49" t="s">
         <v>6429</v>
       </c>
+      <c r="C224" s="49" t="s">
+        <v>7756</v>
+      </c>
       <c r="D224" s="3" t="s">
         <v>1730</v>
       </c>
@@ -33545,6 +33917,9 @@
       <c r="B241" s="49" t="s">
         <v>5269</v>
       </c>
+      <c r="C241" s="49" t="s">
+        <v>7822</v>
+      </c>
       <c r="D241" s="3" t="s">
         <v>1780</v>
       </c>
@@ -33584,6 +33959,9 @@
       <c r="B242" s="49" t="s">
         <v>5271</v>
       </c>
+      <c r="C242" s="49" t="s">
+        <v>7791</v>
+      </c>
       <c r="D242" s="3" t="s">
         <v>1784</v>
       </c>
@@ -33620,6 +33998,9 @@
       <c r="B243" s="49" t="s">
         <v>5273</v>
       </c>
+      <c r="C243" s="49" t="s">
+        <v>7788</v>
+      </c>
       <c r="D243" s="3" t="s">
         <v>1787</v>
       </c>
@@ -33816,6 +34197,9 @@
       <c r="B248" s="49">
         <v>405</v>
       </c>
+      <c r="C248" s="49" t="s">
+        <v>7754</v>
+      </c>
       <c r="D248" s="3" t="s">
         <v>1805</v>
       </c>
@@ -34324,6 +34708,9 @@
       <c r="B262" s="49" t="s">
         <v>6451</v>
       </c>
+      <c r="C262" s="49" t="s">
+        <v>7768</v>
+      </c>
       <c r="D262" s="3" t="s">
         <v>1850</v>
       </c>
@@ -34481,6 +34868,9 @@
       <c r="B266" s="49" t="s">
         <v>6454</v>
       </c>
+      <c r="C266" s="49" t="s">
+        <v>7762</v>
+      </c>
       <c r="D266" s="21" t="s">
         <v>1867</v>
       </c>
@@ -34553,6 +34943,9 @@
       <c r="B268" s="49" t="s">
         <v>5292</v>
       </c>
+      <c r="C268" s="49" t="s">
+        <v>7773</v>
+      </c>
       <c r="D268" s="21" t="s">
         <v>1873</v>
       </c>
@@ -34589,6 +34982,9 @@
       <c r="B269" s="49" t="s">
         <v>6457</v>
       </c>
+      <c r="C269" s="49" t="s">
+        <v>7750</v>
+      </c>
       <c r="D269" s="3" t="s">
         <v>1875</v>
       </c>
@@ -34785,6 +35181,9 @@
       <c r="B274" s="49">
         <v>434</v>
       </c>
+      <c r="C274" s="49" t="s">
+        <v>7799</v>
+      </c>
       <c r="D274" s="21" t="s">
         <v>1897</v>
       </c>
@@ -34847,6 +35246,9 @@
       <c r="B276" s="49" t="s">
         <v>5441</v>
       </c>
+      <c r="C276" s="49" t="s">
+        <v>7787</v>
+      </c>
       <c r="D276" s="3" t="s">
         <v>1905</v>
       </c>
@@ -35081,6 +35483,9 @@
       <c r="B282" s="49" t="s">
         <v>6474</v>
       </c>
+      <c r="C282" s="49" t="s">
+        <v>7789</v>
+      </c>
       <c r="D282" s="21" t="s">
         <v>6475</v>
       </c>
@@ -35447,6 +35852,9 @@
       <c r="B293" s="49" t="s">
         <v>6483</v>
       </c>
+      <c r="C293" s="49" t="s">
+        <v>7747</v>
+      </c>
       <c r="D293" s="21" t="s">
         <v>1962</v>
       </c>
@@ -35758,6 +36166,9 @@
       <c r="B301" s="49" t="s">
         <v>6492</v>
       </c>
+      <c r="C301" s="49" t="s">
+        <v>7796</v>
+      </c>
       <c r="D301" s="3" t="s">
         <v>1991</v>
       </c>
@@ -35794,6 +36205,9 @@
       <c r="B302" s="49" t="s">
         <v>6493</v>
       </c>
+      <c r="C302" s="49" t="s">
+        <v>7778</v>
+      </c>
       <c r="D302" s="3" t="s">
         <v>1995</v>
       </c>
@@ -36027,6 +36441,9 @@
       <c r="B308" s="49" t="s">
         <v>6497</v>
       </c>
+      <c r="C308" s="49" t="s">
+        <v>7785</v>
+      </c>
       <c r="D308" s="3" t="s">
         <v>2018</v>
       </c>
@@ -36102,6 +36519,9 @@
       <c r="B310" s="49" t="s">
         <v>6500</v>
       </c>
+      <c r="C310" s="49" t="s">
+        <v>7745</v>
+      </c>
       <c r="D310" s="3" t="s">
         <v>2027</v>
       </c>
@@ -36223,6 +36643,9 @@
       <c r="B313" s="49" t="s">
         <v>6505</v>
       </c>
+      <c r="C313" s="49" t="s">
+        <v>7812</v>
+      </c>
       <c r="D313" s="21" t="s">
         <v>6506</v>
       </c>
@@ -36260,6 +36683,9 @@
       </c>
       <c r="B314" s="49" t="s">
         <v>6507</v>
+      </c>
+      <c r="C314" s="49" t="s">
+        <v>7821</v>
       </c>
       <c r="D314" s="21" t="s">
         <v>2043</v>
@@ -36440,6 +36866,9 @@
       <c r="B319" s="49" t="s">
         <v>6511</v>
       </c>
+      <c r="C319" s="49" t="s">
+        <v>7753</v>
+      </c>
       <c r="D319" s="3" t="s">
         <v>2060</v>
       </c>
@@ -36479,6 +36908,9 @@
       <c r="B320" s="49" t="s">
         <v>6512</v>
       </c>
+      <c r="C320" s="49" t="s">
+        <v>7806</v>
+      </c>
       <c r="D320" s="3" t="s">
         <v>2065</v>
       </c>
@@ -36556,6 +36988,9 @@
       <c r="B322" s="49" t="s">
         <v>6514</v>
       </c>
+      <c r="C322" s="49" t="s">
+        <v>7774</v>
+      </c>
       <c r="D322" s="3" t="s">
         <v>2072</v>
       </c>
@@ -36878,6 +37313,9 @@
       <c r="B330" s="49" t="s">
         <v>6524</v>
       </c>
+      <c r="C330" s="49" t="s">
+        <v>7775</v>
+      </c>
       <c r="D330" s="3" t="s">
         <v>2104</v>
       </c>
@@ -36918,6 +37356,9 @@
       </c>
       <c r="B331" s="49" t="s">
         <v>5446</v>
+      </c>
+      <c r="C331" s="49" t="s">
+        <v>7804</v>
       </c>
       <c r="D331" s="21" t="s">
         <v>2109</v>
@@ -36955,6 +37396,9 @@
       <c r="B332" s="49" t="s">
         <v>6525</v>
       </c>
+      <c r="C332" s="49" t="s">
+        <v>7744</v>
+      </c>
       <c r="D332" s="21" t="s">
         <v>2112</v>
       </c>
@@ -37296,6 +37740,9 @@
       <c r="B341" s="49" t="s">
         <v>6532</v>
       </c>
+      <c r="C341" s="49" t="s">
+        <v>7805</v>
+      </c>
       <c r="D341" s="21" t="s">
         <v>2136</v>
       </c>
@@ -37375,6 +37822,9 @@
       <c r="B343" s="49" t="s">
         <v>6534</v>
       </c>
+      <c r="C343" s="49" t="s">
+        <v>7769</v>
+      </c>
       <c r="D343" s="3" t="s">
         <v>2145</v>
       </c>
@@ -37599,6 +38049,9 @@
       <c r="B349" s="49" t="s">
         <v>6537</v>
       </c>
+      <c r="C349" s="49" t="s">
+        <v>7817</v>
+      </c>
       <c r="D349" s="21" t="s">
         <v>2167</v>
       </c>
@@ -37872,6 +38325,9 @@
       <c r="B356" s="49" t="s">
         <v>6539</v>
       </c>
+      <c r="C356" s="49" t="s">
+        <v>7763</v>
+      </c>
       <c r="D356" s="21" t="s">
         <v>2191</v>
       </c>
@@ -37908,6 +38364,9 @@
       <c r="B357" s="49">
         <v>523</v>
       </c>
+      <c r="C357" s="49" t="s">
+        <v>7758</v>
+      </c>
       <c r="D357" s="21" t="s">
         <v>2194</v>
       </c>
@@ -38077,6 +38536,9 @@
       <c r="B362" s="49" t="s">
         <v>6541</v>
       </c>
+      <c r="C362" s="49" t="s">
+        <v>7797</v>
+      </c>
       <c r="D362" s="21" t="s">
         <v>2211</v>
       </c>
@@ -38277,6 +38739,9 @@
       <c r="B367" s="49" t="s">
         <v>6546</v>
       </c>
+      <c r="C367" s="49" t="s">
+        <v>7765</v>
+      </c>
       <c r="D367" s="21" t="s">
         <v>2230</v>
       </c>
@@ -38313,6 +38778,9 @@
       <c r="B368" s="49" t="s">
         <v>6547</v>
       </c>
+      <c r="C368" s="49" t="s">
+        <v>7810</v>
+      </c>
       <c r="D368" s="21" t="s">
         <v>2234</v>
       </c>
@@ -38630,6 +39098,9 @@
       <c r="B376" s="49" t="s">
         <v>6137</v>
       </c>
+      <c r="C376" s="49" t="s">
+        <v>7802</v>
+      </c>
       <c r="D376" s="21" t="s">
         <v>6138</v>
       </c>
@@ -39541,6 +40012,9 @@
       <c r="B396" s="49" t="s">
         <v>471</v>
       </c>
+      <c r="C396" s="49" t="s">
+        <v>7740</v>
+      </c>
       <c r="D396" s="21" t="s">
         <v>5935</v>
       </c>
@@ -40893,6 +41367,9 @@
       <c r="B426" s="49" t="s">
         <v>6223</v>
       </c>
+      <c r="C426" s="49" t="s">
+        <v>7738</v>
+      </c>
       <c r="D426" s="21" t="s">
         <v>579</v>
       </c>
@@ -42112,6 +42589,9 @@
       <c r="B453" s="49" t="s">
         <v>5491</v>
       </c>
+      <c r="C453" s="49" t="s">
+        <v>7759</v>
+      </c>
       <c r="D453" s="21" t="s">
         <v>690</v>
       </c>
@@ -42153,6 +42633,9 @@
       <c r="B454" s="49" t="s">
         <v>2775</v>
       </c>
+      <c r="C454" s="49" t="s">
+        <v>7732</v>
+      </c>
       <c r="D454" s="21" t="s">
         <v>694</v>
       </c>
@@ -45851,6 +46334,9 @@
       </c>
       <c r="B540" s="49" t="s">
         <v>19</v>
+      </c>
+      <c r="C540" s="49" t="s">
+        <v>7815</v>
       </c>
       <c r="D540" s="37" t="s">
         <v>3114</v>
@@ -47556,6 +48042,9 @@
       <c r="B580" s="49" t="s">
         <v>33</v>
       </c>
+      <c r="C580" s="49" t="s">
+        <v>7743</v>
+      </c>
       <c r="D580" s="37" t="s">
         <v>3299</v>
       </c>
@@ -48289,6 +48778,9 @@
       <c r="B597" s="49" t="s">
         <v>3367</v>
       </c>
+      <c r="C597" s="49" t="s">
+        <v>7814</v>
+      </c>
       <c r="D597" s="37" t="s">
         <v>3368</v>
       </c>
@@ -48635,6 +49127,9 @@
       <c r="B605" s="49" t="s">
         <v>3400</v>
       </c>
+      <c r="C605" s="49" t="s">
+        <v>7734</v>
+      </c>
       <c r="D605" s="37" t="s">
         <v>740</v>
       </c>
@@ -48883,6 +49378,9 @@
       <c r="B611" s="49" t="s">
         <v>3428</v>
       </c>
+      <c r="C611" s="49" t="s">
+        <v>7737</v>
+      </c>
       <c r="D611" s="37" t="s">
         <v>3429</v>
       </c>
@@ -49633,6 +50131,9 @@
       <c r="B629" s="49" t="s">
         <v>3514</v>
       </c>
+      <c r="C629" s="49" t="s">
+        <v>7739</v>
+      </c>
       <c r="D629" s="37" t="s">
         <v>3515</v>
       </c>
@@ -50326,6 +50827,9 @@
       <c r="B645" s="49" t="s">
         <v>3581</v>
       </c>
+      <c r="C645" s="49" t="s">
+        <v>7735</v>
+      </c>
       <c r="D645" s="37" t="s">
         <v>3582</v>
       </c>
@@ -51513,6 +52017,9 @@
       <c r="B673" s="49" t="s">
         <v>3709</v>
       </c>
+      <c r="C673" s="49" t="s">
+        <v>7742</v>
+      </c>
       <c r="D673" s="37" t="s">
         <v>3710</v>
       </c>
@@ -52412,6 +52919,9 @@
       <c r="B694" s="49" t="s">
         <v>3791</v>
       </c>
+      <c r="C694" s="49" t="s">
+        <v>7748</v>
+      </c>
       <c r="D694" s="37" t="s">
         <v>3792</v>
       </c>
@@ -52711,6 +53221,9 @@
       <c r="B701" s="49" t="s">
         <v>3821</v>
       </c>
+      <c r="C701" s="49" t="s">
+        <v>7771</v>
+      </c>
       <c r="D701" s="37" t="s">
         <v>3822</v>
       </c>
@@ -53477,6 +53990,9 @@
       <c r="B719" s="49" t="s">
         <v>3900</v>
       </c>
+      <c r="C719" s="49" t="s">
+        <v>7776</v>
+      </c>
       <c r="D719" s="37" t="s">
         <v>3901</v>
       </c>
@@ -53897,6 +54413,9 @@
       </c>
       <c r="B729" s="49" t="s">
         <v>3947</v>
+      </c>
+      <c r="C729" s="49" t="s">
+        <v>7798</v>
       </c>
       <c r="D729" s="37" t="s">
         <v>3948</v>
@@ -55714,6 +56233,9 @@
       <c r="B771" s="49" t="s">
         <v>4152</v>
       </c>
+      <c r="C771" s="49" t="s">
+        <v>7783</v>
+      </c>
       <c r="D771" s="37" t="s">
         <v>4153</v>
       </c>
@@ -55754,6 +56276,9 @@
       </c>
       <c r="B772" s="49" t="s">
         <v>4162</v>
+      </c>
+      <c r="C772" s="49" t="s">
+        <v>7741</v>
       </c>
       <c r="D772" s="37" t="s">
         <v>4163</v>
@@ -59332,6 +59857,9 @@
       <c r="B855" s="49" t="s">
         <v>4528</v>
       </c>
+      <c r="C855" s="49" t="s">
+        <v>7784</v>
+      </c>
       <c r="D855" s="37" t="s">
         <v>4529</v>
       </c>
@@ -60550,6 +61078,9 @@
       <c r="B883" s="49" t="s">
         <v>4670</v>
       </c>
+      <c r="C883" s="49" t="s">
+        <v>7779</v>
+      </c>
       <c r="D883" s="21" t="s">
         <v>6741</v>
       </c>
@@ -61717,6 +62248,9 @@
       <c r="B910" s="49" t="s">
         <v>4802</v>
       </c>
+      <c r="C910" s="49" t="s">
+        <v>7736</v>
+      </c>
       <c r="D910" s="37" t="s">
         <v>4803</v>
       </c>
@@ -62216,6 +62750,9 @@
       <c r="B922" s="49" t="s">
         <v>4851</v>
       </c>
+      <c r="C922" s="49" t="s">
+        <v>7752</v>
+      </c>
       <c r="D922" s="37" t="s">
         <v>4852</v>
       </c>
@@ -62343,6 +62880,9 @@
       <c r="B925" s="49" t="s">
         <v>4864</v>
       </c>
+      <c r="C925" s="49" t="s">
+        <v>7746</v>
+      </c>
       <c r="D925" s="37" t="s">
         <v>4509</v>
       </c>
@@ -66251,6 +66791,9 @@
       <c r="B1014" s="49" t="s">
         <v>5763</v>
       </c>
+      <c r="C1014" s="49" t="s">
+        <v>7764</v>
+      </c>
       <c r="D1014" s="3" t="s">
         <v>973</v>
       </c>
@@ -67017,6 +67560,9 @@
       </c>
       <c r="B1031" s="49" t="s">
         <v>6878</v>
+      </c>
+      <c r="C1031" s="49" t="s">
+        <v>7801</v>
       </c>
       <c r="D1031" s="3" t="s">
         <v>554</v>
@@ -67228,6 +67774,9 @@
       <c r="B1036" s="49" t="s">
         <v>5116</v>
       </c>
+      <c r="C1036" s="49" t="s">
+        <v>7823</v>
+      </c>
       <c r="D1036" s="3" t="s">
         <v>1064</v>
       </c>
@@ -68633,6 +69182,9 @@
       <c r="B1068" s="49" t="s">
         <v>6944</v>
       </c>
+      <c r="C1068" s="49" t="s">
+        <v>7786</v>
+      </c>
       <c r="D1068" s="21" t="s">
         <v>6945</v>
       </c>
@@ -70488,7 +71040,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1105" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
+  <autoFilter ref="A1:P1107" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P1104">
       <sortCondition ref="B2:B1104"/>
       <sortCondition ref="A2:A1104"/>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8AC478-7EA9-45B5-AFA1-687FF85A2D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1694C779-F0D5-4537-9A9C-D6F6FAA2912F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13124" uniqueCount="7824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13143" uniqueCount="7842">
   <si>
     <t>Client_ID</t>
   </si>
@@ -23522,6 +23522,60 @@
   </si>
   <si>
     <t>&lt;Yves Beauchamps&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Robert Grégoire&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Mikael Dallaire&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Sci-Tek (Sylvain Pelletier)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Compresseurs Gagnon&gt;</t>
+  </si>
+  <si>
+    <t>&lt;SVGO&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Groupe Privilège&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Gina Dubée Inc.&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Manon Coulombe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Richard Provencher&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Accès Habitation&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Yanick Favreau&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Gestenv&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Gilbert Tanguay&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Éric L'Archvêque&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Stéphane et Serge Gariépy&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Sphère DI Inc.&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bullseye AI&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Prospection&gt;</t>
   </si>
 </sst>
 </file>
@@ -24607,7 +24661,7 @@
   <sheetPr codeName="wshClients"/>
   <dimension ref="A1:Q1107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
       <pane ySplit="615" activePane="bottomLeft"/>
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
@@ -39311,6 +39365,9 @@
       <c r="B381" s="49" t="s">
         <v>2765</v>
       </c>
+      <c r="C381" s="49" t="s">
+        <v>7824</v>
+      </c>
       <c r="D381" s="21" t="s">
         <v>435</v>
       </c>
@@ -40335,6 +40392,9 @@
       <c r="B403" s="49" t="s">
         <v>5476</v>
       </c>
+      <c r="C403" s="49" t="s">
+        <v>7825</v>
+      </c>
       <c r="D403" s="21" t="s">
         <v>488</v>
       </c>
@@ -40592,6 +40652,9 @@
       <c r="B409" s="49" t="s">
         <v>2771</v>
       </c>
+      <c r="C409" s="49" t="s">
+        <v>7826</v>
+      </c>
       <c r="D409" s="21" t="s">
         <v>512</v>
       </c>
@@ -41964,6 +42027,9 @@
       <c r="B439" s="49" t="s">
         <v>6233</v>
       </c>
+      <c r="C439" s="49" t="s">
+        <v>7827</v>
+      </c>
       <c r="D439" s="21" t="s">
         <v>643</v>
       </c>
@@ -42458,6 +42524,9 @@
       <c r="B450" s="49" t="s">
         <v>6006</v>
       </c>
+      <c r="C450" s="49" t="s">
+        <v>7828</v>
+      </c>
       <c r="D450" s="21" t="s">
         <v>678</v>
       </c>
@@ -44551,6 +44620,9 @@
       <c r="B498" s="49" t="s">
         <v>2919</v>
       </c>
+      <c r="C498" s="49" t="s">
+        <v>7829</v>
+      </c>
       <c r="D498" s="37" t="s">
         <v>2920</v>
       </c>
@@ -45304,6 +45376,9 @@
       </c>
       <c r="B516" s="49" t="s">
         <v>2999</v>
+      </c>
+      <c r="C516" s="49" t="s">
+        <v>7830</v>
       </c>
       <c r="D516" s="37" t="s">
         <v>3000</v>
@@ -51003,6 +51078,9 @@
       <c r="B649" s="49" t="s">
         <v>3603</v>
       </c>
+      <c r="C649" s="49" t="s">
+        <v>7831</v>
+      </c>
       <c r="D649" s="37" t="s">
         <v>3604</v>
       </c>
@@ -51630,6 +51708,9 @@
       <c r="B664" s="49" t="s">
         <v>3666</v>
       </c>
+      <c r="C664" s="49" t="s">
+        <v>7832</v>
+      </c>
       <c r="D664" s="37" t="s">
         <v>3667</v>
       </c>
@@ -52667,6 +52748,9 @@
       <c r="B688" s="49" t="s">
         <v>3767</v>
       </c>
+      <c r="C688" s="49" t="s">
+        <v>7833</v>
+      </c>
       <c r="D688" s="37" t="s">
         <v>3768</v>
       </c>
@@ -53507,6 +53591,9 @@
       <c r="B708" s="49" t="s">
         <v>3856</v>
       </c>
+      <c r="C708" s="49" t="s">
+        <v>7834</v>
+      </c>
       <c r="D708" s="37" t="s">
         <v>3857</v>
       </c>
@@ -53674,6 +53761,9 @@
       <c r="B712" s="49" t="s">
         <v>3869</v>
       </c>
+      <c r="C712" s="49" t="s">
+        <v>7835</v>
+      </c>
       <c r="D712" s="37" t="s">
         <v>3870</v>
       </c>
@@ -54287,6 +54377,9 @@
       </c>
       <c r="B726" s="49" t="s">
         <v>3932</v>
+      </c>
+      <c r="C726" s="49" t="s">
+        <v>7836</v>
       </c>
       <c r="D726" s="37" t="s">
         <v>3933</v>
@@ -57244,6 +57337,9 @@
       <c r="B794" s="49" t="s">
         <v>4270</v>
       </c>
+      <c r="C794" s="49" t="s">
+        <v>7837</v>
+      </c>
       <c r="D794" s="37" t="s">
         <v>4271</v>
       </c>
@@ -57284,6 +57380,9 @@
       </c>
       <c r="B795" s="49" t="s">
         <v>4276</v>
+      </c>
+      <c r="C795" s="49" t="s">
+        <v>7831</v>
       </c>
       <c r="D795" s="37" t="s">
         <v>4277</v>
@@ -58403,6 +58502,9 @@
       <c r="B821" s="49" t="s">
         <v>4396</v>
       </c>
+      <c r="C821" s="49" t="s">
+        <v>7838</v>
+      </c>
       <c r="D821" s="37" t="s">
         <v>4397</v>
       </c>
@@ -62669,6 +62771,9 @@
       <c r="B920" s="49" t="s">
         <v>4842</v>
       </c>
+      <c r="C920" s="49" t="s">
+        <v>7839</v>
+      </c>
       <c r="D920" s="37" t="s">
         <v>4843</v>
       </c>
@@ -65378,6 +65483,9 @@
       <c r="B982" s="49" t="s">
         <v>5089</v>
       </c>
+      <c r="C982" s="49" t="s">
+        <v>7840</v>
+      </c>
       <c r="D982" s="3" t="s">
         <v>834</v>
       </c>
@@ -65760,6 +65868,9 @@
       </c>
       <c r="B991" s="49" t="s">
         <v>6814</v>
+      </c>
+      <c r="C991" s="49" t="s">
+        <v>7841</v>
       </c>
       <c r="D991" s="3"/>
       <c r="G991" s="3" t="s">

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79E4E02-C033-405C-B07A-19C7A14C6D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE6FB81-B02A-47E3-894B-3E6BE6624DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="30960" windowHeight="12204" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="348" yWindow="348" windowWidth="20640" windowHeight="8340" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13172" uniqueCount="7850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13158" uniqueCount="7848">
   <si>
     <t>Client_ID</t>
   </si>
@@ -23573,12 +23573,6 @@
   </si>
   <si>
     <t>&lt;Prospection&gt;</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>4445970 Canada Inc.</t>
   </si>
   <si>
     <t>Constructions Gilles Garry Inc. [Gilles Garry]</t>
@@ -24683,7 +24677,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:Q1109"/>
+  <dimension ref="A1:Q1108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
       <pane ySplit="612" activePane="bottomLeft"/>
@@ -70217,7 +70211,7 @@
     </row>
     <row r="1088" spans="1:17">
       <c r="A1088" s="3" t="s">
-        <v>7843</v>
+        <v>7841</v>
       </c>
       <c r="B1088" s="49" t="s">
         <v>5798</v>
@@ -71176,34 +71170,34 @@
     </row>
     <row r="1108" spans="1:17">
       <c r="A1108" s="3" t="s">
-        <v>6568</v>
+        <v>7842</v>
       </c>
       <c r="B1108" s="49" t="s">
-        <v>7841</v>
+        <v>7843</v>
       </c>
       <c r="C1108" s="49" t="s">
-        <v>7842</v>
+        <v>7844</v>
       </c>
       <c r="D1108" s="21" t="s">
-        <v>2336</v>
+        <v>7845</v>
       </c>
       <c r="E1108" s="23" t="s">
-        <v>172</v>
+        <v>7846</v>
       </c>
       <c r="F1108" s="21" t="s">
-        <v>2337</v>
+        <v>2264</v>
       </c>
       <c r="G1108" s="3" t="s">
-        <v>2338</v>
+        <v>7847</v>
       </c>
       <c r="I1108" s="3" t="s">
-        <v>2339</v>
+        <v>2244</v>
       </c>
       <c r="J1108" s="22" t="s">
         <v>575</v>
       </c>
       <c r="K1108" s="22" t="s">
-        <v>2340</v>
+        <v>2266</v>
       </c>
       <c r="L1108" s="22" t="s">
         <v>156</v>
@@ -71212,62 +71206,15 @@
         <v>323</v>
       </c>
       <c r="N1108" s="46" t="s">
-        <v>5781</v>
+        <v>5790</v>
       </c>
       <c r="O1108" t="s">
         <v>323</v>
       </c>
+      <c r="P1108" t="s">
+        <v>5333</v>
+      </c>
       <c r="Q1108" s="52">
-        <v>45626.353472222225</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:17">
-      <c r="A1109" s="3" t="s">
-        <v>7844</v>
-      </c>
-      <c r="B1109" s="49" t="s">
-        <v>7845</v>
-      </c>
-      <c r="C1109" s="49" t="s">
-        <v>7846</v>
-      </c>
-      <c r="D1109" s="21" t="s">
-        <v>7847</v>
-      </c>
-      <c r="E1109" s="23" t="s">
-        <v>7848</v>
-      </c>
-      <c r="F1109" s="21" t="s">
-        <v>2264</v>
-      </c>
-      <c r="G1109" s="3" t="s">
-        <v>7849</v>
-      </c>
-      <c r="I1109" s="3" t="s">
-        <v>2244</v>
-      </c>
-      <c r="J1109" s="22" t="s">
-        <v>575</v>
-      </c>
-      <c r="K1109" s="22" t="s">
-        <v>2266</v>
-      </c>
-      <c r="L1109" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1109" t="s">
-        <v>323</v>
-      </c>
-      <c r="N1109" s="46" t="s">
-        <v>5790</v>
-      </c>
-      <c r="O1109" t="s">
-        <v>323</v>
-      </c>
-      <c r="P1109" t="s">
-        <v>5333</v>
-      </c>
-      <c r="Q1109" s="52">
         <v>45626.360127314816</v>
       </c>
     </row>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE6FB81-B02A-47E3-894B-3E6BE6624DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDC1F3A-85A9-4025-86A0-6C0588E474C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="348" windowWidth="20640" windowHeight="8340" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11385" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13158" uniqueCount="7848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13172" uniqueCount="7855">
   <si>
     <t>Client_ID</t>
   </si>
@@ -23594,6 +23594,27 @@
   </si>
   <si>
     <t>826, 2ème Rue</t>
+  </si>
+  <si>
+    <t>1814</t>
+  </si>
+  <si>
+    <t>Stéphane Houle</t>
+  </si>
+  <si>
+    <t>direction@eggr.ca</t>
+  </si>
+  <si>
+    <t>Lemieux Cantin</t>
+  </si>
+  <si>
+    <t>Les Entreprises de Gestion Georges et Robert Inc. [Stéphane Houle]</t>
+  </si>
+  <si>
+    <t>Les Entreprises de Gestion Georges et Robert Inc.</t>
+  </si>
+  <si>
+    <t>45 rue Arboit</t>
   </si>
 </sst>
 </file>
@@ -24677,33 +24698,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:Q1108"/>
+  <dimension ref="A1:Q1109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
-      <pane ySplit="612" activePane="bottomLeft"/>
+      <pane ySplit="615" activePane="bottomLeft"/>
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5546875" style="49" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="32" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.44140625" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" style="52" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -71216,6 +71237,53 @@
       </c>
       <c r="Q1108" s="52">
         <v>45626.360127314816</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:17">
+      <c r="A1109" s="3" t="s">
+        <v>7852</v>
+      </c>
+      <c r="B1109" s="49" t="s">
+        <v>7848</v>
+      </c>
+      <c r="C1109" s="49" t="s">
+        <v>7853</v>
+      </c>
+      <c r="D1109" s="21" t="s">
+        <v>7849</v>
+      </c>
+      <c r="E1109" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1109" s="21" t="s">
+        <v>7850</v>
+      </c>
+      <c r="G1109" s="3" t="s">
+        <v>7854</v>
+      </c>
+      <c r="I1109" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J1109" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="K1109" s="22" t="s">
+        <v>1793</v>
+      </c>
+      <c r="L1109" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1109" t="s">
+        <v>4175</v>
+      </c>
+      <c r="O1109" t="s">
+        <v>7851</v>
+      </c>
+      <c r="P1109" t="s">
+        <v>4175</v>
+      </c>
+      <c r="Q1109" s="52">
+        <v>45630.409421296295</v>
       </c>
     </row>
   </sheetData>
@@ -71517,26 +71585,26 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="612"/>
+      <pane ySplit="615"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.5546875" style="1"/>
+    <col min="11" max="11" width="17.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -73408,18 +73476,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10" max="13" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="33.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10" max="13" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -74355,7 +74423,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1">
+    <row r="67" spans="1:4" ht="15.75" thickBot="1">
       <c r="A67" s="12" t="s">
         <v>128</v>
       </c>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CC73F3-5EA7-4D82-9D10-2EF121F38E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDCEE9D-9BA0-4017-BA23-34BAA7EAB45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="38280" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13172" uniqueCount="7855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13186" uniqueCount="7863">
   <si>
     <t>Client_ID</t>
   </si>
@@ -23615,6 +23615,30 @@
   </si>
   <si>
     <t>j.boutin@pareassurances.com</t>
+  </si>
+  <si>
+    <t>DCP Dermoscience Inc. [Maude St-Pierre]</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>DCP Dermoscience Inc.</t>
+  </si>
+  <si>
+    <t>maude@dcpdermoscience.com</t>
+  </si>
+  <si>
+    <t>102-1275 rue Gay-Lussac</t>
+  </si>
+  <si>
+    <t>J4B 7K1</t>
+  </si>
+  <si>
+    <t>Sauvageau Hanley</t>
+  </si>
+  <si>
+    <t>Maude Saint-Pierre</t>
   </si>
 </sst>
 </file>
@@ -24680,7 +24704,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:Q1109"/>
+  <dimension ref="A1:Q1110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
       <pane ySplit="615" topLeftCell="A1077" activePane="bottomLeft"/>
@@ -71323,6 +71347,53 @@
       <c r="P1109" s="25"/>
       <c r="Q1109" s="48">
         <v>45602.422002314815</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:17">
+      <c r="A1110" s="3" t="s">
+        <v>7855</v>
+      </c>
+      <c r="B1110" s="45" t="s">
+        <v>7856</v>
+      </c>
+      <c r="C1110" s="45" t="s">
+        <v>7857</v>
+      </c>
+      <c r="D1110" s="21" t="s">
+        <v>7862</v>
+      </c>
+      <c r="E1110" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1110" s="21" t="s">
+        <v>7858</v>
+      </c>
+      <c r="G1110" s="3" t="s">
+        <v>7859</v>
+      </c>
+      <c r="I1110" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1110" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="K1110" s="22" t="s">
+        <v>7860</v>
+      </c>
+      <c r="L1110" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1110" t="s">
+        <v>256</v>
+      </c>
+      <c r="N1110" s="42" t="s">
+        <v>5788</v>
+      </c>
+      <c r="O1110" t="s">
+        <v>7861</v>
+      </c>
+      <c r="Q1110" s="48">
+        <v>45637.428865740738</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDCEE9D-9BA0-4017-BA23-34BAA7EAB45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34DDC8A-D4A3-4D9F-B010-C11D369E3460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clients!$A$1:$P$1109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clients!$A$1:$P$1111</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fournisseurs!$A$1:$K$20</definedName>
     <definedName name="dnrClients" localSheetId="0">OFFSET(Clients!#REF!,1,0,COUNTA(Clients!$A:$A)-1,2)</definedName>
     <definedName name="dnrClients" localSheetId="1">OFFSET(Fournisseurs!$A$1,1,0,COUNTA(Fournisseurs!$A:$A)-1,2)</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13186" uniqueCount="7863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13200" uniqueCount="7870">
   <si>
     <t>Client_ID</t>
   </si>
@@ -23639,6 +23639,27 @@
   </si>
   <si>
     <t>Maude Saint-Pierre</t>
+  </si>
+  <si>
+    <t>Bois Franc Rive Sud Inc. [François Brodeur]</t>
+  </si>
+  <si>
+    <t>1815</t>
+  </si>
+  <si>
+    <t>Bois Franc Rive Sud Inc.</t>
+  </si>
+  <si>
+    <t>François Brodeur</t>
+  </si>
+  <si>
+    <t>fbrodeur@rive-sud.ca</t>
+  </si>
+  <si>
+    <t>SuiteA-4200 boul. Matte</t>
+  </si>
+  <si>
+    <t>J4Y 2Z2</t>
   </si>
 </sst>
 </file>
@@ -24704,12 +24725,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:Q1110"/>
+  <dimension ref="A1:Q1111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
-      <pane ySplit="615" topLeftCell="A1077" activePane="bottomLeft"/>
+      <pane ySplit="615" topLeftCell="A1057" activePane="bottomLeft"/>
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
-      <selection pane="bottomLeft" activeCell="D1092" sqref="D1092"/>
+      <selection pane="bottomLeft" activeCell="A1074" sqref="A1074"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -69848,228 +69869,228 @@
     </row>
     <row r="1079" spans="1:17">
       <c r="A1079" s="3" t="s">
-        <v>7841</v>
+        <v>7855</v>
       </c>
       <c r="B1079" s="45" t="s">
-        <v>7842</v>
+        <v>7856</v>
       </c>
       <c r="C1079" s="45" t="s">
-        <v>7843</v>
+        <v>7857</v>
       </c>
       <c r="D1079" s="34" t="s">
-        <v>7844</v>
+        <v>7862</v>
       </c>
       <c r="E1079" s="23" t="s">
-        <v>7845</v>
+        <v>171</v>
       </c>
       <c r="F1079" s="34" t="s">
-        <v>2264</v>
+        <v>7858</v>
       </c>
       <c r="G1079" s="34" t="s">
-        <v>7846</v>
+        <v>7859</v>
       </c>
       <c r="I1079" s="34" t="s">
-        <v>2244</v>
+        <v>249</v>
       </c>
       <c r="J1079" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1079" s="34" t="s">
-        <v>2266</v>
+        <v>7860</v>
       </c>
       <c r="L1079" s="34" t="s">
         <v>156</v>
       </c>
       <c r="M1079" s="25" t="s">
-        <v>323</v>
+        <v>256</v>
       </c>
       <c r="N1079" s="24" t="s">
-        <v>5789</v>
+        <v>5788</v>
       </c>
       <c r="O1079" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="P1079" s="25" t="s">
-        <v>5332</v>
-      </c>
+        <v>7861</v>
+      </c>
+      <c r="P1079" s="25"/>
       <c r="Q1079" s="48">
-        <v>45626.360127314816</v>
+        <v>45637.428865740738</v>
       </c>
     </row>
     <row r="1080" spans="1:17">
       <c r="A1080" s="3" t="s">
-        <v>7851</v>
+        <v>7841</v>
       </c>
       <c r="B1080" s="45" t="s">
-        <v>7847</v>
+        <v>7842</v>
       </c>
       <c r="C1080" s="45" t="s">
-        <v>7852</v>
+        <v>7843</v>
       </c>
       <c r="D1080" s="34" t="s">
-        <v>7848</v>
+        <v>7844</v>
       </c>
       <c r="E1080" s="23" t="s">
-        <v>172</v>
+        <v>7845</v>
       </c>
       <c r="F1080" s="34" t="s">
-        <v>7849</v>
+        <v>2264</v>
       </c>
       <c r="G1080" s="34" t="s">
-        <v>7853</v>
+        <v>7846</v>
       </c>
       <c r="I1080" s="34" t="s">
-        <v>305</v>
+        <v>2244</v>
       </c>
       <c r="J1080" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1080" s="34" t="s">
-        <v>1793</v>
+        <v>2266</v>
       </c>
       <c r="L1080" s="34" t="s">
         <v>156</v>
       </c>
       <c r="M1080" s="25" t="s">
-        <v>4174</v>
-      </c>
-      <c r="N1080" s="24"/>
+        <v>323</v>
+      </c>
+      <c r="N1080" s="24" t="s">
+        <v>5789</v>
+      </c>
       <c r="O1080" s="25" t="s">
-        <v>7850</v>
+        <v>323</v>
       </c>
       <c r="P1080" s="25" t="s">
-        <v>4174</v>
+        <v>5332</v>
       </c>
       <c r="Q1080" s="48">
-        <v>45630.409421296295</v>
+        <v>45626.360127314816</v>
       </c>
     </row>
     <row r="1081" spans="1:17">
       <c r="A1081" s="3" t="s">
-        <v>6551</v>
+        <v>7851</v>
       </c>
       <c r="B1081" s="45" t="s">
-        <v>46</v>
+        <v>7847</v>
       </c>
       <c r="C1081" s="45" t="s">
-        <v>7520</v>
+        <v>7852</v>
       </c>
       <c r="D1081" s="34" t="s">
-        <v>2263</v>
+        <v>7848</v>
       </c>
       <c r="E1081" s="23" t="s">
         <v>172</v>
       </c>
       <c r="F1081" s="34" t="s">
-        <v>2264</v>
+        <v>7849</v>
       </c>
       <c r="G1081" s="34" t="s">
-        <v>2265</v>
+        <v>7853</v>
       </c>
       <c r="I1081" s="34" t="s">
-        <v>2244</v>
+        <v>305</v>
       </c>
       <c r="J1081" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1081" s="34" t="s">
-        <v>2266</v>
+        <v>1793</v>
       </c>
       <c r="L1081" s="34" t="s">
         <v>156</v>
       </c>
       <c r="M1081" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="N1081" s="24" t="s">
-        <v>5789</v>
-      </c>
+        <v>4174</v>
+      </c>
+      <c r="N1081" s="24"/>
       <c r="O1081" s="25" t="s">
-        <v>323</v>
+        <v>7850</v>
       </c>
       <c r="P1081" s="25" t="s">
-        <v>5332</v>
+        <v>4174</v>
       </c>
       <c r="Q1081" s="48">
-        <v>45591.506944444445</v>
+        <v>45630.409421296295</v>
       </c>
     </row>
     <row r="1082" spans="1:17">
       <c r="A1082" s="3" t="s">
-        <v>6968</v>
+        <v>7863</v>
       </c>
       <c r="B1082" s="45" t="s">
-        <v>5790</v>
+        <v>7864</v>
       </c>
       <c r="C1082" s="45" t="s">
-        <v>7510</v>
+        <v>7865</v>
       </c>
       <c r="D1082" s="34" t="s">
-        <v>6971</v>
+        <v>7866</v>
       </c>
       <c r="E1082" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1082" s="34"/>
+        <v>172</v>
+      </c>
+      <c r="F1082" s="34" t="s">
+        <v>7867</v>
+      </c>
       <c r="G1082" s="34" t="s">
-        <v>2267</v>
+        <v>7868</v>
       </c>
       <c r="I1082" s="34" t="s">
-        <v>2244</v>
+        <v>248</v>
       </c>
       <c r="J1082" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1082" s="34" t="s">
-        <v>2268</v>
+        <v>7869</v>
       </c>
       <c r="L1082" s="34" t="s">
         <v>156</v>
       </c>
       <c r="M1082" s="25" t="s">
-        <v>323</v>
+        <v>1475</v>
       </c>
       <c r="N1082" s="24" t="s">
         <v>2754</v>
       </c>
-      <c r="O1082" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="P1082" s="25"/>
+      <c r="O1082" s="25"/>
+      <c r="P1082" s="25" t="s">
+        <v>1475</v>
+      </c>
       <c r="Q1082" s="48">
-        <v>45592.251759259256</v>
+        <v>45644.407916666663</v>
       </c>
     </row>
     <row r="1083" spans="1:17">
       <c r="A1083" s="3" t="s">
-        <v>6965</v>
+        <v>6551</v>
       </c>
       <c r="B1083" s="45" t="s">
-        <v>5791</v>
+        <v>46</v>
       </c>
       <c r="C1083" s="45" t="s">
-        <v>7486</v>
+        <v>7520</v>
       </c>
       <c r="D1083" s="34" t="s">
-        <v>6972</v>
+        <v>2263</v>
       </c>
       <c r="E1083" s="23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F1083" s="34" t="s">
-        <v>2269</v>
+        <v>2264</v>
       </c>
       <c r="G1083" s="34" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="I1083" s="34" t="s">
-        <v>254</v>
+        <v>2244</v>
       </c>
       <c r="J1083" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1083" s="34" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
       <c r="L1083" s="34" t="s">
         <v>156</v>
@@ -70078,46 +70099,46 @@
         <v>323</v>
       </c>
       <c r="N1083" s="24" t="s">
-        <v>5609</v>
+        <v>5789</v>
       </c>
       <c r="O1083" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1083" s="25"/>
+      <c r="P1083" s="25" t="s">
+        <v>5332</v>
+      </c>
       <c r="Q1083" s="48">
         <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1084" spans="1:17">
       <c r="A1084" s="3" t="s">
-        <v>6969</v>
+        <v>6968</v>
       </c>
       <c r="B1084" s="45" t="s">
-        <v>5792</v>
+        <v>5790</v>
       </c>
       <c r="C1084" s="45" t="s">
-        <v>7518</v>
+        <v>7510</v>
       </c>
       <c r="D1084" s="34" t="s">
-        <v>6973</v>
+        <v>6971</v>
       </c>
       <c r="E1084" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F1084" s="34" t="s">
-        <v>1581</v>
-      </c>
+      <c r="F1084" s="34"/>
       <c r="G1084" s="34" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
       <c r="I1084" s="34" t="s">
-        <v>157</v>
+        <v>2244</v>
       </c>
       <c r="J1084" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1084" s="34" t="s">
-        <v>1583</v>
+        <v>2268</v>
       </c>
       <c r="L1084" s="34" t="s">
         <v>156</v>
@@ -70131,43 +70152,41 @@
       <c r="O1084" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1084" s="25" t="s">
-        <v>5332</v>
-      </c>
+      <c r="P1084" s="25"/>
       <c r="Q1084" s="48">
-        <v>45591.506944444445</v>
+        <v>45592.251759259256</v>
       </c>
     </row>
     <row r="1085" spans="1:17">
       <c r="A1085" s="3" t="s">
-        <v>6552</v>
+        <v>6965</v>
       </c>
       <c r="B1085" s="45" t="s">
-        <v>5793</v>
+        <v>5791</v>
       </c>
       <c r="C1085" s="45" t="s">
-        <v>7501</v>
+        <v>7486</v>
       </c>
       <c r="D1085" s="34" t="s">
-        <v>2273</v>
+        <v>6972</v>
       </c>
       <c r="E1085" s="23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F1085" s="34" t="s">
-        <v>2274</v>
+        <v>2269</v>
       </c>
       <c r="G1085" s="34" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
       <c r="I1085" s="34" t="s">
-        <v>2276</v>
+        <v>254</v>
       </c>
       <c r="J1085" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1085" s="34" t="s">
-        <v>2277</v>
+        <v>2271</v>
       </c>
       <c r="L1085" s="34" t="s">
         <v>156</v>
@@ -70176,7 +70195,7 @@
         <v>323</v>
       </c>
       <c r="N1085" s="24" t="s">
-        <v>2754</v>
+        <v>5609</v>
       </c>
       <c r="O1085" s="25" t="s">
         <v>323</v>
@@ -70188,34 +70207,34 @@
     </row>
     <row r="1086" spans="1:17">
       <c r="A1086" s="3" t="s">
-        <v>6553</v>
+        <v>6969</v>
       </c>
       <c r="B1086" s="45" t="s">
-        <v>48</v>
+        <v>5792</v>
       </c>
       <c r="C1086" s="45" t="s">
-        <v>7281</v>
+        <v>7518</v>
       </c>
       <c r="D1086" s="34" t="s">
-        <v>2278</v>
+        <v>6973</v>
       </c>
       <c r="E1086" s="23" t="s">
-        <v>2279</v>
+        <v>171</v>
       </c>
       <c r="F1086" s="34" t="s">
-        <v>718</v>
+        <v>1581</v>
       </c>
       <c r="G1086" s="34" t="s">
-        <v>2280</v>
+        <v>2272</v>
       </c>
       <c r="I1086" s="34" t="s">
-        <v>1167</v>
+        <v>157</v>
       </c>
       <c r="J1086" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1086" s="34" t="s">
-        <v>721</v>
+        <v>1583</v>
       </c>
       <c r="L1086" s="34" t="s">
         <v>156</v>
@@ -70230,7 +70249,7 @@
         <v>323</v>
       </c>
       <c r="P1086" s="25" t="s">
-        <v>5802</v>
+        <v>5332</v>
       </c>
       <c r="Q1086" s="48">
         <v>45591.506944444445</v>
@@ -70238,34 +70257,34 @@
     </row>
     <row r="1087" spans="1:17">
       <c r="A1087" s="3" t="s">
-        <v>6554</v>
+        <v>6552</v>
       </c>
       <c r="B1087" s="45" t="s">
-        <v>5794</v>
+        <v>5793</v>
       </c>
       <c r="C1087" s="45" t="s">
-        <v>7566</v>
+        <v>7501</v>
       </c>
       <c r="D1087" s="34" t="s">
-        <v>2281</v>
+        <v>2273</v>
       </c>
       <c r="E1087" s="23" t="s">
-        <v>2279</v>
+        <v>172</v>
       </c>
       <c r="F1087" s="34" t="s">
-        <v>2282</v>
+        <v>2274</v>
       </c>
       <c r="G1087" s="34" t="s">
-        <v>2283</v>
+        <v>2275</v>
       </c>
       <c r="I1087" s="34" t="s">
-        <v>2284</v>
+        <v>2276</v>
       </c>
       <c r="J1087" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1087" s="34" t="s">
-        <v>2285</v>
+        <v>2277</v>
       </c>
       <c r="L1087" s="34" t="s">
         <v>156</v>
@@ -70286,34 +70305,34 @@
     </row>
     <row r="1088" spans="1:17">
       <c r="A1088" s="3" t="s">
-        <v>6970</v>
+        <v>6553</v>
       </c>
       <c r="B1088" s="45" t="s">
-        <v>5795</v>
+        <v>48</v>
       </c>
       <c r="C1088" s="45" t="s">
-        <v>7565</v>
+        <v>7281</v>
       </c>
       <c r="D1088" s="34" t="s">
-        <v>6974</v>
+        <v>2278</v>
       </c>
       <c r="E1088" s="23" t="s">
         <v>2279</v>
       </c>
       <c r="F1088" s="34" t="s">
-        <v>2287</v>
+        <v>718</v>
       </c>
       <c r="G1088" s="34" t="s">
-        <v>2288</v>
+        <v>2280</v>
       </c>
       <c r="I1088" s="34" t="s">
-        <v>423</v>
+        <v>1167</v>
       </c>
       <c r="J1088" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1088" s="34" t="s">
-        <v>2289</v>
+        <v>721</v>
       </c>
       <c r="L1088" s="34" t="s">
         <v>156</v>
@@ -70328,7 +70347,7 @@
         <v>323</v>
       </c>
       <c r="P1088" s="25" t="s">
-        <v>5332</v>
+        <v>5802</v>
       </c>
       <c r="Q1088" s="48">
         <v>45591.506944444445</v>
@@ -70336,34 +70355,34 @@
     </row>
     <row r="1089" spans="1:17">
       <c r="A1089" s="3" t="s">
-        <v>6555</v>
+        <v>6554</v>
       </c>
       <c r="B1089" s="45" t="s">
-        <v>5796</v>
+        <v>5794</v>
       </c>
       <c r="C1089" s="45" t="s">
-        <v>7602</v>
+        <v>7566</v>
       </c>
       <c r="D1089" s="34" t="s">
-        <v>2290</v>
+        <v>2281</v>
       </c>
       <c r="E1089" s="23" t="s">
-        <v>172</v>
+        <v>2279</v>
       </c>
       <c r="F1089" s="34" t="s">
-        <v>2291</v>
+        <v>2282</v>
       </c>
       <c r="G1089" s="34" t="s">
-        <v>2292</v>
+        <v>2283</v>
       </c>
       <c r="I1089" s="34" t="s">
-        <v>248</v>
+        <v>2284</v>
       </c>
       <c r="J1089" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1089" s="34" t="s">
-        <v>2293</v>
+        <v>2285</v>
       </c>
       <c r="L1089" s="34" t="s">
         <v>156</v>
@@ -70377,43 +70396,41 @@
       <c r="O1089" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1089" s="25" t="s">
-        <v>5332</v>
-      </c>
+      <c r="P1089" s="25"/>
       <c r="Q1089" s="48">
         <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1090" spans="1:17">
       <c r="A1090" s="3" t="s">
-        <v>7840</v>
+        <v>6970</v>
       </c>
       <c r="B1090" s="45" t="s">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="C1090" s="45" t="s">
-        <v>7499</v>
+        <v>7565</v>
       </c>
       <c r="D1090" s="34" t="s">
-        <v>2294</v>
+        <v>6974</v>
       </c>
       <c r="E1090" s="23" t="s">
-        <v>172</v>
+        <v>2279</v>
       </c>
       <c r="F1090" s="34" t="s">
-        <v>2295</v>
+        <v>2287</v>
       </c>
       <c r="G1090" s="34" t="s">
-        <v>2296</v>
+        <v>2288</v>
       </c>
       <c r="I1090" s="34" t="s">
-        <v>2297</v>
+        <v>423</v>
       </c>
       <c r="J1090" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1090" s="34" t="s">
-        <v>2298</v>
+        <v>2289</v>
       </c>
       <c r="L1090" s="34" t="s">
         <v>156</v>
@@ -70422,46 +70439,48 @@
         <v>323</v>
       </c>
       <c r="N1090" s="24" t="s">
-        <v>5798</v>
+        <v>2754</v>
       </c>
       <c r="O1090" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1090" s="25"/>
+      <c r="P1090" s="25" t="s">
+        <v>5332</v>
+      </c>
       <c r="Q1090" s="48">
-        <v>45626.355034722219</v>
+        <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1091" spans="1:17">
       <c r="A1091" s="3" t="s">
-        <v>6556</v>
+        <v>6555</v>
       </c>
       <c r="B1091" s="45" t="s">
-        <v>5799</v>
+        <v>5796</v>
       </c>
       <c r="C1091" s="45" t="s">
-        <v>7505</v>
+        <v>7602</v>
       </c>
       <c r="D1091" s="34" t="s">
-        <v>2299</v>
+        <v>2290</v>
       </c>
       <c r="E1091" s="23" t="s">
-        <v>2300</v>
+        <v>172</v>
       </c>
       <c r="F1091" s="34" t="s">
-        <v>2301</v>
+        <v>2291</v>
       </c>
       <c r="G1091" s="34" t="s">
-        <v>2302</v>
+        <v>2292</v>
       </c>
       <c r="I1091" s="34" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J1091" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1091" s="34" t="s">
-        <v>2303</v>
+        <v>2293</v>
       </c>
       <c r="L1091" s="34" t="s">
         <v>156</v>
@@ -70475,41 +70494,43 @@
       <c r="O1091" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1091" s="25"/>
+      <c r="P1091" s="25" t="s">
+        <v>5332</v>
+      </c>
       <c r="Q1091" s="48">
         <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1092" spans="1:17">
       <c r="A1092" s="3" t="s">
-        <v>6557</v>
+        <v>7840</v>
       </c>
       <c r="B1092" s="45" t="s">
-        <v>5800</v>
+        <v>5797</v>
       </c>
       <c r="C1092" s="45" t="s">
-        <v>7313</v>
+        <v>7499</v>
       </c>
       <c r="D1092" s="34" t="s">
-        <v>2304</v>
+        <v>2294</v>
       </c>
       <c r="E1092" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F1092" s="34" t="s">
-        <v>2305</v>
+        <v>2295</v>
       </c>
       <c r="G1092" s="34" t="s">
-        <v>2306</v>
+        <v>2296</v>
       </c>
       <c r="I1092" s="34" t="s">
-        <v>1533</v>
+        <v>2297</v>
       </c>
       <c r="J1092" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1092" s="34" t="s">
-        <v>2307</v>
+        <v>2298</v>
       </c>
       <c r="L1092" s="34" t="s">
         <v>156</v>
@@ -70518,46 +70539,46 @@
         <v>323</v>
       </c>
       <c r="N1092" s="24" t="s">
-        <v>5360</v>
+        <v>5798</v>
       </c>
       <c r="O1092" s="25" t="s">
         <v>323</v>
       </c>
       <c r="P1092" s="25"/>
       <c r="Q1092" s="48">
-        <v>45591.506944444445</v>
+        <v>45626.355034722219</v>
       </c>
     </row>
     <row r="1093" spans="1:17">
       <c r="A1093" s="3" t="s">
-        <v>6558</v>
+        <v>6556</v>
       </c>
       <c r="B1093" s="45" t="s">
-        <v>5801</v>
+        <v>5799</v>
       </c>
       <c r="C1093" s="45" t="s">
-        <v>7503</v>
+        <v>7505</v>
       </c>
       <c r="D1093" s="34" t="s">
-        <v>2304</v>
+        <v>2299</v>
       </c>
       <c r="E1093" s="23" t="s">
-        <v>171</v>
+        <v>2300</v>
       </c>
       <c r="F1093" s="34" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="G1093" s="34" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="I1093" s="34" t="s">
-        <v>1533</v>
+        <v>254</v>
       </c>
       <c r="J1093" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1093" s="34" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="L1093" s="34" t="s">
         <v>156</v>
@@ -70566,7 +70587,7 @@
         <v>323</v>
       </c>
       <c r="N1093" s="24" t="s">
-        <v>5360</v>
+        <v>2754</v>
       </c>
       <c r="O1093" s="25" t="s">
         <v>323</v>
@@ -70578,31 +70599,34 @@
     </row>
     <row r="1094" spans="1:17">
       <c r="A1094" s="3" t="s">
-        <v>5867</v>
+        <v>6557</v>
       </c>
       <c r="B1094" s="45" t="s">
-        <v>5331</v>
+        <v>5800</v>
+      </c>
+      <c r="C1094" s="45" t="s">
+        <v>7313</v>
       </c>
       <c r="D1094" s="34" t="s">
-        <v>2278</v>
+        <v>2304</v>
       </c>
       <c r="E1094" s="23" t="s">
-        <v>835</v>
+        <v>171</v>
       </c>
       <c r="F1094" s="34" t="s">
-        <v>718</v>
+        <v>2305</v>
       </c>
       <c r="G1094" s="34" t="s">
-        <v>2280</v>
+        <v>2306</v>
       </c>
       <c r="I1094" s="34" t="s">
-        <v>1167</v>
+        <v>1533</v>
       </c>
       <c r="J1094" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1094" s="34" t="s">
-        <v>721</v>
+        <v>2307</v>
       </c>
       <c r="L1094" s="34" t="s">
         <v>156</v>
@@ -70611,48 +70635,46 @@
         <v>323</v>
       </c>
       <c r="N1094" s="24" t="s">
-        <v>5798</v>
+        <v>5360</v>
       </c>
       <c r="O1094" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1094" s="25" t="s">
-        <v>5332</v>
-      </c>
+      <c r="P1094" s="25"/>
       <c r="Q1094" s="48">
         <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1095" spans="1:17">
       <c r="A1095" s="3" t="s">
-        <v>6559</v>
+        <v>6558</v>
       </c>
       <c r="B1095" s="45" t="s">
-        <v>5803</v>
+        <v>5801</v>
       </c>
       <c r="C1095" s="45" t="s">
-        <v>7512</v>
+        <v>7503</v>
       </c>
       <c r="D1095" s="34" t="s">
-        <v>2286</v>
+        <v>2304</v>
       </c>
       <c r="E1095" s="23" t="s">
-        <v>858</v>
+        <v>171</v>
       </c>
       <c r="F1095" s="34" t="s">
-        <v>2287</v>
+        <v>2305</v>
       </c>
       <c r="G1095" s="34" t="s">
-        <v>2288</v>
+        <v>2306</v>
       </c>
       <c r="I1095" s="34" t="s">
-        <v>423</v>
+        <v>1533</v>
       </c>
       <c r="J1095" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1095" s="34" t="s">
-        <v>2289</v>
+        <v>2307</v>
       </c>
       <c r="L1095" s="34" t="s">
         <v>156</v>
@@ -70661,48 +70683,43 @@
         <v>323</v>
       </c>
       <c r="N1095" s="24" t="s">
-        <v>5804</v>
+        <v>5360</v>
       </c>
       <c r="O1095" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1095" s="25" t="s">
-        <v>5332</v>
-      </c>
+      <c r="P1095" s="25"/>
       <c r="Q1095" s="48">
         <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1096" spans="1:17">
       <c r="A1096" s="3" t="s">
-        <v>6560</v>
+        <v>5867</v>
       </c>
       <c r="B1096" s="45" t="s">
-        <v>5805</v>
-      </c>
-      <c r="C1096" s="45" t="s">
-        <v>7546</v>
+        <v>5331</v>
       </c>
       <c r="D1096" s="34" t="s">
-        <v>2286</v>
+        <v>2278</v>
       </c>
       <c r="E1096" s="23" t="s">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="F1096" s="34" t="s">
-        <v>2287</v>
+        <v>718</v>
       </c>
       <c r="G1096" s="34" t="s">
-        <v>2288</v>
+        <v>2280</v>
       </c>
       <c r="I1096" s="34" t="s">
-        <v>423</v>
+        <v>1167</v>
       </c>
       <c r="J1096" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1096" s="34" t="s">
-        <v>2289</v>
+        <v>721</v>
       </c>
       <c r="L1096" s="34" t="s">
         <v>156</v>
@@ -70711,7 +70728,7 @@
         <v>323</v>
       </c>
       <c r="N1096" s="24" t="s">
-        <v>5804</v>
+        <v>5798</v>
       </c>
       <c r="O1096" s="25" t="s">
         <v>323</v>
@@ -70725,34 +70742,34 @@
     </row>
     <row r="1097" spans="1:17">
       <c r="A1097" s="3" t="s">
-        <v>6966</v>
+        <v>6559</v>
       </c>
       <c r="B1097" s="45" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="C1097" s="45" t="s">
-        <v>7442</v>
+        <v>7512</v>
       </c>
       <c r="D1097" s="34" t="s">
-        <v>6975</v>
+        <v>2286</v>
       </c>
       <c r="E1097" s="23" t="s">
         <v>858</v>
       </c>
       <c r="F1097" s="34" t="s">
-        <v>2308</v>
+        <v>2287</v>
       </c>
       <c r="G1097" s="34" t="s">
-        <v>2309</v>
+        <v>2288</v>
       </c>
       <c r="I1097" s="34" t="s">
-        <v>2310</v>
+        <v>423</v>
       </c>
       <c r="J1097" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1097" s="34" t="s">
-        <v>2311</v>
+        <v>2289</v>
       </c>
       <c r="L1097" s="34" t="s">
         <v>156</v>
@@ -70761,46 +70778,48 @@
         <v>323</v>
       </c>
       <c r="N1097" s="24" t="s">
-        <v>2754</v>
+        <v>5804</v>
       </c>
       <c r="O1097" s="25" t="s">
-        <v>2312</v>
-      </c>
-      <c r="P1097" s="25"/>
+        <v>323</v>
+      </c>
+      <c r="P1097" s="25" t="s">
+        <v>5332</v>
+      </c>
       <c r="Q1097" s="48">
         <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1098" spans="1:17">
       <c r="A1098" s="3" t="s">
-        <v>6561</v>
+        <v>6560</v>
       </c>
       <c r="B1098" s="45" t="s">
-        <v>5807</v>
+        <v>5805</v>
       </c>
       <c r="C1098" s="45" t="s">
-        <v>7606</v>
+        <v>7546</v>
       </c>
       <c r="D1098" s="34" t="s">
-        <v>2313</v>
+        <v>2286</v>
       </c>
       <c r="E1098" s="23" t="s">
-        <v>172</v>
+        <v>858</v>
       </c>
       <c r="F1098" s="34" t="s">
-        <v>2314</v>
+        <v>2287</v>
       </c>
       <c r="G1098" s="34" t="s">
-        <v>2315</v>
+        <v>2288</v>
       </c>
       <c r="I1098" s="34" t="s">
-        <v>168</v>
+        <v>423</v>
       </c>
       <c r="J1098" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1098" s="34" t="s">
-        <v>2160</v>
+        <v>2289</v>
       </c>
       <c r="L1098" s="34" t="s">
         <v>156</v>
@@ -70809,49 +70828,48 @@
         <v>323</v>
       </c>
       <c r="N1098" s="24" t="s">
-        <v>5771</v>
+        <v>5804</v>
       </c>
       <c r="O1098" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1098" s="25"/>
+      <c r="P1098" s="25" t="s">
+        <v>5332</v>
+      </c>
       <c r="Q1098" s="48">
         <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1099" spans="1:17">
       <c r="A1099" s="3" t="s">
-        <v>6562</v>
+        <v>6966</v>
       </c>
       <c r="B1099" s="45" t="s">
-        <v>5808</v>
+        <v>5806</v>
       </c>
       <c r="C1099" s="45" t="s">
-        <v>7489</v>
+        <v>7442</v>
       </c>
       <c r="D1099" s="34" t="s">
-        <v>2313</v>
+        <v>6975</v>
       </c>
       <c r="E1099" s="23" t="s">
-        <v>172</v>
+        <v>858</v>
       </c>
       <c r="F1099" s="34" t="s">
-        <v>2316</v>
+        <v>2308</v>
       </c>
       <c r="G1099" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="H1099" s="3" t="s">
-        <v>2317</v>
+        <v>2309</v>
       </c>
       <c r="I1099" s="34" t="s">
-        <v>254</v>
+        <v>2310</v>
       </c>
       <c r="J1099" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1099" s="34" t="s">
-        <v>255</v>
+        <v>2311</v>
       </c>
       <c r="L1099" s="34" t="s">
         <v>156</v>
@@ -70863,45 +70881,43 @@
         <v>2754</v>
       </c>
       <c r="O1099" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="P1099" s="25" t="s">
-        <v>2318</v>
-      </c>
+        <v>2312</v>
+      </c>
+      <c r="P1099" s="25"/>
       <c r="Q1099" s="48">
         <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1100" spans="1:17">
       <c r="A1100" s="3" t="s">
-        <v>6563</v>
+        <v>6561</v>
       </c>
       <c r="B1100" s="45" t="s">
-        <v>5809</v>
+        <v>5807</v>
       </c>
       <c r="C1100" s="45" t="s">
-        <v>7420</v>
+        <v>7606</v>
       </c>
       <c r="D1100" s="34" t="s">
-        <v>2319</v>
+        <v>2313</v>
       </c>
       <c r="E1100" s="23" t="s">
         <v>172</v>
       </c>
       <c r="F1100" s="34" t="s">
-        <v>2320</v>
+        <v>2314</v>
       </c>
       <c r="G1100" s="34" t="s">
-        <v>2321</v>
+        <v>2315</v>
       </c>
       <c r="I1100" s="34" t="s">
-        <v>1648</v>
+        <v>168</v>
       </c>
       <c r="J1100" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1100" s="34" t="s">
-        <v>2322</v>
+        <v>2160</v>
       </c>
       <c r="L1100" s="34" t="s">
         <v>156</v>
@@ -70910,7 +70926,7 @@
         <v>323</v>
       </c>
       <c r="N1100" s="24" t="s">
-        <v>5789</v>
+        <v>5771</v>
       </c>
       <c r="O1100" s="25" t="s">
         <v>323</v>
@@ -70922,34 +70938,37 @@
     </row>
     <row r="1101" spans="1:17">
       <c r="A1101" s="3" t="s">
-        <v>6564</v>
+        <v>6562</v>
       </c>
       <c r="B1101" s="45" t="s">
-        <v>5333</v>
+        <v>5808</v>
       </c>
       <c r="C1101" s="45" t="s">
-        <v>7557</v>
+        <v>7489</v>
       </c>
       <c r="D1101" s="34" t="s">
-        <v>7700</v>
+        <v>2313</v>
       </c>
       <c r="E1101" s="23" t="s">
         <v>172</v>
       </c>
       <c r="F1101" s="34" t="s">
-        <v>2323</v>
+        <v>2316</v>
       </c>
       <c r="G1101" s="34" t="s">
-        <v>2324</v>
+        <v>253</v>
+      </c>
+      <c r="H1101" s="3" t="s">
+        <v>2317</v>
       </c>
       <c r="I1101" s="34" t="s">
-        <v>2325</v>
+        <v>254</v>
       </c>
       <c r="J1101" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1101" s="34" t="s">
-        <v>2326</v>
+        <v>255</v>
       </c>
       <c r="L1101" s="34" t="s">
         <v>156</v>
@@ -70963,41 +70982,43 @@
       <c r="O1101" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1101" s="25"/>
+      <c r="P1101" s="25" t="s">
+        <v>2318</v>
+      </c>
       <c r="Q1101" s="48">
-        <v>45599.491631944446</v>
+        <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1102" spans="1:17">
       <c r="A1102" s="3" t="s">
-        <v>6565</v>
+        <v>6563</v>
       </c>
       <c r="B1102" s="45" t="s">
-        <v>5810</v>
+        <v>5809</v>
       </c>
       <c r="C1102" s="45" t="s">
-        <v>7504</v>
+        <v>7420</v>
       </c>
       <c r="D1102" s="34" t="s">
-        <v>2327</v>
+        <v>2319</v>
       </c>
       <c r="E1102" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F1102" s="34" t="s">
-        <v>2328</v>
+        <v>2320</v>
       </c>
       <c r="G1102" s="34" t="s">
-        <v>2306</v>
+        <v>2321</v>
       </c>
       <c r="I1102" s="34" t="s">
-        <v>1533</v>
+        <v>1648</v>
       </c>
       <c r="J1102" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1102" s="34" t="s">
-        <v>2307</v>
+        <v>2322</v>
       </c>
       <c r="L1102" s="34" t="s">
         <v>156</v>
@@ -71006,7 +71027,7 @@
         <v>323</v>
       </c>
       <c r="N1102" s="24" t="s">
-        <v>5360</v>
+        <v>5789</v>
       </c>
       <c r="O1102" s="25" t="s">
         <v>323</v>
@@ -71018,34 +71039,34 @@
     </row>
     <row r="1103" spans="1:17">
       <c r="A1103" s="3" t="s">
-        <v>7718</v>
+        <v>6564</v>
       </c>
       <c r="B1103" s="45" t="s">
-        <v>5811</v>
+        <v>5333</v>
       </c>
       <c r="C1103" s="45" t="s">
-        <v>7245</v>
+        <v>7557</v>
       </c>
       <c r="D1103" s="34" t="s">
-        <v>2299</v>
+        <v>7700</v>
       </c>
       <c r="E1103" s="23" t="s">
         <v>172</v>
       </c>
       <c r="F1103" s="34" t="s">
-        <v>2301</v>
+        <v>2323</v>
       </c>
       <c r="G1103" s="34" t="s">
-        <v>2329</v>
+        <v>2324</v>
       </c>
       <c r="I1103" s="34" t="s">
-        <v>249</v>
+        <v>2325</v>
       </c>
       <c r="J1103" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1103" s="34" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
       <c r="L1103" s="34" t="s">
         <v>156</v>
@@ -71054,49 +71075,46 @@
         <v>323</v>
       </c>
       <c r="N1103" s="24" t="s">
-        <v>5789</v>
+        <v>2754</v>
       </c>
       <c r="O1103" s="25" t="s">
         <v>323</v>
       </c>
       <c r="P1103" s="25"/>
       <c r="Q1103" s="48">
-        <v>45602.572002314817</v>
+        <v>45599.491631944446</v>
       </c>
     </row>
     <row r="1104" spans="1:17">
       <c r="A1104" s="3" t="s">
-        <v>6566</v>
+        <v>6565</v>
       </c>
       <c r="B1104" s="45" t="s">
-        <v>5812</v>
+        <v>5810</v>
       </c>
       <c r="C1104" s="45" t="s">
-        <v>7500</v>
+        <v>7504</v>
       </c>
       <c r="D1104" s="34" t="s">
-        <v>2331</v>
+        <v>2327</v>
       </c>
       <c r="E1104" s="23" t="s">
         <v>171</v>
       </c>
       <c r="F1104" s="34" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
       <c r="G1104" s="34" t="s">
-        <v>2333</v>
-      </c>
-      <c r="H1104" s="3" t="s">
-        <v>2334</v>
+        <v>2306</v>
       </c>
       <c r="I1104" s="34" t="s">
-        <v>254</v>
+        <v>1533</v>
       </c>
       <c r="J1104" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1104" s="34" t="s">
-        <v>2335</v>
+        <v>2307</v>
       </c>
       <c r="L1104" s="34" t="s">
         <v>156</v>
@@ -71105,7 +71123,7 @@
         <v>323</v>
       </c>
       <c r="N1104" s="24" t="s">
-        <v>5780</v>
+        <v>5360</v>
       </c>
       <c r="O1104" s="25" t="s">
         <v>323</v>
@@ -71117,34 +71135,34 @@
     </row>
     <row r="1105" spans="1:17">
       <c r="A1105" s="3" t="s">
-        <v>6567</v>
+        <v>7718</v>
       </c>
       <c r="B1105" s="45" t="s">
-        <v>5813</v>
+        <v>5811</v>
       </c>
       <c r="C1105" s="45" t="s">
-        <v>7612</v>
+        <v>7245</v>
       </c>
       <c r="D1105" s="34" t="s">
-        <v>2336</v>
+        <v>2299</v>
       </c>
       <c r="E1105" s="23" t="s">
         <v>172</v>
       </c>
       <c r="F1105" s="34" t="s">
-        <v>2337</v>
+        <v>2301</v>
       </c>
       <c r="G1105" s="34" t="s">
-        <v>2338</v>
+        <v>2329</v>
       </c>
       <c r="I1105" s="34" t="s">
-        <v>2339</v>
+        <v>249</v>
       </c>
       <c r="J1105" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1105" s="34" t="s">
-        <v>2340</v>
+        <v>2330</v>
       </c>
       <c r="L1105" s="34" t="s">
         <v>156</v>
@@ -71153,46 +71171,49 @@
         <v>323</v>
       </c>
       <c r="N1105" s="24" t="s">
-        <v>5780</v>
+        <v>5789</v>
       </c>
       <c r="O1105" s="25" t="s">
         <v>323</v>
       </c>
       <c r="P1105" s="25"/>
       <c r="Q1105" s="48">
-        <v>45591.506944444445</v>
+        <v>45602.572002314817</v>
       </c>
     </row>
     <row r="1106" spans="1:17">
       <c r="A1106" s="3" t="s">
-        <v>6568</v>
+        <v>6566</v>
       </c>
       <c r="B1106" s="45" t="s">
-        <v>5814</v>
+        <v>5812</v>
       </c>
       <c r="C1106" s="45" t="s">
-        <v>7507</v>
+        <v>7500</v>
       </c>
       <c r="D1106" s="34" t="s">
-        <v>2281</v>
+        <v>2331</v>
       </c>
       <c r="E1106" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1106" s="34" t="s">
-        <v>2282</v>
+        <v>2332</v>
       </c>
       <c r="G1106" s="34" t="s">
-        <v>2283</v>
+        <v>2333</v>
+      </c>
+      <c r="H1106" s="3" t="s">
+        <v>2334</v>
       </c>
       <c r="I1106" s="34" t="s">
-        <v>2284</v>
+        <v>254</v>
       </c>
       <c r="J1106" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1106" s="34" t="s">
-        <v>2285</v>
+        <v>2335</v>
       </c>
       <c r="L1106" s="34" t="s">
         <v>156</v>
@@ -71201,7 +71222,7 @@
         <v>323</v>
       </c>
       <c r="N1106" s="24" t="s">
-        <v>2754</v>
+        <v>5780</v>
       </c>
       <c r="O1106" s="25" t="s">
         <v>323</v>
@@ -71213,34 +71234,34 @@
     </row>
     <row r="1107" spans="1:17">
       <c r="A1107" s="3" t="s">
-        <v>7717</v>
+        <v>6567</v>
       </c>
       <c r="B1107" s="45" t="s">
-        <v>6985</v>
+        <v>5813</v>
       </c>
       <c r="C1107" s="45" t="s">
-        <v>7234</v>
+        <v>7612</v>
       </c>
       <c r="D1107" s="34" t="s">
-        <v>2876</v>
+        <v>2336</v>
       </c>
       <c r="E1107" s="23" t="s">
         <v>172</v>
       </c>
       <c r="F1107" s="34" t="s">
-        <v>7854</v>
+        <v>2337</v>
       </c>
       <c r="G1107" s="34" t="s">
-        <v>2877</v>
+        <v>2338</v>
       </c>
       <c r="I1107" s="34" t="s">
-        <v>6986</v>
+        <v>2339</v>
       </c>
       <c r="J1107" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1107" s="34" t="s">
-        <v>2878</v>
+        <v>2340</v>
       </c>
       <c r="L1107" s="34" t="s">
         <v>156</v>
@@ -71249,191 +71270,240 @@
         <v>323</v>
       </c>
       <c r="N1107" s="24" t="s">
-        <v>5609</v>
+        <v>5780</v>
       </c>
       <c r="O1107" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="P1107" s="25" t="s">
-        <v>5332</v>
-      </c>
+      <c r="P1107" s="25"/>
       <c r="Q1107" s="48">
-        <v>45634.650567129633</v>
+        <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1108" spans="1:17">
       <c r="A1108" s="3" t="s">
-        <v>7706</v>
+        <v>6568</v>
       </c>
       <c r="B1108" s="45" t="s">
-        <v>7707</v>
+        <v>5814</v>
       </c>
       <c r="C1108" s="45" t="s">
-        <v>7708</v>
+        <v>7507</v>
       </c>
       <c r="D1108" s="34" t="s">
-        <v>7709</v>
+        <v>2281</v>
       </c>
       <c r="E1108" s="23" t="s">
         <v>172</v>
       </c>
       <c r="F1108" s="34" t="s">
-        <v>7710</v>
+        <v>2282</v>
       </c>
       <c r="G1108" s="34" t="s">
-        <v>7711</v>
+        <v>2283</v>
       </c>
       <c r="I1108" s="34" t="s">
-        <v>7712</v>
+        <v>2284</v>
       </c>
       <c r="J1108" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1108" s="34" t="s">
-        <v>7713</v>
+        <v>2285</v>
       </c>
       <c r="L1108" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="M1108" s="25"/>
+      <c r="M1108" s="25" t="s">
+        <v>323</v>
+      </c>
       <c r="N1108" s="24" t="s">
         <v>2754</v>
       </c>
-      <c r="O1108" s="25"/>
+      <c r="O1108" s="25" t="s">
+        <v>323</v>
+      </c>
       <c r="P1108" s="25"/>
       <c r="Q1108" s="48">
-        <v>45602.420393518521</v>
+        <v>45591.506944444445</v>
       </c>
     </row>
     <row r="1109" spans="1:17">
       <c r="A1109" s="3" t="s">
-        <v>7714</v>
+        <v>7717</v>
       </c>
       <c r="B1109" s="45" t="s">
-        <v>7715</v>
+        <v>6985</v>
       </c>
       <c r="C1109" s="45" t="s">
-        <v>7716</v>
+        <v>7234</v>
       </c>
       <c r="D1109" s="34" t="s">
-        <v>7709</v>
+        <v>2876</v>
       </c>
       <c r="E1109" s="23" t="s">
         <v>172</v>
       </c>
       <c r="F1109" s="34" t="s">
-        <v>7710</v>
+        <v>7854</v>
       </c>
       <c r="G1109" s="34" t="s">
-        <v>7711</v>
+        <v>2877</v>
       </c>
       <c r="I1109" s="34" t="s">
-        <v>7712</v>
+        <v>6986</v>
       </c>
       <c r="J1109" s="34" t="s">
         <v>575</v>
       </c>
       <c r="K1109" s="34" t="s">
-        <v>7713</v>
+        <v>2878</v>
       </c>
       <c r="L1109" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="M1109" s="25"/>
+      <c r="M1109" s="25" t="s">
+        <v>323</v>
+      </c>
       <c r="N1109" s="24" t="s">
-        <v>2754</v>
-      </c>
-      <c r="O1109" s="25"/>
-      <c r="P1109" s="25"/>
+        <v>5609</v>
+      </c>
+      <c r="O1109" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="P1109" s="25" t="s">
+        <v>5332</v>
+      </c>
       <c r="Q1109" s="48">
-        <v>45602.422002314815</v>
+        <v>45634.650567129633</v>
       </c>
     </row>
     <row r="1110" spans="1:17">
       <c r="A1110" s="3" t="s">
-        <v>7855</v>
+        <v>7706</v>
       </c>
       <c r="B1110" s="45" t="s">
-        <v>7856</v>
+        <v>7707</v>
       </c>
       <c r="C1110" s="45" t="s">
-        <v>7857</v>
-      </c>
-      <c r="D1110" s="21" t="s">
-        <v>7862</v>
+        <v>7708</v>
+      </c>
+      <c r="D1110" s="34" t="s">
+        <v>7709</v>
       </c>
       <c r="E1110" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1110" s="21" t="s">
-        <v>7858</v>
-      </c>
-      <c r="G1110" s="3" t="s">
-        <v>7859</v>
-      </c>
-      <c r="I1110" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J1110" s="22" t="s">
-        <v>575</v>
-      </c>
-      <c r="K1110" s="22" t="s">
-        <v>7860</v>
-      </c>
-      <c r="L1110" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1110" t="s">
-        <v>256</v>
-      </c>
-      <c r="N1110" s="42" t="s">
-        <v>5788</v>
-      </c>
-      <c r="O1110" t="s">
-        <v>7861</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F1110" s="34" t="s">
+        <v>7710</v>
+      </c>
+      <c r="G1110" s="34" t="s">
+        <v>7711</v>
+      </c>
+      <c r="I1110" s="34" t="s">
+        <v>7712</v>
+      </c>
+      <c r="J1110" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="K1110" s="34" t="s">
+        <v>7713</v>
+      </c>
+      <c r="L1110" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1110" s="25"/>
+      <c r="N1110" s="24" t="s">
+        <v>2754</v>
+      </c>
+      <c r="O1110" s="25"/>
+      <c r="P1110" s="25"/>
       <c r="Q1110" s="48">
-        <v>45637.428865740738</v>
+        <v>45602.420393518521</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:17">
+      <c r="A1111" s="3" t="s">
+        <v>7714</v>
+      </c>
+      <c r="B1111" s="45" t="s">
+        <v>7715</v>
+      </c>
+      <c r="C1111" s="45" t="s">
+        <v>7716</v>
+      </c>
+      <c r="D1111" s="34" t="s">
+        <v>7709</v>
+      </c>
+      <c r="E1111" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1111" s="34" t="s">
+        <v>7710</v>
+      </c>
+      <c r="G1111" s="34" t="s">
+        <v>7711</v>
+      </c>
+      <c r="I1111" s="34" t="s">
+        <v>7712</v>
+      </c>
+      <c r="J1111" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="K1111" s="34" t="s">
+        <v>7713</v>
+      </c>
+      <c r="L1111" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1111" s="25"/>
+      <c r="N1111" s="24" t="s">
+        <v>2754</v>
+      </c>
+      <c r="O1111" s="25"/>
+      <c r="P1111" s="25"/>
+      <c r="Q1111" s="48">
+        <v>45602.422002314815</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1109" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P1106">
-      <sortCondition ref="B2:B1106"/>
-      <sortCondition ref="A2:A1106"/>
+  <autoFilter ref="A1:P1111" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P1108">
+      <sortCondition ref="B2:B1108"/>
+      <sortCondition ref="A2:A1108"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A2:Q1109">
+  <conditionalFormatting sqref="A2:Q1111">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F1106" r:id="rId1" xr:uid="{F456DE86-0DC4-459B-8786-AEB12C0F36B0}"/>
-    <hyperlink ref="F1105" r:id="rId2" xr:uid="{A987B60B-629E-450A-AFE5-A7284329CD96}"/>
-    <hyperlink ref="F1104" r:id="rId3" xr:uid="{BDA96C0A-370D-46F7-82B7-86D5AE155E9F}"/>
-    <hyperlink ref="F1103" r:id="rId4" xr:uid="{E0EF30A2-FEE8-48F7-905E-3DCEE9D90336}"/>
-    <hyperlink ref="F1102" r:id="rId5" xr:uid="{F5EE9F94-288C-4D35-98F2-B7DF314331DE}"/>
-    <hyperlink ref="F1101" r:id="rId6" xr:uid="{A71B48CB-C499-456A-8FFD-47EFE60A828E}"/>
-    <hyperlink ref="F1100" r:id="rId7" xr:uid="{AF04FF5C-ADCA-44DC-B3B2-A425FC0DCFD9}"/>
-    <hyperlink ref="F1099" r:id="rId8" xr:uid="{F55EAFC5-5519-4A1F-80D4-95B4D202FE38}"/>
-    <hyperlink ref="F1098" r:id="rId9" xr:uid="{5FE20200-FB86-452E-8BE1-863A3C65BD07}"/>
-    <hyperlink ref="F1097" r:id="rId10" xr:uid="{8F88B4B6-197E-4940-B572-1769D2C402A3}"/>
-    <hyperlink ref="F1096" r:id="rId11" xr:uid="{DACEA89F-4573-408A-AA3D-AAFC4DF8DB2E}"/>
-    <hyperlink ref="F1095" r:id="rId12" xr:uid="{BF25E2D2-8541-4371-99B7-17A8B86CC8F6}"/>
-    <hyperlink ref="F1094" r:id="rId13" xr:uid="{57CD897B-E530-431D-A4B5-59D9C0F63217}"/>
-    <hyperlink ref="F1093" r:id="rId14" xr:uid="{CEEE77DB-0464-4890-9DA6-629F365AAC93}"/>
-    <hyperlink ref="F1092" r:id="rId15" xr:uid="{D183A8CF-2618-4DDD-8523-A347B0789735}"/>
-    <hyperlink ref="F1091" r:id="rId16" xr:uid="{B44DC245-3939-4FC4-B86F-7F55F80E20F1}"/>
-    <hyperlink ref="F1090" r:id="rId17" xr:uid="{77BEB31C-67F9-4892-974A-C42D173ACEC7}"/>
-    <hyperlink ref="F1089" r:id="rId18" xr:uid="{802015E0-18C1-4D8F-BD48-60606EF00558}"/>
-    <hyperlink ref="F1088" r:id="rId19" xr:uid="{185AA3D8-0081-42DB-B36C-3B1B4DF6AE78}"/>
-    <hyperlink ref="F1087" r:id="rId20" xr:uid="{C92F0FF0-F014-47C6-8A1D-37500F8CB37C}"/>
-    <hyperlink ref="F1086" r:id="rId21" xr:uid="{A79E531F-E421-48DC-B313-0C433AA33C66}"/>
-    <hyperlink ref="F1085" r:id="rId22" xr:uid="{CF6C1299-30F9-427A-9C11-CDEF3096DB13}"/>
-    <hyperlink ref="F1084" r:id="rId23" xr:uid="{B0ED86D2-3643-405A-B6A7-581D3F444E88}"/>
-    <hyperlink ref="F1083" r:id="rId24" xr:uid="{3643C6A3-6F1E-403F-B5BD-A7251D505F5B}"/>
-    <hyperlink ref="F1081" r:id="rId25" xr:uid="{0E92FFCB-F966-4697-91BE-A3130C1CAE25}"/>
+    <hyperlink ref="F1108" r:id="rId1" xr:uid="{F456DE86-0DC4-459B-8786-AEB12C0F36B0}"/>
+    <hyperlink ref="F1107" r:id="rId2" xr:uid="{A987B60B-629E-450A-AFE5-A7284329CD96}"/>
+    <hyperlink ref="F1106" r:id="rId3" xr:uid="{BDA96C0A-370D-46F7-82B7-86D5AE155E9F}"/>
+    <hyperlink ref="F1105" r:id="rId4" xr:uid="{E0EF30A2-FEE8-48F7-905E-3DCEE9D90336}"/>
+    <hyperlink ref="F1104" r:id="rId5" xr:uid="{F5EE9F94-288C-4D35-98F2-B7DF314331DE}"/>
+    <hyperlink ref="F1103" r:id="rId6" xr:uid="{A71B48CB-C499-456A-8FFD-47EFE60A828E}"/>
+    <hyperlink ref="F1102" r:id="rId7" xr:uid="{AF04FF5C-ADCA-44DC-B3B2-A425FC0DCFD9}"/>
+    <hyperlink ref="F1101" r:id="rId8" xr:uid="{F55EAFC5-5519-4A1F-80D4-95B4D202FE38}"/>
+    <hyperlink ref="F1100" r:id="rId9" xr:uid="{5FE20200-FB86-452E-8BE1-863A3C65BD07}"/>
+    <hyperlink ref="F1099" r:id="rId10" xr:uid="{8F88B4B6-197E-4940-B572-1769D2C402A3}"/>
+    <hyperlink ref="F1098" r:id="rId11" xr:uid="{DACEA89F-4573-408A-AA3D-AAFC4DF8DB2E}"/>
+    <hyperlink ref="F1097" r:id="rId12" xr:uid="{BF25E2D2-8541-4371-99B7-17A8B86CC8F6}"/>
+    <hyperlink ref="F1096" r:id="rId13" xr:uid="{57CD897B-E530-431D-A4B5-59D9C0F63217}"/>
+    <hyperlink ref="F1095" r:id="rId14" xr:uid="{CEEE77DB-0464-4890-9DA6-629F365AAC93}"/>
+    <hyperlink ref="F1094" r:id="rId15" xr:uid="{D183A8CF-2618-4DDD-8523-A347B0789735}"/>
+    <hyperlink ref="F1093" r:id="rId16" xr:uid="{B44DC245-3939-4FC4-B86F-7F55F80E20F1}"/>
+    <hyperlink ref="F1092" r:id="rId17" xr:uid="{77BEB31C-67F9-4892-974A-C42D173ACEC7}"/>
+    <hyperlink ref="F1091" r:id="rId18" xr:uid="{802015E0-18C1-4D8F-BD48-60606EF00558}"/>
+    <hyperlink ref="F1090" r:id="rId19" xr:uid="{185AA3D8-0081-42DB-B36C-3B1B4DF6AE78}"/>
+    <hyperlink ref="F1089" r:id="rId20" xr:uid="{C92F0FF0-F014-47C6-8A1D-37500F8CB37C}"/>
+    <hyperlink ref="F1088" r:id="rId21" xr:uid="{A79E531F-E421-48DC-B313-0C433AA33C66}"/>
+    <hyperlink ref="F1087" r:id="rId22" xr:uid="{CF6C1299-30F9-427A-9C11-CDEF3096DB13}"/>
+    <hyperlink ref="F1086" r:id="rId23" xr:uid="{B0ED86D2-3643-405A-B6A7-581D3F444E88}"/>
+    <hyperlink ref="F1085" r:id="rId24" xr:uid="{3643C6A3-6F1E-403F-B5BD-A7251D505F5B}"/>
+    <hyperlink ref="F1083" r:id="rId25" xr:uid="{0E92FFCB-F966-4697-91BE-A3130C1CAE25}"/>
     <hyperlink ref="F373" r:id="rId26" xr:uid="{B4AE46D0-0113-43B5-920F-41BAD7FB12F3}"/>
     <hyperlink ref="F360" r:id="rId27" xr:uid="{6A53CFF1-B4AE-4894-AF74-B4B080E1676D}"/>
     <hyperlink ref="F357" r:id="rId28" xr:uid="{FC91B321-7F3C-4B7C-978D-FF322BE215D6}"/>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34DDC8A-D4A3-4D9F-B010-C11D369E3460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE74073-7AE1-4E90-B57D-86C1FB95A656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13200" uniqueCount="7870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13212" uniqueCount="7877">
   <si>
     <t>Client_ID</t>
   </si>
@@ -23660,6 +23660,27 @@
   </si>
   <si>
     <t>J4Y 2Z2</t>
+  </si>
+  <si>
+    <t>9331-3104 Québec Inc (Isolation LG4) [Carole Charbonneau]</t>
+  </si>
+  <si>
+    <t>1816</t>
+  </si>
+  <si>
+    <t>Isolation LG4</t>
+  </si>
+  <si>
+    <t>Carole Charbonneau</t>
+  </si>
+  <si>
+    <t>carole@lg4isolation.ca</t>
+  </si>
+  <si>
+    <t>103-1105 rue Armand-Bombardier</t>
+  </si>
+  <si>
+    <t>J6Y 1S9</t>
   </si>
 </sst>
 </file>
@@ -24725,7 +24746,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:Q1111"/>
+  <dimension ref="A1:Q1112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
       <pane ySplit="615" topLeftCell="A1057" activePane="bottomLeft"/>
@@ -71464,6 +71485,47 @@
       <c r="P1111" s="25"/>
       <c r="Q1111" s="48">
         <v>45602.422002314815</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:17">
+      <c r="A1112" s="3" t="s">
+        <v>7870</v>
+      </c>
+      <c r="B1112" s="45" t="s">
+        <v>7871</v>
+      </c>
+      <c r="C1112" s="45" t="s">
+        <v>7872</v>
+      </c>
+      <c r="D1112" s="21" t="s">
+        <v>7873</v>
+      </c>
+      <c r="F1112" s="21" t="s">
+        <v>7874</v>
+      </c>
+      <c r="G1112" s="3" t="s">
+        <v>7875</v>
+      </c>
+      <c r="I1112" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1112" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="K1112" s="22" t="s">
+        <v>7876</v>
+      </c>
+      <c r="L1112" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1112" t="s">
+        <v>3714</v>
+      </c>
+      <c r="O1112" t="s">
+        <v>3714</v>
+      </c>
+      <c r="Q1112" s="48">
+        <v>45646.505231481482</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC77E07-3B54-4602-B0DC-60A7D51B0FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1284E2-5536-4D44-A95D-E9DB28A19055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="30960" windowHeight="12204" activeTab="1" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13212" uniqueCount="7876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13214" uniqueCount="7878">
   <si>
     <t>GL_ID</t>
   </si>
@@ -23678,6 +23678,12 @@
   </si>
   <si>
     <t>atheriault@wt.ca</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>1817</t>
   </si>
 </sst>
 </file>
@@ -24743,33 +24749,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:Q1112"/>
+  <dimension ref="A1:Q1113"/>
   <sheetViews>
     <sheetView topLeftCell="I381" workbookViewId="0">
-      <pane ySplit="612" activePane="bottomLeft"/>
+      <pane ySplit="615" activePane="bottomLeft"/>
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
       <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5546875" style="45" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="32" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.44140625" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -71520,6 +71526,17 @@
       </c>
       <c r="Q1112" s="48">
         <v>45646.505231481482</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:17">
+      <c r="A1113" s="3" t="s">
+        <v>7876</v>
+      </c>
+      <c r="B1113" s="45" t="s">
+        <v>7877</v>
+      </c>
+      <c r="Q1113" s="48">
+        <v>45666.669074074074</v>
       </c>
     </row>
   </sheetData>
@@ -71821,26 +71838,26 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="612" activePane="bottomLeft"/>
+      <pane ySplit="615" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.5546875" style="1"/>
+    <col min="11" max="11" width="17.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -73712,18 +73729,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10" max="13" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="33.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10" max="13" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -74659,7 +74676,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1">
+    <row r="67" spans="1:4" ht="15.75" thickBot="1">
       <c r="A67" s="12" t="s">
         <v>127</v>
       </c>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1284E2-5536-4D44-A95D-E9DB28A19055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347EA8B1-2DC5-48D0-B0FC-7BE6915723AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="38280" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13214" uniqueCount="7878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13230" uniqueCount="7888">
   <si>
     <t>GL_ID</t>
   </si>
@@ -23680,10 +23680,40 @@
     <t>atheriault@wt.ca</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>Zaraté + Lavigne Architectes Inc. [Maxime Brosseau]</t>
   </si>
   <si>
     <t>1817</t>
+  </si>
+  <si>
+    <t>Zaraté Lavigne</t>
+  </si>
+  <si>
+    <t>Maxime Brosseau</t>
+  </si>
+  <si>
+    <t>m.brosseau@zaratelavigne.com</t>
+  </si>
+  <si>
+    <t>370 rue Sauvé O</t>
+  </si>
+  <si>
+    <t>H3L 1Z8</t>
+  </si>
+  <si>
+    <t>Sacha Matteau</t>
+  </si>
+  <si>
+    <t>Services Juridiques, François-Pierre Laforest Inc.</t>
+  </si>
+  <si>
+    <t>6728 rue Fabre</t>
+  </si>
+  <si>
+    <t>H2G 2Z6</t>
+  </si>
+  <si>
+    <t>Juriglobal Inc.</t>
   </si>
 </sst>
 </file>
@@ -69770,7 +69800,7 @@
     </row>
     <row r="1076" spans="1:17">
       <c r="A1076" s="3" t="s">
-        <v>7012</v>
+        <v>7884</v>
       </c>
       <c r="B1076" s="45" t="s">
         <v>7013</v>
@@ -69787,11 +69817,21 @@
       <c r="F1076" s="34" t="s">
         <v>7014</v>
       </c>
-      <c r="G1076" s="34"/>
-      <c r="I1076" s="34"/>
-      <c r="J1076" s="34"/>
-      <c r="K1076" s="34"/>
-      <c r="L1076" s="34"/>
+      <c r="G1076" s="34" t="s">
+        <v>7885</v>
+      </c>
+      <c r="I1076" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1076" s="34" t="s">
+        <v>566</v>
+      </c>
+      <c r="K1076" s="34" t="s">
+        <v>7886</v>
+      </c>
+      <c r="L1076" s="34" t="s">
+        <v>153</v>
+      </c>
       <c r="M1076" s="25" t="s">
         <v>3658</v>
       </c>
@@ -69799,9 +69839,11 @@
         <v>2741</v>
       </c>
       <c r="O1076" s="25"/>
-      <c r="P1076" s="25"/>
+      <c r="P1076" s="25" t="s">
+        <v>7887</v>
+      </c>
       <c r="Q1076" s="48">
-        <v>45591.506944444445</v>
+        <v>45667.442488425928</v>
       </c>
     </row>
     <row r="1077" spans="1:17">
@@ -71535,8 +71577,38 @@
       <c r="B1113" s="45" t="s">
         <v>7877</v>
       </c>
+      <c r="C1113" s="45" t="s">
+        <v>7878</v>
+      </c>
+      <c r="D1113" s="21" t="s">
+        <v>7879</v>
+      </c>
+      <c r="E1113" s="23" t="s">
+        <v>2776</v>
+      </c>
+      <c r="F1113" s="21" t="s">
+        <v>7880</v>
+      </c>
+      <c r="G1113" s="3" t="s">
+        <v>7881</v>
+      </c>
+      <c r="I1113" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1113" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="K1113" s="22" t="s">
+        <v>7882</v>
+      </c>
+      <c r="L1113" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1113" t="s">
+        <v>7883</v>
+      </c>
       <c r="Q1113" s="48">
-        <v>45666.669074074074</v>
+        <v>45666.704988425925</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1FF8DD-8E10-4321-87C6-49A0616064A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC34F1F-27E2-476A-B85B-6975F3AC9BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14354" uniqueCount="8209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14381" uniqueCount="8225">
   <si>
     <t>GL_ID</t>
   </si>
@@ -24677,6 +24677,54 @@
   </si>
   <si>
     <t>J6A 1R7</t>
+  </si>
+  <si>
+    <t>Clinique Intuition Santé [Marie-Pier Dastous]</t>
+  </si>
+  <si>
+    <t>2055</t>
+  </si>
+  <si>
+    <t>Marie-Pier Dastous</t>
+  </si>
+  <si>
+    <t>maripielle@hotmail.com</t>
+  </si>
+  <si>
+    <t>754 Iberville</t>
+  </si>
+  <si>
+    <t>J5W 1L2</t>
+  </si>
+  <si>
+    <t>2056</t>
+  </si>
+  <si>
+    <t>FER10 Claude Brodeur Maréchal-Ferrant Inc.</t>
+  </si>
+  <si>
+    <t>Claude Brodeur</t>
+  </si>
+  <si>
+    <t>660 Rang des Écossais</t>
+  </si>
+  <si>
+    <t>Sainte-Brigide-D'Iberville</t>
+  </si>
+  <si>
+    <t>J0J 1X0</t>
+  </si>
+  <si>
+    <t>CLI10 Clinique Intuition Santé</t>
+  </si>
+  <si>
+    <t>Claude Brodeur Maréchal-Ferrant Inc. [Claude Brodeur]</t>
+  </si>
+  <si>
+    <t>Clinique Intuition Santé [Marie-Pier Dastous] CLI10 Clinique Intuition Santé</t>
+  </si>
+  <si>
+    <t>Claude Brodeur Maréchal-Ferrant Inc. [Claude Brodeur] FER10 Claude Brodeur Maréchal-Ferrant Inc.</t>
   </si>
 </sst>
 </file>
@@ -24918,7 +24966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -25049,7 +25097,6 @@
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -25746,12 +25793,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:R1114"/>
+  <dimension ref="A1:R1116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A1100" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="Q473" sqref="Q473"/>
+      <selection pane="bottomLeft" activeCell="Q1119" sqref="Q1119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -75928,40 +75975,138 @@
       <c r="C1114" s="45" t="s">
         <v>8204</v>
       </c>
-      <c r="D1114" s="21" t="s">
+      <c r="D1114" s="34" t="s">
         <v>8204</v>
       </c>
-      <c r="F1114" s="21" t="s">
+      <c r="F1114" s="34" t="s">
         <v>8206</v>
       </c>
-      <c r="G1114" s="3" t="s">
+      <c r="G1114" s="34" t="s">
         <v>8207</v>
       </c>
-      <c r="I1114" s="3" t="s">
+      <c r="I1114" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="J1114" s="22" t="s">
-        <v>566</v>
-      </c>
-      <c r="K1114" s="22" t="s">
+      <c r="J1114" s="34" t="s">
+        <v>566</v>
+      </c>
+      <c r="K1114" s="34" t="s">
         <v>8208</v>
       </c>
-      <c r="L1114" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1114" t="s">
+      <c r="L1114" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1114" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="O1114" t="s">
+      <c r="N1114" s="24"/>
+      <c r="O1114" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="Q1114" s="50">
-        <v>45671.479421296295</v>
+      <c r="P1114" s="25"/>
+      <c r="Q1114" s="3" t="s">
+        <v>8204</v>
+      </c>
+      <c r="R1114" s="48">
+        <v>45673.5</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:18">
+      <c r="A1115" s="3" t="s">
+        <v>8209</v>
+      </c>
+      <c r="B1115" s="45" t="s">
+        <v>8210</v>
+      </c>
+      <c r="C1115" s="45" t="s">
+        <v>8221</v>
+      </c>
+      <c r="D1115" s="34" t="s">
+        <v>8211</v>
+      </c>
+      <c r="F1115" s="34" t="s">
+        <v>8212</v>
+      </c>
+      <c r="G1115" s="34" t="s">
+        <v>8213</v>
+      </c>
+      <c r="I1115" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1115" s="34" t="s">
+        <v>566</v>
+      </c>
+      <c r="K1115" s="34" t="s">
+        <v>8214</v>
+      </c>
+      <c r="L1115" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1115" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="N1115" s="24" t="s">
+        <v>2741</v>
+      </c>
+      <c r="O1115" s="25"/>
+      <c r="P1115" s="25"/>
+      <c r="Q1115" s="3" t="s">
+        <v>8223</v>
+      </c>
+      <c r="R1115" s="48">
+        <v>45673.5</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:18">
+      <c r="A1116" s="3" t="s">
+        <v>8222</v>
+      </c>
+      <c r="B1116" s="45" t="s">
+        <v>8215</v>
+      </c>
+      <c r="C1116" s="45" t="s">
+        <v>8216</v>
+      </c>
+      <c r="D1116" s="34" t="s">
+        <v>8217</v>
+      </c>
+      <c r="E1116" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1116" s="34"/>
+      <c r="G1116" s="34" t="s">
+        <v>8218</v>
+      </c>
+      <c r="I1116" s="34" t="s">
+        <v>8219</v>
+      </c>
+      <c r="J1116" s="34" t="s">
+        <v>566</v>
+      </c>
+      <c r="K1116" s="34" t="s">
+        <v>8220</v>
+      </c>
+      <c r="L1116" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1116" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="N1116" s="24" t="s">
+        <v>2741</v>
+      </c>
+      <c r="O1116" s="25"/>
+      <c r="P1116" s="25"/>
+      <c r="Q1116" s="3" t="s">
+        <v>8224</v>
+      </c>
+      <c r="R1116" s="48">
+        <v>45673.5</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R1113" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}"/>
-  <conditionalFormatting sqref="A2:R1113">
+  <conditionalFormatting sqref="A2:R1116">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18412ED4-6B70-4976-A43A-62314556A9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A5DFE4-45D7-4652-8FF0-06F49C73B77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="38280" yWindow="-16305" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14435" uniqueCount="8254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14462" uniqueCount="8265">
   <si>
     <t>GL_ID</t>
   </si>
@@ -24812,6 +24812,39 @@
   </si>
   <si>
     <t>9245-7589 Québec Inc. [Dominique Laurin] Resto Spag</t>
+  </si>
+  <si>
+    <t>Les entreprises électriques Michel Guertin Inc. [Nathalie Audet]</t>
+  </si>
+  <si>
+    <t>1820</t>
+  </si>
+  <si>
+    <t>Les entreprises électriques Michel Guertin Inc.</t>
+  </si>
+  <si>
+    <t>Nathalie Audet</t>
+  </si>
+  <si>
+    <t>5812 rue Hadley</t>
+  </si>
+  <si>
+    <t>H4E 3N6</t>
+  </si>
+  <si>
+    <t>Gestion Immobilière Vincla Inc. [Patrick Forget]</t>
+  </si>
+  <si>
+    <t>1821</t>
+  </si>
+  <si>
+    <t>Patrick Forget</t>
+  </si>
+  <si>
+    <t>patforget@live.ca</t>
+  </si>
+  <si>
+    <t>163 rue Louis-Cyr</t>
   </si>
 </sst>
 </file>
@@ -25889,7 +25922,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:R1120"/>
+  <dimension ref="A1:R1122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A1074" activePane="bottomLeft" state="frozen"/>
@@ -76378,6 +76411,97 @@
       </c>
       <c r="R1120" s="48">
         <v>45686.720590277779</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:18">
+      <c r="A1121" s="3" t="s">
+        <v>8254</v>
+      </c>
+      <c r="B1121" s="52" t="s">
+        <v>8255</v>
+      </c>
+      <c r="C1121" s="45" t="s">
+        <v>8256</v>
+      </c>
+      <c r="D1121" s="21" t="s">
+        <v>8257</v>
+      </c>
+      <c r="G1121" s="3" t="s">
+        <v>8258</v>
+      </c>
+      <c r="I1121" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1121" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="K1121" s="22" t="s">
+        <v>8259</v>
+      </c>
+      <c r="L1121" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1121" t="s">
+        <v>704</v>
+      </c>
+      <c r="P1121" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q1121" t="s">
+        <v>8254</v>
+      </c>
+      <c r="R1121" s="48">
+        <v>45700.382939814815</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:18">
+      <c r="A1122" s="3" t="s">
+        <v>8260</v>
+      </c>
+      <c r="B1122" s="52" t="s">
+        <v>8261</v>
+      </c>
+      <c r="C1122" s="45" t="s">
+        <v>8262</v>
+      </c>
+      <c r="D1122" s="21" t="s">
+        <v>8262</v>
+      </c>
+      <c r="E1122" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1122" s="21" t="s">
+        <v>8263</v>
+      </c>
+      <c r="G1122" s="3" t="s">
+        <v>8264</v>
+      </c>
+      <c r="I1122" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1122" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="K1122" s="22" t="s">
+        <v>3424</v>
+      </c>
+      <c r="L1122" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1122" t="s">
+        <v>620</v>
+      </c>
+      <c r="N1122" s="42" t="s">
+        <v>5752</v>
+      </c>
+      <c r="O1122" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q1122" t="s">
+        <v>8260</v>
+      </c>
+      <c r="R1122" s="48">
+        <v>45700.485648148147</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A5DFE4-45D7-4652-8FF0-06F49C73B77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7672A9F2-A57E-4BFD-AF78-489ECC1872CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-16305" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11385" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14462" uniqueCount="8265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14469" uniqueCount="8271">
   <si>
     <t>GL_ID</t>
   </si>
@@ -24845,6 +24845,24 @@
   </si>
   <si>
     <t>163 rue Louis-Cyr</t>
+  </si>
+  <si>
+    <t>Kin Foundry Team [Shanice]</t>
+  </si>
+  <si>
+    <t>2059</t>
+  </si>
+  <si>
+    <t>Shanice</t>
+  </si>
+  <si>
+    <t>comptable</t>
+  </si>
+  <si>
+    <t>hello@kinfoundry.ca</t>
+  </si>
+  <si>
+    <t>Vladimir Gervaus</t>
   </si>
 </sst>
 </file>
@@ -25922,7 +25940,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:R1122"/>
+  <dimension ref="A1:R1123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A1074" activePane="bottomLeft" state="frozen"/>
@@ -76502,6 +76520,32 @@
       </c>
       <c r="R1122" s="48">
         <v>45700.485648148147</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:18">
+      <c r="A1123" s="3" t="s">
+        <v>8265</v>
+      </c>
+      <c r="B1123" s="52" t="s">
+        <v>8266</v>
+      </c>
+      <c r="D1123" s="21" t="s">
+        <v>8267</v>
+      </c>
+      <c r="E1123" s="23" t="s">
+        <v>8268</v>
+      </c>
+      <c r="F1123" s="21" t="s">
+        <v>8269</v>
+      </c>
+      <c r="M1123" t="s">
+        <v>8270</v>
+      </c>
+      <c r="Q1123" t="s">
+        <v>8265</v>
+      </c>
+      <c r="R1123" s="48">
+        <v>45704.650717592594</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AC2240-FE8C-4714-8CB4-08311F800314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B908DFC-BD7B-4B7F-A889-4D0BB313CF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="PlanComptable" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clients!$A$1:$R$1125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clients!$A$1:$R$1129</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fournisseurs!$A$1:$K$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14489" uniqueCount="8285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14542" uniqueCount="8310">
   <si>
     <t>GL_ID</t>
   </si>
@@ -24755,9 +24755,6 @@
     <t>163 rue Louis-Cyr</t>
   </si>
   <si>
-    <t>Kin Foundry Team [Shanice]</t>
-  </si>
-  <si>
     <t>2059</t>
   </si>
   <si>
@@ -24897,6 +24894,84 @@
   </si>
   <si>
     <t>NomClientPlusNomClientSystème</t>
+  </si>
+  <si>
+    <t>Kin Foundry Inc. [Shanice]</t>
+  </si>
+  <si>
+    <t>5783 2e AVENUE</t>
+  </si>
+  <si>
+    <t>Montreal</t>
+  </si>
+  <si>
+    <t>Quebec</t>
+  </si>
+  <si>
+    <t>H1Y 2Y7</t>
+  </si>
+  <si>
+    <t>Fiducie Vents du Sud (2024) [Chantal Béïque]</t>
+  </si>
+  <si>
+    <t>1823</t>
+  </si>
+  <si>
+    <t>Chantal Béïque</t>
+  </si>
+  <si>
+    <t>chantal.beique@gmail.com</t>
+  </si>
+  <si>
+    <t>3234 rue Claude-Jodoin</t>
+  </si>
+  <si>
+    <t>H1Y 3M2</t>
+  </si>
+  <si>
+    <t>2619-9091 Québec Inc [Lavaltrie Électronique]</t>
+  </si>
+  <si>
+    <t>1824</t>
+  </si>
+  <si>
+    <t>Lavaltrie Électronique</t>
+  </si>
+  <si>
+    <t>Daniel Lépine</t>
+  </si>
+  <si>
+    <t>lavaltrieelectronique@qc.aira.com</t>
+  </si>
+  <si>
+    <t>1140 rue Notre-Dame</t>
+  </si>
+  <si>
+    <t>J5T 1M3</t>
+  </si>
+  <si>
+    <t>David Hervieux</t>
+  </si>
+  <si>
+    <t>Quevedo CPA Inc. [Maria Hurtado]</t>
+  </si>
+  <si>
+    <t>Quevedo CPA Inc.</t>
+  </si>
+  <si>
+    <t>Maria Hurtado</t>
+  </si>
+  <si>
+    <t>maria@quevedo.ca</t>
+  </si>
+  <si>
+    <t>102 - 2409 Rue Fleury Est</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kin Foundry Inc. [Shanice] </t>
+  </si>
+  <si>
+    <t>Michael Da Souza</t>
   </si>
 </sst>
 </file>
@@ -25615,12 +25690,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:R1125"/>
+  <dimension ref="A1:R1129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0" rightToLeft="false">
-      <pane ySplit="2" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <pane ySplit="2" topLeftCell="A1105" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="Q444" sqref="Q444"/>
+      <selection pane="bottomLeft" activeCell="Q1127" sqref="Q1127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -25695,7 +25770,7 @@
         <v>7836</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>8284</v>
+        <v>8283</v>
       </c>
       <c r="R1" s="47" t="s">
         <v>6989</v>
@@ -25920,7 +25995,7 @@
         <v>166</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>8263</v>
+        <v>8262</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>188</v>
@@ -26880,7 +26955,7 @@
         <v>166</v>
       </c>
       <c r="F31" t="s">
-        <v>8270</v>
+        <v>8269</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>289</v>
@@ -27142,7 +27217,7 @@
         <v>317</v>
       </c>
       <c r="F37" t="s">
-        <v>8271</v>
+        <v>8270</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>5426</v>
@@ -28039,7 +28114,9 @@
       <c r="O56" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="P56" s="25"/>
+      <c r="P56" s="25" t="s">
+        <v>8309</v>
+      </c>
       <c r="Q56" s="25" t="s">
         <v>8105</v>
       </c>
@@ -31114,7 +31191,7 @@
         <v>5139</v>
       </c>
       <c r="F131" s="34" t="s">
-        <v>8272</v>
+        <v>8271</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>1392</v>
@@ -35397,7 +35474,7 @@
         <v>1741</v>
       </c>
       <c r="F235" s="21" t="s">
-        <v>8273</v>
+        <v>8272</v>
       </c>
       <c r="G235" s="3" t="s">
         <v>1742</v>
@@ -40062,10 +40139,10 @@
         <v>7439</v>
       </c>
       <c r="D348" s="21" t="s">
+        <v>8267</v>
+      </c>
+      <c r="F348" s="34" t="s">
         <v>8268</v>
-      </c>
-      <c r="F348" s="34" t="s">
-        <v>8269</v>
       </c>
       <c r="G348" s="3" t="s">
         <v>2145</v>
@@ -41558,7 +41635,7 @@
         <v>166</v>
       </c>
       <c r="F383" t="s">
-        <v>8274</v>
+        <v>8273</v>
       </c>
       <c r="G383" s="3" t="s">
         <v>5430</v>
@@ -45252,7 +45329,7 @@
         <v>696</v>
       </c>
       <c r="F459" t="s">
-        <v>8275</v>
+        <v>8274</v>
       </c>
       <c r="G459" s="3" t="s">
         <v>697</v>
@@ -47168,7 +47245,7 @@
         <v>165</v>
       </c>
       <c r="F500" s="34" t="s">
-        <v>8258</v>
+        <v>8257</v>
       </c>
       <c r="G500" s="34" t="s">
         <v>5468</v>
@@ -49706,7 +49783,7 @@
         <v>3161</v>
       </c>
       <c r="F556" s="34" t="s">
-        <v>8276</v>
+        <v>8275</v>
       </c>
       <c r="G556" s="34" t="s">
         <v>3162</v>
@@ -51142,7 +51219,7 @@
         <v>166</v>
       </c>
       <c r="F587" s="34" t="s">
-        <v>8264</v>
+        <v>8263</v>
       </c>
       <c r="G587" s="34" t="s">
         <v>5523</v>
@@ -59548,13 +59625,13 @@
         <v>7624</v>
       </c>
       <c r="D770" s="34" t="s">
-        <v>8254</v>
+        <v>8253</v>
       </c>
       <c r="E770" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F770" s="34" t="s">
-        <v>8255</v>
+        <v>8254</v>
       </c>
       <c r="G770" s="34" t="s">
         <v>4118</v>
@@ -60530,7 +60607,7 @@
         <v>5990</v>
       </c>
       <c r="F791" s="34" t="s">
-        <v>8257</v>
+        <v>8256</v>
       </c>
       <c r="G791" s="34" t="s">
         <v>4227</v>
@@ -62576,7 +62653,7 @@
         <v>5659</v>
       </c>
       <c r="F835" s="34" t="s">
-        <v>8277</v>
+        <v>8276</v>
       </c>
       <c r="G835" s="34" t="s">
         <v>4438</v>
@@ -62706,7 +62783,7 @@
         <v>6021</v>
       </c>
       <c r="F838" s="34" t="s">
-        <v>8265</v>
+        <v>8264</v>
       </c>
       <c r="G838" s="34" t="s">
         <v>6023</v>
@@ -62750,7 +62827,7 @@
         <v>6021</v>
       </c>
       <c r="F839" s="21" t="s">
-        <v>8265</v>
+        <v>8264</v>
       </c>
       <c r="G839" s="34" t="s">
         <v>6025</v>
@@ -62841,7 +62918,7 @@
         <v>6021</v>
       </c>
       <c r="F841" s="21" t="s">
-        <v>8265</v>
+        <v>8264</v>
       </c>
       <c r="G841" s="34" t="s">
         <v>6025</v>
@@ -62885,7 +62962,7 @@
         <v>6021</v>
       </c>
       <c r="F842" s="21" t="s">
-        <v>8265</v>
+        <v>8264</v>
       </c>
       <c r="G842" s="34" t="s">
         <v>6023</v>
@@ -62932,7 +63009,7 @@
         <v>165</v>
       </c>
       <c r="F843" s="21" t="s">
-        <v>8265</v>
+        <v>8264</v>
       </c>
       <c r="G843" s="34" t="s">
         <v>6026</v>
@@ -63907,7 +63984,7 @@
         <v>5674</v>
       </c>
       <c r="F864" s="34" t="s">
-        <v>8278</v>
+        <v>8277</v>
       </c>
       <c r="G864" s="34" t="s">
         <v>4545</v>
@@ -63954,7 +64031,7 @@
         <v>5676</v>
       </c>
       <c r="F865" s="34" t="s">
-        <v>8279</v>
+        <v>8278</v>
       </c>
       <c r="G865" s="34" t="s">
         <v>4548</v>
@@ -64516,7 +64593,7 @@
         <v>166</v>
       </c>
       <c r="F877" s="34" t="s">
-        <v>8256</v>
+        <v>8255</v>
       </c>
       <c r="G877" s="34" t="s">
         <v>4612</v>
@@ -64563,7 +64640,7 @@
         <v>5685</v>
       </c>
       <c r="F878" s="34" t="s">
-        <v>8280</v>
+        <v>8279</v>
       </c>
       <c r="G878" s="34" t="s">
         <v>6685</v>
@@ -65537,7 +65614,7 @@
         <v>166</v>
       </c>
       <c r="F899" s="34" t="s">
-        <v>8267</v>
+        <v>8266</v>
       </c>
       <c r="G899" s="34" t="s">
         <v>4714</v>
@@ -67324,7 +67401,7 @@
         <v>5714</v>
       </c>
       <c r="F938" s="34" t="s">
-        <v>8281</v>
+        <v>8280</v>
       </c>
       <c r="G938" s="34" t="s">
         <v>4889</v>
@@ -67686,7 +67763,7 @@
     </row>
     <row spans="1:18" outlineLevel="0" r="946">
       <c r="A946" s="3" t="s">
-        <v>8261</v>
+        <v>8260</v>
       </c>
       <c r="B946" s="51" t="s">
         <v>4921</v>
@@ -67723,7 +67800,7 @@
       <c r="O946" s="25"/>
       <c r="P946" s="25"/>
       <c r="Q946" s="25" t="s">
-        <v>8262</v>
+        <v>8261</v>
       </c>
       <c r="R946" s="48">
         <v>45718.5831944444</v>
@@ -68297,7 +68374,7 @@
         <v>5720</v>
       </c>
       <c r="F959" s="34" t="s">
-        <v>8282</v>
+        <v>8281</v>
       </c>
       <c r="G959" s="34" t="s">
         <v>4991</v>
@@ -68535,7 +68612,7 @@
         <v>5721</v>
       </c>
       <c r="F964" s="34" t="s">
-        <v>8283</v>
+        <v>8282</v>
       </c>
       <c r="G964" s="34" t="s">
         <v>5017</v>
@@ -68813,7 +68890,7 @@
         <v>166</v>
       </c>
       <c r="F970" s="34" t="s">
-        <v>8266</v>
+        <v>8265</v>
       </c>
       <c r="G970" s="34" t="s">
         <v>756</v>
@@ -70564,7 +70641,7 @@
         <v>782</v>
       </c>
       <c r="F1007" s="34" t="s">
-        <v>8259</v>
+        <v>8258</v>
       </c>
       <c r="G1007" s="34" t="s">
         <v>922</v>
@@ -71102,7 +71179,7 @@
         <v>166</v>
       </c>
       <c r="F1018" s="34" t="s">
-        <v>8260</v>
+        <v>8259</v>
       </c>
       <c r="G1018" s="34" t="s">
         <v>967</v>
@@ -73564,7 +73641,7 @@
     </row>
     <row spans="1:18" outlineLevel="0" r="1070">
       <c r="A1070" s="3" t="s">
-        <v>8253</v>
+        <v>8252</v>
       </c>
       <c r="B1070" s="51" t="s">
         <v>6899</v>
@@ -73603,7 +73680,7 @@
       <c r="O1070" s="25"/>
       <c r="P1070" s="25"/>
       <c r="Q1070" s="25" t="s">
-        <v>8253</v>
+        <v>8252</v>
       </c>
       <c r="R1070" s="48">
         <v>45718.5712384259</v>
@@ -74538,37 +74615,37 @@
     </row>
     <row spans="1:18" outlineLevel="0" r="1090">
       <c r="A1090" s="3" t="s">
+        <v>8242</v>
+      </c>
+      <c r="B1090" s="51" t="s">
         <v>8243</v>
       </c>
-      <c r="B1090" s="51" t="s">
+      <c r="C1090" s="45" t="s">
         <v>8244</v>
       </c>
-      <c r="C1090" s="45" t="s">
+      <c r="D1090" s="34" t="s">
         <v>8245</v>
       </c>
-      <c r="D1090" s="34" t="s">
+      <c r="F1090" s="34" t="s">
         <v>8246</v>
       </c>
-      <c r="F1090" s="34" t="s">
+      <c r="G1090" s="34" t="s">
         <v>8247</v>
       </c>
-      <c r="G1090" s="34" t="s">
+      <c r="I1090" s="34" t="s">
         <v>8248</v>
       </c>
-      <c r="I1090" s="34" t="s">
+      <c r="J1090" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1090" s="34" t="s">
         <v>8249</v>
       </c>
-      <c r="J1090" s="34" t="s">
-        <v>563</v>
-      </c>
-      <c r="K1090" s="34" t="s">
+      <c r="L1090" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1090" s="25" t="s">
         <v>8250</v>
-      </c>
-      <c r="L1090" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1090" s="25" t="s">
-        <v>8251</v>
       </c>
       <c r="N1090" s="24" t="s">
         <v>5569</v>
@@ -74580,7 +74657,7 @@
         <v>753</v>
       </c>
       <c r="Q1090" s="25" t="s">
-        <v>8243</v>
+        <v>8242</v>
       </c>
       <c r="R1090" s="48">
         <v>45715.5703935185</v>
@@ -76271,7 +76348,7 @@
     <row spans="1:18" outlineLevel="0" r="1124">
       <c r="A1124" s="3" t="inlineStr">
         <is>
-          <t>Kin Foundry Inc. [Shanice]</t>
+          <t>*** NE PLUS UTILISER *** - Kin Foundry Inc. [Shanice]</t>
         </is>
       </c>
       <c r="B1124" s="51" t="inlineStr">
@@ -76325,16 +76402,16 @@
       <c r="P1124" s="25"/>
       <c r="Q1124" s="25" t="inlineStr">
         <is>
-          <t>Kin Foundry Inc. [Shanice]</t>
+          <t>*** NE PLUS UTILISER *** - Kin Foundry Inc. [Shanice]</t>
         </is>
       </c>
       <c r="R1124" s="48">
-        <v>45704.6507175926</v>
+        <v>45729.3621990741</v>
       </c>
     </row>
     <row spans="1:18" outlineLevel="0" r="1125">
       <c r="A1125" s="3" t="s">
-        <v>8252</v>
+        <v>8251</v>
       </c>
       <c r="B1125" s="51" t="s">
         <v>51</v>
@@ -76351,15 +76428,214 @@
       <c r="O1125" s="25"/>
       <c r="P1125" s="25"/>
       <c r="Q1125" s="25" t="s">
-        <v>8252</v>
+        <v>8251</v>
       </c>
       <c r="R1125" s="48">
         <v>45716.7069212963</v>
       </c>
     </row>
+    <row spans="1:18" outlineLevel="0" r="1126">
+      <c r="A1126" s="3" t="s">
+        <v>8289</v>
+      </c>
+      <c r="B1126" s="51" t="s">
+        <v>8290</v>
+      </c>
+      <c r="C1126" s="45" t="s">
+        <v>8291</v>
+      </c>
+      <c r="D1126" s="34" t="s">
+        <v>8291</v>
+      </c>
+      <c r="F1126" s="34" t="s">
+        <v>8292</v>
+      </c>
+      <c r="G1126" s="34" t="s">
+        <v>8293</v>
+      </c>
+      <c r="I1126" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1126" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1126" s="34" t="s">
+        <v>8294</v>
+      </c>
+      <c r="L1126" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1126" s="25" t="s">
+        <v>740</v>
+      </c>
+      <c r="N1126" s="24" t="s">
+        <v>2734</v>
+      </c>
+      <c r="O1126" s="25" t="s">
+        <v>740</v>
+      </c>
+      <c r="P1126" s="25"/>
+      <c r="Q1126" s="25" t="s">
+        <v>8289</v>
+      </c>
+      <c r="R1126" s="48">
+        <v>45726.5</v>
+      </c>
+    </row>
+    <row spans="1:18" outlineLevel="0" r="1127">
+      <c r="A1127" s="3" t="s">
+        <v>8295</v>
+      </c>
+      <c r="B1127" s="51" t="s">
+        <v>8296</v>
+      </c>
+      <c r="C1127" s="45" t="s">
+        <v>8297</v>
+      </c>
+      <c r="D1127" s="34" t="s">
+        <v>8298</v>
+      </c>
+      <c r="E1127" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1127" s="34" t="s">
+        <v>8299</v>
+      </c>
+      <c r="G1127" s="34" t="s">
+        <v>8300</v>
+      </c>
+      <c r="I1127" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="J1127" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1127" s="34" t="s">
+        <v>8301</v>
+      </c>
+      <c r="L1127" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1127" s="25" t="s">
+        <v>8302</v>
+      </c>
+      <c r="N1127" s="24" t="s">
+        <v>5764</v>
+      </c>
+      <c r="O1127" s="25"/>
+      <c r="P1127" s="25"/>
+      <c r="Q1127" s="25" t="s">
+        <v>8295</v>
+      </c>
+      <c r="R1127" s="48">
+        <v>45726.5</v>
+      </c>
+    </row>
+    <row spans="1:18" outlineLevel="0" r="1128">
+      <c r="A1128" s="3" t="s">
+        <v>8303</v>
+      </c>
+      <c r="B1128" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1128" s="45" t="s">
+        <v>8304</v>
+      </c>
+      <c r="D1128" s="34" t="s">
+        <v>8305</v>
+      </c>
+      <c r="F1128" s="34" t="s">
+        <v>8306</v>
+      </c>
+      <c r="G1128" s="34" t="s">
+        <v>8307</v>
+      </c>
+      <c r="I1128" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1128" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1128" s="34"/>
+      <c r="L1128" s="34"/>
+      <c r="M1128" s="25"/>
+      <c r="N1128" s="24"/>
+      <c r="O1128" s="25"/>
+      <c r="P1128" s="25"/>
+      <c r="Q1128" s="25" t="s">
+        <v>8303</v>
+      </c>
+      <c r="R1128" s="48">
+        <v>45726.5</v>
+      </c>
+    </row>
+    <row spans="1:18" outlineLevel="0" r="1129">
+      <c r="A1129" s="3" t="inlineStr">
+        <is>
+          <t>Kin Foundry Inc. [Shanice]</t>
+        </is>
+      </c>
+      <c r="B1129" s="51" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D1129" s="34" t="inlineStr">
+        <is>
+          <t>Shanice</t>
+        </is>
+      </c>
+      <c r="E1129" s="23" t="inlineStr">
+        <is>
+          <t>comptable</t>
+        </is>
+      </c>
+      <c r="F1129" s="34" t="inlineStr">
+        <is>
+          <t>hello@kinfoundry.ca</t>
+        </is>
+      </c>
+      <c r="G1129" s="34" t="inlineStr">
+        <is>
+          <t>5783 2e AVENUE</t>
+        </is>
+      </c>
+      <c r="I1129" s="34" t="inlineStr">
+        <is>
+          <t>Montreal</t>
+        </is>
+      </c>
+      <c r="J1129" s="34" t="inlineStr">
+        <is>
+          <t>Quebec</t>
+        </is>
+      </c>
+      <c r="K1129" s="34" t="inlineStr">
+        <is>
+          <t>H1Y 2Y7</t>
+        </is>
+      </c>
+      <c r="L1129" s="34"/>
+      <c r="M1129" s="25" t="inlineStr">
+        <is>
+          <t>Vladimir Gervais</t>
+        </is>
+      </c>
+      <c r="N1129" s="24"/>
+      <c r="O1129" s="25"/>
+      <c r="P1129" s="25"/>
+      <c r="Q1129" s="25" t="inlineStr">
+        <is>
+          <t>Kin Foundry Inc. [Shanice]</t>
+        </is>
+      </c>
+      <c r="R1129" s="48">
+        <v>45728.9399189815</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R1125" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}"/>
-  <conditionalFormatting sqref="A2:R1125">
+  <autoFilter ref="A1:R1129" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}"/>
+  <conditionalFormatting sqref="A2:R1129">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FF2FB5-FB07-4D04-9212-4E3B4D307A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F65896-EE64-49C5-BA1E-FC86F30503A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14590" uniqueCount="8334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14593" uniqueCount="8336">
   <si>
     <t>GL_ID</t>
   </si>
@@ -25044,6 +25044,12 @@
   </si>
   <si>
     <t>547</t>
+  </si>
+  <si>
+    <t>TEST 2</t>
+  </si>
+  <si>
+    <t>549</t>
   </si>
 </sst>
 </file>
@@ -25765,7 +25771,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:R1135"/>
+  <dimension ref="A1:R1136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
@@ -76856,6 +76862,20 @@
       </c>
       <c r="R1135" s="52">
         <v>45779.588923611103</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:18">
+      <c r="A1136" s="34" t="s">
+        <v>8334</v>
+      </c>
+      <c r="B1136" s="34" t="s">
+        <v>8335</v>
+      </c>
+      <c r="Q1136" s="34" t="s">
+        <v>8334</v>
+      </c>
+      <c r="R1136" s="52">
+        <v>45779.595486111102</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC8AAA5-E0B8-4BD1-B425-45CEF1E58839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5287F1B4-1154-4057-9E6F-6C018F43F995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14704" uniqueCount="8390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14716" uniqueCount="8395">
   <si>
     <t>GL_ID</t>
   </si>
@@ -25212,6 +25212,21 @@
   </si>
   <si>
     <t>J5V 3C3</t>
+  </si>
+  <si>
+    <t>Jean Ducharme</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>jean_ducharme@yahoo.com</t>
+  </si>
+  <si>
+    <t>142 Ivy Crescent</t>
+  </si>
+  <si>
+    <t>K1M 1X6</t>
   </si>
 </sst>
 </file>
@@ -25447,7 +25462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -25573,15 +25588,19 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -25916,12 +25935,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:R1143"/>
+  <dimension ref="A1:R1144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1110" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A1120" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD1142"/>
+      <selection pane="bottomLeft" activeCell="C1134" sqref="C1134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -77213,53 +77232,98 @@
       </c>
     </row>
     <row r="1143" spans="1:18">
-      <c r="A1143" s="31" t="s">
+      <c r="A1143" s="3" t="s">
         <v>8383</v>
       </c>
-      <c r="B1143" s="31" t="s">
+      <c r="B1143" s="46" t="s">
         <v>8384</v>
       </c>
-      <c r="C1143" s="31" t="s">
+      <c r="C1143" s="41" t="s">
         <v>8385</v>
       </c>
-      <c r="D1143" s="31" t="s">
+      <c r="D1143" s="21" t="s">
         <v>8386</v>
       </c>
-      <c r="E1143" s="31" t="s">
+      <c r="E1143" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F1143" s="31" t="s">
+      <c r="F1143" s="21" t="s">
         <v>8387</v>
       </c>
-      <c r="G1143" s="31" t="s">
+      <c r="G1143" s="3" t="s">
         <v>8388</v>
       </c>
-      <c r="I1143" s="31" t="s">
+      <c r="I1143" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="J1143" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="K1143" s="31" t="s">
+      <c r="J1143" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1143" s="22" t="s">
         <v>8389</v>
       </c>
-      <c r="L1143" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1143" s="31" t="s">
+      <c r="L1143" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1143" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="N1143" s="31" t="s">
+      <c r="N1143" s="24" t="s">
         <v>5737</v>
       </c>
-      <c r="O1143" s="31" t="s">
+      <c r="O1143" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="Q1143" s="31" t="s">
+      <c r="P1143" s="25"/>
+      <c r="Q1143" s="25" t="s">
         <v>8383</v>
       </c>
-      <c r="R1143" s="47">
+      <c r="R1143" s="43">
         <v>45782.397962962998</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:18">
+      <c r="A1144" s="3" t="s">
+        <v>8390</v>
+      </c>
+      <c r="B1144" s="46" t="s">
+        <v>8391</v>
+      </c>
+      <c r="C1144" s="41" t="s">
+        <v>8390</v>
+      </c>
+      <c r="D1144" s="21" t="s">
+        <v>8390</v>
+      </c>
+      <c r="F1144" s="21" t="s">
+        <v>8392</v>
+      </c>
+      <c r="G1144" s="3" t="s">
+        <v>8393</v>
+      </c>
+      <c r="I1144" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="J1144" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1144" s="22" t="s">
+        <v>8394</v>
+      </c>
+      <c r="L1144" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1144" s="25"/>
+      <c r="N1144" s="24" t="s">
+        <v>2734</v>
+      </c>
+      <c r="O1144" s="25"/>
+      <c r="P1144" s="25"/>
+      <c r="Q1144" s="25" t="s">
+        <v>8390</v>
+      </c>
+      <c r="R1144" s="43">
+        <v>45784.2397569444</v>
       </c>
     </row>
   </sheetData>
@@ -77268,8 +77332,13 @@
     <sortCondition ref="B1136"/>
   </sortState>
   <conditionalFormatting sqref="A2:R1142">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1143:R1144">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($A1143&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -79409,7 +79478,7 @@
     <sortCondition ref="A1:A20"/>
   </sortState>
   <conditionalFormatting sqref="A2:L9999">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -86281,7 +86350,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D67">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5287F1B4-1154-4057-9E6F-6C018F43F995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC4C920-4515-496F-BD67-983AE0DA90C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14716" uniqueCount="8395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14770" uniqueCount="8426">
   <si>
     <t>GL_ID</t>
   </si>
@@ -25227,6 +25227,99 @@
   </si>
   <si>
     <t>K1M 1X6</t>
+  </si>
+  <si>
+    <t>Evan Trickey [Véronique Poulin]</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>Les Fondations Jono Inc.</t>
+  </si>
+  <si>
+    <t>Véronique Poulin</t>
+  </si>
+  <si>
+    <t>veronique.poulin.1@hotmail.com</t>
+  </si>
+  <si>
+    <t>846 rue Marc-Aurèle Fortin</t>
+  </si>
+  <si>
+    <t>Saint-Lin-Leurentides</t>
+  </si>
+  <si>
+    <t>J5M 2S7</t>
+  </si>
+  <si>
+    <t>Evan Trickey [Véronique Poulin] Les Fondations Jono Inc.</t>
+  </si>
+  <si>
+    <t>Solution Maxpark Inc. [Gary Bastien]</t>
+  </si>
+  <si>
+    <t>Solution Maxpark Inc.</t>
+  </si>
+  <si>
+    <t>Gary Bastien</t>
+  </si>
+  <si>
+    <t>fourparkinc@gmail.com</t>
+  </si>
+  <si>
+    <t>306-1555 boul de l'Avenir</t>
+  </si>
+  <si>
+    <t>Succession François Ricard [marcelle.cossette-ricard@umontreal.ca]</t>
+  </si>
+  <si>
+    <t>Succession François Ricard</t>
+  </si>
+  <si>
+    <t>marcelle.cossette-ricard@umontreal.ca</t>
+  </si>
+  <si>
+    <t>451 Avenue Stuart</t>
+  </si>
+  <si>
+    <t>H2V 3N1</t>
+  </si>
+  <si>
+    <t>Linda Morrissette</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>lindamorisset@videotron.ca</t>
+  </si>
+  <si>
+    <t>3492 Boul Lévesque Est</t>
+  </si>
+  <si>
+    <t>H7E 2P8</t>
+  </si>
+  <si>
+    <t>9429-0756 Québec Inc. [Émerson Lopez]</t>
+  </si>
+  <si>
+    <t>9429-0756 Québec Inc.</t>
+  </si>
+  <si>
+    <t>Émerson Lopez</t>
+  </si>
+  <si>
+    <t>emersonlopezc@gmail.com</t>
+  </si>
+  <si>
+    <t>Sylin Paul, CPA</t>
+  </si>
+  <si>
+    <t>703-10550 Place de l'Acadie</t>
+  </si>
+  <si>
+    <t>H4N 0B3</t>
   </si>
 </sst>
 </file>
@@ -25462,7 +25555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -25588,19 +25681,15 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -25935,12 +26024,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:R1144"/>
+  <dimension ref="A1:R1149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1120" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A1110" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="C1134" sqref="C1134"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD1142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -77232,98 +77321,281 @@
       </c>
     </row>
     <row r="1143" spans="1:18">
-      <c r="A1143" s="3" t="s">
+      <c r="A1143" s="31" t="s">
         <v>8383</v>
       </c>
-      <c r="B1143" s="46" t="s">
+      <c r="B1143" s="31" t="s">
         <v>8384</v>
       </c>
-      <c r="C1143" s="41" t="s">
+      <c r="C1143" s="31" t="s">
         <v>8385</v>
       </c>
-      <c r="D1143" s="21" t="s">
+      <c r="D1143" s="31" t="s">
         <v>8386</v>
       </c>
-      <c r="E1143" s="23" t="s">
+      <c r="E1143" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="F1143" s="21" t="s">
+      <c r="F1143" s="31" t="s">
         <v>8387</v>
       </c>
-      <c r="G1143" s="3" t="s">
+      <c r="G1143" s="31" t="s">
         <v>8388</v>
       </c>
-      <c r="I1143" s="3" t="s">
+      <c r="I1143" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="J1143" s="22" t="s">
-        <v>563</v>
-      </c>
-      <c r="K1143" s="22" t="s">
+      <c r="J1143" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1143" s="31" t="s">
         <v>8389</v>
       </c>
-      <c r="L1143" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1143" s="25" t="s">
+      <c r="L1143" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1143" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="N1143" s="24" t="s">
+      <c r="N1143" s="31" t="s">
         <v>5737</v>
       </c>
-      <c r="O1143" s="25" t="s">
+      <c r="O1143" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="P1143" s="25"/>
-      <c r="Q1143" s="25" t="s">
+      <c r="Q1143" s="31" t="s">
         <v>8383</v>
       </c>
-      <c r="R1143" s="43">
+      <c r="R1143" s="47">
         <v>45782.397962962998</v>
       </c>
     </row>
     <row r="1144" spans="1:18">
-      <c r="A1144" s="3" t="s">
+      <c r="A1144" s="31" t="s">
         <v>8390</v>
       </c>
-      <c r="B1144" s="46" t="s">
+      <c r="B1144" s="31" t="s">
         <v>8391</v>
       </c>
-      <c r="C1144" s="41" t="s">
+      <c r="C1144" s="31" t="s">
         <v>8390</v>
       </c>
-      <c r="D1144" s="21" t="s">
+      <c r="D1144" s="31" t="s">
         <v>8390</v>
       </c>
-      <c r="F1144" s="21" t="s">
+      <c r="F1144" s="31" t="s">
         <v>8392</v>
       </c>
-      <c r="G1144" s="3" t="s">
+      <c r="G1144" s="31" t="s">
         <v>8393</v>
       </c>
-      <c r="I1144" s="3" t="s">
+      <c r="I1144" s="31" t="s">
         <v>1690</v>
       </c>
-      <c r="J1144" s="22" t="s">
-        <v>563</v>
-      </c>
-      <c r="K1144" s="22" t="s">
+      <c r="J1144" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1144" s="31" t="s">
         <v>8394</v>
       </c>
-      <c r="L1144" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1144" s="25"/>
-      <c r="N1144" s="24" t="s">
+      <c r="L1144" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1144" s="31" t="s">
         <v>2734</v>
       </c>
-      <c r="O1144" s="25"/>
-      <c r="P1144" s="25"/>
-      <c r="Q1144" s="25" t="s">
+      <c r="Q1144" s="31" t="s">
         <v>8390</v>
       </c>
-      <c r="R1144" s="43">
+      <c r="R1144" s="47">
         <v>45784.2397569444</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:18">
+      <c r="A1145" s="31" t="s">
+        <v>8395</v>
+      </c>
+      <c r="B1145" s="31" t="s">
+        <v>8396</v>
+      </c>
+      <c r="C1145" s="31" t="s">
+        <v>8397</v>
+      </c>
+      <c r="D1145" s="31" t="s">
+        <v>8398</v>
+      </c>
+      <c r="F1145" s="31" t="s">
+        <v>8399</v>
+      </c>
+      <c r="G1145" s="31" t="s">
+        <v>8400</v>
+      </c>
+      <c r="I1145" s="31" t="s">
+        <v>8401</v>
+      </c>
+      <c r="J1145" s="31" t="s">
+        <v>2354</v>
+      </c>
+      <c r="K1145" s="31" t="s">
+        <v>8402</v>
+      </c>
+      <c r="L1145" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1145" s="31" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q1145" s="31" t="s">
+        <v>8403</v>
+      </c>
+      <c r="R1145" s="47">
+        <v>45784.685474537</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:18">
+      <c r="A1146" s="31" t="s">
+        <v>8404</v>
+      </c>
+      <c r="B1146" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1146" s="31" t="s">
+        <v>8405</v>
+      </c>
+      <c r="D1146" s="31" t="s">
+        <v>8406</v>
+      </c>
+      <c r="F1146" s="31" t="s">
+        <v>8407</v>
+      </c>
+      <c r="G1146" s="31" t="s">
+        <v>8408</v>
+      </c>
+      <c r="I1146" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1146" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1146" s="31" t="s">
+        <v>4017</v>
+      </c>
+      <c r="Q1146" s="31" t="s">
+        <v>8404</v>
+      </c>
+      <c r="R1146" s="47">
+        <v>45784.950891203698</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:18">
+      <c r="A1147" s="31" t="s">
+        <v>8409</v>
+      </c>
+      <c r="B1147" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1147" s="31" t="s">
+        <v>8410</v>
+      </c>
+      <c r="D1147" s="31" t="s">
+        <v>8411</v>
+      </c>
+      <c r="F1147" s="31" t="s">
+        <v>8411</v>
+      </c>
+      <c r="G1147" s="31" t="s">
+        <v>8412</v>
+      </c>
+      <c r="I1147" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1147" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1147" s="31" t="s">
+        <v>8413</v>
+      </c>
+      <c r="Q1147" s="31" t="s">
+        <v>8409</v>
+      </c>
+      <c r="R1147" s="47">
+        <v>45784.950520833299</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:18">
+      <c r="A1148" s="31" t="s">
+        <v>8414</v>
+      </c>
+      <c r="B1148" s="31" t="s">
+        <v>8415</v>
+      </c>
+      <c r="C1148" s="31" t="s">
+        <v>8414</v>
+      </c>
+      <c r="D1148" s="31" t="s">
+        <v>8414</v>
+      </c>
+      <c r="F1148" s="31" t="s">
+        <v>8416</v>
+      </c>
+      <c r="G1148" s="31" t="s">
+        <v>8417</v>
+      </c>
+      <c r="I1148" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1148" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1148" s="31" t="s">
+        <v>8418</v>
+      </c>
+      <c r="L1148" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1148" s="31" t="s">
+        <v>8414</v>
+      </c>
+      <c r="R1148" s="47">
+        <v>45785.484560185199</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:18">
+      <c r="A1149" s="31" t="s">
+        <v>8419</v>
+      </c>
+      <c r="B1149" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1149" s="31" t="s">
+        <v>8420</v>
+      </c>
+      <c r="D1149" s="31" t="s">
+        <v>8421</v>
+      </c>
+      <c r="F1149" s="31" t="s">
+        <v>8422</v>
+      </c>
+      <c r="G1149" s="31" t="s">
+        <v>8424</v>
+      </c>
+      <c r="I1149" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1149" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1149" s="31" t="s">
+        <v>8425</v>
+      </c>
+      <c r="M1149" s="31" t="s">
+        <v>8423</v>
+      </c>
+      <c r="Q1149" s="31" t="s">
+        <v>8419</v>
+      </c>
+      <c r="R1149" s="47">
+        <v>45785.929756944402</v>
       </c>
     </row>
   </sheetData>
@@ -77332,13 +77604,8 @@
     <sortCondition ref="B1136"/>
   </sortState>
   <conditionalFormatting sqref="A2:R1142">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1143:R1144">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($A1143&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -79478,7 +79745,7 @@
     <sortCondition ref="A1:A20"/>
   </sortState>
   <conditionalFormatting sqref="A2:L9999">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -86350,7 +86617,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D67">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26180405-93BA-4924-9F6A-C9593C0826F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FEE0F3-A4FC-4650-AA21-7223D3610712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -25630,7 +25630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -25756,15 +25756,19 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -26104,7 +26108,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A1121" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD1151"/>
+      <selection pane="bottomLeft" activeCell="A1153" sqref="A1153:XFD1153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -74378,37 +74382,41 @@
       </c>
     </row>
     <row r="1153" spans="1:18">
-      <c r="A1153" s="31" t="s">
+      <c r="A1153" s="3" t="s">
         <v>8446</v>
       </c>
-      <c r="B1153" s="31" t="s">
+      <c r="B1153" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C1153" s="31" t="s">
+      <c r="C1153" s="41" t="s">
         <v>8447</v>
       </c>
-      <c r="E1153" s="31" t="s">
+      <c r="E1153" s="23" t="s">
         <v>6080</v>
       </c>
-      <c r="F1153" s="31" t="s">
+      <c r="F1153" s="21" t="s">
         <v>8448</v>
       </c>
-      <c r="G1153" s="31" t="s">
+      <c r="G1153" s="3" t="s">
         <v>8449</v>
       </c>
-      <c r="I1153" s="31" t="s">
+      <c r="I1153" s="3" t="s">
         <v>8266</v>
       </c>
-      <c r="J1153" s="31" t="s">
+      <c r="J1153" s="22" t="s">
         <v>8267</v>
       </c>
-      <c r="K1153" s="31" t="s">
+      <c r="K1153" s="22" t="s">
         <v>8450</v>
       </c>
-      <c r="Q1153" s="31" t="s">
+      <c r="M1153" s="25"/>
+      <c r="N1153" s="24"/>
+      <c r="O1153" s="25"/>
+      <c r="P1153" s="25"/>
+      <c r="Q1153" s="25" t="s">
         <v>8446</v>
       </c>
-      <c r="R1153" s="47">
+      <c r="R1153" s="43">
         <v>45798.954733796301</v>
       </c>
     </row>
@@ -74418,8 +74426,13 @@
     <sortCondition ref="B1150:B1152"/>
   </sortState>
   <conditionalFormatting sqref="A2:R1152">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1153:R1153">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($A1153&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -76559,7 +76572,7 @@
     <sortCondition ref="A1:A20"/>
   </sortState>
   <conditionalFormatting sqref="A2:L9999">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -83431,7 +83444,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D67">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FEE0F3-A4FC-4650-AA21-7223D3610712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71B4FC9-90A2-4273-949A-B82EFA8F4A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="38400" yWindow="2640" windowWidth="28800" windowHeight="11385" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="PlanComptable" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clients!$A$1:$R$1146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clients!$A$1:$R$1147</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fournisseurs!$A$1:$K$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14816" uniqueCount="8451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14844" uniqueCount="8464">
   <si>
     <t>GL_ID</t>
   </si>
@@ -25395,6 +25395,45 @@
   </si>
   <si>
     <t>H4N 2W2</t>
+  </si>
+  <si>
+    <t>Productions Audace Inc. [Kathie Tremblay]</t>
+  </si>
+  <si>
+    <t>1831</t>
+  </si>
+  <si>
+    <t>Productions Audace Inc.</t>
+  </si>
+  <si>
+    <t>Kathie Tremblay</t>
+  </si>
+  <si>
+    <t>ktremblay@audace-co.com</t>
+  </si>
+  <si>
+    <t>J6A 2X2</t>
+  </si>
+  <si>
+    <t>9355-1711 Québec Inc. [Olivier Dazé]</t>
+  </si>
+  <si>
+    <t>1832</t>
+  </si>
+  <si>
+    <t>Olivier Dazé</t>
+  </si>
+  <si>
+    <t>olivier@olgaconstruction.com</t>
+  </si>
+  <si>
+    <t>40, 43e avenue</t>
+  </si>
+  <si>
+    <t>H1A 2Z9</t>
+  </si>
+  <si>
+    <t>9355-1711 Québec Inc. [Olivier Dazé] Entreprises Limoges</t>
   </si>
 </sst>
 </file>
@@ -25630,7 +25669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -25756,19 +25795,15 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -26103,12 +26138,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:R1153"/>
+  <dimension ref="A1:R1155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1121" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A1141" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A1153" sqref="A1153:XFD1153"/>
+      <selection pane="bottomLeft" activeCell="A1154" sqref="A1154:XFD1154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -72384,75 +72419,75 @@
     </row>
     <row r="1109" spans="1:18">
       <c r="A1109" s="3" t="s">
-        <v>6488</v>
+        <v>8451</v>
       </c>
       <c r="B1109" s="46" t="s">
-        <v>45</v>
+        <v>8452</v>
       </c>
       <c r="C1109" s="41" t="s">
-        <v>7450</v>
+        <v>8453</v>
       </c>
       <c r="D1109" s="21" t="s">
-        <v>2243</v>
+        <v>8454</v>
       </c>
       <c r="E1109" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F1109" s="21" t="s">
-        <v>2244</v>
+        <v>8455</v>
       </c>
       <c r="G1109" s="3" t="s">
-        <v>2245</v>
+        <v>3126</v>
       </c>
       <c r="I1109" s="3" t="s">
-        <v>2224</v>
+        <v>164</v>
       </c>
       <c r="J1109" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1109" s="22" t="s">
-        <v>2246</v>
+        <v>8456</v>
       </c>
       <c r="L1109" s="22" t="s">
         <v>153</v>
       </c>
       <c r="M1109" t="s">
-        <v>313</v>
+        <v>880</v>
       </c>
       <c r="N1109" s="38" t="s">
-        <v>5737</v>
+        <v>2734</v>
       </c>
       <c r="O1109" t="s">
-        <v>313</v>
-      </c>
-      <c r="P1109" t="s">
-        <v>5282</v>
+        <v>880</v>
       </c>
       <c r="Q1109" t="s">
-        <v>8064</v>
+        <v>8451</v>
       </c>
       <c r="R1109" s="43">
-        <v>45591.506944444402</v>
+        <v>45804.638217592597</v>
       </c>
     </row>
     <row r="1110" spans="1:18">
       <c r="A1110" s="3" t="s">
-        <v>6901</v>
+        <v>6488</v>
       </c>
       <c r="B1110" s="46" t="s">
-        <v>5738</v>
+        <v>45</v>
       </c>
       <c r="C1110" s="41" t="s">
-        <v>7440</v>
+        <v>7450</v>
       </c>
       <c r="D1110" s="21" t="s">
-        <v>6904</v>
+        <v>2243</v>
       </c>
       <c r="E1110" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="F1110" s="21" t="s">
+        <v>2244</v>
       </c>
       <c r="G1110" s="3" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="I1110" s="3" t="s">
         <v>2224</v>
@@ -72461,7 +72496,7 @@
         <v>563</v>
       </c>
       <c r="K1110" s="22" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="L1110" s="22" t="s">
         <v>153</v>
@@ -72470,48 +72505,48 @@
         <v>313</v>
       </c>
       <c r="N1110" s="38" t="s">
-        <v>2734</v>
+        <v>5737</v>
       </c>
       <c r="O1110" t="s">
         <v>313</v>
       </c>
+      <c r="P1110" t="s">
+        <v>5282</v>
+      </c>
       <c r="Q1110" t="s">
-        <v>8065</v>
+        <v>8064</v>
       </c>
       <c r="R1110" s="43">
-        <v>45592.251759259299</v>
+        <v>45591.506944444402</v>
       </c>
     </row>
     <row r="1111" spans="1:18">
       <c r="A1111" s="3" t="s">
-        <v>6898</v>
+        <v>6901</v>
       </c>
       <c r="B1111" s="46" t="s">
-        <v>5739</v>
+        <v>5738</v>
       </c>
       <c r="C1111" s="41" t="s">
-        <v>7416</v>
+        <v>7440</v>
       </c>
       <c r="D1111" s="21" t="s">
-        <v>6905</v>
+        <v>6904</v>
       </c>
       <c r="E1111" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1111" s="21" t="s">
-        <v>2249</v>
+        <v>165</v>
       </c>
       <c r="G1111" s="3" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
       <c r="I1111" s="3" t="s">
-        <v>245</v>
+        <v>2224</v>
       </c>
       <c r="J1111" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1111" s="22" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="L1111" s="22" t="s">
         <v>153</v>
@@ -72520,48 +72555,48 @@
         <v>313</v>
       </c>
       <c r="N1111" s="38" t="s">
-        <v>5558</v>
+        <v>2734</v>
       </c>
       <c r="O1111" t="s">
         <v>313</v>
       </c>
       <c r="Q1111" t="s">
-        <v>8066</v>
+        <v>8065</v>
       </c>
       <c r="R1111" s="43">
-        <v>45591.506944444402</v>
+        <v>45592.251759259299</v>
       </c>
     </row>
     <row r="1112" spans="1:18">
       <c r="A1112" s="3" t="s">
-        <v>6902</v>
+        <v>6898</v>
       </c>
       <c r="B1112" s="46" t="s">
-        <v>5740</v>
+        <v>5739</v>
       </c>
       <c r="C1112" s="41" t="s">
-        <v>7448</v>
+        <v>7416</v>
       </c>
       <c r="D1112" s="21" t="s">
-        <v>6906</v>
+        <v>6905</v>
       </c>
       <c r="E1112" s="23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F1112" s="21" t="s">
-        <v>1561</v>
+        <v>2249</v>
       </c>
       <c r="G1112" s="3" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="I1112" s="3" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="J1112" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1112" s="22" t="s">
-        <v>1563</v>
+        <v>2251</v>
       </c>
       <c r="L1112" s="22" t="s">
         <v>153</v>
@@ -72570,16 +72605,13 @@
         <v>313</v>
       </c>
       <c r="N1112" s="38" t="s">
-        <v>2734</v>
+        <v>5558</v>
       </c>
       <c r="O1112" t="s">
         <v>313</v>
       </c>
-      <c r="P1112" t="s">
-        <v>5282</v>
-      </c>
       <c r="Q1112" t="s">
-        <v>8067</v>
+        <v>8066</v>
       </c>
       <c r="R1112" s="43">
         <v>45591.506944444402</v>
@@ -72587,34 +72619,34 @@
     </row>
     <row r="1113" spans="1:18">
       <c r="A1113" s="3" t="s">
-        <v>6489</v>
+        <v>6902</v>
       </c>
       <c r="B1113" s="46" t="s">
-        <v>5741</v>
+        <v>5740</v>
       </c>
       <c r="C1113" s="41" t="s">
-        <v>7431</v>
+        <v>7448</v>
       </c>
       <c r="D1113" s="21" t="s">
-        <v>2253</v>
+        <v>6906</v>
       </c>
       <c r="E1113" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F1113" s="21" t="s">
-        <v>2254</v>
+        <v>1561</v>
       </c>
       <c r="G1113" s="3" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
       <c r="I1113" s="3" t="s">
-        <v>2256</v>
+        <v>154</v>
       </c>
       <c r="J1113" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1113" s="22" t="s">
-        <v>2257</v>
+        <v>1563</v>
       </c>
       <c r="L1113" s="22" t="s">
         <v>153</v>
@@ -72628,8 +72660,11 @@
       <c r="O1113" t="s">
         <v>313</v>
       </c>
+      <c r="P1113" t="s">
+        <v>5282</v>
+      </c>
       <c r="Q1113" t="s">
-        <v>8068</v>
+        <v>8067</v>
       </c>
       <c r="R1113" s="43">
         <v>45591.506944444402</v>
@@ -72637,34 +72672,34 @@
     </row>
     <row r="1114" spans="1:18">
       <c r="A1114" s="3" t="s">
-        <v>6490</v>
+        <v>6489</v>
       </c>
       <c r="B1114" s="46" t="s">
-        <v>47</v>
+        <v>5741</v>
       </c>
       <c r="C1114" s="41" t="s">
-        <v>7211</v>
+        <v>7431</v>
       </c>
       <c r="D1114" s="21" t="s">
-        <v>2258</v>
+        <v>2253</v>
       </c>
       <c r="E1114" s="23" t="s">
-        <v>2259</v>
+        <v>166</v>
       </c>
       <c r="F1114" s="21" t="s">
-        <v>705</v>
+        <v>2254</v>
       </c>
       <c r="G1114" s="3" t="s">
-        <v>2260</v>
+        <v>2255</v>
       </c>
       <c r="I1114" s="3" t="s">
-        <v>1148</v>
+        <v>2256</v>
       </c>
       <c r="J1114" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1114" s="22" t="s">
-        <v>708</v>
+        <v>2257</v>
       </c>
       <c r="L1114" s="22" t="s">
         <v>153</v>
@@ -72678,11 +72713,8 @@
       <c r="O1114" t="s">
         <v>313</v>
       </c>
-      <c r="P1114" t="s">
-        <v>5750</v>
-      </c>
       <c r="Q1114" t="s">
-        <v>8151</v>
+        <v>8068</v>
       </c>
       <c r="R1114" s="43">
         <v>45591.506944444402</v>
@@ -72690,34 +72722,34 @@
     </row>
     <row r="1115" spans="1:18">
       <c r="A1115" s="3" t="s">
-        <v>6491</v>
+        <v>6490</v>
       </c>
       <c r="B1115" s="46" t="s">
-        <v>5742</v>
+        <v>47</v>
       </c>
       <c r="C1115" s="41" t="s">
-        <v>7496</v>
+        <v>7211</v>
       </c>
       <c r="D1115" s="21" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="E1115" s="23" t="s">
         <v>2259</v>
       </c>
       <c r="F1115" s="21" t="s">
-        <v>2262</v>
+        <v>705</v>
       </c>
       <c r="G1115" s="3" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="I1115" s="3" t="s">
-        <v>2264</v>
+        <v>1148</v>
       </c>
       <c r="J1115" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1115" s="22" t="s">
-        <v>2265</v>
+        <v>708</v>
       </c>
       <c r="L1115" s="22" t="s">
         <v>153</v>
@@ -72731,8 +72763,11 @@
       <c r="O1115" t="s">
         <v>313</v>
       </c>
+      <c r="P1115" t="s">
+        <v>5750</v>
+      </c>
       <c r="Q1115" t="s">
-        <v>8069</v>
+        <v>8151</v>
       </c>
       <c r="R1115" s="43">
         <v>45591.506944444402</v>
@@ -72740,34 +72775,34 @@
     </row>
     <row r="1116" spans="1:18">
       <c r="A1116" s="3" t="s">
-        <v>6903</v>
+        <v>6491</v>
       </c>
       <c r="B1116" s="46" t="s">
-        <v>5743</v>
+        <v>5742</v>
       </c>
       <c r="C1116" s="41" t="s">
-        <v>7495</v>
+        <v>7496</v>
       </c>
       <c r="D1116" s="21" t="s">
-        <v>6907</v>
+        <v>2261</v>
       </c>
       <c r="E1116" s="23" t="s">
         <v>2259</v>
       </c>
       <c r="F1116" s="21" t="s">
-        <v>2267</v>
+        <v>2262</v>
       </c>
       <c r="G1116" s="3" t="s">
-        <v>2268</v>
+        <v>2263</v>
       </c>
       <c r="I1116" s="3" t="s">
-        <v>412</v>
+        <v>2264</v>
       </c>
       <c r="J1116" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1116" s="22" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
       <c r="L1116" s="22" t="s">
         <v>153</v>
@@ -72781,11 +72816,8 @@
       <c r="O1116" t="s">
         <v>313</v>
       </c>
-      <c r="P1116" t="s">
-        <v>5282</v>
-      </c>
       <c r="Q1116" t="s">
-        <v>8070</v>
+        <v>8069</v>
       </c>
       <c r="R1116" s="43">
         <v>45591.506944444402</v>
@@ -72793,34 +72825,34 @@
     </row>
     <row r="1117" spans="1:18">
       <c r="A1117" s="3" t="s">
-        <v>6492</v>
+        <v>6903</v>
       </c>
       <c r="B1117" s="46" t="s">
-        <v>5744</v>
+        <v>5743</v>
       </c>
       <c r="C1117" s="41" t="s">
-        <v>7532</v>
+        <v>7495</v>
       </c>
       <c r="D1117" s="21" t="s">
-        <v>2270</v>
+        <v>6907</v>
       </c>
       <c r="E1117" s="23" t="s">
-        <v>166</v>
+        <v>2259</v>
       </c>
       <c r="F1117" s="21" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
       <c r="G1117" s="3" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
       <c r="I1117" s="3" t="s">
-        <v>239</v>
+        <v>412</v>
       </c>
       <c r="J1117" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1117" s="22" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="L1117" s="22" t="s">
         <v>153</v>
@@ -72838,7 +72870,7 @@
         <v>5282</v>
       </c>
       <c r="Q1117" t="s">
-        <v>7907</v>
+        <v>8070</v>
       </c>
       <c r="R1117" s="43">
         <v>45591.506944444402</v>
@@ -72846,34 +72878,34 @@
     </row>
     <row r="1118" spans="1:18">
       <c r="A1118" s="3" t="s">
-        <v>7769</v>
+        <v>6492</v>
       </c>
       <c r="B1118" s="46" t="s">
-        <v>5745</v>
+        <v>5744</v>
       </c>
       <c r="C1118" s="41" t="s">
-        <v>7429</v>
+        <v>7532</v>
       </c>
       <c r="D1118" s="21" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="E1118" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1118" s="21" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
       <c r="G1118" s="3" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="I1118" s="3" t="s">
-        <v>2277</v>
+        <v>239</v>
       </c>
       <c r="J1118" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1118" s="22" t="s">
-        <v>2278</v>
+        <v>2273</v>
       </c>
       <c r="L1118" s="22" t="s">
         <v>153</v>
@@ -72882,48 +72914,51 @@
         <v>313</v>
       </c>
       <c r="N1118" s="38" t="s">
-        <v>5746</v>
+        <v>2734</v>
       </c>
       <c r="O1118" t="s">
         <v>313</v>
       </c>
+      <c r="P1118" t="s">
+        <v>5282</v>
+      </c>
       <c r="Q1118" t="s">
-        <v>8152</v>
+        <v>7907</v>
       </c>
       <c r="R1118" s="43">
-        <v>45626.355034722197</v>
+        <v>45591.506944444402</v>
       </c>
     </row>
     <row r="1119" spans="1:18">
       <c r="A1119" s="3" t="s">
-        <v>6493</v>
+        <v>7769</v>
       </c>
       <c r="B1119" s="46" t="s">
-        <v>5747</v>
+        <v>5745</v>
       </c>
       <c r="C1119" s="41" t="s">
-        <v>7435</v>
+        <v>7429</v>
       </c>
       <c r="D1119" s="21" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="E1119" s="23" t="s">
-        <v>2280</v>
+        <v>166</v>
       </c>
       <c r="F1119" s="21" t="s">
-        <v>2281</v>
+        <v>2275</v>
       </c>
       <c r="G1119" s="3" t="s">
-        <v>2282</v>
+        <v>2276</v>
       </c>
       <c r="I1119" s="3" t="s">
-        <v>245</v>
+        <v>2277</v>
       </c>
       <c r="J1119" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1119" s="22" t="s">
-        <v>2283</v>
+        <v>2278</v>
       </c>
       <c r="L1119" s="22" t="s">
         <v>153</v>
@@ -72932,48 +72967,48 @@
         <v>313</v>
       </c>
       <c r="N1119" s="38" t="s">
-        <v>2734</v>
+        <v>5746</v>
       </c>
       <c r="O1119" t="s">
         <v>313</v>
       </c>
       <c r="Q1119" t="s">
-        <v>7908</v>
+        <v>8152</v>
       </c>
       <c r="R1119" s="43">
-        <v>45591.506944444402</v>
+        <v>45626.355034722197</v>
       </c>
     </row>
     <row r="1120" spans="1:18">
       <c r="A1120" s="3" t="s">
-        <v>6494</v>
+        <v>6493</v>
       </c>
       <c r="B1120" s="46" t="s">
-        <v>5748</v>
+        <v>5747</v>
       </c>
       <c r="C1120" s="41" t="s">
-        <v>7243</v>
+        <v>7435</v>
       </c>
       <c r="D1120" s="21" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
       <c r="E1120" s="23" t="s">
-        <v>165</v>
+        <v>2280</v>
       </c>
       <c r="F1120" s="21" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
       <c r="G1120" s="3" t="s">
-        <v>2286</v>
+        <v>2282</v>
       </c>
       <c r="I1120" s="3" t="s">
-        <v>1513</v>
+        <v>245</v>
       </c>
       <c r="J1120" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1120" s="22" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
       <c r="L1120" s="22" t="s">
         <v>153</v>
@@ -72982,13 +73017,13 @@
         <v>313</v>
       </c>
       <c r="N1120" s="38" t="s">
-        <v>5310</v>
+        <v>2734</v>
       </c>
       <c r="O1120" t="s">
         <v>313</v>
       </c>
       <c r="Q1120" t="s">
-        <v>6494</v>
+        <v>7908</v>
       </c>
       <c r="R1120" s="43">
         <v>45591.506944444402</v>
@@ -72996,13 +73031,13 @@
     </row>
     <row r="1121" spans="1:18">
       <c r="A1121" s="3" t="s">
-        <v>6495</v>
+        <v>6494</v>
       </c>
       <c r="B1121" s="46" t="s">
-        <v>5749</v>
+        <v>5748</v>
       </c>
       <c r="C1121" s="41" t="s">
-        <v>7433</v>
+        <v>7243</v>
       </c>
       <c r="D1121" s="21" t="s">
         <v>2284</v>
@@ -73038,7 +73073,7 @@
         <v>313</v>
       </c>
       <c r="Q1121" t="s">
-        <v>7909</v>
+        <v>6494</v>
       </c>
       <c r="R1121" s="43">
         <v>45591.506944444402</v>
@@ -73046,31 +73081,34 @@
     </row>
     <row r="1122" spans="1:18">
       <c r="A1122" s="3" t="s">
-        <v>5812</v>
+        <v>6495</v>
       </c>
       <c r="B1122" s="46" t="s">
-        <v>5281</v>
+        <v>5749</v>
+      </c>
+      <c r="C1122" s="41" t="s">
+        <v>7433</v>
       </c>
       <c r="D1122" s="21" t="s">
-        <v>2258</v>
+        <v>2284</v>
       </c>
       <c r="E1122" s="23" t="s">
-        <v>821</v>
+        <v>165</v>
       </c>
       <c r="F1122" s="21" t="s">
-        <v>705</v>
+        <v>2285</v>
       </c>
       <c r="G1122" s="3" t="s">
-        <v>2260</v>
+        <v>2286</v>
       </c>
       <c r="I1122" s="3" t="s">
-        <v>1148</v>
+        <v>1513</v>
       </c>
       <c r="J1122" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1122" s="22" t="s">
-        <v>708</v>
+        <v>2287</v>
       </c>
       <c r="L1122" s="22" t="s">
         <v>153</v>
@@ -73079,16 +73117,13 @@
         <v>313</v>
       </c>
       <c r="N1122" s="38" t="s">
-        <v>5746</v>
+        <v>5310</v>
       </c>
       <c r="O1122" t="s">
         <v>313</v>
       </c>
-      <c r="P1122" t="s">
-        <v>5282</v>
-      </c>
       <c r="Q1122" t="s">
-        <v>5812</v>
+        <v>7909</v>
       </c>
       <c r="R1122" s="43">
         <v>45591.506944444402</v>
@@ -73096,34 +73131,31 @@
     </row>
     <row r="1123" spans="1:18">
       <c r="A1123" s="3" t="s">
-        <v>6496</v>
+        <v>5812</v>
       </c>
       <c r="B1123" s="46" t="s">
-        <v>5751</v>
-      </c>
-      <c r="C1123" s="41" t="s">
-        <v>7442</v>
+        <v>5281</v>
       </c>
       <c r="D1123" s="21" t="s">
-        <v>2266</v>
+        <v>2258</v>
       </c>
       <c r="E1123" s="23" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="F1123" s="21" t="s">
-        <v>2267</v>
+        <v>705</v>
       </c>
       <c r="G1123" s="3" t="s">
-        <v>2268</v>
+        <v>2260</v>
       </c>
       <c r="I1123" s="3" t="s">
-        <v>412</v>
+        <v>1148</v>
       </c>
       <c r="J1123" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1123" s="22" t="s">
-        <v>2269</v>
+        <v>708</v>
       </c>
       <c r="L1123" s="22" t="s">
         <v>153</v>
@@ -73132,7 +73164,7 @@
         <v>313</v>
       </c>
       <c r="N1123" s="38" t="s">
-        <v>5752</v>
+        <v>5746</v>
       </c>
       <c r="O1123" t="s">
         <v>313</v>
@@ -73141,7 +73173,7 @@
         <v>5282</v>
       </c>
       <c r="Q1123" t="s">
-        <v>7910</v>
+        <v>5812</v>
       </c>
       <c r="R1123" s="43">
         <v>45591.506944444402</v>
@@ -73149,13 +73181,13 @@
     </row>
     <row r="1124" spans="1:18">
       <c r="A1124" s="3" t="s">
-        <v>6497</v>
+        <v>6496</v>
       </c>
       <c r="B1124" s="46" t="s">
-        <v>5753</v>
+        <v>5751</v>
       </c>
       <c r="C1124" s="41" t="s">
-        <v>7476</v>
+        <v>7442</v>
       </c>
       <c r="D1124" s="21" t="s">
         <v>2266</v>
@@ -73194,7 +73226,7 @@
         <v>5282</v>
       </c>
       <c r="Q1124" t="s">
-        <v>7911</v>
+        <v>7910</v>
       </c>
       <c r="R1124" s="43">
         <v>45591.506944444402</v>
@@ -73202,34 +73234,34 @@
     </row>
     <row r="1125" spans="1:18">
       <c r="A1125" s="3" t="s">
-        <v>6899</v>
+        <v>6497</v>
       </c>
       <c r="B1125" s="46" t="s">
-        <v>5754</v>
+        <v>5753</v>
       </c>
       <c r="C1125" s="41" t="s">
-        <v>7372</v>
+        <v>7476</v>
       </c>
       <c r="D1125" s="21" t="s">
-        <v>6908</v>
+        <v>2266</v>
       </c>
       <c r="E1125" s="23" t="s">
         <v>844</v>
       </c>
       <c r="F1125" s="21" t="s">
-        <v>2288</v>
+        <v>2267</v>
       </c>
       <c r="G1125" s="3" t="s">
-        <v>2289</v>
+        <v>2268</v>
       </c>
       <c r="I1125" s="3" t="s">
-        <v>2290</v>
+        <v>412</v>
       </c>
       <c r="J1125" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1125" s="22" t="s">
-        <v>2291</v>
+        <v>2269</v>
       </c>
       <c r="L1125" s="22" t="s">
         <v>153</v>
@@ -73238,13 +73270,16 @@
         <v>313</v>
       </c>
       <c r="N1125" s="38" t="s">
-        <v>2734</v>
+        <v>5752</v>
       </c>
       <c r="O1125" t="s">
-        <v>2292</v>
+        <v>313</v>
+      </c>
+      <c r="P1125" t="s">
+        <v>5282</v>
       </c>
       <c r="Q1125" t="s">
-        <v>7912</v>
+        <v>7911</v>
       </c>
       <c r="R1125" s="43">
         <v>45591.506944444402</v>
@@ -73252,34 +73287,34 @@
     </row>
     <row r="1126" spans="1:18">
       <c r="A1126" s="3" t="s">
-        <v>6498</v>
+        <v>6899</v>
       </c>
       <c r="B1126" s="46" t="s">
-        <v>5755</v>
+        <v>5754</v>
       </c>
       <c r="C1126" s="41" t="s">
-        <v>7536</v>
+        <v>7372</v>
       </c>
       <c r="D1126" s="21" t="s">
-        <v>2293</v>
+        <v>6908</v>
       </c>
       <c r="E1126" s="23" t="s">
-        <v>166</v>
+        <v>844</v>
       </c>
       <c r="F1126" s="21" t="s">
-        <v>2294</v>
+        <v>2288</v>
       </c>
       <c r="G1126" s="3" t="s">
-        <v>2295</v>
+        <v>2289</v>
       </c>
       <c r="I1126" s="3" t="s">
-        <v>164</v>
+        <v>2290</v>
       </c>
       <c r="J1126" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1126" s="22" t="s">
-        <v>2140</v>
+        <v>2291</v>
       </c>
       <c r="L1126" s="22" t="s">
         <v>153</v>
@@ -73288,13 +73323,13 @@
         <v>313</v>
       </c>
       <c r="N1126" s="38" t="s">
-        <v>5719</v>
+        <v>2734</v>
       </c>
       <c r="O1126" t="s">
-        <v>313</v>
+        <v>2292</v>
       </c>
       <c r="Q1126" t="s">
-        <v>7913</v>
+        <v>7912</v>
       </c>
       <c r="R1126" s="43">
         <v>45591.506944444402</v>
@@ -73302,13 +73337,13 @@
     </row>
     <row r="1127" spans="1:18">
       <c r="A1127" s="3" t="s">
-        <v>6499</v>
+        <v>6498</v>
       </c>
       <c r="B1127" s="46" t="s">
-        <v>5756</v>
+        <v>5755</v>
       </c>
       <c r="C1127" s="41" t="s">
-        <v>7419</v>
+        <v>7536</v>
       </c>
       <c r="D1127" s="21" t="s">
         <v>2293</v>
@@ -73317,22 +73352,19 @@
         <v>166</v>
       </c>
       <c r="F1127" s="21" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="G1127" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H1127" s="3" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="I1127" s="3" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="J1127" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1127" s="22" t="s">
-        <v>246</v>
+        <v>2140</v>
       </c>
       <c r="L1127" s="22" t="s">
         <v>153</v>
@@ -73341,16 +73373,13 @@
         <v>313</v>
       </c>
       <c r="N1127" s="38" t="s">
-        <v>2734</v>
+        <v>5719</v>
       </c>
       <c r="O1127" t="s">
         <v>313</v>
       </c>
-      <c r="P1127" t="s">
-        <v>2298</v>
-      </c>
       <c r="Q1127" t="s">
-        <v>7914</v>
+        <v>7913</v>
       </c>
       <c r="R1127" s="43">
         <v>45591.506944444402</v>
@@ -73358,34 +73387,37 @@
     </row>
     <row r="1128" spans="1:18">
       <c r="A1128" s="3" t="s">
-        <v>6500</v>
+        <v>6499</v>
       </c>
       <c r="B1128" s="46" t="s">
-        <v>5757</v>
+        <v>5756</v>
       </c>
       <c r="C1128" s="41" t="s">
-        <v>7350</v>
+        <v>7419</v>
       </c>
       <c r="D1128" s="21" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="E1128" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1128" s="21" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="G1128" s="3" t="s">
-        <v>2301</v>
+        <v>244</v>
+      </c>
+      <c r="H1128" s="3" t="s">
+        <v>2297</v>
       </c>
       <c r="I1128" s="3" t="s">
-        <v>1628</v>
+        <v>245</v>
       </c>
       <c r="J1128" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1128" s="22" t="s">
-        <v>2302</v>
+        <v>246</v>
       </c>
       <c r="L1128" s="22" t="s">
         <v>153</v>
@@ -73394,13 +73426,16 @@
         <v>313</v>
       </c>
       <c r="N1128" s="38" t="s">
-        <v>5737</v>
+        <v>2734</v>
       </c>
       <c r="O1128" t="s">
         <v>313</v>
       </c>
+      <c r="P1128" t="s">
+        <v>2298</v>
+      </c>
       <c r="Q1128" t="s">
-        <v>7915</v>
+        <v>7914</v>
       </c>
       <c r="R1128" s="43">
         <v>45591.506944444402</v>
@@ -73408,34 +73443,34 @@
     </row>
     <row r="1129" spans="1:18">
       <c r="A1129" s="3" t="s">
-        <v>6501</v>
+        <v>6500</v>
       </c>
       <c r="B1129" s="46" t="s">
-        <v>5283</v>
+        <v>5757</v>
       </c>
       <c r="C1129" s="41" t="s">
-        <v>7487</v>
+        <v>7350</v>
       </c>
       <c r="D1129" s="21" t="s">
-        <v>7630</v>
+        <v>2299</v>
       </c>
       <c r="E1129" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1129" s="21" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="G1129" s="3" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
       <c r="I1129" s="3" t="s">
-        <v>2305</v>
+        <v>1628</v>
       </c>
       <c r="J1129" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1129" s="22" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="L1129" s="22" t="s">
         <v>153</v>
@@ -73444,48 +73479,48 @@
         <v>313</v>
       </c>
       <c r="N1129" s="38" t="s">
-        <v>2734</v>
+        <v>5737</v>
       </c>
       <c r="O1129" t="s">
         <v>313</v>
       </c>
       <c r="Q1129" t="s">
-        <v>7916</v>
+        <v>7915</v>
       </c>
       <c r="R1129" s="43">
-        <v>45599.491631944402</v>
+        <v>45591.506944444402</v>
       </c>
     </row>
     <row r="1130" spans="1:18">
       <c r="A1130" s="3" t="s">
-        <v>6502</v>
+        <v>6501</v>
       </c>
       <c r="B1130" s="46" t="s">
-        <v>5758</v>
+        <v>5283</v>
       </c>
       <c r="C1130" s="41" t="s">
-        <v>7434</v>
+        <v>7487</v>
       </c>
       <c r="D1130" s="21" t="s">
-        <v>2307</v>
+        <v>7630</v>
       </c>
       <c r="E1130" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F1130" s="21" t="s">
-        <v>2308</v>
+        <v>2303</v>
       </c>
       <c r="G1130" s="3" t="s">
-        <v>2286</v>
+        <v>2304</v>
       </c>
       <c r="I1130" s="3" t="s">
-        <v>1513</v>
+        <v>2305</v>
       </c>
       <c r="J1130" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1130" s="22" t="s">
-        <v>2287</v>
+        <v>2306</v>
       </c>
       <c r="L1130" s="22" t="s">
         <v>153</v>
@@ -73494,48 +73529,48 @@
         <v>313</v>
       </c>
       <c r="N1130" s="38" t="s">
-        <v>5310</v>
+        <v>2734</v>
       </c>
       <c r="O1130" t="s">
         <v>313</v>
       </c>
       <c r="Q1130" t="s">
-        <v>7917</v>
+        <v>7916</v>
       </c>
       <c r="R1130" s="43">
-        <v>45591.506944444402</v>
+        <v>45599.491631944402</v>
       </c>
     </row>
     <row r="1131" spans="1:18">
       <c r="A1131" s="3" t="s">
-        <v>7648</v>
+        <v>6502</v>
       </c>
       <c r="B1131" s="46" t="s">
-        <v>5759</v>
+        <v>5758</v>
       </c>
       <c r="C1131" s="41" t="s">
-        <v>7175</v>
+        <v>7434</v>
       </c>
       <c r="D1131" s="21" t="s">
-        <v>2279</v>
+        <v>2307</v>
       </c>
       <c r="E1131" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F1131" s="21" t="s">
-        <v>2281</v>
+        <v>2308</v>
       </c>
       <c r="G1131" s="3" t="s">
-        <v>2309</v>
+        <v>2286</v>
       </c>
       <c r="I1131" s="3" t="s">
-        <v>240</v>
+        <v>1513</v>
       </c>
       <c r="J1131" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1131" s="22" t="s">
-        <v>2310</v>
+        <v>2287</v>
       </c>
       <c r="L1131" s="22" t="s">
         <v>153</v>
@@ -73544,51 +73579,48 @@
         <v>313</v>
       </c>
       <c r="N1131" s="38" t="s">
-        <v>5737</v>
+        <v>5310</v>
       </c>
       <c r="O1131" t="s">
         <v>313</v>
       </c>
       <c r="Q1131" t="s">
-        <v>8153</v>
+        <v>7917</v>
       </c>
       <c r="R1131" s="43">
-        <v>45602.572002314802</v>
+        <v>45591.506944444402</v>
       </c>
     </row>
     <row r="1132" spans="1:18">
       <c r="A1132" s="3" t="s">
-        <v>6503</v>
+        <v>7648</v>
       </c>
       <c r="B1132" s="46" t="s">
-        <v>5760</v>
+        <v>5759</v>
       </c>
       <c r="C1132" s="41" t="s">
-        <v>7430</v>
+        <v>7175</v>
       </c>
       <c r="D1132" s="21" t="s">
-        <v>2311</v>
+        <v>2279</v>
       </c>
       <c r="E1132" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F1132" s="21" t="s">
-        <v>2312</v>
+        <v>2281</v>
       </c>
       <c r="G1132" s="3" t="s">
-        <v>2313</v>
-      </c>
-      <c r="H1132" s="3" t="s">
-        <v>2314</v>
+        <v>2309</v>
       </c>
       <c r="I1132" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J1132" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1132" s="22" t="s">
-        <v>2315</v>
+        <v>2310</v>
       </c>
       <c r="L1132" s="22" t="s">
         <v>153</v>
@@ -73597,48 +73629,51 @@
         <v>313</v>
       </c>
       <c r="N1132" s="38" t="s">
-        <v>5728</v>
+        <v>5737</v>
       </c>
       <c r="O1132" t="s">
         <v>313</v>
       </c>
       <c r="Q1132" t="s">
-        <v>7918</v>
+        <v>8153</v>
       </c>
       <c r="R1132" s="43">
-        <v>45591.506944444402</v>
+        <v>45602.572002314802</v>
       </c>
     </row>
     <row r="1133" spans="1:18">
       <c r="A1133" s="3" t="s">
-        <v>6504</v>
+        <v>6503</v>
       </c>
       <c r="B1133" s="46" t="s">
-        <v>5761</v>
+        <v>5760</v>
       </c>
       <c r="C1133" s="41" t="s">
-        <v>7542</v>
+        <v>7430</v>
       </c>
       <c r="D1133" s="21" t="s">
-        <v>2316</v>
+        <v>2311</v>
       </c>
       <c r="E1133" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F1133" s="21" t="s">
-        <v>2317</v>
+        <v>2312</v>
       </c>
       <c r="G1133" s="3" t="s">
-        <v>2318</v>
+        <v>2313</v>
+      </c>
+      <c r="H1133" s="3" t="s">
+        <v>2314</v>
       </c>
       <c r="I1133" s="3" t="s">
-        <v>2319</v>
+        <v>245</v>
       </c>
       <c r="J1133" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1133" s="22" t="s">
-        <v>2320</v>
+        <v>2315</v>
       </c>
       <c r="L1133" s="22" t="s">
         <v>153</v>
@@ -73653,7 +73688,7 @@
         <v>313</v>
       </c>
       <c r="Q1133" t="s">
-        <v>7919</v>
+        <v>7918</v>
       </c>
       <c r="R1133" s="43">
         <v>45591.506944444402</v>
@@ -73661,34 +73696,34 @@
     </row>
     <row r="1134" spans="1:18">
       <c r="A1134" s="3" t="s">
-        <v>6505</v>
+        <v>6504</v>
       </c>
       <c r="B1134" s="46" t="s">
-        <v>5762</v>
+        <v>5761</v>
       </c>
       <c r="C1134" s="41" t="s">
-        <v>7437</v>
+        <v>7542</v>
       </c>
       <c r="D1134" s="21" t="s">
-        <v>2261</v>
+        <v>2316</v>
       </c>
       <c r="E1134" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1134" s="21" t="s">
-        <v>2262</v>
+        <v>2317</v>
       </c>
       <c r="G1134" s="3" t="s">
-        <v>2263</v>
+        <v>2318</v>
       </c>
       <c r="I1134" s="3" t="s">
-        <v>2264</v>
+        <v>2319</v>
       </c>
       <c r="J1134" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1134" s="22" t="s">
-        <v>2265</v>
+        <v>2320</v>
       </c>
       <c r="L1134" s="22" t="s">
         <v>153</v>
@@ -73697,13 +73732,13 @@
         <v>313</v>
       </c>
       <c r="N1134" s="38" t="s">
-        <v>2734</v>
+        <v>5728</v>
       </c>
       <c r="O1134" t="s">
         <v>313</v>
       </c>
       <c r="Q1134" t="s">
-        <v>7920</v>
+        <v>7919</v>
       </c>
       <c r="R1134" s="43">
         <v>45591.506944444402</v>
@@ -73711,34 +73746,34 @@
     </row>
     <row r="1135" spans="1:18">
       <c r="A1135" s="3" t="s">
-        <v>7647</v>
+        <v>6505</v>
       </c>
       <c r="B1135" s="46" t="s">
-        <v>6918</v>
+        <v>5762</v>
       </c>
       <c r="C1135" s="41" t="s">
-        <v>7164</v>
+        <v>7437</v>
       </c>
       <c r="D1135" s="21" t="s">
-        <v>2855</v>
+        <v>2261</v>
       </c>
       <c r="E1135" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1135" s="21" t="s">
-        <v>7783</v>
+        <v>2262</v>
       </c>
       <c r="G1135" s="3" t="s">
-        <v>2856</v>
+        <v>2263</v>
       </c>
       <c r="I1135" s="3" t="s">
-        <v>6919</v>
+        <v>2264</v>
       </c>
       <c r="J1135" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1135" s="22" t="s">
-        <v>2857</v>
+        <v>2265</v>
       </c>
       <c r="L1135" s="22" t="s">
         <v>153</v>
@@ -73747,74 +73782,80 @@
         <v>313</v>
       </c>
       <c r="N1135" s="38" t="s">
-        <v>5558</v>
+        <v>2734</v>
       </c>
       <c r="O1135" t="s">
         <v>313</v>
       </c>
-      <c r="P1135" t="s">
-        <v>5282</v>
-      </c>
       <c r="Q1135" t="s">
-        <v>8154</v>
+        <v>7920</v>
       </c>
       <c r="R1135" s="43">
-        <v>45634.650567129604</v>
+        <v>45591.506944444402</v>
       </c>
     </row>
     <row r="1136" spans="1:18">
       <c r="A1136" s="3" t="s">
-        <v>7636</v>
+        <v>7647</v>
       </c>
       <c r="B1136" s="46" t="s">
-        <v>7637</v>
+        <v>6918</v>
       </c>
       <c r="C1136" s="41" t="s">
-        <v>7638</v>
+        <v>7164</v>
       </c>
       <c r="D1136" s="21" t="s">
-        <v>7639</v>
+        <v>2855</v>
       </c>
       <c r="E1136" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1136" s="21" t="s">
-        <v>7640</v>
+        <v>7783</v>
       </c>
       <c r="G1136" s="3" t="s">
-        <v>7641</v>
+        <v>2856</v>
       </c>
       <c r="I1136" s="3" t="s">
-        <v>7642</v>
+        <v>6919</v>
       </c>
       <c r="J1136" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1136" s="22" t="s">
-        <v>7643</v>
+        <v>2857</v>
       </c>
       <c r="L1136" s="22" t="s">
         <v>153</v>
       </c>
+      <c r="M1136" t="s">
+        <v>313</v>
+      </c>
       <c r="N1136" s="38" t="s">
-        <v>2734</v>
+        <v>5558</v>
+      </c>
+      <c r="O1136" t="s">
+        <v>313</v>
+      </c>
+      <c r="P1136" t="s">
+        <v>5282</v>
       </c>
       <c r="Q1136" t="s">
-        <v>7921</v>
+        <v>8154</v>
       </c>
       <c r="R1136" s="43">
-        <v>45602.4203935185</v>
+        <v>45634.650567129604</v>
       </c>
     </row>
     <row r="1137" spans="1:18">
       <c r="A1137" s="3" t="s">
-        <v>7644</v>
+        <v>7636</v>
       </c>
       <c r="B1137" s="46" t="s">
-        <v>7645</v>
+        <v>7637</v>
       </c>
       <c r="C1137" s="41" t="s">
-        <v>7646</v>
+        <v>7638</v>
       </c>
       <c r="D1137" s="21" t="s">
         <v>7639</v>
@@ -73844,86 +73885,83 @@
         <v>2734</v>
       </c>
       <c r="Q1137" t="s">
-        <v>7922</v>
+        <v>7921</v>
       </c>
       <c r="R1137" s="43">
-        <v>45602.422002314801</v>
+        <v>45602.4203935185</v>
       </c>
     </row>
     <row r="1138" spans="1:18">
       <c r="A1138" s="3" t="s">
-        <v>8160</v>
+        <v>7644</v>
       </c>
       <c r="B1138" s="46" t="s">
-        <v>8161</v>
+        <v>7645</v>
       </c>
       <c r="C1138" s="41" t="s">
-        <v>8172</v>
+        <v>7646</v>
       </c>
       <c r="D1138" s="21" t="s">
-        <v>8162</v>
+        <v>7639</v>
+      </c>
+      <c r="E1138" s="23" t="s">
+        <v>166</v>
       </c>
       <c r="F1138" s="21" t="s">
-        <v>8163</v>
+        <v>7640</v>
       </c>
       <c r="G1138" s="3" t="s">
-        <v>8164</v>
+        <v>7641</v>
       </c>
       <c r="I1138" s="3" t="s">
-        <v>164</v>
+        <v>7642</v>
       </c>
       <c r="J1138" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1138" s="22" t="s">
-        <v>8165</v>
+        <v>7643</v>
       </c>
       <c r="L1138" s="22" t="s">
         <v>153</v>
-      </c>
-      <c r="M1138" t="s">
-        <v>313</v>
       </c>
       <c r="N1138" s="38" t="s">
         <v>2734</v>
       </c>
-      <c r="O1138" t="s">
-        <v>313</v>
-      </c>
       <c r="Q1138" t="s">
-        <v>8183</v>
+        <v>7922</v>
       </c>
       <c r="R1138" s="43">
-        <v>45685.697800925896</v>
+        <v>45602.422002314801</v>
       </c>
     </row>
     <row r="1139" spans="1:18">
       <c r="A1139" s="3" t="s">
-        <v>8173</v>
+        <v>8160</v>
       </c>
       <c r="B1139" s="46" t="s">
-        <v>8166</v>
+        <v>8161</v>
       </c>
       <c r="C1139" s="41" t="s">
-        <v>8167</v>
+        <v>8172</v>
       </c>
       <c r="D1139" s="21" t="s">
-        <v>8168</v>
-      </c>
-      <c r="E1139" s="23" t="s">
-        <v>166</v>
+        <v>8162</v>
+      </c>
+      <c r="F1139" s="21" t="s">
+        <v>8163</v>
       </c>
       <c r="G1139" s="3" t="s">
-        <v>8169</v>
+        <v>8164</v>
       </c>
       <c r="I1139" s="3" t="s">
-        <v>8170</v>
+        <v>164</v>
       </c>
       <c r="J1139" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1139" s="22" t="s">
-        <v>8171</v>
+        <v>8165</v>
       </c>
       <c r="L1139" s="22" t="s">
         <v>153</v>
@@ -73938,39 +73976,39 @@
         <v>313</v>
       </c>
       <c r="Q1139" t="s">
-        <v>8182</v>
+        <v>8183</v>
       </c>
       <c r="R1139" s="43">
-        <v>45685.697476851798</v>
+        <v>45685.697800925896</v>
       </c>
     </row>
     <row r="1140" spans="1:18">
       <c r="A1140" s="3" t="s">
-        <v>8174</v>
+        <v>8173</v>
       </c>
       <c r="B1140" s="46" t="s">
-        <v>8175</v>
+        <v>8166</v>
       </c>
       <c r="C1140" s="41" t="s">
-        <v>8176</v>
+        <v>8167</v>
       </c>
       <c r="D1140" s="21" t="s">
-        <v>8177</v>
+        <v>8168</v>
       </c>
       <c r="E1140" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G1140" s="3" t="s">
-        <v>8178</v>
+        <v>8169</v>
       </c>
       <c r="I1140" s="3" t="s">
-        <v>8179</v>
+        <v>8170</v>
       </c>
       <c r="J1140" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1140" s="22" t="s">
-        <v>8180</v>
+        <v>8171</v>
       </c>
       <c r="L1140" s="22" t="s">
         <v>153</v>
@@ -73985,36 +74023,39 @@
         <v>313</v>
       </c>
       <c r="Q1140" t="s">
-        <v>8181</v>
+        <v>8182</v>
       </c>
       <c r="R1140" s="43">
-        <v>45685.697141203702</v>
+        <v>45685.697476851798</v>
       </c>
     </row>
     <row r="1141" spans="1:18">
       <c r="A1141" s="3" t="s">
-        <v>8184</v>
+        <v>8174</v>
       </c>
       <c r="B1141" s="46" t="s">
-        <v>8185</v>
+        <v>8175</v>
       </c>
       <c r="C1141" s="41" t="s">
-        <v>8186</v>
+        <v>8176</v>
       </c>
       <c r="D1141" s="21" t="s">
         <v>8177</v>
       </c>
+      <c r="E1141" s="23" t="s">
+        <v>165</v>
+      </c>
       <c r="G1141" s="3" t="s">
-        <v>8187</v>
+        <v>8178</v>
       </c>
       <c r="I1141" s="3" t="s">
-        <v>4557</v>
+        <v>8179</v>
       </c>
       <c r="J1141" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1141" s="22" t="s">
-        <v>4558</v>
+        <v>8180</v>
       </c>
       <c r="L1141" s="22" t="s">
         <v>153</v>
@@ -74022,342 +74063,351 @@
       <c r="M1141" t="s">
         <v>313</v>
       </c>
+      <c r="N1141" s="38" t="s">
+        <v>2734</v>
+      </c>
       <c r="O1141" t="s">
         <v>313</v>
       </c>
       <c r="Q1141" t="s">
-        <v>8188</v>
+        <v>8181</v>
       </c>
       <c r="R1141" s="43">
-        <v>45686.720590277801</v>
+        <v>45685.697141203702</v>
       </c>
     </row>
     <row r="1142" spans="1:18">
       <c r="A1142" s="3" t="s">
-        <v>8264</v>
+        <v>8184</v>
       </c>
       <c r="B1142" s="46" t="s">
-        <v>8217</v>
+        <v>8185</v>
+      </c>
+      <c r="C1142" s="41" t="s">
+        <v>8186</v>
       </c>
       <c r="D1142" s="21" t="s">
-        <v>8218</v>
-      </c>
-      <c r="E1142" s="23" t="s">
-        <v>8219</v>
-      </c>
-      <c r="F1142" s="21" t="s">
-        <v>8220</v>
+        <v>8177</v>
       </c>
       <c r="G1142" s="3" t="s">
-        <v>8265</v>
+        <v>8187</v>
       </c>
       <c r="I1142" s="3" t="s">
-        <v>8266</v>
+        <v>4557</v>
       </c>
       <c r="J1142" s="22" t="s">
-        <v>8267</v>
+        <v>563</v>
       </c>
       <c r="K1142" s="22" t="s">
-        <v>8268</v>
+        <v>4558</v>
+      </c>
+      <c r="L1142" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="M1142" t="s">
-        <v>8221</v>
+        <v>313</v>
+      </c>
+      <c r="O1142" t="s">
+        <v>313</v>
       </c>
       <c r="Q1142" t="s">
-        <v>8264</v>
+        <v>8188</v>
       </c>
       <c r="R1142" s="43">
-        <v>45704.650717592602</v>
+        <v>45686.720590277801</v>
       </c>
     </row>
     <row r="1143" spans="1:18">
       <c r="A1143" s="3" t="s">
-        <v>8342</v>
+        <v>8264</v>
       </c>
       <c r="B1143" s="46" t="s">
-        <v>8343</v>
-      </c>
-      <c r="C1143" s="41" t="s">
-        <v>8344</v>
+        <v>8217</v>
       </c>
       <c r="D1143" s="21" t="s">
-        <v>8345</v>
+        <v>8218</v>
+      </c>
+      <c r="E1143" s="23" t="s">
+        <v>8219</v>
       </c>
       <c r="F1143" s="21" t="s">
-        <v>8346</v>
+        <v>8220</v>
       </c>
       <c r="G1143" s="3" t="s">
-        <v>8347</v>
+        <v>8265</v>
       </c>
       <c r="I1143" s="3" t="s">
-        <v>2433</v>
+        <v>8266</v>
       </c>
       <c r="J1143" s="22" t="s">
-        <v>563</v>
+        <v>8267</v>
       </c>
       <c r="K1143" s="22" t="s">
-        <v>8348</v>
-      </c>
-      <c r="L1143" s="22" t="s">
-        <v>153</v>
+        <v>8268</v>
       </c>
       <c r="M1143" t="s">
-        <v>313</v>
-      </c>
-      <c r="N1143" s="38" t="s">
-        <v>5736</v>
-      </c>
-      <c r="O1143" t="s">
-        <v>313</v>
+        <v>8221</v>
       </c>
       <c r="Q1143" t="s">
-        <v>8349</v>
+        <v>8264</v>
       </c>
       <c r="R1143" s="43">
-        <v>45771.699247685203</v>
+        <v>45704.650717592602</v>
       </c>
     </row>
     <row r="1144" spans="1:18">
       <c r="A1144" s="3" t="s">
-        <v>8231</v>
+        <v>8342</v>
       </c>
       <c r="B1144" s="46" t="s">
-        <v>51</v>
+        <v>8343</v>
+      </c>
+      <c r="C1144" s="41" t="s">
+        <v>8344</v>
+      </c>
+      <c r="D1144" s="21" t="s">
+        <v>8345</v>
+      </c>
+      <c r="F1144" s="21" t="s">
+        <v>8346</v>
+      </c>
+      <c r="G1144" s="3" t="s">
+        <v>8347</v>
+      </c>
+      <c r="I1144" s="3" t="s">
+        <v>2433</v>
+      </c>
+      <c r="J1144" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1144" s="22" t="s">
+        <v>8348</v>
+      </c>
+      <c r="L1144" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1144" t="s">
+        <v>313</v>
+      </c>
+      <c r="N1144" s="38" t="s">
+        <v>5736</v>
+      </c>
+      <c r="O1144" t="s">
+        <v>313</v>
       </c>
       <c r="Q1144" t="s">
-        <v>8231</v>
+        <v>8349</v>
       </c>
       <c r="R1144" s="43">
-        <v>45716.706921296303</v>
+        <v>45771.699247685203</v>
       </c>
     </row>
     <row r="1145" spans="1:18">
       <c r="A1145" s="3" t="s">
-        <v>8288</v>
+        <v>8231</v>
       </c>
       <c r="B1145" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1145" s="21" t="s">
-        <v>8218</v>
-      </c>
-      <c r="E1145" s="23" t="s">
-        <v>8219</v>
-      </c>
-      <c r="F1145" s="21" t="s">
-        <v>8220</v>
-      </c>
-      <c r="G1145" s="3" t="s">
-        <v>8265</v>
-      </c>
-      <c r="I1145" s="3" t="s">
-        <v>8266</v>
-      </c>
-      <c r="J1145" s="22" t="s">
-        <v>8267</v>
-      </c>
-      <c r="K1145" s="22" t="s">
-        <v>8268</v>
-      </c>
-      <c r="M1145" t="s">
-        <v>8221</v>
+        <v>51</v>
       </c>
       <c r="Q1145" t="s">
-        <v>8264</v>
+        <v>8231</v>
+      </c>
+      <c r="R1145" s="43">
+        <v>45716.706921296303</v>
       </c>
     </row>
     <row r="1146" spans="1:18">
       <c r="A1146" s="3" t="s">
-        <v>8283</v>
+        <v>8288</v>
       </c>
       <c r="B1146" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1146" s="41" t="s">
-        <v>8284</v>
+        <v>92</v>
       </c>
       <c r="D1146" s="21" t="s">
-        <v>8285</v>
+        <v>8218</v>
+      </c>
+      <c r="E1146" s="23" t="s">
+        <v>8219</v>
       </c>
       <c r="F1146" s="21" t="s">
-        <v>8286</v>
+        <v>8220</v>
       </c>
       <c r="G1146" s="3" t="s">
-        <v>8287</v>
+        <v>8265</v>
       </c>
       <c r="I1146" s="3" t="s">
-        <v>245</v>
+        <v>8266</v>
       </c>
       <c r="J1146" s="22" t="s">
-        <v>563</v>
+        <v>8267</v>
+      </c>
+      <c r="K1146" s="22" t="s">
+        <v>8268</v>
+      </c>
+      <c r="M1146" t="s">
+        <v>8221</v>
       </c>
       <c r="Q1146" t="s">
-        <v>8283</v>
+        <v>8264</v>
       </c>
     </row>
     <row r="1147" spans="1:18">
       <c r="A1147" s="3" t="s">
-        <v>8289</v>
+        <v>8283</v>
       </c>
       <c r="B1147" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1147" s="41" t="s">
-        <v>8290</v>
+        <v>8284</v>
       </c>
       <c r="D1147" s="21" t="s">
-        <v>8291</v>
+        <v>8285</v>
       </c>
       <c r="F1147" s="21" t="s">
-        <v>8292</v>
-      </c>
-      <c r="M1147" t="s">
-        <v>8284</v>
+        <v>8286</v>
+      </c>
+      <c r="G1147" s="3" t="s">
+        <v>8287</v>
+      </c>
+      <c r="I1147" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1147" s="22" t="s">
+        <v>563</v>
       </c>
       <c r="Q1147" t="s">
-        <v>8293</v>
-      </c>
-      <c r="R1147" s="43">
-        <v>45732.587546296301</v>
+        <v>8283</v>
       </c>
     </row>
     <row r="1148" spans="1:18">
       <c r="A1148" s="3" t="s">
-        <v>8294</v>
+        <v>8289</v>
       </c>
       <c r="B1148" s="46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C1148" s="41" t="s">
-        <v>8295</v>
+        <v>8290</v>
       </c>
       <c r="D1148" s="21" t="s">
-        <v>8295</v>
-      </c>
-      <c r="E1148" s="23" t="s">
-        <v>167</v>
+        <v>8291</v>
       </c>
       <c r="F1148" s="21" t="s">
-        <v>8296</v>
+        <v>8292</v>
+      </c>
+      <c r="M1148" t="s">
+        <v>8284</v>
       </c>
       <c r="Q1148" t="s">
-        <v>8294</v>
+        <v>8293</v>
       </c>
       <c r="R1148" s="43">
-        <v>45738.6483449074</v>
+        <v>45732.587546296301</v>
       </c>
     </row>
     <row r="1149" spans="1:18">
       <c r="A1149" s="3" t="s">
-        <v>8297</v>
+        <v>8294</v>
       </c>
       <c r="B1149" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C1149" s="41" t="s">
-        <v>8297</v>
+        <v>8295</v>
       </c>
       <c r="D1149" s="21" t="s">
-        <v>8297</v>
+        <v>8295</v>
+      </c>
+      <c r="E1149" s="23" t="s">
+        <v>167</v>
       </c>
       <c r="F1149" s="21" t="s">
-        <v>8298</v>
+        <v>8296</v>
       </c>
       <c r="Q1149" t="s">
-        <v>8297</v>
+        <v>8294</v>
       </c>
       <c r="R1149" s="43">
-        <v>45743.487731481502</v>
+        <v>45738.6483449074</v>
       </c>
     </row>
     <row r="1150" spans="1:18">
       <c r="A1150" s="3" t="s">
-        <v>8391</v>
+        <v>8297</v>
       </c>
       <c r="B1150" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C1150" s="41" t="s">
-        <v>8392</v>
+        <v>8297</v>
       </c>
       <c r="D1150" s="21" t="s">
-        <v>8393</v>
+        <v>8297</v>
       </c>
       <c r="F1150" s="21" t="s">
-        <v>8394</v>
-      </c>
-      <c r="G1150" s="3" t="s">
-        <v>8395</v>
-      </c>
-      <c r="I1150" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1150" s="22" t="s">
-        <v>563</v>
-      </c>
-      <c r="K1150" s="22" t="s">
-        <v>4016</v>
+        <v>8298</v>
       </c>
       <c r="Q1150" t="s">
-        <v>8391</v>
+        <v>8297</v>
       </c>
       <c r="R1150" s="43">
-        <v>45784.950891203698</v>
+        <v>45743.487731481502</v>
       </c>
     </row>
     <row r="1151" spans="1:18">
       <c r="A1151" s="3" t="s">
-        <v>8396</v>
+        <v>8391</v>
       </c>
       <c r="B1151" s="46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1151" s="41" t="s">
-        <v>8397</v>
+        <v>8392</v>
       </c>
       <c r="D1151" s="21" t="s">
-        <v>8398</v>
+        <v>8393</v>
       </c>
       <c r="F1151" s="21" t="s">
-        <v>8398</v>
+        <v>8394</v>
       </c>
       <c r="G1151" s="3" t="s">
-        <v>8399</v>
+        <v>8395</v>
       </c>
       <c r="I1151" s="3" t="s">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="J1151" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1151" s="22" t="s">
-        <v>8400</v>
+        <v>4016</v>
       </c>
       <c r="Q1151" t="s">
-        <v>8396</v>
+        <v>8391</v>
       </c>
       <c r="R1151" s="43">
-        <v>45784.950520833299</v>
+        <v>45784.950891203698</v>
       </c>
     </row>
     <row r="1152" spans="1:18">
       <c r="A1152" s="3" t="s">
-        <v>8406</v>
+        <v>8396</v>
       </c>
       <c r="B1152" s="46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1152" s="41" t="s">
-        <v>8407</v>
+        <v>8397</v>
       </c>
       <c r="D1152" s="21" t="s">
-        <v>8408</v>
+        <v>8398</v>
       </c>
       <c r="F1152" s="21" t="s">
-        <v>8409</v>
+        <v>8398</v>
       </c>
       <c r="G1152" s="3" t="s">
-        <v>8411</v>
+        <v>8399</v>
       </c>
       <c r="I1152" s="3" t="s">
         <v>245</v>
@@ -74366,101 +74416,175 @@
         <v>563</v>
       </c>
       <c r="K1152" s="22" t="s">
-        <v>8412</v>
-      </c>
-      <c r="M1152" s="25" t="s">
-        <v>8410</v>
-      </c>
-      <c r="N1152" s="24"/>
-      <c r="O1152" s="25"/>
-      <c r="P1152" s="25"/>
-      <c r="Q1152" s="25" t="s">
-        <v>8406</v>
+        <v>8400</v>
+      </c>
+      <c r="Q1152" t="s">
+        <v>8396</v>
       </c>
       <c r="R1152" s="43">
-        <v>45785.929756944402</v>
+        <v>45784.950520833299</v>
       </c>
     </row>
     <row r="1153" spans="1:18">
       <c r="A1153" s="3" t="s">
-        <v>8446</v>
+        <v>8406</v>
       </c>
       <c r="B1153" s="46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C1153" s="41" t="s">
-        <v>8447</v>
-      </c>
-      <c r="E1153" s="23" t="s">
-        <v>6080</v>
+        <v>8407</v>
+      </c>
+      <c r="D1153" s="21" t="s">
+        <v>8408</v>
       </c>
       <c r="F1153" s="21" t="s">
-        <v>8448</v>
+        <v>8409</v>
       </c>
       <c r="G1153" s="3" t="s">
-        <v>8449</v>
+        <v>8411</v>
       </c>
       <c r="I1153" s="3" t="s">
-        <v>8266</v>
+        <v>245</v>
       </c>
       <c r="J1153" s="22" t="s">
-        <v>8267</v>
+        <v>563</v>
       </c>
       <c r="K1153" s="22" t="s">
-        <v>8450</v>
-      </c>
-      <c r="M1153" s="25"/>
+        <v>8412</v>
+      </c>
+      <c r="M1153" s="25" t="s">
+        <v>8410</v>
+      </c>
       <c r="N1153" s="24"/>
       <c r="O1153" s="25"/>
       <c r="P1153" s="25"/>
       <c r="Q1153" s="25" t="s">
+        <v>8406</v>
+      </c>
+      <c r="R1153" s="43">
+        <v>45785.929756944402</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:18">
+      <c r="A1154" s="3" t="s">
         <v>8446</v>
       </c>
-      <c r="R1153" s="43">
+      <c r="B1154" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1154" s="41" t="s">
+        <v>8447</v>
+      </c>
+      <c r="E1154" s="23" t="s">
+        <v>6080</v>
+      </c>
+      <c r="F1154" s="21" t="s">
+        <v>8448</v>
+      </c>
+      <c r="G1154" s="3" t="s">
+        <v>8449</v>
+      </c>
+      <c r="I1154" s="3" t="s">
+        <v>8266</v>
+      </c>
+      <c r="J1154" s="22" t="s">
+        <v>8267</v>
+      </c>
+      <c r="K1154" s="22" t="s">
+        <v>8450</v>
+      </c>
+      <c r="M1154" s="25"/>
+      <c r="N1154" s="24"/>
+      <c r="O1154" s="25"/>
+      <c r="P1154" s="25"/>
+      <c r="Q1154" s="25" t="s">
+        <v>8446</v>
+      </c>
+      <c r="R1154" s="43">
         <v>45798.954733796301</v>
       </c>
     </row>
+    <row r="1155" spans="1:18">
+      <c r="A1155" s="31" t="s">
+        <v>8457</v>
+      </c>
+      <c r="B1155" s="31" t="s">
+        <v>8458</v>
+      </c>
+      <c r="C1155" s="31" t="s">
+        <v>7424</v>
+      </c>
+      <c r="D1155" s="31" t="s">
+        <v>8459</v>
+      </c>
+      <c r="E1155" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1155" s="31" t="s">
+        <v>8460</v>
+      </c>
+      <c r="G1155" s="31" t="s">
+        <v>8461</v>
+      </c>
+      <c r="I1155" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1155" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1155" s="31" t="s">
+        <v>8462</v>
+      </c>
+      <c r="L1155" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1155" s="31" t="s">
+        <v>3420</v>
+      </c>
+      <c r="Q1155" s="31" t="s">
+        <v>8463</v>
+      </c>
+      <c r="R1155" s="47">
+        <v>45805.666157407402</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R1146" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1150:R1152">
-    <sortCondition ref="B1150:B1152"/>
+  <autoFilter ref="A1:R1147" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1151:R1153">
+    <sortCondition ref="B1151:B1153"/>
   </sortState>
-  <conditionalFormatting sqref="A2:R1152">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="A2:R1154">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1153:R1153">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($A1153&lt;&gt;"",MOD(ROW(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F1134" r:id="rId1" xr:uid="{F456DE86-0DC4-459B-8786-AEB12C0F36B0}"/>
-    <hyperlink ref="F1133" r:id="rId2" xr:uid="{A987B60B-629E-450A-AFE5-A7284329CD96}"/>
-    <hyperlink ref="F1132" r:id="rId3" xr:uid="{BDA96C0A-370D-46F7-82B7-86D5AE155E9F}"/>
-    <hyperlink ref="F1131" r:id="rId4" xr:uid="{E0EF30A2-FEE8-48F7-905E-3DCEE9D90336}"/>
-    <hyperlink ref="F1130" r:id="rId5" xr:uid="{F5EE9F94-288C-4D35-98F2-B7DF314331DE}"/>
-    <hyperlink ref="F1129" r:id="rId6" xr:uid="{A71B48CB-C499-456A-8FFD-47EFE60A828E}"/>
-    <hyperlink ref="F1128" r:id="rId7" xr:uid="{AF04FF5C-ADCA-44DC-B3B2-A425FC0DCFD9}"/>
-    <hyperlink ref="F1127" r:id="rId8" xr:uid="{F55EAFC5-5519-4A1F-80D4-95B4D202FE38}"/>
-    <hyperlink ref="F1126" r:id="rId9" xr:uid="{5FE20200-FB86-452E-8BE1-863A3C65BD07}"/>
-    <hyperlink ref="F1125" r:id="rId10" xr:uid="{8F88B4B6-197E-4940-B572-1769D2C402A3}"/>
-    <hyperlink ref="F1124" r:id="rId11" xr:uid="{DACEA89F-4573-408A-AA3D-AAFC4DF8DB2E}"/>
-    <hyperlink ref="F1123" r:id="rId12" xr:uid="{BF25E2D2-8541-4371-99B7-17A8B86CC8F6}"/>
-    <hyperlink ref="F1122" r:id="rId13" xr:uid="{57CD897B-E530-431D-A4B5-59D9C0F63217}"/>
-    <hyperlink ref="F1121" r:id="rId14" xr:uid="{CEEE77DB-0464-4890-9DA6-629F365AAC93}"/>
-    <hyperlink ref="F1120" r:id="rId15" xr:uid="{D183A8CF-2618-4DDD-8523-A347B0789735}"/>
-    <hyperlink ref="F1119" r:id="rId16" xr:uid="{B44DC245-3939-4FC4-B86F-7F55F80E20F1}"/>
-    <hyperlink ref="F1118" r:id="rId17" xr:uid="{77BEB31C-67F9-4892-974A-C42D173ACEC7}"/>
-    <hyperlink ref="F1117" r:id="rId18" xr:uid="{802015E0-18C1-4D8F-BD48-60606EF00558}"/>
-    <hyperlink ref="F1116" r:id="rId19" xr:uid="{185AA3D8-0081-42DB-B36C-3B1B4DF6AE78}"/>
-    <hyperlink ref="F1115" r:id="rId20" xr:uid="{C92F0FF0-F014-47C6-8A1D-37500F8CB37C}"/>
-    <hyperlink ref="F1114" r:id="rId21" xr:uid="{A79E531F-E421-48DC-B313-0C433AA33C66}"/>
-    <hyperlink ref="F1113" r:id="rId22" xr:uid="{CF6C1299-30F9-427A-9C11-CDEF3096DB13}"/>
-    <hyperlink ref="F1112" r:id="rId23" xr:uid="{B0ED86D2-3643-405A-B6A7-581D3F444E88}"/>
-    <hyperlink ref="F1111" r:id="rId24" xr:uid="{3643C6A3-6F1E-403F-B5BD-A7251D505F5B}"/>
-    <hyperlink ref="F1109" r:id="rId25" xr:uid="{0E92FFCB-F966-4697-91BE-A3130C1CAE25}"/>
+    <hyperlink ref="F1135" r:id="rId1" xr:uid="{F456DE86-0DC4-459B-8786-AEB12C0F36B0}"/>
+    <hyperlink ref="F1134" r:id="rId2" xr:uid="{A987B60B-629E-450A-AFE5-A7284329CD96}"/>
+    <hyperlink ref="F1133" r:id="rId3" xr:uid="{BDA96C0A-370D-46F7-82B7-86D5AE155E9F}"/>
+    <hyperlink ref="F1132" r:id="rId4" xr:uid="{E0EF30A2-FEE8-48F7-905E-3DCEE9D90336}"/>
+    <hyperlink ref="F1131" r:id="rId5" xr:uid="{F5EE9F94-288C-4D35-98F2-B7DF314331DE}"/>
+    <hyperlink ref="F1130" r:id="rId6" xr:uid="{A71B48CB-C499-456A-8FFD-47EFE60A828E}"/>
+    <hyperlink ref="F1129" r:id="rId7" xr:uid="{AF04FF5C-ADCA-44DC-B3B2-A425FC0DCFD9}"/>
+    <hyperlink ref="F1128" r:id="rId8" xr:uid="{F55EAFC5-5519-4A1F-80D4-95B4D202FE38}"/>
+    <hyperlink ref="F1127" r:id="rId9" xr:uid="{5FE20200-FB86-452E-8BE1-863A3C65BD07}"/>
+    <hyperlink ref="F1126" r:id="rId10" xr:uid="{8F88B4B6-197E-4940-B572-1769D2C402A3}"/>
+    <hyperlink ref="F1125" r:id="rId11" xr:uid="{DACEA89F-4573-408A-AA3D-AAFC4DF8DB2E}"/>
+    <hyperlink ref="F1124" r:id="rId12" xr:uid="{BF25E2D2-8541-4371-99B7-17A8B86CC8F6}"/>
+    <hyperlink ref="F1123" r:id="rId13" xr:uid="{57CD897B-E530-431D-A4B5-59D9C0F63217}"/>
+    <hyperlink ref="F1122" r:id="rId14" xr:uid="{CEEE77DB-0464-4890-9DA6-629F365AAC93}"/>
+    <hyperlink ref="F1121" r:id="rId15" xr:uid="{D183A8CF-2618-4DDD-8523-A347B0789735}"/>
+    <hyperlink ref="F1120" r:id="rId16" xr:uid="{B44DC245-3939-4FC4-B86F-7F55F80E20F1}"/>
+    <hyperlink ref="F1119" r:id="rId17" xr:uid="{77BEB31C-67F9-4892-974A-C42D173ACEC7}"/>
+    <hyperlink ref="F1118" r:id="rId18" xr:uid="{802015E0-18C1-4D8F-BD48-60606EF00558}"/>
+    <hyperlink ref="F1117" r:id="rId19" xr:uid="{185AA3D8-0081-42DB-B36C-3B1B4DF6AE78}"/>
+    <hyperlink ref="F1116" r:id="rId20" xr:uid="{C92F0FF0-F014-47C6-8A1D-37500F8CB37C}"/>
+    <hyperlink ref="F1115" r:id="rId21" xr:uid="{A79E531F-E421-48DC-B313-0C433AA33C66}"/>
+    <hyperlink ref="F1114" r:id="rId22" xr:uid="{CF6C1299-30F9-427A-9C11-CDEF3096DB13}"/>
+    <hyperlink ref="F1113" r:id="rId23" xr:uid="{B0ED86D2-3643-405A-B6A7-581D3F444E88}"/>
+    <hyperlink ref="F1112" r:id="rId24" xr:uid="{3643C6A3-6F1E-403F-B5BD-A7251D505F5B}"/>
+    <hyperlink ref="F1110" r:id="rId25" xr:uid="{0E92FFCB-F966-4697-91BE-A3130C1CAE25}"/>
     <hyperlink ref="F373" r:id="rId26" xr:uid="{B4AE46D0-0113-43B5-920F-41BAD7FB12F3}"/>
     <hyperlink ref="F360" r:id="rId27" xr:uid="{6A53CFF1-B4AE-4894-AF74-B4B080E1676D}"/>
     <hyperlink ref="F357" r:id="rId28" xr:uid="{FC91B321-7F3C-4B7C-978D-FF322BE215D6}"/>
@@ -76572,7 +76696,7 @@
     <sortCondition ref="A1:A20"/>
   </sortState>
   <conditionalFormatting sqref="A2:L9999">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -83444,7 +83568,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D67">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71B4FC9-90A2-4273-949A-B82EFA8F4A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A255B1B-0565-4A76-8E06-E21061BB85EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2640" windowWidth="28800" windowHeight="11385" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="PlanComptable" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clients!$A$1:$R$1147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clients!$A$1:$R$1148</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fournisseurs!$A$1:$K$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -25669,7 +25669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -25795,15 +25795,19 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -26141,9 +26145,9 @@
   <dimension ref="A1:R1155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1141" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A1101" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A1154" sqref="A1154:XFD1154"/>
+      <selection pane="bottomLeft" activeCell="A1111" sqref="A1111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -72469,75 +72473,69 @@
     </row>
     <row r="1110" spans="1:18">
       <c r="A1110" s="3" t="s">
-        <v>6488</v>
+        <v>8457</v>
       </c>
       <c r="B1110" s="46" t="s">
-        <v>45</v>
+        <v>8458</v>
       </c>
       <c r="C1110" s="41" t="s">
-        <v>7450</v>
+        <v>7424</v>
       </c>
       <c r="D1110" s="21" t="s">
-        <v>2243</v>
+        <v>8459</v>
       </c>
       <c r="E1110" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1110" s="21" t="s">
-        <v>2244</v>
+        <v>8460</v>
       </c>
       <c r="G1110" s="3" t="s">
-        <v>2245</v>
+        <v>8461</v>
       </c>
       <c r="I1110" s="3" t="s">
-        <v>2224</v>
+        <v>245</v>
       </c>
       <c r="J1110" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1110" s="22" t="s">
-        <v>2246</v>
+        <v>8462</v>
       </c>
       <c r="L1110" s="22" t="s">
         <v>153</v>
       </c>
       <c r="M1110" t="s">
-        <v>313</v>
-      </c>
-      <c r="N1110" s="38" t="s">
-        <v>5737</v>
-      </c>
-      <c r="O1110" t="s">
-        <v>313</v>
-      </c>
-      <c r="P1110" t="s">
-        <v>5282</v>
+        <v>3420</v>
       </c>
       <c r="Q1110" t="s">
-        <v>8064</v>
+        <v>8463</v>
       </c>
       <c r="R1110" s="43">
-        <v>45591.506944444402</v>
+        <v>45805.666157407402</v>
       </c>
     </row>
     <row r="1111" spans="1:18">
       <c r="A1111" s="3" t="s">
-        <v>6901</v>
+        <v>6488</v>
       </c>
       <c r="B1111" s="46" t="s">
-        <v>5738</v>
+        <v>45</v>
       </c>
       <c r="C1111" s="41" t="s">
-        <v>7440</v>
+        <v>7450</v>
       </c>
       <c r="D1111" s="21" t="s">
-        <v>6904</v>
+        <v>2243</v>
       </c>
       <c r="E1111" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="F1111" s="21" t="s">
+        <v>2244</v>
       </c>
       <c r="G1111" s="3" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="I1111" s="3" t="s">
         <v>2224</v>
@@ -72546,7 +72544,7 @@
         <v>563</v>
       </c>
       <c r="K1111" s="22" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="L1111" s="22" t="s">
         <v>153</v>
@@ -72555,48 +72553,48 @@
         <v>313</v>
       </c>
       <c r="N1111" s="38" t="s">
-        <v>2734</v>
+        <v>5737</v>
       </c>
       <c r="O1111" t="s">
         <v>313</v>
       </c>
+      <c r="P1111" t="s">
+        <v>5282</v>
+      </c>
       <c r="Q1111" t="s">
-        <v>8065</v>
+        <v>8064</v>
       </c>
       <c r="R1111" s="43">
-        <v>45592.251759259299</v>
+        <v>45591.506944444402</v>
       </c>
     </row>
     <row r="1112" spans="1:18">
       <c r="A1112" s="3" t="s">
-        <v>6898</v>
+        <v>6901</v>
       </c>
       <c r="B1112" s="46" t="s">
-        <v>5739</v>
+        <v>5738</v>
       </c>
       <c r="C1112" s="41" t="s">
-        <v>7416</v>
+        <v>7440</v>
       </c>
       <c r="D1112" s="21" t="s">
-        <v>6905</v>
+        <v>6904</v>
       </c>
       <c r="E1112" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1112" s="21" t="s">
-        <v>2249</v>
+        <v>165</v>
       </c>
       <c r="G1112" s="3" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
       <c r="I1112" s="3" t="s">
-        <v>245</v>
+        <v>2224</v>
       </c>
       <c r="J1112" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1112" s="22" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="L1112" s="22" t="s">
         <v>153</v>
@@ -72605,48 +72603,48 @@
         <v>313</v>
       </c>
       <c r="N1112" s="38" t="s">
-        <v>5558</v>
+        <v>2734</v>
       </c>
       <c r="O1112" t="s">
         <v>313</v>
       </c>
       <c r="Q1112" t="s">
-        <v>8066</v>
+        <v>8065</v>
       </c>
       <c r="R1112" s="43">
-        <v>45591.506944444402</v>
+        <v>45592.251759259299</v>
       </c>
     </row>
     <row r="1113" spans="1:18">
       <c r="A1113" s="3" t="s">
-        <v>6902</v>
+        <v>6898</v>
       </c>
       <c r="B1113" s="46" t="s">
-        <v>5740</v>
+        <v>5739</v>
       </c>
       <c r="C1113" s="41" t="s">
-        <v>7448</v>
+        <v>7416</v>
       </c>
       <c r="D1113" s="21" t="s">
-        <v>6906</v>
+        <v>6905</v>
       </c>
       <c r="E1113" s="23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F1113" s="21" t="s">
-        <v>1561</v>
+        <v>2249</v>
       </c>
       <c r="G1113" s="3" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="I1113" s="3" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="J1113" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1113" s="22" t="s">
-        <v>1563</v>
+        <v>2251</v>
       </c>
       <c r="L1113" s="22" t="s">
         <v>153</v>
@@ -72655,16 +72653,13 @@
         <v>313</v>
       </c>
       <c r="N1113" s="38" t="s">
-        <v>2734</v>
+        <v>5558</v>
       </c>
       <c r="O1113" t="s">
         <v>313</v>
       </c>
-      <c r="P1113" t="s">
-        <v>5282</v>
-      </c>
       <c r="Q1113" t="s">
-        <v>8067</v>
+        <v>8066</v>
       </c>
       <c r="R1113" s="43">
         <v>45591.506944444402</v>
@@ -72672,34 +72667,34 @@
     </row>
     <row r="1114" spans="1:18">
       <c r="A1114" s="3" t="s">
-        <v>6489</v>
+        <v>6902</v>
       </c>
       <c r="B1114" s="46" t="s">
-        <v>5741</v>
+        <v>5740</v>
       </c>
       <c r="C1114" s="41" t="s">
-        <v>7431</v>
+        <v>7448</v>
       </c>
       <c r="D1114" s="21" t="s">
-        <v>2253</v>
+        <v>6906</v>
       </c>
       <c r="E1114" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F1114" s="21" t="s">
-        <v>2254</v>
+        <v>1561</v>
       </c>
       <c r="G1114" s="3" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
       <c r="I1114" s="3" t="s">
-        <v>2256</v>
+        <v>154</v>
       </c>
       <c r="J1114" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1114" s="22" t="s">
-        <v>2257</v>
+        <v>1563</v>
       </c>
       <c r="L1114" s="22" t="s">
         <v>153</v>
@@ -72713,8 +72708,11 @@
       <c r="O1114" t="s">
         <v>313</v>
       </c>
+      <c r="P1114" t="s">
+        <v>5282</v>
+      </c>
       <c r="Q1114" t="s">
-        <v>8068</v>
+        <v>8067</v>
       </c>
       <c r="R1114" s="43">
         <v>45591.506944444402</v>
@@ -72722,34 +72720,34 @@
     </row>
     <row r="1115" spans="1:18">
       <c r="A1115" s="3" t="s">
-        <v>6490</v>
+        <v>6489</v>
       </c>
       <c r="B1115" s="46" t="s">
-        <v>47</v>
+        <v>5741</v>
       </c>
       <c r="C1115" s="41" t="s">
-        <v>7211</v>
+        <v>7431</v>
       </c>
       <c r="D1115" s="21" t="s">
-        <v>2258</v>
+        <v>2253</v>
       </c>
       <c r="E1115" s="23" t="s">
-        <v>2259</v>
+        <v>166</v>
       </c>
       <c r="F1115" s="21" t="s">
-        <v>705</v>
+        <v>2254</v>
       </c>
       <c r="G1115" s="3" t="s">
-        <v>2260</v>
+        <v>2255</v>
       </c>
       <c r="I1115" s="3" t="s">
-        <v>1148</v>
+        <v>2256</v>
       </c>
       <c r="J1115" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1115" s="22" t="s">
-        <v>708</v>
+        <v>2257</v>
       </c>
       <c r="L1115" s="22" t="s">
         <v>153</v>
@@ -72763,11 +72761,8 @@
       <c r="O1115" t="s">
         <v>313</v>
       </c>
-      <c r="P1115" t="s">
-        <v>5750</v>
-      </c>
       <c r="Q1115" t="s">
-        <v>8151</v>
+        <v>8068</v>
       </c>
       <c r="R1115" s="43">
         <v>45591.506944444402</v>
@@ -72775,34 +72770,34 @@
     </row>
     <row r="1116" spans="1:18">
       <c r="A1116" s="3" t="s">
-        <v>6491</v>
+        <v>6490</v>
       </c>
       <c r="B1116" s="46" t="s">
-        <v>5742</v>
+        <v>47</v>
       </c>
       <c r="C1116" s="41" t="s">
-        <v>7496</v>
+        <v>7211</v>
       </c>
       <c r="D1116" s="21" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="E1116" s="23" t="s">
         <v>2259</v>
       </c>
       <c r="F1116" s="21" t="s">
-        <v>2262</v>
+        <v>705</v>
       </c>
       <c r="G1116" s="3" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="I1116" s="3" t="s">
-        <v>2264</v>
+        <v>1148</v>
       </c>
       <c r="J1116" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1116" s="22" t="s">
-        <v>2265</v>
+        <v>708</v>
       </c>
       <c r="L1116" s="22" t="s">
         <v>153</v>
@@ -72816,8 +72811,11 @@
       <c r="O1116" t="s">
         <v>313</v>
       </c>
+      <c r="P1116" t="s">
+        <v>5750</v>
+      </c>
       <c r="Q1116" t="s">
-        <v>8069</v>
+        <v>8151</v>
       </c>
       <c r="R1116" s="43">
         <v>45591.506944444402</v>
@@ -72825,34 +72823,34 @@
     </row>
     <row r="1117" spans="1:18">
       <c r="A1117" s="3" t="s">
-        <v>6903</v>
+        <v>6491</v>
       </c>
       <c r="B1117" s="46" t="s">
-        <v>5743</v>
+        <v>5742</v>
       </c>
       <c r="C1117" s="41" t="s">
-        <v>7495</v>
+        <v>7496</v>
       </c>
       <c r="D1117" s="21" t="s">
-        <v>6907</v>
+        <v>2261</v>
       </c>
       <c r="E1117" s="23" t="s">
         <v>2259</v>
       </c>
       <c r="F1117" s="21" t="s">
-        <v>2267</v>
+        <v>2262</v>
       </c>
       <c r="G1117" s="3" t="s">
-        <v>2268</v>
+        <v>2263</v>
       </c>
       <c r="I1117" s="3" t="s">
-        <v>412</v>
+        <v>2264</v>
       </c>
       <c r="J1117" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1117" s="22" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
       <c r="L1117" s="22" t="s">
         <v>153</v>
@@ -72866,11 +72864,8 @@
       <c r="O1117" t="s">
         <v>313</v>
       </c>
-      <c r="P1117" t="s">
-        <v>5282</v>
-      </c>
       <c r="Q1117" t="s">
-        <v>8070</v>
+        <v>8069</v>
       </c>
       <c r="R1117" s="43">
         <v>45591.506944444402</v>
@@ -72878,34 +72873,34 @@
     </row>
     <row r="1118" spans="1:18">
       <c r="A1118" s="3" t="s">
-        <v>6492</v>
+        <v>6903</v>
       </c>
       <c r="B1118" s="46" t="s">
-        <v>5744</v>
+        <v>5743</v>
       </c>
       <c r="C1118" s="41" t="s">
-        <v>7532</v>
+        <v>7495</v>
       </c>
       <c r="D1118" s="21" t="s">
-        <v>2270</v>
+        <v>6907</v>
       </c>
       <c r="E1118" s="23" t="s">
-        <v>166</v>
+        <v>2259</v>
       </c>
       <c r="F1118" s="21" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
       <c r="G1118" s="3" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
       <c r="I1118" s="3" t="s">
-        <v>239</v>
+        <v>412</v>
       </c>
       <c r="J1118" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1118" s="22" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="L1118" s="22" t="s">
         <v>153</v>
@@ -72923,7 +72918,7 @@
         <v>5282</v>
       </c>
       <c r="Q1118" t="s">
-        <v>7907</v>
+        <v>8070</v>
       </c>
       <c r="R1118" s="43">
         <v>45591.506944444402</v>
@@ -72931,34 +72926,34 @@
     </row>
     <row r="1119" spans="1:18">
       <c r="A1119" s="3" t="s">
-        <v>7769</v>
+        <v>6492</v>
       </c>
       <c r="B1119" s="46" t="s">
-        <v>5745</v>
+        <v>5744</v>
       </c>
       <c r="C1119" s="41" t="s">
-        <v>7429</v>
+        <v>7532</v>
       </c>
       <c r="D1119" s="21" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="E1119" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1119" s="21" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
       <c r="G1119" s="3" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="I1119" s="3" t="s">
-        <v>2277</v>
+        <v>239</v>
       </c>
       <c r="J1119" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1119" s="22" t="s">
-        <v>2278</v>
+        <v>2273</v>
       </c>
       <c r="L1119" s="22" t="s">
         <v>153</v>
@@ -72967,48 +72962,51 @@
         <v>313</v>
       </c>
       <c r="N1119" s="38" t="s">
-        <v>5746</v>
+        <v>2734</v>
       </c>
       <c r="O1119" t="s">
         <v>313</v>
       </c>
+      <c r="P1119" t="s">
+        <v>5282</v>
+      </c>
       <c r="Q1119" t="s">
-        <v>8152</v>
+        <v>7907</v>
       </c>
       <c r="R1119" s="43">
-        <v>45626.355034722197</v>
+        <v>45591.506944444402</v>
       </c>
     </row>
     <row r="1120" spans="1:18">
       <c r="A1120" s="3" t="s">
-        <v>6493</v>
+        <v>7769</v>
       </c>
       <c r="B1120" s="46" t="s">
-        <v>5747</v>
+        <v>5745</v>
       </c>
       <c r="C1120" s="41" t="s">
-        <v>7435</v>
+        <v>7429</v>
       </c>
       <c r="D1120" s="21" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="E1120" s="23" t="s">
-        <v>2280</v>
+        <v>166</v>
       </c>
       <c r="F1120" s="21" t="s">
-        <v>2281</v>
+        <v>2275</v>
       </c>
       <c r="G1120" s="3" t="s">
-        <v>2282</v>
+        <v>2276</v>
       </c>
       <c r="I1120" s="3" t="s">
-        <v>245</v>
+        <v>2277</v>
       </c>
       <c r="J1120" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1120" s="22" t="s">
-        <v>2283</v>
+        <v>2278</v>
       </c>
       <c r="L1120" s="22" t="s">
         <v>153</v>
@@ -73017,48 +73015,48 @@
         <v>313</v>
       </c>
       <c r="N1120" s="38" t="s">
-        <v>2734</v>
+        <v>5746</v>
       </c>
       <c r="O1120" t="s">
         <v>313</v>
       </c>
       <c r="Q1120" t="s">
-        <v>7908</v>
+        <v>8152</v>
       </c>
       <c r="R1120" s="43">
-        <v>45591.506944444402</v>
+        <v>45626.355034722197</v>
       </c>
     </row>
     <row r="1121" spans="1:18">
       <c r="A1121" s="3" t="s">
-        <v>6494</v>
+        <v>6493</v>
       </c>
       <c r="B1121" s="46" t="s">
-        <v>5748</v>
+        <v>5747</v>
       </c>
       <c r="C1121" s="41" t="s">
-        <v>7243</v>
+        <v>7435</v>
       </c>
       <c r="D1121" s="21" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
       <c r="E1121" s="23" t="s">
-        <v>165</v>
+        <v>2280</v>
       </c>
       <c r="F1121" s="21" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
       <c r="G1121" s="3" t="s">
-        <v>2286</v>
+        <v>2282</v>
       </c>
       <c r="I1121" s="3" t="s">
-        <v>1513</v>
+        <v>245</v>
       </c>
       <c r="J1121" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1121" s="22" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
       <c r="L1121" s="22" t="s">
         <v>153</v>
@@ -73067,13 +73065,13 @@
         <v>313</v>
       </c>
       <c r="N1121" s="38" t="s">
-        <v>5310</v>
+        <v>2734</v>
       </c>
       <c r="O1121" t="s">
         <v>313</v>
       </c>
       <c r="Q1121" t="s">
-        <v>6494</v>
+        <v>7908</v>
       </c>
       <c r="R1121" s="43">
         <v>45591.506944444402</v>
@@ -73081,13 +73079,13 @@
     </row>
     <row r="1122" spans="1:18">
       <c r="A1122" s="3" t="s">
-        <v>6495</v>
+        <v>6494</v>
       </c>
       <c r="B1122" s="46" t="s">
-        <v>5749</v>
+        <v>5748</v>
       </c>
       <c r="C1122" s="41" t="s">
-        <v>7433</v>
+        <v>7243</v>
       </c>
       <c r="D1122" s="21" t="s">
         <v>2284</v>
@@ -73123,7 +73121,7 @@
         <v>313</v>
       </c>
       <c r="Q1122" t="s">
-        <v>7909</v>
+        <v>6494</v>
       </c>
       <c r="R1122" s="43">
         <v>45591.506944444402</v>
@@ -73131,31 +73129,34 @@
     </row>
     <row r="1123" spans="1:18">
       <c r="A1123" s="3" t="s">
-        <v>5812</v>
+        <v>6495</v>
       </c>
       <c r="B1123" s="46" t="s">
-        <v>5281</v>
+        <v>5749</v>
+      </c>
+      <c r="C1123" s="41" t="s">
+        <v>7433</v>
       </c>
       <c r="D1123" s="21" t="s">
-        <v>2258</v>
+        <v>2284</v>
       </c>
       <c r="E1123" s="23" t="s">
-        <v>821</v>
+        <v>165</v>
       </c>
       <c r="F1123" s="21" t="s">
-        <v>705</v>
+        <v>2285</v>
       </c>
       <c r="G1123" s="3" t="s">
-        <v>2260</v>
+        <v>2286</v>
       </c>
       <c r="I1123" s="3" t="s">
-        <v>1148</v>
+        <v>1513</v>
       </c>
       <c r="J1123" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1123" s="22" t="s">
-        <v>708</v>
+        <v>2287</v>
       </c>
       <c r="L1123" s="22" t="s">
         <v>153</v>
@@ -73164,16 +73165,13 @@
         <v>313</v>
       </c>
       <c r="N1123" s="38" t="s">
-        <v>5746</v>
+        <v>5310</v>
       </c>
       <c r="O1123" t="s">
         <v>313</v>
       </c>
-      <c r="P1123" t="s">
-        <v>5282</v>
-      </c>
       <c r="Q1123" t="s">
-        <v>5812</v>
+        <v>7909</v>
       </c>
       <c r="R1123" s="43">
         <v>45591.506944444402</v>
@@ -73181,34 +73179,31 @@
     </row>
     <row r="1124" spans="1:18">
       <c r="A1124" s="3" t="s">
-        <v>6496</v>
+        <v>5812</v>
       </c>
       <c r="B1124" s="46" t="s">
-        <v>5751</v>
-      </c>
-      <c r="C1124" s="41" t="s">
-        <v>7442</v>
+        <v>5281</v>
       </c>
       <c r="D1124" s="21" t="s">
-        <v>2266</v>
+        <v>2258</v>
       </c>
       <c r="E1124" s="23" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="F1124" s="21" t="s">
-        <v>2267</v>
+        <v>705</v>
       </c>
       <c r="G1124" s="3" t="s">
-        <v>2268</v>
+        <v>2260</v>
       </c>
       <c r="I1124" s="3" t="s">
-        <v>412</v>
+        <v>1148</v>
       </c>
       <c r="J1124" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1124" s="22" t="s">
-        <v>2269</v>
+        <v>708</v>
       </c>
       <c r="L1124" s="22" t="s">
         <v>153</v>
@@ -73217,7 +73212,7 @@
         <v>313</v>
       </c>
       <c r="N1124" s="38" t="s">
-        <v>5752</v>
+        <v>5746</v>
       </c>
       <c r="O1124" t="s">
         <v>313</v>
@@ -73226,7 +73221,7 @@
         <v>5282</v>
       </c>
       <c r="Q1124" t="s">
-        <v>7910</v>
+        <v>5812</v>
       </c>
       <c r="R1124" s="43">
         <v>45591.506944444402</v>
@@ -73234,13 +73229,13 @@
     </row>
     <row r="1125" spans="1:18">
       <c r="A1125" s="3" t="s">
-        <v>6497</v>
+        <v>6496</v>
       </c>
       <c r="B1125" s="46" t="s">
-        <v>5753</v>
+        <v>5751</v>
       </c>
       <c r="C1125" s="41" t="s">
-        <v>7476</v>
+        <v>7442</v>
       </c>
       <c r="D1125" s="21" t="s">
         <v>2266</v>
@@ -73279,7 +73274,7 @@
         <v>5282</v>
       </c>
       <c r="Q1125" t="s">
-        <v>7911</v>
+        <v>7910</v>
       </c>
       <c r="R1125" s="43">
         <v>45591.506944444402</v>
@@ -73287,34 +73282,34 @@
     </row>
     <row r="1126" spans="1:18">
       <c r="A1126" s="3" t="s">
-        <v>6899</v>
+        <v>6497</v>
       </c>
       <c r="B1126" s="46" t="s">
-        <v>5754</v>
+        <v>5753</v>
       </c>
       <c r="C1126" s="41" t="s">
-        <v>7372</v>
+        <v>7476</v>
       </c>
       <c r="D1126" s="21" t="s">
-        <v>6908</v>
+        <v>2266</v>
       </c>
       <c r="E1126" s="23" t="s">
         <v>844</v>
       </c>
       <c r="F1126" s="21" t="s">
-        <v>2288</v>
+        <v>2267</v>
       </c>
       <c r="G1126" s="3" t="s">
-        <v>2289</v>
+        <v>2268</v>
       </c>
       <c r="I1126" s="3" t="s">
-        <v>2290</v>
+        <v>412</v>
       </c>
       <c r="J1126" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1126" s="22" t="s">
-        <v>2291</v>
+        <v>2269</v>
       </c>
       <c r="L1126" s="22" t="s">
         <v>153</v>
@@ -73323,13 +73318,16 @@
         <v>313</v>
       </c>
       <c r="N1126" s="38" t="s">
-        <v>2734</v>
+        <v>5752</v>
       </c>
       <c r="O1126" t="s">
-        <v>2292</v>
+        <v>313</v>
+      </c>
+      <c r="P1126" t="s">
+        <v>5282</v>
       </c>
       <c r="Q1126" t="s">
-        <v>7912</v>
+        <v>7911</v>
       </c>
       <c r="R1126" s="43">
         <v>45591.506944444402</v>
@@ -73337,34 +73335,34 @@
     </row>
     <row r="1127" spans="1:18">
       <c r="A1127" s="3" t="s">
-        <v>6498</v>
+        <v>6899</v>
       </c>
       <c r="B1127" s="46" t="s">
-        <v>5755</v>
+        <v>5754</v>
       </c>
       <c r="C1127" s="41" t="s">
-        <v>7536</v>
+        <v>7372</v>
       </c>
       <c r="D1127" s="21" t="s">
-        <v>2293</v>
+        <v>6908</v>
       </c>
       <c r="E1127" s="23" t="s">
-        <v>166</v>
+        <v>844</v>
       </c>
       <c r="F1127" s="21" t="s">
-        <v>2294</v>
+        <v>2288</v>
       </c>
       <c r="G1127" s="3" t="s">
-        <v>2295</v>
+        <v>2289</v>
       </c>
       <c r="I1127" s="3" t="s">
-        <v>164</v>
+        <v>2290</v>
       </c>
       <c r="J1127" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1127" s="22" t="s">
-        <v>2140</v>
+        <v>2291</v>
       </c>
       <c r="L1127" s="22" t="s">
         <v>153</v>
@@ -73373,13 +73371,13 @@
         <v>313</v>
       </c>
       <c r="N1127" s="38" t="s">
-        <v>5719</v>
+        <v>2734</v>
       </c>
       <c r="O1127" t="s">
-        <v>313</v>
+        <v>2292</v>
       </c>
       <c r="Q1127" t="s">
-        <v>7913</v>
+        <v>7912</v>
       </c>
       <c r="R1127" s="43">
         <v>45591.506944444402</v>
@@ -73387,13 +73385,13 @@
     </row>
     <row r="1128" spans="1:18">
       <c r="A1128" s="3" t="s">
-        <v>6499</v>
+        <v>6498</v>
       </c>
       <c r="B1128" s="46" t="s">
-        <v>5756</v>
+        <v>5755</v>
       </c>
       <c r="C1128" s="41" t="s">
-        <v>7419</v>
+        <v>7536</v>
       </c>
       <c r="D1128" s="21" t="s">
         <v>2293</v>
@@ -73402,22 +73400,19 @@
         <v>166</v>
       </c>
       <c r="F1128" s="21" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="G1128" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H1128" s="3" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="I1128" s="3" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="J1128" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1128" s="22" t="s">
-        <v>246</v>
+        <v>2140</v>
       </c>
       <c r="L1128" s="22" t="s">
         <v>153</v>
@@ -73426,16 +73421,13 @@
         <v>313</v>
       </c>
       <c r="N1128" s="38" t="s">
-        <v>2734</v>
+        <v>5719</v>
       </c>
       <c r="O1128" t="s">
         <v>313</v>
       </c>
-      <c r="P1128" t="s">
-        <v>2298</v>
-      </c>
       <c r="Q1128" t="s">
-        <v>7914</v>
+        <v>7913</v>
       </c>
       <c r="R1128" s="43">
         <v>45591.506944444402</v>
@@ -73443,34 +73435,37 @@
     </row>
     <row r="1129" spans="1:18">
       <c r="A1129" s="3" t="s">
-        <v>6500</v>
+        <v>6499</v>
       </c>
       <c r="B1129" s="46" t="s">
-        <v>5757</v>
+        <v>5756</v>
       </c>
       <c r="C1129" s="41" t="s">
-        <v>7350</v>
+        <v>7419</v>
       </c>
       <c r="D1129" s="21" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="E1129" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1129" s="21" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="G1129" s="3" t="s">
-        <v>2301</v>
+        <v>244</v>
+      </c>
+      <c r="H1129" s="3" t="s">
+        <v>2297</v>
       </c>
       <c r="I1129" s="3" t="s">
-        <v>1628</v>
+        <v>245</v>
       </c>
       <c r="J1129" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1129" s="22" t="s">
-        <v>2302</v>
+        <v>246</v>
       </c>
       <c r="L1129" s="22" t="s">
         <v>153</v>
@@ -73479,13 +73474,16 @@
         <v>313</v>
       </c>
       <c r="N1129" s="38" t="s">
-        <v>5737</v>
+        <v>2734</v>
       </c>
       <c r="O1129" t="s">
         <v>313</v>
       </c>
+      <c r="P1129" t="s">
+        <v>2298</v>
+      </c>
       <c r="Q1129" t="s">
-        <v>7915</v>
+        <v>7914</v>
       </c>
       <c r="R1129" s="43">
         <v>45591.506944444402</v>
@@ -73493,34 +73491,34 @@
     </row>
     <row r="1130" spans="1:18">
       <c r="A1130" s="3" t="s">
-        <v>6501</v>
+        <v>6500</v>
       </c>
       <c r="B1130" s="46" t="s">
-        <v>5283</v>
+        <v>5757</v>
       </c>
       <c r="C1130" s="41" t="s">
-        <v>7487</v>
+        <v>7350</v>
       </c>
       <c r="D1130" s="21" t="s">
-        <v>7630</v>
+        <v>2299</v>
       </c>
       <c r="E1130" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1130" s="21" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="G1130" s="3" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
       <c r="I1130" s="3" t="s">
-        <v>2305</v>
+        <v>1628</v>
       </c>
       <c r="J1130" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1130" s="22" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="L1130" s="22" t="s">
         <v>153</v>
@@ -73529,48 +73527,48 @@
         <v>313</v>
       </c>
       <c r="N1130" s="38" t="s">
-        <v>2734</v>
+        <v>5737</v>
       </c>
       <c r="O1130" t="s">
         <v>313</v>
       </c>
       <c r="Q1130" t="s">
-        <v>7916</v>
+        <v>7915</v>
       </c>
       <c r="R1130" s="43">
-        <v>45599.491631944402</v>
+        <v>45591.506944444402</v>
       </c>
     </row>
     <row r="1131" spans="1:18">
       <c r="A1131" s="3" t="s">
-        <v>6502</v>
+        <v>6501</v>
       </c>
       <c r="B1131" s="46" t="s">
-        <v>5758</v>
+        <v>5283</v>
       </c>
       <c r="C1131" s="41" t="s">
-        <v>7434</v>
+        <v>7487</v>
       </c>
       <c r="D1131" s="21" t="s">
-        <v>2307</v>
+        <v>7630</v>
       </c>
       <c r="E1131" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F1131" s="21" t="s">
-        <v>2308</v>
+        <v>2303</v>
       </c>
       <c r="G1131" s="3" t="s">
-        <v>2286</v>
+        <v>2304</v>
       </c>
       <c r="I1131" s="3" t="s">
-        <v>1513</v>
+        <v>2305</v>
       </c>
       <c r="J1131" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1131" s="22" t="s">
-        <v>2287</v>
+        <v>2306</v>
       </c>
       <c r="L1131" s="22" t="s">
         <v>153</v>
@@ -73579,48 +73577,48 @@
         <v>313</v>
       </c>
       <c r="N1131" s="38" t="s">
-        <v>5310</v>
+        <v>2734</v>
       </c>
       <c r="O1131" t="s">
         <v>313</v>
       </c>
       <c r="Q1131" t="s">
-        <v>7917</v>
+        <v>7916</v>
       </c>
       <c r="R1131" s="43">
-        <v>45591.506944444402</v>
+        <v>45599.491631944402</v>
       </c>
     </row>
     <row r="1132" spans="1:18">
       <c r="A1132" s="3" t="s">
-        <v>7648</v>
+        <v>6502</v>
       </c>
       <c r="B1132" s="46" t="s">
-        <v>5759</v>
+        <v>5758</v>
       </c>
       <c r="C1132" s="41" t="s">
-        <v>7175</v>
+        <v>7434</v>
       </c>
       <c r="D1132" s="21" t="s">
-        <v>2279</v>
+        <v>2307</v>
       </c>
       <c r="E1132" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F1132" s="21" t="s">
-        <v>2281</v>
+        <v>2308</v>
       </c>
       <c r="G1132" s="3" t="s">
-        <v>2309</v>
+        <v>2286</v>
       </c>
       <c r="I1132" s="3" t="s">
-        <v>240</v>
+        <v>1513</v>
       </c>
       <c r="J1132" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1132" s="22" t="s">
-        <v>2310</v>
+        <v>2287</v>
       </c>
       <c r="L1132" s="22" t="s">
         <v>153</v>
@@ -73629,51 +73627,48 @@
         <v>313</v>
       </c>
       <c r="N1132" s="38" t="s">
-        <v>5737</v>
+        <v>5310</v>
       </c>
       <c r="O1132" t="s">
         <v>313</v>
       </c>
       <c r="Q1132" t="s">
-        <v>8153</v>
+        <v>7917</v>
       </c>
       <c r="R1132" s="43">
-        <v>45602.572002314802</v>
+        <v>45591.506944444402</v>
       </c>
     </row>
     <row r="1133" spans="1:18">
       <c r="A1133" s="3" t="s">
-        <v>6503</v>
+        <v>7648</v>
       </c>
       <c r="B1133" s="46" t="s">
-        <v>5760</v>
+        <v>5759</v>
       </c>
       <c r="C1133" s="41" t="s">
-        <v>7430</v>
+        <v>7175</v>
       </c>
       <c r="D1133" s="21" t="s">
-        <v>2311</v>
+        <v>2279</v>
       </c>
       <c r="E1133" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F1133" s="21" t="s">
-        <v>2312</v>
+        <v>2281</v>
       </c>
       <c r="G1133" s="3" t="s">
-        <v>2313</v>
-      </c>
-      <c r="H1133" s="3" t="s">
-        <v>2314</v>
+        <v>2309</v>
       </c>
       <c r="I1133" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J1133" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1133" s="22" t="s">
-        <v>2315</v>
+        <v>2310</v>
       </c>
       <c r="L1133" s="22" t="s">
         <v>153</v>
@@ -73682,48 +73677,51 @@
         <v>313</v>
       </c>
       <c r="N1133" s="38" t="s">
-        <v>5728</v>
+        <v>5737</v>
       </c>
       <c r="O1133" t="s">
         <v>313</v>
       </c>
       <c r="Q1133" t="s">
-        <v>7918</v>
+        <v>8153</v>
       </c>
       <c r="R1133" s="43">
-        <v>45591.506944444402</v>
+        <v>45602.572002314802</v>
       </c>
     </row>
     <row r="1134" spans="1:18">
       <c r="A1134" s="3" t="s">
-        <v>6504</v>
+        <v>6503</v>
       </c>
       <c r="B1134" s="46" t="s">
-        <v>5761</v>
+        <v>5760</v>
       </c>
       <c r="C1134" s="41" t="s">
-        <v>7542</v>
+        <v>7430</v>
       </c>
       <c r="D1134" s="21" t="s">
-        <v>2316</v>
+        <v>2311</v>
       </c>
       <c r="E1134" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F1134" s="21" t="s">
-        <v>2317</v>
+        <v>2312</v>
       </c>
       <c r="G1134" s="3" t="s">
-        <v>2318</v>
+        <v>2313</v>
+      </c>
+      <c r="H1134" s="3" t="s">
+        <v>2314</v>
       </c>
       <c r="I1134" s="3" t="s">
-        <v>2319</v>
+        <v>245</v>
       </c>
       <c r="J1134" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1134" s="22" t="s">
-        <v>2320</v>
+        <v>2315</v>
       </c>
       <c r="L1134" s="22" t="s">
         <v>153</v>
@@ -73738,7 +73736,7 @@
         <v>313</v>
       </c>
       <c r="Q1134" t="s">
-        <v>7919</v>
+        <v>7918</v>
       </c>
       <c r="R1134" s="43">
         <v>45591.506944444402</v>
@@ -73746,34 +73744,34 @@
     </row>
     <row r="1135" spans="1:18">
       <c r="A1135" s="3" t="s">
-        <v>6505</v>
+        <v>6504</v>
       </c>
       <c r="B1135" s="46" t="s">
-        <v>5762</v>
+        <v>5761</v>
       </c>
       <c r="C1135" s="41" t="s">
-        <v>7437</v>
+        <v>7542</v>
       </c>
       <c r="D1135" s="21" t="s">
-        <v>2261</v>
+        <v>2316</v>
       </c>
       <c r="E1135" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1135" s="21" t="s">
-        <v>2262</v>
+        <v>2317</v>
       </c>
       <c r="G1135" s="3" t="s">
-        <v>2263</v>
+        <v>2318</v>
       </c>
       <c r="I1135" s="3" t="s">
-        <v>2264</v>
+        <v>2319</v>
       </c>
       <c r="J1135" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1135" s="22" t="s">
-        <v>2265</v>
+        <v>2320</v>
       </c>
       <c r="L1135" s="22" t="s">
         <v>153</v>
@@ -73782,13 +73780,13 @@
         <v>313</v>
       </c>
       <c r="N1135" s="38" t="s">
-        <v>2734</v>
+        <v>5728</v>
       </c>
       <c r="O1135" t="s">
         <v>313</v>
       </c>
       <c r="Q1135" t="s">
-        <v>7920</v>
+        <v>7919</v>
       </c>
       <c r="R1135" s="43">
         <v>45591.506944444402</v>
@@ -73796,34 +73794,34 @@
     </row>
     <row r="1136" spans="1:18">
       <c r="A1136" s="3" t="s">
-        <v>7647</v>
+        <v>6505</v>
       </c>
       <c r="B1136" s="46" t="s">
-        <v>6918</v>
+        <v>5762</v>
       </c>
       <c r="C1136" s="41" t="s">
-        <v>7164</v>
+        <v>7437</v>
       </c>
       <c r="D1136" s="21" t="s">
-        <v>2855</v>
+        <v>2261</v>
       </c>
       <c r="E1136" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1136" s="21" t="s">
-        <v>7783</v>
+        <v>2262</v>
       </c>
       <c r="G1136" s="3" t="s">
-        <v>2856</v>
+        <v>2263</v>
       </c>
       <c r="I1136" s="3" t="s">
-        <v>6919</v>
+        <v>2264</v>
       </c>
       <c r="J1136" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1136" s="22" t="s">
-        <v>2857</v>
+        <v>2265</v>
       </c>
       <c r="L1136" s="22" t="s">
         <v>153</v>
@@ -73832,74 +73830,80 @@
         <v>313</v>
       </c>
       <c r="N1136" s="38" t="s">
-        <v>5558</v>
+        <v>2734</v>
       </c>
       <c r="O1136" t="s">
         <v>313</v>
       </c>
-      <c r="P1136" t="s">
-        <v>5282</v>
-      </c>
       <c r="Q1136" t="s">
-        <v>8154</v>
+        <v>7920</v>
       </c>
       <c r="R1136" s="43">
-        <v>45634.650567129604</v>
+        <v>45591.506944444402</v>
       </c>
     </row>
     <row r="1137" spans="1:18">
       <c r="A1137" s="3" t="s">
-        <v>7636</v>
+        <v>7647</v>
       </c>
       <c r="B1137" s="46" t="s">
-        <v>7637</v>
+        <v>6918</v>
       </c>
       <c r="C1137" s="41" t="s">
-        <v>7638</v>
+        <v>7164</v>
       </c>
       <c r="D1137" s="21" t="s">
-        <v>7639</v>
+        <v>2855</v>
       </c>
       <c r="E1137" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1137" s="21" t="s">
-        <v>7640</v>
+        <v>7783</v>
       </c>
       <c r="G1137" s="3" t="s">
-        <v>7641</v>
+        <v>2856</v>
       </c>
       <c r="I1137" s="3" t="s">
-        <v>7642</v>
+        <v>6919</v>
       </c>
       <c r="J1137" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1137" s="22" t="s">
-        <v>7643</v>
+        <v>2857</v>
       </c>
       <c r="L1137" s="22" t="s">
         <v>153</v>
       </c>
+      <c r="M1137" t="s">
+        <v>313</v>
+      </c>
       <c r="N1137" s="38" t="s">
-        <v>2734</v>
+        <v>5558</v>
+      </c>
+      <c r="O1137" t="s">
+        <v>313</v>
+      </c>
+      <c r="P1137" t="s">
+        <v>5282</v>
       </c>
       <c r="Q1137" t="s">
-        <v>7921</v>
+        <v>8154</v>
       </c>
       <c r="R1137" s="43">
-        <v>45602.4203935185</v>
+        <v>45634.650567129604</v>
       </c>
     </row>
     <row r="1138" spans="1:18">
       <c r="A1138" s="3" t="s">
-        <v>7644</v>
+        <v>7636</v>
       </c>
       <c r="B1138" s="46" t="s">
-        <v>7645</v>
+        <v>7637</v>
       </c>
       <c r="C1138" s="41" t="s">
-        <v>7646</v>
+        <v>7638</v>
       </c>
       <c r="D1138" s="21" t="s">
         <v>7639</v>
@@ -73929,86 +73933,83 @@
         <v>2734</v>
       </c>
       <c r="Q1138" t="s">
-        <v>7922</v>
+        <v>7921</v>
       </c>
       <c r="R1138" s="43">
-        <v>45602.422002314801</v>
+        <v>45602.4203935185</v>
       </c>
     </row>
     <row r="1139" spans="1:18">
       <c r="A1139" s="3" t="s">
-        <v>8160</v>
+        <v>7644</v>
       </c>
       <c r="B1139" s="46" t="s">
-        <v>8161</v>
+        <v>7645</v>
       </c>
       <c r="C1139" s="41" t="s">
-        <v>8172</v>
+        <v>7646</v>
       </c>
       <c r="D1139" s="21" t="s">
-        <v>8162</v>
+        <v>7639</v>
+      </c>
+      <c r="E1139" s="23" t="s">
+        <v>166</v>
       </c>
       <c r="F1139" s="21" t="s">
-        <v>8163</v>
+        <v>7640</v>
       </c>
       <c r="G1139" s="3" t="s">
-        <v>8164</v>
+        <v>7641</v>
       </c>
       <c r="I1139" s="3" t="s">
-        <v>164</v>
+        <v>7642</v>
       </c>
       <c r="J1139" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1139" s="22" t="s">
-        <v>8165</v>
+        <v>7643</v>
       </c>
       <c r="L1139" s="22" t="s">
         <v>153</v>
-      </c>
-      <c r="M1139" t="s">
-        <v>313</v>
       </c>
       <c r="N1139" s="38" t="s">
         <v>2734</v>
       </c>
-      <c r="O1139" t="s">
-        <v>313</v>
-      </c>
       <c r="Q1139" t="s">
-        <v>8183</v>
+        <v>7922</v>
       </c>
       <c r="R1139" s="43">
-        <v>45685.697800925896</v>
+        <v>45602.422002314801</v>
       </c>
     </row>
     <row r="1140" spans="1:18">
       <c r="A1140" s="3" t="s">
-        <v>8173</v>
+        <v>8160</v>
       </c>
       <c r="B1140" s="46" t="s">
-        <v>8166</v>
+        <v>8161</v>
       </c>
       <c r="C1140" s="41" t="s">
-        <v>8167</v>
+        <v>8172</v>
       </c>
       <c r="D1140" s="21" t="s">
-        <v>8168</v>
-      </c>
-      <c r="E1140" s="23" t="s">
-        <v>166</v>
+        <v>8162</v>
+      </c>
+      <c r="F1140" s="21" t="s">
+        <v>8163</v>
       </c>
       <c r="G1140" s="3" t="s">
-        <v>8169</v>
+        <v>8164</v>
       </c>
       <c r="I1140" s="3" t="s">
-        <v>8170</v>
+        <v>164</v>
       </c>
       <c r="J1140" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1140" s="22" t="s">
-        <v>8171</v>
+        <v>8165</v>
       </c>
       <c r="L1140" s="22" t="s">
         <v>153</v>
@@ -74023,39 +74024,39 @@
         <v>313</v>
       </c>
       <c r="Q1140" t="s">
-        <v>8182</v>
+        <v>8183</v>
       </c>
       <c r="R1140" s="43">
-        <v>45685.697476851798</v>
+        <v>45685.697800925896</v>
       </c>
     </row>
     <row r="1141" spans="1:18">
       <c r="A1141" s="3" t="s">
-        <v>8174</v>
+        <v>8173</v>
       </c>
       <c r="B1141" s="46" t="s">
-        <v>8175</v>
+        <v>8166</v>
       </c>
       <c r="C1141" s="41" t="s">
-        <v>8176</v>
+        <v>8167</v>
       </c>
       <c r="D1141" s="21" t="s">
-        <v>8177</v>
+        <v>8168</v>
       </c>
       <c r="E1141" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G1141" s="3" t="s">
-        <v>8178</v>
+        <v>8169</v>
       </c>
       <c r="I1141" s="3" t="s">
-        <v>8179</v>
+        <v>8170</v>
       </c>
       <c r="J1141" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1141" s="22" t="s">
-        <v>8180</v>
+        <v>8171</v>
       </c>
       <c r="L1141" s="22" t="s">
         <v>153</v>
@@ -74070,36 +74071,39 @@
         <v>313</v>
       </c>
       <c r="Q1141" t="s">
-        <v>8181</v>
+        <v>8182</v>
       </c>
       <c r="R1141" s="43">
-        <v>45685.697141203702</v>
+        <v>45685.697476851798</v>
       </c>
     </row>
     <row r="1142" spans="1:18">
       <c r="A1142" s="3" t="s">
-        <v>8184</v>
+        <v>8174</v>
       </c>
       <c r="B1142" s="46" t="s">
-        <v>8185</v>
+        <v>8175</v>
       </c>
       <c r="C1142" s="41" t="s">
-        <v>8186</v>
+        <v>8176</v>
       </c>
       <c r="D1142" s="21" t="s">
         <v>8177</v>
       </c>
+      <c r="E1142" s="23" t="s">
+        <v>165</v>
+      </c>
       <c r="G1142" s="3" t="s">
-        <v>8187</v>
+        <v>8178</v>
       </c>
       <c r="I1142" s="3" t="s">
-        <v>4557</v>
+        <v>8179</v>
       </c>
       <c r="J1142" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1142" s="22" t="s">
-        <v>4558</v>
+        <v>8180</v>
       </c>
       <c r="L1142" s="22" t="s">
         <v>153</v>
@@ -74107,342 +74111,351 @@
       <c r="M1142" t="s">
         <v>313</v>
       </c>
+      <c r="N1142" s="38" t="s">
+        <v>2734</v>
+      </c>
       <c r="O1142" t="s">
         <v>313</v>
       </c>
       <c r="Q1142" t="s">
-        <v>8188</v>
+        <v>8181</v>
       </c>
       <c r="R1142" s="43">
-        <v>45686.720590277801</v>
+        <v>45685.697141203702</v>
       </c>
     </row>
     <row r="1143" spans="1:18">
       <c r="A1143" s="3" t="s">
-        <v>8264</v>
+        <v>8184</v>
       </c>
       <c r="B1143" s="46" t="s">
-        <v>8217</v>
+        <v>8185</v>
+      </c>
+      <c r="C1143" s="41" t="s">
+        <v>8186</v>
       </c>
       <c r="D1143" s="21" t="s">
-        <v>8218</v>
-      </c>
-      <c r="E1143" s="23" t="s">
-        <v>8219</v>
-      </c>
-      <c r="F1143" s="21" t="s">
-        <v>8220</v>
+        <v>8177</v>
       </c>
       <c r="G1143" s="3" t="s">
-        <v>8265</v>
+        <v>8187</v>
       </c>
       <c r="I1143" s="3" t="s">
-        <v>8266</v>
+        <v>4557</v>
       </c>
       <c r="J1143" s="22" t="s">
-        <v>8267</v>
+        <v>563</v>
       </c>
       <c r="K1143" s="22" t="s">
-        <v>8268</v>
+        <v>4558</v>
+      </c>
+      <c r="L1143" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="M1143" t="s">
-        <v>8221</v>
+        <v>313</v>
+      </c>
+      <c r="O1143" t="s">
+        <v>313</v>
       </c>
       <c r="Q1143" t="s">
-        <v>8264</v>
+        <v>8188</v>
       </c>
       <c r="R1143" s="43">
-        <v>45704.650717592602</v>
+        <v>45686.720590277801</v>
       </c>
     </row>
     <row r="1144" spans="1:18">
       <c r="A1144" s="3" t="s">
-        <v>8342</v>
+        <v>8264</v>
       </c>
       <c r="B1144" s="46" t="s">
-        <v>8343</v>
-      </c>
-      <c r="C1144" s="41" t="s">
-        <v>8344</v>
+        <v>8217</v>
       </c>
       <c r="D1144" s="21" t="s">
-        <v>8345</v>
+        <v>8218</v>
+      </c>
+      <c r="E1144" s="23" t="s">
+        <v>8219</v>
       </c>
       <c r="F1144" s="21" t="s">
-        <v>8346</v>
+        <v>8220</v>
       </c>
       <c r="G1144" s="3" t="s">
-        <v>8347</v>
+        <v>8265</v>
       </c>
       <c r="I1144" s="3" t="s">
-        <v>2433</v>
+        <v>8266</v>
       </c>
       <c r="J1144" s="22" t="s">
-        <v>563</v>
+        <v>8267</v>
       </c>
       <c r="K1144" s="22" t="s">
-        <v>8348</v>
-      </c>
-      <c r="L1144" s="22" t="s">
-        <v>153</v>
+        <v>8268</v>
       </c>
       <c r="M1144" t="s">
-        <v>313</v>
-      </c>
-      <c r="N1144" s="38" t="s">
-        <v>5736</v>
-      </c>
-      <c r="O1144" t="s">
-        <v>313</v>
+        <v>8221</v>
       </c>
       <c r="Q1144" t="s">
-        <v>8349</v>
+        <v>8264</v>
       </c>
       <c r="R1144" s="43">
-        <v>45771.699247685203</v>
+        <v>45704.650717592602</v>
       </c>
     </row>
     <row r="1145" spans="1:18">
       <c r="A1145" s="3" t="s">
-        <v>8231</v>
+        <v>8342</v>
       </c>
       <c r="B1145" s="46" t="s">
-        <v>51</v>
+        <v>8343</v>
+      </c>
+      <c r="C1145" s="41" t="s">
+        <v>8344</v>
+      </c>
+      <c r="D1145" s="21" t="s">
+        <v>8345</v>
+      </c>
+      <c r="F1145" s="21" t="s">
+        <v>8346</v>
+      </c>
+      <c r="G1145" s="3" t="s">
+        <v>8347</v>
+      </c>
+      <c r="I1145" s="3" t="s">
+        <v>2433</v>
+      </c>
+      <c r="J1145" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1145" s="22" t="s">
+        <v>8348</v>
+      </c>
+      <c r="L1145" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1145" t="s">
+        <v>313</v>
+      </c>
+      <c r="N1145" s="38" t="s">
+        <v>5736</v>
+      </c>
+      <c r="O1145" t="s">
+        <v>313</v>
       </c>
       <c r="Q1145" t="s">
-        <v>8231</v>
+        <v>8349</v>
       </c>
       <c r="R1145" s="43">
-        <v>45716.706921296303</v>
+        <v>45771.699247685203</v>
       </c>
     </row>
     <row r="1146" spans="1:18">
       <c r="A1146" s="3" t="s">
-        <v>8288</v>
+        <v>8231</v>
       </c>
       <c r="B1146" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1146" s="21" t="s">
-        <v>8218</v>
-      </c>
-      <c r="E1146" s="23" t="s">
-        <v>8219</v>
-      </c>
-      <c r="F1146" s="21" t="s">
-        <v>8220</v>
-      </c>
-      <c r="G1146" s="3" t="s">
-        <v>8265</v>
-      </c>
-      <c r="I1146" s="3" t="s">
-        <v>8266</v>
-      </c>
-      <c r="J1146" s="22" t="s">
-        <v>8267</v>
-      </c>
-      <c r="K1146" s="22" t="s">
-        <v>8268</v>
-      </c>
-      <c r="M1146" t="s">
-        <v>8221</v>
+        <v>51</v>
       </c>
       <c r="Q1146" t="s">
-        <v>8264</v>
+        <v>8231</v>
+      </c>
+      <c r="R1146" s="43">
+        <v>45716.706921296303</v>
       </c>
     </row>
     <row r="1147" spans="1:18">
       <c r="A1147" s="3" t="s">
-        <v>8283</v>
+        <v>8288</v>
       </c>
       <c r="B1147" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1147" s="41" t="s">
-        <v>8284</v>
+        <v>92</v>
       </c>
       <c r="D1147" s="21" t="s">
-        <v>8285</v>
+        <v>8218</v>
+      </c>
+      <c r="E1147" s="23" t="s">
+        <v>8219</v>
       </c>
       <c r="F1147" s="21" t="s">
-        <v>8286</v>
+        <v>8220</v>
       </c>
       <c r="G1147" s="3" t="s">
-        <v>8287</v>
+        <v>8265</v>
       </c>
       <c r="I1147" s="3" t="s">
-        <v>245</v>
+        <v>8266</v>
       </c>
       <c r="J1147" s="22" t="s">
-        <v>563</v>
+        <v>8267</v>
+      </c>
+      <c r="K1147" s="22" t="s">
+        <v>8268</v>
+      </c>
+      <c r="M1147" t="s">
+        <v>8221</v>
       </c>
       <c r="Q1147" t="s">
-        <v>8283</v>
+        <v>8264</v>
       </c>
     </row>
     <row r="1148" spans="1:18">
       <c r="A1148" s="3" t="s">
-        <v>8289</v>
+        <v>8283</v>
       </c>
       <c r="B1148" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1148" s="41" t="s">
-        <v>8290</v>
+        <v>8284</v>
       </c>
       <c r="D1148" s="21" t="s">
-        <v>8291</v>
+        <v>8285</v>
       </c>
       <c r="F1148" s="21" t="s">
-        <v>8292</v>
-      </c>
-      <c r="M1148" t="s">
-        <v>8284</v>
+        <v>8286</v>
+      </c>
+      <c r="G1148" s="3" t="s">
+        <v>8287</v>
+      </c>
+      <c r="I1148" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1148" s="22" t="s">
+        <v>563</v>
       </c>
       <c r="Q1148" t="s">
-        <v>8293</v>
-      </c>
-      <c r="R1148" s="43">
-        <v>45732.587546296301</v>
+        <v>8283</v>
       </c>
     </row>
     <row r="1149" spans="1:18">
       <c r="A1149" s="3" t="s">
-        <v>8294</v>
+        <v>8289</v>
       </c>
       <c r="B1149" s="46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C1149" s="41" t="s">
-        <v>8295</v>
+        <v>8290</v>
       </c>
       <c r="D1149" s="21" t="s">
-        <v>8295</v>
-      </c>
-      <c r="E1149" s="23" t="s">
-        <v>167</v>
+        <v>8291</v>
       </c>
       <c r="F1149" s="21" t="s">
-        <v>8296</v>
+        <v>8292</v>
+      </c>
+      <c r="M1149" t="s">
+        <v>8284</v>
       </c>
       <c r="Q1149" t="s">
-        <v>8294</v>
+        <v>8293</v>
       </c>
       <c r="R1149" s="43">
-        <v>45738.6483449074</v>
+        <v>45732.587546296301</v>
       </c>
     </row>
     <row r="1150" spans="1:18">
       <c r="A1150" s="3" t="s">
-        <v>8297</v>
+        <v>8294</v>
       </c>
       <c r="B1150" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C1150" s="41" t="s">
-        <v>8297</v>
+        <v>8295</v>
       </c>
       <c r="D1150" s="21" t="s">
-        <v>8297</v>
+        <v>8295</v>
+      </c>
+      <c r="E1150" s="23" t="s">
+        <v>167</v>
       </c>
       <c r="F1150" s="21" t="s">
-        <v>8298</v>
+        <v>8296</v>
       </c>
       <c r="Q1150" t="s">
-        <v>8297</v>
+        <v>8294</v>
       </c>
       <c r="R1150" s="43">
-        <v>45743.487731481502</v>
+        <v>45738.6483449074</v>
       </c>
     </row>
     <row r="1151" spans="1:18">
       <c r="A1151" s="3" t="s">
-        <v>8391</v>
+        <v>8297</v>
       </c>
       <c r="B1151" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C1151" s="41" t="s">
-        <v>8392</v>
+        <v>8297</v>
       </c>
       <c r="D1151" s="21" t="s">
-        <v>8393</v>
+        <v>8297</v>
       </c>
       <c r="F1151" s="21" t="s">
-        <v>8394</v>
-      </c>
-      <c r="G1151" s="3" t="s">
-        <v>8395</v>
-      </c>
-      <c r="I1151" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1151" s="22" t="s">
-        <v>563</v>
-      </c>
-      <c r="K1151" s="22" t="s">
-        <v>4016</v>
+        <v>8298</v>
       </c>
       <c r="Q1151" t="s">
-        <v>8391</v>
+        <v>8297</v>
       </c>
       <c r="R1151" s="43">
-        <v>45784.950891203698</v>
+        <v>45743.487731481502</v>
       </c>
     </row>
     <row r="1152" spans="1:18">
       <c r="A1152" s="3" t="s">
-        <v>8396</v>
+        <v>8391</v>
       </c>
       <c r="B1152" s="46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1152" s="41" t="s">
-        <v>8397</v>
+        <v>8392</v>
       </c>
       <c r="D1152" s="21" t="s">
-        <v>8398</v>
+        <v>8393</v>
       </c>
       <c r="F1152" s="21" t="s">
-        <v>8398</v>
+        <v>8394</v>
       </c>
       <c r="G1152" s="3" t="s">
-        <v>8399</v>
+        <v>8395</v>
       </c>
       <c r="I1152" s="3" t="s">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="J1152" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1152" s="22" t="s">
-        <v>8400</v>
+        <v>4016</v>
       </c>
       <c r="Q1152" t="s">
-        <v>8396</v>
+        <v>8391</v>
       </c>
       <c r="R1152" s="43">
-        <v>45784.950520833299</v>
+        <v>45784.950891203698</v>
       </c>
     </row>
     <row r="1153" spans="1:18">
       <c r="A1153" s="3" t="s">
-        <v>8406</v>
+        <v>8396</v>
       </c>
       <c r="B1153" s="46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1153" s="41" t="s">
-        <v>8407</v>
+        <v>8397</v>
       </c>
       <c r="D1153" s="21" t="s">
-        <v>8408</v>
+        <v>8398</v>
       </c>
       <c r="F1153" s="21" t="s">
-        <v>8409</v>
+        <v>8398</v>
       </c>
       <c r="G1153" s="3" t="s">
-        <v>8411</v>
+        <v>8399</v>
       </c>
       <c r="I1153" s="3" t="s">
         <v>245</v>
@@ -74451,140 +74464,136 @@
         <v>563</v>
       </c>
       <c r="K1153" s="22" t="s">
-        <v>8412</v>
-      </c>
-      <c r="M1153" s="25" t="s">
-        <v>8410</v>
-      </c>
-      <c r="N1153" s="24"/>
-      <c r="O1153" s="25"/>
-      <c r="P1153" s="25"/>
-      <c r="Q1153" s="25" t="s">
-        <v>8406</v>
+        <v>8400</v>
+      </c>
+      <c r="Q1153" t="s">
+        <v>8396</v>
       </c>
       <c r="R1153" s="43">
-        <v>45785.929756944402</v>
+        <v>45784.950520833299</v>
       </c>
     </row>
     <row r="1154" spans="1:18">
       <c r="A1154" s="3" t="s">
-        <v>8446</v>
+        <v>8406</v>
       </c>
       <c r="B1154" s="46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C1154" s="41" t="s">
-        <v>8447</v>
-      </c>
-      <c r="E1154" s="23" t="s">
-        <v>6080</v>
+        <v>8407</v>
+      </c>
+      <c r="D1154" s="21" t="s">
+        <v>8408</v>
       </c>
       <c r="F1154" s="21" t="s">
-        <v>8448</v>
+        <v>8409</v>
       </c>
       <c r="G1154" s="3" t="s">
-        <v>8449</v>
+        <v>8411</v>
       </c>
       <c r="I1154" s="3" t="s">
-        <v>8266</v>
+        <v>245</v>
       </c>
       <c r="J1154" s="22" t="s">
-        <v>8267</v>
+        <v>563</v>
       </c>
       <c r="K1154" s="22" t="s">
-        <v>8450</v>
-      </c>
-      <c r="M1154" s="25"/>
+        <v>8412</v>
+      </c>
+      <c r="M1154" s="25" t="s">
+        <v>8410</v>
+      </c>
       <c r="N1154" s="24"/>
       <c r="O1154" s="25"/>
       <c r="P1154" s="25"/>
       <c r="Q1154" s="25" t="s">
+        <v>8406</v>
+      </c>
+      <c r="R1154" s="43">
+        <v>45785.929756944402</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:18">
+      <c r="A1155" s="3" t="s">
         <v>8446</v>
       </c>
-      <c r="R1154" s="43">
+      <c r="B1155" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1155" s="41" t="s">
+        <v>8447</v>
+      </c>
+      <c r="E1155" s="23" t="s">
+        <v>6080</v>
+      </c>
+      <c r="F1155" s="21" t="s">
+        <v>8448</v>
+      </c>
+      <c r="G1155" s="3" t="s">
+        <v>8449</v>
+      </c>
+      <c r="I1155" s="3" t="s">
+        <v>8266</v>
+      </c>
+      <c r="J1155" s="22" t="s">
+        <v>8267</v>
+      </c>
+      <c r="K1155" s="22" t="s">
+        <v>8450</v>
+      </c>
+      <c r="M1155" s="25"/>
+      <c r="N1155" s="24"/>
+      <c r="O1155" s="25"/>
+      <c r="P1155" s="25"/>
+      <c r="Q1155" s="25" t="s">
+        <v>8446</v>
+      </c>
+      <c r="R1155" s="43">
         <v>45798.954733796301</v>
       </c>
     </row>
-    <row r="1155" spans="1:18">
-      <c r="A1155" s="31" t="s">
-        <v>8457</v>
-      </c>
-      <c r="B1155" s="31" t="s">
-        <v>8458</v>
-      </c>
-      <c r="C1155" s="31" t="s">
-        <v>7424</v>
-      </c>
-      <c r="D1155" s="31" t="s">
-        <v>8459</v>
-      </c>
-      <c r="E1155" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1155" s="31" t="s">
-        <v>8460</v>
-      </c>
-      <c r="G1155" s="31" t="s">
-        <v>8461</v>
-      </c>
-      <c r="I1155" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="J1155" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="K1155" s="31" t="s">
-        <v>8462</v>
-      </c>
-      <c r="L1155" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1155" s="31" t="s">
-        <v>3420</v>
-      </c>
-      <c r="Q1155" s="31" t="s">
-        <v>8463</v>
-      </c>
-      <c r="R1155" s="47">
-        <v>45805.666157407402</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:R1147" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1151:R1153">
-    <sortCondition ref="B1151:B1153"/>
+  <autoFilter ref="A1:R1148" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1152:R1154">
+    <sortCondition ref="B1152:B1154"/>
   </sortState>
-  <conditionalFormatting sqref="A2:R1154">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="A2:R1109 A1111:R1155">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1110:R1110">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($A1110&lt;&gt;"",MOD(ROW(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F1135" r:id="rId1" xr:uid="{F456DE86-0DC4-459B-8786-AEB12C0F36B0}"/>
-    <hyperlink ref="F1134" r:id="rId2" xr:uid="{A987B60B-629E-450A-AFE5-A7284329CD96}"/>
-    <hyperlink ref="F1133" r:id="rId3" xr:uid="{BDA96C0A-370D-46F7-82B7-86D5AE155E9F}"/>
-    <hyperlink ref="F1132" r:id="rId4" xr:uid="{E0EF30A2-FEE8-48F7-905E-3DCEE9D90336}"/>
-    <hyperlink ref="F1131" r:id="rId5" xr:uid="{F5EE9F94-288C-4D35-98F2-B7DF314331DE}"/>
-    <hyperlink ref="F1130" r:id="rId6" xr:uid="{A71B48CB-C499-456A-8FFD-47EFE60A828E}"/>
-    <hyperlink ref="F1129" r:id="rId7" xr:uid="{AF04FF5C-ADCA-44DC-B3B2-A425FC0DCFD9}"/>
-    <hyperlink ref="F1128" r:id="rId8" xr:uid="{F55EAFC5-5519-4A1F-80D4-95B4D202FE38}"/>
-    <hyperlink ref="F1127" r:id="rId9" xr:uid="{5FE20200-FB86-452E-8BE1-863A3C65BD07}"/>
-    <hyperlink ref="F1126" r:id="rId10" xr:uid="{8F88B4B6-197E-4940-B572-1769D2C402A3}"/>
-    <hyperlink ref="F1125" r:id="rId11" xr:uid="{DACEA89F-4573-408A-AA3D-AAFC4DF8DB2E}"/>
-    <hyperlink ref="F1124" r:id="rId12" xr:uid="{BF25E2D2-8541-4371-99B7-17A8B86CC8F6}"/>
-    <hyperlink ref="F1123" r:id="rId13" xr:uid="{57CD897B-E530-431D-A4B5-59D9C0F63217}"/>
-    <hyperlink ref="F1122" r:id="rId14" xr:uid="{CEEE77DB-0464-4890-9DA6-629F365AAC93}"/>
-    <hyperlink ref="F1121" r:id="rId15" xr:uid="{D183A8CF-2618-4DDD-8523-A347B0789735}"/>
-    <hyperlink ref="F1120" r:id="rId16" xr:uid="{B44DC245-3939-4FC4-B86F-7F55F80E20F1}"/>
-    <hyperlink ref="F1119" r:id="rId17" xr:uid="{77BEB31C-67F9-4892-974A-C42D173ACEC7}"/>
-    <hyperlink ref="F1118" r:id="rId18" xr:uid="{802015E0-18C1-4D8F-BD48-60606EF00558}"/>
-    <hyperlink ref="F1117" r:id="rId19" xr:uid="{185AA3D8-0081-42DB-B36C-3B1B4DF6AE78}"/>
-    <hyperlink ref="F1116" r:id="rId20" xr:uid="{C92F0FF0-F014-47C6-8A1D-37500F8CB37C}"/>
-    <hyperlink ref="F1115" r:id="rId21" xr:uid="{A79E531F-E421-48DC-B313-0C433AA33C66}"/>
-    <hyperlink ref="F1114" r:id="rId22" xr:uid="{CF6C1299-30F9-427A-9C11-CDEF3096DB13}"/>
-    <hyperlink ref="F1113" r:id="rId23" xr:uid="{B0ED86D2-3643-405A-B6A7-581D3F444E88}"/>
-    <hyperlink ref="F1112" r:id="rId24" xr:uid="{3643C6A3-6F1E-403F-B5BD-A7251D505F5B}"/>
-    <hyperlink ref="F1110" r:id="rId25" xr:uid="{0E92FFCB-F966-4697-91BE-A3130C1CAE25}"/>
+    <hyperlink ref="F1136" r:id="rId1" xr:uid="{F456DE86-0DC4-459B-8786-AEB12C0F36B0}"/>
+    <hyperlink ref="F1135" r:id="rId2" xr:uid="{A987B60B-629E-450A-AFE5-A7284329CD96}"/>
+    <hyperlink ref="F1134" r:id="rId3" xr:uid="{BDA96C0A-370D-46F7-82B7-86D5AE155E9F}"/>
+    <hyperlink ref="F1133" r:id="rId4" xr:uid="{E0EF30A2-FEE8-48F7-905E-3DCEE9D90336}"/>
+    <hyperlink ref="F1132" r:id="rId5" xr:uid="{F5EE9F94-288C-4D35-98F2-B7DF314331DE}"/>
+    <hyperlink ref="F1131" r:id="rId6" xr:uid="{A71B48CB-C499-456A-8FFD-47EFE60A828E}"/>
+    <hyperlink ref="F1130" r:id="rId7" xr:uid="{AF04FF5C-ADCA-44DC-B3B2-A425FC0DCFD9}"/>
+    <hyperlink ref="F1129" r:id="rId8" xr:uid="{F55EAFC5-5519-4A1F-80D4-95B4D202FE38}"/>
+    <hyperlink ref="F1128" r:id="rId9" xr:uid="{5FE20200-FB86-452E-8BE1-863A3C65BD07}"/>
+    <hyperlink ref="F1127" r:id="rId10" xr:uid="{8F88B4B6-197E-4940-B572-1769D2C402A3}"/>
+    <hyperlink ref="F1126" r:id="rId11" xr:uid="{DACEA89F-4573-408A-AA3D-AAFC4DF8DB2E}"/>
+    <hyperlink ref="F1125" r:id="rId12" xr:uid="{BF25E2D2-8541-4371-99B7-17A8B86CC8F6}"/>
+    <hyperlink ref="F1124" r:id="rId13" xr:uid="{57CD897B-E530-431D-A4B5-59D9C0F63217}"/>
+    <hyperlink ref="F1123" r:id="rId14" xr:uid="{CEEE77DB-0464-4890-9DA6-629F365AAC93}"/>
+    <hyperlink ref="F1122" r:id="rId15" xr:uid="{D183A8CF-2618-4DDD-8523-A347B0789735}"/>
+    <hyperlink ref="F1121" r:id="rId16" xr:uid="{B44DC245-3939-4FC4-B86F-7F55F80E20F1}"/>
+    <hyperlink ref="F1120" r:id="rId17" xr:uid="{77BEB31C-67F9-4892-974A-C42D173ACEC7}"/>
+    <hyperlink ref="F1119" r:id="rId18" xr:uid="{802015E0-18C1-4D8F-BD48-60606EF00558}"/>
+    <hyperlink ref="F1118" r:id="rId19" xr:uid="{185AA3D8-0081-42DB-B36C-3B1B4DF6AE78}"/>
+    <hyperlink ref="F1117" r:id="rId20" xr:uid="{C92F0FF0-F014-47C6-8A1D-37500F8CB37C}"/>
+    <hyperlink ref="F1116" r:id="rId21" xr:uid="{A79E531F-E421-48DC-B313-0C433AA33C66}"/>
+    <hyperlink ref="F1115" r:id="rId22" xr:uid="{CF6C1299-30F9-427A-9C11-CDEF3096DB13}"/>
+    <hyperlink ref="F1114" r:id="rId23" xr:uid="{B0ED86D2-3643-405A-B6A7-581D3F444E88}"/>
+    <hyperlink ref="F1113" r:id="rId24" xr:uid="{3643C6A3-6F1E-403F-B5BD-A7251D505F5B}"/>
+    <hyperlink ref="F1111" r:id="rId25" xr:uid="{0E92FFCB-F966-4697-91BE-A3130C1CAE25}"/>
     <hyperlink ref="F373" r:id="rId26" xr:uid="{B4AE46D0-0113-43B5-920F-41BAD7FB12F3}"/>
     <hyperlink ref="F360" r:id="rId27" xr:uid="{6A53CFF1-B4AE-4894-AF74-B4B080E1676D}"/>
     <hyperlink ref="F357" r:id="rId28" xr:uid="{FC91B321-7F3C-4B7C-978D-FF322BE215D6}"/>
@@ -76696,7 +76705,7 @@
     <sortCondition ref="A1:A20"/>
   </sortState>
   <conditionalFormatting sqref="A2:L9999">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -83568,7 +83577,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D67">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A255B1B-0565-4A76-8E06-E21061BB85EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A096CC07-08AE-4067-AFE7-26374D139FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="38280" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14844" uniqueCount="8464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14871" uniqueCount="8478">
   <si>
     <t>GL_ID</t>
   </si>
@@ -25434,6 +25434,48 @@
   </si>
   <si>
     <t>9355-1711 Québec Inc. [Olivier Dazé] Entreprises Limoges</t>
+  </si>
+  <si>
+    <t>9160-7887 Québec Inc [François Lavallée]</t>
+  </si>
+  <si>
+    <t>1833</t>
+  </si>
+  <si>
+    <t>9160-7887 Québec Inc</t>
+  </si>
+  <si>
+    <t>François Lavallée</t>
+  </si>
+  <si>
+    <t>flavallee@aliterconcept.com</t>
+  </si>
+  <si>
+    <t>1006 boul Jacques-DeGeay</t>
+  </si>
+  <si>
+    <t>J5W 2L9</t>
+  </si>
+  <si>
+    <t>Ascenseur Élévatrix Inc. [Malcom Gauthier]</t>
+  </si>
+  <si>
+    <t>1834</t>
+  </si>
+  <si>
+    <t>Ascenseur Élévatrix Inc.</t>
+  </si>
+  <si>
+    <t>Malcom Gauthier</t>
+  </si>
+  <si>
+    <t>ascenseur.elevatrix@outlook.com</t>
+  </si>
+  <si>
+    <t>45 rue de Coquelicots</t>
+  </si>
+  <si>
+    <t>Saint-Roch-del'Achigan</t>
   </si>
 </sst>
 </file>
@@ -25669,7 +25711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -25795,19 +25837,15 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -26142,7 +26180,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:R1155"/>
+  <dimension ref="A1:R1157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A1101" activePane="bottomLeft" state="frozen"/>
@@ -74553,19 +74591,105 @@
         <v>45798.954733796301</v>
       </c>
     </row>
+    <row r="1156" spans="1:18">
+      <c r="A1156" s="31" t="s">
+        <v>8464</v>
+      </c>
+      <c r="B1156" s="31" t="s">
+        <v>8465</v>
+      </c>
+      <c r="C1156" s="31" t="s">
+        <v>8466</v>
+      </c>
+      <c r="D1156" s="31" t="s">
+        <v>8467</v>
+      </c>
+      <c r="E1156" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1156" s="31" t="s">
+        <v>8468</v>
+      </c>
+      <c r="G1156" s="31" t="s">
+        <v>8469</v>
+      </c>
+      <c r="I1156" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="J1156" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1156" s="31" t="s">
+        <v>8470</v>
+      </c>
+      <c r="L1156" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1156" s="31" t="s">
+        <v>3669</v>
+      </c>
+      <c r="Q1156" s="31" t="s">
+        <v>8464</v>
+      </c>
+      <c r="R1156" s="47">
+        <v>45811.523356481499</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:18">
+      <c r="A1157" s="31" t="s">
+        <v>8471</v>
+      </c>
+      <c r="B1157" s="31" t="s">
+        <v>8472</v>
+      </c>
+      <c r="C1157" s="31" t="s">
+        <v>8473</v>
+      </c>
+      <c r="D1157" s="31" t="s">
+        <v>8474</v>
+      </c>
+      <c r="E1157" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1157" s="31" t="s">
+        <v>8475</v>
+      </c>
+      <c r="G1157" s="31" t="s">
+        <v>8476</v>
+      </c>
+      <c r="I1157" s="31" t="s">
+        <v>8477</v>
+      </c>
+      <c r="J1157" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1157" s="31" t="s">
+        <v>881</v>
+      </c>
+      <c r="L1157" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1157" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="P1157" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q1157" s="31" t="s">
+        <v>8471</v>
+      </c>
+      <c r="R1157" s="47">
+        <v>45811.709606481498</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R1148" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1152:R1154">
     <sortCondition ref="B1152:B1154"/>
   </sortState>
-  <conditionalFormatting sqref="A2:R1109 A1111:R1155">
-    <cfRule type="expression" dxfId="3" priority="2">
+  <conditionalFormatting sqref="A2:R1155">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1110:R1110">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($A1110&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -76705,7 +76829,7 @@
     <sortCondition ref="A1:A20"/>
   </sortState>
   <conditionalFormatting sqref="A2:L9999">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -83577,7 +83701,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D67">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A096CC07-08AE-4067-AFE7-26374D139FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29B4762-5DEB-4268-BE3B-7AA24746DF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="PlanComptable" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clients!$A$1:$R$1148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clients!$A$1:$R$1150</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fournisseurs!$A$1:$K$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -25711,7 +25711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -25836,9 +25836,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -26185,7 +26182,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A1101" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A1111" sqref="A1111"/>
+      <selection pane="bottomLeft" activeCell="A1120" sqref="A1120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -72555,134 +72552,125 @@
     </row>
     <row r="1111" spans="1:18">
       <c r="A1111" s="3" t="s">
-        <v>6488</v>
+        <v>8464</v>
       </c>
       <c r="B1111" s="46" t="s">
-        <v>45</v>
+        <v>8465</v>
       </c>
       <c r="C1111" s="41" t="s">
-        <v>7450</v>
+        <v>8466</v>
       </c>
       <c r="D1111" s="21" t="s">
-        <v>2243</v>
+        <v>8467</v>
       </c>
       <c r="E1111" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1111" s="21" t="s">
-        <v>2244</v>
+        <v>8468</v>
       </c>
       <c r="G1111" s="3" t="s">
-        <v>2245</v>
+        <v>8469</v>
       </c>
       <c r="I1111" s="3" t="s">
-        <v>2224</v>
+        <v>296</v>
       </c>
       <c r="J1111" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1111" s="22" t="s">
-        <v>2246</v>
+        <v>8470</v>
       </c>
       <c r="L1111" s="22" t="s">
         <v>153</v>
       </c>
       <c r="M1111" t="s">
-        <v>313</v>
-      </c>
-      <c r="N1111" s="38" t="s">
-        <v>5737</v>
-      </c>
-      <c r="O1111" t="s">
-        <v>313</v>
-      </c>
-      <c r="P1111" t="s">
-        <v>5282</v>
+        <v>3669</v>
       </c>
       <c r="Q1111" t="s">
-        <v>8064</v>
+        <v>8464</v>
       </c>
       <c r="R1111" s="43">
-        <v>45591.506944444402</v>
+        <v>45811.523356481499</v>
       </c>
     </row>
     <row r="1112" spans="1:18">
       <c r="A1112" s="3" t="s">
-        <v>6901</v>
+        <v>8471</v>
       </c>
       <c r="B1112" s="46" t="s">
-        <v>5738</v>
+        <v>8472</v>
       </c>
       <c r="C1112" s="41" t="s">
-        <v>7440</v>
+        <v>8473</v>
       </c>
       <c r="D1112" s="21" t="s">
-        <v>6904</v>
+        <v>8474</v>
       </c>
       <c r="E1112" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="F1112" s="21" t="s">
+        <v>8475</v>
       </c>
       <c r="G1112" s="3" t="s">
-        <v>2247</v>
+        <v>8476</v>
       </c>
       <c r="I1112" s="3" t="s">
-        <v>2224</v>
+        <v>8477</v>
       </c>
       <c r="J1112" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1112" s="22" t="s">
-        <v>2248</v>
+        <v>881</v>
       </c>
       <c r="L1112" s="22" t="s">
         <v>153</v>
       </c>
       <c r="M1112" t="s">
-        <v>313</v>
-      </c>
-      <c r="N1112" s="38" t="s">
-        <v>2734</v>
-      </c>
-      <c r="O1112" t="s">
-        <v>313</v>
+        <v>300</v>
+      </c>
+      <c r="P1112" t="s">
+        <v>300</v>
       </c>
       <c r="Q1112" t="s">
-        <v>8065</v>
+        <v>8471</v>
       </c>
       <c r="R1112" s="43">
-        <v>45592.251759259299</v>
+        <v>45811.709606481498</v>
       </c>
     </row>
     <row r="1113" spans="1:18">
       <c r="A1113" s="3" t="s">
-        <v>6898</v>
+        <v>6488</v>
       </c>
       <c r="B1113" s="46" t="s">
-        <v>5739</v>
+        <v>45</v>
       </c>
       <c r="C1113" s="41" t="s">
-        <v>7416</v>
+        <v>7450</v>
       </c>
       <c r="D1113" s="21" t="s">
-        <v>6905</v>
+        <v>2243</v>
       </c>
       <c r="E1113" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F1113" s="21" t="s">
-        <v>2249</v>
+        <v>2244</v>
       </c>
       <c r="G1113" s="3" t="s">
-        <v>2250</v>
+        <v>2245</v>
       </c>
       <c r="I1113" s="3" t="s">
-        <v>245</v>
+        <v>2224</v>
       </c>
       <c r="J1113" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1113" s="22" t="s">
-        <v>2251</v>
+        <v>2246</v>
       </c>
       <c r="L1113" s="22" t="s">
         <v>153</v>
@@ -72691,13 +72679,16 @@
         <v>313</v>
       </c>
       <c r="N1113" s="38" t="s">
-        <v>5558</v>
+        <v>5737</v>
       </c>
       <c r="O1113" t="s">
         <v>313</v>
       </c>
+      <c r="P1113" t="s">
+        <v>5282</v>
+      </c>
       <c r="Q1113" t="s">
-        <v>8066</v>
+        <v>8064</v>
       </c>
       <c r="R1113" s="43">
         <v>45591.506944444402</v>
@@ -72705,34 +72696,31 @@
     </row>
     <row r="1114" spans="1:18">
       <c r="A1114" s="3" t="s">
-        <v>6902</v>
+        <v>6901</v>
       </c>
       <c r="B1114" s="46" t="s">
-        <v>5740</v>
+        <v>5738</v>
       </c>
       <c r="C1114" s="41" t="s">
-        <v>7448</v>
+        <v>7440</v>
       </c>
       <c r="D1114" s="21" t="s">
-        <v>6906</v>
+        <v>6904</v>
       </c>
       <c r="E1114" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F1114" s="21" t="s">
-        <v>1561</v>
-      </c>
       <c r="G1114" s="3" t="s">
-        <v>2252</v>
+        <v>2247</v>
       </c>
       <c r="I1114" s="3" t="s">
-        <v>154</v>
+        <v>2224</v>
       </c>
       <c r="J1114" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1114" s="22" t="s">
-        <v>1563</v>
+        <v>2248</v>
       </c>
       <c r="L1114" s="22" t="s">
         <v>153</v>
@@ -72746,46 +72734,43 @@
       <c r="O1114" t="s">
         <v>313</v>
       </c>
-      <c r="P1114" t="s">
-        <v>5282</v>
-      </c>
       <c r="Q1114" t="s">
-        <v>8067</v>
+        <v>8065</v>
       </c>
       <c r="R1114" s="43">
-        <v>45591.506944444402</v>
+        <v>45592.251759259299</v>
       </c>
     </row>
     <row r="1115" spans="1:18">
       <c r="A1115" s="3" t="s">
-        <v>6489</v>
+        <v>6898</v>
       </c>
       <c r="B1115" s="46" t="s">
-        <v>5741</v>
+        <v>5739</v>
       </c>
       <c r="C1115" s="41" t="s">
-        <v>7431</v>
+        <v>7416</v>
       </c>
       <c r="D1115" s="21" t="s">
-        <v>2253</v>
+        <v>6905</v>
       </c>
       <c r="E1115" s="23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F1115" s="21" t="s">
-        <v>2254</v>
+        <v>2249</v>
       </c>
       <c r="G1115" s="3" t="s">
-        <v>2255</v>
+        <v>2250</v>
       </c>
       <c r="I1115" s="3" t="s">
-        <v>2256</v>
+        <v>245</v>
       </c>
       <c r="J1115" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1115" s="22" t="s">
-        <v>2257</v>
+        <v>2251</v>
       </c>
       <c r="L1115" s="22" t="s">
         <v>153</v>
@@ -72794,13 +72779,13 @@
         <v>313</v>
       </c>
       <c r="N1115" s="38" t="s">
-        <v>2734</v>
+        <v>5558</v>
       </c>
       <c r="O1115" t="s">
         <v>313</v>
       </c>
       <c r="Q1115" t="s">
-        <v>8068</v>
+        <v>8066</v>
       </c>
       <c r="R1115" s="43">
         <v>45591.506944444402</v>
@@ -72808,34 +72793,34 @@
     </row>
     <row r="1116" spans="1:18">
       <c r="A1116" s="3" t="s">
-        <v>6490</v>
+        <v>6902</v>
       </c>
       <c r="B1116" s="46" t="s">
-        <v>47</v>
+        <v>5740</v>
       </c>
       <c r="C1116" s="41" t="s">
-        <v>7211</v>
+        <v>7448</v>
       </c>
       <c r="D1116" s="21" t="s">
-        <v>2258</v>
+        <v>6906</v>
       </c>
       <c r="E1116" s="23" t="s">
-        <v>2259</v>
+        <v>165</v>
       </c>
       <c r="F1116" s="21" t="s">
-        <v>705</v>
+        <v>1561</v>
       </c>
       <c r="G1116" s="3" t="s">
-        <v>2260</v>
+        <v>2252</v>
       </c>
       <c r="I1116" s="3" t="s">
-        <v>1148</v>
+        <v>154</v>
       </c>
       <c r="J1116" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1116" s="22" t="s">
-        <v>708</v>
+        <v>1563</v>
       </c>
       <c r="L1116" s="22" t="s">
         <v>153</v>
@@ -72850,10 +72835,10 @@
         <v>313</v>
       </c>
       <c r="P1116" t="s">
-        <v>5750</v>
+        <v>5282</v>
       </c>
       <c r="Q1116" t="s">
-        <v>8151</v>
+        <v>8067</v>
       </c>
       <c r="R1116" s="43">
         <v>45591.506944444402</v>
@@ -72861,34 +72846,34 @@
     </row>
     <row r="1117" spans="1:18">
       <c r="A1117" s="3" t="s">
-        <v>6491</v>
+        <v>6489</v>
       </c>
       <c r="B1117" s="46" t="s">
-        <v>5742</v>
+        <v>5741</v>
       </c>
       <c r="C1117" s="41" t="s">
-        <v>7496</v>
+        <v>7431</v>
       </c>
       <c r="D1117" s="21" t="s">
-        <v>2261</v>
+        <v>2253</v>
       </c>
       <c r="E1117" s="23" t="s">
-        <v>2259</v>
+        <v>166</v>
       </c>
       <c r="F1117" s="21" t="s">
-        <v>2262</v>
+        <v>2254</v>
       </c>
       <c r="G1117" s="3" t="s">
-        <v>2263</v>
+        <v>2255</v>
       </c>
       <c r="I1117" s="3" t="s">
-        <v>2264</v>
+        <v>2256</v>
       </c>
       <c r="J1117" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1117" s="22" t="s">
-        <v>2265</v>
+        <v>2257</v>
       </c>
       <c r="L1117" s="22" t="s">
         <v>153</v>
@@ -72903,7 +72888,7 @@
         <v>313</v>
       </c>
       <c r="Q1117" t="s">
-        <v>8069</v>
+        <v>8068</v>
       </c>
       <c r="R1117" s="43">
         <v>45591.506944444402</v>
@@ -72911,34 +72896,34 @@
     </row>
     <row r="1118" spans="1:18">
       <c r="A1118" s="3" t="s">
-        <v>6903</v>
+        <v>6490</v>
       </c>
       <c r="B1118" s="46" t="s">
-        <v>5743</v>
+        <v>47</v>
       </c>
       <c r="C1118" s="41" t="s">
-        <v>7495</v>
+        <v>7211</v>
       </c>
       <c r="D1118" s="21" t="s">
-        <v>6907</v>
+        <v>2258</v>
       </c>
       <c r="E1118" s="23" t="s">
         <v>2259</v>
       </c>
       <c r="F1118" s="21" t="s">
-        <v>2267</v>
+        <v>705</v>
       </c>
       <c r="G1118" s="3" t="s">
-        <v>2268</v>
+        <v>2260</v>
       </c>
       <c r="I1118" s="3" t="s">
-        <v>412</v>
+        <v>1148</v>
       </c>
       <c r="J1118" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1118" s="22" t="s">
-        <v>2269</v>
+        <v>708</v>
       </c>
       <c r="L1118" s="22" t="s">
         <v>153</v>
@@ -72953,10 +72938,10 @@
         <v>313</v>
       </c>
       <c r="P1118" t="s">
-        <v>5282</v>
+        <v>5750</v>
       </c>
       <c r="Q1118" t="s">
-        <v>8070</v>
+        <v>8151</v>
       </c>
       <c r="R1118" s="43">
         <v>45591.506944444402</v>
@@ -72964,34 +72949,34 @@
     </row>
     <row r="1119" spans="1:18">
       <c r="A1119" s="3" t="s">
-        <v>6492</v>
+        <v>6491</v>
       </c>
       <c r="B1119" s="46" t="s">
-        <v>5744</v>
+        <v>5742</v>
       </c>
       <c r="C1119" s="41" t="s">
-        <v>7532</v>
+        <v>7496</v>
       </c>
       <c r="D1119" s="21" t="s">
-        <v>2270</v>
+        <v>2261</v>
       </c>
       <c r="E1119" s="23" t="s">
-        <v>166</v>
+        <v>2259</v>
       </c>
       <c r="F1119" s="21" t="s">
-        <v>2271</v>
+        <v>2262</v>
       </c>
       <c r="G1119" s="3" t="s">
-        <v>2272</v>
+        <v>2263</v>
       </c>
       <c r="I1119" s="3" t="s">
-        <v>239</v>
+        <v>2264</v>
       </c>
       <c r="J1119" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1119" s="22" t="s">
-        <v>2273</v>
+        <v>2265</v>
       </c>
       <c r="L1119" s="22" t="s">
         <v>153</v>
@@ -73005,11 +72990,8 @@
       <c r="O1119" t="s">
         <v>313</v>
       </c>
-      <c r="P1119" t="s">
-        <v>5282</v>
-      </c>
       <c r="Q1119" t="s">
-        <v>7907</v>
+        <v>8069</v>
       </c>
       <c r="R1119" s="43">
         <v>45591.506944444402</v>
@@ -73017,34 +72999,34 @@
     </row>
     <row r="1120" spans="1:18">
       <c r="A1120" s="3" t="s">
-        <v>7769</v>
+        <v>6903</v>
       </c>
       <c r="B1120" s="46" t="s">
-        <v>5745</v>
+        <v>5743</v>
       </c>
       <c r="C1120" s="41" t="s">
-        <v>7429</v>
+        <v>7495</v>
       </c>
       <c r="D1120" s="21" t="s">
-        <v>2274</v>
+        <v>6907</v>
       </c>
       <c r="E1120" s="23" t="s">
-        <v>166</v>
+        <v>2259</v>
       </c>
       <c r="F1120" s="21" t="s">
-        <v>2275</v>
+        <v>2267</v>
       </c>
       <c r="G1120" s="3" t="s">
-        <v>2276</v>
+        <v>2268</v>
       </c>
       <c r="I1120" s="3" t="s">
-        <v>2277</v>
+        <v>412</v>
       </c>
       <c r="J1120" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1120" s="22" t="s">
-        <v>2278</v>
+        <v>2269</v>
       </c>
       <c r="L1120" s="22" t="s">
         <v>153</v>
@@ -73053,48 +73035,51 @@
         <v>313</v>
       </c>
       <c r="N1120" s="38" t="s">
-        <v>5746</v>
+        <v>2734</v>
       </c>
       <c r="O1120" t="s">
         <v>313</v>
       </c>
+      <c r="P1120" t="s">
+        <v>5282</v>
+      </c>
       <c r="Q1120" t="s">
-        <v>8152</v>
+        <v>8070</v>
       </c>
       <c r="R1120" s="43">
-        <v>45626.355034722197</v>
+        <v>45591.506944444402</v>
       </c>
     </row>
     <row r="1121" spans="1:18">
       <c r="A1121" s="3" t="s">
-        <v>6493</v>
+        <v>6492</v>
       </c>
       <c r="B1121" s="46" t="s">
-        <v>5747</v>
+        <v>5744</v>
       </c>
       <c r="C1121" s="41" t="s">
-        <v>7435</v>
+        <v>7532</v>
       </c>
       <c r="D1121" s="21" t="s">
-        <v>2279</v>
+        <v>2270</v>
       </c>
       <c r="E1121" s="23" t="s">
-        <v>2280</v>
+        <v>166</v>
       </c>
       <c r="F1121" s="21" t="s">
-        <v>2281</v>
+        <v>2271</v>
       </c>
       <c r="G1121" s="3" t="s">
-        <v>2282</v>
+        <v>2272</v>
       </c>
       <c r="I1121" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J1121" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1121" s="22" t="s">
-        <v>2283</v>
+        <v>2273</v>
       </c>
       <c r="L1121" s="22" t="s">
         <v>153</v>
@@ -73108,8 +73093,11 @@
       <c r="O1121" t="s">
         <v>313</v>
       </c>
+      <c r="P1121" t="s">
+        <v>5282</v>
+      </c>
       <c r="Q1121" t="s">
-        <v>7908</v>
+        <v>7907</v>
       </c>
       <c r="R1121" s="43">
         <v>45591.506944444402</v>
@@ -73117,34 +73105,34 @@
     </row>
     <row r="1122" spans="1:18">
       <c r="A1122" s="3" t="s">
-        <v>6494</v>
+        <v>7769</v>
       </c>
       <c r="B1122" s="46" t="s">
-        <v>5748</v>
+        <v>5745</v>
       </c>
       <c r="C1122" s="41" t="s">
-        <v>7243</v>
+        <v>7429</v>
       </c>
       <c r="D1122" s="21" t="s">
-        <v>2284</v>
+        <v>2274</v>
       </c>
       <c r="E1122" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F1122" s="21" t="s">
-        <v>2285</v>
+        <v>2275</v>
       </c>
       <c r="G1122" s="3" t="s">
-        <v>2286</v>
+        <v>2276</v>
       </c>
       <c r="I1122" s="3" t="s">
-        <v>1513</v>
+        <v>2277</v>
       </c>
       <c r="J1122" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1122" s="22" t="s">
-        <v>2287</v>
+        <v>2278</v>
       </c>
       <c r="L1122" s="22" t="s">
         <v>153</v>
@@ -73153,48 +73141,48 @@
         <v>313</v>
       </c>
       <c r="N1122" s="38" t="s">
-        <v>5310</v>
+        <v>5746</v>
       </c>
       <c r="O1122" t="s">
         <v>313</v>
       </c>
       <c r="Q1122" t="s">
-        <v>6494</v>
+        <v>8152</v>
       </c>
       <c r="R1122" s="43">
-        <v>45591.506944444402</v>
+        <v>45626.355034722197</v>
       </c>
     </row>
     <row r="1123" spans="1:18">
       <c r="A1123" s="3" t="s">
-        <v>6495</v>
+        <v>6493</v>
       </c>
       <c r="B1123" s="46" t="s">
-        <v>5749</v>
+        <v>5747</v>
       </c>
       <c r="C1123" s="41" t="s">
-        <v>7433</v>
+        <v>7435</v>
       </c>
       <c r="D1123" s="21" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
       <c r="E1123" s="23" t="s">
-        <v>165</v>
+        <v>2280</v>
       </c>
       <c r="F1123" s="21" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
       <c r="G1123" s="3" t="s">
-        <v>2286</v>
+        <v>2282</v>
       </c>
       <c r="I1123" s="3" t="s">
-        <v>1513</v>
+        <v>245</v>
       </c>
       <c r="J1123" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1123" s="22" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
       <c r="L1123" s="22" t="s">
         <v>153</v>
@@ -73203,13 +73191,13 @@
         <v>313</v>
       </c>
       <c r="N1123" s="38" t="s">
-        <v>5310</v>
+        <v>2734</v>
       </c>
       <c r="O1123" t="s">
         <v>313</v>
       </c>
       <c r="Q1123" t="s">
-        <v>7909</v>
+        <v>7908</v>
       </c>
       <c r="R1123" s="43">
         <v>45591.506944444402</v>
@@ -73217,31 +73205,34 @@
     </row>
     <row r="1124" spans="1:18">
       <c r="A1124" s="3" t="s">
-        <v>5812</v>
+        <v>6494</v>
       </c>
       <c r="B1124" s="46" t="s">
-        <v>5281</v>
+        <v>5748</v>
+      </c>
+      <c r="C1124" s="41" t="s">
+        <v>7243</v>
       </c>
       <c r="D1124" s="21" t="s">
-        <v>2258</v>
+        <v>2284</v>
       </c>
       <c r="E1124" s="23" t="s">
-        <v>821</v>
+        <v>165</v>
       </c>
       <c r="F1124" s="21" t="s">
-        <v>705</v>
+        <v>2285</v>
       </c>
       <c r="G1124" s="3" t="s">
-        <v>2260</v>
+        <v>2286</v>
       </c>
       <c r="I1124" s="3" t="s">
-        <v>1148</v>
+        <v>1513</v>
       </c>
       <c r="J1124" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1124" s="22" t="s">
-        <v>708</v>
+        <v>2287</v>
       </c>
       <c r="L1124" s="22" t="s">
         <v>153</v>
@@ -73250,16 +73241,13 @@
         <v>313</v>
       </c>
       <c r="N1124" s="38" t="s">
-        <v>5746</v>
+        <v>5310</v>
       </c>
       <c r="O1124" t="s">
         <v>313</v>
       </c>
-      <c r="P1124" t="s">
-        <v>5282</v>
-      </c>
       <c r="Q1124" t="s">
-        <v>5812</v>
+        <v>6494</v>
       </c>
       <c r="R1124" s="43">
         <v>45591.506944444402</v>
@@ -73267,34 +73255,34 @@
     </row>
     <row r="1125" spans="1:18">
       <c r="A1125" s="3" t="s">
-        <v>6496</v>
+        <v>6495</v>
       </c>
       <c r="B1125" s="46" t="s">
-        <v>5751</v>
+        <v>5749</v>
       </c>
       <c r="C1125" s="41" t="s">
-        <v>7442</v>
+        <v>7433</v>
       </c>
       <c r="D1125" s="21" t="s">
-        <v>2266</v>
+        <v>2284</v>
       </c>
       <c r="E1125" s="23" t="s">
-        <v>844</v>
+        <v>165</v>
       </c>
       <c r="F1125" s="21" t="s">
-        <v>2267</v>
+        <v>2285</v>
       </c>
       <c r="G1125" s="3" t="s">
-        <v>2268</v>
+        <v>2286</v>
       </c>
       <c r="I1125" s="3" t="s">
-        <v>412</v>
+        <v>1513</v>
       </c>
       <c r="J1125" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1125" s="22" t="s">
-        <v>2269</v>
+        <v>2287</v>
       </c>
       <c r="L1125" s="22" t="s">
         <v>153</v>
@@ -73303,16 +73291,13 @@
         <v>313</v>
       </c>
       <c r="N1125" s="38" t="s">
-        <v>5752</v>
+        <v>5310</v>
       </c>
       <c r="O1125" t="s">
         <v>313</v>
       </c>
-      <c r="P1125" t="s">
-        <v>5282</v>
-      </c>
       <c r="Q1125" t="s">
-        <v>7910</v>
+        <v>7909</v>
       </c>
       <c r="R1125" s="43">
         <v>45591.506944444402</v>
@@ -73320,34 +73305,31 @@
     </row>
     <row r="1126" spans="1:18">
       <c r="A1126" s="3" t="s">
-        <v>6497</v>
+        <v>5812</v>
       </c>
       <c r="B1126" s="46" t="s">
-        <v>5753</v>
-      </c>
-      <c r="C1126" s="41" t="s">
-        <v>7476</v>
+        <v>5281</v>
       </c>
       <c r="D1126" s="21" t="s">
-        <v>2266</v>
+        <v>2258</v>
       </c>
       <c r="E1126" s="23" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="F1126" s="21" t="s">
-        <v>2267</v>
+        <v>705</v>
       </c>
       <c r="G1126" s="3" t="s">
-        <v>2268</v>
+        <v>2260</v>
       </c>
       <c r="I1126" s="3" t="s">
-        <v>412</v>
+        <v>1148</v>
       </c>
       <c r="J1126" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1126" s="22" t="s">
-        <v>2269</v>
+        <v>708</v>
       </c>
       <c r="L1126" s="22" t="s">
         <v>153</v>
@@ -73356,7 +73338,7 @@
         <v>313</v>
       </c>
       <c r="N1126" s="38" t="s">
-        <v>5752</v>
+        <v>5746</v>
       </c>
       <c r="O1126" t="s">
         <v>313</v>
@@ -73365,7 +73347,7 @@
         <v>5282</v>
       </c>
       <c r="Q1126" t="s">
-        <v>7911</v>
+        <v>5812</v>
       </c>
       <c r="R1126" s="43">
         <v>45591.506944444402</v>
@@ -73373,34 +73355,34 @@
     </row>
     <row r="1127" spans="1:18">
       <c r="A1127" s="3" t="s">
-        <v>6899</v>
+        <v>6496</v>
       </c>
       <c r="B1127" s="46" t="s">
-        <v>5754</v>
+        <v>5751</v>
       </c>
       <c r="C1127" s="41" t="s">
-        <v>7372</v>
+        <v>7442</v>
       </c>
       <c r="D1127" s="21" t="s">
-        <v>6908</v>
+        <v>2266</v>
       </c>
       <c r="E1127" s="23" t="s">
         <v>844</v>
       </c>
       <c r="F1127" s="21" t="s">
-        <v>2288</v>
+        <v>2267</v>
       </c>
       <c r="G1127" s="3" t="s">
-        <v>2289</v>
+        <v>2268</v>
       </c>
       <c r="I1127" s="3" t="s">
-        <v>2290</v>
+        <v>412</v>
       </c>
       <c r="J1127" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1127" s="22" t="s">
-        <v>2291</v>
+        <v>2269</v>
       </c>
       <c r="L1127" s="22" t="s">
         <v>153</v>
@@ -73409,13 +73391,16 @@
         <v>313</v>
       </c>
       <c r="N1127" s="38" t="s">
-        <v>2734</v>
+        <v>5752</v>
       </c>
       <c r="O1127" t="s">
-        <v>2292</v>
+        <v>313</v>
+      </c>
+      <c r="P1127" t="s">
+        <v>5282</v>
       </c>
       <c r="Q1127" t="s">
-        <v>7912</v>
+        <v>7910</v>
       </c>
       <c r="R1127" s="43">
         <v>45591.506944444402</v>
@@ -73423,34 +73408,34 @@
     </row>
     <row r="1128" spans="1:18">
       <c r="A1128" s="3" t="s">
-        <v>6498</v>
+        <v>6497</v>
       </c>
       <c r="B1128" s="46" t="s">
-        <v>5755</v>
+        <v>5753</v>
       </c>
       <c r="C1128" s="41" t="s">
-        <v>7536</v>
+        <v>7476</v>
       </c>
       <c r="D1128" s="21" t="s">
-        <v>2293</v>
+        <v>2266</v>
       </c>
       <c r="E1128" s="23" t="s">
-        <v>166</v>
+        <v>844</v>
       </c>
       <c r="F1128" s="21" t="s">
-        <v>2294</v>
+        <v>2267</v>
       </c>
       <c r="G1128" s="3" t="s">
-        <v>2295</v>
+        <v>2268</v>
       </c>
       <c r="I1128" s="3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="J1128" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1128" s="22" t="s">
-        <v>2140</v>
+        <v>2269</v>
       </c>
       <c r="L1128" s="22" t="s">
         <v>153</v>
@@ -73459,13 +73444,16 @@
         <v>313</v>
       </c>
       <c r="N1128" s="38" t="s">
-        <v>5719</v>
+        <v>5752</v>
       </c>
       <c r="O1128" t="s">
         <v>313</v>
       </c>
+      <c r="P1128" t="s">
+        <v>5282</v>
+      </c>
       <c r="Q1128" t="s">
-        <v>7913</v>
+        <v>7911</v>
       </c>
       <c r="R1128" s="43">
         <v>45591.506944444402</v>
@@ -73473,37 +73461,34 @@
     </row>
     <row r="1129" spans="1:18">
       <c r="A1129" s="3" t="s">
-        <v>6499</v>
+        <v>6899</v>
       </c>
       <c r="B1129" s="46" t="s">
-        <v>5756</v>
+        <v>5754</v>
       </c>
       <c r="C1129" s="41" t="s">
-        <v>7419</v>
+        <v>7372</v>
       </c>
       <c r="D1129" s="21" t="s">
-        <v>2293</v>
+        <v>6908</v>
       </c>
       <c r="E1129" s="23" t="s">
-        <v>166</v>
+        <v>844</v>
       </c>
       <c r="F1129" s="21" t="s">
-        <v>2296</v>
+        <v>2288</v>
       </c>
       <c r="G1129" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H1129" s="3" t="s">
-        <v>2297</v>
+        <v>2289</v>
       </c>
       <c r="I1129" s="3" t="s">
-        <v>245</v>
+        <v>2290</v>
       </c>
       <c r="J1129" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1129" s="22" t="s">
-        <v>246</v>
+        <v>2291</v>
       </c>
       <c r="L1129" s="22" t="s">
         <v>153</v>
@@ -73515,13 +73500,10 @@
         <v>2734</v>
       </c>
       <c r="O1129" t="s">
-        <v>313</v>
-      </c>
-      <c r="P1129" t="s">
-        <v>2298</v>
+        <v>2292</v>
       </c>
       <c r="Q1129" t="s">
-        <v>7914</v>
+        <v>7912</v>
       </c>
       <c r="R1129" s="43">
         <v>45591.506944444402</v>
@@ -73529,34 +73511,34 @@
     </row>
     <row r="1130" spans="1:18">
       <c r="A1130" s="3" t="s">
-        <v>6500</v>
+        <v>6498</v>
       </c>
       <c r="B1130" s="46" t="s">
-        <v>5757</v>
+        <v>5755</v>
       </c>
       <c r="C1130" s="41" t="s">
-        <v>7350</v>
+        <v>7536</v>
       </c>
       <c r="D1130" s="21" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="E1130" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1130" s="21" t="s">
-        <v>2300</v>
+        <v>2294</v>
       </c>
       <c r="G1130" s="3" t="s">
-        <v>2301</v>
+        <v>2295</v>
       </c>
       <c r="I1130" s="3" t="s">
-        <v>1628</v>
+        <v>164</v>
       </c>
       <c r="J1130" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1130" s="22" t="s">
-        <v>2302</v>
+        <v>2140</v>
       </c>
       <c r="L1130" s="22" t="s">
         <v>153</v>
@@ -73565,13 +73547,13 @@
         <v>313</v>
       </c>
       <c r="N1130" s="38" t="s">
-        <v>5737</v>
+        <v>5719</v>
       </c>
       <c r="O1130" t="s">
         <v>313</v>
       </c>
       <c r="Q1130" t="s">
-        <v>7915</v>
+        <v>7913</v>
       </c>
       <c r="R1130" s="43">
         <v>45591.506944444402</v>
@@ -73579,34 +73561,37 @@
     </row>
     <row r="1131" spans="1:18">
       <c r="A1131" s="3" t="s">
-        <v>6501</v>
+        <v>6499</v>
       </c>
       <c r="B1131" s="46" t="s">
-        <v>5283</v>
+        <v>5756</v>
       </c>
       <c r="C1131" s="41" t="s">
-        <v>7487</v>
+        <v>7419</v>
       </c>
       <c r="D1131" s="21" t="s">
-        <v>7630</v>
+        <v>2293</v>
       </c>
       <c r="E1131" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1131" s="21" t="s">
-        <v>2303</v>
+        <v>2296</v>
       </c>
       <c r="G1131" s="3" t="s">
-        <v>2304</v>
+        <v>244</v>
+      </c>
+      <c r="H1131" s="3" t="s">
+        <v>2297</v>
       </c>
       <c r="I1131" s="3" t="s">
-        <v>2305</v>
+        <v>245</v>
       </c>
       <c r="J1131" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1131" s="22" t="s">
-        <v>2306</v>
+        <v>246</v>
       </c>
       <c r="L1131" s="22" t="s">
         <v>153</v>
@@ -73620,43 +73605,46 @@
       <c r="O1131" t="s">
         <v>313</v>
       </c>
+      <c r="P1131" t="s">
+        <v>2298</v>
+      </c>
       <c r="Q1131" t="s">
-        <v>7916</v>
+        <v>7914</v>
       </c>
       <c r="R1131" s="43">
-        <v>45599.491631944402</v>
+        <v>45591.506944444402</v>
       </c>
     </row>
     <row r="1132" spans="1:18">
       <c r="A1132" s="3" t="s">
-        <v>6502</v>
+        <v>6500</v>
       </c>
       <c r="B1132" s="46" t="s">
-        <v>5758</v>
+        <v>5757</v>
       </c>
       <c r="C1132" s="41" t="s">
-        <v>7434</v>
+        <v>7350</v>
       </c>
       <c r="D1132" s="21" t="s">
-        <v>2307</v>
+        <v>2299</v>
       </c>
       <c r="E1132" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F1132" s="21" t="s">
-        <v>2308</v>
+        <v>2300</v>
       </c>
       <c r="G1132" s="3" t="s">
-        <v>2286</v>
+        <v>2301</v>
       </c>
       <c r="I1132" s="3" t="s">
-        <v>1513</v>
+        <v>1628</v>
       </c>
       <c r="J1132" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1132" s="22" t="s">
-        <v>2287</v>
+        <v>2302</v>
       </c>
       <c r="L1132" s="22" t="s">
         <v>153</v>
@@ -73665,13 +73653,13 @@
         <v>313</v>
       </c>
       <c r="N1132" s="38" t="s">
-        <v>5310</v>
+        <v>5737</v>
       </c>
       <c r="O1132" t="s">
         <v>313</v>
       </c>
       <c r="Q1132" t="s">
-        <v>7917</v>
+        <v>7915</v>
       </c>
       <c r="R1132" s="43">
         <v>45591.506944444402</v>
@@ -73679,34 +73667,34 @@
     </row>
     <row r="1133" spans="1:18">
       <c r="A1133" s="3" t="s">
-        <v>7648</v>
+        <v>6501</v>
       </c>
       <c r="B1133" s="46" t="s">
-        <v>5759</v>
+        <v>5283</v>
       </c>
       <c r="C1133" s="41" t="s">
-        <v>7175</v>
+        <v>7487</v>
       </c>
       <c r="D1133" s="21" t="s">
-        <v>2279</v>
+        <v>7630</v>
       </c>
       <c r="E1133" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1133" s="21" t="s">
-        <v>2281</v>
+        <v>2303</v>
       </c>
       <c r="G1133" s="3" t="s">
-        <v>2309</v>
+        <v>2304</v>
       </c>
       <c r="I1133" s="3" t="s">
-        <v>240</v>
+        <v>2305</v>
       </c>
       <c r="J1133" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1133" s="22" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="L1133" s="22" t="s">
         <v>153</v>
@@ -73715,51 +73703,48 @@
         <v>313</v>
       </c>
       <c r="N1133" s="38" t="s">
-        <v>5737</v>
+        <v>2734</v>
       </c>
       <c r="O1133" t="s">
         <v>313</v>
       </c>
       <c r="Q1133" t="s">
-        <v>8153</v>
+        <v>7916</v>
       </c>
       <c r="R1133" s="43">
-        <v>45602.572002314802</v>
+        <v>45599.491631944402</v>
       </c>
     </row>
     <row r="1134" spans="1:18">
       <c r="A1134" s="3" t="s">
-        <v>6503</v>
+        <v>6502</v>
       </c>
       <c r="B1134" s="46" t="s">
-        <v>5760</v>
+        <v>5758</v>
       </c>
       <c r="C1134" s="41" t="s">
-        <v>7430</v>
+        <v>7434</v>
       </c>
       <c r="D1134" s="21" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="E1134" s="23" t="s">
         <v>165</v>
       </c>
       <c r="F1134" s="21" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="G1134" s="3" t="s">
-        <v>2313</v>
-      </c>
-      <c r="H1134" s="3" t="s">
-        <v>2314</v>
+        <v>2286</v>
       </c>
       <c r="I1134" s="3" t="s">
-        <v>245</v>
+        <v>1513</v>
       </c>
       <c r="J1134" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1134" s="22" t="s">
-        <v>2315</v>
+        <v>2287</v>
       </c>
       <c r="L1134" s="22" t="s">
         <v>153</v>
@@ -73768,13 +73753,13 @@
         <v>313</v>
       </c>
       <c r="N1134" s="38" t="s">
-        <v>5728</v>
+        <v>5310</v>
       </c>
       <c r="O1134" t="s">
         <v>313</v>
       </c>
       <c r="Q1134" t="s">
-        <v>7918</v>
+        <v>7917</v>
       </c>
       <c r="R1134" s="43">
         <v>45591.506944444402</v>
@@ -73782,34 +73767,34 @@
     </row>
     <row r="1135" spans="1:18">
       <c r="A1135" s="3" t="s">
-        <v>6504</v>
+        <v>7648</v>
       </c>
       <c r="B1135" s="46" t="s">
-        <v>5761</v>
+        <v>5759</v>
       </c>
       <c r="C1135" s="41" t="s">
-        <v>7542</v>
+        <v>7175</v>
       </c>
       <c r="D1135" s="21" t="s">
-        <v>2316</v>
+        <v>2279</v>
       </c>
       <c r="E1135" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1135" s="21" t="s">
-        <v>2317</v>
+        <v>2281</v>
       </c>
       <c r="G1135" s="3" t="s">
-        <v>2318</v>
+        <v>2309</v>
       </c>
       <c r="I1135" s="3" t="s">
-        <v>2319</v>
+        <v>240</v>
       </c>
       <c r="J1135" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1135" s="22" t="s">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="L1135" s="22" t="s">
         <v>153</v>
@@ -73818,48 +73803,51 @@
         <v>313</v>
       </c>
       <c r="N1135" s="38" t="s">
-        <v>5728</v>
+        <v>5737</v>
       </c>
       <c r="O1135" t="s">
         <v>313</v>
       </c>
       <c r="Q1135" t="s">
-        <v>7919</v>
+        <v>8153</v>
       </c>
       <c r="R1135" s="43">
-        <v>45591.506944444402</v>
+        <v>45602.572002314802</v>
       </c>
     </row>
     <row r="1136" spans="1:18">
       <c r="A1136" s="3" t="s">
-        <v>6505</v>
+        <v>6503</v>
       </c>
       <c r="B1136" s="46" t="s">
-        <v>5762</v>
+        <v>5760</v>
       </c>
       <c r="C1136" s="41" t="s">
-        <v>7437</v>
+        <v>7430</v>
       </c>
       <c r="D1136" s="21" t="s">
-        <v>2261</v>
+        <v>2311</v>
       </c>
       <c r="E1136" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F1136" s="21" t="s">
-        <v>2262</v>
+        <v>2312</v>
       </c>
       <c r="G1136" s="3" t="s">
-        <v>2263</v>
+        <v>2313</v>
+      </c>
+      <c r="H1136" s="3" t="s">
+        <v>2314</v>
       </c>
       <c r="I1136" s="3" t="s">
-        <v>2264</v>
+        <v>245</v>
       </c>
       <c r="J1136" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1136" s="22" t="s">
-        <v>2265</v>
+        <v>2315</v>
       </c>
       <c r="L1136" s="22" t="s">
         <v>153</v>
@@ -73868,13 +73856,13 @@
         <v>313</v>
       </c>
       <c r="N1136" s="38" t="s">
-        <v>2734</v>
+        <v>5728</v>
       </c>
       <c r="O1136" t="s">
         <v>313</v>
       </c>
       <c r="Q1136" t="s">
-        <v>7920</v>
+        <v>7918</v>
       </c>
       <c r="R1136" s="43">
         <v>45591.506944444402</v>
@@ -73882,34 +73870,34 @@
     </row>
     <row r="1137" spans="1:18">
       <c r="A1137" s="3" t="s">
-        <v>7647</v>
+        <v>6504</v>
       </c>
       <c r="B1137" s="46" t="s">
-        <v>6918</v>
+        <v>5761</v>
       </c>
       <c r="C1137" s="41" t="s">
-        <v>7164</v>
+        <v>7542</v>
       </c>
       <c r="D1137" s="21" t="s">
-        <v>2855</v>
+        <v>2316</v>
       </c>
       <c r="E1137" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1137" s="21" t="s">
-        <v>7783</v>
+        <v>2317</v>
       </c>
       <c r="G1137" s="3" t="s">
-        <v>2856</v>
+        <v>2318</v>
       </c>
       <c r="I1137" s="3" t="s">
-        <v>6919</v>
+        <v>2319</v>
       </c>
       <c r="J1137" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1137" s="22" t="s">
-        <v>2857</v>
+        <v>2320</v>
       </c>
       <c r="L1137" s="22" t="s">
         <v>153</v>
@@ -73918,230 +73906,236 @@
         <v>313</v>
       </c>
       <c r="N1137" s="38" t="s">
-        <v>5558</v>
+        <v>5728</v>
       </c>
       <c r="O1137" t="s">
         <v>313</v>
       </c>
-      <c r="P1137" t="s">
-        <v>5282</v>
-      </c>
       <c r="Q1137" t="s">
-        <v>8154</v>
+        <v>7919</v>
       </c>
       <c r="R1137" s="43">
-        <v>45634.650567129604</v>
+        <v>45591.506944444402</v>
       </c>
     </row>
     <row r="1138" spans="1:18">
       <c r="A1138" s="3" t="s">
-        <v>7636</v>
+        <v>6505</v>
       </c>
       <c r="B1138" s="46" t="s">
-        <v>7637</v>
+        <v>5762</v>
       </c>
       <c r="C1138" s="41" t="s">
-        <v>7638</v>
+        <v>7437</v>
       </c>
       <c r="D1138" s="21" t="s">
-        <v>7639</v>
+        <v>2261</v>
       </c>
       <c r="E1138" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1138" s="21" t="s">
-        <v>7640</v>
+        <v>2262</v>
       </c>
       <c r="G1138" s="3" t="s">
-        <v>7641</v>
+        <v>2263</v>
       </c>
       <c r="I1138" s="3" t="s">
-        <v>7642</v>
+        <v>2264</v>
       </c>
       <c r="J1138" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1138" s="22" t="s">
-        <v>7643</v>
+        <v>2265</v>
       </c>
       <c r="L1138" s="22" t="s">
         <v>153</v>
+      </c>
+      <c r="M1138" t="s">
+        <v>313</v>
       </c>
       <c r="N1138" s="38" t="s">
         <v>2734</v>
       </c>
+      <c r="O1138" t="s">
+        <v>313</v>
+      </c>
       <c r="Q1138" t="s">
-        <v>7921</v>
+        <v>7920</v>
       </c>
       <c r="R1138" s="43">
-        <v>45602.4203935185</v>
+        <v>45591.506944444402</v>
       </c>
     </row>
     <row r="1139" spans="1:18">
       <c r="A1139" s="3" t="s">
-        <v>7644</v>
+        <v>7647</v>
       </c>
       <c r="B1139" s="46" t="s">
-        <v>7645</v>
+        <v>6918</v>
       </c>
       <c r="C1139" s="41" t="s">
-        <v>7646</v>
+        <v>7164</v>
       </c>
       <c r="D1139" s="21" t="s">
-        <v>7639</v>
+        <v>2855</v>
       </c>
       <c r="E1139" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F1139" s="21" t="s">
-        <v>7640</v>
+        <v>7783</v>
       </c>
       <c r="G1139" s="3" t="s">
-        <v>7641</v>
+        <v>2856</v>
       </c>
       <c r="I1139" s="3" t="s">
-        <v>7642</v>
+        <v>6919</v>
       </c>
       <c r="J1139" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1139" s="22" t="s">
-        <v>7643</v>
+        <v>2857</v>
       </c>
       <c r="L1139" s="22" t="s">
         <v>153</v>
       </c>
+      <c r="M1139" t="s">
+        <v>313</v>
+      </c>
       <c r="N1139" s="38" t="s">
-        <v>2734</v>
+        <v>5558</v>
+      </c>
+      <c r="O1139" t="s">
+        <v>313</v>
+      </c>
+      <c r="P1139" t="s">
+        <v>5282</v>
       </c>
       <c r="Q1139" t="s">
-        <v>7922</v>
+        <v>8154</v>
       </c>
       <c r="R1139" s="43">
-        <v>45602.422002314801</v>
+        <v>45634.650567129604</v>
       </c>
     </row>
     <row r="1140" spans="1:18">
       <c r="A1140" s="3" t="s">
-        <v>8160</v>
+        <v>7636</v>
       </c>
       <c r="B1140" s="46" t="s">
-        <v>8161</v>
+        <v>7637</v>
       </c>
       <c r="C1140" s="41" t="s">
-        <v>8172</v>
+        <v>7638</v>
       </c>
       <c r="D1140" s="21" t="s">
-        <v>8162</v>
+        <v>7639</v>
+      </c>
+      <c r="E1140" s="23" t="s">
+        <v>166</v>
       </c>
       <c r="F1140" s="21" t="s">
-        <v>8163</v>
+        <v>7640</v>
       </c>
       <c r="G1140" s="3" t="s">
-        <v>8164</v>
+        <v>7641</v>
       </c>
       <c r="I1140" s="3" t="s">
-        <v>164</v>
+        <v>7642</v>
       </c>
       <c r="J1140" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1140" s="22" t="s">
-        <v>8165</v>
+        <v>7643</v>
       </c>
       <c r="L1140" s="22" t="s">
         <v>153</v>
-      </c>
-      <c r="M1140" t="s">
-        <v>313</v>
       </c>
       <c r="N1140" s="38" t="s">
         <v>2734</v>
       </c>
-      <c r="O1140" t="s">
-        <v>313</v>
-      </c>
       <c r="Q1140" t="s">
-        <v>8183</v>
+        <v>7921</v>
       </c>
       <c r="R1140" s="43">
-        <v>45685.697800925896</v>
+        <v>45602.4203935185</v>
       </c>
     </row>
     <row r="1141" spans="1:18">
       <c r="A1141" s="3" t="s">
-        <v>8173</v>
+        <v>7644</v>
       </c>
       <c r="B1141" s="46" t="s">
-        <v>8166</v>
+        <v>7645</v>
       </c>
       <c r="C1141" s="41" t="s">
-        <v>8167</v>
+        <v>7646</v>
       </c>
       <c r="D1141" s="21" t="s">
-        <v>8168</v>
+        <v>7639</v>
       </c>
       <c r="E1141" s="23" t="s">
         <v>166</v>
       </c>
+      <c r="F1141" s="21" t="s">
+        <v>7640</v>
+      </c>
       <c r="G1141" s="3" t="s">
-        <v>8169</v>
+        <v>7641</v>
       </c>
       <c r="I1141" s="3" t="s">
-        <v>8170</v>
+        <v>7642</v>
       </c>
       <c r="J1141" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1141" s="22" t="s">
-        <v>8171</v>
+        <v>7643</v>
       </c>
       <c r="L1141" s="22" t="s">
         <v>153</v>
-      </c>
-      <c r="M1141" t="s">
-        <v>313</v>
       </c>
       <c r="N1141" s="38" t="s">
         <v>2734</v>
       </c>
-      <c r="O1141" t="s">
-        <v>313</v>
-      </c>
       <c r="Q1141" t="s">
-        <v>8182</v>
+        <v>7922</v>
       </c>
       <c r="R1141" s="43">
-        <v>45685.697476851798</v>
+        <v>45602.422002314801</v>
       </c>
     </row>
     <row r="1142" spans="1:18">
       <c r="A1142" s="3" t="s">
-        <v>8174</v>
+        <v>8160</v>
       </c>
       <c r="B1142" s="46" t="s">
-        <v>8175</v>
+        <v>8161</v>
       </c>
       <c r="C1142" s="41" t="s">
-        <v>8176</v>
+        <v>8172</v>
       </c>
       <c r="D1142" s="21" t="s">
-        <v>8177</v>
-      </c>
-      <c r="E1142" s="23" t="s">
-        <v>165</v>
+        <v>8162</v>
+      </c>
+      <c r="F1142" s="21" t="s">
+        <v>8163</v>
       </c>
       <c r="G1142" s="3" t="s">
-        <v>8178</v>
+        <v>8164</v>
       </c>
       <c r="I1142" s="3" t="s">
-        <v>8179</v>
+        <v>164</v>
       </c>
       <c r="J1142" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1142" s="22" t="s">
-        <v>8180</v>
+        <v>8165</v>
       </c>
       <c r="L1142" s="22" t="s">
         <v>153</v>
@@ -74156,36 +74150,39 @@
         <v>313</v>
       </c>
       <c r="Q1142" t="s">
-        <v>8181</v>
+        <v>8183</v>
       </c>
       <c r="R1142" s="43">
-        <v>45685.697141203702</v>
+        <v>45685.697800925896</v>
       </c>
     </row>
     <row r="1143" spans="1:18">
       <c r="A1143" s="3" t="s">
-        <v>8184</v>
+        <v>8173</v>
       </c>
       <c r="B1143" s="46" t="s">
-        <v>8185</v>
+        <v>8166</v>
       </c>
       <c r="C1143" s="41" t="s">
-        <v>8186</v>
+        <v>8167</v>
       </c>
       <c r="D1143" s="21" t="s">
-        <v>8177</v>
+        <v>8168</v>
+      </c>
+      <c r="E1143" s="23" t="s">
+        <v>166</v>
       </c>
       <c r="G1143" s="3" t="s">
-        <v>8187</v>
+        <v>8169</v>
       </c>
       <c r="I1143" s="3" t="s">
-        <v>4557</v>
+        <v>8170</v>
       </c>
       <c r="J1143" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1143" s="22" t="s">
-        <v>4558</v>
+        <v>8171</v>
       </c>
       <c r="L1143" s="22" t="s">
         <v>153</v>
@@ -74193,81 +74190,90 @@
       <c r="M1143" t="s">
         <v>313</v>
       </c>
+      <c r="N1143" s="38" t="s">
+        <v>2734</v>
+      </c>
       <c r="O1143" t="s">
         <v>313</v>
       </c>
       <c r="Q1143" t="s">
-        <v>8188</v>
+        <v>8182</v>
       </c>
       <c r="R1143" s="43">
-        <v>45686.720590277801</v>
+        <v>45685.697476851798</v>
       </c>
     </row>
     <row r="1144" spans="1:18">
       <c r="A1144" s="3" t="s">
-        <v>8264</v>
+        <v>8174</v>
       </c>
       <c r="B1144" s="46" t="s">
-        <v>8217</v>
+        <v>8175</v>
+      </c>
+      <c r="C1144" s="41" t="s">
+        <v>8176</v>
       </c>
       <c r="D1144" s="21" t="s">
-        <v>8218</v>
+        <v>8177</v>
       </c>
       <c r="E1144" s="23" t="s">
-        <v>8219</v>
-      </c>
-      <c r="F1144" s="21" t="s">
-        <v>8220</v>
+        <v>165</v>
       </c>
       <c r="G1144" s="3" t="s">
-        <v>8265</v>
+        <v>8178</v>
       </c>
       <c r="I1144" s="3" t="s">
-        <v>8266</v>
+        <v>8179</v>
       </c>
       <c r="J1144" s="22" t="s">
-        <v>8267</v>
+        <v>563</v>
       </c>
       <c r="K1144" s="22" t="s">
-        <v>8268</v>
+        <v>8180</v>
+      </c>
+      <c r="L1144" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="M1144" t="s">
-        <v>8221</v>
+        <v>313</v>
+      </c>
+      <c r="N1144" s="38" t="s">
+        <v>2734</v>
+      </c>
+      <c r="O1144" t="s">
+        <v>313</v>
       </c>
       <c r="Q1144" t="s">
-        <v>8264</v>
+        <v>8181</v>
       </c>
       <c r="R1144" s="43">
-        <v>45704.650717592602</v>
+        <v>45685.697141203702</v>
       </c>
     </row>
     <row r="1145" spans="1:18">
       <c r="A1145" s="3" t="s">
-        <v>8342</v>
+        <v>8184</v>
       </c>
       <c r="B1145" s="46" t="s">
-        <v>8343</v>
+        <v>8185</v>
       </c>
       <c r="C1145" s="41" t="s">
-        <v>8344</v>
+        <v>8186</v>
       </c>
       <c r="D1145" s="21" t="s">
-        <v>8345</v>
-      </c>
-      <c r="F1145" s="21" t="s">
-        <v>8346</v>
+        <v>8177</v>
       </c>
       <c r="G1145" s="3" t="s">
-        <v>8347</v>
+        <v>8187</v>
       </c>
       <c r="I1145" s="3" t="s">
-        <v>2433</v>
+        <v>4557</v>
       </c>
       <c r="J1145" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1145" s="22" t="s">
-        <v>8348</v>
+        <v>4558</v>
       </c>
       <c r="L1145" s="22" t="s">
         <v>153</v>
@@ -74275,449 +74281,440 @@
       <c r="M1145" t="s">
         <v>313</v>
       </c>
-      <c r="N1145" s="38" t="s">
-        <v>5736</v>
-      </c>
       <c r="O1145" t="s">
         <v>313</v>
       </c>
       <c r="Q1145" t="s">
-        <v>8349</v>
+        <v>8188</v>
       </c>
       <c r="R1145" s="43">
-        <v>45771.699247685203</v>
+        <v>45686.720590277801</v>
       </c>
     </row>
     <row r="1146" spans="1:18">
       <c r="A1146" s="3" t="s">
-        <v>8231</v>
+        <v>8264</v>
       </c>
       <c r="B1146" s="46" t="s">
-        <v>51</v>
+        <v>8217</v>
+      </c>
+      <c r="D1146" s="21" t="s">
+        <v>8218</v>
+      </c>
+      <c r="E1146" s="23" t="s">
+        <v>8219</v>
+      </c>
+      <c r="F1146" s="21" t="s">
+        <v>8220</v>
+      </c>
+      <c r="G1146" s="3" t="s">
+        <v>8265</v>
+      </c>
+      <c r="I1146" s="3" t="s">
+        <v>8266</v>
+      </c>
+      <c r="J1146" s="22" t="s">
+        <v>8267</v>
+      </c>
+      <c r="K1146" s="22" t="s">
+        <v>8268</v>
+      </c>
+      <c r="M1146" t="s">
+        <v>8221</v>
       </c>
       <c r="Q1146" t="s">
-        <v>8231</v>
+        <v>8264</v>
       </c>
       <c r="R1146" s="43">
-        <v>45716.706921296303</v>
+        <v>45704.650717592602</v>
       </c>
     </row>
     <row r="1147" spans="1:18">
       <c r="A1147" s="3" t="s">
-        <v>8288</v>
+        <v>8342</v>
       </c>
       <c r="B1147" s="46" t="s">
-        <v>92</v>
+        <v>8343</v>
+      </c>
+      <c r="C1147" s="41" t="s">
+        <v>8344</v>
       </c>
       <c r="D1147" s="21" t="s">
-        <v>8218</v>
-      </c>
-      <c r="E1147" s="23" t="s">
-        <v>8219</v>
+        <v>8345</v>
       </c>
       <c r="F1147" s="21" t="s">
-        <v>8220</v>
+        <v>8346</v>
       </c>
       <c r="G1147" s="3" t="s">
-        <v>8265</v>
+        <v>8347</v>
       </c>
       <c r="I1147" s="3" t="s">
-        <v>8266</v>
+        <v>2433</v>
       </c>
       <c r="J1147" s="22" t="s">
-        <v>8267</v>
+        <v>563</v>
       </c>
       <c r="K1147" s="22" t="s">
-        <v>8268</v>
+        <v>8348</v>
+      </c>
+      <c r="L1147" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="M1147" t="s">
-        <v>8221</v>
+        <v>313</v>
+      </c>
+      <c r="N1147" s="38" t="s">
+        <v>5736</v>
+      </c>
+      <c r="O1147" t="s">
+        <v>313</v>
       </c>
       <c r="Q1147" t="s">
-        <v>8264</v>
+        <v>8349</v>
+      </c>
+      <c r="R1147" s="43">
+        <v>45771.699247685203</v>
       </c>
     </row>
     <row r="1148" spans="1:18">
       <c r="A1148" s="3" t="s">
-        <v>8283</v>
+        <v>8231</v>
       </c>
       <c r="B1148" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1148" s="41" t="s">
-        <v>8284</v>
-      </c>
-      <c r="D1148" s="21" t="s">
-        <v>8285</v>
-      </c>
-      <c r="F1148" s="21" t="s">
-        <v>8286</v>
-      </c>
-      <c r="G1148" s="3" t="s">
-        <v>8287</v>
-      </c>
-      <c r="I1148" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J1148" s="22" t="s">
-        <v>563</v>
+        <v>51</v>
       </c>
       <c r="Q1148" t="s">
-        <v>8283</v>
+        <v>8231</v>
+      </c>
+      <c r="R1148" s="43">
+        <v>45716.706921296303</v>
       </c>
     </row>
     <row r="1149" spans="1:18">
       <c r="A1149" s="3" t="s">
-        <v>8289</v>
+        <v>8288</v>
       </c>
       <c r="B1149" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1149" s="41" t="s">
-        <v>8290</v>
+        <v>92</v>
       </c>
       <c r="D1149" s="21" t="s">
-        <v>8291</v>
+        <v>8218</v>
+      </c>
+      <c r="E1149" s="23" t="s">
+        <v>8219</v>
       </c>
       <c r="F1149" s="21" t="s">
-        <v>8292</v>
+        <v>8220</v>
+      </c>
+      <c r="G1149" s="3" t="s">
+        <v>8265</v>
+      </c>
+      <c r="I1149" s="3" t="s">
+        <v>8266</v>
+      </c>
+      <c r="J1149" s="22" t="s">
+        <v>8267</v>
+      </c>
+      <c r="K1149" s="22" t="s">
+        <v>8268</v>
       </c>
       <c r="M1149" t="s">
-        <v>8284</v>
+        <v>8221</v>
       </c>
       <c r="Q1149" t="s">
-        <v>8293</v>
-      </c>
-      <c r="R1149" s="43">
-        <v>45732.587546296301</v>
+        <v>8264</v>
       </c>
     </row>
     <row r="1150" spans="1:18">
       <c r="A1150" s="3" t="s">
-        <v>8294</v>
+        <v>8283</v>
       </c>
       <c r="B1150" s="46" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C1150" s="41" t="s">
-        <v>8295</v>
+        <v>8284</v>
       </c>
       <c r="D1150" s="21" t="s">
-        <v>8295</v>
-      </c>
-      <c r="E1150" s="23" t="s">
-        <v>167</v>
+        <v>8285</v>
       </c>
       <c r="F1150" s="21" t="s">
-        <v>8296</v>
+        <v>8286</v>
+      </c>
+      <c r="G1150" s="3" t="s">
+        <v>8287</v>
+      </c>
+      <c r="I1150" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1150" s="22" t="s">
+        <v>563</v>
       </c>
       <c r="Q1150" t="s">
-        <v>8294</v>
-      </c>
-      <c r="R1150" s="43">
-        <v>45738.6483449074</v>
+        <v>8283</v>
       </c>
     </row>
     <row r="1151" spans="1:18">
       <c r="A1151" s="3" t="s">
-        <v>8297</v>
+        <v>8289</v>
       </c>
       <c r="B1151" s="46" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C1151" s="41" t="s">
-        <v>8297</v>
+        <v>8290</v>
       </c>
       <c r="D1151" s="21" t="s">
-        <v>8297</v>
+        <v>8291</v>
       </c>
       <c r="F1151" s="21" t="s">
-        <v>8298</v>
+        <v>8292</v>
+      </c>
+      <c r="M1151" t="s">
+        <v>8284</v>
       </c>
       <c r="Q1151" t="s">
-        <v>8297</v>
+        <v>8293</v>
       </c>
       <c r="R1151" s="43">
-        <v>45743.487731481502</v>
+        <v>45732.587546296301</v>
       </c>
     </row>
     <row r="1152" spans="1:18">
       <c r="A1152" s="3" t="s">
-        <v>8391</v>
+        <v>8294</v>
       </c>
       <c r="B1152" s="46" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C1152" s="41" t="s">
-        <v>8392</v>
+        <v>8295</v>
       </c>
       <c r="D1152" s="21" t="s">
-        <v>8393</v>
+        <v>8295</v>
+      </c>
+      <c r="E1152" s="23" t="s">
+        <v>167</v>
       </c>
       <c r="F1152" s="21" t="s">
-        <v>8394</v>
-      </c>
-      <c r="G1152" s="3" t="s">
-        <v>8395</v>
-      </c>
-      <c r="I1152" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1152" s="22" t="s">
-        <v>563</v>
-      </c>
-      <c r="K1152" s="22" t="s">
-        <v>4016</v>
+        <v>8296</v>
       </c>
       <c r="Q1152" t="s">
-        <v>8391</v>
+        <v>8294</v>
       </c>
       <c r="R1152" s="43">
-        <v>45784.950891203698</v>
+        <v>45738.6483449074</v>
       </c>
     </row>
     <row r="1153" spans="1:18">
       <c r="A1153" s="3" t="s">
-        <v>8396</v>
+        <v>8297</v>
       </c>
       <c r="B1153" s="46" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C1153" s="41" t="s">
-        <v>8397</v>
+        <v>8297</v>
       </c>
       <c r="D1153" s="21" t="s">
-        <v>8398</v>
+        <v>8297</v>
       </c>
       <c r="F1153" s="21" t="s">
-        <v>8398</v>
-      </c>
-      <c r="G1153" s="3" t="s">
-        <v>8399</v>
-      </c>
-      <c r="I1153" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J1153" s="22" t="s">
-        <v>563</v>
-      </c>
-      <c r="K1153" s="22" t="s">
-        <v>8400</v>
+        <v>8298</v>
       </c>
       <c r="Q1153" t="s">
-        <v>8396</v>
+        <v>8297</v>
       </c>
       <c r="R1153" s="43">
-        <v>45784.950520833299</v>
+        <v>45743.487731481502</v>
       </c>
     </row>
     <row r="1154" spans="1:18">
       <c r="A1154" s="3" t="s">
-        <v>8406</v>
+        <v>8391</v>
       </c>
       <c r="B1154" s="46" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1154" s="41" t="s">
-        <v>8407</v>
+        <v>8392</v>
       </c>
       <c r="D1154" s="21" t="s">
-        <v>8408</v>
+        <v>8393</v>
       </c>
       <c r="F1154" s="21" t="s">
-        <v>8409</v>
+        <v>8394</v>
       </c>
       <c r="G1154" s="3" t="s">
-        <v>8411</v>
+        <v>8395</v>
       </c>
       <c r="I1154" s="3" t="s">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="J1154" s="22" t="s">
         <v>563</v>
       </c>
       <c r="K1154" s="22" t="s">
-        <v>8412</v>
-      </c>
-      <c r="M1154" s="25" t="s">
-        <v>8410</v>
-      </c>
-      <c r="N1154" s="24"/>
-      <c r="O1154" s="25"/>
-      <c r="P1154" s="25"/>
-      <c r="Q1154" s="25" t="s">
-        <v>8406</v>
+        <v>4016</v>
+      </c>
+      <c r="Q1154" t="s">
+        <v>8391</v>
       </c>
       <c r="R1154" s="43">
-        <v>45785.929756944402</v>
+        <v>45784.950891203698</v>
       </c>
     </row>
     <row r="1155" spans="1:18">
       <c r="A1155" s="3" t="s">
+        <v>8396</v>
+      </c>
+      <c r="B1155" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1155" s="41" t="s">
+        <v>8397</v>
+      </c>
+      <c r="D1155" s="21" t="s">
+        <v>8398</v>
+      </c>
+      <c r="F1155" s="21" t="s">
+        <v>8398</v>
+      </c>
+      <c r="G1155" s="3" t="s">
+        <v>8399</v>
+      </c>
+      <c r="I1155" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1155" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1155" s="22" t="s">
+        <v>8400</v>
+      </c>
+      <c r="Q1155" t="s">
+        <v>8396</v>
+      </c>
+      <c r="R1155" s="43">
+        <v>45784.950520833299</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:18">
+      <c r="A1156" s="3" t="s">
+        <v>8406</v>
+      </c>
+      <c r="B1156" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1156" s="41" t="s">
+        <v>8407</v>
+      </c>
+      <c r="D1156" s="21" t="s">
+        <v>8408</v>
+      </c>
+      <c r="F1156" s="21" t="s">
+        <v>8409</v>
+      </c>
+      <c r="G1156" s="3" t="s">
+        <v>8411</v>
+      </c>
+      <c r="I1156" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1156" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1156" s="22" t="s">
+        <v>8412</v>
+      </c>
+      <c r="M1156" s="25" t="s">
+        <v>8410</v>
+      </c>
+      <c r="N1156" s="24"/>
+      <c r="O1156" s="25"/>
+      <c r="P1156" s="25"/>
+      <c r="Q1156" s="25" t="s">
+        <v>8406</v>
+      </c>
+      <c r="R1156" s="43">
+        <v>45785.929756944402</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:18">
+      <c r="A1157" s="3" t="s">
         <v>8446</v>
       </c>
-      <c r="B1155" s="46" t="s">
+      <c r="B1157" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C1155" s="41" t="s">
+      <c r="C1157" s="41" t="s">
         <v>8447</v>
       </c>
-      <c r="E1155" s="23" t="s">
+      <c r="E1157" s="23" t="s">
         <v>6080</v>
       </c>
-      <c r="F1155" s="21" t="s">
+      <c r="F1157" s="21" t="s">
         <v>8448</v>
       </c>
-      <c r="G1155" s="3" t="s">
+      <c r="G1157" s="3" t="s">
         <v>8449</v>
       </c>
-      <c r="I1155" s="3" t="s">
+      <c r="I1157" s="3" t="s">
         <v>8266</v>
       </c>
-      <c r="J1155" s="22" t="s">
+      <c r="J1157" s="22" t="s">
         <v>8267</v>
       </c>
-      <c r="K1155" s="22" t="s">
+      <c r="K1157" s="22" t="s">
         <v>8450</v>
       </c>
-      <c r="M1155" s="25"/>
-      <c r="N1155" s="24"/>
-      <c r="O1155" s="25"/>
-      <c r="P1155" s="25"/>
-      <c r="Q1155" s="25" t="s">
+      <c r="M1157" s="25"/>
+      <c r="N1157" s="24"/>
+      <c r="O1157" s="25"/>
+      <c r="P1157" s="25"/>
+      <c r="Q1157" s="25" t="s">
         <v>8446</v>
       </c>
-      <c r="R1155" s="43">
+      <c r="R1157" s="43">
         <v>45798.954733796301</v>
       </c>
     </row>
-    <row r="1156" spans="1:18">
-      <c r="A1156" s="31" t="s">
-        <v>8464</v>
-      </c>
-      <c r="B1156" s="31" t="s">
-        <v>8465</v>
-      </c>
-      <c r="C1156" s="31" t="s">
-        <v>8466</v>
-      </c>
-      <c r="D1156" s="31" t="s">
-        <v>8467</v>
-      </c>
-      <c r="E1156" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1156" s="31" t="s">
-        <v>8468</v>
-      </c>
-      <c r="G1156" s="31" t="s">
-        <v>8469</v>
-      </c>
-      <c r="I1156" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="J1156" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="K1156" s="31" t="s">
-        <v>8470</v>
-      </c>
-      <c r="L1156" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1156" s="31" t="s">
-        <v>3669</v>
-      </c>
-      <c r="Q1156" s="31" t="s">
-        <v>8464</v>
-      </c>
-      <c r="R1156" s="47">
-        <v>45811.523356481499</v>
-      </c>
-    </row>
-    <row r="1157" spans="1:18">
-      <c r="A1157" s="31" t="s">
-        <v>8471</v>
-      </c>
-      <c r="B1157" s="31" t="s">
-        <v>8472</v>
-      </c>
-      <c r="C1157" s="31" t="s">
-        <v>8473</v>
-      </c>
-      <c r="D1157" s="31" t="s">
-        <v>8474</v>
-      </c>
-      <c r="E1157" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1157" s="31" t="s">
-        <v>8475</v>
-      </c>
-      <c r="G1157" s="31" t="s">
-        <v>8476</v>
-      </c>
-      <c r="I1157" s="31" t="s">
-        <v>8477</v>
-      </c>
-      <c r="J1157" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="K1157" s="31" t="s">
-        <v>881</v>
-      </c>
-      <c r="L1157" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1157" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="P1157" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q1157" s="31" t="s">
-        <v>8471</v>
-      </c>
-      <c r="R1157" s="47">
-        <v>45811.709606481498</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:R1148" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1152:R1154">
-    <sortCondition ref="B1152:B1154"/>
+  <autoFilter ref="A1:R1150" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1154:R1156">
+    <sortCondition ref="B1154:B1156"/>
   </sortState>
-  <conditionalFormatting sqref="A2:R1155">
+  <conditionalFormatting sqref="A2:R1157">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F1136" r:id="rId1" xr:uid="{F456DE86-0DC4-459B-8786-AEB12C0F36B0}"/>
-    <hyperlink ref="F1135" r:id="rId2" xr:uid="{A987B60B-629E-450A-AFE5-A7284329CD96}"/>
-    <hyperlink ref="F1134" r:id="rId3" xr:uid="{BDA96C0A-370D-46F7-82B7-86D5AE155E9F}"/>
-    <hyperlink ref="F1133" r:id="rId4" xr:uid="{E0EF30A2-FEE8-48F7-905E-3DCEE9D90336}"/>
-    <hyperlink ref="F1132" r:id="rId5" xr:uid="{F5EE9F94-288C-4D35-98F2-B7DF314331DE}"/>
-    <hyperlink ref="F1131" r:id="rId6" xr:uid="{A71B48CB-C499-456A-8FFD-47EFE60A828E}"/>
-    <hyperlink ref="F1130" r:id="rId7" xr:uid="{AF04FF5C-ADCA-44DC-B3B2-A425FC0DCFD9}"/>
-    <hyperlink ref="F1129" r:id="rId8" xr:uid="{F55EAFC5-5519-4A1F-80D4-95B4D202FE38}"/>
-    <hyperlink ref="F1128" r:id="rId9" xr:uid="{5FE20200-FB86-452E-8BE1-863A3C65BD07}"/>
-    <hyperlink ref="F1127" r:id="rId10" xr:uid="{8F88B4B6-197E-4940-B572-1769D2C402A3}"/>
-    <hyperlink ref="F1126" r:id="rId11" xr:uid="{DACEA89F-4573-408A-AA3D-AAFC4DF8DB2E}"/>
-    <hyperlink ref="F1125" r:id="rId12" xr:uid="{BF25E2D2-8541-4371-99B7-17A8B86CC8F6}"/>
-    <hyperlink ref="F1124" r:id="rId13" xr:uid="{57CD897B-E530-431D-A4B5-59D9C0F63217}"/>
-    <hyperlink ref="F1123" r:id="rId14" xr:uid="{CEEE77DB-0464-4890-9DA6-629F365AAC93}"/>
-    <hyperlink ref="F1122" r:id="rId15" xr:uid="{D183A8CF-2618-4DDD-8523-A347B0789735}"/>
-    <hyperlink ref="F1121" r:id="rId16" xr:uid="{B44DC245-3939-4FC4-B86F-7F55F80E20F1}"/>
-    <hyperlink ref="F1120" r:id="rId17" xr:uid="{77BEB31C-67F9-4892-974A-C42D173ACEC7}"/>
-    <hyperlink ref="F1119" r:id="rId18" xr:uid="{802015E0-18C1-4D8F-BD48-60606EF00558}"/>
-    <hyperlink ref="F1118" r:id="rId19" xr:uid="{185AA3D8-0081-42DB-B36C-3B1B4DF6AE78}"/>
-    <hyperlink ref="F1117" r:id="rId20" xr:uid="{C92F0FF0-F014-47C6-8A1D-37500F8CB37C}"/>
-    <hyperlink ref="F1116" r:id="rId21" xr:uid="{A79E531F-E421-48DC-B313-0C433AA33C66}"/>
-    <hyperlink ref="F1115" r:id="rId22" xr:uid="{CF6C1299-30F9-427A-9C11-CDEF3096DB13}"/>
-    <hyperlink ref="F1114" r:id="rId23" xr:uid="{B0ED86D2-3643-405A-B6A7-581D3F444E88}"/>
-    <hyperlink ref="F1113" r:id="rId24" xr:uid="{3643C6A3-6F1E-403F-B5BD-A7251D505F5B}"/>
-    <hyperlink ref="F1111" r:id="rId25" xr:uid="{0E92FFCB-F966-4697-91BE-A3130C1CAE25}"/>
+    <hyperlink ref="F1138" r:id="rId1" xr:uid="{F456DE86-0DC4-459B-8786-AEB12C0F36B0}"/>
+    <hyperlink ref="F1137" r:id="rId2" xr:uid="{A987B60B-629E-450A-AFE5-A7284329CD96}"/>
+    <hyperlink ref="F1136" r:id="rId3" xr:uid="{BDA96C0A-370D-46F7-82B7-86D5AE155E9F}"/>
+    <hyperlink ref="F1135" r:id="rId4" xr:uid="{E0EF30A2-FEE8-48F7-905E-3DCEE9D90336}"/>
+    <hyperlink ref="F1134" r:id="rId5" xr:uid="{F5EE9F94-288C-4D35-98F2-B7DF314331DE}"/>
+    <hyperlink ref="F1133" r:id="rId6" xr:uid="{A71B48CB-C499-456A-8FFD-47EFE60A828E}"/>
+    <hyperlink ref="F1132" r:id="rId7" xr:uid="{AF04FF5C-ADCA-44DC-B3B2-A425FC0DCFD9}"/>
+    <hyperlink ref="F1131" r:id="rId8" xr:uid="{F55EAFC5-5519-4A1F-80D4-95B4D202FE38}"/>
+    <hyperlink ref="F1130" r:id="rId9" xr:uid="{5FE20200-FB86-452E-8BE1-863A3C65BD07}"/>
+    <hyperlink ref="F1129" r:id="rId10" xr:uid="{8F88B4B6-197E-4940-B572-1769D2C402A3}"/>
+    <hyperlink ref="F1128" r:id="rId11" xr:uid="{DACEA89F-4573-408A-AA3D-AAFC4DF8DB2E}"/>
+    <hyperlink ref="F1127" r:id="rId12" xr:uid="{BF25E2D2-8541-4371-99B7-17A8B86CC8F6}"/>
+    <hyperlink ref="F1126" r:id="rId13" xr:uid="{57CD897B-E530-431D-A4B5-59D9C0F63217}"/>
+    <hyperlink ref="F1125" r:id="rId14" xr:uid="{CEEE77DB-0464-4890-9DA6-629F365AAC93}"/>
+    <hyperlink ref="F1124" r:id="rId15" xr:uid="{D183A8CF-2618-4DDD-8523-A347B0789735}"/>
+    <hyperlink ref="F1123" r:id="rId16" xr:uid="{B44DC245-3939-4FC4-B86F-7F55F80E20F1}"/>
+    <hyperlink ref="F1122" r:id="rId17" xr:uid="{77BEB31C-67F9-4892-974A-C42D173ACEC7}"/>
+    <hyperlink ref="F1121" r:id="rId18" xr:uid="{802015E0-18C1-4D8F-BD48-60606EF00558}"/>
+    <hyperlink ref="F1120" r:id="rId19" xr:uid="{185AA3D8-0081-42DB-B36C-3B1B4DF6AE78}"/>
+    <hyperlink ref="F1119" r:id="rId20" xr:uid="{C92F0FF0-F014-47C6-8A1D-37500F8CB37C}"/>
+    <hyperlink ref="F1118" r:id="rId21" xr:uid="{A79E531F-E421-48DC-B313-0C433AA33C66}"/>
+    <hyperlink ref="F1117" r:id="rId22" xr:uid="{CF6C1299-30F9-427A-9C11-CDEF3096DB13}"/>
+    <hyperlink ref="F1116" r:id="rId23" xr:uid="{B0ED86D2-3643-405A-B6A7-581D3F444E88}"/>
+    <hyperlink ref="F1115" r:id="rId24" xr:uid="{3643C6A3-6F1E-403F-B5BD-A7251D505F5B}"/>
+    <hyperlink ref="F1113" r:id="rId25" xr:uid="{0E92FFCB-F966-4697-91BE-A3130C1CAE25}"/>
     <hyperlink ref="F373" r:id="rId26" xr:uid="{B4AE46D0-0113-43B5-920F-41BAD7FB12F3}"/>
     <hyperlink ref="F360" r:id="rId27" xr:uid="{6A53CFF1-B4AE-4894-AF74-B4B080E1676D}"/>
     <hyperlink ref="F357" r:id="rId28" xr:uid="{FC91B321-7F3C-4B7C-978D-FF322BE215D6}"/>

--- a/DataFiles/GCF_BD_Entrée.xlsx
+++ b/DataFiles/GCF_BD_Entrée.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29B4762-5DEB-4268-BE3B-7AA24746DF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BF78CA-AB5B-4055-A554-EA2045932C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11385" xr2:uid="{1149FE03-DBFD-48E8-9634-6F1E7CDFC6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14871" uniqueCount="8478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14914" uniqueCount="8500">
   <si>
     <t>GL_ID</t>
   </si>
@@ -25476,6 +25476,72 @@
   </si>
   <si>
     <t>Saint-Roch-del'Achigan</t>
+  </si>
+  <si>
+    <t>Gépercom Inc. [Joanny Théberge]</t>
+  </si>
+  <si>
+    <t>1835</t>
+  </si>
+  <si>
+    <t>Gépercom Inc.</t>
+  </si>
+  <si>
+    <t>Joanny Théberge</t>
+  </si>
+  <si>
+    <t>jtheberge@planipret.com</t>
+  </si>
+  <si>
+    <t>12 Place Nelson</t>
+  </si>
+  <si>
+    <t>J6A 3V3</t>
+  </si>
+  <si>
+    <t>Alliance Lambert Inc. [Sébastien Lambert]</t>
+  </si>
+  <si>
+    <t>1836</t>
+  </si>
+  <si>
+    <t>Lessard CPA Inc.</t>
+  </si>
+  <si>
+    <t>Sébastien Lambert</t>
+  </si>
+  <si>
+    <t>200 ch. de la Grande-Carrière</t>
+  </si>
+  <si>
+    <t>J5V 2J7</t>
+  </si>
+  <si>
+    <t>Alliance Lambert Inc. [Sébastien Lambert] Lessard</t>
+  </si>
+  <si>
+    <t>RP Métal Inc. [René Paquin]</t>
+  </si>
+  <si>
+    <t>1837</t>
+  </si>
+  <si>
+    <t>René Paquin</t>
+  </si>
+  <si>
+    <t>rpmetal@hotmail.com</t>
+  </si>
+  <si>
+    <t>1720 rang des Chutes</t>
+  </si>
+  <si>
+    <t>Saint-Ursule</t>
+  </si>
+  <si>
+    <t>J)K 3M0</t>
+  </si>
+  <si>
+    <t>RP Métal Inc. [René Paquin] Lessard</t>
   </si>
 </sst>
 </file>
@@ -25711,7 +25777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -25836,6 +25902,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -26177,7 +26246,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A0F7D9-502A-4056-B648-6EA13DB3BC6F}">
   <sheetPr codeName="wshClients"/>
-  <dimension ref="A1:R1157"/>
+  <dimension ref="A1:R1160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A1101" activePane="bottomLeft" state="frozen"/>
@@ -74677,6 +74746,150 @@
       </c>
       <c r="R1157" s="43">
         <v>45798.954733796301</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:18">
+      <c r="A1158" s="31" t="s">
+        <v>8478</v>
+      </c>
+      <c r="B1158" s="31" t="s">
+        <v>8479</v>
+      </c>
+      <c r="C1158" s="31" t="s">
+        <v>8480</v>
+      </c>
+      <c r="D1158" s="31" t="s">
+        <v>8481</v>
+      </c>
+      <c r="F1158" s="31" t="s">
+        <v>8482</v>
+      </c>
+      <c r="G1158" s="31" t="s">
+        <v>8483</v>
+      </c>
+      <c r="I1158" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1158" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1158" s="31" t="s">
+        <v>8484</v>
+      </c>
+      <c r="L1158" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1158" s="31" t="s">
+        <v>740</v>
+      </c>
+      <c r="N1158" s="31" t="s">
+        <v>5736</v>
+      </c>
+      <c r="O1158" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q1158" s="31" t="s">
+        <v>8478</v>
+      </c>
+      <c r="R1158" s="47">
+        <v>45817.529340277797</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:18">
+      <c r="A1159" s="31" t="s">
+        <v>8485</v>
+      </c>
+      <c r="B1159" s="31" t="s">
+        <v>8486</v>
+      </c>
+      <c r="C1159" s="31" t="s">
+        <v>8487</v>
+      </c>
+      <c r="D1159" s="31" t="s">
+        <v>8488</v>
+      </c>
+      <c r="E1159" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1159" s="31" t="s">
+        <v>8489</v>
+      </c>
+      <c r="I1159" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="J1159" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1159" s="31" t="s">
+        <v>8490</v>
+      </c>
+      <c r="L1159" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1159" s="31" t="s">
+        <v>8487</v>
+      </c>
+      <c r="N1159" s="31" t="s">
+        <v>5737</v>
+      </c>
+      <c r="O1159" s="31" t="s">
+        <v>8487</v>
+      </c>
+      <c r="Q1159" s="31" t="s">
+        <v>8491</v>
+      </c>
+      <c r="R1159" s="47">
+        <v>45817.537696759297</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:18">
+      <c r="A1160" s="31" t="s">
+        <v>8492</v>
+      </c>
+      <c r="B1160" s="31" t="s">
+        <v>8493</v>
+      </c>
+      <c r="C1160" s="31" t="s">
+        <v>8487</v>
+      </c>
+      <c r="D1160" s="31" t="s">
+        <v>8494</v>
+      </c>
+      <c r="E1160" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1160" s="31" t="s">
+        <v>8495</v>
+      </c>
+      <c r="G1160" s="31" t="s">
+        <v>8496</v>
+      </c>
+      <c r="I1160" s="31" t="s">
+        <v>8497</v>
+      </c>
+      <c r="J1160" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1160" s="31" t="s">
+        <v>8498</v>
+      </c>
+      <c r="L1160" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1160" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1160" s="31" t="s">
+        <v>5752</v>
+      </c>
+      <c r="O1160" s="31" t="s">
+        <v>8487</v>
+      </c>
+      <c r="Q1160" s="31" t="s">
+        <v>8499</v>
+      </c>
+      <c r="R1160" s="47">
+        <v>45817.626562500001</v>
       </c>
     </row>
   </sheetData>
